--- a/Database/Serie de Equity Risk Premium.xlsx
+++ b/Database/Serie de Equity Risk Premium.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EQUITY RISK PREMIUM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ERP\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A1FC24-1D46-402A-B5C2-4C486FF094EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -128,7 +129,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -199,7 +200,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -263,10 +263,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Planilha1!$A$2:$A$337</c:f>
+              <c:f>Planilha1!$A$2:$A$338</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="336"/>
+                <c:ptCount val="337"/>
                 <c:pt idx="0">
                   <c:v>34700</c:v>
                 </c:pt>
@@ -1274,16 +1274,19 @@
                 </c:pt>
                 <c:pt idx="335">
                   <c:v>44896</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>44927</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$B$2:$B$337</c:f>
+              <c:f>Planilha1!$B$2:$B$338</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="336"/>
+                <c:ptCount val="337"/>
                 <c:pt idx="0">
                   <c:v>3.5906071097335332E-2</c:v>
                 </c:pt>
@@ -2291,6 +2294,9 @@
                 </c:pt>
                 <c:pt idx="335">
                   <c:v>0.1172183756433729</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>0.112566</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3037,7 +3043,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3317,10 +3329,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:RX337"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:RX338"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W13" sqref="W13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16650,6 +16664,14 @@
         <v>0.1172183756433729</v>
       </c>
     </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" s="10">
+        <v>44927</v>
+      </c>
+      <c r="B338" s="9">
+        <v>0.112566</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16658,6 +16680,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100FF602FB71C72A040B83BAD34EB50244A" ma:contentTypeVersion="13" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="ecb216dc5589f7bce5d8d0d60e90dc0d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="807d706a-80d8-4f03-8ed4-ece1162c7e44" xmlns:ns4="ea144f7f-7cb8-4e40-aa15-78233897bd5c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8b5314697a99cd150715f13355001d93" ns3:_="" ns4:_="">
     <xsd:import namespace="807d706a-80d8-4f03-8ed4-ece1162c7e44"/>
@@ -16880,36 +16917,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E376484F-D910-4B39-9F72-4143D5D135A3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EB3165A-A967-440B-92EF-0ADCFAB0BB15}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="807d706a-80d8-4f03-8ed4-ece1162c7e44"/>
-    <ds:schemaRef ds:uri="ea144f7f-7cb8-4e40-aa15-78233897bd5c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -16932,9 +16943,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EB3165A-A967-440B-92EF-0ADCFAB0BB15}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E376484F-D910-4B39-9F72-4143D5D135A3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="807d706a-80d8-4f03-8ed4-ece1162c7e44"/>
+    <ds:schemaRef ds:uri="ea144f7f-7cb8-4e40-aa15-78233897bd5c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Database/Serie de Equity Risk Premium.xlsx
+++ b/Database/Serie de Equity Risk Premium.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ERP\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A1FC24-1D46-402A-B5C2-4C486FF094EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BB9243-AB5E-4597-B179-C2B767B6BCFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -263,10 +263,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Planilha1!$A$2:$A$338</c:f>
+              <c:f>Planilha1!$A$2:$A$339</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="337"/>
+                <c:ptCount val="338"/>
                 <c:pt idx="0">
                   <c:v>34700</c:v>
                 </c:pt>
@@ -1277,16 +1277,19 @@
                 </c:pt>
                 <c:pt idx="336">
                   <c:v>44927</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>44958</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$B$2:$B$338</c:f>
+              <c:f>Planilha1!$B$2:$B$339</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="337"/>
+                <c:ptCount val="338"/>
                 <c:pt idx="0">
                   <c:v>3.5906071097335332E-2</c:v>
                 </c:pt>
@@ -2297,6 +2300,9 @@
                 </c:pt>
                 <c:pt idx="336">
                   <c:v>0.112566</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>0.10406600000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3330,10 +3336,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:RX338"/>
+  <dimension ref="A1:RX339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W13" sqref="W13"/>
+      <selection activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16672,6 +16678,14 @@
         <v>0.112566</v>
       </c>
     </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" s="10">
+        <v>44958</v>
+      </c>
+      <c r="B339" s="9">
+        <v>0.10406600000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16680,21 +16694,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100FF602FB71C72A040B83BAD34EB50244A" ma:contentTypeVersion="13" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="ecb216dc5589f7bce5d8d0d60e90dc0d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="807d706a-80d8-4f03-8ed4-ece1162c7e44" xmlns:ns4="ea144f7f-7cb8-4e40-aa15-78233897bd5c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8b5314697a99cd150715f13355001d93" ns3:_="" ns4:_="">
     <xsd:import namespace="807d706a-80d8-4f03-8ed4-ece1162c7e44"/>
@@ -16917,10 +16916,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EB3165A-A967-440B-92EF-0ADCFAB0BB15}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E376484F-D910-4B39-9F72-4143D5D135A3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="807d706a-80d8-4f03-8ed4-ece1162c7e44"/>
+    <ds:schemaRef ds:uri="ea144f7f-7cb8-4e40-aa15-78233897bd5c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -16943,20 +16968,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E376484F-D910-4B39-9F72-4143D5D135A3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EB3165A-A967-440B-92EF-0ADCFAB0BB15}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="807d706a-80d8-4f03-8ed4-ece1162c7e44"/>
-    <ds:schemaRef ds:uri="ea144f7f-7cb8-4e40-aa15-78233897bd5c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Database/Serie de Equity Risk Premium.xlsx
+++ b/Database/Serie de Equity Risk Premium.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ERP\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bteba\Documents\GitHub\ERP\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BB9243-AB5E-4597-B179-C2B767B6BCFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33311C9-C746-4A8C-83A0-A2F0B3886AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>MÊS</t>
   </si>
@@ -33,17 +33,17 @@
     <t>ERP</t>
   </si>
   <si>
-    <t>Legenda:</t>
-  </si>
-  <si>
-    <t>Equity risk premium estimado = E(RM) - TBond10 (% ao ano)</t>
+    <t>ERP: Equity risk premium estimado = E(RM) - TBond10 (% ao ano)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,7 +56,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -64,34 +63,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -118,29 +97,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -244,7 +222,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ERP</c:v>
+                  <c:v>ERP: Equity risk premium estimado = E(RM) - TBond10 (% ao ano)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -263,10 +241,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Planilha1!$A$2:$A$339</c:f>
+              <c:f>Planilha1!$A$3:$A$392</c:f>
               <c:numCache>
-                <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="338"/>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="390"/>
                 <c:pt idx="0">
                   <c:v>34700</c:v>
                 </c:pt>
@@ -1280,16 +1258,19 @@
                 </c:pt>
                 <c:pt idx="337">
                   <c:v>44958</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>44986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$B$2:$B$339</c:f>
+              <c:f>Planilha1!$B$3:$B$392</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="338"/>
+                <c:ptCount val="390"/>
                 <c:pt idx="0">
                   <c:v>3.5906071097335332E-2</c:v>
                 </c:pt>
@@ -2303,6 +2284,9 @@
                 </c:pt>
                 <c:pt idx="337">
                   <c:v>0.10406600000000001</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>0.100060632666334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2310,7 +2294,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F345-48B7-B218-14D026691CEA}"/>
+              <c16:uniqueId val="{00000000-65B6-4F29-93EB-2F06109E46A4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2333,7 +2317,22 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="[$-416]mmm/yy;@" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2375,8 +2374,10 @@
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
-        <c:majorUnit val="6"/>
-        <c:majorTimeUnit val="months"/>
+        <c:majorUnit val="1"/>
+        <c:majorTimeUnit val="years"/>
+        <c:minorUnit val="6"/>
+        <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
         <c:axId val="547723696"/>
@@ -2442,6 +2443,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
@@ -3036,23 +3068,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B333E4E-5310-78A6-A739-DA5F79299383}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3336,13 +3368,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:RX339"/>
+  <dimension ref="A1:RX345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X20" sqref="X20"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.42578125" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
@@ -3351,50 +3383,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:492" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
-      </c>
-      <c r="CG1" s="1"/>
-      <c r="CH1" s="1"/>
-      <c r="CI1" s="1"/>
-      <c r="CJ1" s="1"/>
-      <c r="CK1" s="1"/>
-      <c r="CL1" s="1"/>
-      <c r="CM1" s="1"/>
-      <c r="CN1" s="1"/>
-      <c r="CO1" s="1"/>
-      <c r="CP1" s="1"/>
-      <c r="DY1" s="1"/>
-      <c r="EU1" s="1"/>
-      <c r="NG1" s="1"/>
-      <c r="NR1" s="1"/>
-      <c r="ON1" s="1"/>
-      <c r="OY1" s="1"/>
-      <c r="PJ1" s="1"/>
-      <c r="PU1" s="1"/>
-      <c r="PV1" s="1"/>
-      <c r="PW1" s="1"/>
-      <c r="PX1" s="1"/>
-      <c r="PY1" s="1"/>
-      <c r="PZ1" s="1"/>
-      <c r="QA1" s="1"/>
-      <c r="QB1" s="1"/>
-      <c r="QC1" s="1"/>
-      <c r="QD1" s="1"/>
-      <c r="QQ1" s="1"/>
-      <c r="RB1" s="1"/>
-      <c r="RM1" s="1"/>
-      <c r="RX1" s="1"/>
-    </row>
-    <row r="2" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
-        <v>34700</v>
-      </c>
-      <c r="B2" s="9">
-        <v>3.5906071097335332E-2</v>
       </c>
       <c r="CG2" s="1"/>
       <c r="CH2" s="1"/>
@@ -3407,6 +3405,7 @@
       <c r="CO2" s="1"/>
       <c r="CP2" s="1"/>
       <c r="DY2" s="1"/>
+      <c r="EU2" s="1"/>
       <c r="NG2" s="1"/>
       <c r="NR2" s="1"/>
       <c r="ON2" s="1"/>
@@ -3422,16 +3421,17 @@
       <c r="QB2" s="1"/>
       <c r="QC2" s="1"/>
       <c r="QD2" s="1"/>
+      <c r="QQ2" s="1"/>
       <c r="RB2" s="1"/>
       <c r="RM2" s="1"/>
       <c r="RX2" s="1"/>
     </row>
     <row r="3" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
-        <v>34731</v>
-      </c>
-      <c r="B3" s="9">
-        <v>4.641371511935781E-2</v>
+      <c r="A3" s="5">
+        <v>34700</v>
+      </c>
+      <c r="B3" s="6">
+        <v>3.5906071097335332E-2</v>
       </c>
       <c r="CG3" s="1"/>
       <c r="CH3" s="1"/>
@@ -3464,11 +3464,11 @@
       <c r="RX3" s="1"/>
     </row>
     <row r="4" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
-        <v>34759</v>
-      </c>
-      <c r="B4" s="9">
-        <v>6.8188691890601116E-2</v>
+      <c r="A4" s="5">
+        <v>34731</v>
+      </c>
+      <c r="B4" s="6">
+        <v>4.641371511935781E-2</v>
       </c>
       <c r="CG4" s="1"/>
       <c r="CH4" s="1"/>
@@ -3481,6 +3481,7 @@
       <c r="CO4" s="1"/>
       <c r="CP4" s="1"/>
       <c r="DY4" s="1"/>
+      <c r="NG4" s="1"/>
       <c r="NR4" s="1"/>
       <c r="ON4" s="1"/>
       <c r="OY4" s="1"/>
@@ -3500,11 +3501,11 @@
       <c r="RX4" s="1"/>
     </row>
     <row r="5" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
-        <v>34790</v>
-      </c>
-      <c r="B5" s="9">
-        <v>9.0011601145643869E-2</v>
+      <c r="A5" s="5">
+        <v>34759</v>
+      </c>
+      <c r="B5" s="6">
+        <v>6.8188691890601116E-2</v>
       </c>
       <c r="CG5" s="1"/>
       <c r="CH5" s="1"/>
@@ -3520,6 +3521,7 @@
       <c r="NR5" s="1"/>
       <c r="ON5" s="1"/>
       <c r="OY5" s="1"/>
+      <c r="PJ5" s="1"/>
       <c r="PU5" s="1"/>
       <c r="PV5" s="1"/>
       <c r="PW5" s="1"/>
@@ -3532,13 +3534,14 @@
       <c r="QD5" s="1"/>
       <c r="RB5" s="1"/>
       <c r="RM5" s="1"/>
+      <c r="RX5" s="1"/>
     </row>
     <row r="6" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>34820</v>
-      </c>
-      <c r="B6" s="9">
-        <v>9.9496073670305801E-2</v>
+      <c r="A6" s="5">
+        <v>34790</v>
+      </c>
+      <c r="B6" s="6">
+        <v>9.0011601145643869E-2</v>
       </c>
       <c r="CG6" s="1"/>
       <c r="CH6" s="1"/>
@@ -3550,6 +3553,7 @@
       <c r="CN6" s="1"/>
       <c r="CO6" s="1"/>
       <c r="CP6" s="1"/>
+      <c r="DY6" s="1"/>
       <c r="NR6" s="1"/>
       <c r="ON6" s="1"/>
       <c r="OY6" s="1"/>
@@ -3567,13 +3571,12 @@
       <c r="RM6" s="1"/>
     </row>
     <row r="7" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
-        <v>34851</v>
-      </c>
-      <c r="B7" s="9">
-        <v>0.11863771466397069</v>
-      </c>
-      <c r="D7" s="6"/>
+      <c r="A7" s="5">
+        <v>34820</v>
+      </c>
+      <c r="B7" s="6">
+        <v>9.9496073670305801E-2</v>
+      </c>
       <c r="CG7" s="1"/>
       <c r="CH7" s="1"/>
       <c r="CI7" s="1"/>
@@ -3601,11 +3604,11 @@
       <c r="RM7" s="1"/>
     </row>
     <row r="8" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <v>34881</v>
-      </c>
-      <c r="B8" s="9">
-        <v>0.1181146572660678</v>
+      <c r="A8" s="5">
+        <v>34851</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.11863771466397069</v>
       </c>
       <c r="CG8" s="1"/>
       <c r="CH8" s="1"/>
@@ -3620,15 +3623,25 @@
       <c r="NR8" s="1"/>
       <c r="ON8" s="1"/>
       <c r="OY8" s="1"/>
+      <c r="PU8" s="1"/>
+      <c r="PV8" s="1"/>
+      <c r="PW8" s="1"/>
+      <c r="PX8" s="1"/>
+      <c r="PY8" s="1"/>
+      <c r="PZ8" s="1"/>
+      <c r="QA8" s="1"/>
+      <c r="QB8" s="1"/>
+      <c r="QC8" s="1"/>
+      <c r="QD8" s="1"/>
       <c r="RB8" s="1"/>
       <c r="RM8" s="1"/>
     </row>
     <row r="9" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <v>34912</v>
-      </c>
-      <c r="B9" s="9">
-        <v>0.11925440378813899</v>
+      <c r="A9" s="5">
+        <v>34881</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.1181146572660678</v>
       </c>
       <c r="CG9" s="1"/>
       <c r="CH9" s="1"/>
@@ -3640,17 +3653,18 @@
       <c r="CN9" s="1"/>
       <c r="CO9" s="1"/>
       <c r="CP9" s="1"/>
+      <c r="NR9" s="1"/>
       <c r="ON9" s="1"/>
       <c r="OY9" s="1"/>
       <c r="RB9" s="1"/>
       <c r="RM9" s="1"/>
     </row>
     <row r="10" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <v>34943</v>
-      </c>
-      <c r="B10" s="9">
-        <v>8.0427229515112636E-2</v>
+      <c r="A10" s="5">
+        <v>34912</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.11925440378813899</v>
       </c>
       <c r="CG10" s="1"/>
       <c r="CH10" s="1"/>
@@ -3668,11 +3682,11 @@
       <c r="RM10" s="1"/>
     </row>
     <row r="11" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
-        <v>34973</v>
-      </c>
-      <c r="B11" s="9">
-        <v>9.2888414728135582E-2</v>
+      <c r="A11" s="5">
+        <v>34943</v>
+      </c>
+      <c r="B11" s="6">
+        <v>8.0427229515112636E-2</v>
       </c>
       <c r="CG11" s="1"/>
       <c r="CH11" s="1"/>
@@ -3684,16 +3698,17 @@
       <c r="CN11" s="1"/>
       <c r="CO11" s="1"/>
       <c r="CP11" s="1"/>
+      <c r="ON11" s="1"/>
       <c r="OY11" s="1"/>
       <c r="RB11" s="1"/>
       <c r="RM11" s="1"/>
     </row>
     <row r="12" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
-        <v>35004</v>
-      </c>
-      <c r="B12" s="9">
-        <v>0.10118496200041718</v>
+      <c r="A12" s="5">
+        <v>34973</v>
+      </c>
+      <c r="B12" s="6">
+        <v>9.2888414728135582E-2</v>
       </c>
       <c r="CG12" s="1"/>
       <c r="CH12" s="1"/>
@@ -3710,11 +3725,11 @@
       <c r="RM12" s="1"/>
     </row>
     <row r="13" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
-        <v>35034</v>
-      </c>
-      <c r="B13" s="9">
-        <v>0.10732542683580969</v>
+      <c r="A13" s="5">
+        <v>35004</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0.10118496200041718</v>
       </c>
       <c r="CG13" s="1"/>
       <c r="CH13" s="1"/>
@@ -3727,13 +3742,15 @@
       <c r="CO13" s="1"/>
       <c r="CP13" s="1"/>
       <c r="OY13" s="1"/>
+      <c r="RB13" s="1"/>
+      <c r="RM13" s="1"/>
     </row>
     <row r="14" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>35065</v>
-      </c>
-      <c r="B14" s="9">
-        <v>9.1621260099534085E-2</v>
+      <c r="A14" s="5">
+        <v>35034</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0.10732542683580969</v>
       </c>
       <c r="CG14" s="1"/>
       <c r="CH14" s="1"/>
@@ -3748,688 +3765,684 @@
       <c r="OY14" s="1"/>
     </row>
     <row r="15" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="A15" s="5">
+        <v>35065</v>
+      </c>
+      <c r="B15" s="6">
+        <v>9.1621260099534085E-2</v>
+      </c>
+      <c r="CG15" s="1"/>
+      <c r="CH15" s="1"/>
+      <c r="CI15" s="1"/>
+      <c r="CJ15" s="1"/>
+      <c r="CK15" s="1"/>
+      <c r="CL15" s="1"/>
+      <c r="CM15" s="1"/>
+      <c r="CN15" s="1"/>
+      <c r="CO15" s="1"/>
+      <c r="CP15" s="1"/>
+      <c r="OY15" s="1"/>
+    </row>
+    <row r="16" spans="1:492" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>35096</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B16" s="6">
         <v>8.4905503970074639E-2</v>
       </c>
-      <c r="CP15" s="1"/>
-    </row>
-    <row r="16" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="CP16" s="1"/>
+    </row>
+    <row r="17" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>35125</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B17" s="6">
         <v>0.10049276040389069</v>
       </c>
-      <c r="CP16" s="1"/>
-    </row>
-    <row r="17" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="CP17" s="1"/>
+    </row>
+    <row r="18" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>35156</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B18" s="6">
         <v>9.6531384813158941E-2</v>
       </c>
-      <c r="CP17" s="1"/>
-    </row>
-    <row r="18" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="CP18" s="1"/>
+    </row>
+    <row r="19" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <v>35186</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B19" s="6">
         <v>9.5088188666882692E-2</v>
       </c>
-      <c r="CP18" s="1"/>
-    </row>
-    <row r="19" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="CP19" s="1"/>
+    </row>
+    <row r="20" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>35217</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B20" s="6">
         <v>9.0796583575804307E-2</v>
       </c>
-      <c r="CP19" s="1"/>
-    </row>
-    <row r="20" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="CP20" s="1"/>
+    </row>
+    <row r="21" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <v>35247</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B21" s="6">
         <v>9.2623876599203819E-2</v>
       </c>
-      <c r="CP20" s="1"/>
-    </row>
-    <row r="21" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+      <c r="CP21" s="1"/>
+    </row>
+    <row r="22" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <v>35278</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B22" s="6">
         <v>9.1099901245860898E-2</v>
       </c>
-      <c r="CP21" s="1"/>
-    </row>
-    <row r="22" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+      <c r="CP22" s="1"/>
+    </row>
+    <row r="23" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
         <v>35309</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B23" s="6">
         <v>9.2854806609296375E-2</v>
       </c>
-      <c r="CP22" s="1"/>
-    </row>
-    <row r="23" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
+      <c r="CP23" s="1"/>
+    </row>
+    <row r="24" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
         <v>35339</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B24" s="6">
         <v>0.10127373741409153</v>
       </c>
-      <c r="CP23" s="1"/>
-    </row>
-    <row r="24" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
+      <c r="CP24" s="1"/>
+    </row>
+    <row r="25" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
         <v>35370</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B25" s="6">
         <v>0.10142804442282341</v>
       </c>
-      <c r="CP24" s="1"/>
-    </row>
-    <row r="25" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
+      <c r="CP25" s="1"/>
+    </row>
+    <row r="26" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
         <v>35400</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B26" s="6">
         <v>9.9700000278104189E-2</v>
       </c>
-      <c r="CP25" s="1"/>
-    </row>
-    <row r="26" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
+      <c r="CP26" s="1"/>
+    </row>
+    <row r="27" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
         <v>35431</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B27" s="6">
         <v>9.7052332691215076E-2</v>
       </c>
-      <c r="CP26" s="1"/>
-    </row>
-    <row r="27" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
+      <c r="CP27" s="1"/>
+    </row>
+    <row r="28" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
         <v>35462</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B28" s="6">
         <v>9.1057142830797522E-2</v>
       </c>
-      <c r="CP27" s="1"/>
-    </row>
-    <row r="28" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
+      <c r="CP28" s="1"/>
+    </row>
+    <row r="29" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
         <v>35490</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B29" s="6">
         <v>8.6177248797735806E-2</v>
       </c>
-      <c r="CP28" s="1"/>
-    </row>
-    <row r="29" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
+      <c r="CP29" s="1"/>
+    </row>
+    <row r="30" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
         <v>35521</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B30" s="6">
         <v>8.5066948095953776E-2</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="CP29" s="1"/>
-    </row>
-    <row r="30" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="CP30" s="1"/>
+    </row>
+    <row r="31" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
         <v>35551</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B31" s="6">
         <v>9.7288837160340563E-2</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="CP30" s="1"/>
-    </row>
-    <row r="31" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="CP31" s="1"/>
+    </row>
+    <row r="32" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
         <v>35582</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B32" s="6">
         <v>9.6957468174919514E-2</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="CP31" s="1"/>
-    </row>
-    <row r="32" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="CP32" s="1"/>
+    </row>
+    <row r="33" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
         <v>35612</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B33" s="6">
         <v>9.8258192485687817E-2</v>
       </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="CP32" s="1"/>
-    </row>
-    <row r="33" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="CP33" s="1"/>
+    </row>
+    <row r="34" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
         <v>35643</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B34" s="6">
         <v>0.10071108991221206</v>
       </c>
-      <c r="L33" s="5"/>
-      <c r="CP33" s="1"/>
-    </row>
-    <row r="34" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A34" s="10">
+      <c r="L34" s="4"/>
+      <c r="CP34" s="1"/>
+    </row>
+    <row r="35" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
         <v>35674</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B35" s="6">
         <v>9.4101292650451321E-2</v>
       </c>
-      <c r="CP34" s="1"/>
-    </row>
-    <row r="35" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A35" s="10">
+      <c r="CP35" s="1"/>
+    </row>
+    <row r="36" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
         <v>35704</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B36" s="6">
         <v>0.1022443853346008</v>
       </c>
-      <c r="CP35" s="1"/>
-    </row>
-    <row r="36" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A36" s="10">
+      <c r="CP36" s="1"/>
+    </row>
+    <row r="37" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
         <v>35735</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B37" s="6">
         <v>0.11673503599412813</v>
       </c>
-      <c r="CP36" s="1"/>
-    </row>
-    <row r="37" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A37" s="10">
+      <c r="CP37" s="1"/>
+    </row>
+    <row r="38" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
         <v>35765</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B38" s="6">
         <v>0.12868892588777975</v>
       </c>
-      <c r="CP37" s="1"/>
-    </row>
-    <row r="38" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A38" s="10">
+      <c r="CP38" s="1"/>
+    </row>
+    <row r="39" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
         <v>35796</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B39" s="6">
         <v>0.13246738378006745</v>
       </c>
-      <c r="CP38" s="1"/>
-    </row>
-    <row r="39" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A39" s="10">
+      <c r="CP39" s="1"/>
+    </row>
+    <row r="40" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
         <v>35827</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B40" s="6">
         <v>0.12192540989307418</v>
       </c>
-      <c r="CP39" s="1"/>
-    </row>
-    <row r="40" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A40" s="10">
+      <c r="CP40" s="1"/>
+    </row>
+    <row r="41" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
         <v>35855</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B41" s="6">
         <v>0.11858185629167939</v>
       </c>
-      <c r="CP40" s="1"/>
-    </row>
-    <row r="41" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A41" s="10">
+      <c r="CP41" s="1"/>
+    </row>
+    <row r="42" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
         <v>35886</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B42" s="6">
         <v>0.11009539820274278</v>
       </c>
-      <c r="CP41" s="1"/>
-    </row>
-    <row r="42" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A42" s="10">
+      <c r="CP42" s="1"/>
+    </row>
+    <row r="43" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
         <v>35916</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B43" s="6">
         <v>0.14815671762109539</v>
       </c>
-      <c r="CP42" s="1"/>
-    </row>
-    <row r="43" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A43" s="10">
+      <c r="CP43" s="1"/>
+    </row>
+    <row r="44" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
         <v>35947</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B44" s="6">
         <v>0.16414072309545738</v>
       </c>
-      <c r="CP43" s="1"/>
-    </row>
-    <row r="44" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A44" s="10">
+      <c r="CP44" s="1"/>
+    </row>
+    <row r="45" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
         <v>35977</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B45" s="6">
         <v>0.15684487547919845</v>
       </c>
-      <c r="CP44" s="1"/>
-    </row>
-    <row r="45" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A45" s="10">
+      <c r="CP45" s="1"/>
+    </row>
+    <row r="46" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
         <v>36008</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B46" s="6">
         <v>0.20761986410571115</v>
       </c>
-      <c r="CP45" s="1"/>
-    </row>
-    <row r="46" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A46" s="10">
+      <c r="CP46" s="1"/>
+    </row>
+    <row r="47" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
         <v>36039</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B47" s="6">
         <v>0.26488372425157419</v>
       </c>
-      <c r="CP46" s="1"/>
-    </row>
-    <row r="47" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A47" s="10">
+      <c r="CP47" s="1"/>
+    </row>
+    <row r="48" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
         <v>36069</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B48" s="6">
         <v>0.27386908893169182</v>
       </c>
-      <c r="CP47" s="1"/>
-    </row>
-    <row r="48" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A48" s="10">
+      <c r="CP48" s="1"/>
+    </row>
+    <row r="49" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
         <v>36100</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B49" s="6">
         <v>0.23368482800820384</v>
       </c>
-      <c r="CP48" s="1"/>
-    </row>
-    <row r="49" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A49" s="10">
+      <c r="CP49" s="1"/>
+    </row>
+    <row r="50" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
         <v>36130</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B50" s="6">
         <v>0.19728157436806892</v>
       </c>
-      <c r="CP49" s="1"/>
-    </row>
-    <row r="50" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A50" s="10">
+      <c r="CP50" s="1"/>
+    </row>
+    <row r="51" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
         <v>36161</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B51" s="6">
         <v>0.18849719620951449</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="CP50" s="1"/>
-    </row>
-    <row r="51" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A51" s="10">
-        <v>36192</v>
-      </c>
-      <c r="B51" s="9">
-        <v>0.17879547863724937</v>
       </c>
       <c r="D51" s="2"/>
       <c r="CP51" s="1"/>
     </row>
     <row r="52" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A52" s="10">
-        <v>36220</v>
-      </c>
-      <c r="B52" s="9">
-        <v>0.19521218246374467</v>
+      <c r="A52" s="5">
+        <v>36192</v>
+      </c>
+      <c r="B52" s="6">
+        <v>0.17879547863724937</v>
       </c>
       <c r="D52" s="2"/>
       <c r="CP52" s="1"/>
     </row>
     <row r="53" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A53" s="10">
-        <v>36251</v>
-      </c>
-      <c r="B53" s="9">
-        <v>0.17667737273699313</v>
+      <c r="A53" s="5">
+        <v>36220</v>
+      </c>
+      <c r="B53" s="6">
+        <v>0.19521218246374467</v>
       </c>
       <c r="D53" s="2"/>
       <c r="CP53" s="1"/>
     </row>
     <row r="54" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A54" s="10">
-        <v>36281</v>
-      </c>
-      <c r="B54" s="9">
-        <v>0.17240854293261376</v>
+      <c r="A54" s="5">
+        <v>36251</v>
+      </c>
+      <c r="B54" s="6">
+        <v>0.17667737273699313</v>
       </c>
       <c r="D54" s="2"/>
       <c r="CP54" s="1"/>
     </row>
     <row r="55" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A55" s="10">
-        <v>36312</v>
-      </c>
-      <c r="B55" s="9">
-        <v>0.15905547118167043</v>
+      <c r="A55" s="5">
+        <v>36281</v>
+      </c>
+      <c r="B55" s="6">
+        <v>0.17240854293261376</v>
       </c>
       <c r="D55" s="2"/>
       <c r="CP55" s="1"/>
     </row>
     <row r="56" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A56" s="10">
-        <v>36342</v>
-      </c>
-      <c r="B56" s="9">
-        <v>0.15865389804394955</v>
+      <c r="A56" s="5">
+        <v>36312</v>
+      </c>
+      <c r="B56" s="6">
+        <v>0.15905547118167043</v>
       </c>
       <c r="D56" s="2"/>
       <c r="CP56" s="1"/>
     </row>
     <row r="57" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A57" s="10">
-        <v>36373</v>
-      </c>
-      <c r="B57" s="9">
-        <v>0.15275419272689961</v>
+      <c r="A57" s="5">
+        <v>36342</v>
+      </c>
+      <c r="B57" s="6">
+        <v>0.15865389804394955</v>
       </c>
       <c r="D57" s="2"/>
       <c r="CP57" s="1"/>
     </row>
     <row r="58" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A58" s="10">
-        <v>36404</v>
-      </c>
-      <c r="B58" s="9">
-        <v>0.13159865421370617</v>
+      <c r="A58" s="5">
+        <v>36373</v>
+      </c>
+      <c r="B58" s="6">
+        <v>0.15275419272689961</v>
       </c>
       <c r="D58" s="2"/>
       <c r="CP58" s="1"/>
     </row>
     <row r="59" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A59" s="10">
-        <v>36434</v>
-      </c>
-      <c r="B59" s="9">
-        <v>0.12196728595845485</v>
+      <c r="A59" s="5">
+        <v>36404</v>
+      </c>
+      <c r="B59" s="6">
+        <v>0.13159865421370617</v>
       </c>
       <c r="D59" s="2"/>
       <c r="CP59" s="1"/>
     </row>
     <row r="60" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A60" s="10">
-        <v>36465</v>
-      </c>
-      <c r="B60" s="9">
-        <v>0.10437517943413213</v>
+      <c r="A60" s="5">
+        <v>36434</v>
+      </c>
+      <c r="B60" s="6">
+        <v>0.12196728595845485</v>
       </c>
       <c r="D60" s="2"/>
       <c r="CP60" s="1"/>
     </row>
     <row r="61" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A61" s="10">
-        <v>36495</v>
-      </c>
-      <c r="B61" s="9">
-        <v>8.4895285767080067E-2</v>
+      <c r="A61" s="5">
+        <v>36465</v>
+      </c>
+      <c r="B61" s="6">
+        <v>0.10437517943413213</v>
       </c>
       <c r="D61" s="2"/>
       <c r="CP61" s="1"/>
     </row>
     <row r="62" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A62" s="10">
-        <v>36526</v>
-      </c>
-      <c r="B62" s="9">
-        <v>8.0964220165040707E-2</v>
+      <c r="A62" s="5">
+        <v>36495</v>
+      </c>
+      <c r="B62" s="6">
+        <v>8.4895285767080067E-2</v>
       </c>
       <c r="D62" s="2"/>
       <c r="CP62" s="1"/>
     </row>
     <row r="63" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A63" s="10">
-        <v>36557</v>
-      </c>
-      <c r="B63" s="9">
-        <v>8.5143819747368649E-2</v>
+      <c r="A63" s="5">
+        <v>36526</v>
+      </c>
+      <c r="B63" s="6">
+        <v>8.0964220165040707E-2</v>
       </c>
       <c r="D63" s="2"/>
       <c r="CP63" s="1"/>
     </row>
     <row r="64" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A64" s="10">
+      <c r="A64" s="5">
+        <v>36557</v>
+      </c>
+      <c r="B64" s="6">
+        <v>8.5143819747368649E-2</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="CP64" s="1"/>
+    </row>
+    <row r="65" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
         <v>36586</v>
       </c>
-      <c r="B64" s="9">
+      <c r="B65" s="6">
         <v>9.4432793059799777E-2</v>
-      </c>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="CP64" s="1"/>
-    </row>
-    <row r="65" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="A65" s="10">
-        <v>36617</v>
-      </c>
-      <c r="B65" s="9">
-        <v>0.1068984082862578</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="CP65" s="1"/>
     </row>
-    <row r="66" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="A66" s="10">
-        <v>36647</v>
-      </c>
-      <c r="B66" s="9">
-        <v>0.10194024162250852</v>
+    <row r="66" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <v>36617</v>
+      </c>
+      <c r="B66" s="6">
+        <v>0.1068984082862578</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="CP66" s="1"/>
     </row>
-    <row r="67" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="A67" s="10">
-        <v>36678</v>
-      </c>
-      <c r="B67" s="9">
-        <v>0.11520688931942046</v>
+    <row r="67" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
+        <v>36647</v>
+      </c>
+      <c r="B67" s="6">
+        <v>0.10194024162250852</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="CP67" s="1"/>
     </row>
-    <row r="68" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="A68" s="10">
-        <v>36708</v>
-      </c>
-      <c r="B68" s="9">
-        <v>0.10847862629401375</v>
-      </c>
+    <row r="68" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
+        <v>36678</v>
+      </c>
+      <c r="B68" s="6">
+        <v>0.11520688931942046</v>
+      </c>
+      <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="CP68" s="1"/>
     </row>
-    <row r="69" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="A69" s="10">
-        <v>36739</v>
-      </c>
-      <c r="B69" s="9">
-        <v>0.11669317806908461</v>
+    <row r="69" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
+        <v>36708</v>
+      </c>
+      <c r="B69" s="6">
+        <v>0.10847862629401375</v>
       </c>
       <c r="E69" s="2"/>
       <c r="CP69" s="1"/>
     </row>
-    <row r="70" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="A70" s="10">
-        <v>36770</v>
-      </c>
-      <c r="B70" s="9">
-        <v>0.12461879502315275</v>
+    <row r="70" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
+        <v>36739</v>
+      </c>
+      <c r="B70" s="6">
+        <v>0.11669317806908461</v>
       </c>
       <c r="E70" s="2"/>
       <c r="CP70" s="1"/>
     </row>
-    <row r="71" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="A71" s="10">
-        <v>36800</v>
-      </c>
-      <c r="B71" s="9">
-        <v>0.12350351608453644</v>
+    <row r="71" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A71" s="5">
+        <v>36770</v>
+      </c>
+      <c r="B71" s="6">
+        <v>0.12461879502315275</v>
       </c>
       <c r="E71" s="2"/>
       <c r="CP71" s="1"/>
     </row>
-    <row r="72" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="A72" s="10">
-        <v>36831</v>
-      </c>
-      <c r="B72" s="9">
-        <v>0.13624280260074831</v>
+    <row r="72" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A72" s="5">
+        <v>36800</v>
+      </c>
+      <c r="B72" s="6">
+        <v>0.12350351608453644</v>
       </c>
       <c r="E72" s="2"/>
       <c r="CP72" s="1"/>
     </row>
-    <row r="73" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="A73" s="10">
-        <v>36861</v>
-      </c>
-      <c r="B73" s="9">
-        <v>0.10449451374749155</v>
+    <row r="73" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
+        <v>36831</v>
+      </c>
+      <c r="B73" s="6">
+        <v>0.13624280260074831</v>
       </c>
       <c r="E73" s="2"/>
       <c r="CP73" s="1"/>
     </row>
-    <row r="74" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="A74" s="10">
-        <v>36892</v>
-      </c>
-      <c r="B74" s="9">
-        <v>9.8078739800215115E-2</v>
+    <row r="74" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A74" s="5">
+        <v>36861</v>
+      </c>
+      <c r="B74" s="6">
+        <v>0.10449451374749155</v>
       </c>
       <c r="E74" s="2"/>
       <c r="CP74" s="1"/>
     </row>
-    <row r="75" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="A75" s="10">
-        <v>36923</v>
-      </c>
-      <c r="B75" s="9">
-        <v>9.4986612102584869E-2</v>
+    <row r="75" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A75" s="5">
+        <v>36892</v>
+      </c>
+      <c r="B75" s="6">
+        <v>9.8078739800215115E-2</v>
       </c>
       <c r="E75" s="2"/>
       <c r="CP75" s="1"/>
     </row>
-    <row r="76" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="A76" s="10">
-        <v>36951</v>
-      </c>
-      <c r="B76" s="9">
-        <v>0.10943199261845223</v>
+    <row r="76" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A76" s="5">
+        <v>36923</v>
+      </c>
+      <c r="B76" s="6">
+        <v>9.4986612102584869E-2</v>
       </c>
       <c r="E76" s="2"/>
       <c r="CP76" s="1"/>
     </row>
-    <row r="77" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="A77" s="10">
-        <v>36982</v>
-      </c>
-      <c r="B77" s="9">
-        <v>0.10230821441197835</v>
+    <row r="77" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A77" s="5">
+        <v>36951</v>
+      </c>
+      <c r="B77" s="6">
+        <v>0.10943199261845223</v>
       </c>
       <c r="E77" s="2"/>
       <c r="CP77" s="1"/>
     </row>
-    <row r="78" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="A78" s="10">
-        <v>37012</v>
-      </c>
-      <c r="B78" s="9">
-        <v>0.11448510925596571</v>
+    <row r="78" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A78" s="5">
+        <v>36982</v>
+      </c>
+      <c r="B78" s="6">
+        <v>0.10230821441197835</v>
       </c>
       <c r="E78" s="2"/>
       <c r="CP78" s="1"/>
     </row>
-    <row r="79" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="A79" s="10">
-        <v>37043</v>
-      </c>
-      <c r="B79" s="9">
-        <v>0.12205193419326613</v>
+    <row r="79" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A79" s="5">
+        <v>37012</v>
+      </c>
+      <c r="B79" s="6">
+        <v>0.11448510925596571</v>
       </c>
       <c r="E79" s="2"/>
       <c r="CP79" s="1"/>
     </row>
-    <row r="80" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="A80" s="10">
-        <v>37073</v>
-      </c>
-      <c r="B80" s="9">
-        <v>0.12472087316217893</v>
+    <row r="80" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A80" s="5">
+        <v>37043</v>
+      </c>
+      <c r="B80" s="6">
+        <v>0.12205193419326613</v>
       </c>
       <c r="E80" s="2"/>
       <c r="CP80" s="1"/>
-      <c r="DC80" s="1"/>
-      <c r="DE80" s="1"/>
-      <c r="DF80" s="1"/>
-      <c r="DG80" s="1"/>
-      <c r="DH80" s="1"/>
-      <c r="DI80" s="1"/>
-      <c r="DJ80" s="1"/>
-      <c r="DK80" s="1"/>
-    </row>
-    <row r="81" spans="1:459" x14ac:dyDescent="0.25">
-      <c r="A81" s="10">
-        <v>37104</v>
-      </c>
-      <c r="B81" s="9">
-        <v>0.13164962330151575</v>
-      </c>
+    </row>
+    <row r="81" spans="1:206" x14ac:dyDescent="0.25">
+      <c r="A81" s="5">
+        <v>37073</v>
+      </c>
+      <c r="B81" s="6">
+        <v>0.12472087316217893</v>
+      </c>
+      <c r="E81" s="2"/>
       <c r="CP81" s="1"/>
       <c r="DC81" s="1"/>
       <c r="DE81" s="1"/>
@@ -4440,12 +4453,12 @@
       <c r="DJ81" s="1"/>
       <c r="DK81" s="1"/>
     </row>
-    <row r="82" spans="1:459" x14ac:dyDescent="0.25">
-      <c r="A82" s="10">
-        <v>37135</v>
-      </c>
-      <c r="B82" s="9">
-        <v>0.16920274455915726</v>
+    <row r="82" spans="1:206" x14ac:dyDescent="0.25">
+      <c r="A82" s="5">
+        <v>37104</v>
+      </c>
+      <c r="B82" s="6">
+        <v>0.13164962330151575</v>
       </c>
       <c r="CP82" s="1"/>
       <c r="DC82" s="1"/>
@@ -4456,14 +4469,13 @@
       <c r="DI82" s="1"/>
       <c r="DJ82" s="1"/>
       <c r="DK82" s="1"/>
-      <c r="FQ82" s="1"/>
-    </row>
-    <row r="83" spans="1:459" x14ac:dyDescent="0.25">
-      <c r="A83" s="10">
-        <v>37165</v>
-      </c>
-      <c r="B83" s="9">
-        <v>0.16487384010580458</v>
+    </row>
+    <row r="83" spans="1:206" x14ac:dyDescent="0.25">
+      <c r="A83" s="5">
+        <v>37135</v>
+      </c>
+      <c r="B83" s="6">
+        <v>0.16920274455915726</v>
       </c>
       <c r="CP83" s="1"/>
       <c r="DC83" s="1"/>
@@ -4476,12 +4488,12 @@
       <c r="DK83" s="1"/>
       <c r="FQ83" s="1"/>
     </row>
-    <row r="84" spans="1:459" x14ac:dyDescent="0.25">
-      <c r="A84" s="10">
-        <v>37196</v>
-      </c>
-      <c r="B84" s="9">
-        <v>0.14485365882340293</v>
+    <row r="84" spans="1:206" x14ac:dyDescent="0.25">
+      <c r="A84" s="5">
+        <v>37165</v>
+      </c>
+      <c r="B84" s="6">
+        <v>0.16487384010580458</v>
       </c>
       <c r="CP84" s="1"/>
       <c r="DC84" s="1"/>
@@ -4494,12 +4506,12 @@
       <c r="DK84" s="1"/>
       <c r="FQ84" s="1"/>
     </row>
-    <row r="85" spans="1:459" x14ac:dyDescent="0.25">
-      <c r="A85" s="10">
-        <v>37226</v>
-      </c>
-      <c r="B85" s="9">
-        <v>0.12057147500114479</v>
+    <row r="85" spans="1:206" x14ac:dyDescent="0.25">
+      <c r="A85" s="5">
+        <v>37196</v>
+      </c>
+      <c r="B85" s="6">
+        <v>0.14485365882340293</v>
       </c>
       <c r="CP85" s="1"/>
       <c r="DC85" s="1"/>
@@ -4512,12 +4524,12 @@
       <c r="DK85" s="1"/>
       <c r="FQ85" s="1"/>
     </row>
-    <row r="86" spans="1:459" x14ac:dyDescent="0.25">
-      <c r="A86" s="10">
-        <v>37257</v>
-      </c>
-      <c r="B86" s="9">
-        <v>0.12028644057053653</v>
+    <row r="86" spans="1:206" x14ac:dyDescent="0.25">
+      <c r="A86" s="5">
+        <v>37226</v>
+      </c>
+      <c r="B86" s="6">
+        <v>0.12057147500114479</v>
       </c>
       <c r="CP86" s="1"/>
       <c r="DC86" s="1"/>
@@ -4530,12 +4542,12 @@
       <c r="DK86" s="1"/>
       <c r="FQ86" s="1"/>
     </row>
-    <row r="87" spans="1:459" x14ac:dyDescent="0.25">
-      <c r="A87" s="10">
-        <v>37288</v>
-      </c>
-      <c r="B87" s="9">
-        <v>0.11585635189852062</v>
+    <row r="87" spans="1:206" x14ac:dyDescent="0.25">
+      <c r="A87" s="5">
+        <v>37257</v>
+      </c>
+      <c r="B87" s="6">
+        <v>0.12028644057053653</v>
       </c>
       <c r="CP87" s="1"/>
       <c r="DC87" s="1"/>
@@ -4548,12 +4560,12 @@
       <c r="DK87" s="1"/>
       <c r="FQ87" s="1"/>
     </row>
-    <row r="88" spans="1:459" x14ac:dyDescent="0.25">
-      <c r="A88" s="10">
-        <v>37316</v>
-      </c>
-      <c r="B88" s="9">
-        <v>0.12274527752297042</v>
+    <row r="88" spans="1:206" x14ac:dyDescent="0.25">
+      <c r="A88" s="5">
+        <v>37288</v>
+      </c>
+      <c r="B88" s="6">
+        <v>0.11585635189852062</v>
       </c>
       <c r="CP88" s="1"/>
       <c r="DC88" s="1"/>
@@ -4564,15 +4576,14 @@
       <c r="DI88" s="1"/>
       <c r="DJ88" s="1"/>
       <c r="DK88" s="1"/>
-      <c r="EJ88" s="1"/>
       <c r="FQ88" s="1"/>
     </row>
-    <row r="89" spans="1:459" x14ac:dyDescent="0.25">
-      <c r="A89" s="10">
-        <v>37347</v>
-      </c>
-      <c r="B89" s="9">
-        <v>0.12101568147782529</v>
+    <row r="89" spans="1:206" x14ac:dyDescent="0.25">
+      <c r="A89" s="5">
+        <v>37316</v>
+      </c>
+      <c r="B89" s="6">
+        <v>0.12274527752297042</v>
       </c>
       <c r="CP89" s="1"/>
       <c r="DC89" s="1"/>
@@ -4586,12 +4597,12 @@
       <c r="EJ89" s="1"/>
       <c r="FQ89" s="1"/>
     </row>
-    <row r="90" spans="1:459" x14ac:dyDescent="0.25">
-      <c r="A90" s="10">
-        <v>37377</v>
-      </c>
-      <c r="B90" s="9">
-        <v>0.13834911739732181</v>
+    <row r="90" spans="1:206" x14ac:dyDescent="0.25">
+      <c r="A90" s="5">
+        <v>37347</v>
+      </c>
+      <c r="B90" s="6">
+        <v>0.12101568147782529</v>
       </c>
       <c r="CP90" s="1"/>
       <c r="DC90" s="1"/>
@@ -4605,12 +4616,12 @@
       <c r="EJ90" s="1"/>
       <c r="FQ90" s="1"/>
     </row>
-    <row r="91" spans="1:459" x14ac:dyDescent="0.25">
-      <c r="A91" s="10">
-        <v>37408</v>
-      </c>
-      <c r="B91" s="9">
-        <v>0.13898444661446926</v>
+    <row r="91" spans="1:206" x14ac:dyDescent="0.25">
+      <c r="A91" s="5">
+        <v>37377</v>
+      </c>
+      <c r="B91" s="6">
+        <v>0.13834911739732181</v>
       </c>
       <c r="CP91" s="1"/>
       <c r="DC91" s="1"/>
@@ -4622,15 +4633,14 @@
       <c r="DJ91" s="1"/>
       <c r="DK91" s="1"/>
       <c r="EJ91" s="1"/>
-      <c r="EU91" s="1"/>
       <c r="FQ91" s="1"/>
     </row>
-    <row r="92" spans="1:459" x14ac:dyDescent="0.25">
-      <c r="A92" s="10">
-        <v>37438</v>
-      </c>
-      <c r="B92" s="9">
-        <v>0.15154676452080135</v>
+    <row r="92" spans="1:206" x14ac:dyDescent="0.25">
+      <c r="A92" s="5">
+        <v>37408</v>
+      </c>
+      <c r="B92" s="6">
+        <v>0.13898444661446926</v>
       </c>
       <c r="CP92" s="1"/>
       <c r="DC92" s="1"/>
@@ -4645,12 +4655,12 @@
       <c r="EU92" s="1"/>
       <c r="FQ92" s="1"/>
     </row>
-    <row r="93" spans="1:459" x14ac:dyDescent="0.25">
-      <c r="A93" s="10">
-        <v>37469</v>
-      </c>
-      <c r="B93" s="9">
-        <v>0.14914501917668246</v>
+    <row r="93" spans="1:206" x14ac:dyDescent="0.25">
+      <c r="A93" s="5">
+        <v>37438</v>
+      </c>
+      <c r="B93" s="6">
+        <v>0.15154676452080135</v>
       </c>
       <c r="CP93" s="1"/>
       <c r="DC93" s="1"/>
@@ -4665,12 +4675,12 @@
       <c r="EU93" s="1"/>
       <c r="FQ93" s="1"/>
     </row>
-    <row r="94" spans="1:459" x14ac:dyDescent="0.25">
-      <c r="A94" s="10">
-        <v>37500</v>
-      </c>
-      <c r="B94" s="9">
-        <v>0.17729158577688089</v>
+    <row r="94" spans="1:206" x14ac:dyDescent="0.25">
+      <c r="A94" s="5">
+        <v>37469</v>
+      </c>
+      <c r="B94" s="6">
+        <v>0.14914501917668246</v>
       </c>
       <c r="CP94" s="1"/>
       <c r="DC94" s="1"/>
@@ -4684,14 +4694,13 @@
       <c r="EJ94" s="1"/>
       <c r="EU94" s="1"/>
       <c r="FQ94" s="1"/>
-      <c r="GX94" s="1"/>
-    </row>
-    <row r="95" spans="1:459" x14ac:dyDescent="0.25">
-      <c r="A95" s="10">
-        <v>37530</v>
-      </c>
-      <c r="B95" s="9">
-        <v>0.16158417270187989</v>
+    </row>
+    <row r="95" spans="1:206" x14ac:dyDescent="0.25">
+      <c r="A95" s="5">
+        <v>37500</v>
+      </c>
+      <c r="B95" s="6">
+        <v>0.17729158577688089</v>
       </c>
       <c r="CP95" s="1"/>
       <c r="DC95" s="1"/>
@@ -4707,22 +4716,13 @@
       <c r="FQ95" s="1"/>
       <c r="GX95" s="1"/>
     </row>
-    <row r="96" spans="1:459" x14ac:dyDescent="0.25">
-      <c r="A96" s="10">
-        <v>37561</v>
-      </c>
-      <c r="B96" s="9">
-        <v>0.15765516285709646</v>
-      </c>
-      <c r="CG96" s="1"/>
-      <c r="CH96" s="1"/>
-      <c r="CI96" s="1"/>
-      <c r="CJ96" s="1"/>
-      <c r="CK96" s="1"/>
-      <c r="CL96" s="1"/>
-      <c r="CM96" s="1"/>
-      <c r="CN96" s="1"/>
-      <c r="CO96" s="1"/>
+    <row r="96" spans="1:206" x14ac:dyDescent="0.25">
+      <c r="A96" s="5">
+        <v>37530</v>
+      </c>
+      <c r="B96" s="6">
+        <v>0.16158417270187989</v>
+      </c>
       <c r="CP96" s="1"/>
       <c r="DC96" s="1"/>
       <c r="DE96" s="1"/>
@@ -4736,14 +4736,13 @@
       <c r="EU96" s="1"/>
       <c r="FQ96" s="1"/>
       <c r="GX96" s="1"/>
-      <c r="QQ96" s="1"/>
     </row>
     <row r="97" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A97" s="10">
-        <v>37591</v>
-      </c>
-      <c r="B97" s="9">
-        <v>0.16155516390609645</v>
+      <c r="A97" s="5">
+        <v>37561</v>
+      </c>
+      <c r="B97" s="6">
+        <v>0.15765516285709646</v>
       </c>
       <c r="CG97" s="1"/>
       <c r="CH97" s="1"/>
@@ -4770,11 +4769,11 @@
       <c r="QQ97" s="1"/>
     </row>
     <row r="98" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A98" s="10">
-        <v>37622</v>
-      </c>
-      <c r="B98" s="9">
-        <v>0.16721818984210535</v>
+      <c r="A98" s="5">
+        <v>37591</v>
+      </c>
+      <c r="B98" s="6">
+        <v>0.16155516390609645</v>
       </c>
       <c r="CG98" s="1"/>
       <c r="CH98" s="1"/>
@@ -4786,15 +4785,6 @@
       <c r="CN98" s="1"/>
       <c r="CO98" s="1"/>
       <c r="CP98" s="1"/>
-      <c r="CR98" s="1"/>
-      <c r="CS98" s="1"/>
-      <c r="CT98" s="1"/>
-      <c r="CU98" s="1"/>
-      <c r="CV98" s="1"/>
-      <c r="CW98" s="1"/>
-      <c r="CX98" s="1"/>
-      <c r="CY98" s="1"/>
-      <c r="CZ98" s="1"/>
       <c r="DC98" s="1"/>
       <c r="DE98" s="1"/>
       <c r="DF98" s="1"/>
@@ -4810,11 +4800,11 @@
       <c r="QQ98" s="1"/>
     </row>
     <row r="99" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A99" s="10">
-        <v>37653</v>
-      </c>
-      <c r="B99" s="9">
-        <v>0.16873740603929704</v>
+      <c r="A99" s="5">
+        <v>37622</v>
+      </c>
+      <c r="B99" s="6">
+        <v>0.16721818984210535</v>
       </c>
       <c r="CG99" s="1"/>
       <c r="CH99" s="1"/>
@@ -4843,28 +4833,18 @@
       <c r="DI99" s="1"/>
       <c r="DJ99" s="1"/>
       <c r="DK99" s="1"/>
-      <c r="DN99" s="1"/>
-      <c r="DP99" s="1"/>
-      <c r="DQ99" s="1"/>
-      <c r="DR99" s="1"/>
-      <c r="DS99" s="1"/>
-      <c r="DT99" s="1"/>
-      <c r="DU99" s="1"/>
-      <c r="DV99" s="1"/>
       <c r="EJ99" s="1"/>
       <c r="EU99" s="1"/>
       <c r="FQ99" s="1"/>
       <c r="GX99" s="1"/>
-      <c r="IE99" s="1"/>
-      <c r="OC99" s="1"/>
       <c r="QQ99" s="1"/>
     </row>
     <row r="100" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A100" s="10">
-        <v>37681</v>
-      </c>
-      <c r="B100" s="9">
-        <v>0.17960657789052537</v>
+      <c r="A100" s="5">
+        <v>37653</v>
+      </c>
+      <c r="B100" s="6">
+        <v>0.16873740603929704</v>
       </c>
       <c r="CG100" s="1"/>
       <c r="CH100" s="1"/>
@@ -4906,16 +4886,15 @@
       <c r="FQ100" s="1"/>
       <c r="GX100" s="1"/>
       <c r="IE100" s="1"/>
-      <c r="MV100" s="1"/>
       <c r="OC100" s="1"/>
       <c r="QQ100" s="1"/>
     </row>
     <row r="101" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A101" s="10">
-        <v>37712</v>
-      </c>
-      <c r="B101" s="9">
-        <v>0.17370103158576525</v>
+      <c r="A101" s="5">
+        <v>37681</v>
+      </c>
+      <c r="B101" s="6">
+        <v>0.17960657789052537</v>
       </c>
       <c r="CG101" s="1"/>
       <c r="CH101" s="1"/>
@@ -4962,11 +4941,11 @@
       <c r="QQ101" s="1"/>
     </row>
     <row r="102" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A102" s="10">
-        <v>37742</v>
-      </c>
-      <c r="B102" s="9">
-        <v>0.17745962817797939</v>
+      <c r="A102" s="5">
+        <v>37712</v>
+      </c>
+      <c r="B102" s="6">
+        <v>0.17370103158576525</v>
       </c>
       <c r="CG102" s="1"/>
       <c r="CH102" s="1"/>
@@ -5003,7 +4982,6 @@
       <c r="DT102" s="1"/>
       <c r="DU102" s="1"/>
       <c r="DV102" s="1"/>
-      <c r="DY102" s="1"/>
       <c r="EJ102" s="1"/>
       <c r="EU102" s="1"/>
       <c r="FQ102" s="1"/>
@@ -5014,11 +4992,11 @@
       <c r="QQ102" s="1"/>
     </row>
     <row r="103" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A103" s="10">
-        <v>37773</v>
-      </c>
-      <c r="B103" s="9">
-        <v>0.17353423821042152</v>
+      <c r="A103" s="5">
+        <v>37742</v>
+      </c>
+      <c r="B103" s="6">
+        <v>0.17745962817797939</v>
       </c>
       <c r="CG103" s="1"/>
       <c r="CH103" s="1"/>
@@ -5058,7 +5036,6 @@
       <c r="DY103" s="1"/>
       <c r="EJ103" s="1"/>
       <c r="EU103" s="1"/>
-      <c r="FF103" s="1"/>
       <c r="FQ103" s="1"/>
       <c r="GX103" s="1"/>
       <c r="IE103" s="1"/>
@@ -5067,11 +5044,11 @@
       <c r="QQ103" s="1"/>
     </row>
     <row r="104" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A104" s="10">
-        <v>37803</v>
-      </c>
-      <c r="B104" s="9">
-        <v>0.16443232371464103</v>
+      <c r="A104" s="5">
+        <v>37773</v>
+      </c>
+      <c r="B104" s="6">
+        <v>0.17353423821042152</v>
       </c>
       <c r="CG104" s="1"/>
       <c r="CH104" s="1"/>
@@ -5120,11 +5097,11 @@
       <c r="QQ104" s="1"/>
     </row>
     <row r="105" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A105" s="10">
-        <v>37834</v>
-      </c>
-      <c r="B105" s="9">
-        <v>0.16083606998584948</v>
+      <c r="A105" s="5">
+        <v>37803</v>
+      </c>
+      <c r="B105" s="6">
+        <v>0.16443232371464103</v>
       </c>
       <c r="CG105" s="1"/>
       <c r="CH105" s="1"/>
@@ -5167,18 +5144,17 @@
       <c r="FF105" s="1"/>
       <c r="FQ105" s="1"/>
       <c r="GX105" s="1"/>
-      <c r="HT105" s="1"/>
       <c r="IE105" s="1"/>
       <c r="MV105" s="1"/>
       <c r="OC105" s="1"/>
       <c r="QQ105" s="1"/>
     </row>
     <row r="106" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A106" s="10">
-        <v>37865</v>
-      </c>
-      <c r="B106" s="9">
-        <v>0.19762447566023092</v>
+      <c r="A106" s="5">
+        <v>37834</v>
+      </c>
+      <c r="B106" s="6">
+        <v>0.16083606998584948</v>
       </c>
       <c r="CG106" s="1"/>
       <c r="CH106" s="1"/>
@@ -5220,23 +5196,19 @@
       <c r="EU106" s="1"/>
       <c r="FF106" s="1"/>
       <c r="FQ106" s="1"/>
-      <c r="GB106" s="1"/>
       <c r="GX106" s="1"/>
       <c r="HT106" s="1"/>
       <c r="IE106" s="1"/>
-      <c r="KS106" s="1"/>
       <c r="MV106" s="1"/>
       <c r="OC106" s="1"/>
-      <c r="PJ106" s="1"/>
       <c r="QQ106" s="1"/>
-      <c r="RX106" s="1"/>
     </row>
     <row r="107" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A107" s="10">
-        <v>37895</v>
-      </c>
-      <c r="B107" s="9">
-        <v>0.18706253495325156</v>
+      <c r="A107" s="5">
+        <v>37865</v>
+      </c>
+      <c r="B107" s="6">
+        <v>0.19762447566023092</v>
       </c>
       <c r="CG107" s="1"/>
       <c r="CH107" s="1"/>
@@ -5290,11 +5262,11 @@
       <c r="RX107" s="1"/>
     </row>
     <row r="108" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A108" s="10">
-        <v>37926</v>
-      </c>
-      <c r="B108" s="9">
-        <v>0.18579912866791054</v>
+      <c r="A108" s="5">
+        <v>37895</v>
+      </c>
+      <c r="B108" s="6">
+        <v>0.18706253495325156</v>
       </c>
       <c r="CG108" s="1"/>
       <c r="CH108" s="1"/>
@@ -5338,10 +5310,8 @@
       <c r="FQ108" s="1"/>
       <c r="GB108" s="1"/>
       <c r="GX108" s="1"/>
-      <c r="HI108" s="1"/>
       <c r="HT108" s="1"/>
       <c r="IE108" s="1"/>
-      <c r="KH108" s="1"/>
       <c r="KS108" s="1"/>
       <c r="MV108" s="1"/>
       <c r="OC108" s="1"/>
@@ -5350,11 +5320,11 @@
       <c r="RX108" s="1"/>
     </row>
     <row r="109" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A109" s="10">
-        <v>37956</v>
-      </c>
-      <c r="B109" s="9">
-        <v>0.15228963728645464</v>
+      <c r="A109" s="5">
+        <v>37926</v>
+      </c>
+      <c r="B109" s="6">
+        <v>0.18579912866791054</v>
       </c>
       <c r="CG109" s="1"/>
       <c r="CH109" s="1"/>
@@ -5401,8 +5371,6 @@
       <c r="HI109" s="1"/>
       <c r="HT109" s="1"/>
       <c r="IE109" s="1"/>
-      <c r="IP109" s="1"/>
-      <c r="JW109" s="1"/>
       <c r="KH109" s="1"/>
       <c r="KS109" s="1"/>
       <c r="MV109" s="1"/>
@@ -5412,11 +5380,11 @@
       <c r="RX109" s="1"/>
     </row>
     <row r="110" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A110" s="10">
-        <v>37987</v>
-      </c>
-      <c r="B110" s="9">
-        <v>0.14979423018271038</v>
+      <c r="A110" s="5">
+        <v>37956</v>
+      </c>
+      <c r="B110" s="6">
+        <v>0.15228963728645464</v>
       </c>
       <c r="CG110" s="1"/>
       <c r="CH110" s="1"/>
@@ -5474,11 +5442,11 @@
       <c r="RX110" s="1"/>
     </row>
     <row r="111" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A111" s="10">
-        <v>38018</v>
-      </c>
-      <c r="B111" s="9">
-        <v>0.15531103806729979</v>
+      <c r="A111" s="5">
+        <v>37987</v>
+      </c>
+      <c r="B111" s="6">
+        <v>0.14979423018271038</v>
       </c>
       <c r="CG111" s="1"/>
       <c r="CH111" s="1"/>
@@ -5536,11 +5504,11 @@
       <c r="RX111" s="1"/>
     </row>
     <row r="112" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A112" s="10">
-        <v>38047</v>
-      </c>
-      <c r="B112" s="9">
-        <v>0.15189953279944524</v>
+      <c r="A112" s="5">
+        <v>38018</v>
+      </c>
+      <c r="B112" s="6">
+        <v>0.15531103806729979</v>
       </c>
       <c r="CG112" s="1"/>
       <c r="CH112" s="1"/>
@@ -5591,8 +5559,6 @@
       <c r="JW112" s="1"/>
       <c r="KH112" s="1"/>
       <c r="KS112" s="1"/>
-      <c r="LO112" s="1"/>
-      <c r="LZ112" s="1"/>
       <c r="MV112" s="1"/>
       <c r="OC112" s="1"/>
       <c r="PJ112" s="1"/>
@@ -5600,11 +5566,11 @@
       <c r="RX112" s="1"/>
     </row>
     <row r="113" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A113" s="10">
-        <v>38078</v>
-      </c>
-      <c r="B113" s="9">
-        <v>0.14238155308795486</v>
+      <c r="A113" s="5">
+        <v>38047</v>
+      </c>
+      <c r="B113" s="6">
+        <v>0.15189953279944524</v>
       </c>
       <c r="CG113" s="1"/>
       <c r="CH113" s="1"/>
@@ -5647,7 +5613,6 @@
       <c r="FF113" s="1"/>
       <c r="FQ113" s="1"/>
       <c r="GB113" s="1"/>
-      <c r="GM113" s="1"/>
       <c r="GX113" s="1"/>
       <c r="HI113" s="1"/>
       <c r="HT113" s="1"/>
@@ -5665,11 +5630,11 @@
       <c r="RX113" s="1"/>
     </row>
     <row r="114" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A114" s="10">
-        <v>38108</v>
-      </c>
-      <c r="B114" s="9">
-        <v>0.13993688563245948</v>
+      <c r="A114" s="5">
+        <v>38078</v>
+      </c>
+      <c r="B114" s="6">
+        <v>0.14238155308795486</v>
       </c>
       <c r="CG114" s="1"/>
       <c r="CH114" s="1"/>
@@ -5721,31 +5686,20 @@
       <c r="JW114" s="1"/>
       <c r="KH114" s="1"/>
       <c r="KS114" s="1"/>
-      <c r="LD114" s="1"/>
-      <c r="LE114" s="1"/>
-      <c r="LF114" s="1"/>
-      <c r="LG114" s="1"/>
-      <c r="LH114" s="1"/>
-      <c r="LI114" s="1"/>
-      <c r="LJ114" s="1"/>
-      <c r="LK114" s="1"/>
-      <c r="LL114" s="1"/>
-      <c r="LM114" s="1"/>
       <c r="LO114" s="1"/>
       <c r="LZ114" s="1"/>
       <c r="MV114" s="1"/>
-      <c r="NG114" s="1"/>
       <c r="OC114" s="1"/>
       <c r="PJ114" s="1"/>
       <c r="QQ114" s="1"/>
       <c r="RX114" s="1"/>
     </row>
     <row r="115" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A115" s="10">
-        <v>38139</v>
-      </c>
-      <c r="B115" s="9">
-        <v>0.13205156859518685</v>
+      <c r="A115" s="5">
+        <v>38108</v>
+      </c>
+      <c r="B115" s="6">
+        <v>0.13993688563245948</v>
       </c>
       <c r="CG115" s="1"/>
       <c r="CH115" s="1"/>
@@ -5794,7 +5748,6 @@
       <c r="HT115" s="1"/>
       <c r="IE115" s="1"/>
       <c r="IP115" s="1"/>
-      <c r="JL115" s="1"/>
       <c r="JW115" s="1"/>
       <c r="KH115" s="1"/>
       <c r="KS115" s="1"/>
@@ -5814,25 +5767,15 @@
       <c r="NG115" s="1"/>
       <c r="OC115" s="1"/>
       <c r="PJ115" s="1"/>
-      <c r="PU115" s="1"/>
-      <c r="PV115" s="1"/>
-      <c r="PW115" s="1"/>
-      <c r="PX115" s="1"/>
-      <c r="PY115" s="1"/>
-      <c r="PZ115" s="1"/>
-      <c r="QA115" s="1"/>
-      <c r="QB115" s="1"/>
-      <c r="QC115" s="1"/>
-      <c r="QD115" s="1"/>
       <c r="QQ115" s="1"/>
       <c r="RX115" s="1"/>
     </row>
     <row r="116" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A116" s="10">
-        <v>38169</v>
-      </c>
-      <c r="B116" s="9">
-        <v>0.1321356483644931</v>
+      <c r="A116" s="5">
+        <v>38139</v>
+      </c>
+      <c r="B116" s="6">
+        <v>0.13205156859518685</v>
       </c>
       <c r="CG116" s="1"/>
       <c r="CH116" s="1"/>
@@ -5881,7 +5824,6 @@
       <c r="HT116" s="1"/>
       <c r="IE116" s="1"/>
       <c r="IP116" s="1"/>
-      <c r="JA116" s="1"/>
       <c r="JL116" s="1"/>
       <c r="JW116" s="1"/>
       <c r="KH116" s="1"/>
@@ -5898,7 +5840,6 @@
       <c r="LM116" s="1"/>
       <c r="LO116" s="1"/>
       <c r="LZ116" s="1"/>
-      <c r="MK116" s="1"/>
       <c r="MV116" s="1"/>
       <c r="NG116" s="1"/>
       <c r="OC116" s="1"/>
@@ -5917,11 +5858,11 @@
       <c r="RX116" s="1"/>
     </row>
     <row r="117" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A117" s="10">
-        <v>38200</v>
-      </c>
-      <c r="B117" s="9">
-        <v>0.13235416398227642</v>
+      <c r="A117" s="5">
+        <v>38169</v>
+      </c>
+      <c r="B117" s="6">
+        <v>0.1321356483644931</v>
       </c>
       <c r="CG117" s="1"/>
       <c r="CH117" s="1"/>
@@ -6006,11 +5947,11 @@
       <c r="RX117" s="1"/>
     </row>
     <row r="118" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A118" s="10">
-        <v>38231</v>
-      </c>
-      <c r="B118" s="9">
-        <v>0.14198841003714582</v>
+      <c r="A118" s="5">
+        <v>38200</v>
+      </c>
+      <c r="B118" s="6">
+        <v>0.13235416398227642</v>
       </c>
       <c r="CG118" s="1"/>
       <c r="CH118" s="1"/>
@@ -6095,11 +6036,11 @@
       <c r="RX118" s="1"/>
     </row>
     <row r="119" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A119" s="10">
-        <v>38261</v>
-      </c>
-      <c r="B119" s="9">
-        <v>0.14054340020098038</v>
+      <c r="A119" s="5">
+        <v>38231</v>
+      </c>
+      <c r="B119" s="6">
+        <v>0.14198841003714582</v>
       </c>
       <c r="CG119" s="1"/>
       <c r="CH119" s="1"/>
@@ -6184,11 +6125,11 @@
       <c r="RX119" s="1"/>
     </row>
     <row r="120" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A120" s="10">
-        <v>38292</v>
-      </c>
-      <c r="B120" s="9">
-        <v>0.13208337856049901</v>
+      <c r="A120" s="5">
+        <v>38261</v>
+      </c>
+      <c r="B120" s="6">
+        <v>0.14054340020098038</v>
       </c>
       <c r="CG120" s="1"/>
       <c r="CH120" s="1"/>
@@ -6258,7 +6199,6 @@
       <c r="MV120" s="1"/>
       <c r="NG120" s="1"/>
       <c r="OC120" s="1"/>
-      <c r="ON120" s="1"/>
       <c r="PJ120" s="1"/>
       <c r="PU120" s="1"/>
       <c r="PV120" s="1"/>
@@ -6274,11 +6214,11 @@
       <c r="RX120" s="1"/>
     </row>
     <row r="121" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A121" s="10">
-        <v>38322</v>
-      </c>
-      <c r="B121" s="9">
-        <v>0.13722393226951568</v>
+      <c r="A121" s="5">
+        <v>38292</v>
+      </c>
+      <c r="B121" s="6">
+        <v>0.13208337856049901</v>
       </c>
       <c r="CG121" s="1"/>
       <c r="CH121" s="1"/>
@@ -6364,11 +6304,11 @@
       <c r="RX121" s="1"/>
     </row>
     <row r="122" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A122" s="10">
-        <v>38353</v>
-      </c>
-      <c r="B122" s="9">
-        <v>0.13998031470880479</v>
+      <c r="A122" s="5">
+        <v>38322</v>
+      </c>
+      <c r="B122" s="6">
+        <v>0.13722393226951568</v>
       </c>
       <c r="CG122" s="1"/>
       <c r="CH122" s="1"/>
@@ -6454,11 +6394,11 @@
       <c r="RX122" s="1"/>
     </row>
     <row r="123" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A123" s="10">
-        <v>38384</v>
-      </c>
-      <c r="B123" s="9">
-        <v>0.14381330437458539</v>
+      <c r="A123" s="5">
+        <v>38353</v>
+      </c>
+      <c r="B123" s="6">
+        <v>0.13998031470880479</v>
       </c>
       <c r="CG123" s="1"/>
       <c r="CH123" s="1"/>
@@ -6527,10 +6467,8 @@
       <c r="MK123" s="1"/>
       <c r="MV123" s="1"/>
       <c r="NG123" s="1"/>
-      <c r="NR123" s="1"/>
       <c r="OC123" s="1"/>
       <c r="ON123" s="1"/>
-      <c r="OY123" s="1"/>
       <c r="PJ123" s="1"/>
       <c r="PU123" s="1"/>
       <c r="PV123" s="1"/>
@@ -6546,11 +6484,11 @@
       <c r="RX123" s="1"/>
     </row>
     <row r="124" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A124" s="10">
-        <v>38412</v>
-      </c>
-      <c r="B124" s="9">
-        <v>0.13883886128708484</v>
+      <c r="A124" s="5">
+        <v>38384</v>
+      </c>
+      <c r="B124" s="6">
+        <v>0.14381330437458539</v>
       </c>
       <c r="CG124" s="1"/>
       <c r="CH124" s="1"/>
@@ -6638,11 +6576,11 @@
       <c r="RX124" s="1"/>
     </row>
     <row r="125" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A125" s="10">
-        <v>38443</v>
-      </c>
-      <c r="B125" s="9">
-        <v>0.14223096597630486</v>
+      <c r="A125" s="5">
+        <v>38412</v>
+      </c>
+      <c r="B125" s="6">
+        <v>0.13883886128708484</v>
       </c>
       <c r="CG125" s="1"/>
       <c r="CH125" s="1"/>
@@ -6730,11 +6668,11 @@
       <c r="RX125" s="1"/>
     </row>
     <row r="126" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A126" s="10">
-        <v>38473</v>
-      </c>
-      <c r="B126" s="9">
-        <v>0.15130856651883109</v>
+      <c r="A126" s="5">
+        <v>38443</v>
+      </c>
+      <c r="B126" s="6">
+        <v>0.14223096597630486</v>
       </c>
       <c r="CG126" s="1"/>
       <c r="CH126" s="1"/>
@@ -6819,15 +6757,14 @@
       <c r="QC126" s="1"/>
       <c r="QD126" s="1"/>
       <c r="QQ126" s="1"/>
-      <c r="RM126" s="1"/>
       <c r="RX126" s="1"/>
     </row>
     <row r="127" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A127" s="10">
-        <v>38504</v>
-      </c>
-      <c r="B127" s="9">
-        <v>0.17613645867084826</v>
+      <c r="A127" s="5">
+        <v>38473</v>
+      </c>
+      <c r="B127" s="6">
+        <v>0.15130856651883109</v>
       </c>
       <c r="CG127" s="1"/>
       <c r="CH127" s="1"/>
@@ -6912,16 +6849,15 @@
       <c r="QC127" s="1"/>
       <c r="QD127" s="1"/>
       <c r="QQ127" s="1"/>
-      <c r="RB127" s="1"/>
       <c r="RM127" s="1"/>
       <c r="RX127" s="1"/>
     </row>
     <row r="128" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A128" s="10">
-        <v>38534</v>
-      </c>
-      <c r="B128" s="9">
-        <v>0.17526795031368764</v>
+      <c r="A128" s="5">
+        <v>38504</v>
+      </c>
+      <c r="B128" s="6">
+        <v>0.17613645867084826</v>
       </c>
       <c r="CG128" s="1"/>
       <c r="CH128" s="1"/>
@@ -7011,11 +6947,11 @@
       <c r="RX128" s="1"/>
     </row>
     <row r="129" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A129" s="10">
-        <v>38565</v>
-      </c>
-      <c r="B129" s="9">
-        <v>0.17356897074457586</v>
+      <c r="A129" s="5">
+        <v>38534</v>
+      </c>
+      <c r="B129" s="6">
+        <v>0.17526795031368764</v>
       </c>
       <c r="CG129" s="1"/>
       <c r="CH129" s="1"/>
@@ -7105,11 +7041,11 @@
       <c r="RX129" s="1"/>
     </row>
     <row r="130" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A130" s="10">
-        <v>38596</v>
-      </c>
-      <c r="B130" s="9">
-        <v>0.13496571144618535</v>
+      <c r="A130" s="5">
+        <v>38565</v>
+      </c>
+      <c r="B130" s="6">
+        <v>0.17356897074457586</v>
       </c>
       <c r="CG130" s="1"/>
       <c r="CH130" s="1"/>
@@ -7199,11 +7135,11 @@
       <c r="RX130" s="1"/>
     </row>
     <row r="131" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A131" s="10">
-        <v>38626</v>
-      </c>
-      <c r="B131" s="9">
-        <v>0.13393339678506488</v>
+      <c r="A131" s="5">
+        <v>38596</v>
+      </c>
+      <c r="B131" s="6">
+        <v>0.13496571144618535</v>
       </c>
       <c r="CG131" s="1"/>
       <c r="CH131" s="1"/>
@@ -7293,11 +7229,11 @@
       <c r="RX131" s="1"/>
     </row>
     <row r="132" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A132" s="10">
-        <v>38657</v>
-      </c>
-      <c r="B132" s="9">
-        <v>0.13831045015123039</v>
+      <c r="A132" s="5">
+        <v>38626</v>
+      </c>
+      <c r="B132" s="6">
+        <v>0.13393339678506488</v>
       </c>
       <c r="CG132" s="1"/>
       <c r="CH132" s="1"/>
@@ -7387,11 +7323,11 @@
       <c r="RX132" s="1"/>
     </row>
     <row r="133" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A133" s="10">
-        <v>38687</v>
-      </c>
-      <c r="B133" s="9">
-        <v>0.12603299570326587</v>
+      <c r="A133" s="5">
+        <v>38657</v>
+      </c>
+      <c r="B133" s="6">
+        <v>0.13831045015123039</v>
       </c>
       <c r="CG133" s="1"/>
       <c r="CH133" s="1"/>
@@ -7481,11 +7417,11 @@
       <c r="RX133" s="1"/>
     </row>
     <row r="134" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A134" s="10">
-        <v>38718</v>
-      </c>
-      <c r="B134" s="9">
-        <v>0.12251013261185581</v>
+      <c r="A134" s="5">
+        <v>38687</v>
+      </c>
+      <c r="B134" s="6">
+        <v>0.12603299570326587</v>
       </c>
       <c r="CG134" s="1"/>
       <c r="CH134" s="1"/>
@@ -7575,11 +7511,11 @@
       <c r="RX134" s="1"/>
     </row>
     <row r="135" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A135" s="10">
-        <v>38749</v>
-      </c>
-      <c r="B135" s="9">
-        <v>0.11689155988668461</v>
+      <c r="A135" s="5">
+        <v>38718</v>
+      </c>
+      <c r="B135" s="6">
+        <v>0.12251013261185581</v>
       </c>
       <c r="CG135" s="1"/>
       <c r="CH135" s="1"/>
@@ -7669,11 +7605,11 @@
       <c r="RX135" s="1"/>
     </row>
     <row r="136" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A136" s="10">
-        <v>38777</v>
-      </c>
-      <c r="B136" s="9">
-        <v>0.11182793411322625</v>
+      <c r="A136" s="5">
+        <v>38749</v>
+      </c>
+      <c r="B136" s="6">
+        <v>0.11689155988668461</v>
       </c>
       <c r="CG136" s="1"/>
       <c r="CH136" s="1"/>
@@ -7763,11 +7699,11 @@
       <c r="RX136" s="1"/>
     </row>
     <row r="137" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A137" s="10">
-        <v>38808</v>
-      </c>
-      <c r="B137" s="9">
-        <v>0.1062966817216436</v>
+      <c r="A137" s="5">
+        <v>38777</v>
+      </c>
+      <c r="B137" s="6">
+        <v>0.11182793411322625</v>
       </c>
       <c r="CG137" s="1"/>
       <c r="CH137" s="1"/>
@@ -7857,11 +7793,11 @@
       <c r="RX137" s="1"/>
     </row>
     <row r="138" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A138" s="10">
-        <v>38838</v>
-      </c>
-      <c r="B138" s="9">
-        <v>0.10685897585166657</v>
+      <c r="A138" s="5">
+        <v>38808</v>
+      </c>
+      <c r="B138" s="6">
+        <v>0.1062966817216436</v>
       </c>
       <c r="CG138" s="1"/>
       <c r="CH138" s="1"/>
@@ -7951,11 +7887,11 @@
       <c r="RX138" s="1"/>
     </row>
     <row r="139" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A139" s="10">
-        <v>38869</v>
-      </c>
-      <c r="B139" s="9">
-        <v>0.10321059015113987</v>
+      <c r="A139" s="5">
+        <v>38838</v>
+      </c>
+      <c r="B139" s="6">
+        <v>0.10685897585166657</v>
       </c>
       <c r="CG139" s="1"/>
       <c r="CH139" s="1"/>
@@ -8045,11 +7981,11 @@
       <c r="RX139" s="1"/>
     </row>
     <row r="140" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A140" s="10">
-        <v>38899</v>
-      </c>
-      <c r="B140" s="9">
-        <v>0.1042737605249823</v>
+      <c r="A140" s="5">
+        <v>38869</v>
+      </c>
+      <c r="B140" s="6">
+        <v>0.10321059015113987</v>
       </c>
       <c r="CG140" s="1"/>
       <c r="CH140" s="1"/>
@@ -8139,11 +8075,11 @@
       <c r="RX140" s="1"/>
     </row>
     <row r="141" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A141" s="10">
-        <v>38930</v>
-      </c>
-      <c r="B141" s="9">
-        <v>9.9191823334113305E-2</v>
+      <c r="A141" s="5">
+        <v>38899</v>
+      </c>
+      <c r="B141" s="6">
+        <v>0.1042737605249823</v>
       </c>
       <c r="CG141" s="1"/>
       <c r="CH141" s="1"/>
@@ -8233,11 +8169,11 @@
       <c r="RX141" s="1"/>
     </row>
     <row r="142" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A142" s="10">
-        <v>38961</v>
-      </c>
-      <c r="B142" s="9">
-        <v>9.7977952179741312E-2</v>
+      <c r="A142" s="5">
+        <v>38930</v>
+      </c>
+      <c r="B142" s="6">
+        <v>9.9191823334113305E-2</v>
       </c>
       <c r="CG142" s="1"/>
       <c r="CH142" s="1"/>
@@ -8327,11 +8263,11 @@
       <c r="RX142" s="1"/>
     </row>
     <row r="143" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A143" s="10">
-        <v>38991</v>
-      </c>
-      <c r="B143" s="9">
-        <v>9.5864636506678785E-2</v>
+      <c r="A143" s="5">
+        <v>38961</v>
+      </c>
+      <c r="B143" s="6">
+        <v>9.7977952179741312E-2</v>
       </c>
       <c r="CG143" s="1"/>
       <c r="CH143" s="1"/>
@@ -8421,11 +8357,11 @@
       <c r="RX143" s="1"/>
     </row>
     <row r="144" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A144" s="10">
-        <v>39022</v>
-      </c>
-      <c r="B144" s="9">
-        <v>8.8506947539146508E-2</v>
+      <c r="A144" s="5">
+        <v>38991</v>
+      </c>
+      <c r="B144" s="6">
+        <v>9.5864636506678785E-2</v>
       </c>
       <c r="CG144" s="1"/>
       <c r="CH144" s="1"/>
@@ -8515,11 +8451,11 @@
       <c r="RX144" s="1"/>
     </row>
     <row r="145" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A145" s="10">
-        <v>39052</v>
-      </c>
-      <c r="B145" s="9">
-        <v>8.2991557693164242E-2</v>
+      <c r="A145" s="5">
+        <v>39022</v>
+      </c>
+      <c r="B145" s="6">
+        <v>8.8506947539146508E-2</v>
       </c>
       <c r="CG145" s="1"/>
       <c r="CH145" s="1"/>
@@ -8609,11 +8545,11 @@
       <c r="RX145" s="1"/>
     </row>
     <row r="146" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A146" s="10">
-        <v>39083</v>
-      </c>
-      <c r="B146" s="9">
-        <v>7.7215118349207135E-2</v>
+      <c r="A146" s="5">
+        <v>39052</v>
+      </c>
+      <c r="B146" s="6">
+        <v>8.2991557693164242E-2</v>
       </c>
       <c r="CG146" s="1"/>
       <c r="CH146" s="1"/>
@@ -8703,11 +8639,11 @@
       <c r="RX146" s="1"/>
     </row>
     <row r="147" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A147" s="10">
-        <v>39114</v>
-      </c>
-      <c r="B147" s="9">
-        <v>7.9397037241236174E-2</v>
+      <c r="A147" s="5">
+        <v>39083</v>
+      </c>
+      <c r="B147" s="6">
+        <v>7.7215118349207135E-2</v>
       </c>
       <c r="CG147" s="1"/>
       <c r="CH147" s="1"/>
@@ -8797,11 +8733,11 @@
       <c r="RX147" s="1"/>
     </row>
     <row r="148" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A148" s="10">
-        <v>39142</v>
-      </c>
-      <c r="B148" s="9">
-        <v>9.5585255682960557E-2</v>
+      <c r="A148" s="5">
+        <v>39114</v>
+      </c>
+      <c r="B148" s="6">
+        <v>7.9397037241236174E-2</v>
       </c>
       <c r="CG148" s="1"/>
       <c r="CH148" s="1"/>
@@ -8891,11 +8827,11 @@
       <c r="RX148" s="1"/>
     </row>
     <row r="149" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A149" s="10">
-        <v>39173</v>
-      </c>
-      <c r="B149" s="9">
-        <v>8.580606474485139E-2</v>
+      <c r="A149" s="5">
+        <v>39142</v>
+      </c>
+      <c r="B149" s="6">
+        <v>9.5585255682960557E-2</v>
       </c>
       <c r="CG149" s="1"/>
       <c r="CH149" s="1"/>
@@ -8985,11 +8921,11 @@
       <c r="RX149" s="1"/>
     </row>
     <row r="150" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A150" s="10">
-        <v>39203</v>
-      </c>
-      <c r="B150" s="9">
-        <v>8.1207326443699546E-2</v>
+      <c r="A150" s="5">
+        <v>39173</v>
+      </c>
+      <c r="B150" s="6">
+        <v>8.580606474485139E-2</v>
       </c>
       <c r="CG150" s="1"/>
       <c r="CH150" s="1"/>
@@ -9079,11 +9015,11 @@
       <c r="RX150" s="1"/>
     </row>
     <row r="151" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A151" s="10">
-        <v>39234</v>
-      </c>
-      <c r="B151" s="9">
-        <v>8.2961482672590375E-2</v>
+      <c r="A151" s="5">
+        <v>39203</v>
+      </c>
+      <c r="B151" s="6">
+        <v>8.1207326443699546E-2</v>
       </c>
       <c r="CG151" s="1"/>
       <c r="CH151" s="1"/>
@@ -9173,11 +9109,11 @@
       <c r="RX151" s="1"/>
     </row>
     <row r="152" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A152" s="10">
-        <v>39264</v>
-      </c>
-      <c r="B152" s="9">
-        <v>8.5322650599013228E-2</v>
+      <c r="A152" s="5">
+        <v>39234</v>
+      </c>
+      <c r="B152" s="6">
+        <v>8.2961482672590375E-2</v>
       </c>
       <c r="CG152" s="1"/>
       <c r="CH152" s="1"/>
@@ -9267,11 +9203,11 @@
       <c r="RX152" s="1"/>
     </row>
     <row r="153" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A153" s="10">
-        <v>39295</v>
-      </c>
-      <c r="B153" s="9">
-        <v>8.5340133244383914E-2</v>
+      <c r="A153" s="5">
+        <v>39264</v>
+      </c>
+      <c r="B153" s="6">
+        <v>8.5322650599013228E-2</v>
       </c>
       <c r="CG153" s="1"/>
       <c r="CH153" s="1"/>
@@ -9361,11 +9297,11 @@
       <c r="RX153" s="1"/>
     </row>
     <row r="154" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A154" s="10">
-        <v>39326</v>
-      </c>
-      <c r="B154" s="9">
-        <v>8.8928884093107091E-2</v>
+      <c r="A154" s="5">
+        <v>39295</v>
+      </c>
+      <c r="B154" s="6">
+        <v>8.5340133244383914E-2</v>
       </c>
       <c r="CG154" s="1"/>
       <c r="CH154" s="1"/>
@@ -9455,11 +9391,11 @@
       <c r="RX154" s="1"/>
     </row>
     <row r="155" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A155" s="10">
-        <v>39356</v>
-      </c>
-      <c r="B155" s="9">
-        <v>8.7744511396229033E-2</v>
+      <c r="A155" s="5">
+        <v>39326</v>
+      </c>
+      <c r="B155" s="6">
+        <v>8.8928884093107091E-2</v>
       </c>
       <c r="CG155" s="1"/>
       <c r="CH155" s="1"/>
@@ -9549,11 +9485,11 @@
       <c r="RX155" s="1"/>
     </row>
     <row r="156" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A156" s="10">
-        <v>39387</v>
-      </c>
-      <c r="B156" s="9">
-        <v>9.3737830955098772E-2</v>
+      <c r="A156" s="5">
+        <v>39356</v>
+      </c>
+      <c r="B156" s="6">
+        <v>8.7744511396229033E-2</v>
       </c>
       <c r="CG156" s="1"/>
       <c r="CH156" s="1"/>
@@ -9643,11 +9579,11 @@
       <c r="RX156" s="1"/>
     </row>
     <row r="157" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A157" s="10">
-        <v>39417</v>
-      </c>
-      <c r="B157" s="9">
-        <v>8.671239907127623E-2</v>
+      <c r="A157" s="5">
+        <v>39387</v>
+      </c>
+      <c r="B157" s="6">
+        <v>9.3737830955098772E-2</v>
       </c>
       <c r="CG157" s="1"/>
       <c r="CH157" s="1"/>
@@ -9737,11 +9673,11 @@
       <c r="RX157" s="1"/>
     </row>
     <row r="158" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A158" s="10">
-        <v>39448</v>
-      </c>
-      <c r="B158" s="9">
-        <v>9.417152259727482E-2</v>
+      <c r="A158" s="5">
+        <v>39417</v>
+      </c>
+      <c r="B158" s="6">
+        <v>8.671239907127623E-2</v>
       </c>
       <c r="CG158" s="1"/>
       <c r="CH158" s="1"/>
@@ -9831,11 +9767,11 @@
       <c r="RX158" s="1"/>
     </row>
     <row r="159" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A159" s="10">
-        <v>39479</v>
-      </c>
-      <c r="B159" s="9">
-        <v>9.3871674916660583E-2</v>
+      <c r="A159" s="5">
+        <v>39448</v>
+      </c>
+      <c r="B159" s="6">
+        <v>9.417152259727482E-2</v>
       </c>
       <c r="CG159" s="1"/>
       <c r="CH159" s="1"/>
@@ -9925,11 +9861,11 @@
       <c r="RX159" s="1"/>
     </row>
     <row r="160" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A160" s="10">
-        <v>39508</v>
-      </c>
-      <c r="B160" s="9">
-        <v>9.5682797110982654E-2</v>
+      <c r="A160" s="5">
+        <v>39479</v>
+      </c>
+      <c r="B160" s="6">
+        <v>9.3871674916660583E-2</v>
       </c>
       <c r="CG160" s="1"/>
       <c r="CH160" s="1"/>
@@ -10019,11 +9955,11 @@
       <c r="RX160" s="1"/>
     </row>
     <row r="161" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A161" s="10">
-        <v>39539</v>
-      </c>
-      <c r="B161" s="9">
-        <v>8.9221726200208809E-2</v>
+      <c r="A161" s="5">
+        <v>39508</v>
+      </c>
+      <c r="B161" s="6">
+        <v>9.5682797110982654E-2</v>
       </c>
       <c r="CG161" s="1"/>
       <c r="CH161" s="1"/>
@@ -10113,11 +10049,11 @@
       <c r="RX161" s="1"/>
     </row>
     <row r="162" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A162" s="10">
-        <v>39569</v>
-      </c>
-      <c r="B162" s="9">
-        <v>8.5276870884392231E-2</v>
+      <c r="A162" s="5">
+        <v>39539</v>
+      </c>
+      <c r="B162" s="6">
+        <v>8.9221726200208809E-2</v>
       </c>
       <c r="CG162" s="1"/>
       <c r="CH162" s="1"/>
@@ -10207,11 +10143,11 @@
       <c r="RX162" s="1"/>
     </row>
     <row r="163" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A163" s="10">
-        <v>39600</v>
-      </c>
-      <c r="B163" s="9">
-        <v>9.0760799631218497E-2</v>
+      <c r="A163" s="5">
+        <v>39569</v>
+      </c>
+      <c r="B163" s="6">
+        <v>8.5276870884392231E-2</v>
       </c>
       <c r="CG163" s="1"/>
       <c r="CH163" s="1"/>
@@ -10301,11 +10237,11 @@
       <c r="RX163" s="1"/>
     </row>
     <row r="164" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A164" s="10">
-        <v>39630</v>
-      </c>
-      <c r="B164" s="9">
-        <v>9.0094041432956906E-2</v>
+      <c r="A164" s="5">
+        <v>39600</v>
+      </c>
+      <c r="B164" s="6">
+        <v>9.0760799631218497E-2</v>
       </c>
       <c r="CG164" s="1"/>
       <c r="CH164" s="1"/>
@@ -10395,11 +10331,11 @@
       <c r="RX164" s="1"/>
     </row>
     <row r="165" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A165" s="10">
-        <v>39661</v>
-      </c>
-      <c r="B165" s="9">
-        <v>9.2978334258690121E-2</v>
+      <c r="A165" s="5">
+        <v>39630</v>
+      </c>
+      <c r="B165" s="6">
+        <v>9.0094041432956906E-2</v>
       </c>
       <c r="CG165" s="1"/>
       <c r="CH165" s="1"/>
@@ -10489,11 +10425,11 @@
       <c r="RX165" s="1"/>
     </row>
     <row r="166" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A166" s="10">
-        <v>39692</v>
-      </c>
-      <c r="B166" s="9">
-        <v>0.1049190744132513</v>
+      <c r="A166" s="5">
+        <v>39661</v>
+      </c>
+      <c r="B166" s="6">
+        <v>9.2978334258690121E-2</v>
       </c>
       <c r="CG166" s="1"/>
       <c r="CH166" s="1"/>
@@ -10583,11 +10519,11 @@
       <c r="RX166" s="1"/>
     </row>
     <row r="167" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A167" s="10">
-        <v>39722</v>
-      </c>
-      <c r="B167" s="9">
-        <v>0.1150227873640902</v>
+      <c r="A167" s="5">
+        <v>39692</v>
+      </c>
+      <c r="B167" s="6">
+        <v>0.1049190744132513</v>
       </c>
       <c r="CG167" s="1"/>
       <c r="CH167" s="1"/>
@@ -10677,11 +10613,11 @@
       <c r="RX167" s="1"/>
     </row>
     <row r="168" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A168" s="10">
-        <v>39753</v>
-      </c>
-      <c r="B168" s="9">
-        <v>0.12713618920136005</v>
+      <c r="A168" s="5">
+        <v>39722</v>
+      </c>
+      <c r="B168" s="6">
+        <v>0.1150227873640902</v>
       </c>
       <c r="CG168" s="1"/>
       <c r="CH168" s="1"/>
@@ -10771,11 +10707,11 @@
       <c r="RX168" s="1"/>
     </row>
     <row r="169" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A169" s="10">
-        <v>39783</v>
-      </c>
-      <c r="B169" s="9">
-        <v>0.14219604354597082</v>
+      <c r="A169" s="5">
+        <v>39753</v>
+      </c>
+      <c r="B169" s="6">
+        <v>0.12713618920136005</v>
       </c>
       <c r="CG169" s="1"/>
       <c r="CH169" s="1"/>
@@ -10865,11 +10801,11 @@
       <c r="RX169" s="1"/>
     </row>
     <row r="170" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A170" s="10">
-        <v>39814</v>
-      </c>
-      <c r="B170" s="9">
-        <v>0.13409152093551951</v>
+      <c r="A170" s="5">
+        <v>39783</v>
+      </c>
+      <c r="B170" s="6">
+        <v>0.14219604354597082</v>
       </c>
       <c r="CG170" s="1"/>
       <c r="CH170" s="1"/>
@@ -10959,11 +10895,11 @@
       <c r="RX170" s="1"/>
     </row>
     <row r="171" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A171" s="10">
-        <v>39845</v>
-      </c>
-      <c r="B171" s="9">
-        <v>0.1323173344014103</v>
+      <c r="A171" s="5">
+        <v>39814</v>
+      </c>
+      <c r="B171" s="6">
+        <v>0.13409152093551951</v>
       </c>
       <c r="CG171" s="1"/>
       <c r="CH171" s="1"/>
@@ -11053,11 +10989,11 @@
       <c r="RX171" s="1"/>
     </row>
     <row r="172" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A172" s="10">
-        <v>39873</v>
-      </c>
-      <c r="B172" s="9">
-        <v>0.12184780792693525</v>
+      <c r="A172" s="5">
+        <v>39845</v>
+      </c>
+      <c r="B172" s="6">
+        <v>0.1323173344014103</v>
       </c>
       <c r="CG172" s="1"/>
       <c r="CH172" s="1"/>
@@ -11147,11 +11083,11 @@
       <c r="RX172" s="1"/>
     </row>
     <row r="173" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A173" s="10">
-        <v>39904</v>
-      </c>
-      <c r="B173" s="9">
-        <v>0.1088401890456267</v>
+      <c r="A173" s="5">
+        <v>39873</v>
+      </c>
+      <c r="B173" s="6">
+        <v>0.12184780792693525</v>
       </c>
       <c r="CG173" s="1"/>
       <c r="CH173" s="1"/>
@@ -11241,11 +11177,11 @@
       <c r="RX173" s="1"/>
     </row>
     <row r="174" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A174" s="10">
-        <v>39934</v>
-      </c>
-      <c r="B174" s="9">
-        <v>0.10207538732969924</v>
+      <c r="A174" s="5">
+        <v>39904</v>
+      </c>
+      <c r="B174" s="6">
+        <v>0.1088401890456267</v>
       </c>
       <c r="CG174" s="1"/>
       <c r="CH174" s="1"/>
@@ -11335,11 +11271,11 @@
       <c r="RX174" s="1"/>
     </row>
     <row r="175" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A175" s="10">
-        <v>39965</v>
-      </c>
-      <c r="B175" s="9">
-        <v>9.0431157247827659E-2</v>
+      <c r="A175" s="5">
+        <v>39934</v>
+      </c>
+      <c r="B175" s="6">
+        <v>0.10207538732969924</v>
       </c>
       <c r="CG175" s="1"/>
       <c r="CH175" s="1"/>
@@ -11429,11 +11365,11 @@
       <c r="RX175" s="1"/>
     </row>
     <row r="176" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A176" s="10">
-        <v>39995</v>
-      </c>
-      <c r="B176" s="9">
-        <v>8.8254360455356951E-2</v>
+      <c r="A176" s="5">
+        <v>39965</v>
+      </c>
+      <c r="B176" s="6">
+        <v>9.0431157247827659E-2</v>
       </c>
       <c r="CG176" s="1"/>
       <c r="CH176" s="1"/>
@@ -11523,11 +11459,11 @@
       <c r="RX176" s="1"/>
     </row>
     <row r="177" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A177" s="10">
-        <v>40026</v>
-      </c>
-      <c r="B177" s="9">
-        <v>8.5062467132288211E-2</v>
+      <c r="A177" s="5">
+        <v>39995</v>
+      </c>
+      <c r="B177" s="6">
+        <v>8.8254360455356951E-2</v>
       </c>
       <c r="CG177" s="1"/>
       <c r="CH177" s="1"/>
@@ -11617,11 +11553,11 @@
       <c r="RX177" s="1"/>
     </row>
     <row r="178" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A178" s="10">
-        <v>40057</v>
-      </c>
-      <c r="B178" s="9">
-        <v>8.194495980792163E-2</v>
+      <c r="A178" s="5">
+        <v>40026</v>
+      </c>
+      <c r="B178" s="6">
+        <v>8.5062467132288211E-2</v>
       </c>
       <c r="CG178" s="1"/>
       <c r="CH178" s="1"/>
@@ -11711,11 +11647,11 @@
       <c r="RX178" s="1"/>
     </row>
     <row r="179" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A179" s="10">
-        <v>40087</v>
-      </c>
-      <c r="B179" s="9">
-        <v>8.3103148537463978E-2</v>
+      <c r="A179" s="5">
+        <v>40057</v>
+      </c>
+      <c r="B179" s="6">
+        <v>8.194495980792163E-2</v>
       </c>
       <c r="CG179" s="1"/>
       <c r="CH179" s="1"/>
@@ -11805,11 +11741,11 @@
       <c r="RX179" s="1"/>
     </row>
     <row r="180" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A180" s="10">
-        <v>40118</v>
-      </c>
-      <c r="B180" s="9">
-        <v>8.4939307901060079E-2</v>
+      <c r="A180" s="5">
+        <v>40087</v>
+      </c>
+      <c r="B180" s="6">
+        <v>8.3103148537463978E-2</v>
       </c>
       <c r="CG180" s="1"/>
       <c r="CH180" s="1"/>
@@ -11899,11 +11835,11 @@
       <c r="RX180" s="1"/>
     </row>
     <row r="181" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A181" s="10">
-        <v>40148</v>
-      </c>
-      <c r="B181" s="9">
-        <v>9.1998835222545483E-2</v>
+      <c r="A181" s="5">
+        <v>40118</v>
+      </c>
+      <c r="B181" s="6">
+        <v>8.4939307901060079E-2</v>
       </c>
       <c r="CG181" s="1"/>
       <c r="CH181" s="1"/>
@@ -11993,11 +11929,11 @@
       <c r="RX181" s="1"/>
     </row>
     <row r="182" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A182" s="10">
-        <v>40179</v>
-      </c>
-      <c r="B182" s="9">
-        <v>9.4406445060834981E-2</v>
+      <c r="A182" s="5">
+        <v>40148</v>
+      </c>
+      <c r="B182" s="6">
+        <v>9.1998835222545483E-2</v>
       </c>
       <c r="CG182" s="1"/>
       <c r="CH182" s="1"/>
@@ -12087,11 +12023,11 @@
       <c r="RX182" s="1"/>
     </row>
     <row r="183" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A183" s="10">
-        <v>40210</v>
-      </c>
-      <c r="B183" s="9">
-        <v>9.677333010017547E-2</v>
+      <c r="A183" s="5">
+        <v>40179</v>
+      </c>
+      <c r="B183" s="6">
+        <v>9.4406445060834981E-2</v>
       </c>
       <c r="CG183" s="1"/>
       <c r="CH183" s="1"/>
@@ -12181,11 +12117,11 @@
       <c r="RX183" s="1"/>
     </row>
     <row r="184" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A184" s="10">
-        <v>40238</v>
-      </c>
-      <c r="B184" s="9">
-        <v>0.10525014956324957</v>
+      <c r="A184" s="5">
+        <v>40210</v>
+      </c>
+      <c r="B184" s="6">
+        <v>9.677333010017547E-2</v>
       </c>
       <c r="CG184" s="1"/>
       <c r="CH184" s="1"/>
@@ -12275,11 +12211,11 @@
       <c r="RX184" s="1"/>
     </row>
     <row r="185" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A185" s="10">
-        <v>40269</v>
-      </c>
-      <c r="B185" s="9">
-        <v>0.10079451028425426</v>
+      <c r="A185" s="5">
+        <v>40238</v>
+      </c>
+      <c r="B185" s="6">
+        <v>0.10525014956324957</v>
       </c>
       <c r="CG185" s="1"/>
       <c r="CH185" s="1"/>
@@ -12369,11 +12305,11 @@
       <c r="RX185" s="1"/>
     </row>
     <row r="186" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A186" s="10">
-        <v>40299</v>
-      </c>
-      <c r="B186" s="9">
-        <v>9.7475443102761017E-2</v>
+      <c r="A186" s="5">
+        <v>40269</v>
+      </c>
+      <c r="B186" s="6">
+        <v>0.10079451028425426</v>
       </c>
       <c r="CG186" s="1"/>
       <c r="CH186" s="1"/>
@@ -12463,11 +12399,11 @@
       <c r="RX186" s="1"/>
     </row>
     <row r="187" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A187" s="10">
-        <v>40330</v>
-      </c>
-      <c r="B187" s="9">
-        <v>0.10575656830811714</v>
+      <c r="A187" s="5">
+        <v>40299</v>
+      </c>
+      <c r="B187" s="6">
+        <v>9.7475443102761017E-2</v>
       </c>
       <c r="CG187" s="1"/>
       <c r="CH187" s="1"/>
@@ -12557,11 +12493,11 @@
       <c r="RX187" s="1"/>
     </row>
     <row r="188" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A188" s="10">
-        <v>40360</v>
-      </c>
-      <c r="B188" s="9">
-        <v>0.10532947410949854</v>
+      <c r="A188" s="5">
+        <v>40330</v>
+      </c>
+      <c r="B188" s="6">
+        <v>0.10575656830811714</v>
       </c>
       <c r="CG188" s="1"/>
       <c r="CH188" s="1"/>
@@ -12651,11 +12587,11 @@
       <c r="RX188" s="1"/>
     </row>
     <row r="189" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A189" s="10">
-        <v>40391</v>
-      </c>
-      <c r="B189" s="9">
-        <v>0.10550581781341299</v>
+      <c r="A189" s="5">
+        <v>40360</v>
+      </c>
+      <c r="B189" s="6">
+        <v>0.10532947410949854</v>
       </c>
       <c r="CG189" s="1"/>
       <c r="CH189" s="1"/>
@@ -12745,11 +12681,11 @@
       <c r="RX189" s="1"/>
     </row>
     <row r="190" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A190" s="10">
-        <v>40422</v>
-      </c>
-      <c r="B190" s="9">
-        <v>0.10964076002117032</v>
+      <c r="A190" s="5">
+        <v>40391</v>
+      </c>
+      <c r="B190" s="6">
+        <v>0.10550581781341299</v>
       </c>
       <c r="CG190" s="1"/>
       <c r="CH190" s="1"/>
@@ -12839,11 +12775,11 @@
       <c r="RX190" s="1"/>
     </row>
     <row r="191" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A191" s="10">
-        <v>40452</v>
-      </c>
-      <c r="B191" s="9">
-        <v>0.10513412866678648</v>
+      <c r="A191" s="5">
+        <v>40422</v>
+      </c>
+      <c r="B191" s="6">
+        <v>0.10964076002117032</v>
       </c>
       <c r="CG191" s="1"/>
       <c r="CH191" s="1"/>
@@ -12933,11 +12869,11 @@
       <c r="RX191" s="1"/>
     </row>
     <row r="192" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A192" s="10">
-        <v>40483</v>
-      </c>
-      <c r="B192" s="9">
-        <v>0.10473580686784892</v>
+      <c r="A192" s="5">
+        <v>40452</v>
+      </c>
+      <c r="B192" s="6">
+        <v>0.10513412866678648</v>
       </c>
       <c r="CG192" s="1"/>
       <c r="CH192" s="1"/>
@@ -13027,11 +12963,11 @@
       <c r="RX192" s="1"/>
     </row>
     <row r="193" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A193" s="7">
-        <v>40513</v>
-      </c>
-      <c r="B193" s="8">
-        <v>9.4346589276028653E-2</v>
+      <c r="A193" s="5">
+        <v>40483</v>
+      </c>
+      <c r="B193" s="6">
+        <v>0.10473580686784892</v>
       </c>
       <c r="CG193" s="1"/>
       <c r="CH193" s="1"/>
@@ -13121,11 +13057,11 @@
       <c r="RX193" s="1"/>
     </row>
     <row r="194" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A194" s="7">
-        <v>40544</v>
-      </c>
-      <c r="B194" s="8">
-        <v>9.5407238018712093E-2</v>
+      <c r="A194" s="5">
+        <v>40513</v>
+      </c>
+      <c r="B194" s="6">
+        <v>9.4346589276028653E-2</v>
       </c>
       <c r="CG194" s="1"/>
       <c r="CH194" s="1"/>
@@ -13215,11 +13151,11 @@
       <c r="RX194" s="1"/>
     </row>
     <row r="195" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A195" s="7">
-        <v>40575</v>
-      </c>
-      <c r="B195" s="8">
-        <v>9.3390806727688513E-2</v>
+      <c r="A195" s="5">
+        <v>40544</v>
+      </c>
+      <c r="B195" s="6">
+        <v>9.5407238018712093E-2</v>
       </c>
       <c r="CG195" s="1"/>
       <c r="CH195" s="1"/>
@@ -13309,11 +13245,11 @@
       <c r="RX195" s="1"/>
     </row>
     <row r="196" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A196" s="7">
-        <v>40603</v>
-      </c>
-      <c r="B196" s="8">
-        <v>9.3441141720405185E-2</v>
+      <c r="A196" s="5">
+        <v>40575</v>
+      </c>
+      <c r="B196" s="6">
+        <v>9.3390806727688513E-2</v>
       </c>
       <c r="CG196" s="1"/>
       <c r="CH196" s="1"/>
@@ -13403,11 +13339,11 @@
       <c r="RX196" s="1"/>
     </row>
     <row r="197" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A197" s="7">
-        <v>40634</v>
-      </c>
-      <c r="B197" s="8">
-        <v>9.3643791643206381E-2</v>
+      <c r="A197" s="5">
+        <v>40603</v>
+      </c>
+      <c r="B197" s="6">
+        <v>9.3441141720405185E-2</v>
       </c>
       <c r="CG197" s="1"/>
       <c r="CH197" s="1"/>
@@ -13497,11 +13433,11 @@
       <c r="RX197" s="1"/>
     </row>
     <row r="198" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A198" s="7">
-        <v>40664</v>
-      </c>
-      <c r="B198" s="8">
-        <v>0.10032836280974664</v>
+      <c r="A198" s="5">
+        <v>40634</v>
+      </c>
+      <c r="B198" s="6">
+        <v>9.3643791643206381E-2</v>
       </c>
       <c r="CG198" s="1"/>
       <c r="CH198" s="1"/>
@@ -13591,11 +13527,11 @@
       <c r="RX198" s="1"/>
     </row>
     <row r="199" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A199" s="7">
-        <v>40695</v>
-      </c>
-      <c r="B199" s="8">
-        <v>9.9388836279557288E-2</v>
+      <c r="A199" s="5">
+        <v>40664</v>
+      </c>
+      <c r="B199" s="6">
+        <v>0.10032836280974664</v>
       </c>
       <c r="CG199" s="1"/>
       <c r="CH199" s="1"/>
@@ -13685,11 +13621,11 @@
       <c r="RX199" s="1"/>
     </row>
     <row r="200" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A200" s="7">
-        <v>40725</v>
-      </c>
-      <c r="B200" s="8">
-        <v>0.10538607103302287</v>
+      <c r="A200" s="5">
+        <v>40695</v>
+      </c>
+      <c r="B200" s="6">
+        <v>9.9388836279557288E-2</v>
       </c>
       <c r="CG200" s="1"/>
       <c r="CH200" s="1"/>
@@ -13779,11 +13715,11 @@
       <c r="RX200" s="1"/>
     </row>
     <row r="201" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A201" s="7">
-        <v>40756</v>
-      </c>
-      <c r="B201" s="8">
-        <v>0.11212100068797148</v>
+      <c r="A201" s="5">
+        <v>40725</v>
+      </c>
+      <c r="B201" s="6">
+        <v>0.10538607103302287</v>
       </c>
       <c r="CG201" s="1"/>
       <c r="CH201" s="1"/>
@@ -13873,11 +13809,11 @@
       <c r="RX201" s="1"/>
     </row>
     <row r="202" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A202" s="7">
-        <v>40787</v>
-      </c>
-      <c r="B202" s="8">
-        <v>0.110785960833959</v>
+      <c r="A202" s="5">
+        <v>40756</v>
+      </c>
+      <c r="B202" s="6">
+        <v>0.11212100068797148</v>
       </c>
       <c r="CG202" s="1"/>
       <c r="CH202" s="1"/>
@@ -13967,11 +13903,11 @@
       <c r="RX202" s="1"/>
     </row>
     <row r="203" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A203" s="7">
-        <v>40817</v>
-      </c>
-      <c r="B203" s="8">
-        <v>0.10360612595722082</v>
+      <c r="A203" s="5">
+        <v>40787</v>
+      </c>
+      <c r="B203" s="6">
+        <v>0.110785960833959</v>
       </c>
       <c r="CG203" s="1"/>
       <c r="CH203" s="1"/>
@@ -14061,11 +13997,11 @@
       <c r="RX203" s="1"/>
     </row>
     <row r="204" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A204" s="7">
-        <v>40848</v>
-      </c>
-      <c r="B204" s="8">
-        <v>0.10488449858019411</v>
+      <c r="A204" s="5">
+        <v>40817</v>
+      </c>
+      <c r="B204" s="6">
+        <v>0.10360612595722082</v>
       </c>
       <c r="CG204" s="1"/>
       <c r="CH204" s="1"/>
@@ -14155,11 +14091,11 @@
       <c r="RX204" s="1"/>
     </row>
     <row r="205" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A205" s="7">
-        <v>40878</v>
-      </c>
-      <c r="B205" s="8">
-        <v>0.10009455642023066</v>
+      <c r="A205" s="5">
+        <v>40848</v>
+      </c>
+      <c r="B205" s="6">
+        <v>0.10488449858019411</v>
       </c>
       <c r="CG205" s="1"/>
       <c r="CH205" s="1"/>
@@ -14212,7 +14148,6 @@
       <c r="JL205" s="1"/>
       <c r="JW205" s="1"/>
       <c r="KH205" s="1"/>
-      <c r="KJ205" s="3"/>
       <c r="KS205" s="1"/>
       <c r="LD205" s="1"/>
       <c r="LE205" s="1"/>
@@ -14250,11 +14185,11 @@
       <c r="RX205" s="1"/>
     </row>
     <row r="206" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A206" s="7">
-        <v>40909</v>
-      </c>
-      <c r="B206" s="8">
-        <v>9.6997483527202721E-2</v>
+      <c r="A206" s="5">
+        <v>40878</v>
+      </c>
+      <c r="B206" s="6">
+        <v>0.10009455642023066</v>
       </c>
       <c r="CG206" s="1"/>
       <c r="CH206" s="1"/>
@@ -14307,6 +14242,7 @@
       <c r="JL206" s="1"/>
       <c r="JW206" s="1"/>
       <c r="KH206" s="1"/>
+      <c r="KJ206" s="3"/>
       <c r="KS206" s="1"/>
       <c r="LD206" s="1"/>
       <c r="LE206" s="1"/>
@@ -14320,7 +14256,6 @@
       <c r="LM206" s="1"/>
       <c r="LO206" s="1"/>
       <c r="LZ206" s="1"/>
-      <c r="MB206" s="3"/>
       <c r="MK206" s="1"/>
       <c r="MV206" s="1"/>
       <c r="NG206" s="1"/>
@@ -14345,11 +14280,11 @@
       <c r="RX206" s="1"/>
     </row>
     <row r="207" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A207" s="7">
-        <v>40940</v>
-      </c>
-      <c r="B207" s="8">
-        <v>9.0887604642450229E-2</v>
+      <c r="A207" s="5">
+        <v>40909</v>
+      </c>
+      <c r="B207" s="6">
+        <v>9.6997483527202721E-2</v>
       </c>
       <c r="CG207" s="1"/>
       <c r="CH207" s="1"/>
@@ -14403,7 +14338,6 @@
       <c r="JW207" s="1"/>
       <c r="KH207" s="1"/>
       <c r="KS207" s="1"/>
-      <c r="KU207" s="3"/>
       <c r="LD207" s="1"/>
       <c r="LE207" s="1"/>
       <c r="LF207" s="1"/>
@@ -14416,14 +14350,12 @@
       <c r="LM207" s="1"/>
       <c r="LO207" s="1"/>
       <c r="LZ207" s="1"/>
+      <c r="MB207" s="3"/>
       <c r="MK207" s="1"/>
-      <c r="MM207" s="3"/>
       <c r="MV207" s="1"/>
-      <c r="MX207" s="3"/>
       <c r="NG207" s="1"/>
       <c r="NR207" s="1"/>
       <c r="OC207" s="1"/>
-      <c r="OE207" s="3"/>
       <c r="ON207" s="1"/>
       <c r="OY207" s="1"/>
       <c r="PJ207" s="1"/>
@@ -14443,11 +14375,11 @@
       <c r="RX207" s="1"/>
     </row>
     <row r="208" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A208" s="7">
-        <v>40969</v>
-      </c>
-      <c r="B208" s="8">
-        <v>8.7800298912843522E-2</v>
+      <c r="A208" s="5">
+        <v>40940</v>
+      </c>
+      <c r="B208" s="6">
+        <v>9.0887604642450229E-2</v>
       </c>
       <c r="CG208" s="1"/>
       <c r="CH208" s="1"/>
@@ -14501,9 +14433,10 @@
       <c r="JW208" s="1"/>
       <c r="KH208" s="1"/>
       <c r="KS208" s="1"/>
+      <c r="KU208" s="3"/>
       <c r="LD208" s="1"/>
       <c r="LE208" s="1"/>
-      <c r="LF208" s="4"/>
+      <c r="LF208" s="1"/>
       <c r="LG208" s="1"/>
       <c r="LH208" s="1"/>
       <c r="LI208" s="1"/>
@@ -14514,14 +14447,16 @@
       <c r="LO208" s="1"/>
       <c r="LZ208" s="1"/>
       <c r="MK208" s="1"/>
+      <c r="MM208" s="3"/>
       <c r="MV208" s="1"/>
+      <c r="MX208" s="3"/>
       <c r="NG208" s="1"/>
       <c r="NR208" s="1"/>
       <c r="OC208" s="1"/>
+      <c r="OE208" s="3"/>
       <c r="ON208" s="1"/>
       <c r="OY208" s="1"/>
       <c r="PJ208" s="1"/>
-      <c r="PL208" s="3"/>
       <c r="PU208" s="1"/>
       <c r="PV208" s="1"/>
       <c r="PW208" s="1"/>
@@ -14538,11 +14473,11 @@
       <c r="RX208" s="1"/>
     </row>
     <row r="209" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A209" s="7">
-        <v>41000</v>
-      </c>
-      <c r="B209" s="8">
-        <v>9.5810214550751407E-2</v>
+      <c r="A209" s="5">
+        <v>40969</v>
+      </c>
+      <c r="B209" s="6">
+        <v>8.7800298912843522E-2</v>
       </c>
       <c r="CG209" s="1"/>
       <c r="CH209" s="1"/>
@@ -14598,7 +14533,7 @@
       <c r="KS209" s="1"/>
       <c r="LD209" s="1"/>
       <c r="LE209" s="1"/>
-      <c r="LF209" s="1"/>
+      <c r="LF209" s="3"/>
       <c r="LG209" s="1"/>
       <c r="LH209" s="1"/>
       <c r="LI209" s="1"/>
@@ -14607,19 +14542,16 @@
       <c r="LL209" s="1"/>
       <c r="LM209" s="1"/>
       <c r="LO209" s="1"/>
-      <c r="LQ209" s="3"/>
       <c r="LZ209" s="1"/>
       <c r="MK209" s="1"/>
       <c r="MV209" s="1"/>
       <c r="NG209" s="1"/>
-      <c r="NI209" s="3"/>
       <c r="NR209" s="1"/>
-      <c r="NT209" s="3"/>
       <c r="OC209" s="1"/>
       <c r="ON209" s="1"/>
       <c r="OY209" s="1"/>
-      <c r="PA209" s="3"/>
       <c r="PJ209" s="1"/>
+      <c r="PL209" s="3"/>
       <c r="PU209" s="1"/>
       <c r="PV209" s="1"/>
       <c r="PW209" s="1"/>
@@ -14636,11 +14568,11 @@
       <c r="RX209" s="1"/>
     </row>
     <row r="210" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A210" s="7">
-        <v>41030</v>
-      </c>
-      <c r="B210" s="8">
-        <v>0.10515093938008996</v>
+      <c r="A210" s="5">
+        <v>41000</v>
+      </c>
+      <c r="B210" s="6">
+        <v>9.5810214550751407E-2</v>
       </c>
       <c r="CG210" s="1"/>
       <c r="CH210" s="1"/>
@@ -14705,14 +14637,18 @@
       <c r="LL210" s="1"/>
       <c r="LM210" s="1"/>
       <c r="LO210" s="1"/>
+      <c r="LQ210" s="3"/>
       <c r="LZ210" s="1"/>
       <c r="MK210" s="1"/>
       <c r="MV210" s="1"/>
       <c r="NG210" s="1"/>
+      <c r="NI210" s="3"/>
       <c r="NR210" s="1"/>
+      <c r="NT210" s="3"/>
       <c r="OC210" s="1"/>
       <c r="ON210" s="1"/>
       <c r="OY210" s="1"/>
+      <c r="PA210" s="3"/>
       <c r="PJ210" s="1"/>
       <c r="PU210" s="1"/>
       <c r="PV210" s="1"/>
@@ -14730,11 +14666,11 @@
       <c r="RX210" s="1"/>
     </row>
     <row r="211" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A211" s="7">
-        <v>41061</v>
-      </c>
-      <c r="B211" s="8">
-        <v>9.0817328850805651E-2</v>
+      <c r="A211" s="5">
+        <v>41030</v>
+      </c>
+      <c r="B211" s="6">
+        <v>0.10515093938008996</v>
       </c>
       <c r="CG211" s="1"/>
       <c r="CH211" s="1"/>
@@ -14806,7 +14742,6 @@
       <c r="NR211" s="1"/>
       <c r="OC211" s="1"/>
       <c r="ON211" s="1"/>
-      <c r="OP211" s="3"/>
       <c r="OY211" s="1"/>
       <c r="PJ211" s="1"/>
       <c r="PU211" s="1"/>
@@ -14825,11 +14760,11 @@
       <c r="RX211" s="1"/>
     </row>
     <row r="212" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A212" s="7">
-        <v>41091</v>
-      </c>
-      <c r="B212" s="8">
-        <v>9.198193035468108E-2</v>
+      <c r="A212" s="5">
+        <v>41061</v>
+      </c>
+      <c r="B212" s="6">
+        <v>9.0817328850805651E-2</v>
       </c>
       <c r="CG212" s="1"/>
       <c r="CH212" s="1"/>
@@ -14901,6 +14836,7 @@
       <c r="NR212" s="1"/>
       <c r="OC212" s="1"/>
       <c r="ON212" s="1"/>
+      <c r="OP212" s="3"/>
       <c r="OY212" s="1"/>
       <c r="PJ212" s="1"/>
       <c r="PU212" s="1"/>
@@ -14919,11 +14855,11 @@
       <c r="RX212" s="1"/>
     </row>
     <row r="213" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A213" s="7">
-        <v>41122</v>
-      </c>
-      <c r="B213" s="8">
-        <v>9.0527591621574741E-2</v>
+      <c r="A213" s="5">
+        <v>41091</v>
+      </c>
+      <c r="B213" s="6">
+        <v>9.198193035468108E-2</v>
       </c>
       <c r="CG213" s="1"/>
       <c r="CH213" s="1"/>
@@ -15013,11 +14949,11 @@
       <c r="RX213" s="1"/>
     </row>
     <row r="214" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A214" s="7">
-        <v>41153</v>
-      </c>
-      <c r="B214" s="8">
-        <v>9.321029129473013E-2</v>
+      <c r="A214" s="5">
+        <v>41122</v>
+      </c>
+      <c r="B214" s="6">
+        <v>9.0527591621574741E-2</v>
       </c>
       <c r="CG214" s="1"/>
       <c r="CH214" s="1"/>
@@ -15093,7 +15029,7 @@
       <c r="PJ214" s="1"/>
       <c r="PU214" s="1"/>
       <c r="PV214" s="1"/>
-      <c r="PW214" s="4"/>
+      <c r="PW214" s="1"/>
       <c r="PX214" s="1"/>
       <c r="PY214" s="1"/>
       <c r="PZ214" s="1"/>
@@ -15107,11 +15043,11 @@
       <c r="RX214" s="1"/>
     </row>
     <row r="215" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A215" s="7">
-        <v>41183</v>
-      </c>
-      <c r="B215" s="8">
-        <v>9.2447998465240086E-2</v>
+      <c r="A215" s="5">
+        <v>41153</v>
+      </c>
+      <c r="B215" s="6">
+        <v>9.321029129473013E-2</v>
       </c>
       <c r="CG215" s="1"/>
       <c r="CH215" s="1"/>
@@ -15187,7 +15123,7 @@
       <c r="PJ215" s="1"/>
       <c r="PU215" s="1"/>
       <c r="PV215" s="1"/>
-      <c r="PW215" s="1"/>
+      <c r="PW215" s="3"/>
       <c r="PX215" s="1"/>
       <c r="PY215" s="1"/>
       <c r="PZ215" s="1"/>
@@ -15195,18 +15131,17 @@
       <c r="QB215" s="1"/>
       <c r="QC215" s="1"/>
       <c r="QD215" s="1"/>
-      <c r="QH215" s="3"/>
       <c r="QQ215" s="1"/>
       <c r="RB215" s="1"/>
       <c r="RM215" s="1"/>
       <c r="RX215" s="1"/>
     </row>
     <row r="216" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A216" s="7">
-        <v>41214</v>
-      </c>
-      <c r="B216" s="8">
-        <v>9.5606034425374312E-2</v>
+      <c r="A216" s="5">
+        <v>41183</v>
+      </c>
+      <c r="B216" s="6">
+        <v>9.2447998465240086E-2</v>
       </c>
       <c r="CG216" s="1"/>
       <c r="CH216" s="1"/>
@@ -15290,17 +15225,18 @@
       <c r="QB216" s="1"/>
       <c r="QC216" s="1"/>
       <c r="QD216" s="1"/>
+      <c r="QH216" s="3"/>
       <c r="QQ216" s="1"/>
       <c r="RB216" s="1"/>
       <c r="RM216" s="1"/>
       <c r="RX216" s="1"/>
     </row>
     <row r="217" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A217" s="7">
-        <v>41244</v>
-      </c>
-      <c r="B217" s="8">
-        <v>9.1047274906739667E-2</v>
+      <c r="A217" s="5">
+        <v>41214</v>
+      </c>
+      <c r="B217" s="6">
+        <v>9.5606034425374312E-2</v>
       </c>
       <c r="CG217" s="1"/>
       <c r="CH217" s="1"/>
@@ -15390,11 +15326,11 @@
       <c r="RX217" s="1"/>
     </row>
     <row r="218" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A218" s="7">
-        <v>41275</v>
-      </c>
-      <c r="B218" s="8">
-        <v>8.7449844192482862E-2</v>
+      <c r="A218" s="5">
+        <v>41244</v>
+      </c>
+      <c r="B218" s="6">
+        <v>9.1047274906739667E-2</v>
       </c>
       <c r="CG218" s="1"/>
       <c r="CH218" s="1"/>
@@ -15484,11 +15420,11 @@
       <c r="RX218" s="1"/>
     </row>
     <row r="219" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A219" s="7">
-        <v>41306</v>
-      </c>
-      <c r="B219" s="8">
-        <v>8.9884574591296298E-2</v>
+      <c r="A219" s="5">
+        <v>41275</v>
+      </c>
+      <c r="B219" s="6">
+        <v>8.7449844192482862E-2</v>
       </c>
       <c r="CG219" s="1"/>
       <c r="CH219" s="1"/>
@@ -15578,11 +15514,11 @@
       <c r="RX219" s="1"/>
     </row>
     <row r="220" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A220" s="7">
-        <v>41334</v>
-      </c>
-      <c r="B220" s="8">
-        <v>8.3440031175367746E-2</v>
+      <c r="A220" s="5">
+        <v>41306</v>
+      </c>
+      <c r="B220" s="6">
+        <v>8.9884574591296298E-2</v>
       </c>
       <c r="CG220" s="1"/>
       <c r="CH220" s="1"/>
@@ -15623,11 +15559,8 @@
       <c r="EJ220" s="1"/>
       <c r="EU220" s="1"/>
       <c r="FF220" s="1"/>
-      <c r="FH220" s="3"/>
       <c r="FQ220" s="1"/>
-      <c r="FS220" s="3"/>
       <c r="GB220" s="1"/>
-      <c r="GD220" s="3"/>
       <c r="GM220" s="1"/>
       <c r="GX220" s="1"/>
       <c r="HI220" s="1"/>
@@ -15675,12 +15608,87 @@
       <c r="RX220" s="1"/>
     </row>
     <row r="221" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A221" s="7">
-        <v>41365</v>
-      </c>
-      <c r="B221" s="8">
-        <v>8.4749349865796034E-2</v>
-      </c>
+      <c r="A221" s="5">
+        <v>41334</v>
+      </c>
+      <c r="B221" s="6">
+        <v>8.3440031175367746E-2</v>
+      </c>
+      <c r="CG221" s="1"/>
+      <c r="CH221" s="1"/>
+      <c r="CI221" s="1"/>
+      <c r="CJ221" s="1"/>
+      <c r="CK221" s="1"/>
+      <c r="CL221" s="1"/>
+      <c r="CM221" s="1"/>
+      <c r="CN221" s="1"/>
+      <c r="CO221" s="1"/>
+      <c r="CP221" s="1"/>
+      <c r="CR221" s="1"/>
+      <c r="CS221" s="1"/>
+      <c r="CT221" s="1"/>
+      <c r="CU221" s="1"/>
+      <c r="CV221" s="1"/>
+      <c r="CW221" s="1"/>
+      <c r="CX221" s="1"/>
+      <c r="CY221" s="1"/>
+      <c r="CZ221" s="1"/>
+      <c r="DC221" s="1"/>
+      <c r="DE221" s="1"/>
+      <c r="DF221" s="1"/>
+      <c r="DG221" s="1"/>
+      <c r="DH221" s="1"/>
+      <c r="DI221" s="1"/>
+      <c r="DJ221" s="1"/>
+      <c r="DK221" s="1"/>
+      <c r="DN221" s="1"/>
+      <c r="DP221" s="1"/>
+      <c r="DQ221" s="1"/>
+      <c r="DR221" s="1"/>
+      <c r="DS221" s="1"/>
+      <c r="DT221" s="1"/>
+      <c r="DU221" s="1"/>
+      <c r="DV221" s="1"/>
+      <c r="DY221" s="1"/>
+      <c r="EJ221" s="1"/>
+      <c r="EU221" s="1"/>
+      <c r="FF221" s="1"/>
+      <c r="FH221" s="3"/>
+      <c r="FQ221" s="1"/>
+      <c r="FS221" s="3"/>
+      <c r="GB221" s="1"/>
+      <c r="GD221" s="3"/>
+      <c r="GM221" s="1"/>
+      <c r="GX221" s="1"/>
+      <c r="HI221" s="1"/>
+      <c r="HT221" s="1"/>
+      <c r="IE221" s="1"/>
+      <c r="IP221" s="1"/>
+      <c r="JA221" s="1"/>
+      <c r="JL221" s="1"/>
+      <c r="JW221" s="1"/>
+      <c r="KH221" s="1"/>
+      <c r="KS221" s="1"/>
+      <c r="LD221" s="1"/>
+      <c r="LE221" s="1"/>
+      <c r="LF221" s="1"/>
+      <c r="LG221" s="1"/>
+      <c r="LH221" s="1"/>
+      <c r="LI221" s="1"/>
+      <c r="LJ221" s="1"/>
+      <c r="LK221" s="1"/>
+      <c r="LL221" s="1"/>
+      <c r="LM221" s="1"/>
+      <c r="LO221" s="1"/>
+      <c r="LZ221" s="1"/>
+      <c r="MK221" s="1"/>
+      <c r="MV221" s="1"/>
+      <c r="NG221" s="1"/>
+      <c r="NR221" s="1"/>
+      <c r="OC221" s="1"/>
+      <c r="ON221" s="1"/>
+      <c r="OY221" s="1"/>
+      <c r="PJ221" s="1"/>
       <c r="PU221" s="1"/>
       <c r="PV221" s="1"/>
       <c r="PW221" s="1"/>
@@ -15691,13 +15699,17 @@
       <c r="QB221" s="1"/>
       <c r="QC221" s="1"/>
       <c r="QD221" s="1"/>
+      <c r="QQ221" s="1"/>
+      <c r="RB221" s="1"/>
+      <c r="RM221" s="1"/>
+      <c r="RX221" s="1"/>
     </row>
     <row r="222" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A222" s="7">
-        <v>41395</v>
-      </c>
-      <c r="B222" s="8">
-        <v>8.0522617175596833E-2</v>
+      <c r="A222" s="5">
+        <v>41365</v>
+      </c>
+      <c r="B222" s="6">
+        <v>8.4749349865796034E-2</v>
       </c>
       <c r="PU222" s="1"/>
       <c r="PV222" s="1"/>
@@ -15711,11 +15723,11 @@
       <c r="QD222" s="1"/>
     </row>
     <row r="223" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A223" s="7">
-        <v>41426</v>
-      </c>
-      <c r="B223" s="8">
-        <v>7.5014888373605801E-2</v>
+      <c r="A223" s="5">
+        <v>41395</v>
+      </c>
+      <c r="B223" s="6">
+        <v>8.0522617175596833E-2</v>
       </c>
       <c r="PU223" s="1"/>
       <c r="PV223" s="1"/>
@@ -15729,11 +15741,11 @@
       <c r="QD223" s="1"/>
     </row>
     <row r="224" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A224" s="7">
-        <v>41456</v>
-      </c>
-      <c r="B224" s="8">
-        <v>7.7769653801373628E-2</v>
+      <c r="A224" s="5">
+        <v>41426</v>
+      </c>
+      <c r="B224" s="6">
+        <v>7.5014888373605801E-2</v>
       </c>
       <c r="PU224" s="1"/>
       <c r="PV224" s="1"/>
@@ -15747,11 +15759,11 @@
       <c r="QD224" s="1"/>
     </row>
     <row r="225" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A225" s="7">
-        <v>41487</v>
-      </c>
-      <c r="B225" s="8">
-        <v>7.610915084711764E-2</v>
+      <c r="A225" s="5">
+        <v>41456</v>
+      </c>
+      <c r="B225" s="6">
+        <v>7.7769653801373628E-2</v>
       </c>
       <c r="PU225" s="1"/>
       <c r="PV225" s="1"/>
@@ -15765,11 +15777,11 @@
       <c r="QD225" s="1"/>
     </row>
     <row r="226" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A226" s="7">
-        <v>41518</v>
-      </c>
-      <c r="B226" s="8">
-        <v>7.4874558269219044E-2</v>
+      <c r="A226" s="5">
+        <v>41487</v>
+      </c>
+      <c r="B226" s="6">
+        <v>7.610915084711764E-2</v>
       </c>
       <c r="PU226" s="1"/>
       <c r="PV226" s="1"/>
@@ -15783,1194 +15795,952 @@
       <c r="QD226" s="1"/>
     </row>
     <row r="227" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A227" s="7">
+      <c r="A227" s="5">
+        <v>41518</v>
+      </c>
+      <c r="B227" s="6">
+        <v>7.4874558269219044E-2</v>
+      </c>
+      <c r="PU227" s="1"/>
+      <c r="PV227" s="1"/>
+      <c r="PW227" s="1"/>
+      <c r="PX227" s="1"/>
+      <c r="PY227" s="1"/>
+      <c r="PZ227" s="1"/>
+      <c r="QA227" s="1"/>
+      <c r="QB227" s="1"/>
+      <c r="QC227" s="1"/>
+      <c r="QD227" s="1"/>
+    </row>
+    <row r="228" spans="1:446" x14ac:dyDescent="0.25">
+      <c r="A228" s="5">
         <v>41548</v>
       </c>
-      <c r="B227" s="8">
+      <c r="B228" s="6">
         <v>7.3769426049519596E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A228" s="7">
+    <row r="229" spans="1:446" x14ac:dyDescent="0.25">
+      <c r="A229" s="5">
         <v>41579</v>
       </c>
-      <c r="B228" s="8">
+      <c r="B229" s="6">
         <v>7.9046521727427585E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A229" s="7">
+    <row r="230" spans="1:446" x14ac:dyDescent="0.25">
+      <c r="A230" s="5">
         <v>41609</v>
       </c>
-      <c r="B229" s="8">
+      <c r="B230" s="6">
         <v>7.5700418664925911E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A230" s="7">
+    <row r="231" spans="1:446" x14ac:dyDescent="0.25">
+      <c r="A231" s="5">
         <v>41640</v>
       </c>
-      <c r="B230" s="8">
+      <c r="B231" s="6">
         <v>8.4845263579311214E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A231" s="7">
+    <row r="232" spans="1:446" x14ac:dyDescent="0.25">
+      <c r="A232" s="5">
         <v>41671</v>
       </c>
-      <c r="B231" s="8">
+      <c r="B232" s="6">
         <v>8.4096940621738683E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A232" s="7">
+    <row r="233" spans="1:446" x14ac:dyDescent="0.25">
+      <c r="A233" s="5">
         <v>41699</v>
       </c>
-      <c r="B232" s="8">
+      <c r="B233" s="6">
         <v>9.5085723314460191E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A233" s="7">
+    <row r="234" spans="1:446" x14ac:dyDescent="0.25">
+      <c r="A234" s="5">
         <v>41730</v>
       </c>
-      <c r="B233" s="8">
+      <c r="B234" s="6">
         <v>9.6617836562715484E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A234" s="7">
+    <row r="235" spans="1:446" x14ac:dyDescent="0.25">
+      <c r="A235" s="5">
         <v>41760</v>
       </c>
-      <c r="B234" s="8">
+      <c r="B235" s="6">
         <v>9.8701160485128128E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A235" s="7">
+    <row r="236" spans="1:446" x14ac:dyDescent="0.25">
+      <c r="A236" s="5">
         <v>41791</v>
       </c>
-      <c r="B235" s="8">
+      <c r="B236" s="6">
         <v>9.4012780857948633E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A236" s="7">
+    <row r="237" spans="1:446" x14ac:dyDescent="0.25">
+      <c r="A237" s="5">
         <v>41821</v>
       </c>
-      <c r="B236" s="8">
+      <c r="B237" s="6">
         <v>9.5099368892112943E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A237" s="7">
+    <row r="238" spans="1:446" x14ac:dyDescent="0.25">
+      <c r="A238" s="5">
         <v>41852</v>
       </c>
-      <c r="B237" s="8">
+      <c r="B238" s="6">
         <v>9.5412122648390635E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A238" s="7">
+    <row r="239" spans="1:446" x14ac:dyDescent="0.25">
+      <c r="A239" s="5">
         <v>41883</v>
       </c>
-      <c r="B238" s="8">
+      <c r="B239" s="6">
         <v>8.2926779422991759E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A239" s="7">
+    <row r="240" spans="1:446" x14ac:dyDescent="0.25">
+      <c r="A240" s="5">
         <v>41913</v>
       </c>
-      <c r="B239" s="8">
+      <c r="B240" s="6">
         <v>8.7456378540700291E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A240" s="7">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="5">
         <v>41944</v>
       </c>
-      <c r="B240" s="8">
+      <c r="B241" s="6">
         <v>9.0265236245787389E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="7">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="5">
         <v>41974</v>
       </c>
-      <c r="B241" s="8">
+      <c r="B242" s="6">
         <v>9.0600536697358139E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="7">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="5">
         <v>42005</v>
       </c>
-      <c r="B242" s="8">
+      <c r="B243" s="6">
         <v>0.10533016732361397</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="7">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="5">
         <v>42036</v>
       </c>
-      <c r="B243" s="8">
+      <c r="B244" s="6">
         <v>0.10379332898500528</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="7">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="5">
         <v>42064</v>
       </c>
-      <c r="B244" s="8">
+      <c r="B245" s="6">
         <v>0.10646618622058883</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="7">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="5">
         <v>42095</v>
       </c>
-      <c r="B245" s="8">
+      <c r="B246" s="6">
         <v>0.10277197692695453</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="7">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="5">
         <v>42125</v>
       </c>
-      <c r="B246" s="8">
+      <c r="B247" s="6">
         <v>0.10635981236621354</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="7">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="5">
         <v>42156</v>
       </c>
-      <c r="B247" s="8">
+      <c r="B248" s="6">
         <v>0.10243622729858951</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="7">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="5">
         <v>42186</v>
       </c>
-      <c r="B248" s="8">
+      <c r="B249" s="6">
         <v>0.10824745812912069</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="7">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="5">
         <v>42217</v>
       </c>
-      <c r="B249" s="8">
+      <c r="B250" s="6">
         <v>0.11309406133143306</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="7">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="5">
         <v>42248</v>
       </c>
-      <c r="B250" s="8">
+      <c r="B251" s="6">
         <v>9.9532565626062719E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="7">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="5">
         <v>42278</v>
       </c>
-      <c r="B251" s="8">
+      <c r="B252" s="6">
         <v>9.7344609070752625E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="7">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="5">
         <v>42309</v>
       </c>
-      <c r="B252" s="8">
+      <c r="B253" s="6">
         <v>9.6030564044979047E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="7">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="5">
         <v>42339</v>
       </c>
-      <c r="B253" s="8">
+      <c r="B254" s="6">
         <v>9.7946408382498046E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="7">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="5">
         <v>42370</v>
       </c>
-      <c r="B254" s="8">
+      <c r="B255" s="6">
         <v>0.10720725243654623</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="7">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="5">
         <v>42401</v>
       </c>
-      <c r="B255" s="8">
+      <c r="B256" s="6">
         <v>0.10623913533182294</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="7">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="5">
         <v>42430</v>
       </c>
-      <c r="B256" s="8">
+      <c r="B257" s="6">
         <v>9.6613329525373437E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="7">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="5">
         <v>42461</v>
       </c>
-      <c r="B257" s="8">
+      <c r="B258" s="6">
         <v>9.07458717712184E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="7">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="5">
         <v>42491</v>
       </c>
-      <c r="B258" s="8">
+      <c r="B259" s="6">
         <v>8.1503302413437381E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="7">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="5">
         <v>42522</v>
       </c>
-      <c r="B259" s="8">
+      <c r="B260" s="6">
         <v>8.4903302413437381E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" s="7">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="5">
         <v>42552</v>
       </c>
-      <c r="B260" s="8">
+      <c r="B261" s="6">
         <v>7.845432079176308E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="7">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="5">
         <v>42583</v>
       </c>
-      <c r="B261" s="8">
+      <c r="B262" s="6">
         <v>7.7005107317431515E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="7">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="5">
         <v>42614</v>
       </c>
-      <c r="B262" s="8">
+      <c r="B263" s="6">
         <v>7.9062490141365058E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="7">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="5">
         <v>42644</v>
       </c>
-      <c r="B263" s="8">
+      <c r="B264" s="6">
         <v>9.0803823058582978E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="7">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="5">
         <v>42675</v>
       </c>
-      <c r="B264" s="8">
+      <c r="B265" s="6">
         <v>8.1366322142554626E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="7">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="5">
         <v>42705</v>
       </c>
-      <c r="B265" s="8">
+      <c r="B266" s="6">
         <v>8.5524440182112194E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="7">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="5">
         <v>42736</v>
       </c>
-      <c r="B266" s="8">
+      <c r="B267" s="6">
         <v>8.3374527020277533E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="7">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="5">
         <v>42767</v>
       </c>
-      <c r="B267" s="8">
+      <c r="B268" s="6">
         <v>8.2618737455347563E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="7">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="5">
         <v>42795</v>
       </c>
-      <c r="B268" s="8">
+      <c r="B269" s="6">
         <v>8.2301802120567966E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="7">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="5">
         <v>42826</v>
       </c>
-      <c r="B269" s="8">
+      <c r="B270" s="6">
         <v>7.9480761202343708E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="7">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="5">
         <v>42856</v>
       </c>
-      <c r="B270" s="8">
+      <c r="B271" s="6">
         <v>8.3960752894154167E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="7">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="5">
         <v>42887</v>
       </c>
-      <c r="B271" s="8">
+      <c r="B272" s="6">
         <v>8.2181900156117982E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="7">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="5">
         <v>42917</v>
       </c>
-      <c r="B272" s="8">
+      <c r="B273" s="6">
         <v>7.8582383645718207E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="7">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="5">
         <v>42948</v>
       </c>
-      <c r="B273" s="8">
+      <c r="B274" s="6">
         <v>7.3514830121311145E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="10">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="5">
         <v>42979</v>
       </c>
-      <c r="B274" s="8">
+      <c r="B275" s="6">
         <v>7.1798584083836187E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="10">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="5">
         <v>43009</v>
       </c>
-      <c r="B275" s="9">
+      <c r="B276" s="6">
         <v>7.0893601810297649E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="10">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="5">
         <v>43040</v>
       </c>
-      <c r="B276" s="8">
+      <c r="B277" s="6">
         <v>6.1052757033422195E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="10">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="5">
         <v>43070</v>
       </c>
-      <c r="B277" s="9">
+      <c r="B278" s="6">
         <v>6.7122786831106646E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="10">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="5">
         <v>43101</v>
       </c>
-      <c r="B278" s="9">
+      <c r="B279" s="6">
         <v>5.7519098552337958E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="10">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="5">
         <v>43132</v>
       </c>
-      <c r="B279" s="9">
+      <c r="B280" s="6">
         <v>6.5520472026066215E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="10">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="5">
         <v>43160</v>
       </c>
-      <c r="B280" s="9">
+      <c r="B281" s="6">
         <v>7.2125770364620007E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="10">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="5">
         <v>43191</v>
       </c>
-      <c r="B281" s="12">
+      <c r="B282" s="6">
         <v>6.4064244291655609E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="10">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="5">
         <v>43221</v>
       </c>
-      <c r="B282" s="9">
+      <c r="B283" s="6">
         <v>7.1824635819149038E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="10">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="5">
         <v>43252</v>
       </c>
-      <c r="B283" s="9">
+      <c r="B284" s="6">
         <v>7.9775179773577412E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="10">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="5">
         <v>43282</v>
       </c>
-      <c r="B284" s="9">
+      <c r="B285" s="6">
         <v>9.1939861515753868E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="10">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="5">
         <v>43313</v>
       </c>
-      <c r="B285" s="9">
+      <c r="B286" s="6">
         <v>0.10101989540599204</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="10">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="5">
         <v>43344</v>
       </c>
-      <c r="B286" s="9">
+      <c r="B287" s="6">
         <v>0.10496376393363561</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="10">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="5">
         <v>43374</v>
       </c>
-      <c r="B287" s="9">
+      <c r="B288" s="6">
         <v>6.866534805367612E-2</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="10">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" s="5">
         <v>43405</v>
       </c>
-      <c r="B288" s="9">
+      <c r="B289" s="6">
         <v>7.7599591244769228E-2</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" s="10">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" s="5">
         <v>43435</v>
       </c>
-      <c r="B289" s="9">
+      <c r="B290" s="6">
         <v>7.6296518904752947E-2</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" s="10">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" s="5">
         <v>43466</v>
       </c>
-      <c r="B290" s="9">
+      <c r="B291" s="6">
         <v>7.1150211864005483E-2</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" s="10">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" s="5">
         <v>43497</v>
       </c>
-      <c r="B291" s="9">
+      <c r="B292" s="6">
         <v>7.4978703434071342E-2</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" s="10">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" s="5">
         <v>43525</v>
       </c>
-      <c r="B292" s="9">
+      <c r="B293" s="6">
         <v>8.1082222580664831E-2</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" s="10">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" s="5">
         <v>43556</v>
       </c>
-      <c r="B293" s="9">
+      <c r="B294" s="6">
         <v>8.0864791172512426E-2</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" s="10">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" s="5">
         <v>43586</v>
       </c>
-      <c r="B294" s="9">
+      <c r="B295" s="6">
         <v>8.7764304038109517E-2</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" s="10">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" s="5">
         <v>43617</v>
       </c>
-      <c r="B295" s="9">
+      <c r="B296" s="6">
         <v>8.5839178787788323E-2</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" s="10">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" s="5">
         <v>43647</v>
       </c>
-      <c r="B296" s="9">
+      <c r="B297" s="6">
         <v>8.9544717916765409E-2</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" s="10">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" s="5">
         <v>43678</v>
       </c>
-      <c r="B297" s="9">
+      <c r="B298" s="6">
         <v>9.687272744274146E-2</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" s="10">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" s="5">
         <v>43709</v>
       </c>
-      <c r="B298" s="9">
+      <c r="B299" s="6">
         <v>9.4565670394992141E-2</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" s="10">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" s="5">
         <v>43739</v>
       </c>
-      <c r="B299" s="9">
+      <c r="B300" s="6">
         <v>9.5998871332297536E-2</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" s="10">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" s="5">
         <v>43770</v>
       </c>
-      <c r="B300" s="9">
+      <c r="B301" s="6">
         <v>9.0410180385752506E-2</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" s="10">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" s="5">
         <v>43800</v>
       </c>
-      <c r="B301" s="12">
+      <c r="B302" s="6">
         <v>8.0346430039285821E-2</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" s="10">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" s="5">
         <v>43831</v>
       </c>
-      <c r="B302" s="9">
+      <c r="B303" s="6">
         <v>8.8138805128154862E-2</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" s="10">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" s="5">
         <v>43862</v>
       </c>
-      <c r="B303" s="12">
+      <c r="B304" s="6">
         <v>9.3984258626188408E-2</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" s="10">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" s="5">
         <v>43891</v>
       </c>
-      <c r="B304" s="12">
+      <c r="B305" s="6">
         <v>0.11444455602995118</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" s="10">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" s="5">
         <v>43922</v>
       </c>
-      <c r="B305" s="9">
+      <c r="B306" s="6">
         <v>0.11883485001315314</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" s="10">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" s="5">
         <v>43952</v>
       </c>
-      <c r="B306" s="9">
+      <c r="B307" s="6">
         <v>0.10802006518576782</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" s="10">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" s="5">
         <v>43983</v>
       </c>
-      <c r="B307" s="13">
+      <c r="B308" s="6">
         <v>0.10150000000000001</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" s="10">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" s="5">
         <v>44013</v>
       </c>
-      <c r="B308" s="9">
+      <c r="B309" s="6">
         <v>0.10394071190796175</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" s="10">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" s="5">
         <v>44044</v>
       </c>
-      <c r="B309" s="9">
+      <c r="B310" s="6">
         <v>9.8747906968658955E-2</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" s="10">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" s="5">
         <v>44075</v>
       </c>
-      <c r="B310" s="9">
+      <c r="B311" s="6">
         <v>0.10280377344670942</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311" s="10">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" s="5">
         <v>44105</v>
       </c>
-      <c r="B311" s="9">
+      <c r="B312" s="6">
         <v>0.1003081555378784</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" s="10">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" s="5">
         <v>44136</v>
       </c>
-      <c r="B312" s="9">
+      <c r="B313" s="6">
         <v>9.4781090636132159E-2</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" s="10">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" s="5">
         <v>44166</v>
       </c>
-      <c r="B313" s="9">
+      <c r="B314" s="6">
         <v>9.9688114787269883E-2</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="10">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" s="5">
         <v>44197</v>
       </c>
-      <c r="B314" s="9">
+      <c r="B315" s="6">
         <v>0.10345953791176479</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" s="10">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" s="5">
         <v>44228</v>
       </c>
-      <c r="B315" s="9">
+      <c r="B316" s="6">
         <v>9.9036976535253174E-2</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316" s="10">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" s="5">
         <v>44256</v>
       </c>
-      <c r="B316" s="9">
+      <c r="B317" s="6">
         <v>0.11202004609682872</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" s="10">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" s="5">
         <v>44287</v>
       </c>
-      <c r="B317" s="13">
+      <c r="B318" s="6">
         <v>0.1105</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318" s="10">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" s="5">
         <v>44317</v>
       </c>
-      <c r="B318" s="9">
+      <c r="B319" s="6">
         <v>0.103756060197642</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A319" s="10">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" s="5">
         <v>44348</v>
       </c>
-      <c r="B319" s="9">
+      <c r="B320" s="6">
         <v>0.11288777024068533</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A320" s="10">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" s="5">
         <v>44378</v>
       </c>
-      <c r="B320" s="13">
+      <c r="B321" s="6">
         <v>0.1217</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A321" s="10">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" s="5">
         <v>44409</v>
       </c>
-      <c r="B321" s="9">
+      <c r="B322" s="6">
         <v>0.11860470570232673</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A322" s="10">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" s="5">
         <v>44440</v>
       </c>
-      <c r="B322" s="9">
+      <c r="B323" s="6">
         <v>0.15321467349306883</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A323" s="10">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" s="5">
         <v>44470</v>
       </c>
-      <c r="B323" s="13">
+      <c r="B324" s="6">
         <v>0.1565</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324" s="10">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" s="5">
         <v>44501</v>
       </c>
-      <c r="B324" s="9">
+      <c r="B325" s="6">
         <v>0.15480116295464194</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325" s="10">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" s="5">
         <v>44531</v>
       </c>
-      <c r="B325" s="9">
+      <c r="B326" s="6">
         <v>0.18086975473681763</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326" s="10">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" s="5">
         <v>44562</v>
       </c>
-      <c r="B326" s="9">
+      <c r="B327" s="6">
         <v>0.15203711549166959</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327" s="10">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" s="5">
         <v>44593</v>
       </c>
-      <c r="B327" s="9">
+      <c r="B328" s="6">
         <v>0.15045086518646858</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A328" s="10">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" s="5">
         <v>44621</v>
       </c>
-      <c r="B328" s="9">
+      <c r="B329" s="6">
         <v>0.13402699778646815</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A329" s="10">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" s="5">
         <v>44652</v>
       </c>
-      <c r="B329" s="9">
+      <c r="B330" s="6">
         <v>0.13661550466927599</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A330" s="10">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" s="5">
         <v>44682</v>
       </c>
-      <c r="B330" s="13">
+      <c r="B331" s="6">
         <v>0.1321</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A331" s="10">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" s="5">
         <v>44713</v>
       </c>
-      <c r="B331" s="13">
+      <c r="B332" s="6">
         <v>0.16510000000000002</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A332" s="10">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" s="5">
         <v>44743</v>
       </c>
-      <c r="B332" s="13">
+      <c r="B333" s="6">
         <v>0.1585</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A333" s="10">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" s="5">
         <v>44774</v>
       </c>
-      <c r="B333" s="13">
+      <c r="B334" s="6">
         <v>0.1331</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A334" s="10">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" s="5">
         <v>44805</v>
       </c>
-      <c r="B334" s="9">
+      <c r="B335" s="6">
         <v>0.14630000000000001</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A335" s="10">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" s="5">
         <v>44835</v>
       </c>
-      <c r="B335" s="13">
+      <c r="B336" s="6">
         <v>0.1197</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A336" s="10">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" s="5">
         <v>44866</v>
       </c>
-      <c r="B336" s="13">
+      <c r="B337" s="6">
         <v>0.1177</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A337" s="10">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" s="5">
         <v>44896</v>
       </c>
-      <c r="B337" s="9">
+      <c r="B338" s="6">
         <v>0.1172183756433729</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A338" s="10">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" s="5">
         <v>44927</v>
       </c>
-      <c r="B338" s="9">
+      <c r="B339" s="6">
         <v>0.112566</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A339" s="10">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" s="5">
         <v>44958</v>
       </c>
-      <c r="B339" s="9">
+      <c r="B340" s="6">
         <v>0.10406600000000001</v>
       </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" s="5">
+        <v>44986</v>
+      </c>
+      <c r="B341" s="6">
+        <v>0.100060632666334</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" s="5"/>
+      <c r="B342" s="6"/>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" s="5"/>
+      <c r="B343" s="6"/>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" s="8"/>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100FF602FB71C72A040B83BAD34EB50244A" ma:contentTypeVersion="13" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="ecb216dc5589f7bce5d8d0d60e90dc0d">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="807d706a-80d8-4f03-8ed4-ece1162c7e44" xmlns:ns4="ea144f7f-7cb8-4e40-aa15-78233897bd5c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8b5314697a99cd150715f13355001d93" ns3:_="" ns4:_="">
-    <xsd:import namespace="807d706a-80d8-4f03-8ed4-ece1162c7e44"/>
-    <xsd:import namespace="ea144f7f-7cb8-4e40-aa15-78233897bd5c"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="807d706a-80d8-4f03-8ed4-ece1162c7e44" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="12" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="18" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="19" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ea144f7f-7cb8-4e40-aa15-78233897bd5c" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="15" nillable="true" ma:displayName="Compartilhado com" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="16" nillable="true" ma:displayName="Detalhes de Compartilhado Com" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="SharingHintHash" ma:index="17" nillable="true" ma:displayName="Hash de Dica de Compartilhamento" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de Conteúdo"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E376484F-D910-4B39-9F72-4143D5D135A3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="807d706a-80d8-4f03-8ed4-ece1162c7e44"/>
-    <ds:schemaRef ds:uri="ea144f7f-7cb8-4e40-aa15-78233897bd5c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86EFD2F3-89A0-4C00-804D-96CA054DA62F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="ea144f7f-7cb8-4e40-aa15-78233897bd5c"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="807d706a-80d8-4f03-8ed4-ece1162c7e44"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EB3165A-A967-440B-92EF-0ADCFAB0BB15}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Database/Serie de Equity Risk Premium.xlsx
+++ b/Database/Serie de Equity Risk Premium.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bteba\Documents\GitHub\ERP\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33311C9-C746-4A8C-83A0-A2F0B3886AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2065071-B52D-41A3-A6BA-9F61DEC484C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,9 +40,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -100,7 +97,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -115,7 +112,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1262,6 +1258,9 @@
                 <c:pt idx="338">
                   <c:v>44986</c:v>
                 </c:pt>
+                <c:pt idx="339">
+                  <c:v>45017</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2287,6 +2286,9 @@
                 </c:pt>
                 <c:pt idx="338">
                   <c:v>0.100060632666334</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>9.7161250237506505E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3368,21 +3370,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:RX345"/>
+  <dimension ref="A1:RX342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="6" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
     <col min="40" max="40" width="9" customWidth="1"/>
     <col min="498" max="498" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:492" x14ac:dyDescent="0.25">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -16725,18 +16729,12 @@
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A342" s="5"/>
-      <c r="B342" s="6"/>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A343" s="5"/>
-      <c r="B343" s="6"/>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A344" s="8"/>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345" s="8"/>
+      <c r="A342" s="5">
+        <v>45017</v>
+      </c>
+      <c r="B342" s="6">
+        <v>9.7161250237506505E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Database/Serie de Equity Risk Premium.xlsx
+++ b/Database/Serie de Equity Risk Premium.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bteba\Documents\GitHub\ERP\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teo\Documents\GitHub\ERP\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2065071-B52D-41A3-A6BA-9F61DEC484C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF790E72-BD4D-41BA-B88E-BFB8C578A051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -97,7 +108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -112,6 +123,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1261,6 +1273,9 @@
                 <c:pt idx="339">
                   <c:v>45017</c:v>
                 </c:pt>
+                <c:pt idx="340">
+                  <c:v>45047</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2289,6 +2304,9 @@
                 </c:pt>
                 <c:pt idx="339">
                   <c:v>9.7161250237506505E-2</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>8.9197844933858697E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3370,23 +3388,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:RX342"/>
+  <dimension ref="A1:RX343"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
+      <selection activeCell="B343" sqref="B343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="6" customWidth="1"/>
+    <col min="1" max="2" width="11.42578125" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
     <col min="40" max="40" width="9" customWidth="1"/>
     <col min="498" max="498" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A1"/>
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -16432,7 +16448,7 @@
         <v>9.3984258626188408E-2</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="5">
         <v>43891</v>
       </c>
@@ -16440,7 +16456,7 @@
         <v>0.11444455602995118</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="5">
         <v>43922</v>
       </c>
@@ -16448,7 +16464,7 @@
         <v>0.11883485001315314</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="5">
         <v>43952</v>
       </c>
@@ -16456,7 +16472,7 @@
         <v>0.10802006518576782</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="5">
         <v>43983</v>
       </c>
@@ -16464,7 +16480,7 @@
         <v>0.10150000000000001</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="5">
         <v>44013</v>
       </c>
@@ -16472,7 +16488,7 @@
         <v>0.10394071190796175</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="5">
         <v>44044</v>
       </c>
@@ -16480,7 +16496,7 @@
         <v>9.8747906968658955E-2</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="5">
         <v>44075</v>
       </c>
@@ -16488,7 +16504,7 @@
         <v>0.10280377344670942</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="5">
         <v>44105</v>
       </c>
@@ -16496,7 +16512,7 @@
         <v>0.1003081555378784</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="5">
         <v>44136</v>
       </c>
@@ -16504,237 +16520,275 @@
         <v>9.4781090636132159E-2</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="5">
         <v>44166</v>
       </c>
       <c r="B314" s="6">
         <v>9.9688114787269883E-2</v>
       </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C314" s="8"/>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="5">
         <v>44197</v>
       </c>
       <c r="B315" s="6">
         <v>0.10345953791176479</v>
       </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C315" s="8"/>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="5">
         <v>44228</v>
       </c>
       <c r="B316" s="6">
         <v>9.9036976535253174E-2</v>
       </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C316" s="8"/>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="5">
         <v>44256</v>
       </c>
       <c r="B317" s="6">
         <v>0.11202004609682872</v>
       </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C317" s="8"/>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="5">
         <v>44287</v>
       </c>
       <c r="B318" s="6">
         <v>0.1105</v>
       </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C318" s="8"/>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="5">
         <v>44317</v>
       </c>
       <c r="B319" s="6">
         <v>0.103756060197642</v>
       </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C319" s="8"/>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="5">
         <v>44348</v>
       </c>
       <c r="B320" s="6">
         <v>0.11288777024068533</v>
       </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C320" s="8"/>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="5">
         <v>44378</v>
       </c>
       <c r="B321" s="6">
         <v>0.1217</v>
       </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C321" s="8"/>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="5">
         <v>44409</v>
       </c>
       <c r="B322" s="6">
         <v>0.11860470570232673</v>
       </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C322" s="8"/>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="5">
         <v>44440</v>
       </c>
       <c r="B323" s="6">
         <v>0.15321467349306883</v>
       </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C323" s="8"/>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="5">
         <v>44470</v>
       </c>
       <c r="B324" s="6">
         <v>0.1565</v>
       </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C324" s="8"/>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="5">
         <v>44501</v>
       </c>
       <c r="B325" s="6">
         <v>0.15480116295464194</v>
       </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C325" s="8"/>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="5">
         <v>44531</v>
       </c>
       <c r="B326" s="6">
         <v>0.18086975473681763</v>
       </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C326" s="8"/>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="5">
         <v>44562</v>
       </c>
       <c r="B327" s="6">
         <v>0.15203711549166959</v>
       </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C327" s="8"/>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="5">
         <v>44593</v>
       </c>
       <c r="B328" s="6">
         <v>0.15045086518646858</v>
       </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C328" s="8"/>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="5">
         <v>44621</v>
       </c>
       <c r="B329" s="6">
         <v>0.13402699778646815</v>
       </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C329" s="8"/>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="5">
         <v>44652</v>
       </c>
       <c r="B330" s="6">
         <v>0.13661550466927599</v>
       </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C330" s="8"/>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="5">
         <v>44682</v>
       </c>
       <c r="B331" s="6">
         <v>0.1321</v>
       </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C331" s="8"/>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="5">
         <v>44713</v>
       </c>
       <c r="B332" s="6">
         <v>0.16510000000000002</v>
       </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C332" s="8"/>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="5">
         <v>44743</v>
       </c>
       <c r="B333" s="6">
         <v>0.1585</v>
       </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C333" s="8"/>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="5">
         <v>44774</v>
       </c>
       <c r="B334" s="6">
         <v>0.1331</v>
       </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C334" s="8"/>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="5">
         <v>44805</v>
       </c>
       <c r="B335" s="6">
         <v>0.14630000000000001</v>
       </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C335" s="8"/>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="5">
         <v>44835</v>
       </c>
       <c r="B336" s="6">
         <v>0.1197</v>
       </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C336" s="8"/>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="5">
         <v>44866</v>
       </c>
       <c r="B337" s="6">
         <v>0.1177</v>
       </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C337" s="8"/>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="5">
         <v>44896</v>
       </c>
       <c r="B338" s="6">
         <v>0.1172183756433729</v>
       </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C338" s="8"/>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="5">
         <v>44927</v>
       </c>
       <c r="B339" s="6">
         <v>0.112566</v>
       </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C339" s="8"/>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="5">
         <v>44958</v>
       </c>
       <c r="B340" s="6">
         <v>0.10406600000000001</v>
       </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C340" s="8"/>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="5">
         <v>44986</v>
       </c>
       <c r="B341" s="6">
         <v>0.100060632666334</v>
       </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C341" s="8"/>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="5">
         <v>45017</v>
       </c>
       <c r="B342" s="6">
         <v>9.7161250237506505E-2</v>
       </c>
+      <c r="C342" s="8"/>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="5">
+        <v>45047</v>
+      </c>
+      <c r="B343" s="6">
+        <v>8.9197844933858697E-2</v>
+      </c>
+      <c r="C343" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Database/Serie de Equity Risk Premium.xlsx
+++ b/Database/Serie de Equity Risk Premium.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teo\Documents\GitHub\ERP\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bteba\Documents\GitHub\ERP\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF790E72-BD4D-41BA-B88E-BFB8C578A051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D787BC9-C45E-48AE-BAA5-94E6D1C5B20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -63,14 +63,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -108,7 +106,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -123,6 +121,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -249,10 +248,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Planilha1!$A$3:$A$392</c:f>
+              <c:f>Planilha1!$A$3:$A$379</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="390"/>
+                <c:ptCount val="377"/>
                 <c:pt idx="0">
                   <c:v>34700</c:v>
                 </c:pt>
@@ -1275,16 +1274,19 @@
                 </c:pt>
                 <c:pt idx="340">
                   <c:v>45047</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>45078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$B$3:$B$392</c:f>
+              <c:f>Planilha1!$B$3:$B$379</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="390"/>
+                <c:ptCount val="377"/>
                 <c:pt idx="0">
                   <c:v>3.5906071097335332E-2</c:v>
                 </c:pt>
@@ -2306,7 +2308,10 @@
                   <c:v>9.7161250237506505E-2</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>8.9197844933858697E-2</c:v>
+                  <c:v>9.6838061660370997E-2</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>8.4097029271563706E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3388,10 +3393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:RX343"/>
+  <dimension ref="A1:RX344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
-      <selection activeCell="B343" sqref="B343"/>
+    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
+      <selection activeCell="O321" sqref="O321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16786,9 +16791,17 @@
         <v>45047</v>
       </c>
       <c r="B343" s="6">
-        <v>8.9197844933858697E-2</v>
-      </c>
-      <c r="C343" s="8"/>
+        <v>9.6838061660370997E-2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="5">
+        <v>45078</v>
+      </c>
+      <c r="B344" s="6">
+        <v>8.4097029271563706E-2</v>
+      </c>
+      <c r="C344" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Database/Serie de Equity Risk Premium.xlsx
+++ b/Database/Serie de Equity Risk Premium.xlsx
@@ -1,35 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bteba\Documents\GitHub\ERP\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teo\Documents\GitHub\ERP\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D787BC9-C45E-48AE-BAA5-94E6D1C5B20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1774068A-2CCD-4CC3-ADF5-4F1E31B5447B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -51,6 +40,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -122,7 +114,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1278,6 +1270,9 @@
                 <c:pt idx="341">
                   <c:v>45078</c:v>
                 </c:pt>
+                <c:pt idx="342">
+                  <c:v>45108</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2312,6 +2307,9 @@
                 </c:pt>
                 <c:pt idx="341">
                   <c:v>8.4097029271563706E-2</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>7.9421854001553702E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3393,10 +3391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:RX344"/>
+  <dimension ref="A1:RX349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
-      <selection activeCell="O321" sqref="O321"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A343" sqref="A343:B343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16801,7 +16799,27 @@
       <c r="B344" s="6">
         <v>8.4097029271563706E-2</v>
       </c>
-      <c r="C344" s="9"/>
+      <c r="C344" s="8"/>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="5">
+        <v>45108</v>
+      </c>
+      <c r="B345" s="6">
+        <v>7.9421854001553702E-2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="9"/>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="9"/>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="9"/>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Database/Serie de Equity Risk Premium.xlsx
+++ b/Database/Serie de Equity Risk Premium.xlsx
@@ -5,20 +5,31 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teo\Documents\GitHub\ERP\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bteba\Documents\GitHub\ERP\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1774068A-2CCD-4CC3-ADF5-4F1E31B5447B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D2A86A-69FD-4C76-86D4-BDCEADF9BB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -98,7 +109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -115,6 +126,7 @@
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1273,6 +1285,9 @@
                 <c:pt idx="342">
                   <c:v>45108</c:v>
                 </c:pt>
+                <c:pt idx="343">
+                  <c:v>45139</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2310,6 +2325,9 @@
                 </c:pt>
                 <c:pt idx="342">
                   <c:v>7.9421854001553702E-2</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>8.8703735811575105E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3393,8 +3411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:RX349"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A343" sqref="A343:B343"/>
+    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
+      <selection activeCell="D346" sqref="D346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16730,7 +16748,7 @@
       </c>
       <c r="C336" s="8"/>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="5">
         <v>44866</v>
       </c>
@@ -16739,7 +16757,7 @@
       </c>
       <c r="C337" s="8"/>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="5">
         <v>44896</v>
       </c>
@@ -16748,7 +16766,7 @@
       </c>
       <c r="C338" s="8"/>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="5">
         <v>44927</v>
       </c>
@@ -16757,7 +16775,7 @@
       </c>
       <c r="C339" s="8"/>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="5">
         <v>44958</v>
       </c>
@@ -16766,7 +16784,7 @@
       </c>
       <c r="C340" s="8"/>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="5">
         <v>44986</v>
       </c>
@@ -16775,7 +16793,7 @@
       </c>
       <c r="C341" s="8"/>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="5">
         <v>45017</v>
       </c>
@@ -16784,7 +16802,7 @@
       </c>
       <c r="C342" s="8"/>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="5">
         <v>45047</v>
       </c>
@@ -16792,7 +16810,7 @@
         <v>9.6838061660370997E-2</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="5">
         <v>45078</v>
       </c>
@@ -16801,7 +16819,7 @@
       </c>
       <c r="C344" s="8"/>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="5">
         <v>45108</v>
       </c>
@@ -16809,21 +16827,27 @@
         <v>7.9421854001553702E-2</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A346" s="9"/>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346" s="5">
+        <v>45139</v>
+      </c>
+      <c r="B346" s="6">
+        <v>8.8703735811575105E-2</v>
+      </c>
+      <c r="D346" s="10"/>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="9"/>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="9"/>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Database/Serie de Equity Risk Premium.xlsx
+++ b/Database/Serie de Equity Risk Premium.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bteba\Documents\GitHub\ERP\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bteba\Documents\Github\ERP\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D2A86A-69FD-4C76-86D4-BDCEADF9BB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98482026-E023-4AD6-8E48-410CAAA5D3B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$2:$B$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -112,6 +115,8 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -124,8 +129,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1288,6 +1291,12 @@
                 <c:pt idx="343">
                   <c:v>45139</c:v>
                 </c:pt>
+                <c:pt idx="344">
+                  <c:v>45170</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>45200</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2328,6 +2337,12 @@
                 </c:pt>
                 <c:pt idx="343">
                   <c:v>8.8703735811575105E-2</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>8.69610556503468E-2</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>8.5154952330852907E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3411,8 +3426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:RX349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
-      <selection activeCell="D346" sqref="D346"/>
+    <sheetView tabSelected="1" topLeftCell="A317" workbookViewId="0">
+      <selection activeCell="B347" sqref="B347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3429,10 +3444,10 @@
       </c>
     </row>
     <row r="2" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="CG2" s="1"/>
@@ -3468,10 +3483,10 @@
       <c r="RX2" s="1"/>
     </row>
     <row r="3" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="7">
         <v>34700</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="8">
         <v>3.5906071097335332E-2</v>
       </c>
       <c r="CG3" s="1"/>
@@ -3505,10 +3520,10 @@
       <c r="RX3" s="1"/>
     </row>
     <row r="4" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="7">
         <v>34731</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="8">
         <v>4.641371511935781E-2</v>
       </c>
       <c r="CG4" s="1"/>
@@ -3542,10 +3557,10 @@
       <c r="RX4" s="1"/>
     </row>
     <row r="5" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="7">
         <v>34759</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="8">
         <v>6.8188691890601116E-2</v>
       </c>
       <c r="CG5" s="1"/>
@@ -3578,10 +3593,10 @@
       <c r="RX5" s="1"/>
     </row>
     <row r="6" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="7">
         <v>34790</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="8">
         <v>9.0011601145643869E-2</v>
       </c>
       <c r="CG6" s="1"/>
@@ -3612,10 +3627,10 @@
       <c r="RM6" s="1"/>
     </row>
     <row r="7" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="7">
         <v>34820</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="8">
         <v>9.9496073670305801E-2</v>
       </c>
       <c r="CG7" s="1"/>
@@ -3645,10 +3660,10 @@
       <c r="RM7" s="1"/>
     </row>
     <row r="8" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="7">
         <v>34851</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="8">
         <v>0.11863771466397069</v>
       </c>
       <c r="CG8" s="1"/>
@@ -3678,10 +3693,10 @@
       <c r="RM8" s="1"/>
     </row>
     <row r="9" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="7">
         <v>34881</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="8">
         <v>0.1181146572660678</v>
       </c>
       <c r="CG9" s="1"/>
@@ -3701,10 +3716,10 @@
       <c r="RM9" s="1"/>
     </row>
     <row r="10" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="7">
         <v>34912</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="8">
         <v>0.11925440378813899</v>
       </c>
       <c r="CG10" s="1"/>
@@ -3723,10 +3738,10 @@
       <c r="RM10" s="1"/>
     </row>
     <row r="11" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="7">
         <v>34943</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="8">
         <v>8.0427229515112636E-2</v>
       </c>
       <c r="CG11" s="1"/>
@@ -3745,10 +3760,10 @@
       <c r="RM11" s="1"/>
     </row>
     <row r="12" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="7">
         <v>34973</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="8">
         <v>9.2888414728135582E-2</v>
       </c>
       <c r="CG12" s="1"/>
@@ -3766,10 +3781,10 @@
       <c r="RM12" s="1"/>
     </row>
     <row r="13" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="7">
         <v>35004</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="8">
         <v>0.10118496200041718</v>
       </c>
       <c r="CG13" s="1"/>
@@ -3787,10 +3802,10 @@
       <c r="RM13" s="1"/>
     </row>
     <row r="14" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="7">
         <v>35034</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="8">
         <v>0.10732542683580969</v>
       </c>
       <c r="CG14" s="1"/>
@@ -3806,10 +3821,10 @@
       <c r="OY14" s="1"/>
     </row>
     <row r="15" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="7">
         <v>35065</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="8">
         <v>9.1621260099534085E-2</v>
       </c>
       <c r="CG15" s="1"/>
@@ -3825,665 +3840,665 @@
       <c r="OY15" s="1"/>
     </row>
     <row r="16" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="7">
         <v>35096</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="8">
         <v>8.4905503970074639E-2</v>
       </c>
       <c r="CP16" s="1"/>
     </row>
     <row r="17" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="7">
         <v>35125</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="8">
         <v>0.10049276040389069</v>
       </c>
       <c r="CP17" s="1"/>
     </row>
     <row r="18" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="7">
         <v>35156</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="8">
         <v>9.6531384813158941E-2</v>
       </c>
       <c r="CP18" s="1"/>
     </row>
     <row r="19" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="7">
         <v>35186</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="8">
         <v>9.5088188666882692E-2</v>
       </c>
       <c r="CP19" s="1"/>
     </row>
     <row r="20" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="7">
         <v>35217</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="8">
         <v>9.0796583575804307E-2</v>
       </c>
       <c r="CP20" s="1"/>
     </row>
     <row r="21" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21" s="7">
         <v>35247</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="8">
         <v>9.2623876599203819E-2</v>
       </c>
       <c r="CP21" s="1"/>
     </row>
     <row r="22" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22" s="7">
         <v>35278</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="8">
         <v>9.1099901245860898E-2</v>
       </c>
       <c r="CP22" s="1"/>
     </row>
     <row r="23" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="A23" s="7">
         <v>35309</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="8">
         <v>9.2854806609296375E-2</v>
       </c>
       <c r="CP23" s="1"/>
     </row>
     <row r="24" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="A24" s="7">
         <v>35339</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="8">
         <v>0.10127373741409153</v>
       </c>
       <c r="CP24" s="1"/>
     </row>
     <row r="25" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="A25" s="7">
         <v>35370</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="8">
         <v>0.10142804442282341</v>
       </c>
       <c r="CP25" s="1"/>
     </row>
     <row r="26" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="A26" s="7">
         <v>35400</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="8">
         <v>9.9700000278104189E-2</v>
       </c>
       <c r="CP26" s="1"/>
     </row>
     <row r="27" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="A27" s="7">
         <v>35431</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="8">
         <v>9.7052332691215076E-2</v>
       </c>
       <c r="CP27" s="1"/>
     </row>
     <row r="28" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="A28" s="7">
         <v>35462</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="8">
         <v>9.1057142830797522E-2</v>
       </c>
       <c r="CP28" s="1"/>
     </row>
     <row r="29" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="A29" s="7">
         <v>35490</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="8">
         <v>8.6177248797735806E-2</v>
       </c>
       <c r="CP29" s="1"/>
     </row>
     <row r="30" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+      <c r="A30" s="7">
         <v>35521</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="8">
         <v>8.5066948095953776E-2</v>
       </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
       <c r="CP30" s="1"/>
     </row>
     <row r="31" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+      <c r="A31" s="7">
         <v>35551</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="8">
         <v>9.7288837160340563E-2</v>
       </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
       <c r="CP31" s="1"/>
     </row>
     <row r="32" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+      <c r="A32" s="7">
         <v>35582</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="8">
         <v>9.6957468174919514E-2</v>
       </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
       <c r="CP32" s="1"/>
     </row>
     <row r="33" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+      <c r="A33" s="7">
         <v>35612</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="8">
         <v>9.8258192485687817E-2</v>
       </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
       <c r="CP33" s="1"/>
     </row>
     <row r="34" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+      <c r="A34" s="7">
         <v>35643</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="8">
         <v>0.10071108991221206</v>
       </c>
-      <c r="L34" s="4"/>
+      <c r="L34" s="6"/>
       <c r="CP34" s="1"/>
     </row>
     <row r="35" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
+      <c r="A35" s="7">
         <v>35674</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="8">
         <v>9.4101292650451321E-2</v>
       </c>
       <c r="CP35" s="1"/>
     </row>
     <row r="36" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
+      <c r="A36" s="7">
         <v>35704</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="8">
         <v>0.1022443853346008</v>
       </c>
       <c r="CP36" s="1"/>
     </row>
     <row r="37" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
+      <c r="A37" s="7">
         <v>35735</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="8">
         <v>0.11673503599412813</v>
       </c>
       <c r="CP37" s="1"/>
     </row>
     <row r="38" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
+      <c r="A38" s="7">
         <v>35765</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="8">
         <v>0.12868892588777975</v>
       </c>
       <c r="CP38" s="1"/>
     </row>
     <row r="39" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
+      <c r="A39" s="7">
         <v>35796</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="8">
         <v>0.13246738378006745</v>
       </c>
       <c r="CP39" s="1"/>
     </row>
     <row r="40" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
+      <c r="A40" s="7">
         <v>35827</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="8">
         <v>0.12192540989307418</v>
       </c>
       <c r="CP40" s="1"/>
     </row>
     <row r="41" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
+      <c r="A41" s="7">
         <v>35855</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="8">
         <v>0.11858185629167939</v>
       </c>
       <c r="CP41" s="1"/>
     </row>
     <row r="42" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
+      <c r="A42" s="7">
         <v>35886</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="8">
         <v>0.11009539820274278</v>
       </c>
       <c r="CP42" s="1"/>
     </row>
     <row r="43" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
+      <c r="A43" s="7">
         <v>35916</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="8">
         <v>0.14815671762109539</v>
       </c>
       <c r="CP43" s="1"/>
     </row>
     <row r="44" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
+      <c r="A44" s="7">
         <v>35947</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="8">
         <v>0.16414072309545738</v>
       </c>
       <c r="CP44" s="1"/>
     </row>
     <row r="45" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
+      <c r="A45" s="7">
         <v>35977</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="8">
         <v>0.15684487547919845</v>
       </c>
       <c r="CP45" s="1"/>
     </row>
     <row r="46" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
+      <c r="A46" s="7">
         <v>36008</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="8">
         <v>0.20761986410571115</v>
       </c>
       <c r="CP46" s="1"/>
     </row>
     <row r="47" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
+      <c r="A47" s="7">
         <v>36039</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="8">
         <v>0.26488372425157419</v>
       </c>
       <c r="CP47" s="1"/>
     </row>
     <row r="48" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
+      <c r="A48" s="7">
         <v>36069</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="8">
         <v>0.27386908893169182</v>
       </c>
       <c r="CP48" s="1"/>
     </row>
     <row r="49" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
+      <c r="A49" s="7">
         <v>36100</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="8">
         <v>0.23368482800820384</v>
       </c>
       <c r="CP49" s="1"/>
     </row>
     <row r="50" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
+      <c r="A50" s="7">
         <v>36130</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="8">
         <v>0.19728157436806892</v>
       </c>
       <c r="CP50" s="1"/>
     </row>
     <row r="51" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
+      <c r="A51" s="7">
         <v>36161</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="8">
         <v>0.18849719620951449</v>
       </c>
-      <c r="D51" s="2"/>
+      <c r="D51" s="4"/>
       <c r="CP51" s="1"/>
     </row>
     <row r="52" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
+      <c r="A52" s="7">
         <v>36192</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="8">
         <v>0.17879547863724937</v>
       </c>
-      <c r="D52" s="2"/>
+      <c r="D52" s="4"/>
       <c r="CP52" s="1"/>
     </row>
     <row r="53" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
+      <c r="A53" s="7">
         <v>36220</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="8">
         <v>0.19521218246374467</v>
       </c>
-      <c r="D53" s="2"/>
+      <c r="D53" s="4"/>
       <c r="CP53" s="1"/>
     </row>
     <row r="54" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
+      <c r="A54" s="7">
         <v>36251</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54" s="8">
         <v>0.17667737273699313</v>
       </c>
-      <c r="D54" s="2"/>
+      <c r="D54" s="4"/>
       <c r="CP54" s="1"/>
     </row>
     <row r="55" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
+      <c r="A55" s="7">
         <v>36281</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55" s="8">
         <v>0.17240854293261376</v>
       </c>
-      <c r="D55" s="2"/>
+      <c r="D55" s="4"/>
       <c r="CP55" s="1"/>
     </row>
     <row r="56" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
+      <c r="A56" s="7">
         <v>36312</v>
       </c>
-      <c r="B56" s="6">
+      <c r="B56" s="8">
         <v>0.15905547118167043</v>
       </c>
-      <c r="D56" s="2"/>
+      <c r="D56" s="4"/>
       <c r="CP56" s="1"/>
     </row>
     <row r="57" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A57" s="5">
+      <c r="A57" s="7">
         <v>36342</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B57" s="8">
         <v>0.15865389804394955</v>
       </c>
-      <c r="D57" s="2"/>
+      <c r="D57" s="4"/>
       <c r="CP57" s="1"/>
     </row>
     <row r="58" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
+      <c r="A58" s="7">
         <v>36373</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B58" s="8">
         <v>0.15275419272689961</v>
       </c>
-      <c r="D58" s="2"/>
+      <c r="D58" s="4"/>
       <c r="CP58" s="1"/>
     </row>
     <row r="59" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A59" s="5">
+      <c r="A59" s="7">
         <v>36404</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B59" s="8">
         <v>0.13159865421370617</v>
       </c>
-      <c r="D59" s="2"/>
+      <c r="D59" s="4"/>
       <c r="CP59" s="1"/>
     </row>
     <row r="60" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A60" s="5">
+      <c r="A60" s="7">
         <v>36434</v>
       </c>
-      <c r="B60" s="6">
+      <c r="B60" s="8">
         <v>0.12196728595845485</v>
       </c>
-      <c r="D60" s="2"/>
+      <c r="D60" s="4"/>
       <c r="CP60" s="1"/>
     </row>
     <row r="61" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A61" s="5">
+      <c r="A61" s="7">
         <v>36465</v>
       </c>
-      <c r="B61" s="6">
+      <c r="B61" s="8">
         <v>0.10437517943413213</v>
       </c>
-      <c r="D61" s="2"/>
+      <c r="D61" s="4"/>
       <c r="CP61" s="1"/>
     </row>
     <row r="62" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A62" s="5">
+      <c r="A62" s="7">
         <v>36495</v>
       </c>
-      <c r="B62" s="6">
+      <c r="B62" s="8">
         <v>8.4895285767080067E-2</v>
       </c>
-      <c r="D62" s="2"/>
+      <c r="D62" s="4"/>
       <c r="CP62" s="1"/>
     </row>
     <row r="63" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A63" s="5">
+      <c r="A63" s="7">
         <v>36526</v>
       </c>
-      <c r="B63" s="6">
+      <c r="B63" s="8">
         <v>8.0964220165040707E-2</v>
       </c>
-      <c r="D63" s="2"/>
+      <c r="D63" s="4"/>
       <c r="CP63" s="1"/>
     </row>
     <row r="64" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
+      <c r="A64" s="7">
         <v>36557</v>
       </c>
-      <c r="B64" s="6">
+      <c r="B64" s="8">
         <v>8.5143819747368649E-2</v>
       </c>
-      <c r="D64" s="2"/>
+      <c r="D64" s="4"/>
       <c r="CP64" s="1"/>
     </row>
     <row r="65" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A65" s="5">
+      <c r="A65" s="7">
         <v>36586</v>
       </c>
-      <c r="B65" s="6">
+      <c r="B65" s="8">
         <v>9.4432793059799777E-2</v>
       </c>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
       <c r="CP65" s="1"/>
     </row>
     <row r="66" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A66" s="5">
+      <c r="A66" s="7">
         <v>36617</v>
       </c>
-      <c r="B66" s="6">
+      <c r="B66" s="8">
         <v>0.1068984082862578</v>
       </c>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
       <c r="CP66" s="1"/>
     </row>
     <row r="67" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A67" s="5">
+      <c r="A67" s="7">
         <v>36647</v>
       </c>
-      <c r="B67" s="6">
+      <c r="B67" s="8">
         <v>0.10194024162250852</v>
       </c>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
       <c r="CP67" s="1"/>
     </row>
     <row r="68" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A68" s="5">
+      <c r="A68" s="7">
         <v>36678</v>
       </c>
-      <c r="B68" s="6">
+      <c r="B68" s="8">
         <v>0.11520688931942046</v>
       </c>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
       <c r="CP68" s="1"/>
     </row>
     <row r="69" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A69" s="5">
+      <c r="A69" s="7">
         <v>36708</v>
       </c>
-      <c r="B69" s="6">
+      <c r="B69" s="8">
         <v>0.10847862629401375</v>
       </c>
-      <c r="E69" s="2"/>
+      <c r="E69" s="4"/>
       <c r="CP69" s="1"/>
     </row>
     <row r="70" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A70" s="5">
+      <c r="A70" s="7">
         <v>36739</v>
       </c>
-      <c r="B70" s="6">
+      <c r="B70" s="8">
         <v>0.11669317806908461</v>
       </c>
-      <c r="E70" s="2"/>
+      <c r="E70" s="4"/>
       <c r="CP70" s="1"/>
     </row>
     <row r="71" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A71" s="5">
+      <c r="A71" s="7">
         <v>36770</v>
       </c>
-      <c r="B71" s="6">
+      <c r="B71" s="8">
         <v>0.12461879502315275</v>
       </c>
-      <c r="E71" s="2"/>
+      <c r="E71" s="4"/>
       <c r="CP71" s="1"/>
     </row>
     <row r="72" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A72" s="5">
+      <c r="A72" s="7">
         <v>36800</v>
       </c>
-      <c r="B72" s="6">
+      <c r="B72" s="8">
         <v>0.12350351608453644</v>
       </c>
-      <c r="E72" s="2"/>
+      <c r="E72" s="4"/>
       <c r="CP72" s="1"/>
     </row>
     <row r="73" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A73" s="5">
+      <c r="A73" s="7">
         <v>36831</v>
       </c>
-      <c r="B73" s="6">
+      <c r="B73" s="8">
         <v>0.13624280260074831</v>
       </c>
-      <c r="E73" s="2"/>
+      <c r="E73" s="4"/>
       <c r="CP73" s="1"/>
     </row>
     <row r="74" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A74" s="5">
+      <c r="A74" s="7">
         <v>36861</v>
       </c>
-      <c r="B74" s="6">
+      <c r="B74" s="8">
         <v>0.10449451374749155</v>
       </c>
-      <c r="E74" s="2"/>
+      <c r="E74" s="4"/>
       <c r="CP74" s="1"/>
     </row>
     <row r="75" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A75" s="5">
+      <c r="A75" s="7">
         <v>36892</v>
       </c>
-      <c r="B75" s="6">
+      <c r="B75" s="8">
         <v>9.8078739800215115E-2</v>
       </c>
-      <c r="E75" s="2"/>
+      <c r="E75" s="4"/>
       <c r="CP75" s="1"/>
     </row>
     <row r="76" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A76" s="5">
+      <c r="A76" s="7">
         <v>36923</v>
       </c>
-      <c r="B76" s="6">
+      <c r="B76" s="8">
         <v>9.4986612102584869E-2</v>
       </c>
-      <c r="E76" s="2"/>
+      <c r="E76" s="4"/>
       <c r="CP76" s="1"/>
     </row>
     <row r="77" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A77" s="5">
+      <c r="A77" s="7">
         <v>36951</v>
       </c>
-      <c r="B77" s="6">
+      <c r="B77" s="8">
         <v>0.10943199261845223</v>
       </c>
-      <c r="E77" s="2"/>
+      <c r="E77" s="4"/>
       <c r="CP77" s="1"/>
     </row>
     <row r="78" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A78" s="5">
+      <c r="A78" s="7">
         <v>36982</v>
       </c>
-      <c r="B78" s="6">
+      <c r="B78" s="8">
         <v>0.10230821441197835</v>
       </c>
-      <c r="E78" s="2"/>
+      <c r="E78" s="4"/>
       <c r="CP78" s="1"/>
     </row>
     <row r="79" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A79" s="5">
+      <c r="A79" s="7">
         <v>37012</v>
       </c>
-      <c r="B79" s="6">
+      <c r="B79" s="8">
         <v>0.11448510925596571</v>
       </c>
-      <c r="E79" s="2"/>
+      <c r="E79" s="4"/>
       <c r="CP79" s="1"/>
     </row>
     <row r="80" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A80" s="5">
+      <c r="A80" s="7">
         <v>37043</v>
       </c>
-      <c r="B80" s="6">
+      <c r="B80" s="8">
         <v>0.12205193419326613</v>
       </c>
-      <c r="E80" s="2"/>
+      <c r="E80" s="4"/>
       <c r="CP80" s="1"/>
     </row>
     <row r="81" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A81" s="5">
+      <c r="A81" s="7">
         <v>37073</v>
       </c>
-      <c r="B81" s="6">
+      <c r="B81" s="8">
         <v>0.12472087316217893</v>
       </c>
-      <c r="E81" s="2"/>
+      <c r="E81" s="4"/>
       <c r="CP81" s="1"/>
       <c r="DC81" s="1"/>
       <c r="DE81" s="1"/>
@@ -4495,10 +4510,10 @@
       <c r="DK81" s="1"/>
     </row>
     <row r="82" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A82" s="5">
+      <c r="A82" s="7">
         <v>37104</v>
       </c>
-      <c r="B82" s="6">
+      <c r="B82" s="8">
         <v>0.13164962330151575</v>
       </c>
       <c r="CP82" s="1"/>
@@ -4512,10 +4527,10 @@
       <c r="DK82" s="1"/>
     </row>
     <row r="83" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A83" s="5">
+      <c r="A83" s="7">
         <v>37135</v>
       </c>
-      <c r="B83" s="6">
+      <c r="B83" s="8">
         <v>0.16920274455915726</v>
       </c>
       <c r="CP83" s="1"/>
@@ -4530,10 +4545,10 @@
       <c r="FQ83" s="1"/>
     </row>
     <row r="84" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A84" s="5">
+      <c r="A84" s="7">
         <v>37165</v>
       </c>
-      <c r="B84" s="6">
+      <c r="B84" s="8">
         <v>0.16487384010580458</v>
       </c>
       <c r="CP84" s="1"/>
@@ -4548,10 +4563,10 @@
       <c r="FQ84" s="1"/>
     </row>
     <row r="85" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A85" s="5">
+      <c r="A85" s="7">
         <v>37196</v>
       </c>
-      <c r="B85" s="6">
+      <c r="B85" s="8">
         <v>0.14485365882340293</v>
       </c>
       <c r="CP85" s="1"/>
@@ -4566,10 +4581,10 @@
       <c r="FQ85" s="1"/>
     </row>
     <row r="86" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A86" s="5">
+      <c r="A86" s="7">
         <v>37226</v>
       </c>
-      <c r="B86" s="6">
+      <c r="B86" s="8">
         <v>0.12057147500114479</v>
       </c>
       <c r="CP86" s="1"/>
@@ -4584,10 +4599,10 @@
       <c r="FQ86" s="1"/>
     </row>
     <row r="87" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A87" s="5">
+      <c r="A87" s="7">
         <v>37257</v>
       </c>
-      <c r="B87" s="6">
+      <c r="B87" s="8">
         <v>0.12028644057053653</v>
       </c>
       <c r="CP87" s="1"/>
@@ -4602,10 +4617,10 @@
       <c r="FQ87" s="1"/>
     </row>
     <row r="88" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A88" s="5">
+      <c r="A88" s="7">
         <v>37288</v>
       </c>
-      <c r="B88" s="6">
+      <c r="B88" s="8">
         <v>0.11585635189852062</v>
       </c>
       <c r="CP88" s="1"/>
@@ -4620,10 +4635,10 @@
       <c r="FQ88" s="1"/>
     </row>
     <row r="89" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A89" s="5">
+      <c r="A89" s="7">
         <v>37316</v>
       </c>
-      <c r="B89" s="6">
+      <c r="B89" s="8">
         <v>0.12274527752297042</v>
       </c>
       <c r="CP89" s="1"/>
@@ -4639,10 +4654,10 @@
       <c r="FQ89" s="1"/>
     </row>
     <row r="90" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A90" s="5">
+      <c r="A90" s="7">
         <v>37347</v>
       </c>
-      <c r="B90" s="6">
+      <c r="B90" s="8">
         <v>0.12101568147782529</v>
       </c>
       <c r="CP90" s="1"/>
@@ -4658,10 +4673,10 @@
       <c r="FQ90" s="1"/>
     </row>
     <row r="91" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A91" s="5">
+      <c r="A91" s="7">
         <v>37377</v>
       </c>
-      <c r="B91" s="6">
+      <c r="B91" s="8">
         <v>0.13834911739732181</v>
       </c>
       <c r="CP91" s="1"/>
@@ -4677,10 +4692,10 @@
       <c r="FQ91" s="1"/>
     </row>
     <row r="92" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A92" s="5">
+      <c r="A92" s="7">
         <v>37408</v>
       </c>
-      <c r="B92" s="6">
+      <c r="B92" s="8">
         <v>0.13898444661446926</v>
       </c>
       <c r="CP92" s="1"/>
@@ -4697,10 +4712,10 @@
       <c r="FQ92" s="1"/>
     </row>
     <row r="93" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A93" s="5">
+      <c r="A93" s="7">
         <v>37438</v>
       </c>
-      <c r="B93" s="6">
+      <c r="B93" s="8">
         <v>0.15154676452080135</v>
       </c>
       <c r="CP93" s="1"/>
@@ -4717,10 +4732,10 @@
       <c r="FQ93" s="1"/>
     </row>
     <row r="94" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A94" s="5">
+      <c r="A94" s="7">
         <v>37469</v>
       </c>
-      <c r="B94" s="6">
+      <c r="B94" s="8">
         <v>0.14914501917668246</v>
       </c>
       <c r="CP94" s="1"/>
@@ -4737,10 +4752,10 @@
       <c r="FQ94" s="1"/>
     </row>
     <row r="95" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A95" s="5">
+      <c r="A95" s="7">
         <v>37500</v>
       </c>
-      <c r="B95" s="6">
+      <c r="B95" s="8">
         <v>0.17729158577688089</v>
       </c>
       <c r="CP95" s="1"/>
@@ -4758,10 +4773,10 @@
       <c r="GX95" s="1"/>
     </row>
     <row r="96" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A96" s="5">
+      <c r="A96" s="7">
         <v>37530</v>
       </c>
-      <c r="B96" s="6">
+      <c r="B96" s="8">
         <v>0.16158417270187989</v>
       </c>
       <c r="CP96" s="1"/>
@@ -4779,10 +4794,10 @@
       <c r="GX96" s="1"/>
     </row>
     <row r="97" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A97" s="5">
+      <c r="A97" s="7">
         <v>37561</v>
       </c>
-      <c r="B97" s="6">
+      <c r="B97" s="8">
         <v>0.15765516285709646</v>
       </c>
       <c r="CG97" s="1"/>
@@ -4810,10 +4825,10 @@
       <c r="QQ97" s="1"/>
     </row>
     <row r="98" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A98" s="5">
+      <c r="A98" s="7">
         <v>37591</v>
       </c>
-      <c r="B98" s="6">
+      <c r="B98" s="8">
         <v>0.16155516390609645</v>
       </c>
       <c r="CG98" s="1"/>
@@ -4841,10 +4856,10 @@
       <c r="QQ98" s="1"/>
     </row>
     <row r="99" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A99" s="5">
+      <c r="A99" s="7">
         <v>37622</v>
       </c>
-      <c r="B99" s="6">
+      <c r="B99" s="8">
         <v>0.16721818984210535</v>
       </c>
       <c r="CG99" s="1"/>
@@ -4881,10 +4896,10 @@
       <c r="QQ99" s="1"/>
     </row>
     <row r="100" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A100" s="5">
+      <c r="A100" s="7">
         <v>37653</v>
       </c>
-      <c r="B100" s="6">
+      <c r="B100" s="8">
         <v>0.16873740603929704</v>
       </c>
       <c r="CG100" s="1"/>
@@ -4931,10 +4946,10 @@
       <c r="QQ100" s="1"/>
     </row>
     <row r="101" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A101" s="5">
+      <c r="A101" s="7">
         <v>37681</v>
       </c>
-      <c r="B101" s="6">
+      <c r="B101" s="8">
         <v>0.17960657789052537</v>
       </c>
       <c r="CG101" s="1"/>
@@ -4982,10 +4997,10 @@
       <c r="QQ101" s="1"/>
     </row>
     <row r="102" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A102" s="5">
+      <c r="A102" s="7">
         <v>37712</v>
       </c>
-      <c r="B102" s="6">
+      <c r="B102" s="8">
         <v>0.17370103158576525</v>
       </c>
       <c r="CG102" s="1"/>
@@ -5033,10 +5048,10 @@
       <c r="QQ102" s="1"/>
     </row>
     <row r="103" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A103" s="5">
+      <c r="A103" s="7">
         <v>37742</v>
       </c>
-      <c r="B103" s="6">
+      <c r="B103" s="8">
         <v>0.17745962817797939</v>
       </c>
       <c r="CG103" s="1"/>
@@ -5085,10 +5100,10 @@
       <c r="QQ103" s="1"/>
     </row>
     <row r="104" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A104" s="5">
+      <c r="A104" s="7">
         <v>37773</v>
       </c>
-      <c r="B104" s="6">
+      <c r="B104" s="8">
         <v>0.17353423821042152</v>
       </c>
       <c r="CG104" s="1"/>
@@ -5138,10 +5153,10 @@
       <c r="QQ104" s="1"/>
     </row>
     <row r="105" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A105" s="5">
+      <c r="A105" s="7">
         <v>37803</v>
       </c>
-      <c r="B105" s="6">
+      <c r="B105" s="8">
         <v>0.16443232371464103</v>
       </c>
       <c r="CG105" s="1"/>
@@ -5191,10 +5206,10 @@
       <c r="QQ105" s="1"/>
     </row>
     <row r="106" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A106" s="5">
+      <c r="A106" s="7">
         <v>37834</v>
       </c>
-      <c r="B106" s="6">
+      <c r="B106" s="8">
         <v>0.16083606998584948</v>
       </c>
       <c r="CG106" s="1"/>
@@ -5245,10 +5260,10 @@
       <c r="QQ106" s="1"/>
     </row>
     <row r="107" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A107" s="5">
+      <c r="A107" s="7">
         <v>37865</v>
       </c>
-      <c r="B107" s="6">
+      <c r="B107" s="8">
         <v>0.19762447566023092</v>
       </c>
       <c r="CG107" s="1"/>
@@ -5303,10 +5318,10 @@
       <c r="RX107" s="1"/>
     </row>
     <row r="108" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A108" s="5">
+      <c r="A108" s="7">
         <v>37895</v>
       </c>
-      <c r="B108" s="6">
+      <c r="B108" s="8">
         <v>0.18706253495325156</v>
       </c>
       <c r="CG108" s="1"/>
@@ -5361,10 +5376,10 @@
       <c r="RX108" s="1"/>
     </row>
     <row r="109" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A109" s="5">
+      <c r="A109" s="7">
         <v>37926</v>
       </c>
-      <c r="B109" s="6">
+      <c r="B109" s="8">
         <v>0.18579912866791054</v>
       </c>
       <c r="CG109" s="1"/>
@@ -5421,10 +5436,10 @@
       <c r="RX109" s="1"/>
     </row>
     <row r="110" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A110" s="5">
+      <c r="A110" s="7">
         <v>37956</v>
       </c>
-      <c r="B110" s="6">
+      <c r="B110" s="8">
         <v>0.15228963728645464</v>
       </c>
       <c r="CG110" s="1"/>
@@ -5483,10 +5498,10 @@
       <c r="RX110" s="1"/>
     </row>
     <row r="111" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A111" s="5">
+      <c r="A111" s="7">
         <v>37987</v>
       </c>
-      <c r="B111" s="6">
+      <c r="B111" s="8">
         <v>0.14979423018271038</v>
       </c>
       <c r="CG111" s="1"/>
@@ -5545,10 +5560,10 @@
       <c r="RX111" s="1"/>
     </row>
     <row r="112" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A112" s="5">
+      <c r="A112" s="7">
         <v>38018</v>
       </c>
-      <c r="B112" s="6">
+      <c r="B112" s="8">
         <v>0.15531103806729979</v>
       </c>
       <c r="CG112" s="1"/>
@@ -5607,10 +5622,10 @@
       <c r="RX112" s="1"/>
     </row>
     <row r="113" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A113" s="5">
+      <c r="A113" s="7">
         <v>38047</v>
       </c>
-      <c r="B113" s="6">
+      <c r="B113" s="8">
         <v>0.15189953279944524</v>
       </c>
       <c r="CG113" s="1"/>
@@ -5671,10 +5686,10 @@
       <c r="RX113" s="1"/>
     </row>
     <row r="114" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A114" s="5">
+      <c r="A114" s="7">
         <v>38078</v>
       </c>
-      <c r="B114" s="6">
+      <c r="B114" s="8">
         <v>0.14238155308795486</v>
       </c>
       <c r="CG114" s="1"/>
@@ -5736,10 +5751,10 @@
       <c r="RX114" s="1"/>
     </row>
     <row r="115" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A115" s="5">
+      <c r="A115" s="7">
         <v>38108</v>
       </c>
-      <c r="B115" s="6">
+      <c r="B115" s="8">
         <v>0.13993688563245948</v>
       </c>
       <c r="CG115" s="1"/>
@@ -5812,10 +5827,10 @@
       <c r="RX115" s="1"/>
     </row>
     <row r="116" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A116" s="5">
+      <c r="A116" s="7">
         <v>38139</v>
       </c>
-      <c r="B116" s="6">
+      <c r="B116" s="8">
         <v>0.13205156859518685</v>
       </c>
       <c r="CG116" s="1"/>
@@ -5899,10 +5914,10 @@
       <c r="RX116" s="1"/>
     </row>
     <row r="117" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A117" s="5">
+      <c r="A117" s="7">
         <v>38169</v>
       </c>
-      <c r="B117" s="6">
+      <c r="B117" s="8">
         <v>0.1321356483644931</v>
       </c>
       <c r="CG117" s="1"/>
@@ -5988,10 +6003,10 @@
       <c r="RX117" s="1"/>
     </row>
     <row r="118" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A118" s="5">
+      <c r="A118" s="7">
         <v>38200</v>
       </c>
-      <c r="B118" s="6">
+      <c r="B118" s="8">
         <v>0.13235416398227642</v>
       </c>
       <c r="CG118" s="1"/>
@@ -6077,10 +6092,10 @@
       <c r="RX118" s="1"/>
     </row>
     <row r="119" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A119" s="5">
+      <c r="A119" s="7">
         <v>38231</v>
       </c>
-      <c r="B119" s="6">
+      <c r="B119" s="8">
         <v>0.14198841003714582</v>
       </c>
       <c r="CG119" s="1"/>
@@ -6166,10 +6181,10 @@
       <c r="RX119" s="1"/>
     </row>
     <row r="120" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A120" s="5">
+      <c r="A120" s="7">
         <v>38261</v>
       </c>
-      <c r="B120" s="6">
+      <c r="B120" s="8">
         <v>0.14054340020098038</v>
       </c>
       <c r="CG120" s="1"/>
@@ -6255,10 +6270,10 @@
       <c r="RX120" s="1"/>
     </row>
     <row r="121" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A121" s="5">
+      <c r="A121" s="7">
         <v>38292</v>
       </c>
-      <c r="B121" s="6">
+      <c r="B121" s="8">
         <v>0.13208337856049901</v>
       </c>
       <c r="CG121" s="1"/>
@@ -6345,10 +6360,10 @@
       <c r="RX121" s="1"/>
     </row>
     <row r="122" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A122" s="5">
+      <c r="A122" s="7">
         <v>38322</v>
       </c>
-      <c r="B122" s="6">
+      <c r="B122" s="8">
         <v>0.13722393226951568</v>
       </c>
       <c r="CG122" s="1"/>
@@ -6435,10 +6450,10 @@
       <c r="RX122" s="1"/>
     </row>
     <row r="123" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A123" s="5">
+      <c r="A123" s="7">
         <v>38353</v>
       </c>
-      <c r="B123" s="6">
+      <c r="B123" s="8">
         <v>0.13998031470880479</v>
       </c>
       <c r="CG123" s="1"/>
@@ -6525,10 +6540,10 @@
       <c r="RX123" s="1"/>
     </row>
     <row r="124" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A124" s="5">
+      <c r="A124" s="7">
         <v>38384</v>
       </c>
-      <c r="B124" s="6">
+      <c r="B124" s="8">
         <v>0.14381330437458539</v>
       </c>
       <c r="CG124" s="1"/>
@@ -6617,10 +6632,10 @@
       <c r="RX124" s="1"/>
     </row>
     <row r="125" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A125" s="5">
+      <c r="A125" s="7">
         <v>38412</v>
       </c>
-      <c r="B125" s="6">
+      <c r="B125" s="8">
         <v>0.13883886128708484</v>
       </c>
       <c r="CG125" s="1"/>
@@ -6709,10 +6724,10 @@
       <c r="RX125" s="1"/>
     </row>
     <row r="126" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A126" s="5">
+      <c r="A126" s="7">
         <v>38443</v>
       </c>
-      <c r="B126" s="6">
+      <c r="B126" s="8">
         <v>0.14223096597630486</v>
       </c>
       <c r="CG126" s="1"/>
@@ -6801,10 +6816,10 @@
       <c r="RX126" s="1"/>
     </row>
     <row r="127" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A127" s="5">
+      <c r="A127" s="7">
         <v>38473</v>
       </c>
-      <c r="B127" s="6">
+      <c r="B127" s="8">
         <v>0.15130856651883109</v>
       </c>
       <c r="CG127" s="1"/>
@@ -6894,10 +6909,10 @@
       <c r="RX127" s="1"/>
     </row>
     <row r="128" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A128" s="5">
+      <c r="A128" s="7">
         <v>38504</v>
       </c>
-      <c r="B128" s="6">
+      <c r="B128" s="8">
         <v>0.17613645867084826</v>
       </c>
       <c r="CG128" s="1"/>
@@ -6988,10 +7003,10 @@
       <c r="RX128" s="1"/>
     </row>
     <row r="129" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A129" s="5">
+      <c r="A129" s="7">
         <v>38534</v>
       </c>
-      <c r="B129" s="6">
+      <c r="B129" s="8">
         <v>0.17526795031368764</v>
       </c>
       <c r="CG129" s="1"/>
@@ -7082,10 +7097,10 @@
       <c r="RX129" s="1"/>
     </row>
     <row r="130" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A130" s="5">
+      <c r="A130" s="7">
         <v>38565</v>
       </c>
-      <c r="B130" s="6">
+      <c r="B130" s="8">
         <v>0.17356897074457586</v>
       </c>
       <c r="CG130" s="1"/>
@@ -7176,10 +7191,10 @@
       <c r="RX130" s="1"/>
     </row>
     <row r="131" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A131" s="5">
+      <c r="A131" s="7">
         <v>38596</v>
       </c>
-      <c r="B131" s="6">
+      <c r="B131" s="8">
         <v>0.13496571144618535</v>
       </c>
       <c r="CG131" s="1"/>
@@ -7270,10 +7285,10 @@
       <c r="RX131" s="1"/>
     </row>
     <row r="132" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A132" s="5">
+      <c r="A132" s="7">
         <v>38626</v>
       </c>
-      <c r="B132" s="6">
+      <c r="B132" s="8">
         <v>0.13393339678506488</v>
       </c>
       <c r="CG132" s="1"/>
@@ -7364,10 +7379,10 @@
       <c r="RX132" s="1"/>
     </row>
     <row r="133" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A133" s="5">
+      <c r="A133" s="7">
         <v>38657</v>
       </c>
-      <c r="B133" s="6">
+      <c r="B133" s="8">
         <v>0.13831045015123039</v>
       </c>
       <c r="CG133" s="1"/>
@@ -7458,10 +7473,10 @@
       <c r="RX133" s="1"/>
     </row>
     <row r="134" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A134" s="5">
+      <c r="A134" s="7">
         <v>38687</v>
       </c>
-      <c r="B134" s="6">
+      <c r="B134" s="8">
         <v>0.12603299570326587</v>
       </c>
       <c r="CG134" s="1"/>
@@ -7552,10 +7567,10 @@
       <c r="RX134" s="1"/>
     </row>
     <row r="135" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A135" s="5">
+      <c r="A135" s="7">
         <v>38718</v>
       </c>
-      <c r="B135" s="6">
+      <c r="B135" s="8">
         <v>0.12251013261185581</v>
       </c>
       <c r="CG135" s="1"/>
@@ -7646,10 +7661,10 @@
       <c r="RX135" s="1"/>
     </row>
     <row r="136" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A136" s="5">
+      <c r="A136" s="7">
         <v>38749</v>
       </c>
-      <c r="B136" s="6">
+      <c r="B136" s="8">
         <v>0.11689155988668461</v>
       </c>
       <c r="CG136" s="1"/>
@@ -7740,10 +7755,10 @@
       <c r="RX136" s="1"/>
     </row>
     <row r="137" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A137" s="5">
+      <c r="A137" s="7">
         <v>38777</v>
       </c>
-      <c r="B137" s="6">
+      <c r="B137" s="8">
         <v>0.11182793411322625</v>
       </c>
       <c r="CG137" s="1"/>
@@ -7834,10 +7849,10 @@
       <c r="RX137" s="1"/>
     </row>
     <row r="138" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A138" s="5">
+      <c r="A138" s="7">
         <v>38808</v>
       </c>
-      <c r="B138" s="6">
+      <c r="B138" s="8">
         <v>0.1062966817216436</v>
       </c>
       <c r="CG138" s="1"/>
@@ -7928,10 +7943,10 @@
       <c r="RX138" s="1"/>
     </row>
     <row r="139" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A139" s="5">
+      <c r="A139" s="7">
         <v>38838</v>
       </c>
-      <c r="B139" s="6">
+      <c r="B139" s="8">
         <v>0.10685897585166657</v>
       </c>
       <c r="CG139" s="1"/>
@@ -8022,10 +8037,10 @@
       <c r="RX139" s="1"/>
     </row>
     <row r="140" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A140" s="5">
+      <c r="A140" s="7">
         <v>38869</v>
       </c>
-      <c r="B140" s="6">
+      <c r="B140" s="8">
         <v>0.10321059015113987</v>
       </c>
       <c r="CG140" s="1"/>
@@ -8116,10 +8131,10 @@
       <c r="RX140" s="1"/>
     </row>
     <row r="141" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A141" s="5">
+      <c r="A141" s="7">
         <v>38899</v>
       </c>
-      <c r="B141" s="6">
+      <c r="B141" s="8">
         <v>0.1042737605249823</v>
       </c>
       <c r="CG141" s="1"/>
@@ -8210,10 +8225,10 @@
       <c r="RX141" s="1"/>
     </row>
     <row r="142" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A142" s="5">
+      <c r="A142" s="7">
         <v>38930</v>
       </c>
-      <c r="B142" s="6">
+      <c r="B142" s="8">
         <v>9.9191823334113305E-2</v>
       </c>
       <c r="CG142" s="1"/>
@@ -8304,10 +8319,10 @@
       <c r="RX142" s="1"/>
     </row>
     <row r="143" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A143" s="5">
+      <c r="A143" s="7">
         <v>38961</v>
       </c>
-      <c r="B143" s="6">
+      <c r="B143" s="8">
         <v>9.7977952179741312E-2</v>
       </c>
       <c r="CG143" s="1"/>
@@ -8398,10 +8413,10 @@
       <c r="RX143" s="1"/>
     </row>
     <row r="144" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A144" s="5">
+      <c r="A144" s="7">
         <v>38991</v>
       </c>
-      <c r="B144" s="6">
+      <c r="B144" s="8">
         <v>9.5864636506678785E-2</v>
       </c>
       <c r="CG144" s="1"/>
@@ -8492,10 +8507,10 @@
       <c r="RX144" s="1"/>
     </row>
     <row r="145" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A145" s="5">
+      <c r="A145" s="7">
         <v>39022</v>
       </c>
-      <c r="B145" s="6">
+      <c r="B145" s="8">
         <v>8.8506947539146508E-2</v>
       </c>
       <c r="CG145" s="1"/>
@@ -8586,10 +8601,10 @@
       <c r="RX145" s="1"/>
     </row>
     <row r="146" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A146" s="5">
+      <c r="A146" s="7">
         <v>39052</v>
       </c>
-      <c r="B146" s="6">
+      <c r="B146" s="8">
         <v>8.2991557693164242E-2</v>
       </c>
       <c r="CG146" s="1"/>
@@ -8680,10 +8695,10 @@
       <c r="RX146" s="1"/>
     </row>
     <row r="147" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A147" s="5">
+      <c r="A147" s="7">
         <v>39083</v>
       </c>
-      <c r="B147" s="6">
+      <c r="B147" s="8">
         <v>7.7215118349207135E-2</v>
       </c>
       <c r="CG147" s="1"/>
@@ -8774,10 +8789,10 @@
       <c r="RX147" s="1"/>
     </row>
     <row r="148" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A148" s="5">
+      <c r="A148" s="7">
         <v>39114</v>
       </c>
-      <c r="B148" s="6">
+      <c r="B148" s="8">
         <v>7.9397037241236174E-2</v>
       </c>
       <c r="CG148" s="1"/>
@@ -8868,10 +8883,10 @@
       <c r="RX148" s="1"/>
     </row>
     <row r="149" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A149" s="5">
+      <c r="A149" s="7">
         <v>39142</v>
       </c>
-      <c r="B149" s="6">
+      <c r="B149" s="8">
         <v>9.5585255682960557E-2</v>
       </c>
       <c r="CG149" s="1"/>
@@ -8962,10 +8977,10 @@
       <c r="RX149" s="1"/>
     </row>
     <row r="150" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A150" s="5">
+      <c r="A150" s="7">
         <v>39173</v>
       </c>
-      <c r="B150" s="6">
+      <c r="B150" s="8">
         <v>8.580606474485139E-2</v>
       </c>
       <c r="CG150" s="1"/>
@@ -9056,10 +9071,10 @@
       <c r="RX150" s="1"/>
     </row>
     <row r="151" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A151" s="5">
+      <c r="A151" s="7">
         <v>39203</v>
       </c>
-      <c r="B151" s="6">
+      <c r="B151" s="8">
         <v>8.1207326443699546E-2</v>
       </c>
       <c r="CG151" s="1"/>
@@ -9150,10 +9165,10 @@
       <c r="RX151" s="1"/>
     </row>
     <row r="152" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A152" s="5">
+      <c r="A152" s="7">
         <v>39234</v>
       </c>
-      <c r="B152" s="6">
+      <c r="B152" s="8">
         <v>8.2961482672590375E-2</v>
       </c>
       <c r="CG152" s="1"/>
@@ -9244,10 +9259,10 @@
       <c r="RX152" s="1"/>
     </row>
     <row r="153" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A153" s="5">
+      <c r="A153" s="7">
         <v>39264</v>
       </c>
-      <c r="B153" s="6">
+      <c r="B153" s="8">
         <v>8.5322650599013228E-2</v>
       </c>
       <c r="CG153" s="1"/>
@@ -9338,10 +9353,10 @@
       <c r="RX153" s="1"/>
     </row>
     <row r="154" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A154" s="5">
+      <c r="A154" s="7">
         <v>39295</v>
       </c>
-      <c r="B154" s="6">
+      <c r="B154" s="8">
         <v>8.5340133244383914E-2</v>
       </c>
       <c r="CG154" s="1"/>
@@ -9432,10 +9447,10 @@
       <c r="RX154" s="1"/>
     </row>
     <row r="155" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A155" s="5">
+      <c r="A155" s="7">
         <v>39326</v>
       </c>
-      <c r="B155" s="6">
+      <c r="B155" s="8">
         <v>8.8928884093107091E-2</v>
       </c>
       <c r="CG155" s="1"/>
@@ -9526,10 +9541,10 @@
       <c r="RX155" s="1"/>
     </row>
     <row r="156" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A156" s="5">
+      <c r="A156" s="7">
         <v>39356</v>
       </c>
-      <c r="B156" s="6">
+      <c r="B156" s="8">
         <v>8.7744511396229033E-2</v>
       </c>
       <c r="CG156" s="1"/>
@@ -9620,10 +9635,10 @@
       <c r="RX156" s="1"/>
     </row>
     <row r="157" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A157" s="5">
+      <c r="A157" s="7">
         <v>39387</v>
       </c>
-      <c r="B157" s="6">
+      <c r="B157" s="8">
         <v>9.3737830955098772E-2</v>
       </c>
       <c r="CG157" s="1"/>
@@ -9714,10 +9729,10 @@
       <c r="RX157" s="1"/>
     </row>
     <row r="158" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A158" s="5">
+      <c r="A158" s="7">
         <v>39417</v>
       </c>
-      <c r="B158" s="6">
+      <c r="B158" s="8">
         <v>8.671239907127623E-2</v>
       </c>
       <c r="CG158" s="1"/>
@@ -9808,10 +9823,10 @@
       <c r="RX158" s="1"/>
     </row>
     <row r="159" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A159" s="5">
+      <c r="A159" s="7">
         <v>39448</v>
       </c>
-      <c r="B159" s="6">
+      <c r="B159" s="8">
         <v>9.417152259727482E-2</v>
       </c>
       <c r="CG159" s="1"/>
@@ -9902,10 +9917,10 @@
       <c r="RX159" s="1"/>
     </row>
     <row r="160" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A160" s="5">
+      <c r="A160" s="7">
         <v>39479</v>
       </c>
-      <c r="B160" s="6">
+      <c r="B160" s="8">
         <v>9.3871674916660583E-2</v>
       </c>
       <c r="CG160" s="1"/>
@@ -9996,10 +10011,10 @@
       <c r="RX160" s="1"/>
     </row>
     <row r="161" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A161" s="5">
+      <c r="A161" s="7">
         <v>39508</v>
       </c>
-      <c r="B161" s="6">
+      <c r="B161" s="8">
         <v>9.5682797110982654E-2</v>
       </c>
       <c r="CG161" s="1"/>
@@ -10090,10 +10105,10 @@
       <c r="RX161" s="1"/>
     </row>
     <row r="162" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A162" s="5">
+      <c r="A162" s="7">
         <v>39539</v>
       </c>
-      <c r="B162" s="6">
+      <c r="B162" s="8">
         <v>8.9221726200208809E-2</v>
       </c>
       <c r="CG162" s="1"/>
@@ -10184,10 +10199,10 @@
       <c r="RX162" s="1"/>
     </row>
     <row r="163" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A163" s="5">
+      <c r="A163" s="7">
         <v>39569</v>
       </c>
-      <c r="B163" s="6">
+      <c r="B163" s="8">
         <v>8.5276870884392231E-2</v>
       </c>
       <c r="CG163" s="1"/>
@@ -10278,10 +10293,10 @@
       <c r="RX163" s="1"/>
     </row>
     <row r="164" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A164" s="5">
+      <c r="A164" s="7">
         <v>39600</v>
       </c>
-      <c r="B164" s="6">
+      <c r="B164" s="8">
         <v>9.0760799631218497E-2</v>
       </c>
       <c r="CG164" s="1"/>
@@ -10372,10 +10387,10 @@
       <c r="RX164" s="1"/>
     </row>
     <row r="165" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A165" s="5">
+      <c r="A165" s="7">
         <v>39630</v>
       </c>
-      <c r="B165" s="6">
+      <c r="B165" s="8">
         <v>9.0094041432956906E-2</v>
       </c>
       <c r="CG165" s="1"/>
@@ -10466,10 +10481,10 @@
       <c r="RX165" s="1"/>
     </row>
     <row r="166" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A166" s="5">
+      <c r="A166" s="7">
         <v>39661</v>
       </c>
-      <c r="B166" s="6">
+      <c r="B166" s="8">
         <v>9.2978334258690121E-2</v>
       </c>
       <c r="CG166" s="1"/>
@@ -10560,10 +10575,10 @@
       <c r="RX166" s="1"/>
     </row>
     <row r="167" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A167" s="5">
+      <c r="A167" s="7">
         <v>39692</v>
       </c>
-      <c r="B167" s="6">
+      <c r="B167" s="8">
         <v>0.1049190744132513</v>
       </c>
       <c r="CG167" s="1"/>
@@ -10654,10 +10669,10 @@
       <c r="RX167" s="1"/>
     </row>
     <row r="168" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A168" s="5">
+      <c r="A168" s="7">
         <v>39722</v>
       </c>
-      <c r="B168" s="6">
+      <c r="B168" s="8">
         <v>0.1150227873640902</v>
       </c>
       <c r="CG168" s="1"/>
@@ -10748,10 +10763,10 @@
       <c r="RX168" s="1"/>
     </row>
     <row r="169" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A169" s="5">
+      <c r="A169" s="7">
         <v>39753</v>
       </c>
-      <c r="B169" s="6">
+      <c r="B169" s="8">
         <v>0.12713618920136005</v>
       </c>
       <c r="CG169" s="1"/>
@@ -10842,10 +10857,10 @@
       <c r="RX169" s="1"/>
     </row>
     <row r="170" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A170" s="5">
+      <c r="A170" s="7">
         <v>39783</v>
       </c>
-      <c r="B170" s="6">
+      <c r="B170" s="8">
         <v>0.14219604354597082</v>
       </c>
       <c r="CG170" s="1"/>
@@ -10936,10 +10951,10 @@
       <c r="RX170" s="1"/>
     </row>
     <row r="171" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A171" s="5">
+      <c r="A171" s="7">
         <v>39814</v>
       </c>
-      <c r="B171" s="6">
+      <c r="B171" s="8">
         <v>0.13409152093551951</v>
       </c>
       <c r="CG171" s="1"/>
@@ -11030,10 +11045,10 @@
       <c r="RX171" s="1"/>
     </row>
     <row r="172" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A172" s="5">
+      <c r="A172" s="7">
         <v>39845</v>
       </c>
-      <c r="B172" s="6">
+      <c r="B172" s="8">
         <v>0.1323173344014103</v>
       </c>
       <c r="CG172" s="1"/>
@@ -11124,10 +11139,10 @@
       <c r="RX172" s="1"/>
     </row>
     <row r="173" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A173" s="5">
+      <c r="A173" s="7">
         <v>39873</v>
       </c>
-      <c r="B173" s="6">
+      <c r="B173" s="8">
         <v>0.12184780792693525</v>
       </c>
       <c r="CG173" s="1"/>
@@ -11218,10 +11233,10 @@
       <c r="RX173" s="1"/>
     </row>
     <row r="174" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A174" s="5">
+      <c r="A174" s="7">
         <v>39904</v>
       </c>
-      <c r="B174" s="6">
+      <c r="B174" s="8">
         <v>0.1088401890456267</v>
       </c>
       <c r="CG174" s="1"/>
@@ -11312,10 +11327,10 @@
       <c r="RX174" s="1"/>
     </row>
     <row r="175" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A175" s="5">
+      <c r="A175" s="7">
         <v>39934</v>
       </c>
-      <c r="B175" s="6">
+      <c r="B175" s="8">
         <v>0.10207538732969924</v>
       </c>
       <c r="CG175" s="1"/>
@@ -11406,10 +11421,10 @@
       <c r="RX175" s="1"/>
     </row>
     <row r="176" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A176" s="5">
+      <c r="A176" s="7">
         <v>39965</v>
       </c>
-      <c r="B176" s="6">
+      <c r="B176" s="8">
         <v>9.0431157247827659E-2</v>
       </c>
       <c r="CG176" s="1"/>
@@ -11500,10 +11515,10 @@
       <c r="RX176" s="1"/>
     </row>
     <row r="177" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A177" s="5">
+      <c r="A177" s="7">
         <v>39995</v>
       </c>
-      <c r="B177" s="6">
+      <c r="B177" s="8">
         <v>8.8254360455356951E-2</v>
       </c>
       <c r="CG177" s="1"/>
@@ -11594,10 +11609,10 @@
       <c r="RX177" s="1"/>
     </row>
     <row r="178" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A178" s="5">
+      <c r="A178" s="7">
         <v>40026</v>
       </c>
-      <c r="B178" s="6">
+      <c r="B178" s="8">
         <v>8.5062467132288211E-2</v>
       </c>
       <c r="CG178" s="1"/>
@@ -11688,10 +11703,10 @@
       <c r="RX178" s="1"/>
     </row>
     <row r="179" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A179" s="5">
+      <c r="A179" s="7">
         <v>40057</v>
       </c>
-      <c r="B179" s="6">
+      <c r="B179" s="8">
         <v>8.194495980792163E-2</v>
       </c>
       <c r="CG179" s="1"/>
@@ -11782,10 +11797,10 @@
       <c r="RX179" s="1"/>
     </row>
     <row r="180" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A180" s="5">
+      <c r="A180" s="7">
         <v>40087</v>
       </c>
-      <c r="B180" s="6">
+      <c r="B180" s="8">
         <v>8.3103148537463978E-2</v>
       </c>
       <c r="CG180" s="1"/>
@@ -11876,10 +11891,10 @@
       <c r="RX180" s="1"/>
     </row>
     <row r="181" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A181" s="5">
+      <c r="A181" s="7">
         <v>40118</v>
       </c>
-      <c r="B181" s="6">
+      <c r="B181" s="8">
         <v>8.4939307901060079E-2</v>
       </c>
       <c r="CG181" s="1"/>
@@ -11970,10 +11985,10 @@
       <c r="RX181" s="1"/>
     </row>
     <row r="182" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A182" s="5">
+      <c r="A182" s="7">
         <v>40148</v>
       </c>
-      <c r="B182" s="6">
+      <c r="B182" s="8">
         <v>9.1998835222545483E-2</v>
       </c>
       <c r="CG182" s="1"/>
@@ -12064,10 +12079,10 @@
       <c r="RX182" s="1"/>
     </row>
     <row r="183" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A183" s="5">
+      <c r="A183" s="7">
         <v>40179</v>
       </c>
-      <c r="B183" s="6">
+      <c r="B183" s="8">
         <v>9.4406445060834981E-2</v>
       </c>
       <c r="CG183" s="1"/>
@@ -12158,10 +12173,10 @@
       <c r="RX183" s="1"/>
     </row>
     <row r="184" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A184" s="5">
+      <c r="A184" s="7">
         <v>40210</v>
       </c>
-      <c r="B184" s="6">
+      <c r="B184" s="8">
         <v>9.677333010017547E-2</v>
       </c>
       <c r="CG184" s="1"/>
@@ -12252,10 +12267,10 @@
       <c r="RX184" s="1"/>
     </row>
     <row r="185" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A185" s="5">
+      <c r="A185" s="7">
         <v>40238</v>
       </c>
-      <c r="B185" s="6">
+      <c r="B185" s="8">
         <v>0.10525014956324957</v>
       </c>
       <c r="CG185" s="1"/>
@@ -12346,10 +12361,10 @@
       <c r="RX185" s="1"/>
     </row>
     <row r="186" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A186" s="5">
+      <c r="A186" s="7">
         <v>40269</v>
       </c>
-      <c r="B186" s="6">
+      <c r="B186" s="8">
         <v>0.10079451028425426</v>
       </c>
       <c r="CG186" s="1"/>
@@ -12440,10 +12455,10 @@
       <c r="RX186" s="1"/>
     </row>
     <row r="187" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A187" s="5">
+      <c r="A187" s="7">
         <v>40299</v>
       </c>
-      <c r="B187" s="6">
+      <c r="B187" s="8">
         <v>9.7475443102761017E-2</v>
       </c>
       <c r="CG187" s="1"/>
@@ -12534,10 +12549,10 @@
       <c r="RX187" s="1"/>
     </row>
     <row r="188" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A188" s="5">
+      <c r="A188" s="7">
         <v>40330</v>
       </c>
-      <c r="B188" s="6">
+      <c r="B188" s="8">
         <v>0.10575656830811714</v>
       </c>
       <c r="CG188" s="1"/>
@@ -12628,10 +12643,10 @@
       <c r="RX188" s="1"/>
     </row>
     <row r="189" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A189" s="5">
+      <c r="A189" s="7">
         <v>40360</v>
       </c>
-      <c r="B189" s="6">
+      <c r="B189" s="8">
         <v>0.10532947410949854</v>
       </c>
       <c r="CG189" s="1"/>
@@ -12722,10 +12737,10 @@
       <c r="RX189" s="1"/>
     </row>
     <row r="190" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A190" s="5">
+      <c r="A190" s="7">
         <v>40391</v>
       </c>
-      <c r="B190" s="6">
+      <c r="B190" s="8">
         <v>0.10550581781341299</v>
       </c>
       <c r="CG190" s="1"/>
@@ -12816,10 +12831,10 @@
       <c r="RX190" s="1"/>
     </row>
     <row r="191" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A191" s="5">
+      <c r="A191" s="7">
         <v>40422</v>
       </c>
-      <c r="B191" s="6">
+      <c r="B191" s="8">
         <v>0.10964076002117032</v>
       </c>
       <c r="CG191" s="1"/>
@@ -12910,10 +12925,10 @@
       <c r="RX191" s="1"/>
     </row>
     <row r="192" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A192" s="5">
+      <c r="A192" s="7">
         <v>40452</v>
       </c>
-      <c r="B192" s="6">
+      <c r="B192" s="8">
         <v>0.10513412866678648</v>
       </c>
       <c r="CG192" s="1"/>
@@ -13004,10 +13019,10 @@
       <c r="RX192" s="1"/>
     </row>
     <row r="193" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A193" s="5">
+      <c r="A193" s="7">
         <v>40483</v>
       </c>
-      <c r="B193" s="6">
+      <c r="B193" s="8">
         <v>0.10473580686784892</v>
       </c>
       <c r="CG193" s="1"/>
@@ -13098,10 +13113,10 @@
       <c r="RX193" s="1"/>
     </row>
     <row r="194" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A194" s="5">
+      <c r="A194" s="7">
         <v>40513</v>
       </c>
-      <c r="B194" s="6">
+      <c r="B194" s="8">
         <v>9.4346589276028653E-2</v>
       </c>
       <c r="CG194" s="1"/>
@@ -13192,10 +13207,10 @@
       <c r="RX194" s="1"/>
     </row>
     <row r="195" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A195" s="5">
+      <c r="A195" s="7">
         <v>40544</v>
       </c>
-      <c r="B195" s="6">
+      <c r="B195" s="8">
         <v>9.5407238018712093E-2</v>
       </c>
       <c r="CG195" s="1"/>
@@ -13286,10 +13301,10 @@
       <c r="RX195" s="1"/>
     </row>
     <row r="196" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A196" s="5">
+      <c r="A196" s="7">
         <v>40575</v>
       </c>
-      <c r="B196" s="6">
+      <c r="B196" s="8">
         <v>9.3390806727688513E-2</v>
       </c>
       <c r="CG196" s="1"/>
@@ -13380,10 +13395,10 @@
       <c r="RX196" s="1"/>
     </row>
     <row r="197" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A197" s="5">
+      <c r="A197" s="7">
         <v>40603</v>
       </c>
-      <c r="B197" s="6">
+      <c r="B197" s="8">
         <v>9.3441141720405185E-2</v>
       </c>
       <c r="CG197" s="1"/>
@@ -13474,10 +13489,10 @@
       <c r="RX197" s="1"/>
     </row>
     <row r="198" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A198" s="5">
+      <c r="A198" s="7">
         <v>40634</v>
       </c>
-      <c r="B198" s="6">
+      <c r="B198" s="8">
         <v>9.3643791643206381E-2</v>
       </c>
       <c r="CG198" s="1"/>
@@ -13568,10 +13583,10 @@
       <c r="RX198" s="1"/>
     </row>
     <row r="199" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A199" s="5">
+      <c r="A199" s="7">
         <v>40664</v>
       </c>
-      <c r="B199" s="6">
+      <c r="B199" s="8">
         <v>0.10032836280974664</v>
       </c>
       <c r="CG199" s="1"/>
@@ -13662,10 +13677,10 @@
       <c r="RX199" s="1"/>
     </row>
     <row r="200" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A200" s="5">
+      <c r="A200" s="7">
         <v>40695</v>
       </c>
-      <c r="B200" s="6">
+      <c r="B200" s="8">
         <v>9.9388836279557288E-2</v>
       </c>
       <c r="CG200" s="1"/>
@@ -13756,10 +13771,10 @@
       <c r="RX200" s="1"/>
     </row>
     <row r="201" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A201" s="5">
+      <c r="A201" s="7">
         <v>40725</v>
       </c>
-      <c r="B201" s="6">
+      <c r="B201" s="8">
         <v>0.10538607103302287</v>
       </c>
       <c r="CG201" s="1"/>
@@ -13850,10 +13865,10 @@
       <c r="RX201" s="1"/>
     </row>
     <row r="202" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A202" s="5">
+      <c r="A202" s="7">
         <v>40756</v>
       </c>
-      <c r="B202" s="6">
+      <c r="B202" s="8">
         <v>0.11212100068797148</v>
       </c>
       <c r="CG202" s="1"/>
@@ -13944,10 +13959,10 @@
       <c r="RX202" s="1"/>
     </row>
     <row r="203" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A203" s="5">
+      <c r="A203" s="7">
         <v>40787</v>
       </c>
-      <c r="B203" s="6">
+      <c r="B203" s="8">
         <v>0.110785960833959</v>
       </c>
       <c r="CG203" s="1"/>
@@ -14038,10 +14053,10 @@
       <c r="RX203" s="1"/>
     </row>
     <row r="204" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A204" s="5">
+      <c r="A204" s="7">
         <v>40817</v>
       </c>
-      <c r="B204" s="6">
+      <c r="B204" s="8">
         <v>0.10360612595722082</v>
       </c>
       <c r="CG204" s="1"/>
@@ -14132,10 +14147,10 @@
       <c r="RX204" s="1"/>
     </row>
     <row r="205" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A205" s="5">
+      <c r="A205" s="7">
         <v>40848</v>
       </c>
-      <c r="B205" s="6">
+      <c r="B205" s="8">
         <v>0.10488449858019411</v>
       </c>
       <c r="CG205" s="1"/>
@@ -14226,10 +14241,10 @@
       <c r="RX205" s="1"/>
     </row>
     <row r="206" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A206" s="5">
+      <c r="A206" s="7">
         <v>40878</v>
       </c>
-      <c r="B206" s="6">
+      <c r="B206" s="8">
         <v>0.10009455642023066</v>
       </c>
       <c r="CG206" s="1"/>
@@ -14283,7 +14298,7 @@
       <c r="JL206" s="1"/>
       <c r="JW206" s="1"/>
       <c r="KH206" s="1"/>
-      <c r="KJ206" s="3"/>
+      <c r="KJ206" s="5"/>
       <c r="KS206" s="1"/>
       <c r="LD206" s="1"/>
       <c r="LE206" s="1"/>
@@ -14321,10 +14336,10 @@
       <c r="RX206" s="1"/>
     </row>
     <row r="207" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A207" s="5">
+      <c r="A207" s="7">
         <v>40909</v>
       </c>
-      <c r="B207" s="6">
+      <c r="B207" s="8">
         <v>9.6997483527202721E-2</v>
       </c>
       <c r="CG207" s="1"/>
@@ -14391,7 +14406,7 @@
       <c r="LM207" s="1"/>
       <c r="LO207" s="1"/>
       <c r="LZ207" s="1"/>
-      <c r="MB207" s="3"/>
+      <c r="MB207" s="5"/>
       <c r="MK207" s="1"/>
       <c r="MV207" s="1"/>
       <c r="NG207" s="1"/>
@@ -14416,10 +14431,10 @@
       <c r="RX207" s="1"/>
     </row>
     <row r="208" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A208" s="5">
+      <c r="A208" s="7">
         <v>40940</v>
       </c>
-      <c r="B208" s="6">
+      <c r="B208" s="8">
         <v>9.0887604642450229E-2</v>
       </c>
       <c r="CG208" s="1"/>
@@ -14474,7 +14489,7 @@
       <c r="JW208" s="1"/>
       <c r="KH208" s="1"/>
       <c r="KS208" s="1"/>
-      <c r="KU208" s="3"/>
+      <c r="KU208" s="5"/>
       <c r="LD208" s="1"/>
       <c r="LE208" s="1"/>
       <c r="LF208" s="1"/>
@@ -14488,13 +14503,13 @@
       <c r="LO208" s="1"/>
       <c r="LZ208" s="1"/>
       <c r="MK208" s="1"/>
-      <c r="MM208" s="3"/>
+      <c r="MM208" s="5"/>
       <c r="MV208" s="1"/>
-      <c r="MX208" s="3"/>
+      <c r="MX208" s="5"/>
       <c r="NG208" s="1"/>
       <c r="NR208" s="1"/>
       <c r="OC208" s="1"/>
-      <c r="OE208" s="3"/>
+      <c r="OE208" s="5"/>
       <c r="ON208" s="1"/>
       <c r="OY208" s="1"/>
       <c r="PJ208" s="1"/>
@@ -14514,10 +14529,10 @@
       <c r="RX208" s="1"/>
     </row>
     <row r="209" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A209" s="5">
+      <c r="A209" s="7">
         <v>40969</v>
       </c>
-      <c r="B209" s="6">
+      <c r="B209" s="8">
         <v>8.7800298912843522E-2</v>
       </c>
       <c r="CG209" s="1"/>
@@ -14574,7 +14589,7 @@
       <c r="KS209" s="1"/>
       <c r="LD209" s="1"/>
       <c r="LE209" s="1"/>
-      <c r="LF209" s="3"/>
+      <c r="LF209" s="5"/>
       <c r="LG209" s="1"/>
       <c r="LH209" s="1"/>
       <c r="LI209" s="1"/>
@@ -14592,7 +14607,7 @@
       <c r="ON209" s="1"/>
       <c r="OY209" s="1"/>
       <c r="PJ209" s="1"/>
-      <c r="PL209" s="3"/>
+      <c r="PL209" s="5"/>
       <c r="PU209" s="1"/>
       <c r="PV209" s="1"/>
       <c r="PW209" s="1"/>
@@ -14609,10 +14624,10 @@
       <c r="RX209" s="1"/>
     </row>
     <row r="210" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A210" s="5">
+      <c r="A210" s="7">
         <v>41000</v>
       </c>
-      <c r="B210" s="6">
+      <c r="B210" s="8">
         <v>9.5810214550751407E-2</v>
       </c>
       <c r="CG210" s="1"/>
@@ -14678,18 +14693,18 @@
       <c r="LL210" s="1"/>
       <c r="LM210" s="1"/>
       <c r="LO210" s="1"/>
-      <c r="LQ210" s="3"/>
+      <c r="LQ210" s="5"/>
       <c r="LZ210" s="1"/>
       <c r="MK210" s="1"/>
       <c r="MV210" s="1"/>
       <c r="NG210" s="1"/>
-      <c r="NI210" s="3"/>
+      <c r="NI210" s="5"/>
       <c r="NR210" s="1"/>
-      <c r="NT210" s="3"/>
+      <c r="NT210" s="5"/>
       <c r="OC210" s="1"/>
       <c r="ON210" s="1"/>
       <c r="OY210" s="1"/>
-      <c r="PA210" s="3"/>
+      <c r="PA210" s="5"/>
       <c r="PJ210" s="1"/>
       <c r="PU210" s="1"/>
       <c r="PV210" s="1"/>
@@ -14707,10 +14722,10 @@
       <c r="RX210" s="1"/>
     </row>
     <row r="211" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A211" s="5">
+      <c r="A211" s="7">
         <v>41030</v>
       </c>
-      <c r="B211" s="6">
+      <c r="B211" s="8">
         <v>0.10515093938008996</v>
       </c>
       <c r="CG211" s="1"/>
@@ -14801,10 +14816,10 @@
       <c r="RX211" s="1"/>
     </row>
     <row r="212" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A212" s="5">
+      <c r="A212" s="7">
         <v>41061</v>
       </c>
-      <c r="B212" s="6">
+      <c r="B212" s="8">
         <v>9.0817328850805651E-2</v>
       </c>
       <c r="CG212" s="1"/>
@@ -14877,7 +14892,7 @@
       <c r="NR212" s="1"/>
       <c r="OC212" s="1"/>
       <c r="ON212" s="1"/>
-      <c r="OP212" s="3"/>
+      <c r="OP212" s="5"/>
       <c r="OY212" s="1"/>
       <c r="PJ212" s="1"/>
       <c r="PU212" s="1"/>
@@ -14896,10 +14911,10 @@
       <c r="RX212" s="1"/>
     </row>
     <row r="213" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A213" s="5">
+      <c r="A213" s="7">
         <v>41091</v>
       </c>
-      <c r="B213" s="6">
+      <c r="B213" s="8">
         <v>9.198193035468108E-2</v>
       </c>
       <c r="CG213" s="1"/>
@@ -14990,10 +15005,10 @@
       <c r="RX213" s="1"/>
     </row>
     <row r="214" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A214" s="5">
+      <c r="A214" s="7">
         <v>41122</v>
       </c>
-      <c r="B214" s="6">
+      <c r="B214" s="8">
         <v>9.0527591621574741E-2</v>
       </c>
       <c r="CG214" s="1"/>
@@ -15084,10 +15099,10 @@
       <c r="RX214" s="1"/>
     </row>
     <row r="215" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A215" s="5">
+      <c r="A215" s="7">
         <v>41153</v>
       </c>
-      <c r="B215" s="6">
+      <c r="B215" s="8">
         <v>9.321029129473013E-2</v>
       </c>
       <c r="CG215" s="1"/>
@@ -15164,7 +15179,7 @@
       <c r="PJ215" s="1"/>
       <c r="PU215" s="1"/>
       <c r="PV215" s="1"/>
-      <c r="PW215" s="3"/>
+      <c r="PW215" s="5"/>
       <c r="PX215" s="1"/>
       <c r="PY215" s="1"/>
       <c r="PZ215" s="1"/>
@@ -15178,10 +15193,10 @@
       <c r="RX215" s="1"/>
     </row>
     <row r="216" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A216" s="5">
+      <c r="A216" s="7">
         <v>41183</v>
       </c>
-      <c r="B216" s="6">
+      <c r="B216" s="8">
         <v>9.2447998465240086E-2</v>
       </c>
       <c r="CG216" s="1"/>
@@ -15266,17 +15281,17 @@
       <c r="QB216" s="1"/>
       <c r="QC216" s="1"/>
       <c r="QD216" s="1"/>
-      <c r="QH216" s="3"/>
+      <c r="QH216" s="5"/>
       <c r="QQ216" s="1"/>
       <c r="RB216" s="1"/>
       <c r="RM216" s="1"/>
       <c r="RX216" s="1"/>
     </row>
     <row r="217" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A217" s="5">
+      <c r="A217" s="7">
         <v>41214</v>
       </c>
-      <c r="B217" s="6">
+      <c r="B217" s="8">
         <v>9.5606034425374312E-2</v>
       </c>
       <c r="CG217" s="1"/>
@@ -15367,10 +15382,10 @@
       <c r="RX217" s="1"/>
     </row>
     <row r="218" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A218" s="5">
+      <c r="A218" s="7">
         <v>41244</v>
       </c>
-      <c r="B218" s="6">
+      <c r="B218" s="8">
         <v>9.1047274906739667E-2</v>
       </c>
       <c r="CG218" s="1"/>
@@ -15461,10 +15476,10 @@
       <c r="RX218" s="1"/>
     </row>
     <row r="219" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A219" s="5">
+      <c r="A219" s="7">
         <v>41275</v>
       </c>
-      <c r="B219" s="6">
+      <c r="B219" s="8">
         <v>8.7449844192482862E-2</v>
       </c>
       <c r="CG219" s="1"/>
@@ -15555,10 +15570,10 @@
       <c r="RX219" s="1"/>
     </row>
     <row r="220" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A220" s="5">
+      <c r="A220" s="7">
         <v>41306</v>
       </c>
-      <c r="B220" s="6">
+      <c r="B220" s="8">
         <v>8.9884574591296298E-2</v>
       </c>
       <c r="CG220" s="1"/>
@@ -15649,10 +15664,10 @@
       <c r="RX220" s="1"/>
     </row>
     <row r="221" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A221" s="5">
+      <c r="A221" s="7">
         <v>41334</v>
       </c>
-      <c r="B221" s="6">
+      <c r="B221" s="8">
         <v>8.3440031175367746E-2</v>
       </c>
       <c r="CG221" s="1"/>
@@ -15694,11 +15709,11 @@
       <c r="EJ221" s="1"/>
       <c r="EU221" s="1"/>
       <c r="FF221" s="1"/>
-      <c r="FH221" s="3"/>
+      <c r="FH221" s="5"/>
       <c r="FQ221" s="1"/>
-      <c r="FS221" s="3"/>
+      <c r="FS221" s="5"/>
       <c r="GB221" s="1"/>
-      <c r="GD221" s="3"/>
+      <c r="GD221" s="5"/>
       <c r="GM221" s="1"/>
       <c r="GX221" s="1"/>
       <c r="HI221" s="1"/>
@@ -15746,10 +15761,10 @@
       <c r="RX221" s="1"/>
     </row>
     <row r="222" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A222" s="5">
+      <c r="A222" s="7">
         <v>41365</v>
       </c>
-      <c r="B222" s="6">
+      <c r="B222" s="8">
         <v>8.4749349865796034E-2</v>
       </c>
       <c r="PU222" s="1"/>
@@ -15764,10 +15779,10 @@
       <c r="QD222" s="1"/>
     </row>
     <row r="223" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A223" s="5">
+      <c r="A223" s="7">
         <v>41395</v>
       </c>
-      <c r="B223" s="6">
+      <c r="B223" s="8">
         <v>8.0522617175596833E-2</v>
       </c>
       <c r="PU223" s="1"/>
@@ -15782,10 +15797,10 @@
       <c r="QD223" s="1"/>
     </row>
     <row r="224" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A224" s="5">
+      <c r="A224" s="7">
         <v>41426</v>
       </c>
-      <c r="B224" s="6">
+      <c r="B224" s="8">
         <v>7.5014888373605801E-2</v>
       </c>
       <c r="PU224" s="1"/>
@@ -15800,10 +15815,10 @@
       <c r="QD224" s="1"/>
     </row>
     <row r="225" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A225" s="5">
+      <c r="A225" s="7">
         <v>41456</v>
       </c>
-      <c r="B225" s="6">
+      <c r="B225" s="8">
         <v>7.7769653801373628E-2</v>
       </c>
       <c r="PU225" s="1"/>
@@ -15818,10 +15833,10 @@
       <c r="QD225" s="1"/>
     </row>
     <row r="226" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A226" s="5">
+      <c r="A226" s="7">
         <v>41487</v>
       </c>
-      <c r="B226" s="6">
+      <c r="B226" s="8">
         <v>7.610915084711764E-2</v>
       </c>
       <c r="PU226" s="1"/>
@@ -15836,10 +15851,10 @@
       <c r="QD226" s="1"/>
     </row>
     <row r="227" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A227" s="5">
+      <c r="A227" s="7">
         <v>41518</v>
       </c>
-      <c r="B227" s="6">
+      <c r="B227" s="8">
         <v>7.4874558269219044E-2</v>
       </c>
       <c r="PU227" s="1"/>
@@ -15854,1000 +15869,1016 @@
       <c r="QD227" s="1"/>
     </row>
     <row r="228" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A228" s="5">
+      <c r="A228" s="7">
         <v>41548</v>
       </c>
-      <c r="B228" s="6">
+      <c r="B228" s="8">
         <v>7.3769426049519596E-2</v>
       </c>
     </row>
     <row r="229" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A229" s="5">
+      <c r="A229" s="7">
         <v>41579</v>
       </c>
-      <c r="B229" s="6">
+      <c r="B229" s="8">
         <v>7.9046521727427585E-2</v>
       </c>
     </row>
     <row r="230" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A230" s="5">
+      <c r="A230" s="7">
         <v>41609</v>
       </c>
-      <c r="B230" s="6">
+      <c r="B230" s="8">
         <v>7.5700418664925911E-2</v>
       </c>
     </row>
     <row r="231" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A231" s="5">
+      <c r="A231" s="7">
         <v>41640</v>
       </c>
-      <c r="B231" s="6">
+      <c r="B231" s="8">
         <v>8.4845263579311214E-2</v>
       </c>
     </row>
     <row r="232" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A232" s="5">
+      <c r="A232" s="7">
         <v>41671</v>
       </c>
-      <c r="B232" s="6">
+      <c r="B232" s="8">
         <v>8.4096940621738683E-2</v>
       </c>
     </row>
     <row r="233" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A233" s="5">
+      <c r="A233" s="7">
         <v>41699</v>
       </c>
-      <c r="B233" s="6">
+      <c r="B233" s="8">
         <v>9.5085723314460191E-2</v>
       </c>
     </row>
     <row r="234" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A234" s="5">
+      <c r="A234" s="7">
         <v>41730</v>
       </c>
-      <c r="B234" s="6">
+      <c r="B234" s="8">
         <v>9.6617836562715484E-2</v>
       </c>
     </row>
     <row r="235" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A235" s="5">
+      <c r="A235" s="7">
         <v>41760</v>
       </c>
-      <c r="B235" s="6">
+      <c r="B235" s="8">
         <v>9.8701160485128128E-2</v>
       </c>
     </row>
     <row r="236" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A236" s="5">
+      <c r="A236" s="7">
         <v>41791</v>
       </c>
-      <c r="B236" s="6">
+      <c r="B236" s="8">
         <v>9.4012780857948633E-2</v>
       </c>
     </row>
     <row r="237" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A237" s="5">
+      <c r="A237" s="7">
         <v>41821</v>
       </c>
-      <c r="B237" s="6">
+      <c r="B237" s="8">
         <v>9.5099368892112943E-2</v>
       </c>
     </row>
     <row r="238" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A238" s="5">
+      <c r="A238" s="7">
         <v>41852</v>
       </c>
-      <c r="B238" s="6">
+      <c r="B238" s="8">
         <v>9.5412122648390635E-2</v>
       </c>
     </row>
     <row r="239" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A239" s="5">
+      <c r="A239" s="7">
         <v>41883</v>
       </c>
-      <c r="B239" s="6">
+      <c r="B239" s="8">
         <v>8.2926779422991759E-2</v>
       </c>
     </row>
     <row r="240" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A240" s="5">
+      <c r="A240" s="7">
         <v>41913</v>
       </c>
-      <c r="B240" s="6">
+      <c r="B240" s="8">
         <v>8.7456378540700291E-2</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="5">
+      <c r="A241" s="7">
         <v>41944</v>
       </c>
-      <c r="B241" s="6">
+      <c r="B241" s="8">
         <v>9.0265236245787389E-2</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="5">
+      <c r="A242" s="7">
         <v>41974</v>
       </c>
-      <c r="B242" s="6">
+      <c r="B242" s="8">
         <v>9.0600536697358139E-2</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="5">
+      <c r="A243" s="7">
         <v>42005</v>
       </c>
-      <c r="B243" s="6">
+      <c r="B243" s="8">
         <v>0.10533016732361397</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="5">
+      <c r="A244" s="7">
         <v>42036</v>
       </c>
-      <c r="B244" s="6">
+      <c r="B244" s="8">
         <v>0.10379332898500528</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="5">
+      <c r="A245" s="7">
         <v>42064</v>
       </c>
-      <c r="B245" s="6">
+      <c r="B245" s="8">
         <v>0.10646618622058883</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="5">
+      <c r="A246" s="7">
         <v>42095</v>
       </c>
-      <c r="B246" s="6">
+      <c r="B246" s="8">
         <v>0.10277197692695453</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="5">
+      <c r="A247" s="7">
         <v>42125</v>
       </c>
-      <c r="B247" s="6">
+      <c r="B247" s="8">
         <v>0.10635981236621354</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="5">
+      <c r="A248" s="7">
         <v>42156</v>
       </c>
-      <c r="B248" s="6">
+      <c r="B248" s="8">
         <v>0.10243622729858951</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="5">
+      <c r="A249" s="7">
         <v>42186</v>
       </c>
-      <c r="B249" s="6">
+      <c r="B249" s="8">
         <v>0.10824745812912069</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="5">
+      <c r="A250" s="7">
         <v>42217</v>
       </c>
-      <c r="B250" s="6">
+      <c r="B250" s="8">
         <v>0.11309406133143306</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="5">
+      <c r="A251" s="7">
         <v>42248</v>
       </c>
-      <c r="B251" s="6">
+      <c r="B251" s="8">
         <v>9.9532565626062719E-2</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="5">
+      <c r="A252" s="7">
         <v>42278</v>
       </c>
-      <c r="B252" s="6">
+      <c r="B252" s="8">
         <v>9.7344609070752625E-2</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="5">
+      <c r="A253" s="7">
         <v>42309</v>
       </c>
-      <c r="B253" s="6">
+      <c r="B253" s="8">
         <v>9.6030564044979047E-2</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="5">
+      <c r="A254" s="7">
         <v>42339</v>
       </c>
-      <c r="B254" s="6">
+      <c r="B254" s="8">
         <v>9.7946408382498046E-2</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="5">
+      <c r="A255" s="7">
         <v>42370</v>
       </c>
-      <c r="B255" s="6">
+      <c r="B255" s="8">
         <v>0.10720725243654623</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="5">
+      <c r="A256" s="7">
         <v>42401</v>
       </c>
-      <c r="B256" s="6">
+      <c r="B256" s="8">
         <v>0.10623913533182294</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="5">
+      <c r="A257" s="7">
         <v>42430</v>
       </c>
-      <c r="B257" s="6">
+      <c r="B257" s="8">
         <v>9.6613329525373437E-2</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="5">
+      <c r="A258" s="7">
         <v>42461</v>
       </c>
-      <c r="B258" s="6">
+      <c r="B258" s="8">
         <v>9.07458717712184E-2</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="5">
+      <c r="A259" s="7">
         <v>42491</v>
       </c>
-      <c r="B259" s="6">
+      <c r="B259" s="8">
         <v>8.1503302413437381E-2</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" s="5">
+      <c r="A260" s="7">
         <v>42522</v>
       </c>
-      <c r="B260" s="6">
+      <c r="B260" s="8">
         <v>8.4903302413437381E-2</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="5">
+      <c r="A261" s="7">
         <v>42552</v>
       </c>
-      <c r="B261" s="6">
+      <c r="B261" s="8">
         <v>7.845432079176308E-2</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="5">
+      <c r="A262" s="7">
         <v>42583</v>
       </c>
-      <c r="B262" s="6">
+      <c r="B262" s="8">
         <v>7.7005107317431515E-2</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="5">
+      <c r="A263" s="7">
         <v>42614</v>
       </c>
-      <c r="B263" s="6">
+      <c r="B263" s="8">
         <v>7.9062490141365058E-2</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="5">
+      <c r="A264" s="7">
         <v>42644</v>
       </c>
-      <c r="B264" s="6">
+      <c r="B264" s="8">
         <v>9.0803823058582978E-2</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="5">
+      <c r="A265" s="7">
         <v>42675</v>
       </c>
-      <c r="B265" s="6">
+      <c r="B265" s="8">
         <v>8.1366322142554626E-2</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="5">
+      <c r="A266" s="7">
         <v>42705</v>
       </c>
-      <c r="B266" s="6">
+      <c r="B266" s="8">
         <v>8.5524440182112194E-2</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="5">
+      <c r="A267" s="7">
         <v>42736</v>
       </c>
-      <c r="B267" s="6">
+      <c r="B267" s="8">
         <v>8.3374527020277533E-2</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="5">
+      <c r="A268" s="7">
         <v>42767</v>
       </c>
-      <c r="B268" s="6">
+      <c r="B268" s="8">
         <v>8.2618737455347563E-2</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="5">
+      <c r="A269" s="7">
         <v>42795</v>
       </c>
-      <c r="B269" s="6">
+      <c r="B269" s="8">
         <v>8.2301802120567966E-2</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="5">
+      <c r="A270" s="7">
         <v>42826</v>
       </c>
-      <c r="B270" s="6">
+      <c r="B270" s="8">
         <v>7.9480761202343708E-2</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="5">
+      <c r="A271" s="7">
         <v>42856</v>
       </c>
-      <c r="B271" s="6">
+      <c r="B271" s="8">
         <v>8.3960752894154167E-2</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="5">
+      <c r="A272" s="7">
         <v>42887</v>
       </c>
-      <c r="B272" s="6">
+      <c r="B272" s="8">
         <v>8.2181900156117982E-2</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="5">
+      <c r="A273" s="7">
         <v>42917</v>
       </c>
-      <c r="B273" s="6">
+      <c r="B273" s="8">
         <v>7.8582383645718207E-2</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="5">
+      <c r="A274" s="7">
         <v>42948</v>
       </c>
-      <c r="B274" s="6">
+      <c r="B274" s="8">
         <v>7.3514830121311145E-2</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="5">
+      <c r="A275" s="7">
         <v>42979</v>
       </c>
-      <c r="B275" s="6">
+      <c r="B275" s="8">
         <v>7.1798584083836187E-2</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="5">
+      <c r="A276" s="7">
         <v>43009</v>
       </c>
-      <c r="B276" s="6">
+      <c r="B276" s="8">
         <v>7.0893601810297649E-2</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="5">
+      <c r="A277" s="7">
         <v>43040</v>
       </c>
-      <c r="B277" s="6">
+      <c r="B277" s="8">
         <v>6.1052757033422195E-2</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="5">
+      <c r="A278" s="7">
         <v>43070</v>
       </c>
-      <c r="B278" s="6">
+      <c r="B278" s="8">
         <v>6.7122786831106646E-2</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="5">
+      <c r="A279" s="7">
         <v>43101</v>
       </c>
-      <c r="B279" s="6">
+      <c r="B279" s="8">
         <v>5.7519098552337958E-2</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="5">
+      <c r="A280" s="7">
         <v>43132</v>
       </c>
-      <c r="B280" s="6">
+      <c r="B280" s="8">
         <v>6.5520472026066215E-2</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="5">
+      <c r="A281" s="7">
         <v>43160</v>
       </c>
-      <c r="B281" s="6">
+      <c r="B281" s="8">
         <v>7.2125770364620007E-2</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="5">
+      <c r="A282" s="7">
         <v>43191</v>
       </c>
-      <c r="B282" s="6">
+      <c r="B282" s="8">
         <v>6.4064244291655609E-2</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="5">
+      <c r="A283" s="7">
         <v>43221</v>
       </c>
-      <c r="B283" s="6">
+      <c r="B283" s="8">
         <v>7.1824635819149038E-2</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="5">
+      <c r="A284" s="7">
         <v>43252</v>
       </c>
-      <c r="B284" s="6">
+      <c r="B284" s="8">
         <v>7.9775179773577412E-2</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="5">
+      <c r="A285" s="7">
         <v>43282</v>
       </c>
-      <c r="B285" s="6">
+      <c r="B285" s="8">
         <v>9.1939861515753868E-2</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="5">
+      <c r="A286" s="7">
         <v>43313</v>
       </c>
-      <c r="B286" s="6">
+      <c r="B286" s="8">
         <v>0.10101989540599204</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="5">
+      <c r="A287" s="7">
         <v>43344</v>
       </c>
-      <c r="B287" s="6">
+      <c r="B287" s="8">
         <v>0.10496376393363561</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="5">
+      <c r="A288" s="7">
         <v>43374</v>
       </c>
-      <c r="B288" s="6">
+      <c r="B288" s="8">
         <v>6.866534805367612E-2</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" s="5">
+      <c r="A289" s="7">
         <v>43405</v>
       </c>
-      <c r="B289" s="6">
+      <c r="B289" s="8">
         <v>7.7599591244769228E-2</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" s="5">
+      <c r="A290" s="7">
         <v>43435</v>
       </c>
-      <c r="B290" s="6">
+      <c r="B290" s="8">
         <v>7.6296518904752947E-2</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" s="5">
+      <c r="A291" s="7">
         <v>43466</v>
       </c>
-      <c r="B291" s="6">
+      <c r="B291" s="8">
         <v>7.1150211864005483E-2</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" s="5">
+      <c r="A292" s="7">
         <v>43497</v>
       </c>
-      <c r="B292" s="6">
+      <c r="B292" s="8">
         <v>7.4978703434071342E-2</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" s="5">
+      <c r="A293" s="7">
         <v>43525</v>
       </c>
-      <c r="B293" s="6">
+      <c r="B293" s="8">
         <v>8.1082222580664831E-2</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" s="5">
+      <c r="A294" s="7">
         <v>43556</v>
       </c>
-      <c r="B294" s="6">
+      <c r="B294" s="8">
         <v>8.0864791172512426E-2</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" s="5">
+      <c r="A295" s="7">
         <v>43586</v>
       </c>
-      <c r="B295" s="6">
+      <c r="B295" s="8">
         <v>8.7764304038109517E-2</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" s="5">
+      <c r="A296" s="7">
         <v>43617</v>
       </c>
-      <c r="B296" s="6">
+      <c r="B296" s="8">
         <v>8.5839178787788323E-2</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" s="5">
+      <c r="A297" s="7">
         <v>43647</v>
       </c>
-      <c r="B297" s="6">
+      <c r="B297" s="8">
         <v>8.9544717916765409E-2</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" s="5">
+      <c r="A298" s="7">
         <v>43678</v>
       </c>
-      <c r="B298" s="6">
+      <c r="B298" s="8">
         <v>9.687272744274146E-2</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" s="5">
+      <c r="A299" s="7">
         <v>43709</v>
       </c>
-      <c r="B299" s="6">
+      <c r="B299" s="8">
         <v>9.4565670394992141E-2</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" s="5">
+      <c r="A300" s="7">
         <v>43739</v>
       </c>
-      <c r="B300" s="6">
+      <c r="B300" s="8">
         <v>9.5998871332297536E-2</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" s="5">
+      <c r="A301" s="7">
         <v>43770</v>
       </c>
-      <c r="B301" s="6">
+      <c r="B301" s="8">
         <v>9.0410180385752506E-2</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" s="5">
+      <c r="A302" s="7">
         <v>43800</v>
       </c>
-      <c r="B302" s="6">
+      <c r="B302" s="8">
         <v>8.0346430039285821E-2</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" s="5">
+      <c r="A303" s="7">
         <v>43831</v>
       </c>
-      <c r="B303" s="6">
+      <c r="B303" s="8">
         <v>8.8138805128154862E-2</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" s="5">
+      <c r="A304" s="7">
         <v>43862</v>
       </c>
-      <c r="B304" s="6">
+      <c r="B304" s="8">
         <v>9.3984258626188408E-2</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305" s="5">
+      <c r="A305" s="7">
         <v>43891</v>
       </c>
-      <c r="B305" s="6">
+      <c r="B305" s="8">
         <v>0.11444455602995118</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A306" s="5">
+      <c r="A306" s="7">
         <v>43922</v>
       </c>
-      <c r="B306" s="6">
+      <c r="B306" s="8">
         <v>0.11883485001315314</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A307" s="5">
+      <c r="A307" s="7">
         <v>43952</v>
       </c>
-      <c r="B307" s="6">
+      <c r="B307" s="8">
         <v>0.10802006518576782</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308" s="5">
+      <c r="A308" s="7">
         <v>43983</v>
       </c>
-      <c r="B308" s="6">
+      <c r="B308" s="8">
         <v>0.10150000000000001</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309" s="5">
+      <c r="A309" s="7">
         <v>44013</v>
       </c>
-      <c r="B309" s="6">
+      <c r="B309" s="8">
         <v>0.10394071190796175</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310" s="5">
+      <c r="A310" s="7">
         <v>44044</v>
       </c>
-      <c r="B310" s="6">
+      <c r="B310" s="8">
         <v>9.8747906968658955E-2</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311" s="5">
+      <c r="A311" s="7">
         <v>44075</v>
       </c>
-      <c r="B311" s="6">
+      <c r="B311" s="8">
         <v>0.10280377344670942</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A312" s="5">
+      <c r="A312" s="7">
         <v>44105</v>
       </c>
-      <c r="B312" s="6">
+      <c r="B312" s="8">
         <v>0.1003081555378784</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A313" s="5">
+      <c r="A313" s="7">
         <v>44136</v>
       </c>
-      <c r="B313" s="6">
+      <c r="B313" s="8">
         <v>9.4781090636132159E-2</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314" s="5">
+      <c r="A314" s="7">
         <v>44166</v>
       </c>
-      <c r="B314" s="6">
+      <c r="B314" s="8">
         <v>9.9688114787269883E-2</v>
       </c>
-      <c r="C314" s="8"/>
+      <c r="C314" s="3"/>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A315" s="5">
+      <c r="A315" s="7">
         <v>44197</v>
       </c>
-      <c r="B315" s="6">
+      <c r="B315" s="8">
         <v>0.10345953791176479</v>
       </c>
-      <c r="C315" s="8"/>
+      <c r="C315" s="3"/>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316" s="5">
+      <c r="A316" s="7">
         <v>44228</v>
       </c>
-      <c r="B316" s="6">
+      <c r="B316" s="8">
         <v>9.9036976535253174E-2</v>
       </c>
-      <c r="C316" s="8"/>
+      <c r="C316" s="3"/>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A317" s="5">
+      <c r="A317" s="7">
         <v>44256</v>
       </c>
-      <c r="B317" s="6">
+      <c r="B317" s="8">
         <v>0.11202004609682872</v>
       </c>
-      <c r="C317" s="8"/>
+      <c r="C317" s="3"/>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A318" s="5">
+      <c r="A318" s="7">
         <v>44287</v>
       </c>
-      <c r="B318" s="6">
+      <c r="B318" s="8">
         <v>0.1105</v>
       </c>
-      <c r="C318" s="8"/>
+      <c r="C318" s="3"/>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A319" s="5">
+      <c r="A319" s="7">
         <v>44317</v>
       </c>
-      <c r="B319" s="6">
+      <c r="B319" s="8">
         <v>0.103756060197642</v>
       </c>
-      <c r="C319" s="8"/>
+      <c r="C319" s="3"/>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A320" s="5">
+      <c r="A320" s="7">
         <v>44348</v>
       </c>
-      <c r="B320" s="6">
+      <c r="B320" s="8">
         <v>0.11288777024068533</v>
       </c>
-      <c r="C320" s="8"/>
+      <c r="C320" s="3"/>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A321" s="5">
+      <c r="A321" s="7">
         <v>44378</v>
       </c>
-      <c r="B321" s="6">
+      <c r="B321" s="8">
         <v>0.1217</v>
       </c>
-      <c r="C321" s="8"/>
+      <c r="C321" s="3"/>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A322" s="5">
+      <c r="A322" s="7">
         <v>44409</v>
       </c>
-      <c r="B322" s="6">
+      <c r="B322" s="8">
         <v>0.11860470570232673</v>
       </c>
-      <c r="C322" s="8"/>
+      <c r="C322" s="3"/>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A323" s="5">
+      <c r="A323" s="7">
         <v>44440</v>
       </c>
-      <c r="B323" s="6">
+      <c r="B323" s="8">
         <v>0.15321467349306883</v>
       </c>
-      <c r="C323" s="8"/>
+      <c r="C323" s="3"/>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A324" s="5">
+      <c r="A324" s="7">
         <v>44470</v>
       </c>
-      <c r="B324" s="6">
+      <c r="B324" s="8">
         <v>0.1565</v>
       </c>
-      <c r="C324" s="8"/>
+      <c r="C324" s="3"/>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325" s="5">
+      <c r="A325" s="7">
         <v>44501</v>
       </c>
-      <c r="B325" s="6">
+      <c r="B325" s="8">
         <v>0.15480116295464194</v>
       </c>
-      <c r="C325" s="8"/>
+      <c r="C325" s="3"/>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A326" s="5">
+      <c r="A326" s="7">
         <v>44531</v>
       </c>
-      <c r="B326" s="6">
+      <c r="B326" s="8">
         <v>0.18086975473681763</v>
       </c>
-      <c r="C326" s="8"/>
+      <c r="C326" s="3"/>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327" s="5">
+      <c r="A327" s="7">
         <v>44562</v>
       </c>
-      <c r="B327" s="6">
+      <c r="B327" s="8">
         <v>0.15203711549166959</v>
       </c>
-      <c r="C327" s="8"/>
+      <c r="C327" s="3"/>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A328" s="5">
+      <c r="A328" s="7">
         <v>44593</v>
       </c>
-      <c r="B328" s="6">
+      <c r="B328" s="8">
         <v>0.15045086518646858</v>
       </c>
-      <c r="C328" s="8"/>
+      <c r="C328" s="3"/>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A329" s="5">
+      <c r="A329" s="7">
         <v>44621</v>
       </c>
-      <c r="B329" s="6">
+      <c r="B329" s="8">
         <v>0.13402699778646815</v>
       </c>
-      <c r="C329" s="8"/>
+      <c r="C329" s="3"/>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A330" s="5">
+      <c r="A330" s="7">
         <v>44652</v>
       </c>
-      <c r="B330" s="6">
+      <c r="B330" s="8">
         <v>0.13661550466927599</v>
       </c>
-      <c r="C330" s="8"/>
+      <c r="C330" s="3"/>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A331" s="5">
+      <c r="A331" s="7">
         <v>44682</v>
       </c>
-      <c r="B331" s="6">
+      <c r="B331" s="8">
         <v>0.1321</v>
       </c>
-      <c r="C331" s="8"/>
+      <c r="C331" s="3"/>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A332" s="5">
+      <c r="A332" s="7">
         <v>44713</v>
       </c>
-      <c r="B332" s="6">
+      <c r="B332" s="8">
         <v>0.16510000000000002</v>
       </c>
-      <c r="C332" s="8"/>
+      <c r="C332" s="3"/>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A333" s="5">
+      <c r="A333" s="7">
         <v>44743</v>
       </c>
-      <c r="B333" s="6">
+      <c r="B333" s="8">
         <v>0.1585</v>
       </c>
-      <c r="C333" s="8"/>
+      <c r="C333" s="3"/>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A334" s="5">
+      <c r="A334" s="7">
         <v>44774</v>
       </c>
-      <c r="B334" s="6">
+      <c r="B334" s="8">
         <v>0.1331</v>
       </c>
-      <c r="C334" s="8"/>
+      <c r="C334" s="3"/>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A335" s="5">
+      <c r="A335" s="7">
         <v>44805</v>
       </c>
-      <c r="B335" s="6">
+      <c r="B335" s="8">
         <v>0.14630000000000001</v>
       </c>
-      <c r="C335" s="8"/>
+      <c r="C335" s="3"/>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A336" s="5">
+      <c r="A336" s="7">
         <v>44835</v>
       </c>
-      <c r="B336" s="6">
+      <c r="B336" s="8">
         <v>0.1197</v>
       </c>
-      <c r="C336" s="8"/>
+      <c r="C336" s="3"/>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A337" s="5">
+      <c r="A337" s="7">
         <v>44866</v>
       </c>
-      <c r="B337" s="6">
+      <c r="B337" s="8">
         <v>0.1177</v>
       </c>
-      <c r="C337" s="8"/>
+      <c r="C337" s="3"/>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A338" s="5">
+      <c r="A338" s="7">
         <v>44896</v>
       </c>
-      <c r="B338" s="6">
+      <c r="B338" s="8">
         <v>0.1172183756433729</v>
       </c>
-      <c r="C338" s="8"/>
+      <c r="C338" s="3"/>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A339" s="5">
+      <c r="A339" s="7">
         <v>44927</v>
       </c>
-      <c r="B339" s="6">
+      <c r="B339" s="8">
         <v>0.112566</v>
       </c>
-      <c r="C339" s="8"/>
+      <c r="C339" s="3"/>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A340" s="5">
+      <c r="A340" s="7">
         <v>44958</v>
       </c>
-      <c r="B340" s="6">
+      <c r="B340" s="8">
         <v>0.10406600000000001</v>
       </c>
-      <c r="C340" s="8"/>
+      <c r="C340" s="3"/>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A341" s="5">
+      <c r="A341" s="7">
         <v>44986</v>
       </c>
-      <c r="B341" s="6">
+      <c r="B341" s="8">
         <v>0.100060632666334</v>
       </c>
-      <c r="C341" s="8"/>
+      <c r="C341" s="3"/>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A342" s="5">
+      <c r="A342" s="7">
         <v>45017</v>
       </c>
-      <c r="B342" s="6">
+      <c r="B342" s="8">
         <v>9.7161250237506505E-2</v>
       </c>
-      <c r="C342" s="8"/>
+      <c r="C342" s="3"/>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A343" s="5">
+      <c r="A343" s="7">
         <v>45047</v>
       </c>
-      <c r="B343" s="6">
+      <c r="B343" s="8">
         <v>9.6838061660370997E-2</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A344" s="5">
+      <c r="A344" s="7">
         <v>45078</v>
       </c>
-      <c r="B344" s="6">
+      <c r="B344" s="8">
         <v>8.4097029271563706E-2</v>
       </c>
-      <c r="C344" s="8"/>
+      <c r="C344" s="3"/>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A345" s="5">
+      <c r="A345" s="7">
         <v>45108</v>
       </c>
-      <c r="B345" s="6">
+      <c r="B345" s="8">
         <v>7.9421854001553702E-2</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A346" s="5">
+      <c r="A346" s="7">
         <v>45139</v>
       </c>
-      <c r="B346" s="6">
+      <c r="B346" s="8">
         <v>8.8703735811575105E-2</v>
       </c>
-      <c r="D346" s="10"/>
+      <c r="D346" s="3"/>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A347" s="9"/>
+      <c r="A347" s="7">
+        <v>45170</v>
+      </c>
+      <c r="B347" s="8">
+        <v>8.69610556503468E-2</v>
+      </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A348" s="9"/>
+      <c r="A348" s="7">
+        <v>45200</v>
+      </c>
+      <c r="B348" s="8">
+        <v>8.5154952330852907E-2</v>
+      </c>
+      <c r="C348" s="10"/>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A349" s="9"/>
+      <c r="A349" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:B2" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B348">
+      <sortCondition ref="A2"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Database/Serie de Equity Risk Premium.xlsx
+++ b/Database/Serie de Equity Risk Premium.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bteba\Documents\Github\ERP\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98482026-E023-4AD6-8E48-410CAAA5D3B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF279611-7392-45DA-A3E2-CEDA36BEB450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,9 +55,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +75,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -109,13 +116,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -130,9 +137,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -255,10 +267,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Planilha1!$A$3:$A$379</c:f>
+              <c:f>Planilha1!$A$3:$A$380</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="377"/>
+                <c:ptCount val="378"/>
                 <c:pt idx="0">
                   <c:v>34700</c:v>
                 </c:pt>
@@ -1296,16 +1308,19 @@
                 </c:pt>
                 <c:pt idx="345">
                   <c:v>45200</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>45231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$B$3:$B$379</c:f>
+              <c:f>Planilha1!$B$3:$B$380</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="377"/>
+                <c:ptCount val="378"/>
                 <c:pt idx="0">
                   <c:v>3.5906071097335332E-2</c:v>
                 </c:pt>
@@ -2343,6 +2358,9 @@
                 </c:pt>
                 <c:pt idx="345">
                   <c:v>8.5154952330852907E-2</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>9.2767735220062306E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3424,10 +3442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:RX349"/>
+  <dimension ref="A1:RX356"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A317" workbookViewId="0">
-      <selection activeCell="B347" sqref="B347"/>
+      <selection activeCell="C349" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3444,10 +3462,10 @@
       </c>
     </row>
     <row r="2" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="CG2" s="1"/>
@@ -3483,12 +3501,13 @@
       <c r="RX2" s="1"/>
     </row>
     <row r="3" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>34700</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>3.5906071097335332E-2</v>
       </c>
+      <c r="C3" s="9"/>
       <c r="CG3" s="1"/>
       <c r="CH3" s="1"/>
       <c r="CI3" s="1"/>
@@ -3520,12 +3539,13 @@
       <c r="RX3" s="1"/>
     </row>
     <row r="4" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>34731</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>4.641371511935781E-2</v>
       </c>
+      <c r="C4" s="9"/>
       <c r="CG4" s="1"/>
       <c r="CH4" s="1"/>
       <c r="CI4" s="1"/>
@@ -3557,12 +3577,13 @@
       <c r="RX4" s="1"/>
     </row>
     <row r="5" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>34759</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>6.8188691890601116E-2</v>
       </c>
+      <c r="C5" s="9"/>
       <c r="CG5" s="1"/>
       <c r="CH5" s="1"/>
       <c r="CI5" s="1"/>
@@ -3593,12 +3614,13 @@
       <c r="RX5" s="1"/>
     </row>
     <row r="6" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>34790</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>9.0011601145643869E-2</v>
       </c>
+      <c r="C6" s="9"/>
       <c r="CG6" s="1"/>
       <c r="CH6" s="1"/>
       <c r="CI6" s="1"/>
@@ -3627,12 +3649,13 @@
       <c r="RM6" s="1"/>
     </row>
     <row r="7" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>34820</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>9.9496073670305801E-2</v>
       </c>
+      <c r="C7" s="9"/>
       <c r="CG7" s="1"/>
       <c r="CH7" s="1"/>
       <c r="CI7" s="1"/>
@@ -3660,12 +3683,13 @@
       <c r="RM7" s="1"/>
     </row>
     <row r="8" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>34851</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>0.11863771466397069</v>
       </c>
+      <c r="C8" s="9"/>
       <c r="CG8" s="1"/>
       <c r="CH8" s="1"/>
       <c r="CI8" s="1"/>
@@ -3693,12 +3717,13 @@
       <c r="RM8" s="1"/>
     </row>
     <row r="9" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>34881</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>0.1181146572660678</v>
       </c>
+      <c r="C9" s="9"/>
       <c r="CG9" s="1"/>
       <c r="CH9" s="1"/>
       <c r="CI9" s="1"/>
@@ -3716,12 +3741,13 @@
       <c r="RM9" s="1"/>
     </row>
     <row r="10" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>34912</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>0.11925440378813899</v>
       </c>
+      <c r="C10" s="9"/>
       <c r="CG10" s="1"/>
       <c r="CH10" s="1"/>
       <c r="CI10" s="1"/>
@@ -3738,12 +3764,13 @@
       <c r="RM10" s="1"/>
     </row>
     <row r="11" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>34943</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>8.0427229515112636E-2</v>
       </c>
+      <c r="C11" s="9"/>
       <c r="CG11" s="1"/>
       <c r="CH11" s="1"/>
       <c r="CI11" s="1"/>
@@ -3760,12 +3787,13 @@
       <c r="RM11" s="1"/>
     </row>
     <row r="12" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>34973</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>9.2888414728135582E-2</v>
       </c>
+      <c r="C12" s="9"/>
       <c r="CG12" s="1"/>
       <c r="CH12" s="1"/>
       <c r="CI12" s="1"/>
@@ -3781,12 +3809,13 @@
       <c r="RM12" s="1"/>
     </row>
     <row r="13" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>35004</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>0.10118496200041718</v>
       </c>
+      <c r="C13" s="9"/>
       <c r="CG13" s="1"/>
       <c r="CH13" s="1"/>
       <c r="CI13" s="1"/>
@@ -3802,12 +3831,13 @@
       <c r="RM13" s="1"/>
     </row>
     <row r="14" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>35034</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>0.10732542683580969</v>
       </c>
+      <c r="C14" s="9"/>
       <c r="CG14" s="1"/>
       <c r="CH14" s="1"/>
       <c r="CI14" s="1"/>
@@ -3821,12 +3851,13 @@
       <c r="OY14" s="1"/>
     </row>
     <row r="15" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>35065</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>9.1621260099534085E-2</v>
       </c>
+      <c r="C15" s="9"/>
       <c r="CG15" s="1"/>
       <c r="CH15" s="1"/>
       <c r="CI15" s="1"/>
@@ -3840,665 +3871,731 @@
       <c r="OY15" s="1"/>
     </row>
     <row r="16" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>35096</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>8.4905503970074639E-2</v>
       </c>
+      <c r="C16" s="9"/>
       <c r="CP16" s="1"/>
     </row>
     <row r="17" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>35125</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>0.10049276040389069</v>
       </c>
+      <c r="C17" s="9"/>
       <c r="CP17" s="1"/>
     </row>
     <row r="18" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>35156</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <v>9.6531384813158941E-2</v>
       </c>
+      <c r="C18" s="9"/>
       <c r="CP18" s="1"/>
     </row>
     <row r="19" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>35186</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>9.5088188666882692E-2</v>
       </c>
+      <c r="C19" s="9"/>
       <c r="CP19" s="1"/>
     </row>
     <row r="20" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>35217</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>9.0796583575804307E-2</v>
       </c>
+      <c r="C20" s="9"/>
       <c r="CP20" s="1"/>
     </row>
     <row r="21" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>35247</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>9.2623876599203819E-2</v>
       </c>
+      <c r="C21" s="9"/>
       <c r="CP21" s="1"/>
     </row>
     <row r="22" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>35278</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <v>9.1099901245860898E-2</v>
       </c>
+      <c r="C22" s="9"/>
       <c r="CP22" s="1"/>
     </row>
     <row r="23" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>35309</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <v>9.2854806609296375E-2</v>
       </c>
+      <c r="C23" s="9"/>
       <c r="CP23" s="1"/>
     </row>
     <row r="24" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>35339</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <v>0.10127373741409153</v>
       </c>
+      <c r="C24" s="9"/>
       <c r="CP24" s="1"/>
     </row>
     <row r="25" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>35370</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <v>0.10142804442282341</v>
       </c>
+      <c r="C25" s="9"/>
       <c r="CP25" s="1"/>
     </row>
     <row r="26" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
+      <c r="A26" s="6">
         <v>35400</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="7">
         <v>9.9700000278104189E-2</v>
       </c>
+      <c r="C26" s="9"/>
       <c r="CP26" s="1"/>
     </row>
     <row r="27" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>35431</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="7">
         <v>9.7052332691215076E-2</v>
       </c>
+      <c r="C27" s="9"/>
       <c r="CP27" s="1"/>
     </row>
     <row r="28" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
+      <c r="A28" s="6">
         <v>35462</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="7">
         <v>9.1057142830797522E-2</v>
       </c>
+      <c r="C28" s="9"/>
       <c r="CP28" s="1"/>
     </row>
     <row r="29" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
+      <c r="A29" s="6">
         <v>35490</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="7">
         <v>8.6177248797735806E-2</v>
       </c>
+      <c r="C29" s="9"/>
       <c r="CP29" s="1"/>
     </row>
     <row r="30" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
+      <c r="A30" s="6">
         <v>35521</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="7">
         <v>8.5066948095953776E-2</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
+      <c r="C30" s="9"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
       <c r="CP30" s="1"/>
     </row>
     <row r="31" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
+      <c r="A31" s="6">
         <v>35551</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="7">
         <v>9.7288837160340563E-2</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
+      <c r="C31" s="9"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
       <c r="CP31" s="1"/>
     </row>
     <row r="32" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
+      <c r="A32" s="6">
         <v>35582</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="7">
         <v>9.6957468174919514E-2</v>
       </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
+      <c r="C32" s="9"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
       <c r="CP32" s="1"/>
     </row>
     <row r="33" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
+      <c r="A33" s="6">
         <v>35612</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="7">
         <v>9.8258192485687817E-2</v>
       </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
+      <c r="C33" s="9"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
       <c r="CP33" s="1"/>
     </row>
     <row r="34" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
+      <c r="A34" s="6">
         <v>35643</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="7">
         <v>0.10071108991221206</v>
       </c>
-      <c r="L34" s="6"/>
+      <c r="C34" s="9"/>
+      <c r="L34" s="5"/>
       <c r="CP34" s="1"/>
     </row>
     <row r="35" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
+      <c r="A35" s="6">
         <v>35674</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="7">
         <v>9.4101292650451321E-2</v>
       </c>
+      <c r="C35" s="9"/>
       <c r="CP35" s="1"/>
     </row>
     <row r="36" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
+      <c r="A36" s="6">
         <v>35704</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="7">
         <v>0.1022443853346008</v>
       </c>
+      <c r="C36" s="9"/>
       <c r="CP36" s="1"/>
     </row>
     <row r="37" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
+      <c r="A37" s="6">
         <v>35735</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="7">
         <v>0.11673503599412813</v>
       </c>
+      <c r="C37" s="9"/>
       <c r="CP37" s="1"/>
     </row>
     <row r="38" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
+      <c r="A38" s="6">
         <v>35765</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="7">
         <v>0.12868892588777975</v>
       </c>
+      <c r="C38" s="9"/>
       <c r="CP38" s="1"/>
     </row>
     <row r="39" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
+      <c r="A39" s="6">
         <v>35796</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="7">
         <v>0.13246738378006745</v>
       </c>
+      <c r="C39" s="9"/>
       <c r="CP39" s="1"/>
     </row>
     <row r="40" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
+      <c r="A40" s="6">
         <v>35827</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="7">
         <v>0.12192540989307418</v>
       </c>
+      <c r="C40" s="9"/>
       <c r="CP40" s="1"/>
     </row>
     <row r="41" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
+      <c r="A41" s="6">
         <v>35855</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="7">
         <v>0.11858185629167939</v>
       </c>
+      <c r="C41" s="9"/>
       <c r="CP41" s="1"/>
     </row>
     <row r="42" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
+      <c r="A42" s="6">
         <v>35886</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="7">
         <v>0.11009539820274278</v>
       </c>
+      <c r="C42" s="9"/>
       <c r="CP42" s="1"/>
     </row>
     <row r="43" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
+      <c r="A43" s="6">
         <v>35916</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="7">
         <v>0.14815671762109539</v>
       </c>
+      <c r="C43" s="9"/>
       <c r="CP43" s="1"/>
     </row>
     <row r="44" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
+      <c r="A44" s="6">
         <v>35947</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44" s="7">
         <v>0.16414072309545738</v>
       </c>
+      <c r="C44" s="9"/>
       <c r="CP44" s="1"/>
     </row>
     <row r="45" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
+      <c r="A45" s="6">
         <v>35977</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="7">
         <v>0.15684487547919845</v>
       </c>
+      <c r="C45" s="9"/>
       <c r="CP45" s="1"/>
     </row>
     <row r="46" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
+      <c r="A46" s="6">
         <v>36008</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="7">
         <v>0.20761986410571115</v>
       </c>
+      <c r="C46" s="9"/>
       <c r="CP46" s="1"/>
     </row>
     <row r="47" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
+      <c r="A47" s="6">
         <v>36039</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="7">
         <v>0.26488372425157419</v>
       </c>
+      <c r="C47" s="9"/>
       <c r="CP47" s="1"/>
     </row>
     <row r="48" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
+      <c r="A48" s="6">
         <v>36069</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="7">
         <v>0.27386908893169182</v>
       </c>
+      <c r="C48" s="9"/>
       <c r="CP48" s="1"/>
     </row>
     <row r="49" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
+      <c r="A49" s="6">
         <v>36100</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="7">
         <v>0.23368482800820384</v>
       </c>
+      <c r="C49" s="9"/>
       <c r="CP49" s="1"/>
     </row>
     <row r="50" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
+      <c r="A50" s="6">
         <v>36130</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50" s="7">
         <v>0.19728157436806892</v>
       </c>
+      <c r="C50" s="9"/>
       <c r="CP50" s="1"/>
     </row>
     <row r="51" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
+      <c r="A51" s="6">
         <v>36161</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51" s="7">
         <v>0.18849719620951449</v>
       </c>
-      <c r="D51" s="4"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="3"/>
       <c r="CP51" s="1"/>
     </row>
     <row r="52" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
+      <c r="A52" s="6">
         <v>36192</v>
       </c>
-      <c r="B52" s="8">
+      <c r="B52" s="7">
         <v>0.17879547863724937</v>
       </c>
-      <c r="D52" s="4"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="3"/>
       <c r="CP52" s="1"/>
     </row>
     <row r="53" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A53" s="7">
+      <c r="A53" s="6">
         <v>36220</v>
       </c>
-      <c r="B53" s="8">
+      <c r="B53" s="7">
         <v>0.19521218246374467</v>
       </c>
-      <c r="D53" s="4"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="3"/>
       <c r="CP53" s="1"/>
     </row>
     <row r="54" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A54" s="7">
+      <c r="A54" s="6">
         <v>36251</v>
       </c>
-      <c r="B54" s="8">
+      <c r="B54" s="7">
         <v>0.17667737273699313</v>
       </c>
-      <c r="D54" s="4"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="3"/>
       <c r="CP54" s="1"/>
     </row>
     <row r="55" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A55" s="7">
+      <c r="A55" s="6">
         <v>36281</v>
       </c>
-      <c r="B55" s="8">
+      <c r="B55" s="7">
         <v>0.17240854293261376</v>
       </c>
-      <c r="D55" s="4"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="3"/>
       <c r="CP55" s="1"/>
     </row>
     <row r="56" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A56" s="7">
+      <c r="A56" s="6">
         <v>36312</v>
       </c>
-      <c r="B56" s="8">
+      <c r="B56" s="7">
         <v>0.15905547118167043</v>
       </c>
-      <c r="D56" s="4"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="3"/>
       <c r="CP56" s="1"/>
     </row>
     <row r="57" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A57" s="7">
+      <c r="A57" s="6">
         <v>36342</v>
       </c>
-      <c r="B57" s="8">
+      <c r="B57" s="7">
         <v>0.15865389804394955</v>
       </c>
-      <c r="D57" s="4"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="3"/>
       <c r="CP57" s="1"/>
     </row>
     <row r="58" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A58" s="7">
+      <c r="A58" s="6">
         <v>36373</v>
       </c>
-      <c r="B58" s="8">
+      <c r="B58" s="7">
         <v>0.15275419272689961</v>
       </c>
-      <c r="D58" s="4"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="3"/>
       <c r="CP58" s="1"/>
     </row>
     <row r="59" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A59" s="7">
+      <c r="A59" s="6">
         <v>36404</v>
       </c>
-      <c r="B59" s="8">
+      <c r="B59" s="7">
         <v>0.13159865421370617</v>
       </c>
-      <c r="D59" s="4"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="3"/>
       <c r="CP59" s="1"/>
     </row>
     <row r="60" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A60" s="7">
+      <c r="A60" s="6">
         <v>36434</v>
       </c>
-      <c r="B60" s="8">
+      <c r="B60" s="7">
         <v>0.12196728595845485</v>
       </c>
-      <c r="D60" s="4"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="3"/>
       <c r="CP60" s="1"/>
     </row>
     <row r="61" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A61" s="7">
+      <c r="A61" s="6">
         <v>36465</v>
       </c>
-      <c r="B61" s="8">
+      <c r="B61" s="7">
         <v>0.10437517943413213</v>
       </c>
-      <c r="D61" s="4"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="3"/>
       <c r="CP61" s="1"/>
     </row>
     <row r="62" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A62" s="7">
+      <c r="A62" s="6">
         <v>36495</v>
       </c>
-      <c r="B62" s="8">
+      <c r="B62" s="7">
         <v>8.4895285767080067E-2</v>
       </c>
-      <c r="D62" s="4"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="3"/>
       <c r="CP62" s="1"/>
     </row>
     <row r="63" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A63" s="7">
+      <c r="A63" s="6">
         <v>36526</v>
       </c>
-      <c r="B63" s="8">
+      <c r="B63" s="7">
         <v>8.0964220165040707E-2</v>
       </c>
-      <c r="D63" s="4"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="3"/>
       <c r="CP63" s="1"/>
     </row>
     <row r="64" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A64" s="7">
+      <c r="A64" s="6">
         <v>36557</v>
       </c>
-      <c r="B64" s="8">
+      <c r="B64" s="7">
         <v>8.5143819747368649E-2</v>
       </c>
-      <c r="D64" s="4"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="3"/>
       <c r="CP64" s="1"/>
     </row>
     <row r="65" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A65" s="7">
+      <c r="A65" s="6">
         <v>36586</v>
       </c>
-      <c r="B65" s="8">
+      <c r="B65" s="7">
         <v>9.4432793059799777E-2</v>
       </c>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
       <c r="CP65" s="1"/>
     </row>
     <row r="66" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A66" s="7">
+      <c r="A66" s="6">
         <v>36617</v>
       </c>
-      <c r="B66" s="8">
+      <c r="B66" s="7">
         <v>0.1068984082862578</v>
       </c>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
       <c r="CP66" s="1"/>
     </row>
     <row r="67" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A67" s="7">
+      <c r="A67" s="6">
         <v>36647</v>
       </c>
-      <c r="B67" s="8">
+      <c r="B67" s="7">
         <v>0.10194024162250852</v>
       </c>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
       <c r="CP67" s="1"/>
     </row>
     <row r="68" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A68" s="7">
+      <c r="A68" s="6">
         <v>36678</v>
       </c>
-      <c r="B68" s="8">
+      <c r="B68" s="7">
         <v>0.11520688931942046</v>
       </c>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
       <c r="CP68" s="1"/>
     </row>
     <row r="69" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A69" s="7">
+      <c r="A69" s="6">
         <v>36708</v>
       </c>
-      <c r="B69" s="8">
+      <c r="B69" s="7">
         <v>0.10847862629401375</v>
       </c>
-      <c r="E69" s="4"/>
+      <c r="C69" s="9"/>
+      <c r="E69" s="3"/>
       <c r="CP69" s="1"/>
     </row>
     <row r="70" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A70" s="7">
+      <c r="A70" s="6">
         <v>36739</v>
       </c>
-      <c r="B70" s="8">
+      <c r="B70" s="7">
         <v>0.11669317806908461</v>
       </c>
-      <c r="E70" s="4"/>
+      <c r="C70" s="9"/>
+      <c r="E70" s="3"/>
       <c r="CP70" s="1"/>
     </row>
     <row r="71" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A71" s="7">
+      <c r="A71" s="6">
         <v>36770</v>
       </c>
-      <c r="B71" s="8">
+      <c r="B71" s="7">
         <v>0.12461879502315275</v>
       </c>
-      <c r="E71" s="4"/>
+      <c r="C71" s="9"/>
+      <c r="E71" s="3"/>
       <c r="CP71" s="1"/>
     </row>
     <row r="72" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A72" s="7">
+      <c r="A72" s="6">
         <v>36800</v>
       </c>
-      <c r="B72" s="8">
+      <c r="B72" s="7">
         <v>0.12350351608453644</v>
       </c>
-      <c r="E72" s="4"/>
+      <c r="C72" s="9"/>
+      <c r="E72" s="3"/>
       <c r="CP72" s="1"/>
     </row>
     <row r="73" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A73" s="7">
+      <c r="A73" s="6">
         <v>36831</v>
       </c>
-      <c r="B73" s="8">
+      <c r="B73" s="7">
         <v>0.13624280260074831</v>
       </c>
-      <c r="E73" s="4"/>
+      <c r="C73" s="9"/>
+      <c r="E73" s="3"/>
       <c r="CP73" s="1"/>
     </row>
     <row r="74" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A74" s="7">
+      <c r="A74" s="6">
         <v>36861</v>
       </c>
-      <c r="B74" s="8">
+      <c r="B74" s="7">
         <v>0.10449451374749155</v>
       </c>
-      <c r="E74" s="4"/>
+      <c r="C74" s="9"/>
+      <c r="E74" s="3"/>
       <c r="CP74" s="1"/>
     </row>
     <row r="75" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A75" s="7">
+      <c r="A75" s="6">
         <v>36892</v>
       </c>
-      <c r="B75" s="8">
+      <c r="B75" s="7">
         <v>9.8078739800215115E-2</v>
       </c>
-      <c r="E75" s="4"/>
+      <c r="C75" s="9"/>
+      <c r="E75" s="3"/>
       <c r="CP75" s="1"/>
     </row>
     <row r="76" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A76" s="7">
+      <c r="A76" s="6">
         <v>36923</v>
       </c>
-      <c r="B76" s="8">
+      <c r="B76" s="7">
         <v>9.4986612102584869E-2</v>
       </c>
-      <c r="E76" s="4"/>
+      <c r="C76" s="9"/>
+      <c r="E76" s="3"/>
       <c r="CP76" s="1"/>
     </row>
     <row r="77" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A77" s="7">
+      <c r="A77" s="6">
         <v>36951</v>
       </c>
-      <c r="B77" s="8">
+      <c r="B77" s="7">
         <v>0.10943199261845223</v>
       </c>
-      <c r="E77" s="4"/>
+      <c r="C77" s="9"/>
+      <c r="E77" s="3"/>
       <c r="CP77" s="1"/>
     </row>
     <row r="78" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A78" s="7">
+      <c r="A78" s="6">
         <v>36982</v>
       </c>
-      <c r="B78" s="8">
+      <c r="B78" s="7">
         <v>0.10230821441197835</v>
       </c>
-      <c r="E78" s="4"/>
+      <c r="C78" s="9"/>
+      <c r="E78" s="3"/>
       <c r="CP78" s="1"/>
     </row>
     <row r="79" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A79" s="7">
+      <c r="A79" s="6">
         <v>37012</v>
       </c>
-      <c r="B79" s="8">
+      <c r="B79" s="7">
         <v>0.11448510925596571</v>
       </c>
-      <c r="E79" s="4"/>
+      <c r="C79" s="9"/>
+      <c r="E79" s="3"/>
       <c r="CP79" s="1"/>
     </row>
     <row r="80" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A80" s="7">
+      <c r="A80" s="6">
         <v>37043</v>
       </c>
-      <c r="B80" s="8">
+      <c r="B80" s="7">
         <v>0.12205193419326613</v>
       </c>
-      <c r="E80" s="4"/>
+      <c r="C80" s="9"/>
+      <c r="E80" s="3"/>
       <c r="CP80" s="1"/>
     </row>
     <row r="81" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A81" s="7">
+      <c r="A81" s="6">
         <v>37073</v>
       </c>
-      <c r="B81" s="8">
+      <c r="B81" s="7">
         <v>0.12472087316217893</v>
       </c>
-      <c r="E81" s="4"/>
+      <c r="C81" s="9"/>
+      <c r="E81" s="3"/>
       <c r="CP81" s="1"/>
       <c r="DC81" s="1"/>
       <c r="DE81" s="1"/>
@@ -4510,12 +4607,13 @@
       <c r="DK81" s="1"/>
     </row>
     <row r="82" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A82" s="7">
+      <c r="A82" s="6">
         <v>37104</v>
       </c>
-      <c r="B82" s="8">
+      <c r="B82" s="7">
         <v>0.13164962330151575</v>
       </c>
+      <c r="C82" s="9"/>
       <c r="CP82" s="1"/>
       <c r="DC82" s="1"/>
       <c r="DE82" s="1"/>
@@ -4527,12 +4625,13 @@
       <c r="DK82" s="1"/>
     </row>
     <row r="83" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A83" s="7">
+      <c r="A83" s="6">
         <v>37135</v>
       </c>
-      <c r="B83" s="8">
+      <c r="B83" s="7">
         <v>0.16920274455915726</v>
       </c>
+      <c r="C83" s="9"/>
       <c r="CP83" s="1"/>
       <c r="DC83" s="1"/>
       <c r="DE83" s="1"/>
@@ -4545,12 +4644,13 @@
       <c r="FQ83" s="1"/>
     </row>
     <row r="84" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A84" s="7">
+      <c r="A84" s="6">
         <v>37165</v>
       </c>
-      <c r="B84" s="8">
+      <c r="B84" s="7">
         <v>0.16487384010580458</v>
       </c>
+      <c r="C84" s="9"/>
       <c r="CP84" s="1"/>
       <c r="DC84" s="1"/>
       <c r="DE84" s="1"/>
@@ -4563,12 +4663,13 @@
       <c r="FQ84" s="1"/>
     </row>
     <row r="85" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A85" s="7">
+      <c r="A85" s="6">
         <v>37196</v>
       </c>
-      <c r="B85" s="8">
+      <c r="B85" s="7">
         <v>0.14485365882340293</v>
       </c>
+      <c r="C85" s="9"/>
       <c r="CP85" s="1"/>
       <c r="DC85" s="1"/>
       <c r="DE85" s="1"/>
@@ -4581,12 +4682,13 @@
       <c r="FQ85" s="1"/>
     </row>
     <row r="86" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A86" s="7">
+      <c r="A86" s="6">
         <v>37226</v>
       </c>
-      <c r="B86" s="8">
+      <c r="B86" s="7">
         <v>0.12057147500114479</v>
       </c>
+      <c r="C86" s="9"/>
       <c r="CP86" s="1"/>
       <c r="DC86" s="1"/>
       <c r="DE86" s="1"/>
@@ -4599,12 +4701,13 @@
       <c r="FQ86" s="1"/>
     </row>
     <row r="87" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A87" s="7">
+      <c r="A87" s="6">
         <v>37257</v>
       </c>
-      <c r="B87" s="8">
+      <c r="B87" s="7">
         <v>0.12028644057053653</v>
       </c>
+      <c r="C87" s="9"/>
       <c r="CP87" s="1"/>
       <c r="DC87" s="1"/>
       <c r="DE87" s="1"/>
@@ -4617,12 +4720,13 @@
       <c r="FQ87" s="1"/>
     </row>
     <row r="88" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A88" s="7">
+      <c r="A88" s="6">
         <v>37288</v>
       </c>
-      <c r="B88" s="8">
+      <c r="B88" s="7">
         <v>0.11585635189852062</v>
       </c>
+      <c r="C88" s="9"/>
       <c r="CP88" s="1"/>
       <c r="DC88" s="1"/>
       <c r="DE88" s="1"/>
@@ -4635,12 +4739,13 @@
       <c r="FQ88" s="1"/>
     </row>
     <row r="89" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A89" s="7">
+      <c r="A89" s="6">
         <v>37316</v>
       </c>
-      <c r="B89" s="8">
+      <c r="B89" s="7">
         <v>0.12274527752297042</v>
       </c>
+      <c r="C89" s="9"/>
       <c r="CP89" s="1"/>
       <c r="DC89" s="1"/>
       <c r="DE89" s="1"/>
@@ -4654,12 +4759,13 @@
       <c r="FQ89" s="1"/>
     </row>
     <row r="90" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A90" s="7">
+      <c r="A90" s="6">
         <v>37347</v>
       </c>
-      <c r="B90" s="8">
+      <c r="B90" s="7">
         <v>0.12101568147782529</v>
       </c>
+      <c r="C90" s="9"/>
       <c r="CP90" s="1"/>
       <c r="DC90" s="1"/>
       <c r="DE90" s="1"/>
@@ -4673,12 +4779,13 @@
       <c r="FQ90" s="1"/>
     </row>
     <row r="91" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A91" s="7">
+      <c r="A91" s="6">
         <v>37377</v>
       </c>
-      <c r="B91" s="8">
+      <c r="B91" s="7">
         <v>0.13834911739732181</v>
       </c>
+      <c r="C91" s="9"/>
       <c r="CP91" s="1"/>
       <c r="DC91" s="1"/>
       <c r="DE91" s="1"/>
@@ -4692,12 +4799,13 @@
       <c r="FQ91" s="1"/>
     </row>
     <row r="92" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A92" s="7">
+      <c r="A92" s="6">
         <v>37408</v>
       </c>
-      <c r="B92" s="8">
+      <c r="B92" s="7">
         <v>0.13898444661446926</v>
       </c>
+      <c r="C92" s="9"/>
       <c r="CP92" s="1"/>
       <c r="DC92" s="1"/>
       <c r="DE92" s="1"/>
@@ -4712,12 +4820,13 @@
       <c r="FQ92" s="1"/>
     </row>
     <row r="93" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A93" s="7">
+      <c r="A93" s="6">
         <v>37438</v>
       </c>
-      <c r="B93" s="8">
+      <c r="B93" s="7">
         <v>0.15154676452080135</v>
       </c>
+      <c r="C93" s="9"/>
       <c r="CP93" s="1"/>
       <c r="DC93" s="1"/>
       <c r="DE93" s="1"/>
@@ -4732,12 +4841,13 @@
       <c r="FQ93" s="1"/>
     </row>
     <row r="94" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A94" s="7">
+      <c r="A94" s="6">
         <v>37469</v>
       </c>
-      <c r="B94" s="8">
+      <c r="B94" s="7">
         <v>0.14914501917668246</v>
       </c>
+      <c r="C94" s="9"/>
       <c r="CP94" s="1"/>
       <c r="DC94" s="1"/>
       <c r="DE94" s="1"/>
@@ -4752,12 +4862,13 @@
       <c r="FQ94" s="1"/>
     </row>
     <row r="95" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A95" s="7">
+      <c r="A95" s="6">
         <v>37500</v>
       </c>
-      <c r="B95" s="8">
+      <c r="B95" s="7">
         <v>0.17729158577688089</v>
       </c>
+      <c r="C95" s="9"/>
       <c r="CP95" s="1"/>
       <c r="DC95" s="1"/>
       <c r="DE95" s="1"/>
@@ -4773,12 +4884,13 @@
       <c r="GX95" s="1"/>
     </row>
     <row r="96" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A96" s="7">
+      <c r="A96" s="6">
         <v>37530</v>
       </c>
-      <c r="B96" s="8">
+      <c r="B96" s="7">
         <v>0.16158417270187989</v>
       </c>
+      <c r="C96" s="9"/>
       <c r="CP96" s="1"/>
       <c r="DC96" s="1"/>
       <c r="DE96" s="1"/>
@@ -4794,12 +4906,13 @@
       <c r="GX96" s="1"/>
     </row>
     <row r="97" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A97" s="7">
+      <c r="A97" s="6">
         <v>37561</v>
       </c>
-      <c r="B97" s="8">
+      <c r="B97" s="7">
         <v>0.15765516285709646</v>
       </c>
+      <c r="C97" s="9"/>
       <c r="CG97" s="1"/>
       <c r="CH97" s="1"/>
       <c r="CI97" s="1"/>
@@ -4825,12 +4938,13 @@
       <c r="QQ97" s="1"/>
     </row>
     <row r="98" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A98" s="7">
+      <c r="A98" s="6">
         <v>37591</v>
       </c>
-      <c r="B98" s="8">
+      <c r="B98" s="7">
         <v>0.16155516390609645</v>
       </c>
+      <c r="C98" s="9"/>
       <c r="CG98" s="1"/>
       <c r="CH98" s="1"/>
       <c r="CI98" s="1"/>
@@ -4856,12 +4970,13 @@
       <c r="QQ98" s="1"/>
     </row>
     <row r="99" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A99" s="7">
+      <c r="A99" s="6">
         <v>37622</v>
       </c>
-      <c r="B99" s="8">
+      <c r="B99" s="7">
         <v>0.16721818984210535</v>
       </c>
+      <c r="C99" s="9"/>
       <c r="CG99" s="1"/>
       <c r="CH99" s="1"/>
       <c r="CI99" s="1"/>
@@ -4896,12 +5011,13 @@
       <c r="QQ99" s="1"/>
     </row>
     <row r="100" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A100" s="7">
+      <c r="A100" s="6">
         <v>37653</v>
       </c>
-      <c r="B100" s="8">
+      <c r="B100" s="7">
         <v>0.16873740603929704</v>
       </c>
+      <c r="C100" s="9"/>
       <c r="CG100" s="1"/>
       <c r="CH100" s="1"/>
       <c r="CI100" s="1"/>
@@ -4946,12 +5062,13 @@
       <c r="QQ100" s="1"/>
     </row>
     <row r="101" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A101" s="7">
+      <c r="A101" s="6">
         <v>37681</v>
       </c>
-      <c r="B101" s="8">
+      <c r="B101" s="7">
         <v>0.17960657789052537</v>
       </c>
+      <c r="C101" s="9"/>
       <c r="CG101" s="1"/>
       <c r="CH101" s="1"/>
       <c r="CI101" s="1"/>
@@ -4997,12 +5114,13 @@
       <c r="QQ101" s="1"/>
     </row>
     <row r="102" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A102" s="7">
+      <c r="A102" s="6">
         <v>37712</v>
       </c>
-      <c r="B102" s="8">
+      <c r="B102" s="7">
         <v>0.17370103158576525</v>
       </c>
+      <c r="C102" s="9"/>
       <c r="CG102" s="1"/>
       <c r="CH102" s="1"/>
       <c r="CI102" s="1"/>
@@ -5048,12 +5166,13 @@
       <c r="QQ102" s="1"/>
     </row>
     <row r="103" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A103" s="7">
+      <c r="A103" s="6">
         <v>37742</v>
       </c>
-      <c r="B103" s="8">
+      <c r="B103" s="7">
         <v>0.17745962817797939</v>
       </c>
+      <c r="C103" s="9"/>
       <c r="CG103" s="1"/>
       <c r="CH103" s="1"/>
       <c r="CI103" s="1"/>
@@ -5100,12 +5219,13 @@
       <c r="QQ103" s="1"/>
     </row>
     <row r="104" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A104" s="7">
+      <c r="A104" s="6">
         <v>37773</v>
       </c>
-      <c r="B104" s="8">
+      <c r="B104" s="7">
         <v>0.17353423821042152</v>
       </c>
+      <c r="C104" s="9"/>
       <c r="CG104" s="1"/>
       <c r="CH104" s="1"/>
       <c r="CI104" s="1"/>
@@ -5153,12 +5273,13 @@
       <c r="QQ104" s="1"/>
     </row>
     <row r="105" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A105" s="7">
+      <c r="A105" s="6">
         <v>37803</v>
       </c>
-      <c r="B105" s="8">
+      <c r="B105" s="7">
         <v>0.16443232371464103</v>
       </c>
+      <c r="C105" s="9"/>
       <c r="CG105" s="1"/>
       <c r="CH105" s="1"/>
       <c r="CI105" s="1"/>
@@ -5206,12 +5327,13 @@
       <c r="QQ105" s="1"/>
     </row>
     <row r="106" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A106" s="7">
+      <c r="A106" s="6">
         <v>37834</v>
       </c>
-      <c r="B106" s="8">
+      <c r="B106" s="7">
         <v>0.16083606998584948</v>
       </c>
+      <c r="C106" s="9"/>
       <c r="CG106" s="1"/>
       <c r="CH106" s="1"/>
       <c r="CI106" s="1"/>
@@ -5260,12 +5382,13 @@
       <c r="QQ106" s="1"/>
     </row>
     <row r="107" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A107" s="7">
+      <c r="A107" s="6">
         <v>37865</v>
       </c>
-      <c r="B107" s="8">
+      <c r="B107" s="7">
         <v>0.19762447566023092</v>
       </c>
+      <c r="C107" s="9"/>
       <c r="CG107" s="1"/>
       <c r="CH107" s="1"/>
       <c r="CI107" s="1"/>
@@ -5318,12 +5441,13 @@
       <c r="RX107" s="1"/>
     </row>
     <row r="108" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A108" s="7">
+      <c r="A108" s="6">
         <v>37895</v>
       </c>
-      <c r="B108" s="8">
+      <c r="B108" s="7">
         <v>0.18706253495325156</v>
       </c>
+      <c r="C108" s="9"/>
       <c r="CG108" s="1"/>
       <c r="CH108" s="1"/>
       <c r="CI108" s="1"/>
@@ -5376,12 +5500,13 @@
       <c r="RX108" s="1"/>
     </row>
     <row r="109" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A109" s="7">
+      <c r="A109" s="6">
         <v>37926</v>
       </c>
-      <c r="B109" s="8">
+      <c r="B109" s="7">
         <v>0.18579912866791054</v>
       </c>
+      <c r="C109" s="9"/>
       <c r="CG109" s="1"/>
       <c r="CH109" s="1"/>
       <c r="CI109" s="1"/>
@@ -5436,12 +5561,13 @@
       <c r="RX109" s="1"/>
     </row>
     <row r="110" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A110" s="7">
+      <c r="A110" s="6">
         <v>37956</v>
       </c>
-      <c r="B110" s="8">
+      <c r="B110" s="7">
         <v>0.15228963728645464</v>
       </c>
+      <c r="C110" s="9"/>
       <c r="CG110" s="1"/>
       <c r="CH110" s="1"/>
       <c r="CI110" s="1"/>
@@ -5498,12 +5624,13 @@
       <c r="RX110" s="1"/>
     </row>
     <row r="111" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A111" s="7">
+      <c r="A111" s="6">
         <v>37987</v>
       </c>
-      <c r="B111" s="8">
+      <c r="B111" s="7">
         <v>0.14979423018271038</v>
       </c>
+      <c r="C111" s="9"/>
       <c r="CG111" s="1"/>
       <c r="CH111" s="1"/>
       <c r="CI111" s="1"/>
@@ -5560,12 +5687,13 @@
       <c r="RX111" s="1"/>
     </row>
     <row r="112" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A112" s="7">
+      <c r="A112" s="6">
         <v>38018</v>
       </c>
-      <c r="B112" s="8">
+      <c r="B112" s="7">
         <v>0.15531103806729979</v>
       </c>
+      <c r="C112" s="9"/>
       <c r="CG112" s="1"/>
       <c r="CH112" s="1"/>
       <c r="CI112" s="1"/>
@@ -5622,12 +5750,13 @@
       <c r="RX112" s="1"/>
     </row>
     <row r="113" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A113" s="7">
+      <c r="A113" s="6">
         <v>38047</v>
       </c>
-      <c r="B113" s="8">
+      <c r="B113" s="7">
         <v>0.15189953279944524</v>
       </c>
+      <c r="C113" s="9"/>
       <c r="CG113" s="1"/>
       <c r="CH113" s="1"/>
       <c r="CI113" s="1"/>
@@ -5686,12 +5815,13 @@
       <c r="RX113" s="1"/>
     </row>
     <row r="114" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A114" s="7">
+      <c r="A114" s="6">
         <v>38078</v>
       </c>
-      <c r="B114" s="8">
+      <c r="B114" s="7">
         <v>0.14238155308795486</v>
       </c>
+      <c r="C114" s="9"/>
       <c r="CG114" s="1"/>
       <c r="CH114" s="1"/>
       <c r="CI114" s="1"/>
@@ -5751,12 +5881,13 @@
       <c r="RX114" s="1"/>
     </row>
     <row r="115" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A115" s="7">
+      <c r="A115" s="6">
         <v>38108</v>
       </c>
-      <c r="B115" s="8">
+      <c r="B115" s="7">
         <v>0.13993688563245948</v>
       </c>
+      <c r="C115" s="9"/>
       <c r="CG115" s="1"/>
       <c r="CH115" s="1"/>
       <c r="CI115" s="1"/>
@@ -5827,12 +5958,13 @@
       <c r="RX115" s="1"/>
     </row>
     <row r="116" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A116" s="7">
+      <c r="A116" s="6">
         <v>38139</v>
       </c>
-      <c r="B116" s="8">
+      <c r="B116" s="7">
         <v>0.13205156859518685</v>
       </c>
+      <c r="C116" s="9"/>
       <c r="CG116" s="1"/>
       <c r="CH116" s="1"/>
       <c r="CI116" s="1"/>
@@ -5914,12 +6046,13 @@
       <c r="RX116" s="1"/>
     </row>
     <row r="117" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A117" s="7">
+      <c r="A117" s="6">
         <v>38169</v>
       </c>
-      <c r="B117" s="8">
+      <c r="B117" s="7">
         <v>0.1321356483644931</v>
       </c>
+      <c r="C117" s="9"/>
       <c r="CG117" s="1"/>
       <c r="CH117" s="1"/>
       <c r="CI117" s="1"/>
@@ -6003,12 +6136,13 @@
       <c r="RX117" s="1"/>
     </row>
     <row r="118" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A118" s="7">
+      <c r="A118" s="6">
         <v>38200</v>
       </c>
-      <c r="B118" s="8">
+      <c r="B118" s="7">
         <v>0.13235416398227642</v>
       </c>
+      <c r="C118" s="9"/>
       <c r="CG118" s="1"/>
       <c r="CH118" s="1"/>
       <c r="CI118" s="1"/>
@@ -6092,12 +6226,13 @@
       <c r="RX118" s="1"/>
     </row>
     <row r="119" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A119" s="7">
+      <c r="A119" s="6">
         <v>38231</v>
       </c>
-      <c r="B119" s="8">
+      <c r="B119" s="7">
         <v>0.14198841003714582</v>
       </c>
+      <c r="C119" s="9"/>
       <c r="CG119" s="1"/>
       <c r="CH119" s="1"/>
       <c r="CI119" s="1"/>
@@ -6181,12 +6316,13 @@
       <c r="RX119" s="1"/>
     </row>
     <row r="120" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A120" s="7">
+      <c r="A120" s="6">
         <v>38261</v>
       </c>
-      <c r="B120" s="8">
+      <c r="B120" s="7">
         <v>0.14054340020098038</v>
       </c>
+      <c r="C120" s="9"/>
       <c r="CG120" s="1"/>
       <c r="CH120" s="1"/>
       <c r="CI120" s="1"/>
@@ -6270,12 +6406,13 @@
       <c r="RX120" s="1"/>
     </row>
     <row r="121" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A121" s="7">
+      <c r="A121" s="6">
         <v>38292</v>
       </c>
-      <c r="B121" s="8">
+      <c r="B121" s="7">
         <v>0.13208337856049901</v>
       </c>
+      <c r="C121" s="9"/>
       <c r="CG121" s="1"/>
       <c r="CH121" s="1"/>
       <c r="CI121" s="1"/>
@@ -6360,12 +6497,13 @@
       <c r="RX121" s="1"/>
     </row>
     <row r="122" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A122" s="7">
+      <c r="A122" s="6">
         <v>38322</v>
       </c>
-      <c r="B122" s="8">
+      <c r="B122" s="7">
         <v>0.13722393226951568</v>
       </c>
+      <c r="C122" s="9"/>
       <c r="CG122" s="1"/>
       <c r="CH122" s="1"/>
       <c r="CI122" s="1"/>
@@ -6450,12 +6588,13 @@
       <c r="RX122" s="1"/>
     </row>
     <row r="123" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A123" s="7">
+      <c r="A123" s="6">
         <v>38353</v>
       </c>
-      <c r="B123" s="8">
+      <c r="B123" s="7">
         <v>0.13998031470880479</v>
       </c>
+      <c r="C123" s="9"/>
       <c r="CG123" s="1"/>
       <c r="CH123" s="1"/>
       <c r="CI123" s="1"/>
@@ -6540,12 +6679,13 @@
       <c r="RX123" s="1"/>
     </row>
     <row r="124" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A124" s="7">
+      <c r="A124" s="6">
         <v>38384</v>
       </c>
-      <c r="B124" s="8">
+      <c r="B124" s="7">
         <v>0.14381330437458539</v>
       </c>
+      <c r="C124" s="9"/>
       <c r="CG124" s="1"/>
       <c r="CH124" s="1"/>
       <c r="CI124" s="1"/>
@@ -6632,12 +6772,13 @@
       <c r="RX124" s="1"/>
     </row>
     <row r="125" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A125" s="7">
+      <c r="A125" s="6">
         <v>38412</v>
       </c>
-      <c r="B125" s="8">
+      <c r="B125" s="7">
         <v>0.13883886128708484</v>
       </c>
+      <c r="C125" s="9"/>
       <c r="CG125" s="1"/>
       <c r="CH125" s="1"/>
       <c r="CI125" s="1"/>
@@ -6724,12 +6865,13 @@
       <c r="RX125" s="1"/>
     </row>
     <row r="126" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A126" s="7">
+      <c r="A126" s="6">
         <v>38443</v>
       </c>
-      <c r="B126" s="8">
+      <c r="B126" s="7">
         <v>0.14223096597630486</v>
       </c>
+      <c r="C126" s="9"/>
       <c r="CG126" s="1"/>
       <c r="CH126" s="1"/>
       <c r="CI126" s="1"/>
@@ -6816,12 +6958,13 @@
       <c r="RX126" s="1"/>
     </row>
     <row r="127" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A127" s="7">
+      <c r="A127" s="6">
         <v>38473</v>
       </c>
-      <c r="B127" s="8">
+      <c r="B127" s="7">
         <v>0.15130856651883109</v>
       </c>
+      <c r="C127" s="9"/>
       <c r="CG127" s="1"/>
       <c r="CH127" s="1"/>
       <c r="CI127" s="1"/>
@@ -6909,12 +7052,13 @@
       <c r="RX127" s="1"/>
     </row>
     <row r="128" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A128" s="7">
+      <c r="A128" s="6">
         <v>38504</v>
       </c>
-      <c r="B128" s="8">
+      <c r="B128" s="7">
         <v>0.17613645867084826</v>
       </c>
+      <c r="C128" s="9"/>
       <c r="CG128" s="1"/>
       <c r="CH128" s="1"/>
       <c r="CI128" s="1"/>
@@ -7003,12 +7147,13 @@
       <c r="RX128" s="1"/>
     </row>
     <row r="129" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A129" s="7">
+      <c r="A129" s="6">
         <v>38534</v>
       </c>
-      <c r="B129" s="8">
+      <c r="B129" s="7">
         <v>0.17526795031368764</v>
       </c>
+      <c r="C129" s="9"/>
       <c r="CG129" s="1"/>
       <c r="CH129" s="1"/>
       <c r="CI129" s="1"/>
@@ -7097,12 +7242,13 @@
       <c r="RX129" s="1"/>
     </row>
     <row r="130" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A130" s="7">
+      <c r="A130" s="6">
         <v>38565</v>
       </c>
-      <c r="B130" s="8">
+      <c r="B130" s="7">
         <v>0.17356897074457586</v>
       </c>
+      <c r="C130" s="9"/>
       <c r="CG130" s="1"/>
       <c r="CH130" s="1"/>
       <c r="CI130" s="1"/>
@@ -7191,12 +7337,13 @@
       <c r="RX130" s="1"/>
     </row>
     <row r="131" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A131" s="7">
+      <c r="A131" s="6">
         <v>38596</v>
       </c>
-      <c r="B131" s="8">
+      <c r="B131" s="7">
         <v>0.13496571144618535</v>
       </c>
+      <c r="C131" s="9"/>
       <c r="CG131" s="1"/>
       <c r="CH131" s="1"/>
       <c r="CI131" s="1"/>
@@ -7285,12 +7432,13 @@
       <c r="RX131" s="1"/>
     </row>
     <row r="132" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A132" s="7">
+      <c r="A132" s="6">
         <v>38626</v>
       </c>
-      <c r="B132" s="8">
+      <c r="B132" s="7">
         <v>0.13393339678506488</v>
       </c>
+      <c r="C132" s="9"/>
       <c r="CG132" s="1"/>
       <c r="CH132" s="1"/>
       <c r="CI132" s="1"/>
@@ -7379,12 +7527,13 @@
       <c r="RX132" s="1"/>
     </row>
     <row r="133" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A133" s="7">
+      <c r="A133" s="6">
         <v>38657</v>
       </c>
-      <c r="B133" s="8">
+      <c r="B133" s="7">
         <v>0.13831045015123039</v>
       </c>
+      <c r="C133" s="9"/>
       <c r="CG133" s="1"/>
       <c r="CH133" s="1"/>
       <c r="CI133" s="1"/>
@@ -7473,12 +7622,13 @@
       <c r="RX133" s="1"/>
     </row>
     <row r="134" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A134" s="7">
+      <c r="A134" s="6">
         <v>38687</v>
       </c>
-      <c r="B134" s="8">
+      <c r="B134" s="7">
         <v>0.12603299570326587</v>
       </c>
+      <c r="C134" s="9"/>
       <c r="CG134" s="1"/>
       <c r="CH134" s="1"/>
       <c r="CI134" s="1"/>
@@ -7567,12 +7717,13 @@
       <c r="RX134" s="1"/>
     </row>
     <row r="135" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A135" s="7">
+      <c r="A135" s="6">
         <v>38718</v>
       </c>
-      <c r="B135" s="8">
+      <c r="B135" s="7">
         <v>0.12251013261185581</v>
       </c>
+      <c r="C135" s="9"/>
       <c r="CG135" s="1"/>
       <c r="CH135" s="1"/>
       <c r="CI135" s="1"/>
@@ -7661,12 +7812,13 @@
       <c r="RX135" s="1"/>
     </row>
     <row r="136" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A136" s="7">
+      <c r="A136" s="6">
         <v>38749</v>
       </c>
-      <c r="B136" s="8">
+      <c r="B136" s="7">
         <v>0.11689155988668461</v>
       </c>
+      <c r="C136" s="9"/>
       <c r="CG136" s="1"/>
       <c r="CH136" s="1"/>
       <c r="CI136" s="1"/>
@@ -7755,12 +7907,13 @@
       <c r="RX136" s="1"/>
     </row>
     <row r="137" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A137" s="7">
+      <c r="A137" s="6">
         <v>38777</v>
       </c>
-      <c r="B137" s="8">
+      <c r="B137" s="7">
         <v>0.11182793411322625</v>
       </c>
+      <c r="C137" s="9"/>
       <c r="CG137" s="1"/>
       <c r="CH137" s="1"/>
       <c r="CI137" s="1"/>
@@ -7849,12 +8002,13 @@
       <c r="RX137" s="1"/>
     </row>
     <row r="138" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A138" s="7">
+      <c r="A138" s="6">
         <v>38808</v>
       </c>
-      <c r="B138" s="8">
+      <c r="B138" s="7">
         <v>0.1062966817216436</v>
       </c>
+      <c r="C138" s="9"/>
       <c r="CG138" s="1"/>
       <c r="CH138" s="1"/>
       <c r="CI138" s="1"/>
@@ -7943,12 +8097,13 @@
       <c r="RX138" s="1"/>
     </row>
     <row r="139" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A139" s="7">
+      <c r="A139" s="6">
         <v>38838</v>
       </c>
-      <c r="B139" s="8">
+      <c r="B139" s="7">
         <v>0.10685897585166657</v>
       </c>
+      <c r="C139" s="9"/>
       <c r="CG139" s="1"/>
       <c r="CH139" s="1"/>
       <c r="CI139" s="1"/>
@@ -8037,12 +8192,13 @@
       <c r="RX139" s="1"/>
     </row>
     <row r="140" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A140" s="7">
+      <c r="A140" s="6">
         <v>38869</v>
       </c>
-      <c r="B140" s="8">
+      <c r="B140" s="7">
         <v>0.10321059015113987</v>
       </c>
+      <c r="C140" s="9"/>
       <c r="CG140" s="1"/>
       <c r="CH140" s="1"/>
       <c r="CI140" s="1"/>
@@ -8131,12 +8287,13 @@
       <c r="RX140" s="1"/>
     </row>
     <row r="141" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A141" s="7">
+      <c r="A141" s="6">
         <v>38899</v>
       </c>
-      <c r="B141" s="8">
+      <c r="B141" s="7">
         <v>0.1042737605249823</v>
       </c>
+      <c r="C141" s="9"/>
       <c r="CG141" s="1"/>
       <c r="CH141" s="1"/>
       <c r="CI141" s="1"/>
@@ -8225,12 +8382,13 @@
       <c r="RX141" s="1"/>
     </row>
     <row r="142" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A142" s="7">
+      <c r="A142" s="6">
         <v>38930</v>
       </c>
-      <c r="B142" s="8">
+      <c r="B142" s="7">
         <v>9.9191823334113305E-2</v>
       </c>
+      <c r="C142" s="9"/>
       <c r="CG142" s="1"/>
       <c r="CH142" s="1"/>
       <c r="CI142" s="1"/>
@@ -8319,12 +8477,13 @@
       <c r="RX142" s="1"/>
     </row>
     <row r="143" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A143" s="7">
+      <c r="A143" s="6">
         <v>38961</v>
       </c>
-      <c r="B143" s="8">
+      <c r="B143" s="7">
         <v>9.7977952179741312E-2</v>
       </c>
+      <c r="C143" s="9"/>
       <c r="CG143" s="1"/>
       <c r="CH143" s="1"/>
       <c r="CI143" s="1"/>
@@ -8413,12 +8572,13 @@
       <c r="RX143" s="1"/>
     </row>
     <row r="144" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A144" s="7">
+      <c r="A144" s="6">
         <v>38991</v>
       </c>
-      <c r="B144" s="8">
+      <c r="B144" s="7">
         <v>9.5864636506678785E-2</v>
       </c>
+      <c r="C144" s="9"/>
       <c r="CG144" s="1"/>
       <c r="CH144" s="1"/>
       <c r="CI144" s="1"/>
@@ -8507,12 +8667,13 @@
       <c r="RX144" s="1"/>
     </row>
     <row r="145" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A145" s="7">
+      <c r="A145" s="6">
         <v>39022</v>
       </c>
-      <c r="B145" s="8">
+      <c r="B145" s="7">
         <v>8.8506947539146508E-2</v>
       </c>
+      <c r="C145" s="9"/>
       <c r="CG145" s="1"/>
       <c r="CH145" s="1"/>
       <c r="CI145" s="1"/>
@@ -8601,12 +8762,13 @@
       <c r="RX145" s="1"/>
     </row>
     <row r="146" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A146" s="7">
+      <c r="A146" s="6">
         <v>39052</v>
       </c>
-      <c r="B146" s="8">
+      <c r="B146" s="7">
         <v>8.2991557693164242E-2</v>
       </c>
+      <c r="C146" s="9"/>
       <c r="CG146" s="1"/>
       <c r="CH146" s="1"/>
       <c r="CI146" s="1"/>
@@ -8695,12 +8857,13 @@
       <c r="RX146" s="1"/>
     </row>
     <row r="147" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A147" s="7">
+      <c r="A147" s="6">
         <v>39083</v>
       </c>
-      <c r="B147" s="8">
+      <c r="B147" s="7">
         <v>7.7215118349207135E-2</v>
       </c>
+      <c r="C147" s="9"/>
       <c r="CG147" s="1"/>
       <c r="CH147" s="1"/>
       <c r="CI147" s="1"/>
@@ -8789,12 +8952,13 @@
       <c r="RX147" s="1"/>
     </row>
     <row r="148" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A148" s="7">
+      <c r="A148" s="6">
         <v>39114</v>
       </c>
-      <c r="B148" s="8">
+      <c r="B148" s="7">
         <v>7.9397037241236174E-2</v>
       </c>
+      <c r="C148" s="9"/>
       <c r="CG148" s="1"/>
       <c r="CH148" s="1"/>
       <c r="CI148" s="1"/>
@@ -8883,12 +9047,13 @@
       <c r="RX148" s="1"/>
     </row>
     <row r="149" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A149" s="7">
+      <c r="A149" s="6">
         <v>39142</v>
       </c>
-      <c r="B149" s="8">
+      <c r="B149" s="7">
         <v>9.5585255682960557E-2</v>
       </c>
+      <c r="C149" s="9"/>
       <c r="CG149" s="1"/>
       <c r="CH149" s="1"/>
       <c r="CI149" s="1"/>
@@ -8977,12 +9142,13 @@
       <c r="RX149" s="1"/>
     </row>
     <row r="150" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A150" s="7">
+      <c r="A150" s="6">
         <v>39173</v>
       </c>
-      <c r="B150" s="8">
+      <c r="B150" s="7">
         <v>8.580606474485139E-2</v>
       </c>
+      <c r="C150" s="9"/>
       <c r="CG150" s="1"/>
       <c r="CH150" s="1"/>
       <c r="CI150" s="1"/>
@@ -9071,12 +9237,13 @@
       <c r="RX150" s="1"/>
     </row>
     <row r="151" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A151" s="7">
+      <c r="A151" s="6">
         <v>39203</v>
       </c>
-      <c r="B151" s="8">
+      <c r="B151" s="7">
         <v>8.1207326443699546E-2</v>
       </c>
+      <c r="C151" s="9"/>
       <c r="CG151" s="1"/>
       <c r="CH151" s="1"/>
       <c r="CI151" s="1"/>
@@ -9165,12 +9332,13 @@
       <c r="RX151" s="1"/>
     </row>
     <row r="152" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A152" s="7">
+      <c r="A152" s="6">
         <v>39234</v>
       </c>
-      <c r="B152" s="8">
+      <c r="B152" s="7">
         <v>8.2961482672590375E-2</v>
       </c>
+      <c r="C152" s="9"/>
       <c r="CG152" s="1"/>
       <c r="CH152" s="1"/>
       <c r="CI152" s="1"/>
@@ -9259,12 +9427,13 @@
       <c r="RX152" s="1"/>
     </row>
     <row r="153" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A153" s="7">
+      <c r="A153" s="6">
         <v>39264</v>
       </c>
-      <c r="B153" s="8">
+      <c r="B153" s="7">
         <v>8.5322650599013228E-2</v>
       </c>
+      <c r="C153" s="9"/>
       <c r="CG153" s="1"/>
       <c r="CH153" s="1"/>
       <c r="CI153" s="1"/>
@@ -9353,12 +9522,13 @@
       <c r="RX153" s="1"/>
     </row>
     <row r="154" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A154" s="7">
+      <c r="A154" s="6">
         <v>39295</v>
       </c>
-      <c r="B154" s="8">
+      <c r="B154" s="7">
         <v>8.5340133244383914E-2</v>
       </c>
+      <c r="C154" s="9"/>
       <c r="CG154" s="1"/>
       <c r="CH154" s="1"/>
       <c r="CI154" s="1"/>
@@ -9447,12 +9617,13 @@
       <c r="RX154" s="1"/>
     </row>
     <row r="155" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A155" s="7">
+      <c r="A155" s="6">
         <v>39326</v>
       </c>
-      <c r="B155" s="8">
+      <c r="B155" s="7">
         <v>8.8928884093107091E-2</v>
       </c>
+      <c r="C155" s="9"/>
       <c r="CG155" s="1"/>
       <c r="CH155" s="1"/>
       <c r="CI155" s="1"/>
@@ -9541,12 +9712,13 @@
       <c r="RX155" s="1"/>
     </row>
     <row r="156" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A156" s="7">
+      <c r="A156" s="6">
         <v>39356</v>
       </c>
-      <c r="B156" s="8">
+      <c r="B156" s="7">
         <v>8.7744511396229033E-2</v>
       </c>
+      <c r="C156" s="9"/>
       <c r="CG156" s="1"/>
       <c r="CH156" s="1"/>
       <c r="CI156" s="1"/>
@@ -9635,12 +9807,13 @@
       <c r="RX156" s="1"/>
     </row>
     <row r="157" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A157" s="7">
+      <c r="A157" s="6">
         <v>39387</v>
       </c>
-      <c r="B157" s="8">
+      <c r="B157" s="7">
         <v>9.3737830955098772E-2</v>
       </c>
+      <c r="C157" s="9"/>
       <c r="CG157" s="1"/>
       <c r="CH157" s="1"/>
       <c r="CI157" s="1"/>
@@ -9729,12 +9902,13 @@
       <c r="RX157" s="1"/>
     </row>
     <row r="158" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A158" s="7">
+      <c r="A158" s="6">
         <v>39417</v>
       </c>
-      <c r="B158" s="8">
+      <c r="B158" s="7">
         <v>8.671239907127623E-2</v>
       </c>
+      <c r="C158" s="9"/>
       <c r="CG158" s="1"/>
       <c r="CH158" s="1"/>
       <c r="CI158" s="1"/>
@@ -9823,12 +9997,13 @@
       <c r="RX158" s="1"/>
     </row>
     <row r="159" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A159" s="7">
+      <c r="A159" s="6">
         <v>39448</v>
       </c>
-      <c r="B159" s="8">
+      <c r="B159" s="7">
         <v>9.417152259727482E-2</v>
       </c>
+      <c r="C159" s="9"/>
       <c r="CG159" s="1"/>
       <c r="CH159" s="1"/>
       <c r="CI159" s="1"/>
@@ -9917,12 +10092,13 @@
       <c r="RX159" s="1"/>
     </row>
     <row r="160" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A160" s="7">
+      <c r="A160" s="6">
         <v>39479</v>
       </c>
-      <c r="B160" s="8">
+      <c r="B160" s="7">
         <v>9.3871674916660583E-2</v>
       </c>
+      <c r="C160" s="9"/>
       <c r="CG160" s="1"/>
       <c r="CH160" s="1"/>
       <c r="CI160" s="1"/>
@@ -10011,12 +10187,13 @@
       <c r="RX160" s="1"/>
     </row>
     <row r="161" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A161" s="7">
+      <c r="A161" s="6">
         <v>39508</v>
       </c>
-      <c r="B161" s="8">
+      <c r="B161" s="7">
         <v>9.5682797110982654E-2</v>
       </c>
+      <c r="C161" s="9"/>
       <c r="CG161" s="1"/>
       <c r="CH161" s="1"/>
       <c r="CI161" s="1"/>
@@ -10105,12 +10282,13 @@
       <c r="RX161" s="1"/>
     </row>
     <row r="162" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A162" s="7">
+      <c r="A162" s="6">
         <v>39539</v>
       </c>
-      <c r="B162" s="8">
+      <c r="B162" s="7">
         <v>8.9221726200208809E-2</v>
       </c>
+      <c r="C162" s="9"/>
       <c r="CG162" s="1"/>
       <c r="CH162" s="1"/>
       <c r="CI162" s="1"/>
@@ -10199,12 +10377,13 @@
       <c r="RX162" s="1"/>
     </row>
     <row r="163" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A163" s="7">
+      <c r="A163" s="6">
         <v>39569</v>
       </c>
-      <c r="B163" s="8">
+      <c r="B163" s="7">
         <v>8.5276870884392231E-2</v>
       </c>
+      <c r="C163" s="9"/>
       <c r="CG163" s="1"/>
       <c r="CH163" s="1"/>
       <c r="CI163" s="1"/>
@@ -10293,12 +10472,13 @@
       <c r="RX163" s="1"/>
     </row>
     <row r="164" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A164" s="7">
+      <c r="A164" s="6">
         <v>39600</v>
       </c>
-      <c r="B164" s="8">
+      <c r="B164" s="7">
         <v>9.0760799631218497E-2</v>
       </c>
+      <c r="C164" s="9"/>
       <c r="CG164" s="1"/>
       <c r="CH164" s="1"/>
       <c r="CI164" s="1"/>
@@ -10387,12 +10567,13 @@
       <c r="RX164" s="1"/>
     </row>
     <row r="165" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A165" s="7">
+      <c r="A165" s="6">
         <v>39630</v>
       </c>
-      <c r="B165" s="8">
+      <c r="B165" s="7">
         <v>9.0094041432956906E-2</v>
       </c>
+      <c r="C165" s="9"/>
       <c r="CG165" s="1"/>
       <c r="CH165" s="1"/>
       <c r="CI165" s="1"/>
@@ -10481,12 +10662,13 @@
       <c r="RX165" s="1"/>
     </row>
     <row r="166" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A166" s="7">
+      <c r="A166" s="6">
         <v>39661</v>
       </c>
-      <c r="B166" s="8">
+      <c r="B166" s="7">
         <v>9.2978334258690121E-2</v>
       </c>
+      <c r="C166" s="9"/>
       <c r="CG166" s="1"/>
       <c r="CH166" s="1"/>
       <c r="CI166" s="1"/>
@@ -10575,12 +10757,13 @@
       <c r="RX166" s="1"/>
     </row>
     <row r="167" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A167" s="7">
+      <c r="A167" s="6">
         <v>39692</v>
       </c>
-      <c r="B167" s="8">
+      <c r="B167" s="7">
         <v>0.1049190744132513</v>
       </c>
+      <c r="C167" s="9"/>
       <c r="CG167" s="1"/>
       <c r="CH167" s="1"/>
       <c r="CI167" s="1"/>
@@ -10669,12 +10852,13 @@
       <c r="RX167" s="1"/>
     </row>
     <row r="168" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A168" s="7">
+      <c r="A168" s="6">
         <v>39722</v>
       </c>
-      <c r="B168" s="8">
+      <c r="B168" s="7">
         <v>0.1150227873640902</v>
       </c>
+      <c r="C168" s="9"/>
       <c r="CG168" s="1"/>
       <c r="CH168" s="1"/>
       <c r="CI168" s="1"/>
@@ -10763,12 +10947,13 @@
       <c r="RX168" s="1"/>
     </row>
     <row r="169" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A169" s="7">
+      <c r="A169" s="6">
         <v>39753</v>
       </c>
-      <c r="B169" s="8">
+      <c r="B169" s="7">
         <v>0.12713618920136005</v>
       </c>
+      <c r="C169" s="9"/>
       <c r="CG169" s="1"/>
       <c r="CH169" s="1"/>
       <c r="CI169" s="1"/>
@@ -10857,12 +11042,13 @@
       <c r="RX169" s="1"/>
     </row>
     <row r="170" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A170" s="7">
+      <c r="A170" s="6">
         <v>39783</v>
       </c>
-      <c r="B170" s="8">
+      <c r="B170" s="7">
         <v>0.14219604354597082</v>
       </c>
+      <c r="C170" s="9"/>
       <c r="CG170" s="1"/>
       <c r="CH170" s="1"/>
       <c r="CI170" s="1"/>
@@ -10951,12 +11137,13 @@
       <c r="RX170" s="1"/>
     </row>
     <row r="171" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A171" s="7">
+      <c r="A171" s="6">
         <v>39814</v>
       </c>
-      <c r="B171" s="8">
+      <c r="B171" s="7">
         <v>0.13409152093551951</v>
       </c>
+      <c r="C171" s="9"/>
       <c r="CG171" s="1"/>
       <c r="CH171" s="1"/>
       <c r="CI171" s="1"/>
@@ -11045,12 +11232,13 @@
       <c r="RX171" s="1"/>
     </row>
     <row r="172" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A172" s="7">
+      <c r="A172" s="6">
         <v>39845</v>
       </c>
-      <c r="B172" s="8">
+      <c r="B172" s="7">
         <v>0.1323173344014103</v>
       </c>
+      <c r="C172" s="9"/>
       <c r="CG172" s="1"/>
       <c r="CH172" s="1"/>
       <c r="CI172" s="1"/>
@@ -11139,12 +11327,13 @@
       <c r="RX172" s="1"/>
     </row>
     <row r="173" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A173" s="7">
+      <c r="A173" s="6">
         <v>39873</v>
       </c>
-      <c r="B173" s="8">
+      <c r="B173" s="7">
         <v>0.12184780792693525</v>
       </c>
+      <c r="C173" s="9"/>
       <c r="CG173" s="1"/>
       <c r="CH173" s="1"/>
       <c r="CI173" s="1"/>
@@ -11233,12 +11422,13 @@
       <c r="RX173" s="1"/>
     </row>
     <row r="174" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A174" s="7">
+      <c r="A174" s="6">
         <v>39904</v>
       </c>
-      <c r="B174" s="8">
+      <c r="B174" s="7">
         <v>0.1088401890456267</v>
       </c>
+      <c r="C174" s="9"/>
       <c r="CG174" s="1"/>
       <c r="CH174" s="1"/>
       <c r="CI174" s="1"/>
@@ -11327,12 +11517,13 @@
       <c r="RX174" s="1"/>
     </row>
     <row r="175" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A175" s="7">
+      <c r="A175" s="6">
         <v>39934</v>
       </c>
-      <c r="B175" s="8">
+      <c r="B175" s="7">
         <v>0.10207538732969924</v>
       </c>
+      <c r="C175" s="9"/>
       <c r="CG175" s="1"/>
       <c r="CH175" s="1"/>
       <c r="CI175" s="1"/>
@@ -11421,12 +11612,13 @@
       <c r="RX175" s="1"/>
     </row>
     <row r="176" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A176" s="7">
+      <c r="A176" s="6">
         <v>39965</v>
       </c>
-      <c r="B176" s="8">
+      <c r="B176" s="7">
         <v>9.0431157247827659E-2</v>
       </c>
+      <c r="C176" s="9"/>
       <c r="CG176" s="1"/>
       <c r="CH176" s="1"/>
       <c r="CI176" s="1"/>
@@ -11515,12 +11707,13 @@
       <c r="RX176" s="1"/>
     </row>
     <row r="177" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A177" s="7">
+      <c r="A177" s="6">
         <v>39995</v>
       </c>
-      <c r="B177" s="8">
+      <c r="B177" s="7">
         <v>8.8254360455356951E-2</v>
       </c>
+      <c r="C177" s="9"/>
       <c r="CG177" s="1"/>
       <c r="CH177" s="1"/>
       <c r="CI177" s="1"/>
@@ -11609,12 +11802,13 @@
       <c r="RX177" s="1"/>
     </row>
     <row r="178" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A178" s="7">
+      <c r="A178" s="6">
         <v>40026</v>
       </c>
-      <c r="B178" s="8">
+      <c r="B178" s="7">
         <v>8.5062467132288211E-2</v>
       </c>
+      <c r="C178" s="9"/>
       <c r="CG178" s="1"/>
       <c r="CH178" s="1"/>
       <c r="CI178" s="1"/>
@@ -11703,12 +11897,13 @@
       <c r="RX178" s="1"/>
     </row>
     <row r="179" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A179" s="7">
+      <c r="A179" s="6">
         <v>40057</v>
       </c>
-      <c r="B179" s="8">
+      <c r="B179" s="7">
         <v>8.194495980792163E-2</v>
       </c>
+      <c r="C179" s="9"/>
       <c r="CG179" s="1"/>
       <c r="CH179" s="1"/>
       <c r="CI179" s="1"/>
@@ -11797,12 +11992,13 @@
       <c r="RX179" s="1"/>
     </row>
     <row r="180" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A180" s="7">
+      <c r="A180" s="6">
         <v>40087</v>
       </c>
-      <c r="B180" s="8">
+      <c r="B180" s="7">
         <v>8.3103148537463978E-2</v>
       </c>
+      <c r="C180" s="9"/>
       <c r="CG180" s="1"/>
       <c r="CH180" s="1"/>
       <c r="CI180" s="1"/>
@@ -11891,12 +12087,13 @@
       <c r="RX180" s="1"/>
     </row>
     <row r="181" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A181" s="7">
+      <c r="A181" s="6">
         <v>40118</v>
       </c>
-      <c r="B181" s="8">
+      <c r="B181" s="7">
         <v>8.4939307901060079E-2</v>
       </c>
+      <c r="C181" s="9"/>
       <c r="CG181" s="1"/>
       <c r="CH181" s="1"/>
       <c r="CI181" s="1"/>
@@ -11985,12 +12182,13 @@
       <c r="RX181" s="1"/>
     </row>
     <row r="182" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A182" s="7">
+      <c r="A182" s="6">
         <v>40148</v>
       </c>
-      <c r="B182" s="8">
+      <c r="B182" s="7">
         <v>9.1998835222545483E-2</v>
       </c>
+      <c r="C182" s="9"/>
       <c r="CG182" s="1"/>
       <c r="CH182" s="1"/>
       <c r="CI182" s="1"/>
@@ -12079,12 +12277,13 @@
       <c r="RX182" s="1"/>
     </row>
     <row r="183" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A183" s="7">
+      <c r="A183" s="6">
         <v>40179</v>
       </c>
-      <c r="B183" s="8">
+      <c r="B183" s="7">
         <v>9.4406445060834981E-2</v>
       </c>
+      <c r="C183" s="9"/>
       <c r="CG183" s="1"/>
       <c r="CH183" s="1"/>
       <c r="CI183" s="1"/>
@@ -12173,12 +12372,13 @@
       <c r="RX183" s="1"/>
     </row>
     <row r="184" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A184" s="7">
+      <c r="A184" s="6">
         <v>40210</v>
       </c>
-      <c r="B184" s="8">
+      <c r="B184" s="7">
         <v>9.677333010017547E-2</v>
       </c>
+      <c r="C184" s="9"/>
       <c r="CG184" s="1"/>
       <c r="CH184" s="1"/>
       <c r="CI184" s="1"/>
@@ -12267,12 +12467,13 @@
       <c r="RX184" s="1"/>
     </row>
     <row r="185" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A185" s="7">
+      <c r="A185" s="6">
         <v>40238</v>
       </c>
-      <c r="B185" s="8">
+      <c r="B185" s="7">
         <v>0.10525014956324957</v>
       </c>
+      <c r="C185" s="9"/>
       <c r="CG185" s="1"/>
       <c r="CH185" s="1"/>
       <c r="CI185" s="1"/>
@@ -12361,12 +12562,13 @@
       <c r="RX185" s="1"/>
     </row>
     <row r="186" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A186" s="7">
+      <c r="A186" s="6">
         <v>40269</v>
       </c>
-      <c r="B186" s="8">
+      <c r="B186" s="7">
         <v>0.10079451028425426</v>
       </c>
+      <c r="C186" s="9"/>
       <c r="CG186" s="1"/>
       <c r="CH186" s="1"/>
       <c r="CI186" s="1"/>
@@ -12455,12 +12657,13 @@
       <c r="RX186" s="1"/>
     </row>
     <row r="187" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A187" s="7">
+      <c r="A187" s="6">
         <v>40299</v>
       </c>
-      <c r="B187" s="8">
+      <c r="B187" s="7">
         <v>9.7475443102761017E-2</v>
       </c>
+      <c r="C187" s="9"/>
       <c r="CG187" s="1"/>
       <c r="CH187" s="1"/>
       <c r="CI187" s="1"/>
@@ -12549,12 +12752,13 @@
       <c r="RX187" s="1"/>
     </row>
     <row r="188" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A188" s="7">
+      <c r="A188" s="6">
         <v>40330</v>
       </c>
-      <c r="B188" s="8">
+      <c r="B188" s="7">
         <v>0.10575656830811714</v>
       </c>
+      <c r="C188" s="9"/>
       <c r="CG188" s="1"/>
       <c r="CH188" s="1"/>
       <c r="CI188" s="1"/>
@@ -12643,12 +12847,13 @@
       <c r="RX188" s="1"/>
     </row>
     <row r="189" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A189" s="7">
+      <c r="A189" s="6">
         <v>40360</v>
       </c>
-      <c r="B189" s="8">
+      <c r="B189" s="7">
         <v>0.10532947410949854</v>
       </c>
+      <c r="C189" s="9"/>
       <c r="CG189" s="1"/>
       <c r="CH189" s="1"/>
       <c r="CI189" s="1"/>
@@ -12737,12 +12942,13 @@
       <c r="RX189" s="1"/>
     </row>
     <row r="190" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A190" s="7">
+      <c r="A190" s="6">
         <v>40391</v>
       </c>
-      <c r="B190" s="8">
+      <c r="B190" s="7">
         <v>0.10550581781341299</v>
       </c>
+      <c r="C190" s="9"/>
       <c r="CG190" s="1"/>
       <c r="CH190" s="1"/>
       <c r="CI190" s="1"/>
@@ -12831,12 +13037,13 @@
       <c r="RX190" s="1"/>
     </row>
     <row r="191" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A191" s="7">
+      <c r="A191" s="6">
         <v>40422</v>
       </c>
-      <c r="B191" s="8">
+      <c r="B191" s="7">
         <v>0.10964076002117032</v>
       </c>
+      <c r="C191" s="9"/>
       <c r="CG191" s="1"/>
       <c r="CH191" s="1"/>
       <c r="CI191" s="1"/>
@@ -12925,12 +13132,13 @@
       <c r="RX191" s="1"/>
     </row>
     <row r="192" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A192" s="7">
+      <c r="A192" s="6">
         <v>40452</v>
       </c>
-      <c r="B192" s="8">
+      <c r="B192" s="7">
         <v>0.10513412866678648</v>
       </c>
+      <c r="C192" s="9"/>
       <c r="CG192" s="1"/>
       <c r="CH192" s="1"/>
       <c r="CI192" s="1"/>
@@ -13019,12 +13227,13 @@
       <c r="RX192" s="1"/>
     </row>
     <row r="193" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A193" s="7">
+      <c r="A193" s="6">
         <v>40483</v>
       </c>
-      <c r="B193" s="8">
+      <c r="B193" s="7">
         <v>0.10473580686784892</v>
       </c>
+      <c r="C193" s="9"/>
       <c r="CG193" s="1"/>
       <c r="CH193" s="1"/>
       <c r="CI193" s="1"/>
@@ -13113,12 +13322,13 @@
       <c r="RX193" s="1"/>
     </row>
     <row r="194" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A194" s="7">
+      <c r="A194" s="6">
         <v>40513</v>
       </c>
-      <c r="B194" s="8">
+      <c r="B194" s="7">
         <v>9.4346589276028653E-2</v>
       </c>
+      <c r="C194" s="9"/>
       <c r="CG194" s="1"/>
       <c r="CH194" s="1"/>
       <c r="CI194" s="1"/>
@@ -13207,12 +13417,13 @@
       <c r="RX194" s="1"/>
     </row>
     <row r="195" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A195" s="7">
+      <c r="A195" s="6">
         <v>40544</v>
       </c>
-      <c r="B195" s="8">
+      <c r="B195" s="7">
         <v>9.5407238018712093E-2</v>
       </c>
+      <c r="C195" s="9"/>
       <c r="CG195" s="1"/>
       <c r="CH195" s="1"/>
       <c r="CI195" s="1"/>
@@ -13301,12 +13512,13 @@
       <c r="RX195" s="1"/>
     </row>
     <row r="196" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A196" s="7">
+      <c r="A196" s="6">
         <v>40575</v>
       </c>
-      <c r="B196" s="8">
+      <c r="B196" s="7">
         <v>9.3390806727688513E-2</v>
       </c>
+      <c r="C196" s="9"/>
       <c r="CG196" s="1"/>
       <c r="CH196" s="1"/>
       <c r="CI196" s="1"/>
@@ -13395,12 +13607,13 @@
       <c r="RX196" s="1"/>
     </row>
     <row r="197" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A197" s="7">
+      <c r="A197" s="6">
         <v>40603</v>
       </c>
-      <c r="B197" s="8">
+      <c r="B197" s="7">
         <v>9.3441141720405185E-2</v>
       </c>
+      <c r="C197" s="9"/>
       <c r="CG197" s="1"/>
       <c r="CH197" s="1"/>
       <c r="CI197" s="1"/>
@@ -13489,12 +13702,13 @@
       <c r="RX197" s="1"/>
     </row>
     <row r="198" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A198" s="7">
+      <c r="A198" s="6">
         <v>40634</v>
       </c>
-      <c r="B198" s="8">
+      <c r="B198" s="7">
         <v>9.3643791643206381E-2</v>
       </c>
+      <c r="C198" s="9"/>
       <c r="CG198" s="1"/>
       <c r="CH198" s="1"/>
       <c r="CI198" s="1"/>
@@ -13583,12 +13797,13 @@
       <c r="RX198" s="1"/>
     </row>
     <row r="199" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A199" s="7">
+      <c r="A199" s="6">
         <v>40664</v>
       </c>
-      <c r="B199" s="8">
+      <c r="B199" s="7">
         <v>0.10032836280974664</v>
       </c>
+      <c r="C199" s="9"/>
       <c r="CG199" s="1"/>
       <c r="CH199" s="1"/>
       <c r="CI199" s="1"/>
@@ -13677,12 +13892,13 @@
       <c r="RX199" s="1"/>
     </row>
     <row r="200" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A200" s="7">
+      <c r="A200" s="6">
         <v>40695</v>
       </c>
-      <c r="B200" s="8">
+      <c r="B200" s="7">
         <v>9.9388836279557288E-2</v>
       </c>
+      <c r="C200" s="9"/>
       <c r="CG200" s="1"/>
       <c r="CH200" s="1"/>
       <c r="CI200" s="1"/>
@@ -13771,12 +13987,13 @@
       <c r="RX200" s="1"/>
     </row>
     <row r="201" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A201" s="7">
+      <c r="A201" s="6">
         <v>40725</v>
       </c>
-      <c r="B201" s="8">
+      <c r="B201" s="7">
         <v>0.10538607103302287</v>
       </c>
+      <c r="C201" s="9"/>
       <c r="CG201" s="1"/>
       <c r="CH201" s="1"/>
       <c r="CI201" s="1"/>
@@ -13865,12 +14082,13 @@
       <c r="RX201" s="1"/>
     </row>
     <row r="202" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A202" s="7">
+      <c r="A202" s="6">
         <v>40756</v>
       </c>
-      <c r="B202" s="8">
+      <c r="B202" s="7">
         <v>0.11212100068797148</v>
       </c>
+      <c r="C202" s="9"/>
       <c r="CG202" s="1"/>
       <c r="CH202" s="1"/>
       <c r="CI202" s="1"/>
@@ -13959,12 +14177,13 @@
       <c r="RX202" s="1"/>
     </row>
     <row r="203" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A203" s="7">
+      <c r="A203" s="6">
         <v>40787</v>
       </c>
-      <c r="B203" s="8">
+      <c r="B203" s="7">
         <v>0.110785960833959</v>
       </c>
+      <c r="C203" s="9"/>
       <c r="CG203" s="1"/>
       <c r="CH203" s="1"/>
       <c r="CI203" s="1"/>
@@ -14053,12 +14272,13 @@
       <c r="RX203" s="1"/>
     </row>
     <row r="204" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A204" s="7">
+      <c r="A204" s="6">
         <v>40817</v>
       </c>
-      <c r="B204" s="8">
+      <c r="B204" s="7">
         <v>0.10360612595722082</v>
       </c>
+      <c r="C204" s="9"/>
       <c r="CG204" s="1"/>
       <c r="CH204" s="1"/>
       <c r="CI204" s="1"/>
@@ -14147,12 +14367,13 @@
       <c r="RX204" s="1"/>
     </row>
     <row r="205" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A205" s="7">
+      <c r="A205" s="6">
         <v>40848</v>
       </c>
-      <c r="B205" s="8">
+      <c r="B205" s="7">
         <v>0.10488449858019411</v>
       </c>
+      <c r="C205" s="9"/>
       <c r="CG205" s="1"/>
       <c r="CH205" s="1"/>
       <c r="CI205" s="1"/>
@@ -14241,12 +14462,13 @@
       <c r="RX205" s="1"/>
     </row>
     <row r="206" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A206" s="7">
+      <c r="A206" s="6">
         <v>40878</v>
       </c>
-      <c r="B206" s="8">
+      <c r="B206" s="7">
         <v>0.10009455642023066</v>
       </c>
+      <c r="C206" s="9"/>
       <c r="CG206" s="1"/>
       <c r="CH206" s="1"/>
       <c r="CI206" s="1"/>
@@ -14298,7 +14520,7 @@
       <c r="JL206" s="1"/>
       <c r="JW206" s="1"/>
       <c r="KH206" s="1"/>
-      <c r="KJ206" s="5"/>
+      <c r="KJ206" s="4"/>
       <c r="KS206" s="1"/>
       <c r="LD206" s="1"/>
       <c r="LE206" s="1"/>
@@ -14336,12 +14558,13 @@
       <c r="RX206" s="1"/>
     </row>
     <row r="207" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A207" s="7">
+      <c r="A207" s="6">
         <v>40909</v>
       </c>
-      <c r="B207" s="8">
+      <c r="B207" s="7">
         <v>9.6997483527202721E-2</v>
       </c>
+      <c r="C207" s="9"/>
       <c r="CG207" s="1"/>
       <c r="CH207" s="1"/>
       <c r="CI207" s="1"/>
@@ -14406,7 +14629,7 @@
       <c r="LM207" s="1"/>
       <c r="LO207" s="1"/>
       <c r="LZ207" s="1"/>
-      <c r="MB207" s="5"/>
+      <c r="MB207" s="4"/>
       <c r="MK207" s="1"/>
       <c r="MV207" s="1"/>
       <c r="NG207" s="1"/>
@@ -14431,12 +14654,13 @@
       <c r="RX207" s="1"/>
     </row>
     <row r="208" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A208" s="7">
+      <c r="A208" s="6">
         <v>40940</v>
       </c>
-      <c r="B208" s="8">
+      <c r="B208" s="7">
         <v>9.0887604642450229E-2</v>
       </c>
+      <c r="C208" s="9"/>
       <c r="CG208" s="1"/>
       <c r="CH208" s="1"/>
       <c r="CI208" s="1"/>
@@ -14489,7 +14713,7 @@
       <c r="JW208" s="1"/>
       <c r="KH208" s="1"/>
       <c r="KS208" s="1"/>
-      <c r="KU208" s="5"/>
+      <c r="KU208" s="4"/>
       <c r="LD208" s="1"/>
       <c r="LE208" s="1"/>
       <c r="LF208" s="1"/>
@@ -14503,13 +14727,13 @@
       <c r="LO208" s="1"/>
       <c r="LZ208" s="1"/>
       <c r="MK208" s="1"/>
-      <c r="MM208" s="5"/>
+      <c r="MM208" s="4"/>
       <c r="MV208" s="1"/>
-      <c r="MX208" s="5"/>
+      <c r="MX208" s="4"/>
       <c r="NG208" s="1"/>
       <c r="NR208" s="1"/>
       <c r="OC208" s="1"/>
-      <c r="OE208" s="5"/>
+      <c r="OE208" s="4"/>
       <c r="ON208" s="1"/>
       <c r="OY208" s="1"/>
       <c r="PJ208" s="1"/>
@@ -14529,12 +14753,13 @@
       <c r="RX208" s="1"/>
     </row>
     <row r="209" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A209" s="7">
+      <c r="A209" s="6">
         <v>40969</v>
       </c>
-      <c r="B209" s="8">
+      <c r="B209" s="7">
         <v>8.7800298912843522E-2</v>
       </c>
+      <c r="C209" s="9"/>
       <c r="CG209" s="1"/>
       <c r="CH209" s="1"/>
       <c r="CI209" s="1"/>
@@ -14589,7 +14814,7 @@
       <c r="KS209" s="1"/>
       <c r="LD209" s="1"/>
       <c r="LE209" s="1"/>
-      <c r="LF209" s="5"/>
+      <c r="LF209" s="4"/>
       <c r="LG209" s="1"/>
       <c r="LH209" s="1"/>
       <c r="LI209" s="1"/>
@@ -14607,7 +14832,7 @@
       <c r="ON209" s="1"/>
       <c r="OY209" s="1"/>
       <c r="PJ209" s="1"/>
-      <c r="PL209" s="5"/>
+      <c r="PL209" s="4"/>
       <c r="PU209" s="1"/>
       <c r="PV209" s="1"/>
       <c r="PW209" s="1"/>
@@ -14624,12 +14849,13 @@
       <c r="RX209" s="1"/>
     </row>
     <row r="210" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A210" s="7">
+      <c r="A210" s="6">
         <v>41000</v>
       </c>
-      <c r="B210" s="8">
+      <c r="B210" s="7">
         <v>9.5810214550751407E-2</v>
       </c>
+      <c r="C210" s="9"/>
       <c r="CG210" s="1"/>
       <c r="CH210" s="1"/>
       <c r="CI210" s="1"/>
@@ -14693,18 +14919,18 @@
       <c r="LL210" s="1"/>
       <c r="LM210" s="1"/>
       <c r="LO210" s="1"/>
-      <c r="LQ210" s="5"/>
+      <c r="LQ210" s="4"/>
       <c r="LZ210" s="1"/>
       <c r="MK210" s="1"/>
       <c r="MV210" s="1"/>
       <c r="NG210" s="1"/>
-      <c r="NI210" s="5"/>
+      <c r="NI210" s="4"/>
       <c r="NR210" s="1"/>
-      <c r="NT210" s="5"/>
+      <c r="NT210" s="4"/>
       <c r="OC210" s="1"/>
       <c r="ON210" s="1"/>
       <c r="OY210" s="1"/>
-      <c r="PA210" s="5"/>
+      <c r="PA210" s="4"/>
       <c r="PJ210" s="1"/>
       <c r="PU210" s="1"/>
       <c r="PV210" s="1"/>
@@ -14722,12 +14948,13 @@
       <c r="RX210" s="1"/>
     </row>
     <row r="211" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A211" s="7">
+      <c r="A211" s="6">
         <v>41030</v>
       </c>
-      <c r="B211" s="8">
+      <c r="B211" s="7">
         <v>0.10515093938008996</v>
       </c>
+      <c r="C211" s="9"/>
       <c r="CG211" s="1"/>
       <c r="CH211" s="1"/>
       <c r="CI211" s="1"/>
@@ -14816,12 +15043,13 @@
       <c r="RX211" s="1"/>
     </row>
     <row r="212" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A212" s="7">
+      <c r="A212" s="6">
         <v>41061</v>
       </c>
-      <c r="B212" s="8">
+      <c r="B212" s="7">
         <v>9.0817328850805651E-2</v>
       </c>
+      <c r="C212" s="9"/>
       <c r="CG212" s="1"/>
       <c r="CH212" s="1"/>
       <c r="CI212" s="1"/>
@@ -14892,7 +15120,7 @@
       <c r="NR212" s="1"/>
       <c r="OC212" s="1"/>
       <c r="ON212" s="1"/>
-      <c r="OP212" s="5"/>
+      <c r="OP212" s="4"/>
       <c r="OY212" s="1"/>
       <c r="PJ212" s="1"/>
       <c r="PU212" s="1"/>
@@ -14911,12 +15139,13 @@
       <c r="RX212" s="1"/>
     </row>
     <row r="213" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A213" s="7">
+      <c r="A213" s="6">
         <v>41091</v>
       </c>
-      <c r="B213" s="8">
+      <c r="B213" s="7">
         <v>9.198193035468108E-2</v>
       </c>
+      <c r="C213" s="9"/>
       <c r="CG213" s="1"/>
       <c r="CH213" s="1"/>
       <c r="CI213" s="1"/>
@@ -15005,12 +15234,13 @@
       <c r="RX213" s="1"/>
     </row>
     <row r="214" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A214" s="7">
+      <c r="A214" s="6">
         <v>41122</v>
       </c>
-      <c r="B214" s="8">
+      <c r="B214" s="7">
         <v>9.0527591621574741E-2</v>
       </c>
+      <c r="C214" s="9"/>
       <c r="CG214" s="1"/>
       <c r="CH214" s="1"/>
       <c r="CI214" s="1"/>
@@ -15099,12 +15329,13 @@
       <c r="RX214" s="1"/>
     </row>
     <row r="215" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A215" s="7">
+      <c r="A215" s="6">
         <v>41153</v>
       </c>
-      <c r="B215" s="8">
+      <c r="B215" s="7">
         <v>9.321029129473013E-2</v>
       </c>
+      <c r="C215" s="9"/>
       <c r="CG215" s="1"/>
       <c r="CH215" s="1"/>
       <c r="CI215" s="1"/>
@@ -15179,7 +15410,7 @@
       <c r="PJ215" s="1"/>
       <c r="PU215" s="1"/>
       <c r="PV215" s="1"/>
-      <c r="PW215" s="5"/>
+      <c r="PW215" s="4"/>
       <c r="PX215" s="1"/>
       <c r="PY215" s="1"/>
       <c r="PZ215" s="1"/>
@@ -15193,12 +15424,13 @@
       <c r="RX215" s="1"/>
     </row>
     <row r="216" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A216" s="7">
+      <c r="A216" s="6">
         <v>41183</v>
       </c>
-      <c r="B216" s="8">
+      <c r="B216" s="7">
         <v>9.2447998465240086E-2</v>
       </c>
+      <c r="C216" s="9"/>
       <c r="CG216" s="1"/>
       <c r="CH216" s="1"/>
       <c r="CI216" s="1"/>
@@ -15281,19 +15513,20 @@
       <c r="QB216" s="1"/>
       <c r="QC216" s="1"/>
       <c r="QD216" s="1"/>
-      <c r="QH216" s="5"/>
+      <c r="QH216" s="4"/>
       <c r="QQ216" s="1"/>
       <c r="RB216" s="1"/>
       <c r="RM216" s="1"/>
       <c r="RX216" s="1"/>
     </row>
     <row r="217" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A217" s="7">
+      <c r="A217" s="6">
         <v>41214</v>
       </c>
-      <c r="B217" s="8">
+      <c r="B217" s="7">
         <v>9.5606034425374312E-2</v>
       </c>
+      <c r="C217" s="9"/>
       <c r="CG217" s="1"/>
       <c r="CH217" s="1"/>
       <c r="CI217" s="1"/>
@@ -15382,12 +15615,13 @@
       <c r="RX217" s="1"/>
     </row>
     <row r="218" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A218" s="7">
+      <c r="A218" s="6">
         <v>41244</v>
       </c>
-      <c r="B218" s="8">
+      <c r="B218" s="7">
         <v>9.1047274906739667E-2</v>
       </c>
+      <c r="C218" s="9"/>
       <c r="CG218" s="1"/>
       <c r="CH218" s="1"/>
       <c r="CI218" s="1"/>
@@ -15476,12 +15710,13 @@
       <c r="RX218" s="1"/>
     </row>
     <row r="219" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A219" s="7">
+      <c r="A219" s="6">
         <v>41275</v>
       </c>
-      <c r="B219" s="8">
+      <c r="B219" s="7">
         <v>8.7449844192482862E-2</v>
       </c>
+      <c r="C219" s="9"/>
       <c r="CG219" s="1"/>
       <c r="CH219" s="1"/>
       <c r="CI219" s="1"/>
@@ -15570,12 +15805,13 @@
       <c r="RX219" s="1"/>
     </row>
     <row r="220" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A220" s="7">
+      <c r="A220" s="6">
         <v>41306</v>
       </c>
-      <c r="B220" s="8">
+      <c r="B220" s="7">
         <v>8.9884574591296298E-2</v>
       </c>
+      <c r="C220" s="9"/>
       <c r="CG220" s="1"/>
       <c r="CH220" s="1"/>
       <c r="CI220" s="1"/>
@@ -15664,12 +15900,13 @@
       <c r="RX220" s="1"/>
     </row>
     <row r="221" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A221" s="7">
+      <c r="A221" s="6">
         <v>41334</v>
       </c>
-      <c r="B221" s="8">
+      <c r="B221" s="7">
         <v>8.3440031175367746E-2</v>
       </c>
+      <c r="C221" s="9"/>
       <c r="CG221" s="1"/>
       <c r="CH221" s="1"/>
       <c r="CI221" s="1"/>
@@ -15709,11 +15946,11 @@
       <c r="EJ221" s="1"/>
       <c r="EU221" s="1"/>
       <c r="FF221" s="1"/>
-      <c r="FH221" s="5"/>
+      <c r="FH221" s="4"/>
       <c r="FQ221" s="1"/>
-      <c r="FS221" s="5"/>
+      <c r="FS221" s="4"/>
       <c r="GB221" s="1"/>
-      <c r="GD221" s="5"/>
+      <c r="GD221" s="4"/>
       <c r="GM221" s="1"/>
       <c r="GX221" s="1"/>
       <c r="HI221" s="1"/>
@@ -15761,12 +15998,13 @@
       <c r="RX221" s="1"/>
     </row>
     <row r="222" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A222" s="7">
+      <c r="A222" s="6">
         <v>41365</v>
       </c>
-      <c r="B222" s="8">
+      <c r="B222" s="7">
         <v>8.4749349865796034E-2</v>
       </c>
+      <c r="C222" s="9"/>
       <c r="PU222" s="1"/>
       <c r="PV222" s="1"/>
       <c r="PW222" s="1"/>
@@ -15779,12 +16017,13 @@
       <c r="QD222" s="1"/>
     </row>
     <row r="223" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A223" s="7">
+      <c r="A223" s="6">
         <v>41395</v>
       </c>
-      <c r="B223" s="8">
+      <c r="B223" s="7">
         <v>8.0522617175596833E-2</v>
       </c>
+      <c r="C223" s="9"/>
       <c r="PU223" s="1"/>
       <c r="PV223" s="1"/>
       <c r="PW223" s="1"/>
@@ -15797,12 +16036,13 @@
       <c r="QD223" s="1"/>
     </row>
     <row r="224" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A224" s="7">
+      <c r="A224" s="6">
         <v>41426</v>
       </c>
-      <c r="B224" s="8">
+      <c r="B224" s="7">
         <v>7.5014888373605801E-2</v>
       </c>
+      <c r="C224" s="9"/>
       <c r="PU224" s="1"/>
       <c r="PV224" s="1"/>
       <c r="PW224" s="1"/>
@@ -15815,12 +16055,13 @@
       <c r="QD224" s="1"/>
     </row>
     <row r="225" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A225" s="7">
+      <c r="A225" s="6">
         <v>41456</v>
       </c>
-      <c r="B225" s="8">
+      <c r="B225" s="7">
         <v>7.7769653801373628E-2</v>
       </c>
+      <c r="C225" s="9"/>
       <c r="PU225" s="1"/>
       <c r="PV225" s="1"/>
       <c r="PW225" s="1"/>
@@ -15833,12 +16074,13 @@
       <c r="QD225" s="1"/>
     </row>
     <row r="226" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A226" s="7">
+      <c r="A226" s="6">
         <v>41487</v>
       </c>
-      <c r="B226" s="8">
+      <c r="B226" s="7">
         <v>7.610915084711764E-2</v>
       </c>
+      <c r="C226" s="9"/>
       <c r="PU226" s="1"/>
       <c r="PV226" s="1"/>
       <c r="PW226" s="1"/>
@@ -15851,12 +16093,13 @@
       <c r="QD226" s="1"/>
     </row>
     <row r="227" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A227" s="7">
+      <c r="A227" s="6">
         <v>41518</v>
       </c>
-      <c r="B227" s="8">
+      <c r="B227" s="7">
         <v>7.4874558269219044E-2</v>
       </c>
+      <c r="C227" s="9"/>
       <c r="PU227" s="1"/>
       <c r="PV227" s="1"/>
       <c r="PW227" s="1"/>
@@ -15869,1007 +16112,1121 @@
       <c r="QD227" s="1"/>
     </row>
     <row r="228" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A228" s="7">
+      <c r="A228" s="6">
         <v>41548</v>
       </c>
-      <c r="B228" s="8">
+      <c r="B228" s="7">
         <v>7.3769426049519596E-2</v>
       </c>
+      <c r="C228" s="9"/>
     </row>
     <row r="229" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A229" s="7">
+      <c r="A229" s="6">
         <v>41579</v>
       </c>
-      <c r="B229" s="8">
+      <c r="B229" s="7">
         <v>7.9046521727427585E-2</v>
       </c>
+      <c r="C229" s="9"/>
     </row>
     <row r="230" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A230" s="7">
+      <c r="A230" s="6">
         <v>41609</v>
       </c>
-      <c r="B230" s="8">
+      <c r="B230" s="7">
         <v>7.5700418664925911E-2</v>
       </c>
+      <c r="C230" s="9"/>
     </row>
     <row r="231" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A231" s="7">
+      <c r="A231" s="6">
         <v>41640</v>
       </c>
-      <c r="B231" s="8">
+      <c r="B231" s="7">
         <v>8.4845263579311214E-2</v>
       </c>
+      <c r="C231" s="9"/>
     </row>
     <row r="232" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A232" s="7">
+      <c r="A232" s="6">
         <v>41671</v>
       </c>
-      <c r="B232" s="8">
+      <c r="B232" s="7">
         <v>8.4096940621738683E-2</v>
       </c>
+      <c r="C232" s="9"/>
     </row>
     <row r="233" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A233" s="7">
+      <c r="A233" s="6">
         <v>41699</v>
       </c>
-      <c r="B233" s="8">
+      <c r="B233" s="7">
         <v>9.5085723314460191E-2</v>
       </c>
+      <c r="C233" s="9"/>
     </row>
     <row r="234" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A234" s="7">
+      <c r="A234" s="6">
         <v>41730</v>
       </c>
-      <c r="B234" s="8">
+      <c r="B234" s="7">
         <v>9.6617836562715484E-2</v>
       </c>
+      <c r="C234" s="9"/>
     </row>
     <row r="235" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A235" s="7">
+      <c r="A235" s="6">
         <v>41760</v>
       </c>
-      <c r="B235" s="8">
+      <c r="B235" s="7">
         <v>9.8701160485128128E-2</v>
       </c>
+      <c r="C235" s="9"/>
     </row>
     <row r="236" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A236" s="7">
+      <c r="A236" s="6">
         <v>41791</v>
       </c>
-      <c r="B236" s="8">
+      <c r="B236" s="7">
         <v>9.4012780857948633E-2</v>
       </c>
+      <c r="C236" s="9"/>
     </row>
     <row r="237" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A237" s="7">
+      <c r="A237" s="6">
         <v>41821</v>
       </c>
-      <c r="B237" s="8">
+      <c r="B237" s="7">
         <v>9.5099368892112943E-2</v>
       </c>
+      <c r="C237" s="9"/>
     </row>
     <row r="238" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A238" s="7">
+      <c r="A238" s="6">
         <v>41852</v>
       </c>
-      <c r="B238" s="8">
+      <c r="B238" s="7">
         <v>9.5412122648390635E-2</v>
       </c>
+      <c r="C238" s="9"/>
     </row>
     <row r="239" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A239" s="7">
+      <c r="A239" s="6">
         <v>41883</v>
       </c>
-      <c r="B239" s="8">
+      <c r="B239" s="7">
         <v>8.2926779422991759E-2</v>
       </c>
+      <c r="C239" s="9"/>
     </row>
     <row r="240" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A240" s="7">
+      <c r="A240" s="6">
         <v>41913</v>
       </c>
-      <c r="B240" s="8">
+      <c r="B240" s="7">
         <v>8.7456378540700291E-2</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="7">
+      <c r="C240" s="9"/>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="6">
         <v>41944</v>
       </c>
-      <c r="B241" s="8">
+      <c r="B241" s="7">
         <v>9.0265236245787389E-2</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="7">
+      <c r="C241" s="9"/>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="6">
         <v>41974</v>
       </c>
-      <c r="B242" s="8">
+      <c r="B242" s="7">
         <v>9.0600536697358139E-2</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="7">
+      <c r="C242" s="9"/>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="6">
         <v>42005</v>
       </c>
-      <c r="B243" s="8">
+      <c r="B243" s="7">
         <v>0.10533016732361397</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="7">
+      <c r="C243" s="9"/>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="6">
         <v>42036</v>
       </c>
-      <c r="B244" s="8">
+      <c r="B244" s="7">
         <v>0.10379332898500528</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="7">
+      <c r="C244" s="9"/>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="6">
         <v>42064</v>
       </c>
-      <c r="B245" s="8">
+      <c r="B245" s="7">
         <v>0.10646618622058883</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="7">
+      <c r="C245" s="9"/>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="6">
         <v>42095</v>
       </c>
-      <c r="B246" s="8">
+      <c r="B246" s="7">
         <v>0.10277197692695453</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="7">
+      <c r="C246" s="9"/>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="6">
         <v>42125</v>
       </c>
-      <c r="B247" s="8">
+      <c r="B247" s="7">
         <v>0.10635981236621354</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="7">
+      <c r="C247" s="9"/>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="6">
         <v>42156</v>
       </c>
-      <c r="B248" s="8">
+      <c r="B248" s="7">
         <v>0.10243622729858951</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="7">
+      <c r="C248" s="9"/>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="6">
         <v>42186</v>
       </c>
-      <c r="B249" s="8">
+      <c r="B249" s="7">
         <v>0.10824745812912069</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="7">
+      <c r="C249" s="9"/>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="6">
         <v>42217</v>
       </c>
-      <c r="B250" s="8">
+      <c r="B250" s="7">
         <v>0.11309406133143306</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="7">
+      <c r="C250" s="9"/>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="6">
         <v>42248</v>
       </c>
-      <c r="B251" s="8">
+      <c r="B251" s="7">
         <v>9.9532565626062719E-2</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="7">
+      <c r="C251" s="9"/>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="6">
         <v>42278</v>
       </c>
-      <c r="B252" s="8">
+      <c r="B252" s="7">
         <v>9.7344609070752625E-2</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="7">
+      <c r="C252" s="9"/>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="6">
         <v>42309</v>
       </c>
-      <c r="B253" s="8">
+      <c r="B253" s="7">
         <v>9.6030564044979047E-2</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="7">
+      <c r="C253" s="9"/>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="6">
         <v>42339</v>
       </c>
-      <c r="B254" s="8">
+      <c r="B254" s="7">
         <v>9.7946408382498046E-2</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="7">
+      <c r="C254" s="9"/>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="6">
         <v>42370</v>
       </c>
-      <c r="B255" s="8">
+      <c r="B255" s="7">
         <v>0.10720725243654623</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="7">
+      <c r="C255" s="9"/>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="6">
         <v>42401</v>
       </c>
-      <c r="B256" s="8">
+      <c r="B256" s="7">
         <v>0.10623913533182294</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="7">
+      <c r="C256" s="9"/>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="6">
         <v>42430</v>
       </c>
-      <c r="B257" s="8">
+      <c r="B257" s="7">
         <v>9.6613329525373437E-2</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="7">
+      <c r="C257" s="9"/>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="6">
         <v>42461</v>
       </c>
-      <c r="B258" s="8">
+      <c r="B258" s="7">
         <v>9.07458717712184E-2</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="7">
+      <c r="C258" s="9"/>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="6">
         <v>42491</v>
       </c>
-      <c r="B259" s="8">
+      <c r="B259" s="7">
         <v>8.1503302413437381E-2</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" s="7">
+      <c r="C259" s="9"/>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="6">
         <v>42522</v>
       </c>
-      <c r="B260" s="8">
+      <c r="B260" s="7">
         <v>8.4903302413437381E-2</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="7">
+      <c r="C260" s="9"/>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="6">
         <v>42552</v>
       </c>
-      <c r="B261" s="8">
+      <c r="B261" s="7">
         <v>7.845432079176308E-2</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="7">
+      <c r="C261" s="9"/>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="6">
         <v>42583</v>
       </c>
-      <c r="B262" s="8">
+      <c r="B262" s="7">
         <v>7.7005107317431515E-2</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="7">
+      <c r="C262" s="9"/>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="6">
         <v>42614</v>
       </c>
-      <c r="B263" s="8">
+      <c r="B263" s="7">
         <v>7.9062490141365058E-2</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="7">
+      <c r="C263" s="9"/>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="6">
         <v>42644</v>
       </c>
-      <c r="B264" s="8">
+      <c r="B264" s="7">
         <v>9.0803823058582978E-2</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="7">
+      <c r="C264" s="9"/>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="6">
         <v>42675</v>
       </c>
-      <c r="B265" s="8">
+      <c r="B265" s="7">
         <v>8.1366322142554626E-2</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="7">
+      <c r="C265" s="9"/>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="6">
         <v>42705</v>
       </c>
-      <c r="B266" s="8">
+      <c r="B266" s="7">
         <v>8.5524440182112194E-2</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="7">
+      <c r="C266" s="9"/>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="6">
         <v>42736</v>
       </c>
-      <c r="B267" s="8">
+      <c r="B267" s="7">
         <v>8.3374527020277533E-2</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="7">
+      <c r="C267" s="9"/>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="6">
         <v>42767</v>
       </c>
-      <c r="B268" s="8">
+      <c r="B268" s="7">
         <v>8.2618737455347563E-2</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="7">
+      <c r="C268" s="9"/>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="6">
         <v>42795</v>
       </c>
-      <c r="B269" s="8">
+      <c r="B269" s="7">
         <v>8.2301802120567966E-2</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="7">
+      <c r="C269" s="9"/>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="6">
         <v>42826</v>
       </c>
-      <c r="B270" s="8">
+      <c r="B270" s="7">
         <v>7.9480761202343708E-2</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="7">
+      <c r="C270" s="9"/>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="6">
         <v>42856</v>
       </c>
-      <c r="B271" s="8">
+      <c r="B271" s="7">
         <v>8.3960752894154167E-2</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="7">
+      <c r="C271" s="9"/>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="6">
         <v>42887</v>
       </c>
-      <c r="B272" s="8">
+      <c r="B272" s="7">
         <v>8.2181900156117982E-2</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="7">
+      <c r="C272" s="9"/>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="6">
         <v>42917</v>
       </c>
-      <c r="B273" s="8">
+      <c r="B273" s="7">
         <v>7.8582383645718207E-2</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="7">
+      <c r="C273" s="9"/>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="6">
         <v>42948</v>
       </c>
-      <c r="B274" s="8">
+      <c r="B274" s="7">
         <v>7.3514830121311145E-2</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="7">
+      <c r="C274" s="9"/>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="6">
         <v>42979</v>
       </c>
-      <c r="B275" s="8">
+      <c r="B275" s="7">
         <v>7.1798584083836187E-2</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="7">
+      <c r="C275" s="9"/>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="6">
         <v>43009</v>
       </c>
-      <c r="B276" s="8">
+      <c r="B276" s="7">
         <v>7.0893601810297649E-2</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="7">
+      <c r="C276" s="9"/>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="6">
         <v>43040</v>
       </c>
-      <c r="B277" s="8">
+      <c r="B277" s="7">
         <v>6.1052757033422195E-2</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="7">
+      <c r="C277" s="9"/>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="6">
         <v>43070</v>
       </c>
-      <c r="B278" s="8">
+      <c r="B278" s="7">
         <v>6.7122786831106646E-2</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="7">
+      <c r="C278" s="9"/>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="6">
         <v>43101</v>
       </c>
-      <c r="B279" s="8">
+      <c r="B279" s="7">
         <v>5.7519098552337958E-2</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="7">
+      <c r="C279" s="9"/>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="6">
         <v>43132</v>
       </c>
-      <c r="B280" s="8">
+      <c r="B280" s="7">
         <v>6.5520472026066215E-2</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="7">
+      <c r="C280" s="9"/>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="6">
         <v>43160</v>
       </c>
-      <c r="B281" s="8">
+      <c r="B281" s="7">
         <v>7.2125770364620007E-2</v>
       </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="7">
+      <c r="C281" s="9"/>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="6">
         <v>43191</v>
       </c>
-      <c r="B282" s="8">
+      <c r="B282" s="7">
         <v>6.4064244291655609E-2</v>
       </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="7">
+      <c r="C282" s="9"/>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="6">
         <v>43221</v>
       </c>
-      <c r="B283" s="8">
+      <c r="B283" s="7">
         <v>7.1824635819149038E-2</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="7">
+      <c r="C283" s="9"/>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="6">
         <v>43252</v>
       </c>
-      <c r="B284" s="8">
+      <c r="B284" s="7">
         <v>7.9775179773577412E-2</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="7">
+      <c r="C284" s="9"/>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="6">
         <v>43282</v>
       </c>
-      <c r="B285" s="8">
+      <c r="B285" s="7">
         <v>9.1939861515753868E-2</v>
       </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="7">
+      <c r="C285" s="9"/>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="6">
         <v>43313</v>
       </c>
-      <c r="B286" s="8">
+      <c r="B286" s="7">
         <v>0.10101989540599204</v>
       </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="7">
+      <c r="C286" s="9"/>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="6">
         <v>43344</v>
       </c>
-      <c r="B287" s="8">
+      <c r="B287" s="7">
         <v>0.10496376393363561</v>
       </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="7">
+      <c r="C287" s="9"/>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="6">
         <v>43374</v>
       </c>
-      <c r="B288" s="8">
+      <c r="B288" s="7">
         <v>6.866534805367612E-2</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" s="7">
+      <c r="C288" s="9"/>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="6">
         <v>43405</v>
       </c>
-      <c r="B289" s="8">
+      <c r="B289" s="7">
         <v>7.7599591244769228E-2</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" s="7">
+      <c r="C289" s="9"/>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="6">
         <v>43435</v>
       </c>
-      <c r="B290" s="8">
+      <c r="B290" s="7">
         <v>7.6296518904752947E-2</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" s="7">
+      <c r="C290" s="9"/>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="6">
         <v>43466</v>
       </c>
-      <c r="B291" s="8">
+      <c r="B291" s="7">
         <v>7.1150211864005483E-2</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" s="7">
+      <c r="C291" s="9"/>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="6">
         <v>43497</v>
       </c>
-      <c r="B292" s="8">
+      <c r="B292" s="7">
         <v>7.4978703434071342E-2</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" s="7">
+      <c r="C292" s="9"/>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="6">
         <v>43525</v>
       </c>
-      <c r="B293" s="8">
+      <c r="B293" s="7">
         <v>8.1082222580664831E-2</v>
       </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" s="7">
+      <c r="C293" s="9"/>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="6">
         <v>43556</v>
       </c>
-      <c r="B294" s="8">
+      <c r="B294" s="7">
         <v>8.0864791172512426E-2</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" s="7">
+      <c r="C294" s="9"/>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="6">
         <v>43586</v>
       </c>
-      <c r="B295" s="8">
+      <c r="B295" s="7">
         <v>8.7764304038109517E-2</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" s="7">
+      <c r="C295" s="9"/>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="6">
         <v>43617</v>
       </c>
-      <c r="B296" s="8">
+      <c r="B296" s="7">
         <v>8.5839178787788323E-2</v>
       </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" s="7">
+      <c r="C296" s="9"/>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="6">
         <v>43647</v>
       </c>
-      <c r="B297" s="8">
+      <c r="B297" s="7">
         <v>8.9544717916765409E-2</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" s="7">
+      <c r="C297" s="9"/>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="6">
         <v>43678</v>
       </c>
-      <c r="B298" s="8">
+      <c r="B298" s="7">
         <v>9.687272744274146E-2</v>
       </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" s="7">
+      <c r="C298" s="9"/>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="6">
         <v>43709</v>
       </c>
-      <c r="B299" s="8">
+      <c r="B299" s="7">
         <v>9.4565670394992141E-2</v>
       </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" s="7">
+      <c r="C299" s="9"/>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="6">
         <v>43739</v>
       </c>
-      <c r="B300" s="8">
+      <c r="B300" s="7">
         <v>9.5998871332297536E-2</v>
       </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" s="7">
+      <c r="C300" s="9"/>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="6">
         <v>43770</v>
       </c>
-      <c r="B301" s="8">
+      <c r="B301" s="7">
         <v>9.0410180385752506E-2</v>
       </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" s="7">
+      <c r="C301" s="9"/>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="6">
         <v>43800</v>
       </c>
-      <c r="B302" s="8">
+      <c r="B302" s="7">
         <v>8.0346430039285821E-2</v>
       </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" s="7">
+      <c r="C302" s="9"/>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="6">
         <v>43831</v>
       </c>
-      <c r="B303" s="8">
+      <c r="B303" s="7">
         <v>8.8138805128154862E-2</v>
       </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" s="7">
+      <c r="C303" s="9"/>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="6">
         <v>43862</v>
       </c>
-      <c r="B304" s="8">
+      <c r="B304" s="7">
         <v>9.3984258626188408E-2</v>
       </c>
+      <c r="C304" s="9"/>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305" s="7">
+      <c r="A305" s="6">
         <v>43891</v>
       </c>
-      <c r="B305" s="8">
+      <c r="B305" s="7">
         <v>0.11444455602995118</v>
       </c>
+      <c r="C305" s="9"/>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A306" s="7">
+      <c r="A306" s="6">
         <v>43922</v>
       </c>
-      <c r="B306" s="8">
+      <c r="B306" s="7">
         <v>0.11883485001315314</v>
       </c>
+      <c r="C306" s="9"/>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A307" s="7">
+      <c r="A307" s="6">
         <v>43952</v>
       </c>
-      <c r="B307" s="8">
+      <c r="B307" s="7">
         <v>0.10802006518576782</v>
       </c>
+      <c r="C307" s="9"/>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308" s="7">
+      <c r="A308" s="6">
         <v>43983</v>
       </c>
-      <c r="B308" s="8">
+      <c r="B308" s="7">
         <v>0.10150000000000001</v>
       </c>
+      <c r="C308" s="9"/>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309" s="7">
+      <c r="A309" s="6">
         <v>44013</v>
       </c>
-      <c r="B309" s="8">
+      <c r="B309" s="7">
         <v>0.10394071190796175</v>
       </c>
+      <c r="C309" s="9"/>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310" s="7">
+      <c r="A310" s="6">
         <v>44044</v>
       </c>
-      <c r="B310" s="8">
+      <c r="B310" s="7">
         <v>9.8747906968658955E-2</v>
       </c>
+      <c r="C310" s="9"/>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311" s="7">
+      <c r="A311" s="6">
         <v>44075</v>
       </c>
-      <c r="B311" s="8">
+      <c r="B311" s="7">
         <v>0.10280377344670942</v>
       </c>
+      <c r="C311" s="9"/>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A312" s="7">
+      <c r="A312" s="6">
         <v>44105</v>
       </c>
-      <c r="B312" s="8">
+      <c r="B312" s="7">
         <v>0.1003081555378784</v>
       </c>
+      <c r="C312" s="9"/>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A313" s="7">
+      <c r="A313" s="6">
         <v>44136</v>
       </c>
-      <c r="B313" s="8">
+      <c r="B313" s="7">
         <v>9.4781090636132159E-2</v>
       </c>
+      <c r="C313" s="9"/>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314" s="7">
+      <c r="A314" s="6">
         <v>44166</v>
       </c>
-      <c r="B314" s="8">
+      <c r="B314" s="7">
         <v>9.9688114787269883E-2</v>
       </c>
-      <c r="C314" s="3"/>
+      <c r="C314" s="9"/>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A315" s="7">
+      <c r="A315" s="6">
         <v>44197</v>
       </c>
-      <c r="B315" s="8">
+      <c r="B315" s="7">
         <v>0.10345953791176479</v>
       </c>
-      <c r="C315" s="3"/>
+      <c r="C315" s="9"/>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316" s="7">
+      <c r="A316" s="6">
         <v>44228</v>
       </c>
-      <c r="B316" s="8">
+      <c r="B316" s="7">
         <v>9.9036976535253174E-2</v>
       </c>
-      <c r="C316" s="3"/>
+      <c r="C316" s="9"/>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A317" s="7">
+      <c r="A317" s="6">
         <v>44256</v>
       </c>
-      <c r="B317" s="8">
+      <c r="B317" s="7">
         <v>0.11202004609682872</v>
       </c>
-      <c r="C317" s="3"/>
+      <c r="C317" s="9"/>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A318" s="7">
+      <c r="A318" s="6">
         <v>44287</v>
       </c>
-      <c r="B318" s="8">
+      <c r="B318" s="7">
         <v>0.1105</v>
       </c>
-      <c r="C318" s="3"/>
+      <c r="C318" s="9"/>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A319" s="7">
+      <c r="A319" s="6">
         <v>44317</v>
       </c>
-      <c r="B319" s="8">
+      <c r="B319" s="7">
         <v>0.103756060197642</v>
       </c>
-      <c r="C319" s="3"/>
+      <c r="C319" s="9"/>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A320" s="7">
+      <c r="A320" s="6">
         <v>44348</v>
       </c>
-      <c r="B320" s="8">
+      <c r="B320" s="7">
         <v>0.11288777024068533</v>
       </c>
-      <c r="C320" s="3"/>
+      <c r="C320" s="9"/>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A321" s="7">
+      <c r="A321" s="6">
         <v>44378</v>
       </c>
-      <c r="B321" s="8">
+      <c r="B321" s="7">
         <v>0.1217</v>
       </c>
-      <c r="C321" s="3"/>
+      <c r="C321" s="9"/>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A322" s="7">
+      <c r="A322" s="6">
         <v>44409</v>
       </c>
-      <c r="B322" s="8">
+      <c r="B322" s="7">
         <v>0.11860470570232673</v>
       </c>
-      <c r="C322" s="3"/>
+      <c r="C322" s="9"/>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A323" s="7">
+      <c r="A323" s="6">
         <v>44440</v>
       </c>
-      <c r="B323" s="8">
+      <c r="B323" s="7">
         <v>0.15321467349306883</v>
       </c>
-      <c r="C323" s="3"/>
+      <c r="C323" s="9"/>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A324" s="7">
+      <c r="A324" s="6">
         <v>44470</v>
       </c>
-      <c r="B324" s="8">
+      <c r="B324" s="7">
         <v>0.1565</v>
       </c>
-      <c r="C324" s="3"/>
+      <c r="C324" s="9"/>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325" s="7">
+      <c r="A325" s="6">
         <v>44501</v>
       </c>
-      <c r="B325" s="8">
+      <c r="B325" s="7">
         <v>0.15480116295464194</v>
       </c>
-      <c r="C325" s="3"/>
+      <c r="C325" s="9"/>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A326" s="7">
+      <c r="A326" s="6">
         <v>44531</v>
       </c>
-      <c r="B326" s="8">
+      <c r="B326" s="7">
         <v>0.18086975473681763</v>
       </c>
-      <c r="C326" s="3"/>
+      <c r="C326" s="9"/>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327" s="7">
+      <c r="A327" s="6">
         <v>44562</v>
       </c>
-      <c r="B327" s="8">
+      <c r="B327" s="7">
         <v>0.15203711549166959</v>
       </c>
-      <c r="C327" s="3"/>
+      <c r="C327" s="9"/>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A328" s="7">
+      <c r="A328" s="6">
         <v>44593</v>
       </c>
-      <c r="B328" s="8">
+      <c r="B328" s="7">
         <v>0.15045086518646858</v>
       </c>
-      <c r="C328" s="3"/>
+      <c r="C328" s="9"/>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A329" s="7">
+      <c r="A329" s="6">
         <v>44621</v>
       </c>
-      <c r="B329" s="8">
+      <c r="B329" s="7">
         <v>0.13402699778646815</v>
       </c>
-      <c r="C329" s="3"/>
+      <c r="C329" s="9"/>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A330" s="7">
+      <c r="A330" s="6">
         <v>44652</v>
       </c>
-      <c r="B330" s="8">
+      <c r="B330" s="7">
         <v>0.13661550466927599</v>
       </c>
-      <c r="C330" s="3"/>
+      <c r="C330" s="9"/>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A331" s="7">
+      <c r="A331" s="6">
         <v>44682</v>
       </c>
-      <c r="B331" s="8">
+      <c r="B331" s="7">
         <v>0.1321</v>
       </c>
-      <c r="C331" s="3"/>
+      <c r="C331" s="9"/>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A332" s="7">
+      <c r="A332" s="6">
         <v>44713</v>
       </c>
-      <c r="B332" s="8">
+      <c r="B332" s="7">
         <v>0.16510000000000002</v>
       </c>
-      <c r="C332" s="3"/>
+      <c r="C332" s="9"/>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A333" s="7">
+      <c r="A333" s="6">
         <v>44743</v>
       </c>
-      <c r="B333" s="8">
+      <c r="B333" s="7">
         <v>0.1585</v>
       </c>
-      <c r="C333" s="3"/>
+      <c r="C333" s="9"/>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A334" s="7">
+      <c r="A334" s="6">
         <v>44774</v>
       </c>
-      <c r="B334" s="8">
+      <c r="B334" s="7">
         <v>0.1331</v>
       </c>
-      <c r="C334" s="3"/>
+      <c r="C334" s="9"/>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A335" s="7">
+      <c r="A335" s="6">
         <v>44805</v>
       </c>
-      <c r="B335" s="8">
+      <c r="B335" s="7">
         <v>0.14630000000000001</v>
       </c>
-      <c r="C335" s="3"/>
+      <c r="C335" s="9"/>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A336" s="7">
+      <c r="A336" s="6">
         <v>44835</v>
       </c>
-      <c r="B336" s="8">
+      <c r="B336" s="7">
         <v>0.1197</v>
       </c>
-      <c r="C336" s="3"/>
+      <c r="C336" s="9"/>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A337" s="7">
+      <c r="A337" s="6">
         <v>44866</v>
       </c>
-      <c r="B337" s="8">
+      <c r="B337" s="7">
         <v>0.1177</v>
       </c>
-      <c r="C337" s="3"/>
+      <c r="C337" s="9"/>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A338" s="7">
+      <c r="A338" s="6">
         <v>44896</v>
       </c>
-      <c r="B338" s="8">
+      <c r="B338" s="7">
         <v>0.1172183756433729</v>
       </c>
-      <c r="C338" s="3"/>
+      <c r="C338" s="9"/>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A339" s="7">
+      <c r="A339" s="6">
         <v>44927</v>
       </c>
-      <c r="B339" s="8">
+      <c r="B339" s="7">
         <v>0.112566</v>
       </c>
-      <c r="C339" s="3"/>
+      <c r="C339" s="9"/>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A340" s="7">
+      <c r="A340" s="6">
         <v>44958</v>
       </c>
-      <c r="B340" s="8">
+      <c r="B340" s="7">
         <v>0.10406600000000001</v>
       </c>
-      <c r="C340" s="3"/>
+      <c r="C340" s="9"/>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A341" s="7">
+      <c r="A341" s="6">
         <v>44986</v>
       </c>
-      <c r="B341" s="8">
+      <c r="B341" s="7">
         <v>0.100060632666334</v>
       </c>
-      <c r="C341" s="3"/>
+      <c r="C341" s="9"/>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A342" s="7">
+      <c r="A342" s="6">
         <v>45017</v>
       </c>
-      <c r="B342" s="8">
+      <c r="B342" s="7">
         <v>9.7161250237506505E-2</v>
       </c>
-      <c r="C342" s="3"/>
+      <c r="C342" s="9"/>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A343" s="7">
+      <c r="A343" s="6">
         <v>45047</v>
       </c>
-      <c r="B343" s="8">
+      <c r="B343" s="7">
         <v>9.6838061660370997E-2</v>
       </c>
+      <c r="C343" s="9"/>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A344" s="7">
+      <c r="A344" s="6">
         <v>45078</v>
       </c>
-      <c r="B344" s="8">
+      <c r="B344" s="7">
         <v>8.4097029271563706E-2</v>
       </c>
-      <c r="C344" s="3"/>
+      <c r="C344" s="9"/>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A345" s="7">
+      <c r="A345" s="6">
         <v>45108</v>
       </c>
-      <c r="B345" s="8">
+      <c r="B345" s="7">
         <v>7.9421854001553702E-2</v>
       </c>
+      <c r="C345" s="9"/>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A346" s="7">
+      <c r="A346" s="6">
         <v>45139</v>
       </c>
-      <c r="B346" s="8">
+      <c r="B346" s="7">
         <v>8.8703735811575105E-2</v>
       </c>
-      <c r="D346" s="3"/>
+      <c r="C346" s="9"/>
+      <c r="D346" s="2"/>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A347" s="7">
+      <c r="A347" s="6">
         <v>45170</v>
       </c>
-      <c r="B347" s="8">
+      <c r="B347" s="7">
         <v>8.69610556503468E-2</v>
       </c>
+      <c r="C347" s="9"/>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A348" s="7">
+      <c r="A348" s="6">
         <v>45200</v>
       </c>
-      <c r="B348" s="8">
+      <c r="B348" s="7">
         <v>8.5154952330852907E-2</v>
       </c>
-      <c r="C348" s="10"/>
+      <c r="C348" s="9"/>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A349" s="2"/>
+      <c r="A349" s="6">
+        <v>45231</v>
+      </c>
+      <c r="B349" s="7">
+        <v>9.2767735220062306E-2</v>
+      </c>
+      <c r="C349" s="9"/>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B352" s="10"/>
+      <c r="C352" s="9"/>
+    </row>
+    <row r="353" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B353" s="10"/>
+      <c r="C353" s="9"/>
+    </row>
+    <row r="354" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B354" s="11"/>
+      <c r="C354" s="9"/>
+    </row>
+    <row r="355" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C355" s="9"/>
+    </row>
+    <row r="356" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C356" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:B2" xr:uid="{00000000-0001-0000-0000-000000000000}">

--- a/Database/Serie de Equity Risk Premium.xlsx
+++ b/Database/Serie de Equity Risk Premium.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bteba\Documents\Github\ERP\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bteba\Documents\GitHub\ERP\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98482026-E023-4AD6-8E48-410CAAA5D3B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1E7793-30AE-4EAA-BD5B-A2C599E03184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -112,10 +112,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -255,10 +258,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Planilha1!$A$3:$A$379</c:f>
+              <c:f>Planilha1!$A$3:$A$380</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="377"/>
+                <c:ptCount val="378"/>
                 <c:pt idx="0">
                   <c:v>34700</c:v>
                 </c:pt>
@@ -1296,16 +1299,22 @@
                 </c:pt>
                 <c:pt idx="345">
                   <c:v>45200</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>45231</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>45261</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$B$3:$B$379</c:f>
+              <c:f>Planilha1!$B$3:$B$380</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="377"/>
+                <c:ptCount val="378"/>
                 <c:pt idx="0">
                   <c:v>3.5906071097335332E-2</c:v>
                 </c:pt>
@@ -2343,6 +2352,12 @@
                 </c:pt>
                 <c:pt idx="345">
                   <c:v>8.5154952330852907E-2</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>9.2767735220062306E-2</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>8.8146226677963901E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3424,10 +3439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:RX349"/>
+  <dimension ref="A1:RX356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A317" workbookViewId="0">
-      <selection activeCell="B347" sqref="B347"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3444,10 +3459,10 @@
       </c>
     </row>
     <row r="2" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="CG2" s="1"/>
@@ -3483,12 +3498,13 @@
       <c r="RX2" s="1"/>
     </row>
     <row r="3" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="8">
         <v>34700</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="9">
         <v>3.5906071097335332E-2</v>
       </c>
+      <c r="C3" s="4"/>
       <c r="CG3" s="1"/>
       <c r="CH3" s="1"/>
       <c r="CI3" s="1"/>
@@ -3520,12 +3536,13 @@
       <c r="RX3" s="1"/>
     </row>
     <row r="4" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="8">
         <v>34731</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="9">
         <v>4.641371511935781E-2</v>
       </c>
+      <c r="C4" s="4"/>
       <c r="CG4" s="1"/>
       <c r="CH4" s="1"/>
       <c r="CI4" s="1"/>
@@ -3557,12 +3574,13 @@
       <c r="RX4" s="1"/>
     </row>
     <row r="5" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="8">
         <v>34759</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <v>6.8188691890601116E-2</v>
       </c>
+      <c r="C5" s="4"/>
       <c r="CG5" s="1"/>
       <c r="CH5" s="1"/>
       <c r="CI5" s="1"/>
@@ -3593,12 +3611,13 @@
       <c r="RX5" s="1"/>
     </row>
     <row r="6" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="8">
         <v>34790</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="9">
         <v>9.0011601145643869E-2</v>
       </c>
+      <c r="C6" s="4"/>
       <c r="CG6" s="1"/>
       <c r="CH6" s="1"/>
       <c r="CI6" s="1"/>
@@ -3627,12 +3646,13 @@
       <c r="RM6" s="1"/>
     </row>
     <row r="7" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="8">
         <v>34820</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="9">
         <v>9.9496073670305801E-2</v>
       </c>
+      <c r="C7" s="4"/>
       <c r="CG7" s="1"/>
       <c r="CH7" s="1"/>
       <c r="CI7" s="1"/>
@@ -3660,12 +3680,13 @@
       <c r="RM7" s="1"/>
     </row>
     <row r="8" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="8">
         <v>34851</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="9">
         <v>0.11863771466397069</v>
       </c>
+      <c r="C8" s="4"/>
       <c r="CG8" s="1"/>
       <c r="CH8" s="1"/>
       <c r="CI8" s="1"/>
@@ -3693,12 +3714,13 @@
       <c r="RM8" s="1"/>
     </row>
     <row r="9" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="8">
         <v>34881</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="9">
         <v>0.1181146572660678</v>
       </c>
+      <c r="C9" s="4"/>
       <c r="CG9" s="1"/>
       <c r="CH9" s="1"/>
       <c r="CI9" s="1"/>
@@ -3716,12 +3738,13 @@
       <c r="RM9" s="1"/>
     </row>
     <row r="10" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="8">
         <v>34912</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="9">
         <v>0.11925440378813899</v>
       </c>
+      <c r="C10" s="4"/>
       <c r="CG10" s="1"/>
       <c r="CH10" s="1"/>
       <c r="CI10" s="1"/>
@@ -3738,12 +3761,13 @@
       <c r="RM10" s="1"/>
     </row>
     <row r="11" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="8">
         <v>34943</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="9">
         <v>8.0427229515112636E-2</v>
       </c>
+      <c r="C11" s="4"/>
       <c r="CG11" s="1"/>
       <c r="CH11" s="1"/>
       <c r="CI11" s="1"/>
@@ -3760,12 +3784,13 @@
       <c r="RM11" s="1"/>
     </row>
     <row r="12" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="8">
         <v>34973</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="9">
         <v>9.2888414728135582E-2</v>
       </c>
+      <c r="C12" s="4"/>
       <c r="CG12" s="1"/>
       <c r="CH12" s="1"/>
       <c r="CI12" s="1"/>
@@ -3781,12 +3806,13 @@
       <c r="RM12" s="1"/>
     </row>
     <row r="13" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="8">
         <v>35004</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="9">
         <v>0.10118496200041718</v>
       </c>
+      <c r="C13" s="4"/>
       <c r="CG13" s="1"/>
       <c r="CH13" s="1"/>
       <c r="CI13" s="1"/>
@@ -3802,12 +3828,13 @@
       <c r="RM13" s="1"/>
     </row>
     <row r="14" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="8">
         <v>35034</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="9">
         <v>0.10732542683580969</v>
       </c>
+      <c r="C14" s="4"/>
       <c r="CG14" s="1"/>
       <c r="CH14" s="1"/>
       <c r="CI14" s="1"/>
@@ -3821,12 +3848,13 @@
       <c r="OY14" s="1"/>
     </row>
     <row r="15" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15" s="8">
         <v>35065</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="9">
         <v>9.1621260099534085E-2</v>
       </c>
+      <c r="C15" s="4"/>
       <c r="CG15" s="1"/>
       <c r="CH15" s="1"/>
       <c r="CI15" s="1"/>
@@ -3840,665 +3868,731 @@
       <c r="OY15" s="1"/>
     </row>
     <row r="16" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="A16" s="8">
         <v>35096</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="9">
         <v>8.4905503970074639E-2</v>
       </c>
+      <c r="C16" s="4"/>
       <c r="CP16" s="1"/>
     </row>
     <row r="17" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="A17" s="8">
         <v>35125</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="9">
         <v>0.10049276040389069</v>
       </c>
+      <c r="C17" s="4"/>
       <c r="CP17" s="1"/>
     </row>
     <row r="18" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="A18" s="8">
         <v>35156</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="9">
         <v>9.6531384813158941E-2</v>
       </c>
+      <c r="C18" s="4"/>
       <c r="CP18" s="1"/>
     </row>
     <row r="19" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="A19" s="8">
         <v>35186</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="9">
         <v>9.5088188666882692E-2</v>
       </c>
+      <c r="C19" s="4"/>
       <c r="CP19" s="1"/>
     </row>
     <row r="20" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="A20" s="8">
         <v>35217</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="9">
         <v>9.0796583575804307E-2</v>
       </c>
+      <c r="C20" s="4"/>
       <c r="CP20" s="1"/>
     </row>
     <row r="21" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="A21" s="8">
         <v>35247</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="9">
         <v>9.2623876599203819E-2</v>
       </c>
+      <c r="C21" s="4"/>
       <c r="CP21" s="1"/>
     </row>
     <row r="22" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="A22" s="8">
         <v>35278</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="9">
         <v>9.1099901245860898E-2</v>
       </c>
+      <c r="C22" s="4"/>
       <c r="CP22" s="1"/>
     </row>
     <row r="23" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+      <c r="A23" s="8">
         <v>35309</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="9">
         <v>9.2854806609296375E-2</v>
       </c>
+      <c r="C23" s="4"/>
       <c r="CP23" s="1"/>
     </row>
     <row r="24" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="A24" s="8">
         <v>35339</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="9">
         <v>0.10127373741409153</v>
       </c>
+      <c r="C24" s="4"/>
       <c r="CP24" s="1"/>
     </row>
     <row r="25" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+      <c r="A25" s="8">
         <v>35370</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="9">
         <v>0.10142804442282341</v>
       </c>
+      <c r="C25" s="4"/>
       <c r="CP25" s="1"/>
     </row>
     <row r="26" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
+      <c r="A26" s="8">
         <v>35400</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="9">
         <v>9.9700000278104189E-2</v>
       </c>
+      <c r="C26" s="4"/>
       <c r="CP26" s="1"/>
     </row>
     <row r="27" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
+      <c r="A27" s="8">
         <v>35431</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="9">
         <v>9.7052332691215076E-2</v>
       </c>
+      <c r="C27" s="4"/>
       <c r="CP27" s="1"/>
     </row>
     <row r="28" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
+      <c r="A28" s="8">
         <v>35462</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="9">
         <v>9.1057142830797522E-2</v>
       </c>
+      <c r="C28" s="4"/>
       <c r="CP28" s="1"/>
     </row>
     <row r="29" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
+      <c r="A29" s="8">
         <v>35490</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="9">
         <v>8.6177248797735806E-2</v>
       </c>
+      <c r="C29" s="4"/>
       <c r="CP29" s="1"/>
     </row>
     <row r="30" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
+      <c r="A30" s="8">
         <v>35521</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="9">
         <v>8.5066948095953776E-2</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
+      <c r="C30" s="4"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
       <c r="CP30" s="1"/>
     </row>
     <row r="31" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
+      <c r="A31" s="8">
         <v>35551</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="9">
         <v>9.7288837160340563E-2</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
+      <c r="C31" s="4"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
       <c r="CP31" s="1"/>
     </row>
     <row r="32" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
+      <c r="A32" s="8">
         <v>35582</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="9">
         <v>9.6957468174919514E-2</v>
       </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
+      <c r="C32" s="4"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
       <c r="CP32" s="1"/>
     </row>
     <row r="33" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
+      <c r="A33" s="8">
         <v>35612</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="9">
         <v>9.8258192485687817E-2</v>
       </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
+      <c r="C33" s="4"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
       <c r="CP33" s="1"/>
     </row>
     <row r="34" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
+      <c r="A34" s="8">
         <v>35643</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="9">
         <v>0.10071108991221206</v>
       </c>
-      <c r="L34" s="6"/>
+      <c r="C34" s="4"/>
+      <c r="L34" s="7"/>
       <c r="CP34" s="1"/>
     </row>
     <row r="35" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
+      <c r="A35" s="8">
         <v>35674</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="9">
         <v>9.4101292650451321E-2</v>
       </c>
+      <c r="C35" s="4"/>
       <c r="CP35" s="1"/>
     </row>
     <row r="36" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
+      <c r="A36" s="8">
         <v>35704</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="9">
         <v>0.1022443853346008</v>
       </c>
+      <c r="C36" s="4"/>
       <c r="CP36" s="1"/>
     </row>
     <row r="37" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
+      <c r="A37" s="8">
         <v>35735</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="9">
         <v>0.11673503599412813</v>
       </c>
+      <c r="C37" s="4"/>
       <c r="CP37" s="1"/>
     </row>
     <row r="38" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
+      <c r="A38" s="8">
         <v>35765</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="9">
         <v>0.12868892588777975</v>
       </c>
+      <c r="C38" s="4"/>
       <c r="CP38" s="1"/>
     </row>
     <row r="39" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
+      <c r="A39" s="8">
         <v>35796</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="9">
         <v>0.13246738378006745</v>
       </c>
+      <c r="C39" s="4"/>
       <c r="CP39" s="1"/>
     </row>
     <row r="40" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
+      <c r="A40" s="8">
         <v>35827</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="9">
         <v>0.12192540989307418</v>
       </c>
+      <c r="C40" s="4"/>
       <c r="CP40" s="1"/>
     </row>
     <row r="41" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
+      <c r="A41" s="8">
         <v>35855</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="9">
         <v>0.11858185629167939</v>
       </c>
+      <c r="C41" s="4"/>
       <c r="CP41" s="1"/>
     </row>
     <row r="42" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
+      <c r="A42" s="8">
         <v>35886</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="9">
         <v>0.11009539820274278</v>
       </c>
+      <c r="C42" s="4"/>
       <c r="CP42" s="1"/>
     </row>
     <row r="43" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
+      <c r="A43" s="8">
         <v>35916</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="9">
         <v>0.14815671762109539</v>
       </c>
+      <c r="C43" s="4"/>
       <c r="CP43" s="1"/>
     </row>
     <row r="44" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
+      <c r="A44" s="8">
         <v>35947</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44" s="9">
         <v>0.16414072309545738</v>
       </c>
+      <c r="C44" s="4"/>
       <c r="CP44" s="1"/>
     </row>
     <row r="45" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
+      <c r="A45" s="8">
         <v>35977</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="9">
         <v>0.15684487547919845</v>
       </c>
+      <c r="C45" s="4"/>
       <c r="CP45" s="1"/>
     </row>
     <row r="46" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
+      <c r="A46" s="8">
         <v>36008</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="9">
         <v>0.20761986410571115</v>
       </c>
+      <c r="C46" s="4"/>
       <c r="CP46" s="1"/>
     </row>
     <row r="47" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
+      <c r="A47" s="8">
         <v>36039</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="9">
         <v>0.26488372425157419</v>
       </c>
+      <c r="C47" s="4"/>
       <c r="CP47" s="1"/>
     </row>
     <row r="48" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
+      <c r="A48" s="8">
         <v>36069</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="9">
         <v>0.27386908893169182</v>
       </c>
+      <c r="C48" s="4"/>
       <c r="CP48" s="1"/>
     </row>
     <row r="49" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
+      <c r="A49" s="8">
         <v>36100</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="9">
         <v>0.23368482800820384</v>
       </c>
+      <c r="C49" s="4"/>
       <c r="CP49" s="1"/>
     </row>
     <row r="50" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
+      <c r="A50" s="8">
         <v>36130</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50" s="9">
         <v>0.19728157436806892</v>
       </c>
+      <c r="C50" s="4"/>
       <c r="CP50" s="1"/>
     </row>
     <row r="51" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
+      <c r="A51" s="8">
         <v>36161</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51" s="9">
         <v>0.18849719620951449</v>
       </c>
-      <c r="D51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="5"/>
       <c r="CP51" s="1"/>
     </row>
     <row r="52" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
+      <c r="A52" s="8">
         <v>36192</v>
       </c>
-      <c r="B52" s="8">
+      <c r="B52" s="9">
         <v>0.17879547863724937</v>
       </c>
-      <c r="D52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="5"/>
       <c r="CP52" s="1"/>
     </row>
     <row r="53" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A53" s="7">
+      <c r="A53" s="8">
         <v>36220</v>
       </c>
-      <c r="B53" s="8">
+      <c r="B53" s="9">
         <v>0.19521218246374467</v>
       </c>
-      <c r="D53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="5"/>
       <c r="CP53" s="1"/>
     </row>
     <row r="54" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A54" s="7">
+      <c r="A54" s="8">
         <v>36251</v>
       </c>
-      <c r="B54" s="8">
+      <c r="B54" s="9">
         <v>0.17667737273699313</v>
       </c>
-      <c r="D54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="5"/>
       <c r="CP54" s="1"/>
     </row>
     <row r="55" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A55" s="7">
+      <c r="A55" s="8">
         <v>36281</v>
       </c>
-      <c r="B55" s="8">
+      <c r="B55" s="9">
         <v>0.17240854293261376</v>
       </c>
-      <c r="D55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="5"/>
       <c r="CP55" s="1"/>
     </row>
     <row r="56" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A56" s="7">
+      <c r="A56" s="8">
         <v>36312</v>
       </c>
-      <c r="B56" s="8">
+      <c r="B56" s="9">
         <v>0.15905547118167043</v>
       </c>
-      <c r="D56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="5"/>
       <c r="CP56" s="1"/>
     </row>
     <row r="57" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A57" s="7">
+      <c r="A57" s="8">
         <v>36342</v>
       </c>
-      <c r="B57" s="8">
+      <c r="B57" s="9">
         <v>0.15865389804394955</v>
       </c>
-      <c r="D57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="5"/>
       <c r="CP57" s="1"/>
     </row>
     <row r="58" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A58" s="7">
+      <c r="A58" s="8">
         <v>36373</v>
       </c>
-      <c r="B58" s="8">
+      <c r="B58" s="9">
         <v>0.15275419272689961</v>
       </c>
-      <c r="D58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="5"/>
       <c r="CP58" s="1"/>
     </row>
     <row r="59" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A59" s="7">
+      <c r="A59" s="8">
         <v>36404</v>
       </c>
-      <c r="B59" s="8">
+      <c r="B59" s="9">
         <v>0.13159865421370617</v>
       </c>
-      <c r="D59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="5"/>
       <c r="CP59" s="1"/>
     </row>
     <row r="60" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A60" s="7">
+      <c r="A60" s="8">
         <v>36434</v>
       </c>
-      <c r="B60" s="8">
+      <c r="B60" s="9">
         <v>0.12196728595845485</v>
       </c>
-      <c r="D60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="5"/>
       <c r="CP60" s="1"/>
     </row>
     <row r="61" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A61" s="7">
+      <c r="A61" s="8">
         <v>36465</v>
       </c>
-      <c r="B61" s="8">
+      <c r="B61" s="9">
         <v>0.10437517943413213</v>
       </c>
-      <c r="D61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="5"/>
       <c r="CP61" s="1"/>
     </row>
     <row r="62" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A62" s="7">
+      <c r="A62" s="8">
         <v>36495</v>
       </c>
-      <c r="B62" s="8">
+      <c r="B62" s="9">
         <v>8.4895285767080067E-2</v>
       </c>
-      <c r="D62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="5"/>
       <c r="CP62" s="1"/>
     </row>
     <row r="63" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A63" s="7">
+      <c r="A63" s="8">
         <v>36526</v>
       </c>
-      <c r="B63" s="8">
+      <c r="B63" s="9">
         <v>8.0964220165040707E-2</v>
       </c>
-      <c r="D63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="5"/>
       <c r="CP63" s="1"/>
     </row>
     <row r="64" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A64" s="7">
+      <c r="A64" s="8">
         <v>36557</v>
       </c>
-      <c r="B64" s="8">
+      <c r="B64" s="9">
         <v>8.5143819747368649E-2</v>
       </c>
-      <c r="D64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="5"/>
       <c r="CP64" s="1"/>
     </row>
     <row r="65" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A65" s="7">
+      <c r="A65" s="8">
         <v>36586</v>
       </c>
-      <c r="B65" s="8">
+      <c r="B65" s="9">
         <v>9.4432793059799777E-2</v>
       </c>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
       <c r="CP65" s="1"/>
     </row>
     <row r="66" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A66" s="7">
+      <c r="A66" s="8">
         <v>36617</v>
       </c>
-      <c r="B66" s="8">
+      <c r="B66" s="9">
         <v>0.1068984082862578</v>
       </c>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
       <c r="CP66" s="1"/>
     </row>
     <row r="67" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A67" s="7">
+      <c r="A67" s="8">
         <v>36647</v>
       </c>
-      <c r="B67" s="8">
+      <c r="B67" s="9">
         <v>0.10194024162250852</v>
       </c>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
       <c r="CP67" s="1"/>
     </row>
     <row r="68" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A68" s="7">
+      <c r="A68" s="8">
         <v>36678</v>
       </c>
-      <c r="B68" s="8">
+      <c r="B68" s="9">
         <v>0.11520688931942046</v>
       </c>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
       <c r="CP68" s="1"/>
     </row>
     <row r="69" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A69" s="7">
+      <c r="A69" s="8">
         <v>36708</v>
       </c>
-      <c r="B69" s="8">
+      <c r="B69" s="9">
         <v>0.10847862629401375</v>
       </c>
-      <c r="E69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="E69" s="5"/>
       <c r="CP69" s="1"/>
     </row>
     <row r="70" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A70" s="7">
+      <c r="A70" s="8">
         <v>36739</v>
       </c>
-      <c r="B70" s="8">
+      <c r="B70" s="9">
         <v>0.11669317806908461</v>
       </c>
-      <c r="E70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="E70" s="5"/>
       <c r="CP70" s="1"/>
     </row>
     <row r="71" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A71" s="7">
+      <c r="A71" s="8">
         <v>36770</v>
       </c>
-      <c r="B71" s="8">
+      <c r="B71" s="9">
         <v>0.12461879502315275</v>
       </c>
-      <c r="E71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="E71" s="5"/>
       <c r="CP71" s="1"/>
     </row>
     <row r="72" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A72" s="7">
+      <c r="A72" s="8">
         <v>36800</v>
       </c>
-      <c r="B72" s="8">
+      <c r="B72" s="9">
         <v>0.12350351608453644</v>
       </c>
-      <c r="E72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="E72" s="5"/>
       <c r="CP72" s="1"/>
     </row>
     <row r="73" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A73" s="7">
+      <c r="A73" s="8">
         <v>36831</v>
       </c>
-      <c r="B73" s="8">
+      <c r="B73" s="9">
         <v>0.13624280260074831</v>
       </c>
-      <c r="E73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="E73" s="5"/>
       <c r="CP73" s="1"/>
     </row>
     <row r="74" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A74" s="7">
+      <c r="A74" s="8">
         <v>36861</v>
       </c>
-      <c r="B74" s="8">
+      <c r="B74" s="9">
         <v>0.10449451374749155</v>
       </c>
-      <c r="E74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="E74" s="5"/>
       <c r="CP74" s="1"/>
     </row>
     <row r="75" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A75" s="7">
+      <c r="A75" s="8">
         <v>36892</v>
       </c>
-      <c r="B75" s="8">
+      <c r="B75" s="9">
         <v>9.8078739800215115E-2</v>
       </c>
-      <c r="E75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="E75" s="5"/>
       <c r="CP75" s="1"/>
     </row>
     <row r="76" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A76" s="7">
+      <c r="A76" s="8">
         <v>36923</v>
       </c>
-      <c r="B76" s="8">
+      <c r="B76" s="9">
         <v>9.4986612102584869E-2</v>
       </c>
-      <c r="E76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="E76" s="5"/>
       <c r="CP76" s="1"/>
     </row>
     <row r="77" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A77" s="7">
+      <c r="A77" s="8">
         <v>36951</v>
       </c>
-      <c r="B77" s="8">
+      <c r="B77" s="9">
         <v>0.10943199261845223</v>
       </c>
-      <c r="E77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="E77" s="5"/>
       <c r="CP77" s="1"/>
     </row>
     <row r="78" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A78" s="7">
+      <c r="A78" s="8">
         <v>36982</v>
       </c>
-      <c r="B78" s="8">
+      <c r="B78" s="9">
         <v>0.10230821441197835</v>
       </c>
-      <c r="E78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="E78" s="5"/>
       <c r="CP78" s="1"/>
     </row>
     <row r="79" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A79" s="7">
+      <c r="A79" s="8">
         <v>37012</v>
       </c>
-      <c r="B79" s="8">
+      <c r="B79" s="9">
         <v>0.11448510925596571</v>
       </c>
-      <c r="E79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="E79" s="5"/>
       <c r="CP79" s="1"/>
     </row>
     <row r="80" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A80" s="7">
+      <c r="A80" s="8">
         <v>37043</v>
       </c>
-      <c r="B80" s="8">
+      <c r="B80" s="9">
         <v>0.12205193419326613</v>
       </c>
-      <c r="E80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="E80" s="5"/>
       <c r="CP80" s="1"/>
     </row>
     <row r="81" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A81" s="7">
+      <c r="A81" s="8">
         <v>37073</v>
       </c>
-      <c r="B81" s="8">
+      <c r="B81" s="9">
         <v>0.12472087316217893</v>
       </c>
-      <c r="E81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="E81" s="5"/>
       <c r="CP81" s="1"/>
       <c r="DC81" s="1"/>
       <c r="DE81" s="1"/>
@@ -4510,12 +4604,13 @@
       <c r="DK81" s="1"/>
     </row>
     <row r="82" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A82" s="7">
+      <c r="A82" s="8">
         <v>37104</v>
       </c>
-      <c r="B82" s="8">
+      <c r="B82" s="9">
         <v>0.13164962330151575</v>
       </c>
+      <c r="C82" s="4"/>
       <c r="CP82" s="1"/>
       <c r="DC82" s="1"/>
       <c r="DE82" s="1"/>
@@ -4527,12 +4622,13 @@
       <c r="DK82" s="1"/>
     </row>
     <row r="83" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A83" s="7">
+      <c r="A83" s="8">
         <v>37135</v>
       </c>
-      <c r="B83" s="8">
+      <c r="B83" s="9">
         <v>0.16920274455915726</v>
       </c>
+      <c r="C83" s="4"/>
       <c r="CP83" s="1"/>
       <c r="DC83" s="1"/>
       <c r="DE83" s="1"/>
@@ -4545,12 +4641,13 @@
       <c r="FQ83" s="1"/>
     </row>
     <row r="84" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A84" s="7">
+      <c r="A84" s="8">
         <v>37165</v>
       </c>
-      <c r="B84" s="8">
+      <c r="B84" s="9">
         <v>0.16487384010580458</v>
       </c>
+      <c r="C84" s="4"/>
       <c r="CP84" s="1"/>
       <c r="DC84" s="1"/>
       <c r="DE84" s="1"/>
@@ -4563,12 +4660,13 @@
       <c r="FQ84" s="1"/>
     </row>
     <row r="85" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A85" s="7">
+      <c r="A85" s="8">
         <v>37196</v>
       </c>
-      <c r="B85" s="8">
+      <c r="B85" s="9">
         <v>0.14485365882340293</v>
       </c>
+      <c r="C85" s="4"/>
       <c r="CP85" s="1"/>
       <c r="DC85" s="1"/>
       <c r="DE85" s="1"/>
@@ -4581,12 +4679,13 @@
       <c r="FQ85" s="1"/>
     </row>
     <row r="86" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A86" s="7">
+      <c r="A86" s="8">
         <v>37226</v>
       </c>
-      <c r="B86" s="8">
+      <c r="B86" s="9">
         <v>0.12057147500114479</v>
       </c>
+      <c r="C86" s="4"/>
       <c r="CP86" s="1"/>
       <c r="DC86" s="1"/>
       <c r="DE86" s="1"/>
@@ -4599,12 +4698,13 @@
       <c r="FQ86" s="1"/>
     </row>
     <row r="87" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A87" s="7">
+      <c r="A87" s="8">
         <v>37257</v>
       </c>
-      <c r="B87" s="8">
+      <c r="B87" s="9">
         <v>0.12028644057053653</v>
       </c>
+      <c r="C87" s="4"/>
       <c r="CP87" s="1"/>
       <c r="DC87" s="1"/>
       <c r="DE87" s="1"/>
@@ -4617,12 +4717,13 @@
       <c r="FQ87" s="1"/>
     </row>
     <row r="88" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A88" s="7">
+      <c r="A88" s="8">
         <v>37288</v>
       </c>
-      <c r="B88" s="8">
+      <c r="B88" s="9">
         <v>0.11585635189852062</v>
       </c>
+      <c r="C88" s="4"/>
       <c r="CP88" s="1"/>
       <c r="DC88" s="1"/>
       <c r="DE88" s="1"/>
@@ -4635,12 +4736,13 @@
       <c r="FQ88" s="1"/>
     </row>
     <row r="89" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A89" s="7">
+      <c r="A89" s="8">
         <v>37316</v>
       </c>
-      <c r="B89" s="8">
+      <c r="B89" s="9">
         <v>0.12274527752297042</v>
       </c>
+      <c r="C89" s="4"/>
       <c r="CP89" s="1"/>
       <c r="DC89" s="1"/>
       <c r="DE89" s="1"/>
@@ -4654,12 +4756,13 @@
       <c r="FQ89" s="1"/>
     </row>
     <row r="90" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A90" s="7">
+      <c r="A90" s="8">
         <v>37347</v>
       </c>
-      <c r="B90" s="8">
+      <c r="B90" s="9">
         <v>0.12101568147782529</v>
       </c>
+      <c r="C90" s="4"/>
       <c r="CP90" s="1"/>
       <c r="DC90" s="1"/>
       <c r="DE90" s="1"/>
@@ -4673,12 +4776,13 @@
       <c r="FQ90" s="1"/>
     </row>
     <row r="91" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A91" s="7">
+      <c r="A91" s="8">
         <v>37377</v>
       </c>
-      <c r="B91" s="8">
+      <c r="B91" s="9">
         <v>0.13834911739732181</v>
       </c>
+      <c r="C91" s="4"/>
       <c r="CP91" s="1"/>
       <c r="DC91" s="1"/>
       <c r="DE91" s="1"/>
@@ -4692,12 +4796,13 @@
       <c r="FQ91" s="1"/>
     </row>
     <row r="92" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A92" s="7">
+      <c r="A92" s="8">
         <v>37408</v>
       </c>
-      <c r="B92" s="8">
+      <c r="B92" s="9">
         <v>0.13898444661446926</v>
       </c>
+      <c r="C92" s="4"/>
       <c r="CP92" s="1"/>
       <c r="DC92" s="1"/>
       <c r="DE92" s="1"/>
@@ -4712,12 +4817,13 @@
       <c r="FQ92" s="1"/>
     </row>
     <row r="93" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A93" s="7">
+      <c r="A93" s="8">
         <v>37438</v>
       </c>
-      <c r="B93" s="8">
+      <c r="B93" s="9">
         <v>0.15154676452080135</v>
       </c>
+      <c r="C93" s="4"/>
       <c r="CP93" s="1"/>
       <c r="DC93" s="1"/>
       <c r="DE93" s="1"/>
@@ -4732,12 +4838,13 @@
       <c r="FQ93" s="1"/>
     </row>
     <row r="94" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A94" s="7">
+      <c r="A94" s="8">
         <v>37469</v>
       </c>
-      <c r="B94" s="8">
+      <c r="B94" s="9">
         <v>0.14914501917668246</v>
       </c>
+      <c r="C94" s="4"/>
       <c r="CP94" s="1"/>
       <c r="DC94" s="1"/>
       <c r="DE94" s="1"/>
@@ -4752,12 +4859,13 @@
       <c r="FQ94" s="1"/>
     </row>
     <row r="95" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A95" s="7">
+      <c r="A95" s="8">
         <v>37500</v>
       </c>
-      <c r="B95" s="8">
+      <c r="B95" s="9">
         <v>0.17729158577688089</v>
       </c>
+      <c r="C95" s="4"/>
       <c r="CP95" s="1"/>
       <c r="DC95" s="1"/>
       <c r="DE95" s="1"/>
@@ -4773,12 +4881,13 @@
       <c r="GX95" s="1"/>
     </row>
     <row r="96" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A96" s="7">
+      <c r="A96" s="8">
         <v>37530</v>
       </c>
-      <c r="B96" s="8">
+      <c r="B96" s="9">
         <v>0.16158417270187989</v>
       </c>
+      <c r="C96" s="4"/>
       <c r="CP96" s="1"/>
       <c r="DC96" s="1"/>
       <c r="DE96" s="1"/>
@@ -4794,12 +4903,13 @@
       <c r="GX96" s="1"/>
     </row>
     <row r="97" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A97" s="7">
+      <c r="A97" s="8">
         <v>37561</v>
       </c>
-      <c r="B97" s="8">
+      <c r="B97" s="9">
         <v>0.15765516285709646</v>
       </c>
+      <c r="C97" s="4"/>
       <c r="CG97" s="1"/>
       <c r="CH97" s="1"/>
       <c r="CI97" s="1"/>
@@ -4825,12 +4935,13 @@
       <c r="QQ97" s="1"/>
     </row>
     <row r="98" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A98" s="7">
+      <c r="A98" s="8">
         <v>37591</v>
       </c>
-      <c r="B98" s="8">
+      <c r="B98" s="9">
         <v>0.16155516390609645</v>
       </c>
+      <c r="C98" s="4"/>
       <c r="CG98" s="1"/>
       <c r="CH98" s="1"/>
       <c r="CI98" s="1"/>
@@ -4856,12 +4967,13 @@
       <c r="QQ98" s="1"/>
     </row>
     <row r="99" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A99" s="7">
+      <c r="A99" s="8">
         <v>37622</v>
       </c>
-      <c r="B99" s="8">
+      <c r="B99" s="9">
         <v>0.16721818984210535</v>
       </c>
+      <c r="C99" s="4"/>
       <c r="CG99" s="1"/>
       <c r="CH99" s="1"/>
       <c r="CI99" s="1"/>
@@ -4896,12 +5008,13 @@
       <c r="QQ99" s="1"/>
     </row>
     <row r="100" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A100" s="7">
+      <c r="A100" s="8">
         <v>37653</v>
       </c>
-      <c r="B100" s="8">
+      <c r="B100" s="9">
         <v>0.16873740603929704</v>
       </c>
+      <c r="C100" s="4"/>
       <c r="CG100" s="1"/>
       <c r="CH100" s="1"/>
       <c r="CI100" s="1"/>
@@ -4946,12 +5059,13 @@
       <c r="QQ100" s="1"/>
     </row>
     <row r="101" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A101" s="7">
+      <c r="A101" s="8">
         <v>37681</v>
       </c>
-      <c r="B101" s="8">
+      <c r="B101" s="9">
         <v>0.17960657789052537</v>
       </c>
+      <c r="C101" s="4"/>
       <c r="CG101" s="1"/>
       <c r="CH101" s="1"/>
       <c r="CI101" s="1"/>
@@ -4997,12 +5111,13 @@
       <c r="QQ101" s="1"/>
     </row>
     <row r="102" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A102" s="7">
+      <c r="A102" s="8">
         <v>37712</v>
       </c>
-      <c r="B102" s="8">
+      <c r="B102" s="9">
         <v>0.17370103158576525</v>
       </c>
+      <c r="C102" s="4"/>
       <c r="CG102" s="1"/>
       <c r="CH102" s="1"/>
       <c r="CI102" s="1"/>
@@ -5048,12 +5163,13 @@
       <c r="QQ102" s="1"/>
     </row>
     <row r="103" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A103" s="7">
+      <c r="A103" s="8">
         <v>37742</v>
       </c>
-      <c r="B103" s="8">
+      <c r="B103" s="9">
         <v>0.17745962817797939</v>
       </c>
+      <c r="C103" s="4"/>
       <c r="CG103" s="1"/>
       <c r="CH103" s="1"/>
       <c r="CI103" s="1"/>
@@ -5100,12 +5216,13 @@
       <c r="QQ103" s="1"/>
     </row>
     <row r="104" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A104" s="7">
+      <c r="A104" s="8">
         <v>37773</v>
       </c>
-      <c r="B104" s="8">
+      <c r="B104" s="9">
         <v>0.17353423821042152</v>
       </c>
+      <c r="C104" s="4"/>
       <c r="CG104" s="1"/>
       <c r="CH104" s="1"/>
       <c r="CI104" s="1"/>
@@ -5153,12 +5270,13 @@
       <c r="QQ104" s="1"/>
     </row>
     <row r="105" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A105" s="7">
+      <c r="A105" s="8">
         <v>37803</v>
       </c>
-      <c r="B105" s="8">
+      <c r="B105" s="9">
         <v>0.16443232371464103</v>
       </c>
+      <c r="C105" s="4"/>
       <c r="CG105" s="1"/>
       <c r="CH105" s="1"/>
       <c r="CI105" s="1"/>
@@ -5206,12 +5324,13 @@
       <c r="QQ105" s="1"/>
     </row>
     <row r="106" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A106" s="7">
+      <c r="A106" s="8">
         <v>37834</v>
       </c>
-      <c r="B106" s="8">
+      <c r="B106" s="9">
         <v>0.16083606998584948</v>
       </c>
+      <c r="C106" s="4"/>
       <c r="CG106" s="1"/>
       <c r="CH106" s="1"/>
       <c r="CI106" s="1"/>
@@ -5260,12 +5379,13 @@
       <c r="QQ106" s="1"/>
     </row>
     <row r="107" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A107" s="7">
+      <c r="A107" s="8">
         <v>37865</v>
       </c>
-      <c r="B107" s="8">
+      <c r="B107" s="9">
         <v>0.19762447566023092</v>
       </c>
+      <c r="C107" s="4"/>
       <c r="CG107" s="1"/>
       <c r="CH107" s="1"/>
       <c r="CI107" s="1"/>
@@ -5318,12 +5438,13 @@
       <c r="RX107" s="1"/>
     </row>
     <row r="108" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A108" s="7">
+      <c r="A108" s="8">
         <v>37895</v>
       </c>
-      <c r="B108" s="8">
+      <c r="B108" s="9">
         <v>0.18706253495325156</v>
       </c>
+      <c r="C108" s="4"/>
       <c r="CG108" s="1"/>
       <c r="CH108" s="1"/>
       <c r="CI108" s="1"/>
@@ -5376,12 +5497,13 @@
       <c r="RX108" s="1"/>
     </row>
     <row r="109" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A109" s="7">
+      <c r="A109" s="8">
         <v>37926</v>
       </c>
-      <c r="B109" s="8">
+      <c r="B109" s="9">
         <v>0.18579912866791054</v>
       </c>
+      <c r="C109" s="4"/>
       <c r="CG109" s="1"/>
       <c r="CH109" s="1"/>
       <c r="CI109" s="1"/>
@@ -5436,12 +5558,13 @@
       <c r="RX109" s="1"/>
     </row>
     <row r="110" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A110" s="7">
+      <c r="A110" s="8">
         <v>37956</v>
       </c>
-      <c r="B110" s="8">
+      <c r="B110" s="9">
         <v>0.15228963728645464</v>
       </c>
+      <c r="C110" s="4"/>
       <c r="CG110" s="1"/>
       <c r="CH110" s="1"/>
       <c r="CI110" s="1"/>
@@ -5498,12 +5621,13 @@
       <c r="RX110" s="1"/>
     </row>
     <row r="111" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A111" s="7">
+      <c r="A111" s="8">
         <v>37987</v>
       </c>
-      <c r="B111" s="8">
+      <c r="B111" s="9">
         <v>0.14979423018271038</v>
       </c>
+      <c r="C111" s="4"/>
       <c r="CG111" s="1"/>
       <c r="CH111" s="1"/>
       <c r="CI111" s="1"/>
@@ -5560,12 +5684,13 @@
       <c r="RX111" s="1"/>
     </row>
     <row r="112" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A112" s="7">
+      <c r="A112" s="8">
         <v>38018</v>
       </c>
-      <c r="B112" s="8">
+      <c r="B112" s="9">
         <v>0.15531103806729979</v>
       </c>
+      <c r="C112" s="4"/>
       <c r="CG112" s="1"/>
       <c r="CH112" s="1"/>
       <c r="CI112" s="1"/>
@@ -5622,12 +5747,13 @@
       <c r="RX112" s="1"/>
     </row>
     <row r="113" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A113" s="7">
+      <c r="A113" s="8">
         <v>38047</v>
       </c>
-      <c r="B113" s="8">
+      <c r="B113" s="9">
         <v>0.15189953279944524</v>
       </c>
+      <c r="C113" s="4"/>
       <c r="CG113" s="1"/>
       <c r="CH113" s="1"/>
       <c r="CI113" s="1"/>
@@ -5686,12 +5812,13 @@
       <c r="RX113" s="1"/>
     </row>
     <row r="114" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A114" s="7">
+      <c r="A114" s="8">
         <v>38078</v>
       </c>
-      <c r="B114" s="8">
+      <c r="B114" s="9">
         <v>0.14238155308795486</v>
       </c>
+      <c r="C114" s="4"/>
       <c r="CG114" s="1"/>
       <c r="CH114" s="1"/>
       <c r="CI114" s="1"/>
@@ -5751,12 +5878,13 @@
       <c r="RX114" s="1"/>
     </row>
     <row r="115" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A115" s="7">
+      <c r="A115" s="8">
         <v>38108</v>
       </c>
-      <c r="B115" s="8">
+      <c r="B115" s="9">
         <v>0.13993688563245948</v>
       </c>
+      <c r="C115" s="4"/>
       <c r="CG115" s="1"/>
       <c r="CH115" s="1"/>
       <c r="CI115" s="1"/>
@@ -5827,12 +5955,13 @@
       <c r="RX115" s="1"/>
     </row>
     <row r="116" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A116" s="7">
+      <c r="A116" s="8">
         <v>38139</v>
       </c>
-      <c r="B116" s="8">
+      <c r="B116" s="9">
         <v>0.13205156859518685</v>
       </c>
+      <c r="C116" s="4"/>
       <c r="CG116" s="1"/>
       <c r="CH116" s="1"/>
       <c r="CI116" s="1"/>
@@ -5914,12 +6043,13 @@
       <c r="RX116" s="1"/>
     </row>
     <row r="117" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A117" s="7">
+      <c r="A117" s="8">
         <v>38169</v>
       </c>
-      <c r="B117" s="8">
+      <c r="B117" s="9">
         <v>0.1321356483644931</v>
       </c>
+      <c r="C117" s="4"/>
       <c r="CG117" s="1"/>
       <c r="CH117" s="1"/>
       <c r="CI117" s="1"/>
@@ -6003,12 +6133,13 @@
       <c r="RX117" s="1"/>
     </row>
     <row r="118" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A118" s="7">
+      <c r="A118" s="8">
         <v>38200</v>
       </c>
-      <c r="B118" s="8">
+      <c r="B118" s="9">
         <v>0.13235416398227642</v>
       </c>
+      <c r="C118" s="4"/>
       <c r="CG118" s="1"/>
       <c r="CH118" s="1"/>
       <c r="CI118" s="1"/>
@@ -6092,12 +6223,13 @@
       <c r="RX118" s="1"/>
     </row>
     <row r="119" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A119" s="7">
+      <c r="A119" s="8">
         <v>38231</v>
       </c>
-      <c r="B119" s="8">
+      <c r="B119" s="9">
         <v>0.14198841003714582</v>
       </c>
+      <c r="C119" s="4"/>
       <c r="CG119" s="1"/>
       <c r="CH119" s="1"/>
       <c r="CI119" s="1"/>
@@ -6181,12 +6313,13 @@
       <c r="RX119" s="1"/>
     </row>
     <row r="120" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A120" s="7">
+      <c r="A120" s="8">
         <v>38261</v>
       </c>
-      <c r="B120" s="8">
+      <c r="B120" s="9">
         <v>0.14054340020098038</v>
       </c>
+      <c r="C120" s="4"/>
       <c r="CG120" s="1"/>
       <c r="CH120" s="1"/>
       <c r="CI120" s="1"/>
@@ -6270,12 +6403,13 @@
       <c r="RX120" s="1"/>
     </row>
     <row r="121" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A121" s="7">
+      <c r="A121" s="8">
         <v>38292</v>
       </c>
-      <c r="B121" s="8">
+      <c r="B121" s="9">
         <v>0.13208337856049901</v>
       </c>
+      <c r="C121" s="4"/>
       <c r="CG121" s="1"/>
       <c r="CH121" s="1"/>
       <c r="CI121" s="1"/>
@@ -6360,12 +6494,13 @@
       <c r="RX121" s="1"/>
     </row>
     <row r="122" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A122" s="7">
+      <c r="A122" s="8">
         <v>38322</v>
       </c>
-      <c r="B122" s="8">
+      <c r="B122" s="9">
         <v>0.13722393226951568</v>
       </c>
+      <c r="C122" s="4"/>
       <c r="CG122" s="1"/>
       <c r="CH122" s="1"/>
       <c r="CI122" s="1"/>
@@ -6450,12 +6585,13 @@
       <c r="RX122" s="1"/>
     </row>
     <row r="123" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A123" s="7">
+      <c r="A123" s="8">
         <v>38353</v>
       </c>
-      <c r="B123" s="8">
+      <c r="B123" s="9">
         <v>0.13998031470880479</v>
       </c>
+      <c r="C123" s="4"/>
       <c r="CG123" s="1"/>
       <c r="CH123" s="1"/>
       <c r="CI123" s="1"/>
@@ -6540,12 +6676,13 @@
       <c r="RX123" s="1"/>
     </row>
     <row r="124" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A124" s="7">
+      <c r="A124" s="8">
         <v>38384</v>
       </c>
-      <c r="B124" s="8">
+      <c r="B124" s="9">
         <v>0.14381330437458539</v>
       </c>
+      <c r="C124" s="4"/>
       <c r="CG124" s="1"/>
       <c r="CH124" s="1"/>
       <c r="CI124" s="1"/>
@@ -6632,12 +6769,13 @@
       <c r="RX124" s="1"/>
     </row>
     <row r="125" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A125" s="7">
+      <c r="A125" s="8">
         <v>38412</v>
       </c>
-      <c r="B125" s="8">
+      <c r="B125" s="9">
         <v>0.13883886128708484</v>
       </c>
+      <c r="C125" s="4"/>
       <c r="CG125" s="1"/>
       <c r="CH125" s="1"/>
       <c r="CI125" s="1"/>
@@ -6724,12 +6862,13 @@
       <c r="RX125" s="1"/>
     </row>
     <row r="126" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A126" s="7">
+      <c r="A126" s="8">
         <v>38443</v>
       </c>
-      <c r="B126" s="8">
+      <c r="B126" s="9">
         <v>0.14223096597630486</v>
       </c>
+      <c r="C126" s="4"/>
       <c r="CG126" s="1"/>
       <c r="CH126" s="1"/>
       <c r="CI126" s="1"/>
@@ -6816,12 +6955,13 @@
       <c r="RX126" s="1"/>
     </row>
     <row r="127" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A127" s="7">
+      <c r="A127" s="8">
         <v>38473</v>
       </c>
-      <c r="B127" s="8">
+      <c r="B127" s="9">
         <v>0.15130856651883109</v>
       </c>
+      <c r="C127" s="4"/>
       <c r="CG127" s="1"/>
       <c r="CH127" s="1"/>
       <c r="CI127" s="1"/>
@@ -6909,12 +7049,13 @@
       <c r="RX127" s="1"/>
     </row>
     <row r="128" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A128" s="7">
+      <c r="A128" s="8">
         <v>38504</v>
       </c>
-      <c r="B128" s="8">
+      <c r="B128" s="9">
         <v>0.17613645867084826</v>
       </c>
+      <c r="C128" s="4"/>
       <c r="CG128" s="1"/>
       <c r="CH128" s="1"/>
       <c r="CI128" s="1"/>
@@ -7003,12 +7144,13 @@
       <c r="RX128" s="1"/>
     </row>
     <row r="129" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A129" s="7">
+      <c r="A129" s="8">
         <v>38534</v>
       </c>
-      <c r="B129" s="8">
+      <c r="B129" s="9">
         <v>0.17526795031368764</v>
       </c>
+      <c r="C129" s="4"/>
       <c r="CG129" s="1"/>
       <c r="CH129" s="1"/>
       <c r="CI129" s="1"/>
@@ -7097,12 +7239,13 @@
       <c r="RX129" s="1"/>
     </row>
     <row r="130" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A130" s="7">
+      <c r="A130" s="8">
         <v>38565</v>
       </c>
-      <c r="B130" s="8">
+      <c r="B130" s="9">
         <v>0.17356897074457586</v>
       </c>
+      <c r="C130" s="4"/>
       <c r="CG130" s="1"/>
       <c r="CH130" s="1"/>
       <c r="CI130" s="1"/>
@@ -7191,12 +7334,13 @@
       <c r="RX130" s="1"/>
     </row>
     <row r="131" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A131" s="7">
+      <c r="A131" s="8">
         <v>38596</v>
       </c>
-      <c r="B131" s="8">
+      <c r="B131" s="9">
         <v>0.13496571144618535</v>
       </c>
+      <c r="C131" s="4"/>
       <c r="CG131" s="1"/>
       <c r="CH131" s="1"/>
       <c r="CI131" s="1"/>
@@ -7285,12 +7429,13 @@
       <c r="RX131" s="1"/>
     </row>
     <row r="132" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A132" s="7">
+      <c r="A132" s="8">
         <v>38626</v>
       </c>
-      <c r="B132" s="8">
+      <c r="B132" s="9">
         <v>0.13393339678506488</v>
       </c>
+      <c r="C132" s="4"/>
       <c r="CG132" s="1"/>
       <c r="CH132" s="1"/>
       <c r="CI132" s="1"/>
@@ -7379,12 +7524,13 @@
       <c r="RX132" s="1"/>
     </row>
     <row r="133" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A133" s="7">
+      <c r="A133" s="8">
         <v>38657</v>
       </c>
-      <c r="B133" s="8">
+      <c r="B133" s="9">
         <v>0.13831045015123039</v>
       </c>
+      <c r="C133" s="4"/>
       <c r="CG133" s="1"/>
       <c r="CH133" s="1"/>
       <c r="CI133" s="1"/>
@@ -7473,12 +7619,13 @@
       <c r="RX133" s="1"/>
     </row>
     <row r="134" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A134" s="7">
+      <c r="A134" s="8">
         <v>38687</v>
       </c>
-      <c r="B134" s="8">
+      <c r="B134" s="9">
         <v>0.12603299570326587</v>
       </c>
+      <c r="C134" s="4"/>
       <c r="CG134" s="1"/>
       <c r="CH134" s="1"/>
       <c r="CI134" s="1"/>
@@ -7567,12 +7714,13 @@
       <c r="RX134" s="1"/>
     </row>
     <row r="135" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A135" s="7">
+      <c r="A135" s="8">
         <v>38718</v>
       </c>
-      <c r="B135" s="8">
+      <c r="B135" s="9">
         <v>0.12251013261185581</v>
       </c>
+      <c r="C135" s="4"/>
       <c r="CG135" s="1"/>
       <c r="CH135" s="1"/>
       <c r="CI135" s="1"/>
@@ -7661,12 +7809,13 @@
       <c r="RX135" s="1"/>
     </row>
     <row r="136" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A136" s="7">
+      <c r="A136" s="8">
         <v>38749</v>
       </c>
-      <c r="B136" s="8">
+      <c r="B136" s="9">
         <v>0.11689155988668461</v>
       </c>
+      <c r="C136" s="4"/>
       <c r="CG136" s="1"/>
       <c r="CH136" s="1"/>
       <c r="CI136" s="1"/>
@@ -7755,12 +7904,13 @@
       <c r="RX136" s="1"/>
     </row>
     <row r="137" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A137" s="7">
+      <c r="A137" s="8">
         <v>38777</v>
       </c>
-      <c r="B137" s="8">
+      <c r="B137" s="9">
         <v>0.11182793411322625</v>
       </c>
+      <c r="C137" s="4"/>
       <c r="CG137" s="1"/>
       <c r="CH137" s="1"/>
       <c r="CI137" s="1"/>
@@ -7849,12 +7999,13 @@
       <c r="RX137" s="1"/>
     </row>
     <row r="138" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A138" s="7">
+      <c r="A138" s="8">
         <v>38808</v>
       </c>
-      <c r="B138" s="8">
+      <c r="B138" s="9">
         <v>0.1062966817216436</v>
       </c>
+      <c r="C138" s="4"/>
       <c r="CG138" s="1"/>
       <c r="CH138" s="1"/>
       <c r="CI138" s="1"/>
@@ -7943,12 +8094,13 @@
       <c r="RX138" s="1"/>
     </row>
     <row r="139" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A139" s="7">
+      <c r="A139" s="8">
         <v>38838</v>
       </c>
-      <c r="B139" s="8">
+      <c r="B139" s="9">
         <v>0.10685897585166657</v>
       </c>
+      <c r="C139" s="4"/>
       <c r="CG139" s="1"/>
       <c r="CH139" s="1"/>
       <c r="CI139" s="1"/>
@@ -8037,12 +8189,13 @@
       <c r="RX139" s="1"/>
     </row>
     <row r="140" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A140" s="7">
+      <c r="A140" s="8">
         <v>38869</v>
       </c>
-      <c r="B140" s="8">
+      <c r="B140" s="9">
         <v>0.10321059015113987</v>
       </c>
+      <c r="C140" s="4"/>
       <c r="CG140" s="1"/>
       <c r="CH140" s="1"/>
       <c r="CI140" s="1"/>
@@ -8131,12 +8284,13 @@
       <c r="RX140" s="1"/>
     </row>
     <row r="141" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A141" s="7">
+      <c r="A141" s="8">
         <v>38899</v>
       </c>
-      <c r="B141" s="8">
+      <c r="B141" s="9">
         <v>0.1042737605249823</v>
       </c>
+      <c r="C141" s="4"/>
       <c r="CG141" s="1"/>
       <c r="CH141" s="1"/>
       <c r="CI141" s="1"/>
@@ -8225,12 +8379,13 @@
       <c r="RX141" s="1"/>
     </row>
     <row r="142" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A142" s="7">
+      <c r="A142" s="8">
         <v>38930</v>
       </c>
-      <c r="B142" s="8">
+      <c r="B142" s="9">
         <v>9.9191823334113305E-2</v>
       </c>
+      <c r="C142" s="4"/>
       <c r="CG142" s="1"/>
       <c r="CH142" s="1"/>
       <c r="CI142" s="1"/>
@@ -8319,12 +8474,13 @@
       <c r="RX142" s="1"/>
     </row>
     <row r="143" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A143" s="7">
+      <c r="A143" s="8">
         <v>38961</v>
       </c>
-      <c r="B143" s="8">
+      <c r="B143" s="9">
         <v>9.7977952179741312E-2</v>
       </c>
+      <c r="C143" s="4"/>
       <c r="CG143" s="1"/>
       <c r="CH143" s="1"/>
       <c r="CI143" s="1"/>
@@ -8413,12 +8569,13 @@
       <c r="RX143" s="1"/>
     </row>
     <row r="144" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A144" s="7">
+      <c r="A144" s="8">
         <v>38991</v>
       </c>
-      <c r="B144" s="8">
+      <c r="B144" s="9">
         <v>9.5864636506678785E-2</v>
       </c>
+      <c r="C144" s="4"/>
       <c r="CG144" s="1"/>
       <c r="CH144" s="1"/>
       <c r="CI144" s="1"/>
@@ -8507,12 +8664,13 @@
       <c r="RX144" s="1"/>
     </row>
     <row r="145" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A145" s="7">
+      <c r="A145" s="8">
         <v>39022</v>
       </c>
-      <c r="B145" s="8">
+      <c r="B145" s="9">
         <v>8.8506947539146508E-2</v>
       </c>
+      <c r="C145" s="4"/>
       <c r="CG145" s="1"/>
       <c r="CH145" s="1"/>
       <c r="CI145" s="1"/>
@@ -8601,12 +8759,13 @@
       <c r="RX145" s="1"/>
     </row>
     <row r="146" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A146" s="7">
+      <c r="A146" s="8">
         <v>39052</v>
       </c>
-      <c r="B146" s="8">
+      <c r="B146" s="9">
         <v>8.2991557693164242E-2</v>
       </c>
+      <c r="C146" s="4"/>
       <c r="CG146" s="1"/>
       <c r="CH146" s="1"/>
       <c r="CI146" s="1"/>
@@ -8695,12 +8854,13 @@
       <c r="RX146" s="1"/>
     </row>
     <row r="147" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A147" s="7">
+      <c r="A147" s="8">
         <v>39083</v>
       </c>
-      <c r="B147" s="8">
+      <c r="B147" s="9">
         <v>7.7215118349207135E-2</v>
       </c>
+      <c r="C147" s="4"/>
       <c r="CG147" s="1"/>
       <c r="CH147" s="1"/>
       <c r="CI147" s="1"/>
@@ -8789,12 +8949,13 @@
       <c r="RX147" s="1"/>
     </row>
     <row r="148" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A148" s="7">
+      <c r="A148" s="8">
         <v>39114</v>
       </c>
-      <c r="B148" s="8">
+      <c r="B148" s="9">
         <v>7.9397037241236174E-2</v>
       </c>
+      <c r="C148" s="4"/>
       <c r="CG148" s="1"/>
       <c r="CH148" s="1"/>
       <c r="CI148" s="1"/>
@@ -8883,12 +9044,13 @@
       <c r="RX148" s="1"/>
     </row>
     <row r="149" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A149" s="7">
+      <c r="A149" s="8">
         <v>39142</v>
       </c>
-      <c r="B149" s="8">
+      <c r="B149" s="9">
         <v>9.5585255682960557E-2</v>
       </c>
+      <c r="C149" s="4"/>
       <c r="CG149" s="1"/>
       <c r="CH149" s="1"/>
       <c r="CI149" s="1"/>
@@ -8977,12 +9139,13 @@
       <c r="RX149" s="1"/>
     </row>
     <row r="150" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A150" s="7">
+      <c r="A150" s="8">
         <v>39173</v>
       </c>
-      <c r="B150" s="8">
+      <c r="B150" s="9">
         <v>8.580606474485139E-2</v>
       </c>
+      <c r="C150" s="4"/>
       <c r="CG150" s="1"/>
       <c r="CH150" s="1"/>
       <c r="CI150" s="1"/>
@@ -9071,12 +9234,13 @@
       <c r="RX150" s="1"/>
     </row>
     <row r="151" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A151" s="7">
+      <c r="A151" s="8">
         <v>39203</v>
       </c>
-      <c r="B151" s="8">
+      <c r="B151" s="9">
         <v>8.1207326443699546E-2</v>
       </c>
+      <c r="C151" s="4"/>
       <c r="CG151" s="1"/>
       <c r="CH151" s="1"/>
       <c r="CI151" s="1"/>
@@ -9165,12 +9329,13 @@
       <c r="RX151" s="1"/>
     </row>
     <row r="152" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A152" s="7">
+      <c r="A152" s="8">
         <v>39234</v>
       </c>
-      <c r="B152" s="8">
+      <c r="B152" s="9">
         <v>8.2961482672590375E-2</v>
       </c>
+      <c r="C152" s="4"/>
       <c r="CG152" s="1"/>
       <c r="CH152" s="1"/>
       <c r="CI152" s="1"/>
@@ -9259,12 +9424,13 @@
       <c r="RX152" s="1"/>
     </row>
     <row r="153" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A153" s="7">
+      <c r="A153" s="8">
         <v>39264</v>
       </c>
-      <c r="B153" s="8">
+      <c r="B153" s="9">
         <v>8.5322650599013228E-2</v>
       </c>
+      <c r="C153" s="4"/>
       <c r="CG153" s="1"/>
       <c r="CH153" s="1"/>
       <c r="CI153" s="1"/>
@@ -9353,12 +9519,13 @@
       <c r="RX153" s="1"/>
     </row>
     <row r="154" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A154" s="7">
+      <c r="A154" s="8">
         <v>39295</v>
       </c>
-      <c r="B154" s="8">
+      <c r="B154" s="9">
         <v>8.5340133244383914E-2</v>
       </c>
+      <c r="C154" s="4"/>
       <c r="CG154" s="1"/>
       <c r="CH154" s="1"/>
       <c r="CI154" s="1"/>
@@ -9447,12 +9614,13 @@
       <c r="RX154" s="1"/>
     </row>
     <row r="155" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A155" s="7">
+      <c r="A155" s="8">
         <v>39326</v>
       </c>
-      <c r="B155" s="8">
+      <c r="B155" s="9">
         <v>8.8928884093107091E-2</v>
       </c>
+      <c r="C155" s="4"/>
       <c r="CG155" s="1"/>
       <c r="CH155" s="1"/>
       <c r="CI155" s="1"/>
@@ -9541,12 +9709,13 @@
       <c r="RX155" s="1"/>
     </row>
     <row r="156" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A156" s="7">
+      <c r="A156" s="8">
         <v>39356</v>
       </c>
-      <c r="B156" s="8">
+      <c r="B156" s="9">
         <v>8.7744511396229033E-2</v>
       </c>
+      <c r="C156" s="4"/>
       <c r="CG156" s="1"/>
       <c r="CH156" s="1"/>
       <c r="CI156" s="1"/>
@@ -9635,12 +9804,13 @@
       <c r="RX156" s="1"/>
     </row>
     <row r="157" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A157" s="7">
+      <c r="A157" s="8">
         <v>39387</v>
       </c>
-      <c r="B157" s="8">
+      <c r="B157" s="9">
         <v>9.3737830955098772E-2</v>
       </c>
+      <c r="C157" s="4"/>
       <c r="CG157" s="1"/>
       <c r="CH157" s="1"/>
       <c r="CI157" s="1"/>
@@ -9729,12 +9899,13 @@
       <c r="RX157" s="1"/>
     </row>
     <row r="158" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A158" s="7">
+      <c r="A158" s="8">
         <v>39417</v>
       </c>
-      <c r="B158" s="8">
+      <c r="B158" s="9">
         <v>8.671239907127623E-2</v>
       </c>
+      <c r="C158" s="4"/>
       <c r="CG158" s="1"/>
       <c r="CH158" s="1"/>
       <c r="CI158" s="1"/>
@@ -9823,12 +9994,13 @@
       <c r="RX158" s="1"/>
     </row>
     <row r="159" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A159" s="7">
+      <c r="A159" s="8">
         <v>39448</v>
       </c>
-      <c r="B159" s="8">
+      <c r="B159" s="9">
         <v>9.417152259727482E-2</v>
       </c>
+      <c r="C159" s="4"/>
       <c r="CG159" s="1"/>
       <c r="CH159" s="1"/>
       <c r="CI159" s="1"/>
@@ -9917,12 +10089,13 @@
       <c r="RX159" s="1"/>
     </row>
     <row r="160" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A160" s="7">
+      <c r="A160" s="8">
         <v>39479</v>
       </c>
-      <c r="B160" s="8">
+      <c r="B160" s="9">
         <v>9.3871674916660583E-2</v>
       </c>
+      <c r="C160" s="4"/>
       <c r="CG160" s="1"/>
       <c r="CH160" s="1"/>
       <c r="CI160" s="1"/>
@@ -10011,12 +10184,13 @@
       <c r="RX160" s="1"/>
     </row>
     <row r="161" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A161" s="7">
+      <c r="A161" s="8">
         <v>39508</v>
       </c>
-      <c r="B161" s="8">
+      <c r="B161" s="9">
         <v>9.5682797110982654E-2</v>
       </c>
+      <c r="C161" s="4"/>
       <c r="CG161" s="1"/>
       <c r="CH161" s="1"/>
       <c r="CI161" s="1"/>
@@ -10105,12 +10279,13 @@
       <c r="RX161" s="1"/>
     </row>
     <row r="162" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A162" s="7">
+      <c r="A162" s="8">
         <v>39539</v>
       </c>
-      <c r="B162" s="8">
+      <c r="B162" s="9">
         <v>8.9221726200208809E-2</v>
       </c>
+      <c r="C162" s="4"/>
       <c r="CG162" s="1"/>
       <c r="CH162" s="1"/>
       <c r="CI162" s="1"/>
@@ -10199,12 +10374,13 @@
       <c r="RX162" s="1"/>
     </row>
     <row r="163" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A163" s="7">
+      <c r="A163" s="8">
         <v>39569</v>
       </c>
-      <c r="B163" s="8">
+      <c r="B163" s="9">
         <v>8.5276870884392231E-2</v>
       </c>
+      <c r="C163" s="4"/>
       <c r="CG163" s="1"/>
       <c r="CH163" s="1"/>
       <c r="CI163" s="1"/>
@@ -10293,12 +10469,13 @@
       <c r="RX163" s="1"/>
     </row>
     <row r="164" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A164" s="7">
+      <c r="A164" s="8">
         <v>39600</v>
       </c>
-      <c r="B164" s="8">
+      <c r="B164" s="9">
         <v>9.0760799631218497E-2</v>
       </c>
+      <c r="C164" s="4"/>
       <c r="CG164" s="1"/>
       <c r="CH164" s="1"/>
       <c r="CI164" s="1"/>
@@ -10387,12 +10564,13 @@
       <c r="RX164" s="1"/>
     </row>
     <row r="165" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A165" s="7">
+      <c r="A165" s="8">
         <v>39630</v>
       </c>
-      <c r="B165" s="8">
+      <c r="B165" s="9">
         <v>9.0094041432956906E-2</v>
       </c>
+      <c r="C165" s="4"/>
       <c r="CG165" s="1"/>
       <c r="CH165" s="1"/>
       <c r="CI165" s="1"/>
@@ -10481,12 +10659,13 @@
       <c r="RX165" s="1"/>
     </row>
     <row r="166" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A166" s="7">
+      <c r="A166" s="8">
         <v>39661</v>
       </c>
-      <c r="B166" s="8">
+      <c r="B166" s="9">
         <v>9.2978334258690121E-2</v>
       </c>
+      <c r="C166" s="4"/>
       <c r="CG166" s="1"/>
       <c r="CH166" s="1"/>
       <c r="CI166" s="1"/>
@@ -10575,12 +10754,13 @@
       <c r="RX166" s="1"/>
     </row>
     <row r="167" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A167" s="7">
+      <c r="A167" s="8">
         <v>39692</v>
       </c>
-      <c r="B167" s="8">
+      <c r="B167" s="9">
         <v>0.1049190744132513</v>
       </c>
+      <c r="C167" s="4"/>
       <c r="CG167" s="1"/>
       <c r="CH167" s="1"/>
       <c r="CI167" s="1"/>
@@ -10669,12 +10849,13 @@
       <c r="RX167" s="1"/>
     </row>
     <row r="168" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A168" s="7">
+      <c r="A168" s="8">
         <v>39722</v>
       </c>
-      <c r="B168" s="8">
+      <c r="B168" s="9">
         <v>0.1150227873640902</v>
       </c>
+      <c r="C168" s="4"/>
       <c r="CG168" s="1"/>
       <c r="CH168" s="1"/>
       <c r="CI168" s="1"/>
@@ -10763,12 +10944,13 @@
       <c r="RX168" s="1"/>
     </row>
     <row r="169" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A169" s="7">
+      <c r="A169" s="8">
         <v>39753</v>
       </c>
-      <c r="B169" s="8">
+      <c r="B169" s="9">
         <v>0.12713618920136005</v>
       </c>
+      <c r="C169" s="4"/>
       <c r="CG169" s="1"/>
       <c r="CH169" s="1"/>
       <c r="CI169" s="1"/>
@@ -10857,12 +11039,13 @@
       <c r="RX169" s="1"/>
     </row>
     <row r="170" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A170" s="7">
+      <c r="A170" s="8">
         <v>39783</v>
       </c>
-      <c r="B170" s="8">
+      <c r="B170" s="9">
         <v>0.14219604354597082</v>
       </c>
+      <c r="C170" s="4"/>
       <c r="CG170" s="1"/>
       <c r="CH170" s="1"/>
       <c r="CI170" s="1"/>
@@ -10951,12 +11134,13 @@
       <c r="RX170" s="1"/>
     </row>
     <row r="171" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A171" s="7">
+      <c r="A171" s="8">
         <v>39814</v>
       </c>
-      <c r="B171" s="8">
+      <c r="B171" s="9">
         <v>0.13409152093551951</v>
       </c>
+      <c r="C171" s="4"/>
       <c r="CG171" s="1"/>
       <c r="CH171" s="1"/>
       <c r="CI171" s="1"/>
@@ -11045,12 +11229,13 @@
       <c r="RX171" s="1"/>
     </row>
     <row r="172" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A172" s="7">
+      <c r="A172" s="8">
         <v>39845</v>
       </c>
-      <c r="B172" s="8">
+      <c r="B172" s="9">
         <v>0.1323173344014103</v>
       </c>
+      <c r="C172" s="4"/>
       <c r="CG172" s="1"/>
       <c r="CH172" s="1"/>
       <c r="CI172" s="1"/>
@@ -11139,12 +11324,13 @@
       <c r="RX172" s="1"/>
     </row>
     <row r="173" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A173" s="7">
+      <c r="A173" s="8">
         <v>39873</v>
       </c>
-      <c r="B173" s="8">
+      <c r="B173" s="9">
         <v>0.12184780792693525</v>
       </c>
+      <c r="C173" s="4"/>
       <c r="CG173" s="1"/>
       <c r="CH173" s="1"/>
       <c r="CI173" s="1"/>
@@ -11233,12 +11419,13 @@
       <c r="RX173" s="1"/>
     </row>
     <row r="174" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A174" s="7">
+      <c r="A174" s="8">
         <v>39904</v>
       </c>
-      <c r="B174" s="8">
+      <c r="B174" s="9">
         <v>0.1088401890456267</v>
       </c>
+      <c r="C174" s="4"/>
       <c r="CG174" s="1"/>
       <c r="CH174" s="1"/>
       <c r="CI174" s="1"/>
@@ -11327,12 +11514,13 @@
       <c r="RX174" s="1"/>
     </row>
     <row r="175" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A175" s="7">
+      <c r="A175" s="8">
         <v>39934</v>
       </c>
-      <c r="B175" s="8">
+      <c r="B175" s="9">
         <v>0.10207538732969924</v>
       </c>
+      <c r="C175" s="4"/>
       <c r="CG175" s="1"/>
       <c r="CH175" s="1"/>
       <c r="CI175" s="1"/>
@@ -11421,12 +11609,13 @@
       <c r="RX175" s="1"/>
     </row>
     <row r="176" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A176" s="7">
+      <c r="A176" s="8">
         <v>39965</v>
       </c>
-      <c r="B176" s="8">
+      <c r="B176" s="9">
         <v>9.0431157247827659E-2</v>
       </c>
+      <c r="C176" s="4"/>
       <c r="CG176" s="1"/>
       <c r="CH176" s="1"/>
       <c r="CI176" s="1"/>
@@ -11515,12 +11704,13 @@
       <c r="RX176" s="1"/>
     </row>
     <row r="177" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A177" s="7">
+      <c r="A177" s="8">
         <v>39995</v>
       </c>
-      <c r="B177" s="8">
+      <c r="B177" s="9">
         <v>8.8254360455356951E-2</v>
       </c>
+      <c r="C177" s="4"/>
       <c r="CG177" s="1"/>
       <c r="CH177" s="1"/>
       <c r="CI177" s="1"/>
@@ -11609,12 +11799,13 @@
       <c r="RX177" s="1"/>
     </row>
     <row r="178" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A178" s="7">
+      <c r="A178" s="8">
         <v>40026</v>
       </c>
-      <c r="B178" s="8">
+      <c r="B178" s="9">
         <v>8.5062467132288211E-2</v>
       </c>
+      <c r="C178" s="4"/>
       <c r="CG178" s="1"/>
       <c r="CH178" s="1"/>
       <c r="CI178" s="1"/>
@@ -11703,12 +11894,13 @@
       <c r="RX178" s="1"/>
     </row>
     <row r="179" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A179" s="7">
+      <c r="A179" s="8">
         <v>40057</v>
       </c>
-      <c r="B179" s="8">
+      <c r="B179" s="9">
         <v>8.194495980792163E-2</v>
       </c>
+      <c r="C179" s="4"/>
       <c r="CG179" s="1"/>
       <c r="CH179" s="1"/>
       <c r="CI179" s="1"/>
@@ -11797,12 +11989,13 @@
       <c r="RX179" s="1"/>
     </row>
     <row r="180" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A180" s="7">
+      <c r="A180" s="8">
         <v>40087</v>
       </c>
-      <c r="B180" s="8">
+      <c r="B180" s="9">
         <v>8.3103148537463978E-2</v>
       </c>
+      <c r="C180" s="4"/>
       <c r="CG180" s="1"/>
       <c r="CH180" s="1"/>
       <c r="CI180" s="1"/>
@@ -11891,12 +12084,13 @@
       <c r="RX180" s="1"/>
     </row>
     <row r="181" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A181" s="7">
+      <c r="A181" s="8">
         <v>40118</v>
       </c>
-      <c r="B181" s="8">
+      <c r="B181" s="9">
         <v>8.4939307901060079E-2</v>
       </c>
+      <c r="C181" s="4"/>
       <c r="CG181" s="1"/>
       <c r="CH181" s="1"/>
       <c r="CI181" s="1"/>
@@ -11985,12 +12179,13 @@
       <c r="RX181" s="1"/>
     </row>
     <row r="182" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A182" s="7">
+      <c r="A182" s="8">
         <v>40148</v>
       </c>
-      <c r="B182" s="8">
+      <c r="B182" s="9">
         <v>9.1998835222545483E-2</v>
       </c>
+      <c r="C182" s="4"/>
       <c r="CG182" s="1"/>
       <c r="CH182" s="1"/>
       <c r="CI182" s="1"/>
@@ -12079,12 +12274,13 @@
       <c r="RX182" s="1"/>
     </row>
     <row r="183" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A183" s="7">
+      <c r="A183" s="8">
         <v>40179</v>
       </c>
-      <c r="B183" s="8">
+      <c r="B183" s="9">
         <v>9.4406445060834981E-2</v>
       </c>
+      <c r="C183" s="4"/>
       <c r="CG183" s="1"/>
       <c r="CH183" s="1"/>
       <c r="CI183" s="1"/>
@@ -12173,12 +12369,13 @@
       <c r="RX183" s="1"/>
     </row>
     <row r="184" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A184" s="7">
+      <c r="A184" s="8">
         <v>40210</v>
       </c>
-      <c r="B184" s="8">
+      <c r="B184" s="9">
         <v>9.677333010017547E-2</v>
       </c>
+      <c r="C184" s="4"/>
       <c r="CG184" s="1"/>
       <c r="CH184" s="1"/>
       <c r="CI184" s="1"/>
@@ -12267,12 +12464,13 @@
       <c r="RX184" s="1"/>
     </row>
     <row r="185" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A185" s="7">
+      <c r="A185" s="8">
         <v>40238</v>
       </c>
-      <c r="B185" s="8">
+      <c r="B185" s="9">
         <v>0.10525014956324957</v>
       </c>
+      <c r="C185" s="4"/>
       <c r="CG185" s="1"/>
       <c r="CH185" s="1"/>
       <c r="CI185" s="1"/>
@@ -12361,12 +12559,13 @@
       <c r="RX185" s="1"/>
     </row>
     <row r="186" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A186" s="7">
+      <c r="A186" s="8">
         <v>40269</v>
       </c>
-      <c r="B186" s="8">
+      <c r="B186" s="9">
         <v>0.10079451028425426</v>
       </c>
+      <c r="C186" s="4"/>
       <c r="CG186" s="1"/>
       <c r="CH186" s="1"/>
       <c r="CI186" s="1"/>
@@ -12455,12 +12654,13 @@
       <c r="RX186" s="1"/>
     </row>
     <row r="187" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A187" s="7">
+      <c r="A187" s="8">
         <v>40299</v>
       </c>
-      <c r="B187" s="8">
+      <c r="B187" s="9">
         <v>9.7475443102761017E-2</v>
       </c>
+      <c r="C187" s="4"/>
       <c r="CG187" s="1"/>
       <c r="CH187" s="1"/>
       <c r="CI187" s="1"/>
@@ -12549,12 +12749,13 @@
       <c r="RX187" s="1"/>
     </row>
     <row r="188" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A188" s="7">
+      <c r="A188" s="8">
         <v>40330</v>
       </c>
-      <c r="B188" s="8">
+      <c r="B188" s="9">
         <v>0.10575656830811714</v>
       </c>
+      <c r="C188" s="4"/>
       <c r="CG188" s="1"/>
       <c r="CH188" s="1"/>
       <c r="CI188" s="1"/>
@@ -12643,12 +12844,13 @@
       <c r="RX188" s="1"/>
     </row>
     <row r="189" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A189" s="7">
+      <c r="A189" s="8">
         <v>40360</v>
       </c>
-      <c r="B189" s="8">
+      <c r="B189" s="9">
         <v>0.10532947410949854</v>
       </c>
+      <c r="C189" s="4"/>
       <c r="CG189" s="1"/>
       <c r="CH189" s="1"/>
       <c r="CI189" s="1"/>
@@ -12737,12 +12939,13 @@
       <c r="RX189" s="1"/>
     </row>
     <row r="190" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A190" s="7">
+      <c r="A190" s="8">
         <v>40391</v>
       </c>
-      <c r="B190" s="8">
+      <c r="B190" s="9">
         <v>0.10550581781341299</v>
       </c>
+      <c r="C190" s="4"/>
       <c r="CG190" s="1"/>
       <c r="CH190" s="1"/>
       <c r="CI190" s="1"/>
@@ -12831,12 +13034,13 @@
       <c r="RX190" s="1"/>
     </row>
     <row r="191" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A191" s="7">
+      <c r="A191" s="8">
         <v>40422</v>
       </c>
-      <c r="B191" s="8">
+      <c r="B191" s="9">
         <v>0.10964076002117032</v>
       </c>
+      <c r="C191" s="4"/>
       <c r="CG191" s="1"/>
       <c r="CH191" s="1"/>
       <c r="CI191" s="1"/>
@@ -12925,12 +13129,13 @@
       <c r="RX191" s="1"/>
     </row>
     <row r="192" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A192" s="7">
+      <c r="A192" s="8">
         <v>40452</v>
       </c>
-      <c r="B192" s="8">
+      <c r="B192" s="9">
         <v>0.10513412866678648</v>
       </c>
+      <c r="C192" s="4"/>
       <c r="CG192" s="1"/>
       <c r="CH192" s="1"/>
       <c r="CI192" s="1"/>
@@ -13019,12 +13224,13 @@
       <c r="RX192" s="1"/>
     </row>
     <row r="193" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A193" s="7">
+      <c r="A193" s="8">
         <v>40483</v>
       </c>
-      <c r="B193" s="8">
+      <c r="B193" s="9">
         <v>0.10473580686784892</v>
       </c>
+      <c r="C193" s="4"/>
       <c r="CG193" s="1"/>
       <c r="CH193" s="1"/>
       <c r="CI193" s="1"/>
@@ -13113,12 +13319,13 @@
       <c r="RX193" s="1"/>
     </row>
     <row r="194" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A194" s="7">
+      <c r="A194" s="8">
         <v>40513</v>
       </c>
-      <c r="B194" s="8">
+      <c r="B194" s="9">
         <v>9.4346589276028653E-2</v>
       </c>
+      <c r="C194" s="4"/>
       <c r="CG194" s="1"/>
       <c r="CH194" s="1"/>
       <c r="CI194" s="1"/>
@@ -13207,12 +13414,13 @@
       <c r="RX194" s="1"/>
     </row>
     <row r="195" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A195" s="7">
+      <c r="A195" s="8">
         <v>40544</v>
       </c>
-      <c r="B195" s="8">
+      <c r="B195" s="9">
         <v>9.5407238018712093E-2</v>
       </c>
+      <c r="C195" s="4"/>
       <c r="CG195" s="1"/>
       <c r="CH195" s="1"/>
       <c r="CI195" s="1"/>
@@ -13301,12 +13509,13 @@
       <c r="RX195" s="1"/>
     </row>
     <row r="196" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A196" s="7">
+      <c r="A196" s="8">
         <v>40575</v>
       </c>
-      <c r="B196" s="8">
+      <c r="B196" s="9">
         <v>9.3390806727688513E-2</v>
       </c>
+      <c r="C196" s="4"/>
       <c r="CG196" s="1"/>
       <c r="CH196" s="1"/>
       <c r="CI196" s="1"/>
@@ -13395,12 +13604,13 @@
       <c r="RX196" s="1"/>
     </row>
     <row r="197" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A197" s="7">
+      <c r="A197" s="8">
         <v>40603</v>
       </c>
-      <c r="B197" s="8">
+      <c r="B197" s="9">
         <v>9.3441141720405185E-2</v>
       </c>
+      <c r="C197" s="4"/>
       <c r="CG197" s="1"/>
       <c r="CH197" s="1"/>
       <c r="CI197" s="1"/>
@@ -13489,12 +13699,13 @@
       <c r="RX197" s="1"/>
     </row>
     <row r="198" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A198" s="7">
+      <c r="A198" s="8">
         <v>40634</v>
       </c>
-      <c r="B198" s="8">
+      <c r="B198" s="9">
         <v>9.3643791643206381E-2</v>
       </c>
+      <c r="C198" s="4"/>
       <c r="CG198" s="1"/>
       <c r="CH198" s="1"/>
       <c r="CI198" s="1"/>
@@ -13583,12 +13794,13 @@
       <c r="RX198" s="1"/>
     </row>
     <row r="199" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A199" s="7">
+      <c r="A199" s="8">
         <v>40664</v>
       </c>
-      <c r="B199" s="8">
+      <c r="B199" s="9">
         <v>0.10032836280974664</v>
       </c>
+      <c r="C199" s="4"/>
       <c r="CG199" s="1"/>
       <c r="CH199" s="1"/>
       <c r="CI199" s="1"/>
@@ -13677,12 +13889,13 @@
       <c r="RX199" s="1"/>
     </row>
     <row r="200" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A200" s="7">
+      <c r="A200" s="8">
         <v>40695</v>
       </c>
-      <c r="B200" s="8">
+      <c r="B200" s="9">
         <v>9.9388836279557288E-2</v>
       </c>
+      <c r="C200" s="4"/>
       <c r="CG200" s="1"/>
       <c r="CH200" s="1"/>
       <c r="CI200" s="1"/>
@@ -13771,12 +13984,13 @@
       <c r="RX200" s="1"/>
     </row>
     <row r="201" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A201" s="7">
+      <c r="A201" s="8">
         <v>40725</v>
       </c>
-      <c r="B201" s="8">
+      <c r="B201" s="9">
         <v>0.10538607103302287</v>
       </c>
+      <c r="C201" s="4"/>
       <c r="CG201" s="1"/>
       <c r="CH201" s="1"/>
       <c r="CI201" s="1"/>
@@ -13865,12 +14079,13 @@
       <c r="RX201" s="1"/>
     </row>
     <row r="202" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A202" s="7">
+      <c r="A202" s="8">
         <v>40756</v>
       </c>
-      <c r="B202" s="8">
+      <c r="B202" s="9">
         <v>0.11212100068797148</v>
       </c>
+      <c r="C202" s="4"/>
       <c r="CG202" s="1"/>
       <c r="CH202" s="1"/>
       <c r="CI202" s="1"/>
@@ -13959,12 +14174,13 @@
       <c r="RX202" s="1"/>
     </row>
     <row r="203" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A203" s="7">
+      <c r="A203" s="8">
         <v>40787</v>
       </c>
-      <c r="B203" s="8">
+      <c r="B203" s="9">
         <v>0.110785960833959</v>
       </c>
+      <c r="C203" s="4"/>
       <c r="CG203" s="1"/>
       <c r="CH203" s="1"/>
       <c r="CI203" s="1"/>
@@ -14053,12 +14269,13 @@
       <c r="RX203" s="1"/>
     </row>
     <row r="204" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A204" s="7">
+      <c r="A204" s="8">
         <v>40817</v>
       </c>
-      <c r="B204" s="8">
+      <c r="B204" s="9">
         <v>0.10360612595722082</v>
       </c>
+      <c r="C204" s="4"/>
       <c r="CG204" s="1"/>
       <c r="CH204" s="1"/>
       <c r="CI204" s="1"/>
@@ -14147,12 +14364,13 @@
       <c r="RX204" s="1"/>
     </row>
     <row r="205" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A205" s="7">
+      <c r="A205" s="8">
         <v>40848</v>
       </c>
-      <c r="B205" s="8">
+      <c r="B205" s="9">
         <v>0.10488449858019411</v>
       </c>
+      <c r="C205" s="4"/>
       <c r="CG205" s="1"/>
       <c r="CH205" s="1"/>
       <c r="CI205" s="1"/>
@@ -14241,12 +14459,13 @@
       <c r="RX205" s="1"/>
     </row>
     <row r="206" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A206" s="7">
+      <c r="A206" s="8">
         <v>40878</v>
       </c>
-      <c r="B206" s="8">
+      <c r="B206" s="9">
         <v>0.10009455642023066</v>
       </c>
+      <c r="C206" s="4"/>
       <c r="CG206" s="1"/>
       <c r="CH206" s="1"/>
       <c r="CI206" s="1"/>
@@ -14298,7 +14517,7 @@
       <c r="JL206" s="1"/>
       <c r="JW206" s="1"/>
       <c r="KH206" s="1"/>
-      <c r="KJ206" s="5"/>
+      <c r="KJ206" s="6"/>
       <c r="KS206" s="1"/>
       <c r="LD206" s="1"/>
       <c r="LE206" s="1"/>
@@ -14336,12 +14555,13 @@
       <c r="RX206" s="1"/>
     </row>
     <row r="207" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A207" s="7">
+      <c r="A207" s="8">
         <v>40909</v>
       </c>
-      <c r="B207" s="8">
+      <c r="B207" s="9">
         <v>9.6997483527202721E-2</v>
       </c>
+      <c r="C207" s="4"/>
       <c r="CG207" s="1"/>
       <c r="CH207" s="1"/>
       <c r="CI207" s="1"/>
@@ -14406,7 +14626,7 @@
       <c r="LM207" s="1"/>
       <c r="LO207" s="1"/>
       <c r="LZ207" s="1"/>
-      <c r="MB207" s="5"/>
+      <c r="MB207" s="6"/>
       <c r="MK207" s="1"/>
       <c r="MV207" s="1"/>
       <c r="NG207" s="1"/>
@@ -14431,12 +14651,13 @@
       <c r="RX207" s="1"/>
     </row>
     <row r="208" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A208" s="7">
+      <c r="A208" s="8">
         <v>40940</v>
       </c>
-      <c r="B208" s="8">
+      <c r="B208" s="9">
         <v>9.0887604642450229E-2</v>
       </c>
+      <c r="C208" s="4"/>
       <c r="CG208" s="1"/>
       <c r="CH208" s="1"/>
       <c r="CI208" s="1"/>
@@ -14489,7 +14710,7 @@
       <c r="JW208" s="1"/>
       <c r="KH208" s="1"/>
       <c r="KS208" s="1"/>
-      <c r="KU208" s="5"/>
+      <c r="KU208" s="6"/>
       <c r="LD208" s="1"/>
       <c r="LE208" s="1"/>
       <c r="LF208" s="1"/>
@@ -14503,13 +14724,13 @@
       <c r="LO208" s="1"/>
       <c r="LZ208" s="1"/>
       <c r="MK208" s="1"/>
-      <c r="MM208" s="5"/>
+      <c r="MM208" s="6"/>
       <c r="MV208" s="1"/>
-      <c r="MX208" s="5"/>
+      <c r="MX208" s="6"/>
       <c r="NG208" s="1"/>
       <c r="NR208" s="1"/>
       <c r="OC208" s="1"/>
-      <c r="OE208" s="5"/>
+      <c r="OE208" s="6"/>
       <c r="ON208" s="1"/>
       <c r="OY208" s="1"/>
       <c r="PJ208" s="1"/>
@@ -14529,12 +14750,13 @@
       <c r="RX208" s="1"/>
     </row>
     <row r="209" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A209" s="7">
+      <c r="A209" s="8">
         <v>40969</v>
       </c>
-      <c r="B209" s="8">
+      <c r="B209" s="9">
         <v>8.7800298912843522E-2</v>
       </c>
+      <c r="C209" s="4"/>
       <c r="CG209" s="1"/>
       <c r="CH209" s="1"/>
       <c r="CI209" s="1"/>
@@ -14589,7 +14811,7 @@
       <c r="KS209" s="1"/>
       <c r="LD209" s="1"/>
       <c r="LE209" s="1"/>
-      <c r="LF209" s="5"/>
+      <c r="LF209" s="6"/>
       <c r="LG209" s="1"/>
       <c r="LH209" s="1"/>
       <c r="LI209" s="1"/>
@@ -14607,7 +14829,7 @@
       <c r="ON209" s="1"/>
       <c r="OY209" s="1"/>
       <c r="PJ209" s="1"/>
-      <c r="PL209" s="5"/>
+      <c r="PL209" s="6"/>
       <c r="PU209" s="1"/>
       <c r="PV209" s="1"/>
       <c r="PW209" s="1"/>
@@ -14624,12 +14846,13 @@
       <c r="RX209" s="1"/>
     </row>
     <row r="210" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A210" s="7">
+      <c r="A210" s="8">
         <v>41000</v>
       </c>
-      <c r="B210" s="8">
+      <c r="B210" s="9">
         <v>9.5810214550751407E-2</v>
       </c>
+      <c r="C210" s="4"/>
       <c r="CG210" s="1"/>
       <c r="CH210" s="1"/>
       <c r="CI210" s="1"/>
@@ -14693,18 +14916,18 @@
       <c r="LL210" s="1"/>
       <c r="LM210" s="1"/>
       <c r="LO210" s="1"/>
-      <c r="LQ210" s="5"/>
+      <c r="LQ210" s="6"/>
       <c r="LZ210" s="1"/>
       <c r="MK210" s="1"/>
       <c r="MV210" s="1"/>
       <c r="NG210" s="1"/>
-      <c r="NI210" s="5"/>
+      <c r="NI210" s="6"/>
       <c r="NR210" s="1"/>
-      <c r="NT210" s="5"/>
+      <c r="NT210" s="6"/>
       <c r="OC210" s="1"/>
       <c r="ON210" s="1"/>
       <c r="OY210" s="1"/>
-      <c r="PA210" s="5"/>
+      <c r="PA210" s="6"/>
       <c r="PJ210" s="1"/>
       <c r="PU210" s="1"/>
       <c r="PV210" s="1"/>
@@ -14722,12 +14945,13 @@
       <c r="RX210" s="1"/>
     </row>
     <row r="211" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A211" s="7">
+      <c r="A211" s="8">
         <v>41030</v>
       </c>
-      <c r="B211" s="8">
+      <c r="B211" s="9">
         <v>0.10515093938008996</v>
       </c>
+      <c r="C211" s="4"/>
       <c r="CG211" s="1"/>
       <c r="CH211" s="1"/>
       <c r="CI211" s="1"/>
@@ -14816,12 +15040,13 @@
       <c r="RX211" s="1"/>
     </row>
     <row r="212" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A212" s="7">
+      <c r="A212" s="8">
         <v>41061</v>
       </c>
-      <c r="B212" s="8">
+      <c r="B212" s="9">
         <v>9.0817328850805651E-2</v>
       </c>
+      <c r="C212" s="4"/>
       <c r="CG212" s="1"/>
       <c r="CH212" s="1"/>
       <c r="CI212" s="1"/>
@@ -14892,7 +15117,7 @@
       <c r="NR212" s="1"/>
       <c r="OC212" s="1"/>
       <c r="ON212" s="1"/>
-      <c r="OP212" s="5"/>
+      <c r="OP212" s="6"/>
       <c r="OY212" s="1"/>
       <c r="PJ212" s="1"/>
       <c r="PU212" s="1"/>
@@ -14911,12 +15136,13 @@
       <c r="RX212" s="1"/>
     </row>
     <row r="213" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A213" s="7">
+      <c r="A213" s="8">
         <v>41091</v>
       </c>
-      <c r="B213" s="8">
+      <c r="B213" s="9">
         <v>9.198193035468108E-2</v>
       </c>
+      <c r="C213" s="4"/>
       <c r="CG213" s="1"/>
       <c r="CH213" s="1"/>
       <c r="CI213" s="1"/>
@@ -15005,12 +15231,13 @@
       <c r="RX213" s="1"/>
     </row>
     <row r="214" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A214" s="7">
+      <c r="A214" s="8">
         <v>41122</v>
       </c>
-      <c r="B214" s="8">
+      <c r="B214" s="9">
         <v>9.0527591621574741E-2</v>
       </c>
+      <c r="C214" s="4"/>
       <c r="CG214" s="1"/>
       <c r="CH214" s="1"/>
       <c r="CI214" s="1"/>
@@ -15099,12 +15326,13 @@
       <c r="RX214" s="1"/>
     </row>
     <row r="215" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A215" s="7">
+      <c r="A215" s="8">
         <v>41153</v>
       </c>
-      <c r="B215" s="8">
+      <c r="B215" s="9">
         <v>9.321029129473013E-2</v>
       </c>
+      <c r="C215" s="4"/>
       <c r="CG215" s="1"/>
       <c r="CH215" s="1"/>
       <c r="CI215" s="1"/>
@@ -15179,7 +15407,7 @@
       <c r="PJ215" s="1"/>
       <c r="PU215" s="1"/>
       <c r="PV215" s="1"/>
-      <c r="PW215" s="5"/>
+      <c r="PW215" s="6"/>
       <c r="PX215" s="1"/>
       <c r="PY215" s="1"/>
       <c r="PZ215" s="1"/>
@@ -15193,12 +15421,13 @@
       <c r="RX215" s="1"/>
     </row>
     <row r="216" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A216" s="7">
+      <c r="A216" s="8">
         <v>41183</v>
       </c>
-      <c r="B216" s="8">
+      <c r="B216" s="9">
         <v>9.2447998465240086E-2</v>
       </c>
+      <c r="C216" s="4"/>
       <c r="CG216" s="1"/>
       <c r="CH216" s="1"/>
       <c r="CI216" s="1"/>
@@ -15281,19 +15510,20 @@
       <c r="QB216" s="1"/>
       <c r="QC216" s="1"/>
       <c r="QD216" s="1"/>
-      <c r="QH216" s="5"/>
+      <c r="QH216" s="6"/>
       <c r="QQ216" s="1"/>
       <c r="RB216" s="1"/>
       <c r="RM216" s="1"/>
       <c r="RX216" s="1"/>
     </row>
     <row r="217" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A217" s="7">
+      <c r="A217" s="8">
         <v>41214</v>
       </c>
-      <c r="B217" s="8">
+      <c r="B217" s="9">
         <v>9.5606034425374312E-2</v>
       </c>
+      <c r="C217" s="4"/>
       <c r="CG217" s="1"/>
       <c r="CH217" s="1"/>
       <c r="CI217" s="1"/>
@@ -15382,12 +15612,13 @@
       <c r="RX217" s="1"/>
     </row>
     <row r="218" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A218" s="7">
+      <c r="A218" s="8">
         <v>41244</v>
       </c>
-      <c r="B218" s="8">
+      <c r="B218" s="9">
         <v>9.1047274906739667E-2</v>
       </c>
+      <c r="C218" s="4"/>
       <c r="CG218" s="1"/>
       <c r="CH218" s="1"/>
       <c r="CI218" s="1"/>
@@ -15476,12 +15707,13 @@
       <c r="RX218" s="1"/>
     </row>
     <row r="219" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A219" s="7">
+      <c r="A219" s="8">
         <v>41275</v>
       </c>
-      <c r="B219" s="8">
+      <c r="B219" s="9">
         <v>8.7449844192482862E-2</v>
       </c>
+      <c r="C219" s="4"/>
       <c r="CG219" s="1"/>
       <c r="CH219" s="1"/>
       <c r="CI219" s="1"/>
@@ -15570,12 +15802,13 @@
       <c r="RX219" s="1"/>
     </row>
     <row r="220" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A220" s="7">
+      <c r="A220" s="8">
         <v>41306</v>
       </c>
-      <c r="B220" s="8">
+      <c r="B220" s="9">
         <v>8.9884574591296298E-2</v>
       </c>
+      <c r="C220" s="4"/>
       <c r="CG220" s="1"/>
       <c r="CH220" s="1"/>
       <c r="CI220" s="1"/>
@@ -15664,12 +15897,13 @@
       <c r="RX220" s="1"/>
     </row>
     <row r="221" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A221" s="7">
+      <c r="A221" s="8">
         <v>41334</v>
       </c>
-      <c r="B221" s="8">
+      <c r="B221" s="9">
         <v>8.3440031175367746E-2</v>
       </c>
+      <c r="C221" s="4"/>
       <c r="CG221" s="1"/>
       <c r="CH221" s="1"/>
       <c r="CI221" s="1"/>
@@ -15709,11 +15943,11 @@
       <c r="EJ221" s="1"/>
       <c r="EU221" s="1"/>
       <c r="FF221" s="1"/>
-      <c r="FH221" s="5"/>
+      <c r="FH221" s="6"/>
       <c r="FQ221" s="1"/>
-      <c r="FS221" s="5"/>
+      <c r="FS221" s="6"/>
       <c r="GB221" s="1"/>
-      <c r="GD221" s="5"/>
+      <c r="GD221" s="6"/>
       <c r="GM221" s="1"/>
       <c r="GX221" s="1"/>
       <c r="HI221" s="1"/>
@@ -15761,12 +15995,13 @@
       <c r="RX221" s="1"/>
     </row>
     <row r="222" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A222" s="7">
+      <c r="A222" s="8">
         <v>41365</v>
       </c>
-      <c r="B222" s="8">
+      <c r="B222" s="9">
         <v>8.4749349865796034E-2</v>
       </c>
+      <c r="C222" s="4"/>
       <c r="PU222" s="1"/>
       <c r="PV222" s="1"/>
       <c r="PW222" s="1"/>
@@ -15779,12 +16014,13 @@
       <c r="QD222" s="1"/>
     </row>
     <row r="223" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A223" s="7">
+      <c r="A223" s="8">
         <v>41395</v>
       </c>
-      <c r="B223" s="8">
+      <c r="B223" s="9">
         <v>8.0522617175596833E-2</v>
       </c>
+      <c r="C223" s="4"/>
       <c r="PU223" s="1"/>
       <c r="PV223" s="1"/>
       <c r="PW223" s="1"/>
@@ -15797,12 +16033,13 @@
       <c r="QD223" s="1"/>
     </row>
     <row r="224" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A224" s="7">
+      <c r="A224" s="8">
         <v>41426</v>
       </c>
-      <c r="B224" s="8">
+      <c r="B224" s="9">
         <v>7.5014888373605801E-2</v>
       </c>
+      <c r="C224" s="4"/>
       <c r="PU224" s="1"/>
       <c r="PV224" s="1"/>
       <c r="PW224" s="1"/>
@@ -15815,12 +16052,13 @@
       <c r="QD224" s="1"/>
     </row>
     <row r="225" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A225" s="7">
+      <c r="A225" s="8">
         <v>41456</v>
       </c>
-      <c r="B225" s="8">
+      <c r="B225" s="9">
         <v>7.7769653801373628E-2</v>
       </c>
+      <c r="C225" s="4"/>
       <c r="PU225" s="1"/>
       <c r="PV225" s="1"/>
       <c r="PW225" s="1"/>
@@ -15833,12 +16071,13 @@
       <c r="QD225" s="1"/>
     </row>
     <row r="226" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A226" s="7">
+      <c r="A226" s="8">
         <v>41487</v>
       </c>
-      <c r="B226" s="8">
+      <c r="B226" s="9">
         <v>7.610915084711764E-2</v>
       </c>
+      <c r="C226" s="4"/>
       <c r="PU226" s="1"/>
       <c r="PV226" s="1"/>
       <c r="PW226" s="1"/>
@@ -15851,12 +16090,13 @@
       <c r="QD226" s="1"/>
     </row>
     <row r="227" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A227" s="7">
+      <c r="A227" s="8">
         <v>41518</v>
       </c>
-      <c r="B227" s="8">
+      <c r="B227" s="9">
         <v>7.4874558269219044E-2</v>
       </c>
+      <c r="C227" s="4"/>
       <c r="PU227" s="1"/>
       <c r="PV227" s="1"/>
       <c r="PW227" s="1"/>
@@ -15869,1007 +16109,1130 @@
       <c r="QD227" s="1"/>
     </row>
     <row r="228" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A228" s="7">
+      <c r="A228" s="8">
         <v>41548</v>
       </c>
-      <c r="B228" s="8">
+      <c r="B228" s="9">
         <v>7.3769426049519596E-2</v>
       </c>
+      <c r="C228" s="4"/>
     </row>
     <row r="229" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A229" s="7">
+      <c r="A229" s="8">
         <v>41579</v>
       </c>
-      <c r="B229" s="8">
+      <c r="B229" s="9">
         <v>7.9046521727427585E-2</v>
       </c>
+      <c r="C229" s="4"/>
     </row>
     <row r="230" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A230" s="7">
+      <c r="A230" s="8">
         <v>41609</v>
       </c>
-      <c r="B230" s="8">
+      <c r="B230" s="9">
         <v>7.5700418664925911E-2</v>
       </c>
+      <c r="C230" s="4"/>
     </row>
     <row r="231" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A231" s="7">
+      <c r="A231" s="8">
         <v>41640</v>
       </c>
-      <c r="B231" s="8">
+      <c r="B231" s="9">
         <v>8.4845263579311214E-2</v>
       </c>
+      <c r="C231" s="4"/>
     </row>
     <row r="232" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A232" s="7">
+      <c r="A232" s="8">
         <v>41671</v>
       </c>
-      <c r="B232" s="8">
+      <c r="B232" s="9">
         <v>8.4096940621738683E-2</v>
       </c>
+      <c r="C232" s="4"/>
     </row>
     <row r="233" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A233" s="7">
+      <c r="A233" s="8">
         <v>41699</v>
       </c>
-      <c r="B233" s="8">
+      <c r="B233" s="9">
         <v>9.5085723314460191E-2</v>
       </c>
+      <c r="C233" s="4"/>
     </row>
     <row r="234" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A234" s="7">
+      <c r="A234" s="8">
         <v>41730</v>
       </c>
-      <c r="B234" s="8">
+      <c r="B234" s="9">
         <v>9.6617836562715484E-2</v>
       </c>
+      <c r="C234" s="4"/>
     </row>
     <row r="235" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A235" s="7">
+      <c r="A235" s="8">
         <v>41760</v>
       </c>
-      <c r="B235" s="8">
+      <c r="B235" s="9">
         <v>9.8701160485128128E-2</v>
       </c>
+      <c r="C235" s="4"/>
     </row>
     <row r="236" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A236" s="7">
+      <c r="A236" s="8">
         <v>41791</v>
       </c>
-      <c r="B236" s="8">
+      <c r="B236" s="9">
         <v>9.4012780857948633E-2</v>
       </c>
+      <c r="C236" s="4"/>
     </row>
     <row r="237" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A237" s="7">
+      <c r="A237" s="8">
         <v>41821</v>
       </c>
-      <c r="B237" s="8">
+      <c r="B237" s="9">
         <v>9.5099368892112943E-2</v>
       </c>
+      <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A238" s="7">
+      <c r="A238" s="8">
         <v>41852</v>
       </c>
-      <c r="B238" s="8">
+      <c r="B238" s="9">
         <v>9.5412122648390635E-2</v>
       </c>
+      <c r="C238" s="4"/>
     </row>
     <row r="239" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A239" s="7">
+      <c r="A239" s="8">
         <v>41883</v>
       </c>
-      <c r="B239" s="8">
+      <c r="B239" s="9">
         <v>8.2926779422991759E-2</v>
       </c>
+      <c r="C239" s="4"/>
     </row>
     <row r="240" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A240" s="7">
+      <c r="A240" s="8">
         <v>41913</v>
       </c>
-      <c r="B240" s="8">
+      <c r="B240" s="9">
         <v>8.7456378540700291E-2</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="7">
+      <c r="C240" s="4"/>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="8">
         <v>41944</v>
       </c>
-      <c r="B241" s="8">
+      <c r="B241" s="9">
         <v>9.0265236245787389E-2</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="7">
+      <c r="C241" s="4"/>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="8">
         <v>41974</v>
       </c>
-      <c r="B242" s="8">
+      <c r="B242" s="9">
         <v>9.0600536697358139E-2</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="7">
+      <c r="C242" s="4"/>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="8">
         <v>42005</v>
       </c>
-      <c r="B243" s="8">
+      <c r="B243" s="9">
         <v>0.10533016732361397</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="7">
+      <c r="C243" s="4"/>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="8">
         <v>42036</v>
       </c>
-      <c r="B244" s="8">
+      <c r="B244" s="9">
         <v>0.10379332898500528</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="7">
+      <c r="C244" s="4"/>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="8">
         <v>42064</v>
       </c>
-      <c r="B245" s="8">
+      <c r="B245" s="9">
         <v>0.10646618622058883</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="7">
+      <c r="C245" s="4"/>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="8">
         <v>42095</v>
       </c>
-      <c r="B246" s="8">
+      <c r="B246" s="9">
         <v>0.10277197692695453</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="7">
+      <c r="C246" s="4"/>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="8">
         <v>42125</v>
       </c>
-      <c r="B247" s="8">
+      <c r="B247" s="9">
         <v>0.10635981236621354</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="7">
+      <c r="C247" s="4"/>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="8">
         <v>42156</v>
       </c>
-      <c r="B248" s="8">
+      <c r="B248" s="9">
         <v>0.10243622729858951</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="7">
+      <c r="C248" s="4"/>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="8">
         <v>42186</v>
       </c>
-      <c r="B249" s="8">
+      <c r="B249" s="9">
         <v>0.10824745812912069</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="7">
+      <c r="C249" s="4"/>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="8">
         <v>42217</v>
       </c>
-      <c r="B250" s="8">
+      <c r="B250" s="9">
         <v>0.11309406133143306</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="7">
+      <c r="C250" s="4"/>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="8">
         <v>42248</v>
       </c>
-      <c r="B251" s="8">
+      <c r="B251" s="9">
         <v>9.9532565626062719E-2</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="7">
+      <c r="C251" s="4"/>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="8">
         <v>42278</v>
       </c>
-      <c r="B252" s="8">
+      <c r="B252" s="9">
         <v>9.7344609070752625E-2</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="7">
+      <c r="C252" s="4"/>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="8">
         <v>42309</v>
       </c>
-      <c r="B253" s="8">
+      <c r="B253" s="9">
         <v>9.6030564044979047E-2</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="7">
+      <c r="C253" s="4"/>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="8">
         <v>42339</v>
       </c>
-      <c r="B254" s="8">
+      <c r="B254" s="9">
         <v>9.7946408382498046E-2</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="7">
+      <c r="C254" s="4"/>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="8">
         <v>42370</v>
       </c>
-      <c r="B255" s="8">
+      <c r="B255" s="9">
         <v>0.10720725243654623</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="7">
+      <c r="C255" s="4"/>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="8">
         <v>42401</v>
       </c>
-      <c r="B256" s="8">
+      <c r="B256" s="9">
         <v>0.10623913533182294</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="7">
+      <c r="C256" s="4"/>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="8">
         <v>42430</v>
       </c>
-      <c r="B257" s="8">
+      <c r="B257" s="9">
         <v>9.6613329525373437E-2</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="7">
+      <c r="C257" s="4"/>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="8">
         <v>42461</v>
       </c>
-      <c r="B258" s="8">
+      <c r="B258" s="9">
         <v>9.07458717712184E-2</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="7">
+      <c r="C258" s="4"/>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="8">
         <v>42491</v>
       </c>
-      <c r="B259" s="8">
+      <c r="B259" s="9">
         <v>8.1503302413437381E-2</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" s="7">
+      <c r="C259" s="4"/>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="8">
         <v>42522</v>
       </c>
-      <c r="B260" s="8">
+      <c r="B260" s="9">
         <v>8.4903302413437381E-2</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="7">
+      <c r="C260" s="4"/>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="8">
         <v>42552</v>
       </c>
-      <c r="B261" s="8">
+      <c r="B261" s="9">
         <v>7.845432079176308E-2</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="7">
+      <c r="C261" s="4"/>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="8">
         <v>42583</v>
       </c>
-      <c r="B262" s="8">
+      <c r="B262" s="9">
         <v>7.7005107317431515E-2</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="7">
+      <c r="C262" s="4"/>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="8">
         <v>42614</v>
       </c>
-      <c r="B263" s="8">
+      <c r="B263" s="9">
         <v>7.9062490141365058E-2</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="7">
+      <c r="C263" s="4"/>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="8">
         <v>42644</v>
       </c>
-      <c r="B264" s="8">
+      <c r="B264" s="9">
         <v>9.0803823058582978E-2</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="7">
+      <c r="C264" s="4"/>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="8">
         <v>42675</v>
       </c>
-      <c r="B265" s="8">
+      <c r="B265" s="9">
         <v>8.1366322142554626E-2</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="7">
+      <c r="C265" s="4"/>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="8">
         <v>42705</v>
       </c>
-      <c r="B266" s="8">
+      <c r="B266" s="9">
         <v>8.5524440182112194E-2</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="7">
+      <c r="C266" s="4"/>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="8">
         <v>42736</v>
       </c>
-      <c r="B267" s="8">
+      <c r="B267" s="9">
         <v>8.3374527020277533E-2</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="7">
+      <c r="C267" s="4"/>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="8">
         <v>42767</v>
       </c>
-      <c r="B268" s="8">
+      <c r="B268" s="9">
         <v>8.2618737455347563E-2</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="7">
+      <c r="C268" s="4"/>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="8">
         <v>42795</v>
       </c>
-      <c r="B269" s="8">
+      <c r="B269" s="9">
         <v>8.2301802120567966E-2</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="7">
+      <c r="C269" s="4"/>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="8">
         <v>42826</v>
       </c>
-      <c r="B270" s="8">
+      <c r="B270" s="9">
         <v>7.9480761202343708E-2</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="7">
+      <c r="C270" s="4"/>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="8">
         <v>42856</v>
       </c>
-      <c r="B271" s="8">
+      <c r="B271" s="9">
         <v>8.3960752894154167E-2</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="7">
+      <c r="C271" s="4"/>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="8">
         <v>42887</v>
       </c>
-      <c r="B272" s="8">
+      <c r="B272" s="9">
         <v>8.2181900156117982E-2</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="7">
+      <c r="C272" s="4"/>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="8">
         <v>42917</v>
       </c>
-      <c r="B273" s="8">
+      <c r="B273" s="9">
         <v>7.8582383645718207E-2</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="7">
+      <c r="C273" s="4"/>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="8">
         <v>42948</v>
       </c>
-      <c r="B274" s="8">
+      <c r="B274" s="9">
         <v>7.3514830121311145E-2</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="7">
+      <c r="C274" s="4"/>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="8">
         <v>42979</v>
       </c>
-      <c r="B275" s="8">
+      <c r="B275" s="9">
         <v>7.1798584083836187E-2</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="7">
+      <c r="C275" s="4"/>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="8">
         <v>43009</v>
       </c>
-      <c r="B276" s="8">
+      <c r="B276" s="9">
         <v>7.0893601810297649E-2</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="7">
+      <c r="C276" s="4"/>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="8">
         <v>43040</v>
       </c>
-      <c r="B277" s="8">
+      <c r="B277" s="9">
         <v>6.1052757033422195E-2</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="7">
+      <c r="C277" s="4"/>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="8">
         <v>43070</v>
       </c>
-      <c r="B278" s="8">
+      <c r="B278" s="9">
         <v>6.7122786831106646E-2</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="7">
+      <c r="C278" s="4"/>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="8">
         <v>43101</v>
       </c>
-      <c r="B279" s="8">
+      <c r="B279" s="9">
         <v>5.7519098552337958E-2</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="7">
+      <c r="C279" s="4"/>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="8">
         <v>43132</v>
       </c>
-      <c r="B280" s="8">
+      <c r="B280" s="9">
         <v>6.5520472026066215E-2</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="7">
+      <c r="C280" s="4"/>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="8">
         <v>43160</v>
       </c>
-      <c r="B281" s="8">
+      <c r="B281" s="9">
         <v>7.2125770364620007E-2</v>
       </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="7">
+      <c r="C281" s="4"/>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="8">
         <v>43191</v>
       </c>
-      <c r="B282" s="8">
+      <c r="B282" s="9">
         <v>6.4064244291655609E-2</v>
       </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="7">
+      <c r="C282" s="4"/>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="8">
         <v>43221</v>
       </c>
-      <c r="B283" s="8">
+      <c r="B283" s="9">
         <v>7.1824635819149038E-2</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="7">
+      <c r="C283" s="4"/>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="8">
         <v>43252</v>
       </c>
-      <c r="B284" s="8">
+      <c r="B284" s="9">
         <v>7.9775179773577412E-2</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="7">
+      <c r="C284" s="4"/>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="8">
         <v>43282</v>
       </c>
-      <c r="B285" s="8">
+      <c r="B285" s="9">
         <v>9.1939861515753868E-2</v>
       </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="7">
+      <c r="C285" s="4"/>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="8">
         <v>43313</v>
       </c>
-      <c r="B286" s="8">
+      <c r="B286" s="9">
         <v>0.10101989540599204</v>
       </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="7">
+      <c r="C286" s="4"/>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="8">
         <v>43344</v>
       </c>
-      <c r="B287" s="8">
+      <c r="B287" s="9">
         <v>0.10496376393363561</v>
       </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="7">
+      <c r="C287" s="4"/>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="8">
         <v>43374</v>
       </c>
-      <c r="B288" s="8">
+      <c r="B288" s="9">
         <v>6.866534805367612E-2</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" s="7">
+      <c r="C288" s="4"/>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="8">
         <v>43405</v>
       </c>
-      <c r="B289" s="8">
+      <c r="B289" s="9">
         <v>7.7599591244769228E-2</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" s="7">
+      <c r="C289" s="4"/>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="8">
         <v>43435</v>
       </c>
-      <c r="B290" s="8">
+      <c r="B290" s="9">
         <v>7.6296518904752947E-2</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" s="7">
+      <c r="C290" s="4"/>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="8">
         <v>43466</v>
       </c>
-      <c r="B291" s="8">
+      <c r="B291" s="9">
         <v>7.1150211864005483E-2</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" s="7">
+      <c r="C291" s="4"/>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="8">
         <v>43497</v>
       </c>
-      <c r="B292" s="8">
+      <c r="B292" s="9">
         <v>7.4978703434071342E-2</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" s="7">
+      <c r="C292" s="4"/>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="8">
         <v>43525</v>
       </c>
-      <c r="B293" s="8">
+      <c r="B293" s="9">
         <v>8.1082222580664831E-2</v>
       </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" s="7">
+      <c r="C293" s="4"/>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="8">
         <v>43556</v>
       </c>
-      <c r="B294" s="8">
+      <c r="B294" s="9">
         <v>8.0864791172512426E-2</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" s="7">
+      <c r="C294" s="4"/>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="8">
         <v>43586</v>
       </c>
-      <c r="B295" s="8">
+      <c r="B295" s="9">
         <v>8.7764304038109517E-2</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" s="7">
+      <c r="C295" s="4"/>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="8">
         <v>43617</v>
       </c>
-      <c r="B296" s="8">
+      <c r="B296" s="9">
         <v>8.5839178787788323E-2</v>
       </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" s="7">
+      <c r="C296" s="4"/>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="8">
         <v>43647</v>
       </c>
-      <c r="B297" s="8">
+      <c r="B297" s="9">
         <v>8.9544717916765409E-2</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" s="7">
+      <c r="C297" s="4"/>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="8">
         <v>43678</v>
       </c>
-      <c r="B298" s="8">
+      <c r="B298" s="9">
         <v>9.687272744274146E-2</v>
       </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" s="7">
+      <c r="C298" s="4"/>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="8">
         <v>43709</v>
       </c>
-      <c r="B299" s="8">
+      <c r="B299" s="9">
         <v>9.4565670394992141E-2</v>
       </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" s="7">
+      <c r="C299" s="4"/>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="8">
         <v>43739</v>
       </c>
-      <c r="B300" s="8">
+      <c r="B300" s="9">
         <v>9.5998871332297536E-2</v>
       </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" s="7">
+      <c r="C300" s="4"/>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="8">
         <v>43770</v>
       </c>
-      <c r="B301" s="8">
+      <c r="B301" s="9">
         <v>9.0410180385752506E-2</v>
       </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" s="7">
+      <c r="C301" s="4"/>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="8">
         <v>43800</v>
       </c>
-      <c r="B302" s="8">
+      <c r="B302" s="9">
         <v>8.0346430039285821E-2</v>
       </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" s="7">
+      <c r="C302" s="4"/>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="8">
         <v>43831</v>
       </c>
-      <c r="B303" s="8">
+      <c r="B303" s="9">
         <v>8.8138805128154862E-2</v>
       </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" s="7">
+      <c r="C303" s="4"/>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="8">
         <v>43862</v>
       </c>
-      <c r="B304" s="8">
+      <c r="B304" s="9">
         <v>9.3984258626188408E-2</v>
       </c>
+      <c r="C304" s="4"/>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305" s="7">
+      <c r="A305" s="8">
         <v>43891</v>
       </c>
-      <c r="B305" s="8">
+      <c r="B305" s="9">
         <v>0.11444455602995118</v>
       </c>
+      <c r="C305" s="4"/>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A306" s="7">
+      <c r="A306" s="8">
         <v>43922</v>
       </c>
-      <c r="B306" s="8">
+      <c r="B306" s="9">
         <v>0.11883485001315314</v>
       </c>
+      <c r="C306" s="4"/>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A307" s="7">
+      <c r="A307" s="8">
         <v>43952</v>
       </c>
-      <c r="B307" s="8">
+      <c r="B307" s="9">
         <v>0.10802006518576782</v>
       </c>
+      <c r="C307" s="4"/>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308" s="7">
+      <c r="A308" s="8">
         <v>43983</v>
       </c>
-      <c r="B308" s="8">
+      <c r="B308" s="9">
         <v>0.10150000000000001</v>
       </c>
+      <c r="C308" s="4"/>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309" s="7">
+      <c r="A309" s="8">
         <v>44013</v>
       </c>
-      <c r="B309" s="8">
+      <c r="B309" s="9">
         <v>0.10394071190796175</v>
       </c>
+      <c r="C309" s="4"/>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310" s="7">
+      <c r="A310" s="8">
         <v>44044</v>
       </c>
-      <c r="B310" s="8">
+      <c r="B310" s="9">
         <v>9.8747906968658955E-2</v>
       </c>
+      <c r="C310" s="4"/>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311" s="7">
+      <c r="A311" s="8">
         <v>44075</v>
       </c>
-      <c r="B311" s="8">
+      <c r="B311" s="9">
         <v>0.10280377344670942</v>
       </c>
+      <c r="C311" s="4"/>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A312" s="7">
+      <c r="A312" s="8">
         <v>44105</v>
       </c>
-      <c r="B312" s="8">
+      <c r="B312" s="9">
         <v>0.1003081555378784</v>
       </c>
+      <c r="C312" s="4"/>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A313" s="7">
+      <c r="A313" s="8">
         <v>44136</v>
       </c>
-      <c r="B313" s="8">
+      <c r="B313" s="9">
         <v>9.4781090636132159E-2</v>
       </c>
+      <c r="C313" s="4"/>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314" s="7">
+      <c r="A314" s="8">
         <v>44166</v>
       </c>
-      <c r="B314" s="8">
+      <c r="B314" s="9">
         <v>9.9688114787269883E-2</v>
       </c>
-      <c r="C314" s="3"/>
+      <c r="C314" s="4"/>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A315" s="7">
+      <c r="A315" s="8">
         <v>44197</v>
       </c>
-      <c r="B315" s="8">
+      <c r="B315" s="9">
         <v>0.10345953791176479</v>
       </c>
-      <c r="C315" s="3"/>
+      <c r="C315" s="4"/>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316" s="7">
+      <c r="A316" s="8">
         <v>44228</v>
       </c>
-      <c r="B316" s="8">
+      <c r="B316" s="9">
         <v>9.9036976535253174E-2</v>
       </c>
-      <c r="C316" s="3"/>
+      <c r="C316" s="4"/>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A317" s="7">
+      <c r="A317" s="8">
         <v>44256</v>
       </c>
-      <c r="B317" s="8">
+      <c r="B317" s="9">
         <v>0.11202004609682872</v>
       </c>
-      <c r="C317" s="3"/>
+      <c r="C317" s="4"/>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A318" s="7">
+      <c r="A318" s="8">
         <v>44287</v>
       </c>
-      <c r="B318" s="8">
+      <c r="B318" s="9">
         <v>0.1105</v>
       </c>
-      <c r="C318" s="3"/>
+      <c r="C318" s="4"/>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A319" s="7">
+      <c r="A319" s="8">
         <v>44317</v>
       </c>
-      <c r="B319" s="8">
+      <c r="B319" s="9">
         <v>0.103756060197642</v>
       </c>
-      <c r="C319" s="3"/>
+      <c r="C319" s="4"/>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A320" s="7">
+      <c r="A320" s="8">
         <v>44348</v>
       </c>
-      <c r="B320" s="8">
+      <c r="B320" s="9">
         <v>0.11288777024068533</v>
       </c>
-      <c r="C320" s="3"/>
+      <c r="C320" s="4"/>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A321" s="7">
+      <c r="A321" s="8">
         <v>44378</v>
       </c>
-      <c r="B321" s="8">
+      <c r="B321" s="9">
         <v>0.1217</v>
       </c>
-      <c r="C321" s="3"/>
+      <c r="C321" s="4"/>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A322" s="7">
+      <c r="A322" s="8">
         <v>44409</v>
       </c>
-      <c r="B322" s="8">
+      <c r="B322" s="9">
         <v>0.11860470570232673</v>
       </c>
-      <c r="C322" s="3"/>
+      <c r="C322" s="4"/>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A323" s="7">
+      <c r="A323" s="8">
         <v>44440</v>
       </c>
-      <c r="B323" s="8">
+      <c r="B323" s="9">
         <v>0.15321467349306883</v>
       </c>
-      <c r="C323" s="3"/>
+      <c r="C323" s="4"/>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A324" s="7">
+      <c r="A324" s="8">
         <v>44470</v>
       </c>
-      <c r="B324" s="8">
+      <c r="B324" s="9">
         <v>0.1565</v>
       </c>
-      <c r="C324" s="3"/>
+      <c r="C324" s="4"/>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325" s="7">
+      <c r="A325" s="8">
         <v>44501</v>
       </c>
-      <c r="B325" s="8">
+      <c r="B325" s="9">
         <v>0.15480116295464194</v>
       </c>
-      <c r="C325" s="3"/>
+      <c r="C325" s="4"/>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A326" s="7">
+      <c r="A326" s="8">
         <v>44531</v>
       </c>
-      <c r="B326" s="8">
+      <c r="B326" s="9">
         <v>0.18086975473681763</v>
       </c>
-      <c r="C326" s="3"/>
+      <c r="C326" s="4"/>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327" s="7">
+      <c r="A327" s="8">
         <v>44562</v>
       </c>
-      <c r="B327" s="8">
+      <c r="B327" s="9">
         <v>0.15203711549166959</v>
       </c>
-      <c r="C327" s="3"/>
+      <c r="C327" s="4"/>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A328" s="7">
+      <c r="A328" s="8">
         <v>44593</v>
       </c>
-      <c r="B328" s="8">
+      <c r="B328" s="9">
         <v>0.15045086518646858</v>
       </c>
-      <c r="C328" s="3"/>
+      <c r="C328" s="4"/>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A329" s="7">
+      <c r="A329" s="8">
         <v>44621</v>
       </c>
-      <c r="B329" s="8">
+      <c r="B329" s="9">
         <v>0.13402699778646815</v>
       </c>
-      <c r="C329" s="3"/>
+      <c r="C329" s="4"/>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A330" s="7">
+      <c r="A330" s="8">
         <v>44652</v>
       </c>
-      <c r="B330" s="8">
+      <c r="B330" s="9">
         <v>0.13661550466927599</v>
       </c>
-      <c r="C330" s="3"/>
+      <c r="C330" s="4"/>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A331" s="7">
+      <c r="A331" s="8">
         <v>44682</v>
       </c>
-      <c r="B331" s="8">
+      <c r="B331" s="9">
         <v>0.1321</v>
       </c>
-      <c r="C331" s="3"/>
+      <c r="C331" s="4"/>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A332" s="7">
+      <c r="A332" s="8">
         <v>44713</v>
       </c>
-      <c r="B332" s="8">
+      <c r="B332" s="9">
         <v>0.16510000000000002</v>
       </c>
-      <c r="C332" s="3"/>
+      <c r="C332" s="4"/>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A333" s="7">
+      <c r="A333" s="8">
         <v>44743</v>
       </c>
-      <c r="B333" s="8">
+      <c r="B333" s="9">
         <v>0.1585</v>
       </c>
-      <c r="C333" s="3"/>
+      <c r="C333" s="4"/>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A334" s="7">
+      <c r="A334" s="8">
         <v>44774</v>
       </c>
-      <c r="B334" s="8">
+      <c r="B334" s="9">
         <v>0.1331</v>
       </c>
-      <c r="C334" s="3"/>
+      <c r="C334" s="4"/>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A335" s="7">
+      <c r="A335" s="8">
         <v>44805</v>
       </c>
-      <c r="B335" s="8">
+      <c r="B335" s="9">
         <v>0.14630000000000001</v>
       </c>
-      <c r="C335" s="3"/>
+      <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A336" s="7">
+      <c r="A336" s="8">
         <v>44835</v>
       </c>
-      <c r="B336" s="8">
+      <c r="B336" s="9">
         <v>0.1197</v>
       </c>
-      <c r="C336" s="3"/>
+      <c r="C336" s="4"/>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A337" s="7">
+      <c r="A337" s="8">
         <v>44866</v>
       </c>
-      <c r="B337" s="8">
+      <c r="B337" s="9">
         <v>0.1177</v>
       </c>
-      <c r="C337" s="3"/>
+      <c r="C337" s="4"/>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A338" s="7">
+      <c r="A338" s="8">
         <v>44896</v>
       </c>
-      <c r="B338" s="8">
+      <c r="B338" s="9">
         <v>0.1172183756433729</v>
       </c>
-      <c r="C338" s="3"/>
+      <c r="C338" s="4"/>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A339" s="7">
+      <c r="A339" s="8">
         <v>44927</v>
       </c>
-      <c r="B339" s="8">
+      <c r="B339" s="9">
         <v>0.112566</v>
       </c>
-      <c r="C339" s="3"/>
+      <c r="C339" s="4"/>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A340" s="7">
+      <c r="A340" s="8">
         <v>44958</v>
       </c>
-      <c r="B340" s="8">
+      <c r="B340" s="9">
         <v>0.10406600000000001</v>
       </c>
-      <c r="C340" s="3"/>
+      <c r="C340" s="4"/>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A341" s="7">
+      <c r="A341" s="8">
         <v>44986</v>
       </c>
-      <c r="B341" s="8">
+      <c r="B341" s="9">
         <v>0.100060632666334</v>
       </c>
-      <c r="C341" s="3"/>
+      <c r="C341" s="4"/>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A342" s="7">
+      <c r="A342" s="8">
         <v>45017</v>
       </c>
-      <c r="B342" s="8">
+      <c r="B342" s="9">
         <v>9.7161250237506505E-2</v>
       </c>
-      <c r="C342" s="3"/>
+      <c r="C342" s="4"/>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A343" s="7">
+      <c r="A343" s="8">
         <v>45047</v>
       </c>
-      <c r="B343" s="8">
+      <c r="B343" s="9">
         <v>9.6838061660370997E-2</v>
       </c>
+      <c r="C343" s="4"/>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A344" s="7">
+      <c r="A344" s="8">
         <v>45078</v>
       </c>
-      <c r="B344" s="8">
+      <c r="B344" s="9">
         <v>8.4097029271563706E-2</v>
       </c>
-      <c r="C344" s="3"/>
+      <c r="C344" s="4"/>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A345" s="7">
+      <c r="A345" s="8">
         <v>45108</v>
       </c>
-      <c r="B345" s="8">
+      <c r="B345" s="9">
         <v>7.9421854001553702E-2</v>
       </c>
+      <c r="C345" s="4"/>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A346" s="7">
+      <c r="A346" s="8">
         <v>45139</v>
       </c>
-      <c r="B346" s="8">
+      <c r="B346" s="9">
         <v>8.8703735811575105E-2</v>
       </c>
-      <c r="D346" s="3"/>
+      <c r="C346" s="4"/>
+      <c r="D346" s="4"/>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A347" s="7">
+      <c r="A347" s="8">
         <v>45170</v>
       </c>
-      <c r="B347" s="8">
+      <c r="B347" s="9">
         <v>8.69610556503468E-2</v>
       </c>
+      <c r="C347" s="4"/>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A348" s="7">
+      <c r="A348" s="8">
         <v>45200</v>
       </c>
-      <c r="B348" s="8">
+      <c r="B348" s="9">
         <v>8.5154952330852907E-2</v>
       </c>
-      <c r="C348" s="10"/>
+      <c r="C348" s="4"/>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A349" s="2"/>
+      <c r="A349" s="8">
+        <v>45231</v>
+      </c>
+      <c r="B349" s="9">
+        <v>9.2767735220062306E-2</v>
+      </c>
+      <c r="C349" s="4"/>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350" s="8">
+        <v>45261</v>
+      </c>
+      <c r="B350" s="9">
+        <v>8.8146226677963901E-2</v>
+      </c>
+      <c r="C350" s="11"/>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B352" s="2"/>
+      <c r="C352" s="4"/>
+    </row>
+    <row r="353" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B353" s="2"/>
+      <c r="C353" s="4"/>
+    </row>
+    <row r="354" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B354" s="3"/>
+      <c r="C354" s="4"/>
+    </row>
+    <row r="355" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C355" s="4"/>
+    </row>
+    <row r="356" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C356" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:B2" xr:uid="{00000000-0001-0000-0000-000000000000}">

--- a/Database/Serie de Equity Risk Premium.xlsx
+++ b/Database/Serie de Equity Risk Premium.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bteba\Documents\GitHub\ERP\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1E7793-30AE-4EAA-BD5B-A2C599E03184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BF0422-4912-403D-BFD3-316D3F64D677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,14 +112,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -129,10 +132,6 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1306,6 +1305,9 @@
                 <c:pt idx="347">
                   <c:v>45261</c:v>
                 </c:pt>
+                <c:pt idx="348">
+                  <c:v>45292</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2358,6 +2360,9 @@
                 </c:pt>
                 <c:pt idx="347">
                   <c:v>8.8146226677963901E-2</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>8.25555271465966E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3441,8 +3446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:RX356"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A317" workbookViewId="0">
+      <selection activeCell="F334" sqref="F334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3459,10 +3464,10 @@
       </c>
     </row>
     <row r="2" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="CG2" s="1"/>
@@ -3498,13 +3503,13 @@
       <c r="RX2" s="1"/>
     </row>
     <row r="3" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="9">
         <v>34700</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="10">
         <v>3.5906071097335332E-2</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="3"/>
       <c r="CG3" s="1"/>
       <c r="CH3" s="1"/>
       <c r="CI3" s="1"/>
@@ -3536,13 +3541,13 @@
       <c r="RX3" s="1"/>
     </row>
     <row r="4" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="9">
         <v>34731</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="10">
         <v>4.641371511935781E-2</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="3"/>
       <c r="CG4" s="1"/>
       <c r="CH4" s="1"/>
       <c r="CI4" s="1"/>
@@ -3574,13 +3579,13 @@
       <c r="RX4" s="1"/>
     </row>
     <row r="5" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="9">
         <v>34759</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="10">
         <v>6.8188691890601116E-2</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="3"/>
       <c r="CG5" s="1"/>
       <c r="CH5" s="1"/>
       <c r="CI5" s="1"/>
@@ -3611,13 +3616,13 @@
       <c r="RX5" s="1"/>
     </row>
     <row r="6" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="9">
         <v>34790</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="10">
         <v>9.0011601145643869E-2</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="3"/>
       <c r="CG6" s="1"/>
       <c r="CH6" s="1"/>
       <c r="CI6" s="1"/>
@@ -3646,13 +3651,13 @@
       <c r="RM6" s="1"/>
     </row>
     <row r="7" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="9">
         <v>34820</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="10">
         <v>9.9496073670305801E-2</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="3"/>
       <c r="CG7" s="1"/>
       <c r="CH7" s="1"/>
       <c r="CI7" s="1"/>
@@ -3680,13 +3685,13 @@
       <c r="RM7" s="1"/>
     </row>
     <row r="8" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="9">
         <v>34851</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="10">
         <v>0.11863771466397069</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="3"/>
       <c r="CG8" s="1"/>
       <c r="CH8" s="1"/>
       <c r="CI8" s="1"/>
@@ -3714,13 +3719,13 @@
       <c r="RM8" s="1"/>
     </row>
     <row r="9" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="9">
         <v>34881</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="10">
         <v>0.1181146572660678</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="3"/>
       <c r="CG9" s="1"/>
       <c r="CH9" s="1"/>
       <c r="CI9" s="1"/>
@@ -3738,13 +3743,13 @@
       <c r="RM9" s="1"/>
     </row>
     <row r="10" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="9">
         <v>34912</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="10">
         <v>0.11925440378813899</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="3"/>
       <c r="CG10" s="1"/>
       <c r="CH10" s="1"/>
       <c r="CI10" s="1"/>
@@ -3761,13 +3766,13 @@
       <c r="RM10" s="1"/>
     </row>
     <row r="11" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="9">
         <v>34943</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="10">
         <v>8.0427229515112636E-2</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="3"/>
       <c r="CG11" s="1"/>
       <c r="CH11" s="1"/>
       <c r="CI11" s="1"/>
@@ -3784,13 +3789,13 @@
       <c r="RM11" s="1"/>
     </row>
     <row r="12" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="9">
         <v>34973</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="10">
         <v>9.2888414728135582E-2</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="3"/>
       <c r="CG12" s="1"/>
       <c r="CH12" s="1"/>
       <c r="CI12" s="1"/>
@@ -3806,13 +3811,13 @@
       <c r="RM12" s="1"/>
     </row>
     <row r="13" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="9">
         <v>35004</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="10">
         <v>0.10118496200041718</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="3"/>
       <c r="CG13" s="1"/>
       <c r="CH13" s="1"/>
       <c r="CI13" s="1"/>
@@ -3828,13 +3833,13 @@
       <c r="RM13" s="1"/>
     </row>
     <row r="14" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="9">
         <v>35034</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="10">
         <v>0.10732542683580969</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="3"/>
       <c r="CG14" s="1"/>
       <c r="CH14" s="1"/>
       <c r="CI14" s="1"/>
@@ -3848,13 +3853,13 @@
       <c r="OY14" s="1"/>
     </row>
     <row r="15" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="9">
         <v>35065</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="10">
         <v>9.1621260099534085E-2</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="3"/>
       <c r="CG15" s="1"/>
       <c r="CH15" s="1"/>
       <c r="CI15" s="1"/>
@@ -3868,731 +3873,731 @@
       <c r="OY15" s="1"/>
     </row>
     <row r="16" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="9">
         <v>35096</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="10">
         <v>8.4905503970074639E-2</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="3"/>
       <c r="CP16" s="1"/>
     </row>
     <row r="17" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="9">
         <v>35125</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="10">
         <v>0.10049276040389069</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="3"/>
       <c r="CP17" s="1"/>
     </row>
     <row r="18" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="9">
         <v>35156</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="10">
         <v>9.6531384813158941E-2</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="3"/>
       <c r="CP18" s="1"/>
     </row>
     <row r="19" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="A19" s="9">
         <v>35186</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="10">
         <v>9.5088188666882692E-2</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="3"/>
       <c r="CP19" s="1"/>
     </row>
     <row r="20" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="A20" s="9">
         <v>35217</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="10">
         <v>9.0796583575804307E-2</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="3"/>
       <c r="CP20" s="1"/>
     </row>
     <row r="21" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="A21" s="9">
         <v>35247</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="10">
         <v>9.2623876599203819E-2</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="3"/>
       <c r="CP21" s="1"/>
     </row>
     <row r="22" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="A22" s="9">
         <v>35278</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="10">
         <v>9.1099901245860898E-2</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="3"/>
       <c r="CP22" s="1"/>
     </row>
     <row r="23" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+      <c r="A23" s="9">
         <v>35309</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="10">
         <v>9.2854806609296375E-2</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="3"/>
       <c r="CP23" s="1"/>
     </row>
     <row r="24" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
+      <c r="A24" s="9">
         <v>35339</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="10">
         <v>0.10127373741409153</v>
       </c>
-      <c r="C24" s="4"/>
+      <c r="C24" s="3"/>
       <c r="CP24" s="1"/>
     </row>
     <row r="25" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
+      <c r="A25" s="9">
         <v>35370</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="10">
         <v>0.10142804442282341</v>
       </c>
-      <c r="C25" s="4"/>
+      <c r="C25" s="3"/>
       <c r="CP25" s="1"/>
     </row>
     <row r="26" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
+      <c r="A26" s="9">
         <v>35400</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="10">
         <v>9.9700000278104189E-2</v>
       </c>
-      <c r="C26" s="4"/>
+      <c r="C26" s="3"/>
       <c r="CP26" s="1"/>
     </row>
     <row r="27" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
+      <c r="A27" s="9">
         <v>35431</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="10">
         <v>9.7052332691215076E-2</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="3"/>
       <c r="CP27" s="1"/>
     </row>
     <row r="28" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
+      <c r="A28" s="9">
         <v>35462</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="10">
         <v>9.1057142830797522E-2</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="3"/>
       <c r="CP28" s="1"/>
     </row>
     <row r="29" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+      <c r="A29" s="9">
         <v>35490</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="10">
         <v>8.6177248797735806E-2</v>
       </c>
-      <c r="C29" s="4"/>
+      <c r="C29" s="3"/>
       <c r="CP29" s="1"/>
     </row>
     <row r="30" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+      <c r="A30" s="9">
         <v>35521</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="10">
         <v>8.5066948095953776E-2</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
+      <c r="C30" s="3"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
       <c r="CP30" s="1"/>
     </row>
     <row r="31" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
+      <c r="A31" s="9">
         <v>35551</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="10">
         <v>9.7288837160340563E-2</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
+      <c r="C31" s="3"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
       <c r="CP31" s="1"/>
     </row>
     <row r="32" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
+      <c r="A32" s="9">
         <v>35582</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="10">
         <v>9.6957468174919514E-2</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
+      <c r="C32" s="3"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
       <c r="CP32" s="1"/>
     </row>
     <row r="33" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
+      <c r="A33" s="9">
         <v>35612</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="10">
         <v>9.8258192485687817E-2</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
+      <c r="C33" s="3"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
       <c r="CP33" s="1"/>
     </row>
     <row r="34" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
+      <c r="A34" s="9">
         <v>35643</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="10">
         <v>0.10071108991221206</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="L34" s="7"/>
+      <c r="C34" s="3"/>
+      <c r="L34" s="8"/>
       <c r="CP34" s="1"/>
     </row>
     <row r="35" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
+      <c r="A35" s="9">
         <v>35674</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="10">
         <v>9.4101292650451321E-2</v>
       </c>
-      <c r="C35" s="4"/>
+      <c r="C35" s="3"/>
       <c r="CP35" s="1"/>
     </row>
     <row r="36" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
+      <c r="A36" s="9">
         <v>35704</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="10">
         <v>0.1022443853346008</v>
       </c>
-      <c r="C36" s="4"/>
+      <c r="C36" s="3"/>
       <c r="CP36" s="1"/>
     </row>
     <row r="37" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
+      <c r="A37" s="9">
         <v>35735</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="10">
         <v>0.11673503599412813</v>
       </c>
-      <c r="C37" s="4"/>
+      <c r="C37" s="3"/>
       <c r="CP37" s="1"/>
     </row>
     <row r="38" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
+      <c r="A38" s="9">
         <v>35765</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="10">
         <v>0.12868892588777975</v>
       </c>
-      <c r="C38" s="4"/>
+      <c r="C38" s="3"/>
       <c r="CP38" s="1"/>
     </row>
     <row r="39" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
+      <c r="A39" s="9">
         <v>35796</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="10">
         <v>0.13246738378006745</v>
       </c>
-      <c r="C39" s="4"/>
+      <c r="C39" s="3"/>
       <c r="CP39" s="1"/>
     </row>
     <row r="40" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
+      <c r="A40" s="9">
         <v>35827</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="10">
         <v>0.12192540989307418</v>
       </c>
-      <c r="C40" s="4"/>
+      <c r="C40" s="3"/>
       <c r="CP40" s="1"/>
     </row>
     <row r="41" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A41" s="8">
+      <c r="A41" s="9">
         <v>35855</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="10">
         <v>0.11858185629167939</v>
       </c>
-      <c r="C41" s="4"/>
+      <c r="C41" s="3"/>
       <c r="CP41" s="1"/>
     </row>
     <row r="42" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A42" s="8">
+      <c r="A42" s="9">
         <v>35886</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="10">
         <v>0.11009539820274278</v>
       </c>
-      <c r="C42" s="4"/>
+      <c r="C42" s="3"/>
       <c r="CP42" s="1"/>
     </row>
     <row r="43" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
+      <c r="A43" s="9">
         <v>35916</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="10">
         <v>0.14815671762109539</v>
       </c>
-      <c r="C43" s="4"/>
+      <c r="C43" s="3"/>
       <c r="CP43" s="1"/>
     </row>
     <row r="44" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
+      <c r="A44" s="9">
         <v>35947</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="10">
         <v>0.16414072309545738</v>
       </c>
-      <c r="C44" s="4"/>
+      <c r="C44" s="3"/>
       <c r="CP44" s="1"/>
     </row>
     <row r="45" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
+      <c r="A45" s="9">
         <v>35977</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="10">
         <v>0.15684487547919845</v>
       </c>
-      <c r="C45" s="4"/>
+      <c r="C45" s="3"/>
       <c r="CP45" s="1"/>
     </row>
     <row r="46" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A46" s="8">
+      <c r="A46" s="9">
         <v>36008</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="10">
         <v>0.20761986410571115</v>
       </c>
-      <c r="C46" s="4"/>
+      <c r="C46" s="3"/>
       <c r="CP46" s="1"/>
     </row>
     <row r="47" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A47" s="8">
+      <c r="A47" s="9">
         <v>36039</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B47" s="10">
         <v>0.26488372425157419</v>
       </c>
-      <c r="C47" s="4"/>
+      <c r="C47" s="3"/>
       <c r="CP47" s="1"/>
     </row>
     <row r="48" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A48" s="8">
+      <c r="A48" s="9">
         <v>36069</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="10">
         <v>0.27386908893169182</v>
       </c>
-      <c r="C48" s="4"/>
+      <c r="C48" s="3"/>
       <c r="CP48" s="1"/>
     </row>
     <row r="49" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A49" s="8">
+      <c r="A49" s="9">
         <v>36100</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="10">
         <v>0.23368482800820384</v>
       </c>
-      <c r="C49" s="4"/>
+      <c r="C49" s="3"/>
       <c r="CP49" s="1"/>
     </row>
     <row r="50" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A50" s="8">
+      <c r="A50" s="9">
         <v>36130</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B50" s="10">
         <v>0.19728157436806892</v>
       </c>
-      <c r="C50" s="4"/>
+      <c r="C50" s="3"/>
       <c r="CP50" s="1"/>
     </row>
     <row r="51" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A51" s="8">
+      <c r="A51" s="9">
         <v>36161</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B51" s="10">
         <v>0.18849719620951449</v>
       </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="5"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="6"/>
       <c r="CP51" s="1"/>
     </row>
     <row r="52" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A52" s="8">
+      <c r="A52" s="9">
         <v>36192</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B52" s="10">
         <v>0.17879547863724937</v>
       </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="5"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="6"/>
       <c r="CP52" s="1"/>
     </row>
     <row r="53" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A53" s="8">
+      <c r="A53" s="9">
         <v>36220</v>
       </c>
-      <c r="B53" s="9">
+      <c r="B53" s="10">
         <v>0.19521218246374467</v>
       </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="5"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="6"/>
       <c r="CP53" s="1"/>
     </row>
     <row r="54" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A54" s="8">
+      <c r="A54" s="9">
         <v>36251</v>
       </c>
-      <c r="B54" s="9">
+      <c r="B54" s="10">
         <v>0.17667737273699313</v>
       </c>
-      <c r="C54" s="4"/>
-      <c r="D54" s="5"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="6"/>
       <c r="CP54" s="1"/>
     </row>
     <row r="55" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A55" s="8">
+      <c r="A55" s="9">
         <v>36281</v>
       </c>
-      <c r="B55" s="9">
+      <c r="B55" s="10">
         <v>0.17240854293261376</v>
       </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="5"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="6"/>
       <c r="CP55" s="1"/>
     </row>
     <row r="56" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A56" s="8">
+      <c r="A56" s="9">
         <v>36312</v>
       </c>
-      <c r="B56" s="9">
+      <c r="B56" s="10">
         <v>0.15905547118167043</v>
       </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="5"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="6"/>
       <c r="CP56" s="1"/>
     </row>
     <row r="57" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A57" s="8">
+      <c r="A57" s="9">
         <v>36342</v>
       </c>
-      <c r="B57" s="9">
+      <c r="B57" s="10">
         <v>0.15865389804394955</v>
       </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="5"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="6"/>
       <c r="CP57" s="1"/>
     </row>
     <row r="58" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A58" s="8">
+      <c r="A58" s="9">
         <v>36373</v>
       </c>
-      <c r="B58" s="9">
+      <c r="B58" s="10">
         <v>0.15275419272689961</v>
       </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="5"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="6"/>
       <c r="CP58" s="1"/>
     </row>
     <row r="59" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A59" s="8">
+      <c r="A59" s="9">
         <v>36404</v>
       </c>
-      <c r="B59" s="9">
+      <c r="B59" s="10">
         <v>0.13159865421370617</v>
       </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="5"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="6"/>
       <c r="CP59" s="1"/>
     </row>
     <row r="60" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A60" s="8">
+      <c r="A60" s="9">
         <v>36434</v>
       </c>
-      <c r="B60" s="9">
+      <c r="B60" s="10">
         <v>0.12196728595845485</v>
       </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="5"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="6"/>
       <c r="CP60" s="1"/>
     </row>
     <row r="61" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A61" s="8">
+      <c r="A61" s="9">
         <v>36465</v>
       </c>
-      <c r="B61" s="9">
+      <c r="B61" s="10">
         <v>0.10437517943413213</v>
       </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="5"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="6"/>
       <c r="CP61" s="1"/>
     </row>
     <row r="62" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A62" s="8">
+      <c r="A62" s="9">
         <v>36495</v>
       </c>
-      <c r="B62" s="9">
+      <c r="B62" s="10">
         <v>8.4895285767080067E-2</v>
       </c>
-      <c r="C62" s="4"/>
-      <c r="D62" s="5"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="6"/>
       <c r="CP62" s="1"/>
     </row>
     <row r="63" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A63" s="8">
+      <c r="A63" s="9">
         <v>36526</v>
       </c>
-      <c r="B63" s="9">
+      <c r="B63" s="10">
         <v>8.0964220165040707E-2</v>
       </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="5"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="6"/>
       <c r="CP63" s="1"/>
     </row>
     <row r="64" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A64" s="8">
+      <c r="A64" s="9">
         <v>36557</v>
       </c>
-      <c r="B64" s="9">
+      <c r="B64" s="10">
         <v>8.5143819747368649E-2</v>
       </c>
-      <c r="C64" s="4"/>
-      <c r="D64" s="5"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="6"/>
       <c r="CP64" s="1"/>
     </row>
     <row r="65" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A65" s="8">
+      <c r="A65" s="9">
         <v>36586</v>
       </c>
-      <c r="B65" s="9">
+      <c r="B65" s="10">
         <v>9.4432793059799777E-2</v>
       </c>
-      <c r="C65" s="4"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
       <c r="CP65" s="1"/>
     </row>
     <row r="66" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A66" s="8">
+      <c r="A66" s="9">
         <v>36617</v>
       </c>
-      <c r="B66" s="9">
+      <c r="B66" s="10">
         <v>0.1068984082862578</v>
       </c>
-      <c r="C66" s="4"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
       <c r="CP66" s="1"/>
     </row>
     <row r="67" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A67" s="8">
+      <c r="A67" s="9">
         <v>36647</v>
       </c>
-      <c r="B67" s="9">
+      <c r="B67" s="10">
         <v>0.10194024162250852</v>
       </c>
-      <c r="C67" s="4"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
       <c r="CP67" s="1"/>
     </row>
     <row r="68" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A68" s="8">
+      <c r="A68" s="9">
         <v>36678</v>
       </c>
-      <c r="B68" s="9">
+      <c r="B68" s="10">
         <v>0.11520688931942046</v>
       </c>
-      <c r="C68" s="4"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
       <c r="CP68" s="1"/>
     </row>
     <row r="69" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A69" s="8">
+      <c r="A69" s="9">
         <v>36708</v>
       </c>
-      <c r="B69" s="9">
+      <c r="B69" s="10">
         <v>0.10847862629401375</v>
       </c>
-      <c r="C69" s="4"/>
-      <c r="E69" s="5"/>
+      <c r="C69" s="3"/>
+      <c r="E69" s="6"/>
       <c r="CP69" s="1"/>
     </row>
     <row r="70" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A70" s="8">
+      <c r="A70" s="9">
         <v>36739</v>
       </c>
-      <c r="B70" s="9">
+      <c r="B70" s="10">
         <v>0.11669317806908461</v>
       </c>
-      <c r="C70" s="4"/>
-      <c r="E70" s="5"/>
+      <c r="C70" s="3"/>
+      <c r="E70" s="6"/>
       <c r="CP70" s="1"/>
     </row>
     <row r="71" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A71" s="8">
+      <c r="A71" s="9">
         <v>36770</v>
       </c>
-      <c r="B71" s="9">
+      <c r="B71" s="10">
         <v>0.12461879502315275</v>
       </c>
-      <c r="C71" s="4"/>
-      <c r="E71" s="5"/>
+      <c r="C71" s="3"/>
+      <c r="E71" s="6"/>
       <c r="CP71" s="1"/>
     </row>
     <row r="72" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A72" s="8">
+      <c r="A72" s="9">
         <v>36800</v>
       </c>
-      <c r="B72" s="9">
+      <c r="B72" s="10">
         <v>0.12350351608453644</v>
       </c>
-      <c r="C72" s="4"/>
-      <c r="E72" s="5"/>
+      <c r="C72" s="3"/>
+      <c r="E72" s="6"/>
       <c r="CP72" s="1"/>
     </row>
     <row r="73" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A73" s="8">
+      <c r="A73" s="9">
         <v>36831</v>
       </c>
-      <c r="B73" s="9">
+      <c r="B73" s="10">
         <v>0.13624280260074831</v>
       </c>
-      <c r="C73" s="4"/>
-      <c r="E73" s="5"/>
+      <c r="C73" s="3"/>
+      <c r="E73" s="6"/>
       <c r="CP73" s="1"/>
     </row>
     <row r="74" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A74" s="8">
+      <c r="A74" s="9">
         <v>36861</v>
       </c>
-      <c r="B74" s="9">
+      <c r="B74" s="10">
         <v>0.10449451374749155</v>
       </c>
-      <c r="C74" s="4"/>
-      <c r="E74" s="5"/>
+      <c r="C74" s="3"/>
+      <c r="E74" s="6"/>
       <c r="CP74" s="1"/>
     </row>
     <row r="75" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A75" s="8">
+      <c r="A75" s="9">
         <v>36892</v>
       </c>
-      <c r="B75" s="9">
+      <c r="B75" s="10">
         <v>9.8078739800215115E-2</v>
       </c>
-      <c r="C75" s="4"/>
-      <c r="E75" s="5"/>
+      <c r="C75" s="3"/>
+      <c r="E75" s="6"/>
       <c r="CP75" s="1"/>
     </row>
     <row r="76" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A76" s="8">
+      <c r="A76" s="9">
         <v>36923</v>
       </c>
-      <c r="B76" s="9">
+      <c r="B76" s="10">
         <v>9.4986612102584869E-2</v>
       </c>
-      <c r="C76" s="4"/>
-      <c r="E76" s="5"/>
+      <c r="C76" s="3"/>
+      <c r="E76" s="6"/>
       <c r="CP76" s="1"/>
     </row>
     <row r="77" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A77" s="8">
+      <c r="A77" s="9">
         <v>36951</v>
       </c>
-      <c r="B77" s="9">
+      <c r="B77" s="10">
         <v>0.10943199261845223</v>
       </c>
-      <c r="C77" s="4"/>
-      <c r="E77" s="5"/>
+      <c r="C77" s="3"/>
+      <c r="E77" s="6"/>
       <c r="CP77" s="1"/>
     </row>
     <row r="78" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A78" s="8">
+      <c r="A78" s="9">
         <v>36982</v>
       </c>
-      <c r="B78" s="9">
+      <c r="B78" s="10">
         <v>0.10230821441197835</v>
       </c>
-      <c r="C78" s="4"/>
-      <c r="E78" s="5"/>
+      <c r="C78" s="3"/>
+      <c r="E78" s="6"/>
       <c r="CP78" s="1"/>
     </row>
     <row r="79" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A79" s="8">
+      <c r="A79" s="9">
         <v>37012</v>
       </c>
-      <c r="B79" s="9">
+      <c r="B79" s="10">
         <v>0.11448510925596571</v>
       </c>
-      <c r="C79" s="4"/>
-      <c r="E79" s="5"/>
+      <c r="C79" s="3"/>
+      <c r="E79" s="6"/>
       <c r="CP79" s="1"/>
     </row>
     <row r="80" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A80" s="8">
+      <c r="A80" s="9">
         <v>37043</v>
       </c>
-      <c r="B80" s="9">
+      <c r="B80" s="10">
         <v>0.12205193419326613</v>
       </c>
-      <c r="C80" s="4"/>
-      <c r="E80" s="5"/>
+      <c r="C80" s="3"/>
+      <c r="E80" s="6"/>
       <c r="CP80" s="1"/>
     </row>
     <row r="81" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A81" s="8">
+      <c r="A81" s="9">
         <v>37073</v>
       </c>
-      <c r="B81" s="9">
+      <c r="B81" s="10">
         <v>0.12472087316217893</v>
       </c>
-      <c r="C81" s="4"/>
-      <c r="E81" s="5"/>
+      <c r="C81" s="3"/>
+      <c r="E81" s="6"/>
       <c r="CP81" s="1"/>
       <c r="DC81" s="1"/>
       <c r="DE81" s="1"/>
@@ -4604,13 +4609,13 @@
       <c r="DK81" s="1"/>
     </row>
     <row r="82" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A82" s="8">
+      <c r="A82" s="9">
         <v>37104</v>
       </c>
-      <c r="B82" s="9">
+      <c r="B82" s="10">
         <v>0.13164962330151575</v>
       </c>
-      <c r="C82" s="4"/>
+      <c r="C82" s="3"/>
       <c r="CP82" s="1"/>
       <c r="DC82" s="1"/>
       <c r="DE82" s="1"/>
@@ -4622,13 +4627,13 @@
       <c r="DK82" s="1"/>
     </row>
     <row r="83" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A83" s="8">
+      <c r="A83" s="9">
         <v>37135</v>
       </c>
-      <c r="B83" s="9">
+      <c r="B83" s="10">
         <v>0.16920274455915726</v>
       </c>
-      <c r="C83" s="4"/>
+      <c r="C83" s="3"/>
       <c r="CP83" s="1"/>
       <c r="DC83" s="1"/>
       <c r="DE83" s="1"/>
@@ -4641,13 +4646,13 @@
       <c r="FQ83" s="1"/>
     </row>
     <row r="84" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A84" s="8">
+      <c r="A84" s="9">
         <v>37165</v>
       </c>
-      <c r="B84" s="9">
+      <c r="B84" s="10">
         <v>0.16487384010580458</v>
       </c>
-      <c r="C84" s="4"/>
+      <c r="C84" s="3"/>
       <c r="CP84" s="1"/>
       <c r="DC84" s="1"/>
       <c r="DE84" s="1"/>
@@ -4660,13 +4665,13 @@
       <c r="FQ84" s="1"/>
     </row>
     <row r="85" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A85" s="8">
+      <c r="A85" s="9">
         <v>37196</v>
       </c>
-      <c r="B85" s="9">
+      <c r="B85" s="10">
         <v>0.14485365882340293</v>
       </c>
-      <c r="C85" s="4"/>
+      <c r="C85" s="3"/>
       <c r="CP85" s="1"/>
       <c r="DC85" s="1"/>
       <c r="DE85" s="1"/>
@@ -4679,13 +4684,13 @@
       <c r="FQ85" s="1"/>
     </row>
     <row r="86" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A86" s="8">
+      <c r="A86" s="9">
         <v>37226</v>
       </c>
-      <c r="B86" s="9">
+      <c r="B86" s="10">
         <v>0.12057147500114479</v>
       </c>
-      <c r="C86" s="4"/>
+      <c r="C86" s="3"/>
       <c r="CP86" s="1"/>
       <c r="DC86" s="1"/>
       <c r="DE86" s="1"/>
@@ -4698,13 +4703,13 @@
       <c r="FQ86" s="1"/>
     </row>
     <row r="87" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A87" s="8">
+      <c r="A87" s="9">
         <v>37257</v>
       </c>
-      <c r="B87" s="9">
+      <c r="B87" s="10">
         <v>0.12028644057053653</v>
       </c>
-      <c r="C87" s="4"/>
+      <c r="C87" s="3"/>
       <c r="CP87" s="1"/>
       <c r="DC87" s="1"/>
       <c r="DE87" s="1"/>
@@ -4717,13 +4722,13 @@
       <c r="FQ87" s="1"/>
     </row>
     <row r="88" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A88" s="8">
+      <c r="A88" s="9">
         <v>37288</v>
       </c>
-      <c r="B88" s="9">
+      <c r="B88" s="10">
         <v>0.11585635189852062</v>
       </c>
-      <c r="C88" s="4"/>
+      <c r="C88" s="3"/>
       <c r="CP88" s="1"/>
       <c r="DC88" s="1"/>
       <c r="DE88" s="1"/>
@@ -4736,13 +4741,13 @@
       <c r="FQ88" s="1"/>
     </row>
     <row r="89" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A89" s="8">
+      <c r="A89" s="9">
         <v>37316</v>
       </c>
-      <c r="B89" s="9">
+      <c r="B89" s="10">
         <v>0.12274527752297042</v>
       </c>
-      <c r="C89" s="4"/>
+      <c r="C89" s="3"/>
       <c r="CP89" s="1"/>
       <c r="DC89" s="1"/>
       <c r="DE89" s="1"/>
@@ -4756,13 +4761,13 @@
       <c r="FQ89" s="1"/>
     </row>
     <row r="90" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A90" s="8">
+      <c r="A90" s="9">
         <v>37347</v>
       </c>
-      <c r="B90" s="9">
+      <c r="B90" s="10">
         <v>0.12101568147782529</v>
       </c>
-      <c r="C90" s="4"/>
+      <c r="C90" s="3"/>
       <c r="CP90" s="1"/>
       <c r="DC90" s="1"/>
       <c r="DE90" s="1"/>
@@ -4776,13 +4781,13 @@
       <c r="FQ90" s="1"/>
     </row>
     <row r="91" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A91" s="8">
+      <c r="A91" s="9">
         <v>37377</v>
       </c>
-      <c r="B91" s="9">
+      <c r="B91" s="10">
         <v>0.13834911739732181</v>
       </c>
-      <c r="C91" s="4"/>
+      <c r="C91" s="3"/>
       <c r="CP91" s="1"/>
       <c r="DC91" s="1"/>
       <c r="DE91" s="1"/>
@@ -4796,13 +4801,13 @@
       <c r="FQ91" s="1"/>
     </row>
     <row r="92" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A92" s="8">
+      <c r="A92" s="9">
         <v>37408</v>
       </c>
-      <c r="B92" s="9">
+      <c r="B92" s="10">
         <v>0.13898444661446926</v>
       </c>
-      <c r="C92" s="4"/>
+      <c r="C92" s="3"/>
       <c r="CP92" s="1"/>
       <c r="DC92" s="1"/>
       <c r="DE92" s="1"/>
@@ -4817,13 +4822,13 @@
       <c r="FQ92" s="1"/>
     </row>
     <row r="93" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A93" s="8">
+      <c r="A93" s="9">
         <v>37438</v>
       </c>
-      <c r="B93" s="9">
+      <c r="B93" s="10">
         <v>0.15154676452080135</v>
       </c>
-      <c r="C93" s="4"/>
+      <c r="C93" s="3"/>
       <c r="CP93" s="1"/>
       <c r="DC93" s="1"/>
       <c r="DE93" s="1"/>
@@ -4838,13 +4843,13 @@
       <c r="FQ93" s="1"/>
     </row>
     <row r="94" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A94" s="8">
+      <c r="A94" s="9">
         <v>37469</v>
       </c>
-      <c r="B94" s="9">
+      <c r="B94" s="10">
         <v>0.14914501917668246</v>
       </c>
-      <c r="C94" s="4"/>
+      <c r="C94" s="3"/>
       <c r="CP94" s="1"/>
       <c r="DC94" s="1"/>
       <c r="DE94" s="1"/>
@@ -4859,13 +4864,13 @@
       <c r="FQ94" s="1"/>
     </row>
     <row r="95" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A95" s="8">
+      <c r="A95" s="9">
         <v>37500</v>
       </c>
-      <c r="B95" s="9">
+      <c r="B95" s="10">
         <v>0.17729158577688089</v>
       </c>
-      <c r="C95" s="4"/>
+      <c r="C95" s="3"/>
       <c r="CP95" s="1"/>
       <c r="DC95" s="1"/>
       <c r="DE95" s="1"/>
@@ -4881,13 +4886,13 @@
       <c r="GX95" s="1"/>
     </row>
     <row r="96" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A96" s="8">
+      <c r="A96" s="9">
         <v>37530</v>
       </c>
-      <c r="B96" s="9">
+      <c r="B96" s="10">
         <v>0.16158417270187989</v>
       </c>
-      <c r="C96" s="4"/>
+      <c r="C96" s="3"/>
       <c r="CP96" s="1"/>
       <c r="DC96" s="1"/>
       <c r="DE96" s="1"/>
@@ -4903,13 +4908,13 @@
       <c r="GX96" s="1"/>
     </row>
     <row r="97" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A97" s="8">
+      <c r="A97" s="9">
         <v>37561</v>
       </c>
-      <c r="B97" s="9">
+      <c r="B97" s="10">
         <v>0.15765516285709646</v>
       </c>
-      <c r="C97" s="4"/>
+      <c r="C97" s="3"/>
       <c r="CG97" s="1"/>
       <c r="CH97" s="1"/>
       <c r="CI97" s="1"/>
@@ -4935,13 +4940,13 @@
       <c r="QQ97" s="1"/>
     </row>
     <row r="98" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A98" s="8">
+      <c r="A98" s="9">
         <v>37591</v>
       </c>
-      <c r="B98" s="9">
+      <c r="B98" s="10">
         <v>0.16155516390609645</v>
       </c>
-      <c r="C98" s="4"/>
+      <c r="C98" s="3"/>
       <c r="CG98" s="1"/>
       <c r="CH98" s="1"/>
       <c r="CI98" s="1"/>
@@ -4967,13 +4972,13 @@
       <c r="QQ98" s="1"/>
     </row>
     <row r="99" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A99" s="8">
+      <c r="A99" s="9">
         <v>37622</v>
       </c>
-      <c r="B99" s="9">
+      <c r="B99" s="10">
         <v>0.16721818984210535</v>
       </c>
-      <c r="C99" s="4"/>
+      <c r="C99" s="3"/>
       <c r="CG99" s="1"/>
       <c r="CH99" s="1"/>
       <c r="CI99" s="1"/>
@@ -5008,13 +5013,13 @@
       <c r="QQ99" s="1"/>
     </row>
     <row r="100" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A100" s="8">
+      <c r="A100" s="9">
         <v>37653</v>
       </c>
-      <c r="B100" s="9">
+      <c r="B100" s="10">
         <v>0.16873740603929704</v>
       </c>
-      <c r="C100" s="4"/>
+      <c r="C100" s="3"/>
       <c r="CG100" s="1"/>
       <c r="CH100" s="1"/>
       <c r="CI100" s="1"/>
@@ -5059,13 +5064,13 @@
       <c r="QQ100" s="1"/>
     </row>
     <row r="101" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A101" s="8">
+      <c r="A101" s="9">
         <v>37681</v>
       </c>
-      <c r="B101" s="9">
+      <c r="B101" s="10">
         <v>0.17960657789052537</v>
       </c>
-      <c r="C101" s="4"/>
+      <c r="C101" s="3"/>
       <c r="CG101" s="1"/>
       <c r="CH101" s="1"/>
       <c r="CI101" s="1"/>
@@ -5111,13 +5116,13 @@
       <c r="QQ101" s="1"/>
     </row>
     <row r="102" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A102" s="8">
+      <c r="A102" s="9">
         <v>37712</v>
       </c>
-      <c r="B102" s="9">
+      <c r="B102" s="10">
         <v>0.17370103158576525</v>
       </c>
-      <c r="C102" s="4"/>
+      <c r="C102" s="3"/>
       <c r="CG102" s="1"/>
       <c r="CH102" s="1"/>
       <c r="CI102" s="1"/>
@@ -5163,13 +5168,13 @@
       <c r="QQ102" s="1"/>
     </row>
     <row r="103" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A103" s="8">
+      <c r="A103" s="9">
         <v>37742</v>
       </c>
-      <c r="B103" s="9">
+      <c r="B103" s="10">
         <v>0.17745962817797939</v>
       </c>
-      <c r="C103" s="4"/>
+      <c r="C103" s="3"/>
       <c r="CG103" s="1"/>
       <c r="CH103" s="1"/>
       <c r="CI103" s="1"/>
@@ -5216,13 +5221,13 @@
       <c r="QQ103" s="1"/>
     </row>
     <row r="104" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A104" s="8">
+      <c r="A104" s="9">
         <v>37773</v>
       </c>
-      <c r="B104" s="9">
+      <c r="B104" s="10">
         <v>0.17353423821042152</v>
       </c>
-      <c r="C104" s="4"/>
+      <c r="C104" s="3"/>
       <c r="CG104" s="1"/>
       <c r="CH104" s="1"/>
       <c r="CI104" s="1"/>
@@ -5270,13 +5275,13 @@
       <c r="QQ104" s="1"/>
     </row>
     <row r="105" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A105" s="8">
+      <c r="A105" s="9">
         <v>37803</v>
       </c>
-      <c r="B105" s="9">
+      <c r="B105" s="10">
         <v>0.16443232371464103</v>
       </c>
-      <c r="C105" s="4"/>
+      <c r="C105" s="3"/>
       <c r="CG105" s="1"/>
       <c r="CH105" s="1"/>
       <c r="CI105" s="1"/>
@@ -5324,13 +5329,13 @@
       <c r="QQ105" s="1"/>
     </row>
     <row r="106" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A106" s="8">
+      <c r="A106" s="9">
         <v>37834</v>
       </c>
-      <c r="B106" s="9">
+      <c r="B106" s="10">
         <v>0.16083606998584948</v>
       </c>
-      <c r="C106" s="4"/>
+      <c r="C106" s="3"/>
       <c r="CG106" s="1"/>
       <c r="CH106" s="1"/>
       <c r="CI106" s="1"/>
@@ -5379,13 +5384,13 @@
       <c r="QQ106" s="1"/>
     </row>
     <row r="107" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A107" s="8">
+      <c r="A107" s="9">
         <v>37865</v>
       </c>
-      <c r="B107" s="9">
+      <c r="B107" s="10">
         <v>0.19762447566023092</v>
       </c>
-      <c r="C107" s="4"/>
+      <c r="C107" s="3"/>
       <c r="CG107" s="1"/>
       <c r="CH107" s="1"/>
       <c r="CI107" s="1"/>
@@ -5438,13 +5443,13 @@
       <c r="RX107" s="1"/>
     </row>
     <row r="108" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A108" s="8">
+      <c r="A108" s="9">
         <v>37895</v>
       </c>
-      <c r="B108" s="9">
+      <c r="B108" s="10">
         <v>0.18706253495325156</v>
       </c>
-      <c r="C108" s="4"/>
+      <c r="C108" s="3"/>
       <c r="CG108" s="1"/>
       <c r="CH108" s="1"/>
       <c r="CI108" s="1"/>
@@ -5497,13 +5502,13 @@
       <c r="RX108" s="1"/>
     </row>
     <row r="109" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A109" s="8">
+      <c r="A109" s="9">
         <v>37926</v>
       </c>
-      <c r="B109" s="9">
+      <c r="B109" s="10">
         <v>0.18579912866791054</v>
       </c>
-      <c r="C109" s="4"/>
+      <c r="C109" s="3"/>
       <c r="CG109" s="1"/>
       <c r="CH109" s="1"/>
       <c r="CI109" s="1"/>
@@ -5558,13 +5563,13 @@
       <c r="RX109" s="1"/>
     </row>
     <row r="110" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A110" s="8">
+      <c r="A110" s="9">
         <v>37956</v>
       </c>
-      <c r="B110" s="9">
+      <c r="B110" s="10">
         <v>0.15228963728645464</v>
       </c>
-      <c r="C110" s="4"/>
+      <c r="C110" s="3"/>
       <c r="CG110" s="1"/>
       <c r="CH110" s="1"/>
       <c r="CI110" s="1"/>
@@ -5621,13 +5626,13 @@
       <c r="RX110" s="1"/>
     </row>
     <row r="111" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A111" s="8">
+      <c r="A111" s="9">
         <v>37987</v>
       </c>
-      <c r="B111" s="9">
+      <c r="B111" s="10">
         <v>0.14979423018271038</v>
       </c>
-      <c r="C111" s="4"/>
+      <c r="C111" s="3"/>
       <c r="CG111" s="1"/>
       <c r="CH111" s="1"/>
       <c r="CI111" s="1"/>
@@ -5684,13 +5689,13 @@
       <c r="RX111" s="1"/>
     </row>
     <row r="112" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A112" s="8">
+      <c r="A112" s="9">
         <v>38018</v>
       </c>
-      <c r="B112" s="9">
+      <c r="B112" s="10">
         <v>0.15531103806729979</v>
       </c>
-      <c r="C112" s="4"/>
+      <c r="C112" s="3"/>
       <c r="CG112" s="1"/>
       <c r="CH112" s="1"/>
       <c r="CI112" s="1"/>
@@ -5747,13 +5752,13 @@
       <c r="RX112" s="1"/>
     </row>
     <row r="113" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A113" s="8">
+      <c r="A113" s="9">
         <v>38047</v>
       </c>
-      <c r="B113" s="9">
+      <c r="B113" s="10">
         <v>0.15189953279944524</v>
       </c>
-      <c r="C113" s="4"/>
+      <c r="C113" s="3"/>
       <c r="CG113" s="1"/>
       <c r="CH113" s="1"/>
       <c r="CI113" s="1"/>
@@ -5812,13 +5817,13 @@
       <c r="RX113" s="1"/>
     </row>
     <row r="114" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A114" s="8">
+      <c r="A114" s="9">
         <v>38078</v>
       </c>
-      <c r="B114" s="9">
+      <c r="B114" s="10">
         <v>0.14238155308795486</v>
       </c>
-      <c r="C114" s="4"/>
+      <c r="C114" s="3"/>
       <c r="CG114" s="1"/>
       <c r="CH114" s="1"/>
       <c r="CI114" s="1"/>
@@ -5878,13 +5883,13 @@
       <c r="RX114" s="1"/>
     </row>
     <row r="115" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A115" s="8">
+      <c r="A115" s="9">
         <v>38108</v>
       </c>
-      <c r="B115" s="9">
+      <c r="B115" s="10">
         <v>0.13993688563245948</v>
       </c>
-      <c r="C115" s="4"/>
+      <c r="C115" s="3"/>
       <c r="CG115" s="1"/>
       <c r="CH115" s="1"/>
       <c r="CI115" s="1"/>
@@ -5955,13 +5960,13 @@
       <c r="RX115" s="1"/>
     </row>
     <row r="116" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A116" s="8">
+      <c r="A116" s="9">
         <v>38139</v>
       </c>
-      <c r="B116" s="9">
+      <c r="B116" s="10">
         <v>0.13205156859518685</v>
       </c>
-      <c r="C116" s="4"/>
+      <c r="C116" s="3"/>
       <c r="CG116" s="1"/>
       <c r="CH116" s="1"/>
       <c r="CI116" s="1"/>
@@ -6043,13 +6048,13 @@
       <c r="RX116" s="1"/>
     </row>
     <row r="117" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A117" s="8">
+      <c r="A117" s="9">
         <v>38169</v>
       </c>
-      <c r="B117" s="9">
+      <c r="B117" s="10">
         <v>0.1321356483644931</v>
       </c>
-      <c r="C117" s="4"/>
+      <c r="C117" s="3"/>
       <c r="CG117" s="1"/>
       <c r="CH117" s="1"/>
       <c r="CI117" s="1"/>
@@ -6133,13 +6138,13 @@
       <c r="RX117" s="1"/>
     </row>
     <row r="118" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A118" s="8">
+      <c r="A118" s="9">
         <v>38200</v>
       </c>
-      <c r="B118" s="9">
+      <c r="B118" s="10">
         <v>0.13235416398227642</v>
       </c>
-      <c r="C118" s="4"/>
+      <c r="C118" s="3"/>
       <c r="CG118" s="1"/>
       <c r="CH118" s="1"/>
       <c r="CI118" s="1"/>
@@ -6223,13 +6228,13 @@
       <c r="RX118" s="1"/>
     </row>
     <row r="119" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A119" s="8">
+      <c r="A119" s="9">
         <v>38231</v>
       </c>
-      <c r="B119" s="9">
+      <c r="B119" s="10">
         <v>0.14198841003714582</v>
       </c>
-      <c r="C119" s="4"/>
+      <c r="C119" s="3"/>
       <c r="CG119" s="1"/>
       <c r="CH119" s="1"/>
       <c r="CI119" s="1"/>
@@ -6313,13 +6318,13 @@
       <c r="RX119" s="1"/>
     </row>
     <row r="120" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A120" s="8">
+      <c r="A120" s="9">
         <v>38261</v>
       </c>
-      <c r="B120" s="9">
+      <c r="B120" s="10">
         <v>0.14054340020098038</v>
       </c>
-      <c r="C120" s="4"/>
+      <c r="C120" s="3"/>
       <c r="CG120" s="1"/>
       <c r="CH120" s="1"/>
       <c r="CI120" s="1"/>
@@ -6403,13 +6408,13 @@
       <c r="RX120" s="1"/>
     </row>
     <row r="121" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A121" s="8">
+      <c r="A121" s="9">
         <v>38292</v>
       </c>
-      <c r="B121" s="9">
+      <c r="B121" s="10">
         <v>0.13208337856049901</v>
       </c>
-      <c r="C121" s="4"/>
+      <c r="C121" s="3"/>
       <c r="CG121" s="1"/>
       <c r="CH121" s="1"/>
       <c r="CI121" s="1"/>
@@ -6494,13 +6499,13 @@
       <c r="RX121" s="1"/>
     </row>
     <row r="122" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A122" s="8">
+      <c r="A122" s="9">
         <v>38322</v>
       </c>
-      <c r="B122" s="9">
+      <c r="B122" s="10">
         <v>0.13722393226951568</v>
       </c>
-      <c r="C122" s="4"/>
+      <c r="C122" s="3"/>
       <c r="CG122" s="1"/>
       <c r="CH122" s="1"/>
       <c r="CI122" s="1"/>
@@ -6585,13 +6590,13 @@
       <c r="RX122" s="1"/>
     </row>
     <row r="123" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A123" s="8">
+      <c r="A123" s="9">
         <v>38353</v>
       </c>
-      <c r="B123" s="9">
+      <c r="B123" s="10">
         <v>0.13998031470880479</v>
       </c>
-      <c r="C123" s="4"/>
+      <c r="C123" s="3"/>
       <c r="CG123" s="1"/>
       <c r="CH123" s="1"/>
       <c r="CI123" s="1"/>
@@ -6676,13 +6681,13 @@
       <c r="RX123" s="1"/>
     </row>
     <row r="124" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A124" s="8">
+      <c r="A124" s="9">
         <v>38384</v>
       </c>
-      <c r="B124" s="9">
+      <c r="B124" s="10">
         <v>0.14381330437458539</v>
       </c>
-      <c r="C124" s="4"/>
+      <c r="C124" s="3"/>
       <c r="CG124" s="1"/>
       <c r="CH124" s="1"/>
       <c r="CI124" s="1"/>
@@ -6769,13 +6774,13 @@
       <c r="RX124" s="1"/>
     </row>
     <row r="125" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A125" s="8">
+      <c r="A125" s="9">
         <v>38412</v>
       </c>
-      <c r="B125" s="9">
+      <c r="B125" s="10">
         <v>0.13883886128708484</v>
       </c>
-      <c r="C125" s="4"/>
+      <c r="C125" s="3"/>
       <c r="CG125" s="1"/>
       <c r="CH125" s="1"/>
       <c r="CI125" s="1"/>
@@ -6862,13 +6867,13 @@
       <c r="RX125" s="1"/>
     </row>
     <row r="126" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A126" s="8">
+      <c r="A126" s="9">
         <v>38443</v>
       </c>
-      <c r="B126" s="9">
+      <c r="B126" s="10">
         <v>0.14223096597630486</v>
       </c>
-      <c r="C126" s="4"/>
+      <c r="C126" s="3"/>
       <c r="CG126" s="1"/>
       <c r="CH126" s="1"/>
       <c r="CI126" s="1"/>
@@ -6955,13 +6960,13 @@
       <c r="RX126" s="1"/>
     </row>
     <row r="127" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A127" s="8">
+      <c r="A127" s="9">
         <v>38473</v>
       </c>
-      <c r="B127" s="9">
+      <c r="B127" s="10">
         <v>0.15130856651883109</v>
       </c>
-      <c r="C127" s="4"/>
+      <c r="C127" s="3"/>
       <c r="CG127" s="1"/>
       <c r="CH127" s="1"/>
       <c r="CI127" s="1"/>
@@ -7049,13 +7054,13 @@
       <c r="RX127" s="1"/>
     </row>
     <row r="128" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A128" s="8">
+      <c r="A128" s="9">
         <v>38504</v>
       </c>
-      <c r="B128" s="9">
+      <c r="B128" s="10">
         <v>0.17613645867084826</v>
       </c>
-      <c r="C128" s="4"/>
+      <c r="C128" s="3"/>
       <c r="CG128" s="1"/>
       <c r="CH128" s="1"/>
       <c r="CI128" s="1"/>
@@ -7144,13 +7149,13 @@
       <c r="RX128" s="1"/>
     </row>
     <row r="129" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A129" s="8">
+      <c r="A129" s="9">
         <v>38534</v>
       </c>
-      <c r="B129" s="9">
+      <c r="B129" s="10">
         <v>0.17526795031368764</v>
       </c>
-      <c r="C129" s="4"/>
+      <c r="C129" s="3"/>
       <c r="CG129" s="1"/>
       <c r="CH129" s="1"/>
       <c r="CI129" s="1"/>
@@ -7239,13 +7244,13 @@
       <c r="RX129" s="1"/>
     </row>
     <row r="130" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A130" s="8">
+      <c r="A130" s="9">
         <v>38565</v>
       </c>
-      <c r="B130" s="9">
+      <c r="B130" s="10">
         <v>0.17356897074457586</v>
       </c>
-      <c r="C130" s="4"/>
+      <c r="C130" s="3"/>
       <c r="CG130" s="1"/>
       <c r="CH130" s="1"/>
       <c r="CI130" s="1"/>
@@ -7334,13 +7339,13 @@
       <c r="RX130" s="1"/>
     </row>
     <row r="131" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A131" s="8">
+      <c r="A131" s="9">
         <v>38596</v>
       </c>
-      <c r="B131" s="9">
+      <c r="B131" s="10">
         <v>0.13496571144618535</v>
       </c>
-      <c r="C131" s="4"/>
+      <c r="C131" s="3"/>
       <c r="CG131" s="1"/>
       <c r="CH131" s="1"/>
       <c r="CI131" s="1"/>
@@ -7429,13 +7434,13 @@
       <c r="RX131" s="1"/>
     </row>
     <row r="132" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A132" s="8">
+      <c r="A132" s="9">
         <v>38626</v>
       </c>
-      <c r="B132" s="9">
+      <c r="B132" s="10">
         <v>0.13393339678506488</v>
       </c>
-      <c r="C132" s="4"/>
+      <c r="C132" s="3"/>
       <c r="CG132" s="1"/>
       <c r="CH132" s="1"/>
       <c r="CI132" s="1"/>
@@ -7524,13 +7529,13 @@
       <c r="RX132" s="1"/>
     </row>
     <row r="133" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A133" s="8">
+      <c r="A133" s="9">
         <v>38657</v>
       </c>
-      <c r="B133" s="9">
+      <c r="B133" s="10">
         <v>0.13831045015123039</v>
       </c>
-      <c r="C133" s="4"/>
+      <c r="C133" s="3"/>
       <c r="CG133" s="1"/>
       <c r="CH133" s="1"/>
       <c r="CI133" s="1"/>
@@ -7619,13 +7624,13 @@
       <c r="RX133" s="1"/>
     </row>
     <row r="134" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A134" s="8">
+      <c r="A134" s="9">
         <v>38687</v>
       </c>
-      <c r="B134" s="9">
+      <c r="B134" s="10">
         <v>0.12603299570326587</v>
       </c>
-      <c r="C134" s="4"/>
+      <c r="C134" s="3"/>
       <c r="CG134" s="1"/>
       <c r="CH134" s="1"/>
       <c r="CI134" s="1"/>
@@ -7714,13 +7719,13 @@
       <c r="RX134" s="1"/>
     </row>
     <row r="135" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A135" s="8">
+      <c r="A135" s="9">
         <v>38718</v>
       </c>
-      <c r="B135" s="9">
+      <c r="B135" s="10">
         <v>0.12251013261185581</v>
       </c>
-      <c r="C135" s="4"/>
+      <c r="C135" s="3"/>
       <c r="CG135" s="1"/>
       <c r="CH135" s="1"/>
       <c r="CI135" s="1"/>
@@ -7809,13 +7814,13 @@
       <c r="RX135" s="1"/>
     </row>
     <row r="136" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A136" s="8">
+      <c r="A136" s="9">
         <v>38749</v>
       </c>
-      <c r="B136" s="9">
+      <c r="B136" s="10">
         <v>0.11689155988668461</v>
       </c>
-      <c r="C136" s="4"/>
+      <c r="C136" s="3"/>
       <c r="CG136" s="1"/>
       <c r="CH136" s="1"/>
       <c r="CI136" s="1"/>
@@ -7904,13 +7909,13 @@
       <c r="RX136" s="1"/>
     </row>
     <row r="137" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A137" s="8">
+      <c r="A137" s="9">
         <v>38777</v>
       </c>
-      <c r="B137" s="9">
+      <c r="B137" s="10">
         <v>0.11182793411322625</v>
       </c>
-      <c r="C137" s="4"/>
+      <c r="C137" s="3"/>
       <c r="CG137" s="1"/>
       <c r="CH137" s="1"/>
       <c r="CI137" s="1"/>
@@ -7999,13 +8004,13 @@
       <c r="RX137" s="1"/>
     </row>
     <row r="138" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A138" s="8">
+      <c r="A138" s="9">
         <v>38808</v>
       </c>
-      <c r="B138" s="9">
+      <c r="B138" s="10">
         <v>0.1062966817216436</v>
       </c>
-      <c r="C138" s="4"/>
+      <c r="C138" s="3"/>
       <c r="CG138" s="1"/>
       <c r="CH138" s="1"/>
       <c r="CI138" s="1"/>
@@ -8094,13 +8099,13 @@
       <c r="RX138" s="1"/>
     </row>
     <row r="139" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A139" s="8">
+      <c r="A139" s="9">
         <v>38838</v>
       </c>
-      <c r="B139" s="9">
+      <c r="B139" s="10">
         <v>0.10685897585166657</v>
       </c>
-      <c r="C139" s="4"/>
+      <c r="C139" s="3"/>
       <c r="CG139" s="1"/>
       <c r="CH139" s="1"/>
       <c r="CI139" s="1"/>
@@ -8189,13 +8194,13 @@
       <c r="RX139" s="1"/>
     </row>
     <row r="140" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A140" s="8">
+      <c r="A140" s="9">
         <v>38869</v>
       </c>
-      <c r="B140" s="9">
+      <c r="B140" s="10">
         <v>0.10321059015113987</v>
       </c>
-      <c r="C140" s="4"/>
+      <c r="C140" s="3"/>
       <c r="CG140" s="1"/>
       <c r="CH140" s="1"/>
       <c r="CI140" s="1"/>
@@ -8284,13 +8289,13 @@
       <c r="RX140" s="1"/>
     </row>
     <row r="141" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A141" s="8">
+      <c r="A141" s="9">
         <v>38899</v>
       </c>
-      <c r="B141" s="9">
+      <c r="B141" s="10">
         <v>0.1042737605249823</v>
       </c>
-      <c r="C141" s="4"/>
+      <c r="C141" s="3"/>
       <c r="CG141" s="1"/>
       <c r="CH141" s="1"/>
       <c r="CI141" s="1"/>
@@ -8379,13 +8384,13 @@
       <c r="RX141" s="1"/>
     </row>
     <row r="142" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A142" s="8">
+      <c r="A142" s="9">
         <v>38930</v>
       </c>
-      <c r="B142" s="9">
+      <c r="B142" s="10">
         <v>9.9191823334113305E-2</v>
       </c>
-      <c r="C142" s="4"/>
+      <c r="C142" s="3"/>
       <c r="CG142" s="1"/>
       <c r="CH142" s="1"/>
       <c r="CI142" s="1"/>
@@ -8474,13 +8479,13 @@
       <c r="RX142" s="1"/>
     </row>
     <row r="143" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A143" s="8">
+      <c r="A143" s="9">
         <v>38961</v>
       </c>
-      <c r="B143" s="9">
+      <c r="B143" s="10">
         <v>9.7977952179741312E-2</v>
       </c>
-      <c r="C143" s="4"/>
+      <c r="C143" s="3"/>
       <c r="CG143" s="1"/>
       <c r="CH143" s="1"/>
       <c r="CI143" s="1"/>
@@ -8569,13 +8574,13 @@
       <c r="RX143" s="1"/>
     </row>
     <row r="144" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A144" s="8">
+      <c r="A144" s="9">
         <v>38991</v>
       </c>
-      <c r="B144" s="9">
+      <c r="B144" s="10">
         <v>9.5864636506678785E-2</v>
       </c>
-      <c r="C144" s="4"/>
+      <c r="C144" s="3"/>
       <c r="CG144" s="1"/>
       <c r="CH144" s="1"/>
       <c r="CI144" s="1"/>
@@ -8664,13 +8669,13 @@
       <c r="RX144" s="1"/>
     </row>
     <row r="145" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A145" s="8">
+      <c r="A145" s="9">
         <v>39022</v>
       </c>
-      <c r="B145" s="9">
+      <c r="B145" s="10">
         <v>8.8506947539146508E-2</v>
       </c>
-      <c r="C145" s="4"/>
+      <c r="C145" s="3"/>
       <c r="CG145" s="1"/>
       <c r="CH145" s="1"/>
       <c r="CI145" s="1"/>
@@ -8759,13 +8764,13 @@
       <c r="RX145" s="1"/>
     </row>
     <row r="146" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A146" s="8">
+      <c r="A146" s="9">
         <v>39052</v>
       </c>
-      <c r="B146" s="9">
+      <c r="B146" s="10">
         <v>8.2991557693164242E-2</v>
       </c>
-      <c r="C146" s="4"/>
+      <c r="C146" s="3"/>
       <c r="CG146" s="1"/>
       <c r="CH146" s="1"/>
       <c r="CI146" s="1"/>
@@ -8854,13 +8859,13 @@
       <c r="RX146" s="1"/>
     </row>
     <row r="147" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A147" s="8">
+      <c r="A147" s="9">
         <v>39083</v>
       </c>
-      <c r="B147" s="9">
+      <c r="B147" s="10">
         <v>7.7215118349207135E-2</v>
       </c>
-      <c r="C147" s="4"/>
+      <c r="C147" s="3"/>
       <c r="CG147" s="1"/>
       <c r="CH147" s="1"/>
       <c r="CI147" s="1"/>
@@ -8949,13 +8954,13 @@
       <c r="RX147" s="1"/>
     </row>
     <row r="148" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A148" s="8">
+      <c r="A148" s="9">
         <v>39114</v>
       </c>
-      <c r="B148" s="9">
+      <c r="B148" s="10">
         <v>7.9397037241236174E-2</v>
       </c>
-      <c r="C148" s="4"/>
+      <c r="C148" s="3"/>
       <c r="CG148" s="1"/>
       <c r="CH148" s="1"/>
       <c r="CI148" s="1"/>
@@ -9044,13 +9049,13 @@
       <c r="RX148" s="1"/>
     </row>
     <row r="149" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A149" s="8">
+      <c r="A149" s="9">
         <v>39142</v>
       </c>
-      <c r="B149" s="9">
+      <c r="B149" s="10">
         <v>9.5585255682960557E-2</v>
       </c>
-      <c r="C149" s="4"/>
+      <c r="C149" s="3"/>
       <c r="CG149" s="1"/>
       <c r="CH149" s="1"/>
       <c r="CI149" s="1"/>
@@ -9139,13 +9144,13 @@
       <c r="RX149" s="1"/>
     </row>
     <row r="150" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A150" s="8">
+      <c r="A150" s="9">
         <v>39173</v>
       </c>
-      <c r="B150" s="9">
+      <c r="B150" s="10">
         <v>8.580606474485139E-2</v>
       </c>
-      <c r="C150" s="4"/>
+      <c r="C150" s="3"/>
       <c r="CG150" s="1"/>
       <c r="CH150" s="1"/>
       <c r="CI150" s="1"/>
@@ -9234,13 +9239,13 @@
       <c r="RX150" s="1"/>
     </row>
     <row r="151" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A151" s="8">
+      <c r="A151" s="9">
         <v>39203</v>
       </c>
-      <c r="B151" s="9">
+      <c r="B151" s="10">
         <v>8.1207326443699546E-2</v>
       </c>
-      <c r="C151" s="4"/>
+      <c r="C151" s="3"/>
       <c r="CG151" s="1"/>
       <c r="CH151" s="1"/>
       <c r="CI151" s="1"/>
@@ -9329,13 +9334,13 @@
       <c r="RX151" s="1"/>
     </row>
     <row r="152" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A152" s="8">
+      <c r="A152" s="9">
         <v>39234</v>
       </c>
-      <c r="B152" s="9">
+      <c r="B152" s="10">
         <v>8.2961482672590375E-2</v>
       </c>
-      <c r="C152" s="4"/>
+      <c r="C152" s="3"/>
       <c r="CG152" s="1"/>
       <c r="CH152" s="1"/>
       <c r="CI152" s="1"/>
@@ -9424,13 +9429,13 @@
       <c r="RX152" s="1"/>
     </row>
     <row r="153" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A153" s="8">
+      <c r="A153" s="9">
         <v>39264</v>
       </c>
-      <c r="B153" s="9">
+      <c r="B153" s="10">
         <v>8.5322650599013228E-2</v>
       </c>
-      <c r="C153" s="4"/>
+      <c r="C153" s="3"/>
       <c r="CG153" s="1"/>
       <c r="CH153" s="1"/>
       <c r="CI153" s="1"/>
@@ -9519,13 +9524,13 @@
       <c r="RX153" s="1"/>
     </row>
     <row r="154" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A154" s="8">
+      <c r="A154" s="9">
         <v>39295</v>
       </c>
-      <c r="B154" s="9">
+      <c r="B154" s="10">
         <v>8.5340133244383914E-2</v>
       </c>
-      <c r="C154" s="4"/>
+      <c r="C154" s="3"/>
       <c r="CG154" s="1"/>
       <c r="CH154" s="1"/>
       <c r="CI154" s="1"/>
@@ -9614,13 +9619,13 @@
       <c r="RX154" s="1"/>
     </row>
     <row r="155" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A155" s="8">
+      <c r="A155" s="9">
         <v>39326</v>
       </c>
-      <c r="B155" s="9">
+      <c r="B155" s="10">
         <v>8.8928884093107091E-2</v>
       </c>
-      <c r="C155" s="4"/>
+      <c r="C155" s="3"/>
       <c r="CG155" s="1"/>
       <c r="CH155" s="1"/>
       <c r="CI155" s="1"/>
@@ -9709,13 +9714,13 @@
       <c r="RX155" s="1"/>
     </row>
     <row r="156" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A156" s="8">
+      <c r="A156" s="9">
         <v>39356</v>
       </c>
-      <c r="B156" s="9">
+      <c r="B156" s="10">
         <v>8.7744511396229033E-2</v>
       </c>
-      <c r="C156" s="4"/>
+      <c r="C156" s="3"/>
       <c r="CG156" s="1"/>
       <c r="CH156" s="1"/>
       <c r="CI156" s="1"/>
@@ -9804,13 +9809,13 @@
       <c r="RX156" s="1"/>
     </row>
     <row r="157" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A157" s="8">
+      <c r="A157" s="9">
         <v>39387</v>
       </c>
-      <c r="B157" s="9">
+      <c r="B157" s="10">
         <v>9.3737830955098772E-2</v>
       </c>
-      <c r="C157" s="4"/>
+      <c r="C157" s="3"/>
       <c r="CG157" s="1"/>
       <c r="CH157" s="1"/>
       <c r="CI157" s="1"/>
@@ -9899,13 +9904,13 @@
       <c r="RX157" s="1"/>
     </row>
     <row r="158" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A158" s="8">
+      <c r="A158" s="9">
         <v>39417</v>
       </c>
-      <c r="B158" s="9">
+      <c r="B158" s="10">
         <v>8.671239907127623E-2</v>
       </c>
-      <c r="C158" s="4"/>
+      <c r="C158" s="3"/>
       <c r="CG158" s="1"/>
       <c r="CH158" s="1"/>
       <c r="CI158" s="1"/>
@@ -9994,13 +9999,13 @@
       <c r="RX158" s="1"/>
     </row>
     <row r="159" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A159" s="8">
+      <c r="A159" s="9">
         <v>39448</v>
       </c>
-      <c r="B159" s="9">
+      <c r="B159" s="10">
         <v>9.417152259727482E-2</v>
       </c>
-      <c r="C159" s="4"/>
+      <c r="C159" s="3"/>
       <c r="CG159" s="1"/>
       <c r="CH159" s="1"/>
       <c r="CI159" s="1"/>
@@ -10089,13 +10094,13 @@
       <c r="RX159" s="1"/>
     </row>
     <row r="160" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A160" s="8">
+      <c r="A160" s="9">
         <v>39479</v>
       </c>
-      <c r="B160" s="9">
+      <c r="B160" s="10">
         <v>9.3871674916660583E-2</v>
       </c>
-      <c r="C160" s="4"/>
+      <c r="C160" s="3"/>
       <c r="CG160" s="1"/>
       <c r="CH160" s="1"/>
       <c r="CI160" s="1"/>
@@ -10184,13 +10189,13 @@
       <c r="RX160" s="1"/>
     </row>
     <row r="161" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A161" s="8">
+      <c r="A161" s="9">
         <v>39508</v>
       </c>
-      <c r="B161" s="9">
+      <c r="B161" s="10">
         <v>9.5682797110982654E-2</v>
       </c>
-      <c r="C161" s="4"/>
+      <c r="C161" s="3"/>
       <c r="CG161" s="1"/>
       <c r="CH161" s="1"/>
       <c r="CI161" s="1"/>
@@ -10279,13 +10284,13 @@
       <c r="RX161" s="1"/>
     </row>
     <row r="162" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A162" s="8">
+      <c r="A162" s="9">
         <v>39539</v>
       </c>
-      <c r="B162" s="9">
+      <c r="B162" s="10">
         <v>8.9221726200208809E-2</v>
       </c>
-      <c r="C162" s="4"/>
+      <c r="C162" s="3"/>
       <c r="CG162" s="1"/>
       <c r="CH162" s="1"/>
       <c r="CI162" s="1"/>
@@ -10374,13 +10379,13 @@
       <c r="RX162" s="1"/>
     </row>
     <row r="163" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A163" s="8">
+      <c r="A163" s="9">
         <v>39569</v>
       </c>
-      <c r="B163" s="9">
+      <c r="B163" s="10">
         <v>8.5276870884392231E-2</v>
       </c>
-      <c r="C163" s="4"/>
+      <c r="C163" s="3"/>
       <c r="CG163" s="1"/>
       <c r="CH163" s="1"/>
       <c r="CI163" s="1"/>
@@ -10469,13 +10474,13 @@
       <c r="RX163" s="1"/>
     </row>
     <row r="164" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A164" s="8">
+      <c r="A164" s="9">
         <v>39600</v>
       </c>
-      <c r="B164" s="9">
+      <c r="B164" s="10">
         <v>9.0760799631218497E-2</v>
       </c>
-      <c r="C164" s="4"/>
+      <c r="C164" s="3"/>
       <c r="CG164" s="1"/>
       <c r="CH164" s="1"/>
       <c r="CI164" s="1"/>
@@ -10564,13 +10569,13 @@
       <c r="RX164" s="1"/>
     </row>
     <row r="165" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A165" s="8">
+      <c r="A165" s="9">
         <v>39630</v>
       </c>
-      <c r="B165" s="9">
+      <c r="B165" s="10">
         <v>9.0094041432956906E-2</v>
       </c>
-      <c r="C165" s="4"/>
+      <c r="C165" s="3"/>
       <c r="CG165" s="1"/>
       <c r="CH165" s="1"/>
       <c r="CI165" s="1"/>
@@ -10659,13 +10664,13 @@
       <c r="RX165" s="1"/>
     </row>
     <row r="166" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A166" s="8">
+      <c r="A166" s="9">
         <v>39661</v>
       </c>
-      <c r="B166" s="9">
+      <c r="B166" s="10">
         <v>9.2978334258690121E-2</v>
       </c>
-      <c r="C166" s="4"/>
+      <c r="C166" s="3"/>
       <c r="CG166" s="1"/>
       <c r="CH166" s="1"/>
       <c r="CI166" s="1"/>
@@ -10754,13 +10759,13 @@
       <c r="RX166" s="1"/>
     </row>
     <row r="167" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A167" s="8">
+      <c r="A167" s="9">
         <v>39692</v>
       </c>
-      <c r="B167" s="9">
+      <c r="B167" s="10">
         <v>0.1049190744132513</v>
       </c>
-      <c r="C167" s="4"/>
+      <c r="C167" s="3"/>
       <c r="CG167" s="1"/>
       <c r="CH167" s="1"/>
       <c r="CI167" s="1"/>
@@ -10849,13 +10854,13 @@
       <c r="RX167" s="1"/>
     </row>
     <row r="168" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A168" s="8">
+      <c r="A168" s="9">
         <v>39722</v>
       </c>
-      <c r="B168" s="9">
+      <c r="B168" s="10">
         <v>0.1150227873640902</v>
       </c>
-      <c r="C168" s="4"/>
+      <c r="C168" s="3"/>
       <c r="CG168" s="1"/>
       <c r="CH168" s="1"/>
       <c r="CI168" s="1"/>
@@ -10944,13 +10949,13 @@
       <c r="RX168" s="1"/>
     </row>
     <row r="169" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A169" s="8">
+      <c r="A169" s="9">
         <v>39753</v>
       </c>
-      <c r="B169" s="9">
+      <c r="B169" s="10">
         <v>0.12713618920136005</v>
       </c>
-      <c r="C169" s="4"/>
+      <c r="C169" s="3"/>
       <c r="CG169" s="1"/>
       <c r="CH169" s="1"/>
       <c r="CI169" s="1"/>
@@ -11039,13 +11044,13 @@
       <c r="RX169" s="1"/>
     </row>
     <row r="170" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A170" s="8">
+      <c r="A170" s="9">
         <v>39783</v>
       </c>
-      <c r="B170" s="9">
+      <c r="B170" s="10">
         <v>0.14219604354597082</v>
       </c>
-      <c r="C170" s="4"/>
+      <c r="C170" s="3"/>
       <c r="CG170" s="1"/>
       <c r="CH170" s="1"/>
       <c r="CI170" s="1"/>
@@ -11134,13 +11139,13 @@
       <c r="RX170" s="1"/>
     </row>
     <row r="171" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A171" s="8">
+      <c r="A171" s="9">
         <v>39814</v>
       </c>
-      <c r="B171" s="9">
+      <c r="B171" s="10">
         <v>0.13409152093551951</v>
       </c>
-      <c r="C171" s="4"/>
+      <c r="C171" s="3"/>
       <c r="CG171" s="1"/>
       <c r="CH171" s="1"/>
       <c r="CI171" s="1"/>
@@ -11229,13 +11234,13 @@
       <c r="RX171" s="1"/>
     </row>
     <row r="172" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A172" s="8">
+      <c r="A172" s="9">
         <v>39845</v>
       </c>
-      <c r="B172" s="9">
+      <c r="B172" s="10">
         <v>0.1323173344014103</v>
       </c>
-      <c r="C172" s="4"/>
+      <c r="C172" s="3"/>
       <c r="CG172" s="1"/>
       <c r="CH172" s="1"/>
       <c r="CI172" s="1"/>
@@ -11324,13 +11329,13 @@
       <c r="RX172" s="1"/>
     </row>
     <row r="173" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A173" s="8">
+      <c r="A173" s="9">
         <v>39873</v>
       </c>
-      <c r="B173" s="9">
+      <c r="B173" s="10">
         <v>0.12184780792693525</v>
       </c>
-      <c r="C173" s="4"/>
+      <c r="C173" s="3"/>
       <c r="CG173" s="1"/>
       <c r="CH173" s="1"/>
       <c r="CI173" s="1"/>
@@ -11419,13 +11424,13 @@
       <c r="RX173" s="1"/>
     </row>
     <row r="174" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A174" s="8">
+      <c r="A174" s="9">
         <v>39904</v>
       </c>
-      <c r="B174" s="9">
+      <c r="B174" s="10">
         <v>0.1088401890456267</v>
       </c>
-      <c r="C174" s="4"/>
+      <c r="C174" s="3"/>
       <c r="CG174" s="1"/>
       <c r="CH174" s="1"/>
       <c r="CI174" s="1"/>
@@ -11514,13 +11519,13 @@
       <c r="RX174" s="1"/>
     </row>
     <row r="175" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A175" s="8">
+      <c r="A175" s="9">
         <v>39934</v>
       </c>
-      <c r="B175" s="9">
+      <c r="B175" s="10">
         <v>0.10207538732969924</v>
       </c>
-      <c r="C175" s="4"/>
+      <c r="C175" s="3"/>
       <c r="CG175" s="1"/>
       <c r="CH175" s="1"/>
       <c r="CI175" s="1"/>
@@ -11609,13 +11614,13 @@
       <c r="RX175" s="1"/>
     </row>
     <row r="176" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A176" s="8">
+      <c r="A176" s="9">
         <v>39965</v>
       </c>
-      <c r="B176" s="9">
+      <c r="B176" s="10">
         <v>9.0431157247827659E-2</v>
       </c>
-      <c r="C176" s="4"/>
+      <c r="C176" s="3"/>
       <c r="CG176" s="1"/>
       <c r="CH176" s="1"/>
       <c r="CI176" s="1"/>
@@ -11704,13 +11709,13 @@
       <c r="RX176" s="1"/>
     </row>
     <row r="177" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A177" s="8">
+      <c r="A177" s="9">
         <v>39995</v>
       </c>
-      <c r="B177" s="9">
+      <c r="B177" s="10">
         <v>8.8254360455356951E-2</v>
       </c>
-      <c r="C177" s="4"/>
+      <c r="C177" s="3"/>
       <c r="CG177" s="1"/>
       <c r="CH177" s="1"/>
       <c r="CI177" s="1"/>
@@ -11799,13 +11804,13 @@
       <c r="RX177" s="1"/>
     </row>
     <row r="178" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A178" s="8">
+      <c r="A178" s="9">
         <v>40026</v>
       </c>
-      <c r="B178" s="9">
+      <c r="B178" s="10">
         <v>8.5062467132288211E-2</v>
       </c>
-      <c r="C178" s="4"/>
+      <c r="C178" s="3"/>
       <c r="CG178" s="1"/>
       <c r="CH178" s="1"/>
       <c r="CI178" s="1"/>
@@ -11894,13 +11899,13 @@
       <c r="RX178" s="1"/>
     </row>
     <row r="179" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A179" s="8">
+      <c r="A179" s="9">
         <v>40057</v>
       </c>
-      <c r="B179" s="9">
+      <c r="B179" s="10">
         <v>8.194495980792163E-2</v>
       </c>
-      <c r="C179" s="4"/>
+      <c r="C179" s="3"/>
       <c r="CG179" s="1"/>
       <c r="CH179" s="1"/>
       <c r="CI179" s="1"/>
@@ -11989,13 +11994,13 @@
       <c r="RX179" s="1"/>
     </row>
     <row r="180" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A180" s="8">
+      <c r="A180" s="9">
         <v>40087</v>
       </c>
-      <c r="B180" s="9">
+      <c r="B180" s="10">
         <v>8.3103148537463978E-2</v>
       </c>
-      <c r="C180" s="4"/>
+      <c r="C180" s="3"/>
       <c r="CG180" s="1"/>
       <c r="CH180" s="1"/>
       <c r="CI180" s="1"/>
@@ -12084,13 +12089,13 @@
       <c r="RX180" s="1"/>
     </row>
     <row r="181" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A181" s="8">
+      <c r="A181" s="9">
         <v>40118</v>
       </c>
-      <c r="B181" s="9">
+      <c r="B181" s="10">
         <v>8.4939307901060079E-2</v>
       </c>
-      <c r="C181" s="4"/>
+      <c r="C181" s="3"/>
       <c r="CG181" s="1"/>
       <c r="CH181" s="1"/>
       <c r="CI181" s="1"/>
@@ -12179,13 +12184,13 @@
       <c r="RX181" s="1"/>
     </row>
     <row r="182" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A182" s="8">
+      <c r="A182" s="9">
         <v>40148</v>
       </c>
-      <c r="B182" s="9">
+      <c r="B182" s="10">
         <v>9.1998835222545483E-2</v>
       </c>
-      <c r="C182" s="4"/>
+      <c r="C182" s="3"/>
       <c r="CG182" s="1"/>
       <c r="CH182" s="1"/>
       <c r="CI182" s="1"/>
@@ -12274,13 +12279,13 @@
       <c r="RX182" s="1"/>
     </row>
     <row r="183" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A183" s="8">
+      <c r="A183" s="9">
         <v>40179</v>
       </c>
-      <c r="B183" s="9">
+      <c r="B183" s="10">
         <v>9.4406445060834981E-2</v>
       </c>
-      <c r="C183" s="4"/>
+      <c r="C183" s="3"/>
       <c r="CG183" s="1"/>
       <c r="CH183" s="1"/>
       <c r="CI183" s="1"/>
@@ -12369,13 +12374,13 @@
       <c r="RX183" s="1"/>
     </row>
     <row r="184" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A184" s="8">
+      <c r="A184" s="9">
         <v>40210</v>
       </c>
-      <c r="B184" s="9">
+      <c r="B184" s="10">
         <v>9.677333010017547E-2</v>
       </c>
-      <c r="C184" s="4"/>
+      <c r="C184" s="3"/>
       <c r="CG184" s="1"/>
       <c r="CH184" s="1"/>
       <c r="CI184" s="1"/>
@@ -12464,13 +12469,13 @@
       <c r="RX184" s="1"/>
     </row>
     <row r="185" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A185" s="8">
+      <c r="A185" s="9">
         <v>40238</v>
       </c>
-      <c r="B185" s="9">
+      <c r="B185" s="10">
         <v>0.10525014956324957</v>
       </c>
-      <c r="C185" s="4"/>
+      <c r="C185" s="3"/>
       <c r="CG185" s="1"/>
       <c r="CH185" s="1"/>
       <c r="CI185" s="1"/>
@@ -12559,13 +12564,13 @@
       <c r="RX185" s="1"/>
     </row>
     <row r="186" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A186" s="8">
+      <c r="A186" s="9">
         <v>40269</v>
       </c>
-      <c r="B186" s="9">
+      <c r="B186" s="10">
         <v>0.10079451028425426</v>
       </c>
-      <c r="C186" s="4"/>
+      <c r="C186" s="3"/>
       <c r="CG186" s="1"/>
       <c r="CH186" s="1"/>
       <c r="CI186" s="1"/>
@@ -12654,13 +12659,13 @@
       <c r="RX186" s="1"/>
     </row>
     <row r="187" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A187" s="8">
+      <c r="A187" s="9">
         <v>40299</v>
       </c>
-      <c r="B187" s="9">
+      <c r="B187" s="10">
         <v>9.7475443102761017E-2</v>
       </c>
-      <c r="C187" s="4"/>
+      <c r="C187" s="3"/>
       <c r="CG187" s="1"/>
       <c r="CH187" s="1"/>
       <c r="CI187" s="1"/>
@@ -12749,13 +12754,13 @@
       <c r="RX187" s="1"/>
     </row>
     <row r="188" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A188" s="8">
+      <c r="A188" s="9">
         <v>40330</v>
       </c>
-      <c r="B188" s="9">
+      <c r="B188" s="10">
         <v>0.10575656830811714</v>
       </c>
-      <c r="C188" s="4"/>
+      <c r="C188" s="3"/>
       <c r="CG188" s="1"/>
       <c r="CH188" s="1"/>
       <c r="CI188" s="1"/>
@@ -12844,13 +12849,13 @@
       <c r="RX188" s="1"/>
     </row>
     <row r="189" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A189" s="8">
+      <c r="A189" s="9">
         <v>40360</v>
       </c>
-      <c r="B189" s="9">
+      <c r="B189" s="10">
         <v>0.10532947410949854</v>
       </c>
-      <c r="C189" s="4"/>
+      <c r="C189" s="3"/>
       <c r="CG189" s="1"/>
       <c r="CH189" s="1"/>
       <c r="CI189" s="1"/>
@@ -12939,13 +12944,13 @@
       <c r="RX189" s="1"/>
     </row>
     <row r="190" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A190" s="8">
+      <c r="A190" s="9">
         <v>40391</v>
       </c>
-      <c r="B190" s="9">
+      <c r="B190" s="10">
         <v>0.10550581781341299</v>
       </c>
-      <c r="C190" s="4"/>
+      <c r="C190" s="3"/>
       <c r="CG190" s="1"/>
       <c r="CH190" s="1"/>
       <c r="CI190" s="1"/>
@@ -13034,13 +13039,13 @@
       <c r="RX190" s="1"/>
     </row>
     <row r="191" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A191" s="8">
+      <c r="A191" s="9">
         <v>40422</v>
       </c>
-      <c r="B191" s="9">
+      <c r="B191" s="10">
         <v>0.10964076002117032</v>
       </c>
-      <c r="C191" s="4"/>
+      <c r="C191" s="3"/>
       <c r="CG191" s="1"/>
       <c r="CH191" s="1"/>
       <c r="CI191" s="1"/>
@@ -13129,13 +13134,13 @@
       <c r="RX191" s="1"/>
     </row>
     <row r="192" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A192" s="8">
+      <c r="A192" s="9">
         <v>40452</v>
       </c>
-      <c r="B192" s="9">
+      <c r="B192" s="10">
         <v>0.10513412866678648</v>
       </c>
-      <c r="C192" s="4"/>
+      <c r="C192" s="3"/>
       <c r="CG192" s="1"/>
       <c r="CH192" s="1"/>
       <c r="CI192" s="1"/>
@@ -13224,13 +13229,13 @@
       <c r="RX192" s="1"/>
     </row>
     <row r="193" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A193" s="8">
+      <c r="A193" s="9">
         <v>40483</v>
       </c>
-      <c r="B193" s="9">
+      <c r="B193" s="10">
         <v>0.10473580686784892</v>
       </c>
-      <c r="C193" s="4"/>
+      <c r="C193" s="3"/>
       <c r="CG193" s="1"/>
       <c r="CH193" s="1"/>
       <c r="CI193" s="1"/>
@@ -13319,13 +13324,13 @@
       <c r="RX193" s="1"/>
     </row>
     <row r="194" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A194" s="8">
+      <c r="A194" s="9">
         <v>40513</v>
       </c>
-      <c r="B194" s="9">
+      <c r="B194" s="10">
         <v>9.4346589276028653E-2</v>
       </c>
-      <c r="C194" s="4"/>
+      <c r="C194" s="3"/>
       <c r="CG194" s="1"/>
       <c r="CH194" s="1"/>
       <c r="CI194" s="1"/>
@@ -13414,13 +13419,13 @@
       <c r="RX194" s="1"/>
     </row>
     <row r="195" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A195" s="8">
+      <c r="A195" s="9">
         <v>40544</v>
       </c>
-      <c r="B195" s="9">
+      <c r="B195" s="10">
         <v>9.5407238018712093E-2</v>
       </c>
-      <c r="C195" s="4"/>
+      <c r="C195" s="3"/>
       <c r="CG195" s="1"/>
       <c r="CH195" s="1"/>
       <c r="CI195" s="1"/>
@@ -13509,13 +13514,13 @@
       <c r="RX195" s="1"/>
     </row>
     <row r="196" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A196" s="8">
+      <c r="A196" s="9">
         <v>40575</v>
       </c>
-      <c r="B196" s="9">
+      <c r="B196" s="10">
         <v>9.3390806727688513E-2</v>
       </c>
-      <c r="C196" s="4"/>
+      <c r="C196" s="3"/>
       <c r="CG196" s="1"/>
       <c r="CH196" s="1"/>
       <c r="CI196" s="1"/>
@@ -13604,13 +13609,13 @@
       <c r="RX196" s="1"/>
     </row>
     <row r="197" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A197" s="8">
+      <c r="A197" s="9">
         <v>40603</v>
       </c>
-      <c r="B197" s="9">
+      <c r="B197" s="10">
         <v>9.3441141720405185E-2</v>
       </c>
-      <c r="C197" s="4"/>
+      <c r="C197" s="3"/>
       <c r="CG197" s="1"/>
       <c r="CH197" s="1"/>
       <c r="CI197" s="1"/>
@@ -13699,13 +13704,13 @@
       <c r="RX197" s="1"/>
     </row>
     <row r="198" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A198" s="8">
+      <c r="A198" s="9">
         <v>40634</v>
       </c>
-      <c r="B198" s="9">
+      <c r="B198" s="10">
         <v>9.3643791643206381E-2</v>
       </c>
-      <c r="C198" s="4"/>
+      <c r="C198" s="3"/>
       <c r="CG198" s="1"/>
       <c r="CH198" s="1"/>
       <c r="CI198" s="1"/>
@@ -13794,13 +13799,13 @@
       <c r="RX198" s="1"/>
     </row>
     <row r="199" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A199" s="8">
+      <c r="A199" s="9">
         <v>40664</v>
       </c>
-      <c r="B199" s="9">
+      <c r="B199" s="10">
         <v>0.10032836280974664</v>
       </c>
-      <c r="C199" s="4"/>
+      <c r="C199" s="3"/>
       <c r="CG199" s="1"/>
       <c r="CH199" s="1"/>
       <c r="CI199" s="1"/>
@@ -13889,13 +13894,13 @@
       <c r="RX199" s="1"/>
     </row>
     <row r="200" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A200" s="8">
+      <c r="A200" s="9">
         <v>40695</v>
       </c>
-      <c r="B200" s="9">
+      <c r="B200" s="10">
         <v>9.9388836279557288E-2</v>
       </c>
-      <c r="C200" s="4"/>
+      <c r="C200" s="3"/>
       <c r="CG200" s="1"/>
       <c r="CH200" s="1"/>
       <c r="CI200" s="1"/>
@@ -13984,13 +13989,13 @@
       <c r="RX200" s="1"/>
     </row>
     <row r="201" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A201" s="8">
+      <c r="A201" s="9">
         <v>40725</v>
       </c>
-      <c r="B201" s="9">
+      <c r="B201" s="10">
         <v>0.10538607103302287</v>
       </c>
-      <c r="C201" s="4"/>
+      <c r="C201" s="3"/>
       <c r="CG201" s="1"/>
       <c r="CH201" s="1"/>
       <c r="CI201" s="1"/>
@@ -14079,13 +14084,13 @@
       <c r="RX201" s="1"/>
     </row>
     <row r="202" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A202" s="8">
+      <c r="A202" s="9">
         <v>40756</v>
       </c>
-      <c r="B202" s="9">
+      <c r="B202" s="10">
         <v>0.11212100068797148</v>
       </c>
-      <c r="C202" s="4"/>
+      <c r="C202" s="3"/>
       <c r="CG202" s="1"/>
       <c r="CH202" s="1"/>
       <c r="CI202" s="1"/>
@@ -14174,13 +14179,13 @@
       <c r="RX202" s="1"/>
     </row>
     <row r="203" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A203" s="8">
+      <c r="A203" s="9">
         <v>40787</v>
       </c>
-      <c r="B203" s="9">
+      <c r="B203" s="10">
         <v>0.110785960833959</v>
       </c>
-      <c r="C203" s="4"/>
+      <c r="C203" s="3"/>
       <c r="CG203" s="1"/>
       <c r="CH203" s="1"/>
       <c r="CI203" s="1"/>
@@ -14269,13 +14274,13 @@
       <c r="RX203" s="1"/>
     </row>
     <row r="204" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A204" s="8">
+      <c r="A204" s="9">
         <v>40817</v>
       </c>
-      <c r="B204" s="9">
+      <c r="B204" s="10">
         <v>0.10360612595722082</v>
       </c>
-      <c r="C204" s="4"/>
+      <c r="C204" s="3"/>
       <c r="CG204" s="1"/>
       <c r="CH204" s="1"/>
       <c r="CI204" s="1"/>
@@ -14364,13 +14369,13 @@
       <c r="RX204" s="1"/>
     </row>
     <row r="205" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A205" s="8">
+      <c r="A205" s="9">
         <v>40848</v>
       </c>
-      <c r="B205" s="9">
+      <c r="B205" s="10">
         <v>0.10488449858019411</v>
       </c>
-      <c r="C205" s="4"/>
+      <c r="C205" s="3"/>
       <c r="CG205" s="1"/>
       <c r="CH205" s="1"/>
       <c r="CI205" s="1"/>
@@ -14459,13 +14464,13 @@
       <c r="RX205" s="1"/>
     </row>
     <row r="206" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A206" s="8">
+      <c r="A206" s="9">
         <v>40878</v>
       </c>
-      <c r="B206" s="9">
+      <c r="B206" s="10">
         <v>0.10009455642023066</v>
       </c>
-      <c r="C206" s="4"/>
+      <c r="C206" s="3"/>
       <c r="CG206" s="1"/>
       <c r="CH206" s="1"/>
       <c r="CI206" s="1"/>
@@ -14517,7 +14522,7 @@
       <c r="JL206" s="1"/>
       <c r="JW206" s="1"/>
       <c r="KH206" s="1"/>
-      <c r="KJ206" s="6"/>
+      <c r="KJ206" s="7"/>
       <c r="KS206" s="1"/>
       <c r="LD206" s="1"/>
       <c r="LE206" s="1"/>
@@ -14555,13 +14560,13 @@
       <c r="RX206" s="1"/>
     </row>
     <row r="207" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A207" s="8">
+      <c r="A207" s="9">
         <v>40909</v>
       </c>
-      <c r="B207" s="9">
+      <c r="B207" s="10">
         <v>9.6997483527202721E-2</v>
       </c>
-      <c r="C207" s="4"/>
+      <c r="C207" s="3"/>
       <c r="CG207" s="1"/>
       <c r="CH207" s="1"/>
       <c r="CI207" s="1"/>
@@ -14626,7 +14631,7 @@
       <c r="LM207" s="1"/>
       <c r="LO207" s="1"/>
       <c r="LZ207" s="1"/>
-      <c r="MB207" s="6"/>
+      <c r="MB207" s="7"/>
       <c r="MK207" s="1"/>
       <c r="MV207" s="1"/>
       <c r="NG207" s="1"/>
@@ -14651,13 +14656,13 @@
       <c r="RX207" s="1"/>
     </row>
     <row r="208" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A208" s="8">
+      <c r="A208" s="9">
         <v>40940</v>
       </c>
-      <c r="B208" s="9">
+      <c r="B208" s="10">
         <v>9.0887604642450229E-2</v>
       </c>
-      <c r="C208" s="4"/>
+      <c r="C208" s="3"/>
       <c r="CG208" s="1"/>
       <c r="CH208" s="1"/>
       <c r="CI208" s="1"/>
@@ -14710,7 +14715,7 @@
       <c r="JW208" s="1"/>
       <c r="KH208" s="1"/>
       <c r="KS208" s="1"/>
-      <c r="KU208" s="6"/>
+      <c r="KU208" s="7"/>
       <c r="LD208" s="1"/>
       <c r="LE208" s="1"/>
       <c r="LF208" s="1"/>
@@ -14724,13 +14729,13 @@
       <c r="LO208" s="1"/>
       <c r="LZ208" s="1"/>
       <c r="MK208" s="1"/>
-      <c r="MM208" s="6"/>
+      <c r="MM208" s="7"/>
       <c r="MV208" s="1"/>
-      <c r="MX208" s="6"/>
+      <c r="MX208" s="7"/>
       <c r="NG208" s="1"/>
       <c r="NR208" s="1"/>
       <c r="OC208" s="1"/>
-      <c r="OE208" s="6"/>
+      <c r="OE208" s="7"/>
       <c r="ON208" s="1"/>
       <c r="OY208" s="1"/>
       <c r="PJ208" s="1"/>
@@ -14750,13 +14755,13 @@
       <c r="RX208" s="1"/>
     </row>
     <row r="209" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A209" s="8">
+      <c r="A209" s="9">
         <v>40969</v>
       </c>
-      <c r="B209" s="9">
+      <c r="B209" s="10">
         <v>8.7800298912843522E-2</v>
       </c>
-      <c r="C209" s="4"/>
+      <c r="C209" s="3"/>
       <c r="CG209" s="1"/>
       <c r="CH209" s="1"/>
       <c r="CI209" s="1"/>
@@ -14811,7 +14816,7 @@
       <c r="KS209" s="1"/>
       <c r="LD209" s="1"/>
       <c r="LE209" s="1"/>
-      <c r="LF209" s="6"/>
+      <c r="LF209" s="7"/>
       <c r="LG209" s="1"/>
       <c r="LH209" s="1"/>
       <c r="LI209" s="1"/>
@@ -14829,7 +14834,7 @@
       <c r="ON209" s="1"/>
       <c r="OY209" s="1"/>
       <c r="PJ209" s="1"/>
-      <c r="PL209" s="6"/>
+      <c r="PL209" s="7"/>
       <c r="PU209" s="1"/>
       <c r="PV209" s="1"/>
       <c r="PW209" s="1"/>
@@ -14846,13 +14851,13 @@
       <c r="RX209" s="1"/>
     </row>
     <row r="210" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A210" s="8">
+      <c r="A210" s="9">
         <v>41000</v>
       </c>
-      <c r="B210" s="9">
+      <c r="B210" s="10">
         <v>9.5810214550751407E-2</v>
       </c>
-      <c r="C210" s="4"/>
+      <c r="C210" s="3"/>
       <c r="CG210" s="1"/>
       <c r="CH210" s="1"/>
       <c r="CI210" s="1"/>
@@ -14916,18 +14921,18 @@
       <c r="LL210" s="1"/>
       <c r="LM210" s="1"/>
       <c r="LO210" s="1"/>
-      <c r="LQ210" s="6"/>
+      <c r="LQ210" s="7"/>
       <c r="LZ210" s="1"/>
       <c r="MK210" s="1"/>
       <c r="MV210" s="1"/>
       <c r="NG210" s="1"/>
-      <c r="NI210" s="6"/>
+      <c r="NI210" s="7"/>
       <c r="NR210" s="1"/>
-      <c r="NT210" s="6"/>
+      <c r="NT210" s="7"/>
       <c r="OC210" s="1"/>
       <c r="ON210" s="1"/>
       <c r="OY210" s="1"/>
-      <c r="PA210" s="6"/>
+      <c r="PA210" s="7"/>
       <c r="PJ210" s="1"/>
       <c r="PU210" s="1"/>
       <c r="PV210" s="1"/>
@@ -14945,13 +14950,13 @@
       <c r="RX210" s="1"/>
     </row>
     <row r="211" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A211" s="8">
+      <c r="A211" s="9">
         <v>41030</v>
       </c>
-      <c r="B211" s="9">
+      <c r="B211" s="10">
         <v>0.10515093938008996</v>
       </c>
-      <c r="C211" s="4"/>
+      <c r="C211" s="3"/>
       <c r="CG211" s="1"/>
       <c r="CH211" s="1"/>
       <c r="CI211" s="1"/>
@@ -15040,13 +15045,13 @@
       <c r="RX211" s="1"/>
     </row>
     <row r="212" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A212" s="8">
+      <c r="A212" s="9">
         <v>41061</v>
       </c>
-      <c r="B212" s="9">
+      <c r="B212" s="10">
         <v>9.0817328850805651E-2</v>
       </c>
-      <c r="C212" s="4"/>
+      <c r="C212" s="3"/>
       <c r="CG212" s="1"/>
       <c r="CH212" s="1"/>
       <c r="CI212" s="1"/>
@@ -15117,7 +15122,7 @@
       <c r="NR212" s="1"/>
       <c r="OC212" s="1"/>
       <c r="ON212" s="1"/>
-      <c r="OP212" s="6"/>
+      <c r="OP212" s="7"/>
       <c r="OY212" s="1"/>
       <c r="PJ212" s="1"/>
       <c r="PU212" s="1"/>
@@ -15136,13 +15141,13 @@
       <c r="RX212" s="1"/>
     </row>
     <row r="213" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A213" s="8">
+      <c r="A213" s="9">
         <v>41091</v>
       </c>
-      <c r="B213" s="9">
+      <c r="B213" s="10">
         <v>9.198193035468108E-2</v>
       </c>
-      <c r="C213" s="4"/>
+      <c r="C213" s="3"/>
       <c r="CG213" s="1"/>
       <c r="CH213" s="1"/>
       <c r="CI213" s="1"/>
@@ -15231,13 +15236,13 @@
       <c r="RX213" s="1"/>
     </row>
     <row r="214" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A214" s="8">
+      <c r="A214" s="9">
         <v>41122</v>
       </c>
-      <c r="B214" s="9">
+      <c r="B214" s="10">
         <v>9.0527591621574741E-2</v>
       </c>
-      <c r="C214" s="4"/>
+      <c r="C214" s="3"/>
       <c r="CG214" s="1"/>
       <c r="CH214" s="1"/>
       <c r="CI214" s="1"/>
@@ -15326,13 +15331,13 @@
       <c r="RX214" s="1"/>
     </row>
     <row r="215" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A215" s="8">
+      <c r="A215" s="9">
         <v>41153</v>
       </c>
-      <c r="B215" s="9">
+      <c r="B215" s="10">
         <v>9.321029129473013E-2</v>
       </c>
-      <c r="C215" s="4"/>
+      <c r="C215" s="3"/>
       <c r="CG215" s="1"/>
       <c r="CH215" s="1"/>
       <c r="CI215" s="1"/>
@@ -15407,7 +15412,7 @@
       <c r="PJ215" s="1"/>
       <c r="PU215" s="1"/>
       <c r="PV215" s="1"/>
-      <c r="PW215" s="6"/>
+      <c r="PW215" s="7"/>
       <c r="PX215" s="1"/>
       <c r="PY215" s="1"/>
       <c r="PZ215" s="1"/>
@@ -15421,13 +15426,13 @@
       <c r="RX215" s="1"/>
     </row>
     <row r="216" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A216" s="8">
+      <c r="A216" s="9">
         <v>41183</v>
       </c>
-      <c r="B216" s="9">
+      <c r="B216" s="10">
         <v>9.2447998465240086E-2</v>
       </c>
-      <c r="C216" s="4"/>
+      <c r="C216" s="3"/>
       <c r="CG216" s="1"/>
       <c r="CH216" s="1"/>
       <c r="CI216" s="1"/>
@@ -15510,20 +15515,20 @@
       <c r="QB216" s="1"/>
       <c r="QC216" s="1"/>
       <c r="QD216" s="1"/>
-      <c r="QH216" s="6"/>
+      <c r="QH216" s="7"/>
       <c r="QQ216" s="1"/>
       <c r="RB216" s="1"/>
       <c r="RM216" s="1"/>
       <c r="RX216" s="1"/>
     </row>
     <row r="217" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A217" s="8">
+      <c r="A217" s="9">
         <v>41214</v>
       </c>
-      <c r="B217" s="9">
+      <c r="B217" s="10">
         <v>9.5606034425374312E-2</v>
       </c>
-      <c r="C217" s="4"/>
+      <c r="C217" s="3"/>
       <c r="CG217" s="1"/>
       <c r="CH217" s="1"/>
       <c r="CI217" s="1"/>
@@ -15612,13 +15617,13 @@
       <c r="RX217" s="1"/>
     </row>
     <row r="218" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A218" s="8">
+      <c r="A218" s="9">
         <v>41244</v>
       </c>
-      <c r="B218" s="9">
+      <c r="B218" s="10">
         <v>9.1047274906739667E-2</v>
       </c>
-      <c r="C218" s="4"/>
+      <c r="C218" s="3"/>
       <c r="CG218" s="1"/>
       <c r="CH218" s="1"/>
       <c r="CI218" s="1"/>
@@ -15707,13 +15712,13 @@
       <c r="RX218" s="1"/>
     </row>
     <row r="219" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A219" s="8">
+      <c r="A219" s="9">
         <v>41275</v>
       </c>
-      <c r="B219" s="9">
+      <c r="B219" s="10">
         <v>8.7449844192482862E-2</v>
       </c>
-      <c r="C219" s="4"/>
+      <c r="C219" s="3"/>
       <c r="CG219" s="1"/>
       <c r="CH219" s="1"/>
       <c r="CI219" s="1"/>
@@ -15802,13 +15807,13 @@
       <c r="RX219" s="1"/>
     </row>
     <row r="220" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A220" s="8">
+      <c r="A220" s="9">
         <v>41306</v>
       </c>
-      <c r="B220" s="9">
+      <c r="B220" s="10">
         <v>8.9884574591296298E-2</v>
       </c>
-      <c r="C220" s="4"/>
+      <c r="C220" s="3"/>
       <c r="CG220" s="1"/>
       <c r="CH220" s="1"/>
       <c r="CI220" s="1"/>
@@ -15897,13 +15902,13 @@
       <c r="RX220" s="1"/>
     </row>
     <row r="221" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A221" s="8">
+      <c r="A221" s="9">
         <v>41334</v>
       </c>
-      <c r="B221" s="9">
+      <c r="B221" s="10">
         <v>8.3440031175367746E-2</v>
       </c>
-      <c r="C221" s="4"/>
+      <c r="C221" s="3"/>
       <c r="CG221" s="1"/>
       <c r="CH221" s="1"/>
       <c r="CI221" s="1"/>
@@ -15943,11 +15948,11 @@
       <c r="EJ221" s="1"/>
       <c r="EU221" s="1"/>
       <c r="FF221" s="1"/>
-      <c r="FH221" s="6"/>
+      <c r="FH221" s="7"/>
       <c r="FQ221" s="1"/>
-      <c r="FS221" s="6"/>
+      <c r="FS221" s="7"/>
       <c r="GB221" s="1"/>
-      <c r="GD221" s="6"/>
+      <c r="GD221" s="7"/>
       <c r="GM221" s="1"/>
       <c r="GX221" s="1"/>
       <c r="HI221" s="1"/>
@@ -15995,13 +16000,13 @@
       <c r="RX221" s="1"/>
     </row>
     <row r="222" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A222" s="8">
+      <c r="A222" s="9">
         <v>41365</v>
       </c>
-      <c r="B222" s="9">
+      <c r="B222" s="10">
         <v>8.4749349865796034E-2</v>
       </c>
-      <c r="C222" s="4"/>
+      <c r="C222" s="3"/>
       <c r="PU222" s="1"/>
       <c r="PV222" s="1"/>
       <c r="PW222" s="1"/>
@@ -16014,13 +16019,13 @@
       <c r="QD222" s="1"/>
     </row>
     <row r="223" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A223" s="8">
+      <c r="A223" s="9">
         <v>41395</v>
       </c>
-      <c r="B223" s="9">
+      <c r="B223" s="10">
         <v>8.0522617175596833E-2</v>
       </c>
-      <c r="C223" s="4"/>
+      <c r="C223" s="3"/>
       <c r="PU223" s="1"/>
       <c r="PV223" s="1"/>
       <c r="PW223" s="1"/>
@@ -16033,13 +16038,13 @@
       <c r="QD223" s="1"/>
     </row>
     <row r="224" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A224" s="8">
+      <c r="A224" s="9">
         <v>41426</v>
       </c>
-      <c r="B224" s="9">
+      <c r="B224" s="10">
         <v>7.5014888373605801E-2</v>
       </c>
-      <c r="C224" s="4"/>
+      <c r="C224" s="3"/>
       <c r="PU224" s="1"/>
       <c r="PV224" s="1"/>
       <c r="PW224" s="1"/>
@@ -16052,13 +16057,13 @@
       <c r="QD224" s="1"/>
     </row>
     <row r="225" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A225" s="8">
+      <c r="A225" s="9">
         <v>41456</v>
       </c>
-      <c r="B225" s="9">
+      <c r="B225" s="10">
         <v>7.7769653801373628E-2</v>
       </c>
-      <c r="C225" s="4"/>
+      <c r="C225" s="3"/>
       <c r="PU225" s="1"/>
       <c r="PV225" s="1"/>
       <c r="PW225" s="1"/>
@@ -16071,13 +16076,13 @@
       <c r="QD225" s="1"/>
     </row>
     <row r="226" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A226" s="8">
+      <c r="A226" s="9">
         <v>41487</v>
       </c>
-      <c r="B226" s="9">
+      <c r="B226" s="10">
         <v>7.610915084711764E-2</v>
       </c>
-      <c r="C226" s="4"/>
+      <c r="C226" s="3"/>
       <c r="PU226" s="1"/>
       <c r="PV226" s="1"/>
       <c r="PW226" s="1"/>
@@ -16090,13 +16095,13 @@
       <c r="QD226" s="1"/>
     </row>
     <row r="227" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A227" s="8">
+      <c r="A227" s="9">
         <v>41518</v>
       </c>
-      <c r="B227" s="9">
+      <c r="B227" s="10">
         <v>7.4874558269219044E-2</v>
       </c>
-      <c r="C227" s="4"/>
+      <c r="C227" s="3"/>
       <c r="PU227" s="1"/>
       <c r="PV227" s="1"/>
       <c r="PW227" s="1"/>
@@ -16109,1130 +16114,1138 @@
       <c r="QD227" s="1"/>
     </row>
     <row r="228" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A228" s="8">
+      <c r="A228" s="9">
         <v>41548</v>
       </c>
-      <c r="B228" s="9">
+      <c r="B228" s="10">
         <v>7.3769426049519596E-2</v>
       </c>
-      <c r="C228" s="4"/>
+      <c r="C228" s="3"/>
     </row>
     <row r="229" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A229" s="8">
+      <c r="A229" s="9">
         <v>41579</v>
       </c>
-      <c r="B229" s="9">
+      <c r="B229" s="10">
         <v>7.9046521727427585E-2</v>
       </c>
-      <c r="C229" s="4"/>
+      <c r="C229" s="3"/>
     </row>
     <row r="230" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A230" s="8">
+      <c r="A230" s="9">
         <v>41609</v>
       </c>
-      <c r="B230" s="9">
+      <c r="B230" s="10">
         <v>7.5700418664925911E-2</v>
       </c>
-      <c r="C230" s="4"/>
+      <c r="C230" s="3"/>
     </row>
     <row r="231" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A231" s="8">
+      <c r="A231" s="9">
         <v>41640</v>
       </c>
-      <c r="B231" s="9">
+      <c r="B231" s="10">
         <v>8.4845263579311214E-2</v>
       </c>
-      <c r="C231" s="4"/>
+      <c r="C231" s="3"/>
     </row>
     <row r="232" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A232" s="8">
+      <c r="A232" s="9">
         <v>41671</v>
       </c>
-      <c r="B232" s="9">
+      <c r="B232" s="10">
         <v>8.4096940621738683E-2</v>
       </c>
-      <c r="C232" s="4"/>
+      <c r="C232" s="3"/>
     </row>
     <row r="233" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A233" s="8">
+      <c r="A233" s="9">
         <v>41699</v>
       </c>
-      <c r="B233" s="9">
+      <c r="B233" s="10">
         <v>9.5085723314460191E-2</v>
       </c>
-      <c r="C233" s="4"/>
+      <c r="C233" s="3"/>
     </row>
     <row r="234" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A234" s="8">
+      <c r="A234" s="9">
         <v>41730</v>
       </c>
-      <c r="B234" s="9">
+      <c r="B234" s="10">
         <v>9.6617836562715484E-2</v>
       </c>
-      <c r="C234" s="4"/>
+      <c r="C234" s="3"/>
     </row>
     <row r="235" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A235" s="8">
+      <c r="A235" s="9">
         <v>41760</v>
       </c>
-      <c r="B235" s="9">
+      <c r="B235" s="10">
         <v>9.8701160485128128E-2</v>
       </c>
-      <c r="C235" s="4"/>
+      <c r="C235" s="3"/>
     </row>
     <row r="236" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A236" s="8">
+      <c r="A236" s="9">
         <v>41791</v>
       </c>
-      <c r="B236" s="9">
+      <c r="B236" s="10">
         <v>9.4012780857948633E-2</v>
       </c>
-      <c r="C236" s="4"/>
+      <c r="C236" s="3"/>
     </row>
     <row r="237" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A237" s="8">
+      <c r="A237" s="9">
         <v>41821</v>
       </c>
-      <c r="B237" s="9">
+      <c r="B237" s="10">
         <v>9.5099368892112943E-2</v>
       </c>
-      <c r="C237" s="4"/>
+      <c r="C237" s="3"/>
     </row>
     <row r="238" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A238" s="8">
+      <c r="A238" s="9">
         <v>41852</v>
       </c>
-      <c r="B238" s="9">
+      <c r="B238" s="10">
         <v>9.5412122648390635E-2</v>
       </c>
-      <c r="C238" s="4"/>
+      <c r="C238" s="3"/>
     </row>
     <row r="239" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A239" s="8">
+      <c r="A239" s="9">
         <v>41883</v>
       </c>
-      <c r="B239" s="9">
+      <c r="B239" s="10">
         <v>8.2926779422991759E-2</v>
       </c>
-      <c r="C239" s="4"/>
+      <c r="C239" s="3"/>
     </row>
     <row r="240" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A240" s="8">
+      <c r="A240" s="9">
         <v>41913</v>
       </c>
-      <c r="B240" s="9">
+      <c r="B240" s="10">
         <v>8.7456378540700291E-2</v>
       </c>
-      <c r="C240" s="4"/>
+      <c r="C240" s="3"/>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" s="8">
+      <c r="A241" s="9">
         <v>41944</v>
       </c>
-      <c r="B241" s="9">
+      <c r="B241" s="10">
         <v>9.0265236245787389E-2</v>
       </c>
-      <c r="C241" s="4"/>
+      <c r="C241" s="3"/>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" s="8">
+      <c r="A242" s="9">
         <v>41974</v>
       </c>
-      <c r="B242" s="9">
+      <c r="B242" s="10">
         <v>9.0600536697358139E-2</v>
       </c>
-      <c r="C242" s="4"/>
+      <c r="C242" s="3"/>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" s="8">
+      <c r="A243" s="9">
         <v>42005</v>
       </c>
-      <c r="B243" s="9">
+      <c r="B243" s="10">
         <v>0.10533016732361397</v>
       </c>
-      <c r="C243" s="4"/>
+      <c r="C243" s="3"/>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244" s="8">
+      <c r="A244" s="9">
         <v>42036</v>
       </c>
-      <c r="B244" s="9">
+      <c r="B244" s="10">
         <v>0.10379332898500528</v>
       </c>
-      <c r="C244" s="4"/>
+      <c r="C244" s="3"/>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" s="8">
+      <c r="A245" s="9">
         <v>42064</v>
       </c>
-      <c r="B245" s="9">
+      <c r="B245" s="10">
         <v>0.10646618622058883</v>
       </c>
-      <c r="C245" s="4"/>
+      <c r="C245" s="3"/>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246" s="8">
+      <c r="A246" s="9">
         <v>42095</v>
       </c>
-      <c r="B246" s="9">
+      <c r="B246" s="10">
         <v>0.10277197692695453</v>
       </c>
-      <c r="C246" s="4"/>
+      <c r="C246" s="3"/>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" s="8">
+      <c r="A247" s="9">
         <v>42125</v>
       </c>
-      <c r="B247" s="9">
+      <c r="B247" s="10">
         <v>0.10635981236621354</v>
       </c>
-      <c r="C247" s="4"/>
+      <c r="C247" s="3"/>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" s="8">
+      <c r="A248" s="9">
         <v>42156</v>
       </c>
-      <c r="B248" s="9">
+      <c r="B248" s="10">
         <v>0.10243622729858951</v>
       </c>
-      <c r="C248" s="4"/>
+      <c r="C248" s="3"/>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" s="8">
+      <c r="A249" s="9">
         <v>42186</v>
       </c>
-      <c r="B249" s="9">
+      <c r="B249" s="10">
         <v>0.10824745812912069</v>
       </c>
-      <c r="C249" s="4"/>
+      <c r="C249" s="3"/>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" s="8">
+      <c r="A250" s="9">
         <v>42217</v>
       </c>
-      <c r="B250" s="9">
+      <c r="B250" s="10">
         <v>0.11309406133143306</v>
       </c>
-      <c r="C250" s="4"/>
+      <c r="C250" s="3"/>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" s="8">
+      <c r="A251" s="9">
         <v>42248</v>
       </c>
-      <c r="B251" s="9">
+      <c r="B251" s="10">
         <v>9.9532565626062719E-2</v>
       </c>
-      <c r="C251" s="4"/>
+      <c r="C251" s="3"/>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" s="8">
+      <c r="A252" s="9">
         <v>42278</v>
       </c>
-      <c r="B252" s="9">
+      <c r="B252" s="10">
         <v>9.7344609070752625E-2</v>
       </c>
-      <c r="C252" s="4"/>
+      <c r="C252" s="3"/>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253" s="8">
+      <c r="A253" s="9">
         <v>42309</v>
       </c>
-      <c r="B253" s="9">
+      <c r="B253" s="10">
         <v>9.6030564044979047E-2</v>
       </c>
-      <c r="C253" s="4"/>
+      <c r="C253" s="3"/>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" s="8">
+      <c r="A254" s="9">
         <v>42339</v>
       </c>
-      <c r="B254" s="9">
+      <c r="B254" s="10">
         <v>9.7946408382498046E-2</v>
       </c>
-      <c r="C254" s="4"/>
+      <c r="C254" s="3"/>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255" s="8">
+      <c r="A255" s="9">
         <v>42370</v>
       </c>
-      <c r="B255" s="9">
+      <c r="B255" s="10">
         <v>0.10720725243654623</v>
       </c>
-      <c r="C255" s="4"/>
+      <c r="C255" s="3"/>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256" s="8">
+      <c r="A256" s="9">
         <v>42401</v>
       </c>
-      <c r="B256" s="9">
+      <c r="B256" s="10">
         <v>0.10623913533182294</v>
       </c>
-      <c r="C256" s="4"/>
+      <c r="C256" s="3"/>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257" s="8">
+      <c r="A257" s="9">
         <v>42430</v>
       </c>
-      <c r="B257" s="9">
+      <c r="B257" s="10">
         <v>9.6613329525373437E-2</v>
       </c>
-      <c r="C257" s="4"/>
+      <c r="C257" s="3"/>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" s="8">
+      <c r="A258" s="9">
         <v>42461</v>
       </c>
-      <c r="B258" s="9">
+      <c r="B258" s="10">
         <v>9.07458717712184E-2</v>
       </c>
-      <c r="C258" s="4"/>
+      <c r="C258" s="3"/>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259" s="8">
+      <c r="A259" s="9">
         <v>42491</v>
       </c>
-      <c r="B259" s="9">
+      <c r="B259" s="10">
         <v>8.1503302413437381E-2</v>
       </c>
-      <c r="C259" s="4"/>
+      <c r="C259" s="3"/>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" s="8">
+      <c r="A260" s="9">
         <v>42522</v>
       </c>
-      <c r="B260" s="9">
+      <c r="B260" s="10">
         <v>8.4903302413437381E-2</v>
       </c>
-      <c r="C260" s="4"/>
+      <c r="C260" s="3"/>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261" s="8">
+      <c r="A261" s="9">
         <v>42552</v>
       </c>
-      <c r="B261" s="9">
+      <c r="B261" s="10">
         <v>7.845432079176308E-2</v>
       </c>
-      <c r="C261" s="4"/>
+      <c r="C261" s="3"/>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262" s="8">
+      <c r="A262" s="9">
         <v>42583</v>
       </c>
-      <c r="B262" s="9">
+      <c r="B262" s="10">
         <v>7.7005107317431515E-2</v>
       </c>
-      <c r="C262" s="4"/>
+      <c r="C262" s="3"/>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" s="8">
+      <c r="A263" s="9">
         <v>42614</v>
       </c>
-      <c r="B263" s="9">
+      <c r="B263" s="10">
         <v>7.9062490141365058E-2</v>
       </c>
-      <c r="C263" s="4"/>
+      <c r="C263" s="3"/>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" s="8">
+      <c r="A264" s="9">
         <v>42644</v>
       </c>
-      <c r="B264" s="9">
+      <c r="B264" s="10">
         <v>9.0803823058582978E-2</v>
       </c>
-      <c r="C264" s="4"/>
+      <c r="C264" s="3"/>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" s="8">
+      <c r="A265" s="9">
         <v>42675</v>
       </c>
-      <c r="B265" s="9">
+      <c r="B265" s="10">
         <v>8.1366322142554626E-2</v>
       </c>
-      <c r="C265" s="4"/>
+      <c r="C265" s="3"/>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266" s="8">
+      <c r="A266" s="9">
         <v>42705</v>
       </c>
-      <c r="B266" s="9">
+      <c r="B266" s="10">
         <v>8.5524440182112194E-2</v>
       </c>
-      <c r="C266" s="4"/>
+      <c r="C266" s="3"/>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267" s="8">
+      <c r="A267" s="9">
         <v>42736</v>
       </c>
-      <c r="B267" s="9">
+      <c r="B267" s="10">
         <v>8.3374527020277533E-2</v>
       </c>
-      <c r="C267" s="4"/>
+      <c r="C267" s="3"/>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268" s="8">
+      <c r="A268" s="9">
         <v>42767</v>
       </c>
-      <c r="B268" s="9">
+      <c r="B268" s="10">
         <v>8.2618737455347563E-2</v>
       </c>
-      <c r="C268" s="4"/>
+      <c r="C268" s="3"/>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269" s="8">
+      <c r="A269" s="9">
         <v>42795</v>
       </c>
-      <c r="B269" s="9">
+      <c r="B269" s="10">
         <v>8.2301802120567966E-2</v>
       </c>
-      <c r="C269" s="4"/>
+      <c r="C269" s="3"/>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" s="8">
+      <c r="A270" s="9">
         <v>42826</v>
       </c>
-      <c r="B270" s="9">
+      <c r="B270" s="10">
         <v>7.9480761202343708E-2</v>
       </c>
-      <c r="C270" s="4"/>
+      <c r="C270" s="3"/>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271" s="8">
+      <c r="A271" s="9">
         <v>42856</v>
       </c>
-      <c r="B271" s="9">
+      <c r="B271" s="10">
         <v>8.3960752894154167E-2</v>
       </c>
-      <c r="C271" s="4"/>
+      <c r="C271" s="3"/>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272" s="8">
+      <c r="A272" s="9">
         <v>42887</v>
       </c>
-      <c r="B272" s="9">
+      <c r="B272" s="10">
         <v>8.2181900156117982E-2</v>
       </c>
-      <c r="C272" s="4"/>
+      <c r="C272" s="3"/>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273" s="8">
+      <c r="A273" s="9">
         <v>42917</v>
       </c>
-      <c r="B273" s="9">
+      <c r="B273" s="10">
         <v>7.8582383645718207E-2</v>
       </c>
-      <c r="C273" s="4"/>
+      <c r="C273" s="3"/>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274" s="8">
+      <c r="A274" s="9">
         <v>42948</v>
       </c>
-      <c r="B274" s="9">
+      <c r="B274" s="10">
         <v>7.3514830121311145E-2</v>
       </c>
-      <c r="C274" s="4"/>
+      <c r="C274" s="3"/>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" s="8">
+      <c r="A275" s="9">
         <v>42979</v>
       </c>
-      <c r="B275" s="9">
+      <c r="B275" s="10">
         <v>7.1798584083836187E-2</v>
       </c>
-      <c r="C275" s="4"/>
+      <c r="C275" s="3"/>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276" s="8">
+      <c r="A276" s="9">
         <v>43009</v>
       </c>
-      <c r="B276" s="9">
+      <c r="B276" s="10">
         <v>7.0893601810297649E-2</v>
       </c>
-      <c r="C276" s="4"/>
+      <c r="C276" s="3"/>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" s="8">
+      <c r="A277" s="9">
         <v>43040</v>
       </c>
-      <c r="B277" s="9">
+      <c r="B277" s="10">
         <v>6.1052757033422195E-2</v>
       </c>
-      <c r="C277" s="4"/>
+      <c r="C277" s="3"/>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278" s="8">
+      <c r="A278" s="9">
         <v>43070</v>
       </c>
-      <c r="B278" s="9">
+      <c r="B278" s="10">
         <v>6.7122786831106646E-2</v>
       </c>
-      <c r="C278" s="4"/>
+      <c r="C278" s="3"/>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279" s="8">
+      <c r="A279" s="9">
         <v>43101</v>
       </c>
-      <c r="B279" s="9">
+      <c r="B279" s="10">
         <v>5.7519098552337958E-2</v>
       </c>
-      <c r="C279" s="4"/>
+      <c r="C279" s="3"/>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280" s="8">
+      <c r="A280" s="9">
         <v>43132</v>
       </c>
-      <c r="B280" s="9">
+      <c r="B280" s="10">
         <v>6.5520472026066215E-2</v>
       </c>
-      <c r="C280" s="4"/>
+      <c r="C280" s="3"/>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" s="8">
+      <c r="A281" s="9">
         <v>43160</v>
       </c>
-      <c r="B281" s="9">
+      <c r="B281" s="10">
         <v>7.2125770364620007E-2</v>
       </c>
-      <c r="C281" s="4"/>
+      <c r="C281" s="3"/>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282" s="8">
+      <c r="A282" s="9">
         <v>43191</v>
       </c>
-      <c r="B282" s="9">
+      <c r="B282" s="10">
         <v>6.4064244291655609E-2</v>
       </c>
-      <c r="C282" s="4"/>
+      <c r="C282" s="3"/>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" s="8">
+      <c r="A283" s="9">
         <v>43221</v>
       </c>
-      <c r="B283" s="9">
+      <c r="B283" s="10">
         <v>7.1824635819149038E-2</v>
       </c>
-      <c r="C283" s="4"/>
+      <c r="C283" s="3"/>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A284" s="8">
+      <c r="A284" s="9">
         <v>43252</v>
       </c>
-      <c r="B284" s="9">
+      <c r="B284" s="10">
         <v>7.9775179773577412E-2</v>
       </c>
-      <c r="C284" s="4"/>
+      <c r="C284" s="3"/>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285" s="8">
+      <c r="A285" s="9">
         <v>43282</v>
       </c>
-      <c r="B285" s="9">
+      <c r="B285" s="10">
         <v>9.1939861515753868E-2</v>
       </c>
-      <c r="C285" s="4"/>
+      <c r="C285" s="3"/>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286" s="8">
+      <c r="A286" s="9">
         <v>43313</v>
       </c>
-      <c r="B286" s="9">
+      <c r="B286" s="10">
         <v>0.10101989540599204</v>
       </c>
-      <c r="C286" s="4"/>
+      <c r="C286" s="3"/>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287" s="8">
+      <c r="A287" s="9">
         <v>43344</v>
       </c>
-      <c r="B287" s="9">
+      <c r="B287" s="10">
         <v>0.10496376393363561</v>
       </c>
-      <c r="C287" s="4"/>
+      <c r="C287" s="3"/>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" s="8">
+      <c r="A288" s="9">
         <v>43374</v>
       </c>
-      <c r="B288" s="9">
+      <c r="B288" s="10">
         <v>6.866534805367612E-2</v>
       </c>
-      <c r="C288" s="4"/>
+      <c r="C288" s="3"/>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A289" s="8">
+      <c r="A289" s="9">
         <v>43405</v>
       </c>
-      <c r="B289" s="9">
+      <c r="B289" s="10">
         <v>7.7599591244769228E-2</v>
       </c>
-      <c r="C289" s="4"/>
+      <c r="C289" s="3"/>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290" s="8">
+      <c r="A290" s="9">
         <v>43435</v>
       </c>
-      <c r="B290" s="9">
+      <c r="B290" s="10">
         <v>7.6296518904752947E-2</v>
       </c>
-      <c r="C290" s="4"/>
+      <c r="C290" s="3"/>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A291" s="8">
+      <c r="A291" s="9">
         <v>43466</v>
       </c>
-      <c r="B291" s="9">
+      <c r="B291" s="10">
         <v>7.1150211864005483E-2</v>
       </c>
-      <c r="C291" s="4"/>
+      <c r="C291" s="3"/>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292" s="8">
+      <c r="A292" s="9">
         <v>43497</v>
       </c>
-      <c r="B292" s="9">
+      <c r="B292" s="10">
         <v>7.4978703434071342E-2</v>
       </c>
-      <c r="C292" s="4"/>
+      <c r="C292" s="3"/>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A293" s="8">
+      <c r="A293" s="9">
         <v>43525</v>
       </c>
-      <c r="B293" s="9">
+      <c r="B293" s="10">
         <v>8.1082222580664831E-2</v>
       </c>
-      <c r="C293" s="4"/>
+      <c r="C293" s="3"/>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294" s="8">
+      <c r="A294" s="9">
         <v>43556</v>
       </c>
-      <c r="B294" s="9">
+      <c r="B294" s="10">
         <v>8.0864791172512426E-2</v>
       </c>
-      <c r="C294" s="4"/>
+      <c r="C294" s="3"/>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A295" s="8">
+      <c r="A295" s="9">
         <v>43586</v>
       </c>
-      <c r="B295" s="9">
+      <c r="B295" s="10">
         <v>8.7764304038109517E-2</v>
       </c>
-      <c r="C295" s="4"/>
+      <c r="C295" s="3"/>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A296" s="8">
+      <c r="A296" s="9">
         <v>43617</v>
       </c>
-      <c r="B296" s="9">
+      <c r="B296" s="10">
         <v>8.5839178787788323E-2</v>
       </c>
-      <c r="C296" s="4"/>
+      <c r="C296" s="3"/>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297" s="8">
+      <c r="A297" s="9">
         <v>43647</v>
       </c>
-      <c r="B297" s="9">
+      <c r="B297" s="10">
         <v>8.9544717916765409E-2</v>
       </c>
-      <c r="C297" s="4"/>
+      <c r="C297" s="3"/>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298" s="8">
+      <c r="A298" s="9">
         <v>43678</v>
       </c>
-      <c r="B298" s="9">
+      <c r="B298" s="10">
         <v>9.687272744274146E-2</v>
       </c>
-      <c r="C298" s="4"/>
+      <c r="C298" s="3"/>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299" s="8">
+      <c r="A299" s="9">
         <v>43709</v>
       </c>
-      <c r="B299" s="9">
+      <c r="B299" s="10">
         <v>9.4565670394992141E-2</v>
       </c>
-      <c r="C299" s="4"/>
+      <c r="C299" s="3"/>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A300" s="8">
+      <c r="A300" s="9">
         <v>43739</v>
       </c>
-      <c r="B300" s="9">
+      <c r="B300" s="10">
         <v>9.5998871332297536E-2</v>
       </c>
-      <c r="C300" s="4"/>
+      <c r="C300" s="3"/>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A301" s="8">
+      <c r="A301" s="9">
         <v>43770</v>
       </c>
-      <c r="B301" s="9">
+      <c r="B301" s="10">
         <v>9.0410180385752506E-2</v>
       </c>
-      <c r="C301" s="4"/>
+      <c r="C301" s="3"/>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A302" s="8">
+      <c r="A302" s="9">
         <v>43800</v>
       </c>
-      <c r="B302" s="9">
+      <c r="B302" s="10">
         <v>8.0346430039285821E-2</v>
       </c>
-      <c r="C302" s="4"/>
+      <c r="C302" s="3"/>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A303" s="8">
+      <c r="A303" s="9">
         <v>43831</v>
       </c>
-      <c r="B303" s="9">
+      <c r="B303" s="10">
         <v>8.8138805128154862E-2</v>
       </c>
-      <c r="C303" s="4"/>
+      <c r="C303" s="3"/>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A304" s="8">
+      <c r="A304" s="9">
         <v>43862</v>
       </c>
-      <c r="B304" s="9">
+      <c r="B304" s="10">
         <v>9.3984258626188408E-2</v>
       </c>
-      <c r="C304" s="4"/>
+      <c r="C304" s="3"/>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305" s="8">
+      <c r="A305" s="9">
         <v>43891</v>
       </c>
-      <c r="B305" s="9">
+      <c r="B305" s="10">
         <v>0.11444455602995118</v>
       </c>
-      <c r="C305" s="4"/>
+      <c r="C305" s="3"/>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A306" s="8">
+      <c r="A306" s="9">
         <v>43922</v>
       </c>
-      <c r="B306" s="9">
+      <c r="B306" s="10">
         <v>0.11883485001315314</v>
       </c>
-      <c r="C306" s="4"/>
+      <c r="C306" s="3"/>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A307" s="8">
+      <c r="A307" s="9">
         <v>43952</v>
       </c>
-      <c r="B307" s="9">
+      <c r="B307" s="10">
         <v>0.10802006518576782</v>
       </c>
-      <c r="C307" s="4"/>
+      <c r="C307" s="3"/>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308" s="8">
+      <c r="A308" s="9">
         <v>43983</v>
       </c>
-      <c r="B308" s="9">
+      <c r="B308" s="10">
         <v>0.10150000000000001</v>
       </c>
-      <c r="C308" s="4"/>
+      <c r="C308" s="3"/>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309" s="8">
+      <c r="A309" s="9">
         <v>44013</v>
       </c>
-      <c r="B309" s="9">
+      <c r="B309" s="10">
         <v>0.10394071190796175</v>
       </c>
-      <c r="C309" s="4"/>
+      <c r="C309" s="3"/>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310" s="8">
+      <c r="A310" s="9">
         <v>44044</v>
       </c>
-      <c r="B310" s="9">
+      <c r="B310" s="10">
         <v>9.8747906968658955E-2</v>
       </c>
-      <c r="C310" s="4"/>
+      <c r="C310" s="3"/>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311" s="8">
+      <c r="A311" s="9">
         <v>44075</v>
       </c>
-      <c r="B311" s="9">
+      <c r="B311" s="10">
         <v>0.10280377344670942</v>
       </c>
-      <c r="C311" s="4"/>
+      <c r="C311" s="3"/>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A312" s="8">
+      <c r="A312" s="9">
         <v>44105</v>
       </c>
-      <c r="B312" s="9">
+      <c r="B312" s="10">
         <v>0.1003081555378784</v>
       </c>
-      <c r="C312" s="4"/>
+      <c r="C312" s="3"/>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A313" s="8">
+      <c r="A313" s="9">
         <v>44136</v>
       </c>
-      <c r="B313" s="9">
+      <c r="B313" s="10">
         <v>9.4781090636132159E-2</v>
       </c>
-      <c r="C313" s="4"/>
+      <c r="C313" s="3"/>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314" s="8">
+      <c r="A314" s="9">
         <v>44166</v>
       </c>
-      <c r="B314" s="9">
+      <c r="B314" s="10">
         <v>9.9688114787269883E-2</v>
       </c>
-      <c r="C314" s="4"/>
+      <c r="C314" s="3"/>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A315" s="8">
+      <c r="A315" s="9">
         <v>44197</v>
       </c>
-      <c r="B315" s="9">
+      <c r="B315" s="10">
         <v>0.10345953791176479</v>
       </c>
-      <c r="C315" s="4"/>
+      <c r="C315" s="3"/>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316" s="8">
+      <c r="A316" s="9">
         <v>44228</v>
       </c>
-      <c r="B316" s="9">
+      <c r="B316" s="10">
         <v>9.9036976535253174E-2</v>
       </c>
-      <c r="C316" s="4"/>
+      <c r="C316" s="3"/>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A317" s="8">
+      <c r="A317" s="9">
         <v>44256</v>
       </c>
-      <c r="B317" s="9">
+      <c r="B317" s="10">
         <v>0.11202004609682872</v>
       </c>
-      <c r="C317" s="4"/>
+      <c r="C317" s="3"/>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A318" s="8">
+      <c r="A318" s="9">
         <v>44287</v>
       </c>
-      <c r="B318" s="9">
+      <c r="B318" s="10">
         <v>0.1105</v>
       </c>
-      <c r="C318" s="4"/>
+      <c r="C318" s="3"/>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A319" s="8">
+      <c r="A319" s="9">
         <v>44317</v>
       </c>
-      <c r="B319" s="9">
+      <c r="B319" s="10">
         <v>0.103756060197642</v>
       </c>
-      <c r="C319" s="4"/>
+      <c r="C319" s="3"/>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A320" s="8">
+      <c r="A320" s="9">
         <v>44348</v>
       </c>
-      <c r="B320" s="9">
+      <c r="B320" s="10">
         <v>0.11288777024068533</v>
       </c>
-      <c r="C320" s="4"/>
+      <c r="C320" s="3"/>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A321" s="8">
+      <c r="A321" s="9">
         <v>44378</v>
       </c>
-      <c r="B321" s="9">
+      <c r="B321" s="10">
         <v>0.1217</v>
       </c>
-      <c r="C321" s="4"/>
+      <c r="C321" s="3"/>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A322" s="8">
+      <c r="A322" s="9">
         <v>44409</v>
       </c>
-      <c r="B322" s="9">
+      <c r="B322" s="10">
         <v>0.11860470570232673</v>
       </c>
-      <c r="C322" s="4"/>
+      <c r="C322" s="3"/>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A323" s="8">
+      <c r="A323" s="9">
         <v>44440</v>
       </c>
-      <c r="B323" s="9">
+      <c r="B323" s="10">
         <v>0.15321467349306883</v>
       </c>
-      <c r="C323" s="4"/>
+      <c r="C323" s="3"/>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A324" s="8">
+      <c r="A324" s="9">
         <v>44470</v>
       </c>
-      <c r="B324" s="9">
+      <c r="B324" s="10">
         <v>0.1565</v>
       </c>
-      <c r="C324" s="4"/>
+      <c r="C324" s="3"/>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325" s="8">
+      <c r="A325" s="9">
         <v>44501</v>
       </c>
-      <c r="B325" s="9">
+      <c r="B325" s="10">
         <v>0.15480116295464194</v>
       </c>
-      <c r="C325" s="4"/>
+      <c r="C325" s="3"/>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A326" s="8">
+      <c r="A326" s="9">
         <v>44531</v>
       </c>
-      <c r="B326" s="9">
+      <c r="B326" s="10">
         <v>0.18086975473681763</v>
       </c>
-      <c r="C326" s="4"/>
+      <c r="C326" s="3"/>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327" s="8">
+      <c r="A327" s="9">
         <v>44562</v>
       </c>
-      <c r="B327" s="9">
+      <c r="B327" s="10">
         <v>0.15203711549166959</v>
       </c>
-      <c r="C327" s="4"/>
+      <c r="C327" s="3"/>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A328" s="8">
+      <c r="A328" s="9">
         <v>44593</v>
       </c>
-      <c r="B328" s="9">
+      <c r="B328" s="10">
         <v>0.15045086518646858</v>
       </c>
-      <c r="C328" s="4"/>
+      <c r="C328" s="3"/>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A329" s="8">
+      <c r="A329" s="9">
         <v>44621</v>
       </c>
-      <c r="B329" s="9">
+      <c r="B329" s="10">
         <v>0.13402699778646815</v>
       </c>
-      <c r="C329" s="4"/>
+      <c r="C329" s="3"/>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A330" s="8">
+      <c r="A330" s="9">
         <v>44652</v>
       </c>
-      <c r="B330" s="9">
+      <c r="B330" s="10">
         <v>0.13661550466927599</v>
       </c>
-      <c r="C330" s="4"/>
+      <c r="C330" s="3"/>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A331" s="8">
+      <c r="A331" s="9">
         <v>44682</v>
       </c>
-      <c r="B331" s="9">
+      <c r="B331" s="10">
         <v>0.1321</v>
       </c>
-      <c r="C331" s="4"/>
+      <c r="C331" s="3"/>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A332" s="8">
+      <c r="A332" s="9">
         <v>44713</v>
       </c>
-      <c r="B332" s="9">
+      <c r="B332" s="10">
         <v>0.16510000000000002</v>
       </c>
-      <c r="C332" s="4"/>
+      <c r="C332" s="3"/>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A333" s="8">
+      <c r="A333" s="9">
         <v>44743</v>
       </c>
-      <c r="B333" s="9">
+      <c r="B333" s="10">
         <v>0.1585</v>
       </c>
-      <c r="C333" s="4"/>
+      <c r="C333" s="3"/>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A334" s="8">
+      <c r="A334" s="9">
         <v>44774</v>
       </c>
-      <c r="B334" s="9">
+      <c r="B334" s="10">
         <v>0.1331</v>
       </c>
-      <c r="C334" s="4"/>
+      <c r="C334" s="3"/>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A335" s="8">
+      <c r="A335" s="9">
         <v>44805</v>
       </c>
-      <c r="B335" s="9">
+      <c r="B335" s="10">
         <v>0.14630000000000001</v>
       </c>
-      <c r="C335" s="4"/>
+      <c r="C335" s="3"/>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A336" s="8">
+      <c r="A336" s="9">
         <v>44835</v>
       </c>
-      <c r="B336" s="9">
+      <c r="B336" s="10">
         <v>0.1197</v>
       </c>
-      <c r="C336" s="4"/>
+      <c r="C336" s="3"/>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A337" s="8">
+      <c r="A337" s="9">
         <v>44866</v>
       </c>
-      <c r="B337" s="9">
+      <c r="B337" s="10">
         <v>0.1177</v>
       </c>
-      <c r="C337" s="4"/>
+      <c r="C337" s="3"/>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A338" s="8">
+      <c r="A338" s="9">
         <v>44896</v>
       </c>
-      <c r="B338" s="9">
+      <c r="B338" s="10">
         <v>0.1172183756433729</v>
       </c>
-      <c r="C338" s="4"/>
+      <c r="C338" s="3"/>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A339" s="8">
+      <c r="A339" s="9">
         <v>44927</v>
       </c>
-      <c r="B339" s="9">
+      <c r="B339" s="10">
         <v>0.112566</v>
       </c>
-      <c r="C339" s="4"/>
+      <c r="C339" s="3"/>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A340" s="8">
+      <c r="A340" s="9">
         <v>44958</v>
       </c>
-      <c r="B340" s="9">
+      <c r="B340" s="10">
         <v>0.10406600000000001</v>
       </c>
-      <c r="C340" s="4"/>
+      <c r="C340" s="3"/>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A341" s="8">
+      <c r="A341" s="9">
         <v>44986</v>
       </c>
-      <c r="B341" s="9">
+      <c r="B341" s="10">
         <v>0.100060632666334</v>
       </c>
-      <c r="C341" s="4"/>
+      <c r="C341" s="3"/>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A342" s="8">
+      <c r="A342" s="9">
         <v>45017</v>
       </c>
-      <c r="B342" s="9">
+      <c r="B342" s="10">
         <v>9.7161250237506505E-2</v>
       </c>
-      <c r="C342" s="4"/>
+      <c r="C342" s="3"/>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A343" s="8">
+      <c r="A343" s="9">
         <v>45047</v>
       </c>
-      <c r="B343" s="9">
+      <c r="B343" s="10">
         <v>9.6838061660370997E-2</v>
       </c>
-      <c r="C343" s="4"/>
+      <c r="C343" s="3"/>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A344" s="8">
+      <c r="A344" s="9">
         <v>45078</v>
       </c>
-      <c r="B344" s="9">
+      <c r="B344" s="10">
         <v>8.4097029271563706E-2</v>
       </c>
-      <c r="C344" s="4"/>
+      <c r="C344" s="3"/>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A345" s="8">
+      <c r="A345" s="9">
         <v>45108</v>
       </c>
-      <c r="B345" s="9">
+      <c r="B345" s="10">
         <v>7.9421854001553702E-2</v>
       </c>
-      <c r="C345" s="4"/>
+      <c r="C345" s="3"/>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A346" s="8">
+      <c r="A346" s="9">
         <v>45139</v>
       </c>
-      <c r="B346" s="9">
+      <c r="B346" s="10">
         <v>8.8703735811575105E-2</v>
       </c>
-      <c r="C346" s="4"/>
-      <c r="D346" s="4"/>
+      <c r="C346" s="3"/>
+      <c r="D346" s="3"/>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A347" s="8">
+      <c r="A347" s="9">
         <v>45170</v>
       </c>
-      <c r="B347" s="9">
+      <c r="B347" s="10">
         <v>8.69610556503468E-2</v>
       </c>
-      <c r="C347" s="4"/>
+      <c r="C347" s="3"/>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A348" s="8">
+      <c r="A348" s="9">
         <v>45200</v>
       </c>
-      <c r="B348" s="9">
+      <c r="B348" s="10">
         <v>8.5154952330852907E-2</v>
       </c>
-      <c r="C348" s="4"/>
+      <c r="C348" s="3"/>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A349" s="8">
+      <c r="A349" s="9">
         <v>45231</v>
       </c>
-      <c r="B349" s="9">
+      <c r="B349" s="10">
         <v>9.2767735220062306E-2</v>
       </c>
-      <c r="C349" s="4"/>
+      <c r="C349" s="3"/>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A350" s="8">
+      <c r="A350" s="9">
         <v>45261</v>
       </c>
-      <c r="B350" s="9">
+      <c r="B350" s="10">
         <v>8.8146226677963901E-2</v>
       </c>
-      <c r="C350" s="11"/>
+      <c r="C350" s="3"/>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351" s="9">
+        <v>45292</v>
+      </c>
+      <c r="B351" s="10">
+        <v>8.25555271465966E-2</v>
+      </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B352" s="2"/>
-      <c r="C352" s="4"/>
+      <c r="B352" s="4"/>
+      <c r="C352" s="3"/>
     </row>
     <row r="353" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B353" s="2"/>
-      <c r="C353" s="4"/>
+      <c r="B353" s="4"/>
+      <c r="C353" s="3"/>
     </row>
     <row r="354" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B354" s="3"/>
-      <c r="C354" s="4"/>
+      <c r="B354" s="5"/>
+      <c r="C354" s="3"/>
     </row>
     <row r="355" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C355" s="4"/>
+      <c r="C355" s="3"/>
     </row>
     <row r="356" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C356" s="4"/>
+      <c r="C356" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:B2" xr:uid="{00000000-0001-0000-0000-000000000000}">

--- a/Database/Serie de Equity Risk Premium.xlsx
+++ b/Database/Serie de Equity Risk Premium.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bteba\Documents\GitHub\ERP\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BF0422-4912-403D-BFD3-316D3F64D677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBAEF68-873D-4799-AADA-0E6151EF88D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,21 +18,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$2:$B$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -115,6 +104,9 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -127,9 +119,6 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1308,6 +1297,9 @@
                 <c:pt idx="348">
                   <c:v>45292</c:v>
                 </c:pt>
+                <c:pt idx="349">
+                  <c:v>45323</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2363,6 +2355,9 @@
                 </c:pt>
                 <c:pt idx="348">
                   <c:v>8.25555271465966E-2</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>8.3559126164475694E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3446,8 +3441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:RX356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A317" workbookViewId="0">
-      <selection activeCell="F334" sqref="F334"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3464,10 +3459,10 @@
       </c>
     </row>
     <row r="2" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="CG2" s="1"/>
@@ -3503,13 +3498,13 @@
       <c r="RX2" s="1"/>
     </row>
     <row r="3" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="10">
         <v>34700</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="2">
         <v>3.5906071097335332E-2</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="4"/>
       <c r="CG3" s="1"/>
       <c r="CH3" s="1"/>
       <c r="CI3" s="1"/>
@@ -3541,13 +3536,13 @@
       <c r="RX3" s="1"/>
     </row>
     <row r="4" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="10">
         <v>34731</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="2">
         <v>4.641371511935781E-2</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="4"/>
       <c r="CG4" s="1"/>
       <c r="CH4" s="1"/>
       <c r="CI4" s="1"/>
@@ -3579,13 +3574,13 @@
       <c r="RX4" s="1"/>
     </row>
     <row r="5" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="10">
         <v>34759</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="2">
         <v>6.8188691890601116E-2</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="4"/>
       <c r="CG5" s="1"/>
       <c r="CH5" s="1"/>
       <c r="CI5" s="1"/>
@@ -3616,13 +3611,13 @@
       <c r="RX5" s="1"/>
     </row>
     <row r="6" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="10">
         <v>34790</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="2">
         <v>9.0011601145643869E-2</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="4"/>
       <c r="CG6" s="1"/>
       <c r="CH6" s="1"/>
       <c r="CI6" s="1"/>
@@ -3651,13 +3646,13 @@
       <c r="RM6" s="1"/>
     </row>
     <row r="7" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="10">
         <v>34820</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="2">
         <v>9.9496073670305801E-2</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="4"/>
       <c r="CG7" s="1"/>
       <c r="CH7" s="1"/>
       <c r="CI7" s="1"/>
@@ -3685,13 +3680,13 @@
       <c r="RM7" s="1"/>
     </row>
     <row r="8" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="10">
         <v>34851</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="2">
         <v>0.11863771466397069</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="4"/>
       <c r="CG8" s="1"/>
       <c r="CH8" s="1"/>
       <c r="CI8" s="1"/>
@@ -3719,13 +3714,13 @@
       <c r="RM8" s="1"/>
     </row>
     <row r="9" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="10">
         <v>34881</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="2">
         <v>0.1181146572660678</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="4"/>
       <c r="CG9" s="1"/>
       <c r="CH9" s="1"/>
       <c r="CI9" s="1"/>
@@ -3743,13 +3738,13 @@
       <c r="RM9" s="1"/>
     </row>
     <row r="10" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="10">
         <v>34912</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="2">
         <v>0.11925440378813899</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="4"/>
       <c r="CG10" s="1"/>
       <c r="CH10" s="1"/>
       <c r="CI10" s="1"/>
@@ -3766,13 +3761,13 @@
       <c r="RM10" s="1"/>
     </row>
     <row r="11" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="10">
         <v>34943</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="2">
         <v>8.0427229515112636E-2</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="4"/>
       <c r="CG11" s="1"/>
       <c r="CH11" s="1"/>
       <c r="CI11" s="1"/>
@@ -3789,13 +3784,13 @@
       <c r="RM11" s="1"/>
     </row>
     <row r="12" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="10">
         <v>34973</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="2">
         <v>9.2888414728135582E-2</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="4"/>
       <c r="CG12" s="1"/>
       <c r="CH12" s="1"/>
       <c r="CI12" s="1"/>
@@ -3811,13 +3806,13 @@
       <c r="RM12" s="1"/>
     </row>
     <row r="13" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="10">
         <v>35004</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="2">
         <v>0.10118496200041718</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="4"/>
       <c r="CG13" s="1"/>
       <c r="CH13" s="1"/>
       <c r="CI13" s="1"/>
@@ -3833,13 +3828,13 @@
       <c r="RM13" s="1"/>
     </row>
     <row r="14" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="10">
         <v>35034</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="2">
         <v>0.10732542683580969</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="4"/>
       <c r="CG14" s="1"/>
       <c r="CH14" s="1"/>
       <c r="CI14" s="1"/>
@@ -3853,13 +3848,13 @@
       <c r="OY14" s="1"/>
     </row>
     <row r="15" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="10">
         <v>35065</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="2">
         <v>9.1621260099534085E-2</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="4"/>
       <c r="CG15" s="1"/>
       <c r="CH15" s="1"/>
       <c r="CI15" s="1"/>
@@ -3873,731 +3868,731 @@
       <c r="OY15" s="1"/>
     </row>
     <row r="16" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="10">
         <v>35096</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="2">
         <v>8.4905503970074639E-2</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="4"/>
       <c r="CP16" s="1"/>
     </row>
     <row r="17" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="10">
         <v>35125</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="2">
         <v>0.10049276040389069</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="4"/>
       <c r="CP17" s="1"/>
     </row>
     <row r="18" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="10">
         <v>35156</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="2">
         <v>9.6531384813158941E-2</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="4"/>
       <c r="CP18" s="1"/>
     </row>
     <row r="19" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="10">
         <v>35186</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="2">
         <v>9.5088188666882692E-2</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="4"/>
       <c r="CP19" s="1"/>
     </row>
     <row r="20" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="10">
         <v>35217</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="2">
         <v>9.0796583575804307E-2</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="4"/>
       <c r="CP20" s="1"/>
     </row>
     <row r="21" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21" s="10">
         <v>35247</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="2">
         <v>9.2623876599203819E-2</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="4"/>
       <c r="CP21" s="1"/>
     </row>
     <row r="22" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22" s="10">
         <v>35278</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="2">
         <v>9.1099901245860898E-2</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="4"/>
       <c r="CP22" s="1"/>
     </row>
     <row r="23" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="A23" s="10">
         <v>35309</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="2">
         <v>9.2854806609296375E-2</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="4"/>
       <c r="CP23" s="1"/>
     </row>
     <row r="24" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="A24" s="10">
         <v>35339</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="2">
         <v>0.10127373741409153</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="4"/>
       <c r="CP24" s="1"/>
     </row>
     <row r="25" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="A25" s="10">
         <v>35370</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="2">
         <v>0.10142804442282341</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="4"/>
       <c r="CP25" s="1"/>
     </row>
     <row r="26" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="A26" s="10">
         <v>35400</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="2">
         <v>9.9700000278104189E-2</v>
       </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="4"/>
       <c r="CP26" s="1"/>
     </row>
     <row r="27" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+      <c r="A27" s="10">
         <v>35431</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="2">
         <v>9.7052332691215076E-2</v>
       </c>
-      <c r="C27" s="3"/>
+      <c r="C27" s="4"/>
       <c r="CP27" s="1"/>
     </row>
     <row r="28" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="A28" s="10">
         <v>35462</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="2">
         <v>9.1057142830797522E-2</v>
       </c>
-      <c r="C28" s="3"/>
+      <c r="C28" s="4"/>
       <c r="CP28" s="1"/>
     </row>
     <row r="29" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+      <c r="A29" s="10">
         <v>35490</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="2">
         <v>8.6177248797735806E-2</v>
       </c>
-      <c r="C29" s="3"/>
+      <c r="C29" s="4"/>
       <c r="CP29" s="1"/>
     </row>
     <row r="30" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+      <c r="A30" s="10">
         <v>35521</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="2">
         <v>8.5066948095953776E-2</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
+      <c r="C30" s="4"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
       <c r="CP30" s="1"/>
     </row>
     <row r="31" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+      <c r="A31" s="10">
         <v>35551</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="2">
         <v>9.7288837160340563E-2</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
+      <c r="C31" s="4"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
       <c r="CP31" s="1"/>
     </row>
     <row r="32" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
+      <c r="A32" s="10">
         <v>35582</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="2">
         <v>9.6957468174919514E-2</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
+      <c r="C32" s="4"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
       <c r="CP32" s="1"/>
     </row>
     <row r="33" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
+      <c r="A33" s="10">
         <v>35612</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="2">
         <v>9.8258192485687817E-2</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
+      <c r="C33" s="4"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
       <c r="CP33" s="1"/>
     </row>
     <row r="34" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
+      <c r="A34" s="10">
         <v>35643</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="2">
         <v>0.10071108991221206</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="L34" s="8"/>
+      <c r="C34" s="4"/>
+      <c r="L34" s="9"/>
       <c r="CP34" s="1"/>
     </row>
     <row r="35" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
+      <c r="A35" s="10">
         <v>35674</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="2">
         <v>9.4101292650451321E-2</v>
       </c>
-      <c r="C35" s="3"/>
+      <c r="C35" s="4"/>
       <c r="CP35" s="1"/>
     </row>
     <row r="36" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
+      <c r="A36" s="10">
         <v>35704</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="2">
         <v>0.1022443853346008</v>
       </c>
-      <c r="C36" s="3"/>
+      <c r="C36" s="4"/>
       <c r="CP36" s="1"/>
     </row>
     <row r="37" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
+      <c r="A37" s="10">
         <v>35735</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="2">
         <v>0.11673503599412813</v>
       </c>
-      <c r="C37" s="3"/>
+      <c r="C37" s="4"/>
       <c r="CP37" s="1"/>
     </row>
     <row r="38" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
+      <c r="A38" s="10">
         <v>35765</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="2">
         <v>0.12868892588777975</v>
       </c>
-      <c r="C38" s="3"/>
+      <c r="C38" s="4"/>
       <c r="CP38" s="1"/>
     </row>
     <row r="39" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
+      <c r="A39" s="10">
         <v>35796</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="2">
         <v>0.13246738378006745</v>
       </c>
-      <c r="C39" s="3"/>
+      <c r="C39" s="4"/>
       <c r="CP39" s="1"/>
     </row>
     <row r="40" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A40" s="9">
+      <c r="A40" s="10">
         <v>35827</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="2">
         <v>0.12192540989307418</v>
       </c>
-      <c r="C40" s="3"/>
+      <c r="C40" s="4"/>
       <c r="CP40" s="1"/>
     </row>
     <row r="41" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
+      <c r="A41" s="10">
         <v>35855</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="2">
         <v>0.11858185629167939</v>
       </c>
-      <c r="C41" s="3"/>
+      <c r="C41" s="4"/>
       <c r="CP41" s="1"/>
     </row>
     <row r="42" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A42" s="9">
+      <c r="A42" s="10">
         <v>35886</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="2">
         <v>0.11009539820274278</v>
       </c>
-      <c r="C42" s="3"/>
+      <c r="C42" s="4"/>
       <c r="CP42" s="1"/>
     </row>
     <row r="43" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A43" s="9">
+      <c r="A43" s="10">
         <v>35916</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="2">
         <v>0.14815671762109539</v>
       </c>
-      <c r="C43" s="3"/>
+      <c r="C43" s="4"/>
       <c r="CP43" s="1"/>
     </row>
     <row r="44" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A44" s="9">
+      <c r="A44" s="10">
         <v>35947</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="2">
         <v>0.16414072309545738</v>
       </c>
-      <c r="C44" s="3"/>
+      <c r="C44" s="4"/>
       <c r="CP44" s="1"/>
     </row>
     <row r="45" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A45" s="9">
+      <c r="A45" s="10">
         <v>35977</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B45" s="2">
         <v>0.15684487547919845</v>
       </c>
-      <c r="C45" s="3"/>
+      <c r="C45" s="4"/>
       <c r="CP45" s="1"/>
     </row>
     <row r="46" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A46" s="9">
+      <c r="A46" s="10">
         <v>36008</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46" s="2">
         <v>0.20761986410571115</v>
       </c>
-      <c r="C46" s="3"/>
+      <c r="C46" s="4"/>
       <c r="CP46" s="1"/>
     </row>
     <row r="47" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A47" s="9">
+      <c r="A47" s="10">
         <v>36039</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="2">
         <v>0.26488372425157419</v>
       </c>
-      <c r="C47" s="3"/>
+      <c r="C47" s="4"/>
       <c r="CP47" s="1"/>
     </row>
     <row r="48" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A48" s="9">
+      <c r="A48" s="10">
         <v>36069</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48" s="2">
         <v>0.27386908893169182</v>
       </c>
-      <c r="C48" s="3"/>
+      <c r="C48" s="4"/>
       <c r="CP48" s="1"/>
     </row>
     <row r="49" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A49" s="9">
+      <c r="A49" s="10">
         <v>36100</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="2">
         <v>0.23368482800820384</v>
       </c>
-      <c r="C49" s="3"/>
+      <c r="C49" s="4"/>
       <c r="CP49" s="1"/>
     </row>
     <row r="50" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A50" s="9">
+      <c r="A50" s="10">
         <v>36130</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B50" s="2">
         <v>0.19728157436806892</v>
       </c>
-      <c r="C50" s="3"/>
+      <c r="C50" s="4"/>
       <c r="CP50" s="1"/>
     </row>
     <row r="51" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A51" s="9">
+      <c r="A51" s="10">
         <v>36161</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51" s="2">
         <v>0.18849719620951449</v>
       </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="6"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="7"/>
       <c r="CP51" s="1"/>
     </row>
     <row r="52" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A52" s="9">
+      <c r="A52" s="10">
         <v>36192</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B52" s="2">
         <v>0.17879547863724937</v>
       </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="6"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="7"/>
       <c r="CP52" s="1"/>
     </row>
     <row r="53" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A53" s="9">
+      <c r="A53" s="10">
         <v>36220</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B53" s="2">
         <v>0.19521218246374467</v>
       </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="6"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="7"/>
       <c r="CP53" s="1"/>
     </row>
     <row r="54" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A54" s="9">
+      <c r="A54" s="10">
         <v>36251</v>
       </c>
-      <c r="B54" s="10">
+      <c r="B54" s="2">
         <v>0.17667737273699313</v>
       </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="6"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="7"/>
       <c r="CP54" s="1"/>
     </row>
     <row r="55" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A55" s="9">
+      <c r="A55" s="10">
         <v>36281</v>
       </c>
-      <c r="B55" s="10">
+      <c r="B55" s="2">
         <v>0.17240854293261376</v>
       </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="6"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="7"/>
       <c r="CP55" s="1"/>
     </row>
     <row r="56" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A56" s="9">
+      <c r="A56" s="10">
         <v>36312</v>
       </c>
-      <c r="B56" s="10">
+      <c r="B56" s="2">
         <v>0.15905547118167043</v>
       </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="6"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="7"/>
       <c r="CP56" s="1"/>
     </row>
     <row r="57" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A57" s="9">
+      <c r="A57" s="10">
         <v>36342</v>
       </c>
-      <c r="B57" s="10">
+      <c r="B57" s="2">
         <v>0.15865389804394955</v>
       </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="6"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="7"/>
       <c r="CP57" s="1"/>
     </row>
     <row r="58" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A58" s="9">
+      <c r="A58" s="10">
         <v>36373</v>
       </c>
-      <c r="B58" s="10">
+      <c r="B58" s="2">
         <v>0.15275419272689961</v>
       </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="6"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="7"/>
       <c r="CP58" s="1"/>
     </row>
     <row r="59" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A59" s="9">
+      <c r="A59" s="10">
         <v>36404</v>
       </c>
-      <c r="B59" s="10">
+      <c r="B59" s="2">
         <v>0.13159865421370617</v>
       </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="6"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="7"/>
       <c r="CP59" s="1"/>
     </row>
     <row r="60" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A60" s="9">
+      <c r="A60" s="10">
         <v>36434</v>
       </c>
-      <c r="B60" s="10">
+      <c r="B60" s="2">
         <v>0.12196728595845485</v>
       </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="6"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="7"/>
       <c r="CP60" s="1"/>
     </row>
     <row r="61" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A61" s="9">
+      <c r="A61" s="10">
         <v>36465</v>
       </c>
-      <c r="B61" s="10">
+      <c r="B61" s="2">
         <v>0.10437517943413213</v>
       </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="6"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="7"/>
       <c r="CP61" s="1"/>
     </row>
     <row r="62" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A62" s="9">
+      <c r="A62" s="10">
         <v>36495</v>
       </c>
-      <c r="B62" s="10">
+      <c r="B62" s="2">
         <v>8.4895285767080067E-2</v>
       </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="6"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="7"/>
       <c r="CP62" s="1"/>
     </row>
     <row r="63" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A63" s="9">
+      <c r="A63" s="10">
         <v>36526</v>
       </c>
-      <c r="B63" s="10">
+      <c r="B63" s="2">
         <v>8.0964220165040707E-2</v>
       </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="6"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="7"/>
       <c r="CP63" s="1"/>
     </row>
     <row r="64" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A64" s="9">
+      <c r="A64" s="10">
         <v>36557</v>
       </c>
-      <c r="B64" s="10">
+      <c r="B64" s="2">
         <v>8.5143819747368649E-2</v>
       </c>
-      <c r="C64" s="3"/>
-      <c r="D64" s="6"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="7"/>
       <c r="CP64" s="1"/>
     </row>
     <row r="65" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A65" s="9">
+      <c r="A65" s="10">
         <v>36586</v>
       </c>
-      <c r="B65" s="10">
+      <c r="B65" s="2">
         <v>9.4432793059799777E-2</v>
       </c>
-      <c r="C65" s="3"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
       <c r="CP65" s="1"/>
     </row>
     <row r="66" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A66" s="9">
+      <c r="A66" s="10">
         <v>36617</v>
       </c>
-      <c r="B66" s="10">
+      <c r="B66" s="2">
         <v>0.1068984082862578</v>
       </c>
-      <c r="C66" s="3"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
       <c r="CP66" s="1"/>
     </row>
     <row r="67" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A67" s="9">
+      <c r="A67" s="10">
         <v>36647</v>
       </c>
-      <c r="B67" s="10">
+      <c r="B67" s="2">
         <v>0.10194024162250852</v>
       </c>
-      <c r="C67" s="3"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
       <c r="CP67" s="1"/>
     </row>
     <row r="68" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A68" s="9">
+      <c r="A68" s="10">
         <v>36678</v>
       </c>
-      <c r="B68" s="10">
+      <c r="B68" s="2">
         <v>0.11520688931942046</v>
       </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
       <c r="CP68" s="1"/>
     </row>
     <row r="69" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A69" s="9">
+      <c r="A69" s="10">
         <v>36708</v>
       </c>
-      <c r="B69" s="10">
+      <c r="B69" s="2">
         <v>0.10847862629401375</v>
       </c>
-      <c r="C69" s="3"/>
-      <c r="E69" s="6"/>
+      <c r="C69" s="4"/>
+      <c r="E69" s="7"/>
       <c r="CP69" s="1"/>
     </row>
     <row r="70" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A70" s="9">
+      <c r="A70" s="10">
         <v>36739</v>
       </c>
-      <c r="B70" s="10">
+      <c r="B70" s="2">
         <v>0.11669317806908461</v>
       </c>
-      <c r="C70" s="3"/>
-      <c r="E70" s="6"/>
+      <c r="C70" s="4"/>
+      <c r="E70" s="7"/>
       <c r="CP70" s="1"/>
     </row>
     <row r="71" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A71" s="9">
+      <c r="A71" s="10">
         <v>36770</v>
       </c>
-      <c r="B71" s="10">
+      <c r="B71" s="2">
         <v>0.12461879502315275</v>
       </c>
-      <c r="C71" s="3"/>
-      <c r="E71" s="6"/>
+      <c r="C71" s="4"/>
+      <c r="E71" s="7"/>
       <c r="CP71" s="1"/>
     </row>
     <row r="72" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A72" s="9">
+      <c r="A72" s="10">
         <v>36800</v>
       </c>
-      <c r="B72" s="10">
+      <c r="B72" s="2">
         <v>0.12350351608453644</v>
       </c>
-      <c r="C72" s="3"/>
-      <c r="E72" s="6"/>
+      <c r="C72" s="4"/>
+      <c r="E72" s="7"/>
       <c r="CP72" s="1"/>
     </row>
     <row r="73" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A73" s="9">
+      <c r="A73" s="10">
         <v>36831</v>
       </c>
-      <c r="B73" s="10">
+      <c r="B73" s="2">
         <v>0.13624280260074831</v>
       </c>
-      <c r="C73" s="3"/>
-      <c r="E73" s="6"/>
+      <c r="C73" s="4"/>
+      <c r="E73" s="7"/>
       <c r="CP73" s="1"/>
     </row>
     <row r="74" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A74" s="9">
+      <c r="A74" s="10">
         <v>36861</v>
       </c>
-      <c r="B74" s="10">
+      <c r="B74" s="2">
         <v>0.10449451374749155</v>
       </c>
-      <c r="C74" s="3"/>
-      <c r="E74" s="6"/>
+      <c r="C74" s="4"/>
+      <c r="E74" s="7"/>
       <c r="CP74" s="1"/>
     </row>
     <row r="75" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A75" s="9">
+      <c r="A75" s="10">
         <v>36892</v>
       </c>
-      <c r="B75" s="10">
+      <c r="B75" s="2">
         <v>9.8078739800215115E-2</v>
       </c>
-      <c r="C75" s="3"/>
-      <c r="E75" s="6"/>
+      <c r="C75" s="4"/>
+      <c r="E75" s="7"/>
       <c r="CP75" s="1"/>
     </row>
     <row r="76" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A76" s="9">
+      <c r="A76" s="10">
         <v>36923</v>
       </c>
-      <c r="B76" s="10">
+      <c r="B76" s="2">
         <v>9.4986612102584869E-2</v>
       </c>
-      <c r="C76" s="3"/>
-      <c r="E76" s="6"/>
+      <c r="C76" s="4"/>
+      <c r="E76" s="7"/>
       <c r="CP76" s="1"/>
     </row>
     <row r="77" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A77" s="9">
+      <c r="A77" s="10">
         <v>36951</v>
       </c>
-      <c r="B77" s="10">
+      <c r="B77" s="2">
         <v>0.10943199261845223</v>
       </c>
-      <c r="C77" s="3"/>
-      <c r="E77" s="6"/>
+      <c r="C77" s="4"/>
+      <c r="E77" s="7"/>
       <c r="CP77" s="1"/>
     </row>
     <row r="78" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A78" s="9">
+      <c r="A78" s="10">
         <v>36982</v>
       </c>
-      <c r="B78" s="10">
+      <c r="B78" s="2">
         <v>0.10230821441197835</v>
       </c>
-      <c r="C78" s="3"/>
-      <c r="E78" s="6"/>
+      <c r="C78" s="4"/>
+      <c r="E78" s="7"/>
       <c r="CP78" s="1"/>
     </row>
     <row r="79" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A79" s="9">
+      <c r="A79" s="10">
         <v>37012</v>
       </c>
-      <c r="B79" s="10">
+      <c r="B79" s="2">
         <v>0.11448510925596571</v>
       </c>
-      <c r="C79" s="3"/>
-      <c r="E79" s="6"/>
+      <c r="C79" s="4"/>
+      <c r="E79" s="7"/>
       <c r="CP79" s="1"/>
     </row>
     <row r="80" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A80" s="9">
+      <c r="A80" s="10">
         <v>37043</v>
       </c>
-      <c r="B80" s="10">
+      <c r="B80" s="2">
         <v>0.12205193419326613</v>
       </c>
-      <c r="C80" s="3"/>
-      <c r="E80" s="6"/>
+      <c r="C80" s="4"/>
+      <c r="E80" s="7"/>
       <c r="CP80" s="1"/>
     </row>
     <row r="81" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A81" s="9">
+      <c r="A81" s="10">
         <v>37073</v>
       </c>
-      <c r="B81" s="10">
+      <c r="B81" s="2">
         <v>0.12472087316217893</v>
       </c>
-      <c r="C81" s="3"/>
-      <c r="E81" s="6"/>
+      <c r="C81" s="4"/>
+      <c r="E81" s="7"/>
       <c r="CP81" s="1"/>
       <c r="DC81" s="1"/>
       <c r="DE81" s="1"/>
@@ -4609,13 +4604,13 @@
       <c r="DK81" s="1"/>
     </row>
     <row r="82" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A82" s="9">
+      <c r="A82" s="10">
         <v>37104</v>
       </c>
-      <c r="B82" s="10">
+      <c r="B82" s="2">
         <v>0.13164962330151575</v>
       </c>
-      <c r="C82" s="3"/>
+      <c r="C82" s="4"/>
       <c r="CP82" s="1"/>
       <c r="DC82" s="1"/>
       <c r="DE82" s="1"/>
@@ -4627,13 +4622,13 @@
       <c r="DK82" s="1"/>
     </row>
     <row r="83" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A83" s="9">
+      <c r="A83" s="10">
         <v>37135</v>
       </c>
-      <c r="B83" s="10">
+      <c r="B83" s="2">
         <v>0.16920274455915726</v>
       </c>
-      <c r="C83" s="3"/>
+      <c r="C83" s="4"/>
       <c r="CP83" s="1"/>
       <c r="DC83" s="1"/>
       <c r="DE83" s="1"/>
@@ -4646,13 +4641,13 @@
       <c r="FQ83" s="1"/>
     </row>
     <row r="84" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A84" s="9">
+      <c r="A84" s="10">
         <v>37165</v>
       </c>
-      <c r="B84" s="10">
+      <c r="B84" s="2">
         <v>0.16487384010580458</v>
       </c>
-      <c r="C84" s="3"/>
+      <c r="C84" s="4"/>
       <c r="CP84" s="1"/>
       <c r="DC84" s="1"/>
       <c r="DE84" s="1"/>
@@ -4665,13 +4660,13 @@
       <c r="FQ84" s="1"/>
     </row>
     <row r="85" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A85" s="9">
+      <c r="A85" s="10">
         <v>37196</v>
       </c>
-      <c r="B85" s="10">
+      <c r="B85" s="2">
         <v>0.14485365882340293</v>
       </c>
-      <c r="C85" s="3"/>
+      <c r="C85" s="4"/>
       <c r="CP85" s="1"/>
       <c r="DC85" s="1"/>
       <c r="DE85" s="1"/>
@@ -4684,13 +4679,13 @@
       <c r="FQ85" s="1"/>
     </row>
     <row r="86" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A86" s="9">
+      <c r="A86" s="10">
         <v>37226</v>
       </c>
-      <c r="B86" s="10">
+      <c r="B86" s="2">
         <v>0.12057147500114479</v>
       </c>
-      <c r="C86" s="3"/>
+      <c r="C86" s="4"/>
       <c r="CP86" s="1"/>
       <c r="DC86" s="1"/>
       <c r="DE86" s="1"/>
@@ -4703,13 +4698,13 @@
       <c r="FQ86" s="1"/>
     </row>
     <row r="87" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A87" s="9">
+      <c r="A87" s="10">
         <v>37257</v>
       </c>
-      <c r="B87" s="10">
+      <c r="B87" s="2">
         <v>0.12028644057053653</v>
       </c>
-      <c r="C87" s="3"/>
+      <c r="C87" s="4"/>
       <c r="CP87" s="1"/>
       <c r="DC87" s="1"/>
       <c r="DE87" s="1"/>
@@ -4722,13 +4717,13 @@
       <c r="FQ87" s="1"/>
     </row>
     <row r="88" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A88" s="9">
+      <c r="A88" s="10">
         <v>37288</v>
       </c>
-      <c r="B88" s="10">
+      <c r="B88" s="2">
         <v>0.11585635189852062</v>
       </c>
-      <c r="C88" s="3"/>
+      <c r="C88" s="4"/>
       <c r="CP88" s="1"/>
       <c r="DC88" s="1"/>
       <c r="DE88" s="1"/>
@@ -4741,13 +4736,13 @@
       <c r="FQ88" s="1"/>
     </row>
     <row r="89" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A89" s="9">
+      <c r="A89" s="10">
         <v>37316</v>
       </c>
-      <c r="B89" s="10">
+      <c r="B89" s="2">
         <v>0.12274527752297042</v>
       </c>
-      <c r="C89" s="3"/>
+      <c r="C89" s="4"/>
       <c r="CP89" s="1"/>
       <c r="DC89" s="1"/>
       <c r="DE89" s="1"/>
@@ -4761,13 +4756,13 @@
       <c r="FQ89" s="1"/>
     </row>
     <row r="90" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A90" s="9">
+      <c r="A90" s="10">
         <v>37347</v>
       </c>
-      <c r="B90" s="10">
+      <c r="B90" s="2">
         <v>0.12101568147782529</v>
       </c>
-      <c r="C90" s="3"/>
+      <c r="C90" s="4"/>
       <c r="CP90" s="1"/>
       <c r="DC90" s="1"/>
       <c r="DE90" s="1"/>
@@ -4781,13 +4776,13 @@
       <c r="FQ90" s="1"/>
     </row>
     <row r="91" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A91" s="9">
+      <c r="A91" s="10">
         <v>37377</v>
       </c>
-      <c r="B91" s="10">
+      <c r="B91" s="2">
         <v>0.13834911739732181</v>
       </c>
-      <c r="C91" s="3"/>
+      <c r="C91" s="4"/>
       <c r="CP91" s="1"/>
       <c r="DC91" s="1"/>
       <c r="DE91" s="1"/>
@@ -4801,13 +4796,13 @@
       <c r="FQ91" s="1"/>
     </row>
     <row r="92" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A92" s="9">
+      <c r="A92" s="10">
         <v>37408</v>
       </c>
-      <c r="B92" s="10">
+      <c r="B92" s="2">
         <v>0.13898444661446926</v>
       </c>
-      <c r="C92" s="3"/>
+      <c r="C92" s="4"/>
       <c r="CP92" s="1"/>
       <c r="DC92" s="1"/>
       <c r="DE92" s="1"/>
@@ -4822,13 +4817,13 @@
       <c r="FQ92" s="1"/>
     </row>
     <row r="93" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A93" s="9">
+      <c r="A93" s="10">
         <v>37438</v>
       </c>
-      <c r="B93" s="10">
+      <c r="B93" s="2">
         <v>0.15154676452080135</v>
       </c>
-      <c r="C93" s="3"/>
+      <c r="C93" s="4"/>
       <c r="CP93" s="1"/>
       <c r="DC93" s="1"/>
       <c r="DE93" s="1"/>
@@ -4843,13 +4838,13 @@
       <c r="FQ93" s="1"/>
     </row>
     <row r="94" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A94" s="9">
+      <c r="A94" s="10">
         <v>37469</v>
       </c>
-      <c r="B94" s="10">
+      <c r="B94" s="2">
         <v>0.14914501917668246</v>
       </c>
-      <c r="C94" s="3"/>
+      <c r="C94" s="4"/>
       <c r="CP94" s="1"/>
       <c r="DC94" s="1"/>
       <c r="DE94" s="1"/>
@@ -4864,13 +4859,13 @@
       <c r="FQ94" s="1"/>
     </row>
     <row r="95" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A95" s="9">
+      <c r="A95" s="10">
         <v>37500</v>
       </c>
-      <c r="B95" s="10">
+      <c r="B95" s="2">
         <v>0.17729158577688089</v>
       </c>
-      <c r="C95" s="3"/>
+      <c r="C95" s="4"/>
       <c r="CP95" s="1"/>
       <c r="DC95" s="1"/>
       <c r="DE95" s="1"/>
@@ -4886,13 +4881,13 @@
       <c r="GX95" s="1"/>
     </row>
     <row r="96" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A96" s="9">
+      <c r="A96" s="10">
         <v>37530</v>
       </c>
-      <c r="B96" s="10">
+      <c r="B96" s="2">
         <v>0.16158417270187989</v>
       </c>
-      <c r="C96" s="3"/>
+      <c r="C96" s="4"/>
       <c r="CP96" s="1"/>
       <c r="DC96" s="1"/>
       <c r="DE96" s="1"/>
@@ -4908,13 +4903,13 @@
       <c r="GX96" s="1"/>
     </row>
     <row r="97" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A97" s="9">
+      <c r="A97" s="10">
         <v>37561</v>
       </c>
-      <c r="B97" s="10">
+      <c r="B97" s="2">
         <v>0.15765516285709646</v>
       </c>
-      <c r="C97" s="3"/>
+      <c r="C97" s="4"/>
       <c r="CG97" s="1"/>
       <c r="CH97" s="1"/>
       <c r="CI97" s="1"/>
@@ -4940,13 +4935,13 @@
       <c r="QQ97" s="1"/>
     </row>
     <row r="98" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A98" s="9">
+      <c r="A98" s="10">
         <v>37591</v>
       </c>
-      <c r="B98" s="10">
+      <c r="B98" s="2">
         <v>0.16155516390609645</v>
       </c>
-      <c r="C98" s="3"/>
+      <c r="C98" s="4"/>
       <c r="CG98" s="1"/>
       <c r="CH98" s="1"/>
       <c r="CI98" s="1"/>
@@ -4972,13 +4967,13 @@
       <c r="QQ98" s="1"/>
     </row>
     <row r="99" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A99" s="9">
+      <c r="A99" s="10">
         <v>37622</v>
       </c>
-      <c r="B99" s="10">
+      <c r="B99" s="2">
         <v>0.16721818984210535</v>
       </c>
-      <c r="C99" s="3"/>
+      <c r="C99" s="4"/>
       <c r="CG99" s="1"/>
       <c r="CH99" s="1"/>
       <c r="CI99" s="1"/>
@@ -5013,13 +5008,13 @@
       <c r="QQ99" s="1"/>
     </row>
     <row r="100" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A100" s="9">
+      <c r="A100" s="10">
         <v>37653</v>
       </c>
-      <c r="B100" s="10">
+      <c r="B100" s="2">
         <v>0.16873740603929704</v>
       </c>
-      <c r="C100" s="3"/>
+      <c r="C100" s="4"/>
       <c r="CG100" s="1"/>
       <c r="CH100" s="1"/>
       <c r="CI100" s="1"/>
@@ -5064,13 +5059,13 @@
       <c r="QQ100" s="1"/>
     </row>
     <row r="101" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A101" s="9">
+      <c r="A101" s="10">
         <v>37681</v>
       </c>
-      <c r="B101" s="10">
+      <c r="B101" s="2">
         <v>0.17960657789052537</v>
       </c>
-      <c r="C101" s="3"/>
+      <c r="C101" s="4"/>
       <c r="CG101" s="1"/>
       <c r="CH101" s="1"/>
       <c r="CI101" s="1"/>
@@ -5116,13 +5111,13 @@
       <c r="QQ101" s="1"/>
     </row>
     <row r="102" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A102" s="9">
+      <c r="A102" s="10">
         <v>37712</v>
       </c>
-      <c r="B102" s="10">
+      <c r="B102" s="2">
         <v>0.17370103158576525</v>
       </c>
-      <c r="C102" s="3"/>
+      <c r="C102" s="4"/>
       <c r="CG102" s="1"/>
       <c r="CH102" s="1"/>
       <c r="CI102" s="1"/>
@@ -5168,13 +5163,13 @@
       <c r="QQ102" s="1"/>
     </row>
     <row r="103" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A103" s="9">
+      <c r="A103" s="10">
         <v>37742</v>
       </c>
-      <c r="B103" s="10">
+      <c r="B103" s="2">
         <v>0.17745962817797939</v>
       </c>
-      <c r="C103" s="3"/>
+      <c r="C103" s="4"/>
       <c r="CG103" s="1"/>
       <c r="CH103" s="1"/>
       <c r="CI103" s="1"/>
@@ -5221,13 +5216,13 @@
       <c r="QQ103" s="1"/>
     </row>
     <row r="104" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A104" s="9">
+      <c r="A104" s="10">
         <v>37773</v>
       </c>
-      <c r="B104" s="10">
+      <c r="B104" s="2">
         <v>0.17353423821042152</v>
       </c>
-      <c r="C104" s="3"/>
+      <c r="C104" s="4"/>
       <c r="CG104" s="1"/>
       <c r="CH104" s="1"/>
       <c r="CI104" s="1"/>
@@ -5275,13 +5270,13 @@
       <c r="QQ104" s="1"/>
     </row>
     <row r="105" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A105" s="9">
+      <c r="A105" s="10">
         <v>37803</v>
       </c>
-      <c r="B105" s="10">
+      <c r="B105" s="2">
         <v>0.16443232371464103</v>
       </c>
-      <c r="C105" s="3"/>
+      <c r="C105" s="4"/>
       <c r="CG105" s="1"/>
       <c r="CH105" s="1"/>
       <c r="CI105" s="1"/>
@@ -5329,13 +5324,13 @@
       <c r="QQ105" s="1"/>
     </row>
     <row r="106" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A106" s="9">
+      <c r="A106" s="10">
         <v>37834</v>
       </c>
-      <c r="B106" s="10">
+      <c r="B106" s="2">
         <v>0.16083606998584948</v>
       </c>
-      <c r="C106" s="3"/>
+      <c r="C106" s="4"/>
       <c r="CG106" s="1"/>
       <c r="CH106" s="1"/>
       <c r="CI106" s="1"/>
@@ -5384,13 +5379,13 @@
       <c r="QQ106" s="1"/>
     </row>
     <row r="107" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A107" s="9">
+      <c r="A107" s="10">
         <v>37865</v>
       </c>
-      <c r="B107" s="10">
+      <c r="B107" s="2">
         <v>0.19762447566023092</v>
       </c>
-      <c r="C107" s="3"/>
+      <c r="C107" s="4"/>
       <c r="CG107" s="1"/>
       <c r="CH107" s="1"/>
       <c r="CI107" s="1"/>
@@ -5443,13 +5438,13 @@
       <c r="RX107" s="1"/>
     </row>
     <row r="108" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A108" s="9">
+      <c r="A108" s="10">
         <v>37895</v>
       </c>
-      <c r="B108" s="10">
+      <c r="B108" s="2">
         <v>0.18706253495325156</v>
       </c>
-      <c r="C108" s="3"/>
+      <c r="C108" s="4"/>
       <c r="CG108" s="1"/>
       <c r="CH108" s="1"/>
       <c r="CI108" s="1"/>
@@ -5502,13 +5497,13 @@
       <c r="RX108" s="1"/>
     </row>
     <row r="109" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A109" s="9">
+      <c r="A109" s="10">
         <v>37926</v>
       </c>
-      <c r="B109" s="10">
+      <c r="B109" s="2">
         <v>0.18579912866791054</v>
       </c>
-      <c r="C109" s="3"/>
+      <c r="C109" s="4"/>
       <c r="CG109" s="1"/>
       <c r="CH109" s="1"/>
       <c r="CI109" s="1"/>
@@ -5563,13 +5558,13 @@
       <c r="RX109" s="1"/>
     </row>
     <row r="110" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A110" s="9">
+      <c r="A110" s="10">
         <v>37956</v>
       </c>
-      <c r="B110" s="10">
+      <c r="B110" s="2">
         <v>0.15228963728645464</v>
       </c>
-      <c r="C110" s="3"/>
+      <c r="C110" s="4"/>
       <c r="CG110" s="1"/>
       <c r="CH110" s="1"/>
       <c r="CI110" s="1"/>
@@ -5626,13 +5621,13 @@
       <c r="RX110" s="1"/>
     </row>
     <row r="111" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A111" s="9">
+      <c r="A111" s="10">
         <v>37987</v>
       </c>
-      <c r="B111" s="10">
+      <c r="B111" s="2">
         <v>0.14979423018271038</v>
       </c>
-      <c r="C111" s="3"/>
+      <c r="C111" s="4"/>
       <c r="CG111" s="1"/>
       <c r="CH111" s="1"/>
       <c r="CI111" s="1"/>
@@ -5689,13 +5684,13 @@
       <c r="RX111" s="1"/>
     </row>
     <row r="112" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A112" s="9">
+      <c r="A112" s="10">
         <v>38018</v>
       </c>
-      <c r="B112" s="10">
+      <c r="B112" s="2">
         <v>0.15531103806729979</v>
       </c>
-      <c r="C112" s="3"/>
+      <c r="C112" s="4"/>
       <c r="CG112" s="1"/>
       <c r="CH112" s="1"/>
       <c r="CI112" s="1"/>
@@ -5752,13 +5747,13 @@
       <c r="RX112" s="1"/>
     </row>
     <row r="113" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A113" s="9">
+      <c r="A113" s="10">
         <v>38047</v>
       </c>
-      <c r="B113" s="10">
+      <c r="B113" s="2">
         <v>0.15189953279944524</v>
       </c>
-      <c r="C113" s="3"/>
+      <c r="C113" s="4"/>
       <c r="CG113" s="1"/>
       <c r="CH113" s="1"/>
       <c r="CI113" s="1"/>
@@ -5817,13 +5812,13 @@
       <c r="RX113" s="1"/>
     </row>
     <row r="114" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A114" s="9">
+      <c r="A114" s="10">
         <v>38078</v>
       </c>
-      <c r="B114" s="10">
+      <c r="B114" s="2">
         <v>0.14238155308795486</v>
       </c>
-      <c r="C114" s="3"/>
+      <c r="C114" s="4"/>
       <c r="CG114" s="1"/>
       <c r="CH114" s="1"/>
       <c r="CI114" s="1"/>
@@ -5883,13 +5878,13 @@
       <c r="RX114" s="1"/>
     </row>
     <row r="115" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A115" s="9">
+      <c r="A115" s="10">
         <v>38108</v>
       </c>
-      <c r="B115" s="10">
+      <c r="B115" s="2">
         <v>0.13993688563245948</v>
       </c>
-      <c r="C115" s="3"/>
+      <c r="C115" s="4"/>
       <c r="CG115" s="1"/>
       <c r="CH115" s="1"/>
       <c r="CI115" s="1"/>
@@ -5960,13 +5955,13 @@
       <c r="RX115" s="1"/>
     </row>
     <row r="116" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A116" s="9">
+      <c r="A116" s="10">
         <v>38139</v>
       </c>
-      <c r="B116" s="10">
+      <c r="B116" s="2">
         <v>0.13205156859518685</v>
       </c>
-      <c r="C116" s="3"/>
+      <c r="C116" s="4"/>
       <c r="CG116" s="1"/>
       <c r="CH116" s="1"/>
       <c r="CI116" s="1"/>
@@ -6048,13 +6043,13 @@
       <c r="RX116" s="1"/>
     </row>
     <row r="117" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A117" s="9">
+      <c r="A117" s="10">
         <v>38169</v>
       </c>
-      <c r="B117" s="10">
+      <c r="B117" s="2">
         <v>0.1321356483644931</v>
       </c>
-      <c r="C117" s="3"/>
+      <c r="C117" s="4"/>
       <c r="CG117" s="1"/>
       <c r="CH117" s="1"/>
       <c r="CI117" s="1"/>
@@ -6138,13 +6133,13 @@
       <c r="RX117" s="1"/>
     </row>
     <row r="118" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A118" s="9">
+      <c r="A118" s="10">
         <v>38200</v>
       </c>
-      <c r="B118" s="10">
+      <c r="B118" s="2">
         <v>0.13235416398227642</v>
       </c>
-      <c r="C118" s="3"/>
+      <c r="C118" s="4"/>
       <c r="CG118" s="1"/>
       <c r="CH118" s="1"/>
       <c r="CI118" s="1"/>
@@ -6228,13 +6223,13 @@
       <c r="RX118" s="1"/>
     </row>
     <row r="119" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A119" s="9">
+      <c r="A119" s="10">
         <v>38231</v>
       </c>
-      <c r="B119" s="10">
+      <c r="B119" s="2">
         <v>0.14198841003714582</v>
       </c>
-      <c r="C119" s="3"/>
+      <c r="C119" s="4"/>
       <c r="CG119" s="1"/>
       <c r="CH119" s="1"/>
       <c r="CI119" s="1"/>
@@ -6318,13 +6313,13 @@
       <c r="RX119" s="1"/>
     </row>
     <row r="120" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A120" s="9">
+      <c r="A120" s="10">
         <v>38261</v>
       </c>
-      <c r="B120" s="10">
+      <c r="B120" s="2">
         <v>0.14054340020098038</v>
       </c>
-      <c r="C120" s="3"/>
+      <c r="C120" s="4"/>
       <c r="CG120" s="1"/>
       <c r="CH120" s="1"/>
       <c r="CI120" s="1"/>
@@ -6408,13 +6403,13 @@
       <c r="RX120" s="1"/>
     </row>
     <row r="121" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A121" s="9">
+      <c r="A121" s="10">
         <v>38292</v>
       </c>
-      <c r="B121" s="10">
+      <c r="B121" s="2">
         <v>0.13208337856049901</v>
       </c>
-      <c r="C121" s="3"/>
+      <c r="C121" s="4"/>
       <c r="CG121" s="1"/>
       <c r="CH121" s="1"/>
       <c r="CI121" s="1"/>
@@ -6499,13 +6494,13 @@
       <c r="RX121" s="1"/>
     </row>
     <row r="122" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A122" s="9">
+      <c r="A122" s="10">
         <v>38322</v>
       </c>
-      <c r="B122" s="10">
+      <c r="B122" s="2">
         <v>0.13722393226951568</v>
       </c>
-      <c r="C122" s="3"/>
+      <c r="C122" s="4"/>
       <c r="CG122" s="1"/>
       <c r="CH122" s="1"/>
       <c r="CI122" s="1"/>
@@ -6590,13 +6585,13 @@
       <c r="RX122" s="1"/>
     </row>
     <row r="123" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A123" s="9">
+      <c r="A123" s="10">
         <v>38353</v>
       </c>
-      <c r="B123" s="10">
+      <c r="B123" s="2">
         <v>0.13998031470880479</v>
       </c>
-      <c r="C123" s="3"/>
+      <c r="C123" s="4"/>
       <c r="CG123" s="1"/>
       <c r="CH123" s="1"/>
       <c r="CI123" s="1"/>
@@ -6681,13 +6676,13 @@
       <c r="RX123" s="1"/>
     </row>
     <row r="124" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A124" s="9">
+      <c r="A124" s="10">
         <v>38384</v>
       </c>
-      <c r="B124" s="10">
+      <c r="B124" s="2">
         <v>0.14381330437458539</v>
       </c>
-      <c r="C124" s="3"/>
+      <c r="C124" s="4"/>
       <c r="CG124" s="1"/>
       <c r="CH124" s="1"/>
       <c r="CI124" s="1"/>
@@ -6774,13 +6769,13 @@
       <c r="RX124" s="1"/>
     </row>
     <row r="125" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A125" s="9">
+      <c r="A125" s="10">
         <v>38412</v>
       </c>
-      <c r="B125" s="10">
+      <c r="B125" s="2">
         <v>0.13883886128708484</v>
       </c>
-      <c r="C125" s="3"/>
+      <c r="C125" s="4"/>
       <c r="CG125" s="1"/>
       <c r="CH125" s="1"/>
       <c r="CI125" s="1"/>
@@ -6867,13 +6862,13 @@
       <c r="RX125" s="1"/>
     </row>
     <row r="126" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A126" s="9">
+      <c r="A126" s="10">
         <v>38443</v>
       </c>
-      <c r="B126" s="10">
+      <c r="B126" s="2">
         <v>0.14223096597630486</v>
       </c>
-      <c r="C126" s="3"/>
+      <c r="C126" s="4"/>
       <c r="CG126" s="1"/>
       <c r="CH126" s="1"/>
       <c r="CI126" s="1"/>
@@ -6960,13 +6955,13 @@
       <c r="RX126" s="1"/>
     </row>
     <row r="127" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A127" s="9">
+      <c r="A127" s="10">
         <v>38473</v>
       </c>
-      <c r="B127" s="10">
+      <c r="B127" s="2">
         <v>0.15130856651883109</v>
       </c>
-      <c r="C127" s="3"/>
+      <c r="C127" s="4"/>
       <c r="CG127" s="1"/>
       <c r="CH127" s="1"/>
       <c r="CI127" s="1"/>
@@ -7054,13 +7049,13 @@
       <c r="RX127" s="1"/>
     </row>
     <row r="128" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A128" s="9">
+      <c r="A128" s="10">
         <v>38504</v>
       </c>
-      <c r="B128" s="10">
+      <c r="B128" s="2">
         <v>0.17613645867084826</v>
       </c>
-      <c r="C128" s="3"/>
+      <c r="C128" s="4"/>
       <c r="CG128" s="1"/>
       <c r="CH128" s="1"/>
       <c r="CI128" s="1"/>
@@ -7149,13 +7144,13 @@
       <c r="RX128" s="1"/>
     </row>
     <row r="129" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A129" s="9">
+      <c r="A129" s="10">
         <v>38534</v>
       </c>
-      <c r="B129" s="10">
+      <c r="B129" s="2">
         <v>0.17526795031368764</v>
       </c>
-      <c r="C129" s="3"/>
+      <c r="C129" s="4"/>
       <c r="CG129" s="1"/>
       <c r="CH129" s="1"/>
       <c r="CI129" s="1"/>
@@ -7244,13 +7239,13 @@
       <c r="RX129" s="1"/>
     </row>
     <row r="130" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A130" s="9">
+      <c r="A130" s="10">
         <v>38565</v>
       </c>
-      <c r="B130" s="10">
+      <c r="B130" s="2">
         <v>0.17356897074457586</v>
       </c>
-      <c r="C130" s="3"/>
+      <c r="C130" s="4"/>
       <c r="CG130" s="1"/>
       <c r="CH130" s="1"/>
       <c r="CI130" s="1"/>
@@ -7339,13 +7334,13 @@
       <c r="RX130" s="1"/>
     </row>
     <row r="131" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A131" s="9">
+      <c r="A131" s="10">
         <v>38596</v>
       </c>
-      <c r="B131" s="10">
+      <c r="B131" s="2">
         <v>0.13496571144618535</v>
       </c>
-      <c r="C131" s="3"/>
+      <c r="C131" s="4"/>
       <c r="CG131" s="1"/>
       <c r="CH131" s="1"/>
       <c r="CI131" s="1"/>
@@ -7434,13 +7429,13 @@
       <c r="RX131" s="1"/>
     </row>
     <row r="132" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A132" s="9">
+      <c r="A132" s="10">
         <v>38626</v>
       </c>
-      <c r="B132" s="10">
+      <c r="B132" s="2">
         <v>0.13393339678506488</v>
       </c>
-      <c r="C132" s="3"/>
+      <c r="C132" s="4"/>
       <c r="CG132" s="1"/>
       <c r="CH132" s="1"/>
       <c r="CI132" s="1"/>
@@ -7529,13 +7524,13 @@
       <c r="RX132" s="1"/>
     </row>
     <row r="133" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A133" s="9">
+      <c r="A133" s="10">
         <v>38657</v>
       </c>
-      <c r="B133" s="10">
+      <c r="B133" s="2">
         <v>0.13831045015123039</v>
       </c>
-      <c r="C133" s="3"/>
+      <c r="C133" s="4"/>
       <c r="CG133" s="1"/>
       <c r="CH133" s="1"/>
       <c r="CI133" s="1"/>
@@ -7624,13 +7619,13 @@
       <c r="RX133" s="1"/>
     </row>
     <row r="134" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A134" s="9">
+      <c r="A134" s="10">
         <v>38687</v>
       </c>
-      <c r="B134" s="10">
+      <c r="B134" s="2">
         <v>0.12603299570326587</v>
       </c>
-      <c r="C134" s="3"/>
+      <c r="C134" s="4"/>
       <c r="CG134" s="1"/>
       <c r="CH134" s="1"/>
       <c r="CI134" s="1"/>
@@ -7719,13 +7714,13 @@
       <c r="RX134" s="1"/>
     </row>
     <row r="135" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A135" s="9">
+      <c r="A135" s="10">
         <v>38718</v>
       </c>
-      <c r="B135" s="10">
+      <c r="B135" s="2">
         <v>0.12251013261185581</v>
       </c>
-      <c r="C135" s="3"/>
+      <c r="C135" s="4"/>
       <c r="CG135" s="1"/>
       <c r="CH135" s="1"/>
       <c r="CI135" s="1"/>
@@ -7814,13 +7809,13 @@
       <c r="RX135" s="1"/>
     </row>
     <row r="136" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A136" s="9">
+      <c r="A136" s="10">
         <v>38749</v>
       </c>
-      <c r="B136" s="10">
+      <c r="B136" s="2">
         <v>0.11689155988668461</v>
       </c>
-      <c r="C136" s="3"/>
+      <c r="C136" s="4"/>
       <c r="CG136" s="1"/>
       <c r="CH136" s="1"/>
       <c r="CI136" s="1"/>
@@ -7909,13 +7904,13 @@
       <c r="RX136" s="1"/>
     </row>
     <row r="137" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A137" s="9">
+      <c r="A137" s="10">
         <v>38777</v>
       </c>
-      <c r="B137" s="10">
+      <c r="B137" s="2">
         <v>0.11182793411322625</v>
       </c>
-      <c r="C137" s="3"/>
+      <c r="C137" s="4"/>
       <c r="CG137" s="1"/>
       <c r="CH137" s="1"/>
       <c r="CI137" s="1"/>
@@ -8004,13 +7999,13 @@
       <c r="RX137" s="1"/>
     </row>
     <row r="138" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A138" s="9">
+      <c r="A138" s="10">
         <v>38808</v>
       </c>
-      <c r="B138" s="10">
+      <c r="B138" s="2">
         <v>0.1062966817216436</v>
       </c>
-      <c r="C138" s="3"/>
+      <c r="C138" s="4"/>
       <c r="CG138" s="1"/>
       <c r="CH138" s="1"/>
       <c r="CI138" s="1"/>
@@ -8099,13 +8094,13 @@
       <c r="RX138" s="1"/>
     </row>
     <row r="139" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A139" s="9">
+      <c r="A139" s="10">
         <v>38838</v>
       </c>
-      <c r="B139" s="10">
+      <c r="B139" s="2">
         <v>0.10685897585166657</v>
       </c>
-      <c r="C139" s="3"/>
+      <c r="C139" s="4"/>
       <c r="CG139" s="1"/>
       <c r="CH139" s="1"/>
       <c r="CI139" s="1"/>
@@ -8194,13 +8189,13 @@
       <c r="RX139" s="1"/>
     </row>
     <row r="140" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A140" s="9">
+      <c r="A140" s="10">
         <v>38869</v>
       </c>
-      <c r="B140" s="10">
+      <c r="B140" s="2">
         <v>0.10321059015113987</v>
       </c>
-      <c r="C140" s="3"/>
+      <c r="C140" s="4"/>
       <c r="CG140" s="1"/>
       <c r="CH140" s="1"/>
       <c r="CI140" s="1"/>
@@ -8289,13 +8284,13 @@
       <c r="RX140" s="1"/>
     </row>
     <row r="141" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A141" s="9">
+      <c r="A141" s="10">
         <v>38899</v>
       </c>
-      <c r="B141" s="10">
+      <c r="B141" s="2">
         <v>0.1042737605249823</v>
       </c>
-      <c r="C141" s="3"/>
+      <c r="C141" s="4"/>
       <c r="CG141" s="1"/>
       <c r="CH141" s="1"/>
       <c r="CI141" s="1"/>
@@ -8384,13 +8379,13 @@
       <c r="RX141" s="1"/>
     </row>
     <row r="142" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A142" s="9">
+      <c r="A142" s="10">
         <v>38930</v>
       </c>
-      <c r="B142" s="10">
+      <c r="B142" s="2">
         <v>9.9191823334113305E-2</v>
       </c>
-      <c r="C142" s="3"/>
+      <c r="C142" s="4"/>
       <c r="CG142" s="1"/>
       <c r="CH142" s="1"/>
       <c r="CI142" s="1"/>
@@ -8479,13 +8474,13 @@
       <c r="RX142" s="1"/>
     </row>
     <row r="143" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A143" s="9">
+      <c r="A143" s="10">
         <v>38961</v>
       </c>
-      <c r="B143" s="10">
+      <c r="B143" s="2">
         <v>9.7977952179741312E-2</v>
       </c>
-      <c r="C143" s="3"/>
+      <c r="C143" s="4"/>
       <c r="CG143" s="1"/>
       <c r="CH143" s="1"/>
       <c r="CI143" s="1"/>
@@ -8574,13 +8569,13 @@
       <c r="RX143" s="1"/>
     </row>
     <row r="144" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A144" s="9">
+      <c r="A144" s="10">
         <v>38991</v>
       </c>
-      <c r="B144" s="10">
+      <c r="B144" s="2">
         <v>9.5864636506678785E-2</v>
       </c>
-      <c r="C144" s="3"/>
+      <c r="C144" s="4"/>
       <c r="CG144" s="1"/>
       <c r="CH144" s="1"/>
       <c r="CI144" s="1"/>
@@ -8669,13 +8664,13 @@
       <c r="RX144" s="1"/>
     </row>
     <row r="145" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A145" s="9">
+      <c r="A145" s="10">
         <v>39022</v>
       </c>
-      <c r="B145" s="10">
+      <c r="B145" s="2">
         <v>8.8506947539146508E-2</v>
       </c>
-      <c r="C145" s="3"/>
+      <c r="C145" s="4"/>
       <c r="CG145" s="1"/>
       <c r="CH145" s="1"/>
       <c r="CI145" s="1"/>
@@ -8764,13 +8759,13 @@
       <c r="RX145" s="1"/>
     </row>
     <row r="146" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A146" s="9">
+      <c r="A146" s="10">
         <v>39052</v>
       </c>
-      <c r="B146" s="10">
+      <c r="B146" s="2">
         <v>8.2991557693164242E-2</v>
       </c>
-      <c r="C146" s="3"/>
+      <c r="C146" s="4"/>
       <c r="CG146" s="1"/>
       <c r="CH146" s="1"/>
       <c r="CI146" s="1"/>
@@ -8859,13 +8854,13 @@
       <c r="RX146" s="1"/>
     </row>
     <row r="147" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A147" s="9">
+      <c r="A147" s="10">
         <v>39083</v>
       </c>
-      <c r="B147" s="10">
+      <c r="B147" s="2">
         <v>7.7215118349207135E-2</v>
       </c>
-      <c r="C147" s="3"/>
+      <c r="C147" s="4"/>
       <c r="CG147" s="1"/>
       <c r="CH147" s="1"/>
       <c r="CI147" s="1"/>
@@ -8954,13 +8949,13 @@
       <c r="RX147" s="1"/>
     </row>
     <row r="148" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A148" s="9">
+      <c r="A148" s="10">
         <v>39114</v>
       </c>
-      <c r="B148" s="10">
+      <c r="B148" s="2">
         <v>7.9397037241236174E-2</v>
       </c>
-      <c r="C148" s="3"/>
+      <c r="C148" s="4"/>
       <c r="CG148" s="1"/>
       <c r="CH148" s="1"/>
       <c r="CI148" s="1"/>
@@ -9049,13 +9044,13 @@
       <c r="RX148" s="1"/>
     </row>
     <row r="149" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A149" s="9">
+      <c r="A149" s="10">
         <v>39142</v>
       </c>
-      <c r="B149" s="10">
+      <c r="B149" s="2">
         <v>9.5585255682960557E-2</v>
       </c>
-      <c r="C149" s="3"/>
+      <c r="C149" s="4"/>
       <c r="CG149" s="1"/>
       <c r="CH149" s="1"/>
       <c r="CI149" s="1"/>
@@ -9144,13 +9139,13 @@
       <c r="RX149" s="1"/>
     </row>
     <row r="150" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A150" s="9">
+      <c r="A150" s="10">
         <v>39173</v>
       </c>
-      <c r="B150" s="10">
+      <c r="B150" s="2">
         <v>8.580606474485139E-2</v>
       </c>
-      <c r="C150" s="3"/>
+      <c r="C150" s="4"/>
       <c r="CG150" s="1"/>
       <c r="CH150" s="1"/>
       <c r="CI150" s="1"/>
@@ -9239,13 +9234,13 @@
       <c r="RX150" s="1"/>
     </row>
     <row r="151" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A151" s="9">
+      <c r="A151" s="10">
         <v>39203</v>
       </c>
-      <c r="B151" s="10">
+      <c r="B151" s="2">
         <v>8.1207326443699546E-2</v>
       </c>
-      <c r="C151" s="3"/>
+      <c r="C151" s="4"/>
       <c r="CG151" s="1"/>
       <c r="CH151" s="1"/>
       <c r="CI151" s="1"/>
@@ -9334,13 +9329,13 @@
       <c r="RX151" s="1"/>
     </row>
     <row r="152" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A152" s="9">
+      <c r="A152" s="10">
         <v>39234</v>
       </c>
-      <c r="B152" s="10">
+      <c r="B152" s="2">
         <v>8.2961482672590375E-2</v>
       </c>
-      <c r="C152" s="3"/>
+      <c r="C152" s="4"/>
       <c r="CG152" s="1"/>
       <c r="CH152" s="1"/>
       <c r="CI152" s="1"/>
@@ -9429,13 +9424,13 @@
       <c r="RX152" s="1"/>
     </row>
     <row r="153" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A153" s="9">
+      <c r="A153" s="10">
         <v>39264</v>
       </c>
-      <c r="B153" s="10">
+      <c r="B153" s="2">
         <v>8.5322650599013228E-2</v>
       </c>
-      <c r="C153" s="3"/>
+      <c r="C153" s="4"/>
       <c r="CG153" s="1"/>
       <c r="CH153" s="1"/>
       <c r="CI153" s="1"/>
@@ -9524,13 +9519,13 @@
       <c r="RX153" s="1"/>
     </row>
     <row r="154" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A154" s="9">
+      <c r="A154" s="10">
         <v>39295</v>
       </c>
-      <c r="B154" s="10">
+      <c r="B154" s="2">
         <v>8.5340133244383914E-2</v>
       </c>
-      <c r="C154" s="3"/>
+      <c r="C154" s="4"/>
       <c r="CG154" s="1"/>
       <c r="CH154" s="1"/>
       <c r="CI154" s="1"/>
@@ -9619,13 +9614,13 @@
       <c r="RX154" s="1"/>
     </row>
     <row r="155" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A155" s="9">
+      <c r="A155" s="10">
         <v>39326</v>
       </c>
-      <c r="B155" s="10">
+      <c r="B155" s="2">
         <v>8.8928884093107091E-2</v>
       </c>
-      <c r="C155" s="3"/>
+      <c r="C155" s="4"/>
       <c r="CG155" s="1"/>
       <c r="CH155" s="1"/>
       <c r="CI155" s="1"/>
@@ -9714,13 +9709,13 @@
       <c r="RX155" s="1"/>
     </row>
     <row r="156" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A156" s="9">
+      <c r="A156" s="10">
         <v>39356</v>
       </c>
-      <c r="B156" s="10">
+      <c r="B156" s="2">
         <v>8.7744511396229033E-2</v>
       </c>
-      <c r="C156" s="3"/>
+      <c r="C156" s="4"/>
       <c r="CG156" s="1"/>
       <c r="CH156" s="1"/>
       <c r="CI156" s="1"/>
@@ -9809,13 +9804,13 @@
       <c r="RX156" s="1"/>
     </row>
     <row r="157" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A157" s="9">
+      <c r="A157" s="10">
         <v>39387</v>
       </c>
-      <c r="B157" s="10">
+      <c r="B157" s="2">
         <v>9.3737830955098772E-2</v>
       </c>
-      <c r="C157" s="3"/>
+      <c r="C157" s="4"/>
       <c r="CG157" s="1"/>
       <c r="CH157" s="1"/>
       <c r="CI157" s="1"/>
@@ -9904,13 +9899,13 @@
       <c r="RX157" s="1"/>
     </row>
     <row r="158" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A158" s="9">
+      <c r="A158" s="10">
         <v>39417</v>
       </c>
-      <c r="B158" s="10">
+      <c r="B158" s="2">
         <v>8.671239907127623E-2</v>
       </c>
-      <c r="C158" s="3"/>
+      <c r="C158" s="4"/>
       <c r="CG158" s="1"/>
       <c r="CH158" s="1"/>
       <c r="CI158" s="1"/>
@@ -9999,13 +9994,13 @@
       <c r="RX158" s="1"/>
     </row>
     <row r="159" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A159" s="9">
+      <c r="A159" s="10">
         <v>39448</v>
       </c>
-      <c r="B159" s="10">
+      <c r="B159" s="2">
         <v>9.417152259727482E-2</v>
       </c>
-      <c r="C159" s="3"/>
+      <c r="C159" s="4"/>
       <c r="CG159" s="1"/>
       <c r="CH159" s="1"/>
       <c r="CI159" s="1"/>
@@ -10094,13 +10089,13 @@
       <c r="RX159" s="1"/>
     </row>
     <row r="160" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A160" s="9">
+      <c r="A160" s="10">
         <v>39479</v>
       </c>
-      <c r="B160" s="10">
+      <c r="B160" s="2">
         <v>9.3871674916660583E-2</v>
       </c>
-      <c r="C160" s="3"/>
+      <c r="C160" s="4"/>
       <c r="CG160" s="1"/>
       <c r="CH160" s="1"/>
       <c r="CI160" s="1"/>
@@ -10189,13 +10184,13 @@
       <c r="RX160" s="1"/>
     </row>
     <row r="161" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A161" s="9">
+      <c r="A161" s="10">
         <v>39508</v>
       </c>
-      <c r="B161" s="10">
+      <c r="B161" s="2">
         <v>9.5682797110982654E-2</v>
       </c>
-      <c r="C161" s="3"/>
+      <c r="C161" s="4"/>
       <c r="CG161" s="1"/>
       <c r="CH161" s="1"/>
       <c r="CI161" s="1"/>
@@ -10284,13 +10279,13 @@
       <c r="RX161" s="1"/>
     </row>
     <row r="162" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A162" s="9">
+      <c r="A162" s="10">
         <v>39539</v>
       </c>
-      <c r="B162" s="10">
+      <c r="B162" s="2">
         <v>8.9221726200208809E-2</v>
       </c>
-      <c r="C162" s="3"/>
+      <c r="C162" s="4"/>
       <c r="CG162" s="1"/>
       <c r="CH162" s="1"/>
       <c r="CI162" s="1"/>
@@ -10379,13 +10374,13 @@
       <c r="RX162" s="1"/>
     </row>
     <row r="163" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A163" s="9">
+      <c r="A163" s="10">
         <v>39569</v>
       </c>
-      <c r="B163" s="10">
+      <c r="B163" s="2">
         <v>8.5276870884392231E-2</v>
       </c>
-      <c r="C163" s="3"/>
+      <c r="C163" s="4"/>
       <c r="CG163" s="1"/>
       <c r="CH163" s="1"/>
       <c r="CI163" s="1"/>
@@ -10474,13 +10469,13 @@
       <c r="RX163" s="1"/>
     </row>
     <row r="164" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A164" s="9">
+      <c r="A164" s="10">
         <v>39600</v>
       </c>
-      <c r="B164" s="10">
+      <c r="B164" s="2">
         <v>9.0760799631218497E-2</v>
       </c>
-      <c r="C164" s="3"/>
+      <c r="C164" s="4"/>
       <c r="CG164" s="1"/>
       <c r="CH164" s="1"/>
       <c r="CI164" s="1"/>
@@ -10569,13 +10564,13 @@
       <c r="RX164" s="1"/>
     </row>
     <row r="165" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A165" s="9">
+      <c r="A165" s="10">
         <v>39630</v>
       </c>
-      <c r="B165" s="10">
+      <c r="B165" s="2">
         <v>9.0094041432956906E-2</v>
       </c>
-      <c r="C165" s="3"/>
+      <c r="C165" s="4"/>
       <c r="CG165" s="1"/>
       <c r="CH165" s="1"/>
       <c r="CI165" s="1"/>
@@ -10664,13 +10659,13 @@
       <c r="RX165" s="1"/>
     </row>
     <row r="166" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A166" s="9">
+      <c r="A166" s="10">
         <v>39661</v>
       </c>
-      <c r="B166" s="10">
+      <c r="B166" s="2">
         <v>9.2978334258690121E-2</v>
       </c>
-      <c r="C166" s="3"/>
+      <c r="C166" s="4"/>
       <c r="CG166" s="1"/>
       <c r="CH166" s="1"/>
       <c r="CI166" s="1"/>
@@ -10759,13 +10754,13 @@
       <c r="RX166" s="1"/>
     </row>
     <row r="167" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A167" s="9">
+      <c r="A167" s="10">
         <v>39692</v>
       </c>
-      <c r="B167" s="10">
+      <c r="B167" s="2">
         <v>0.1049190744132513</v>
       </c>
-      <c r="C167" s="3"/>
+      <c r="C167" s="4"/>
       <c r="CG167" s="1"/>
       <c r="CH167" s="1"/>
       <c r="CI167" s="1"/>
@@ -10854,13 +10849,13 @@
       <c r="RX167" s="1"/>
     </row>
     <row r="168" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A168" s="9">
+      <c r="A168" s="10">
         <v>39722</v>
       </c>
-      <c r="B168" s="10">
+      <c r="B168" s="2">
         <v>0.1150227873640902</v>
       </c>
-      <c r="C168" s="3"/>
+      <c r="C168" s="4"/>
       <c r="CG168" s="1"/>
       <c r="CH168" s="1"/>
       <c r="CI168" s="1"/>
@@ -10949,13 +10944,13 @@
       <c r="RX168" s="1"/>
     </row>
     <row r="169" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A169" s="9">
+      <c r="A169" s="10">
         <v>39753</v>
       </c>
-      <c r="B169" s="10">
+      <c r="B169" s="2">
         <v>0.12713618920136005</v>
       </c>
-      <c r="C169" s="3"/>
+      <c r="C169" s="4"/>
       <c r="CG169" s="1"/>
       <c r="CH169" s="1"/>
       <c r="CI169" s="1"/>
@@ -11044,13 +11039,13 @@
       <c r="RX169" s="1"/>
     </row>
     <row r="170" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A170" s="9">
+      <c r="A170" s="10">
         <v>39783</v>
       </c>
-      <c r="B170" s="10">
+      <c r="B170" s="2">
         <v>0.14219604354597082</v>
       </c>
-      <c r="C170" s="3"/>
+      <c r="C170" s="4"/>
       <c r="CG170" s="1"/>
       <c r="CH170" s="1"/>
       <c r="CI170" s="1"/>
@@ -11139,13 +11134,13 @@
       <c r="RX170" s="1"/>
     </row>
     <row r="171" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A171" s="9">
+      <c r="A171" s="10">
         <v>39814</v>
       </c>
-      <c r="B171" s="10">
+      <c r="B171" s="2">
         <v>0.13409152093551951</v>
       </c>
-      <c r="C171" s="3"/>
+      <c r="C171" s="4"/>
       <c r="CG171" s="1"/>
       <c r="CH171" s="1"/>
       <c r="CI171" s="1"/>
@@ -11234,13 +11229,13 @@
       <c r="RX171" s="1"/>
     </row>
     <row r="172" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A172" s="9">
+      <c r="A172" s="10">
         <v>39845</v>
       </c>
-      <c r="B172" s="10">
+      <c r="B172" s="2">
         <v>0.1323173344014103</v>
       </c>
-      <c r="C172" s="3"/>
+      <c r="C172" s="4"/>
       <c r="CG172" s="1"/>
       <c r="CH172" s="1"/>
       <c r="CI172" s="1"/>
@@ -11329,13 +11324,13 @@
       <c r="RX172" s="1"/>
     </row>
     <row r="173" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A173" s="9">
+      <c r="A173" s="10">
         <v>39873</v>
       </c>
-      <c r="B173" s="10">
+      <c r="B173" s="2">
         <v>0.12184780792693525</v>
       </c>
-      <c r="C173" s="3"/>
+      <c r="C173" s="4"/>
       <c r="CG173" s="1"/>
       <c r="CH173" s="1"/>
       <c r="CI173" s="1"/>
@@ -11424,13 +11419,13 @@
       <c r="RX173" s="1"/>
     </row>
     <row r="174" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A174" s="9">
+      <c r="A174" s="10">
         <v>39904</v>
       </c>
-      <c r="B174" s="10">
+      <c r="B174" s="2">
         <v>0.1088401890456267</v>
       </c>
-      <c r="C174" s="3"/>
+      <c r="C174" s="4"/>
       <c r="CG174" s="1"/>
       <c r="CH174" s="1"/>
       <c r="CI174" s="1"/>
@@ -11519,13 +11514,13 @@
       <c r="RX174" s="1"/>
     </row>
     <row r="175" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A175" s="9">
+      <c r="A175" s="10">
         <v>39934</v>
       </c>
-      <c r="B175" s="10">
+      <c r="B175" s="2">
         <v>0.10207538732969924</v>
       </c>
-      <c r="C175" s="3"/>
+      <c r="C175" s="4"/>
       <c r="CG175" s="1"/>
       <c r="CH175" s="1"/>
       <c r="CI175" s="1"/>
@@ -11614,13 +11609,13 @@
       <c r="RX175" s="1"/>
     </row>
     <row r="176" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A176" s="9">
+      <c r="A176" s="10">
         <v>39965</v>
       </c>
-      <c r="B176" s="10">
+      <c r="B176" s="2">
         <v>9.0431157247827659E-2</v>
       </c>
-      <c r="C176" s="3"/>
+      <c r="C176" s="4"/>
       <c r="CG176" s="1"/>
       <c r="CH176" s="1"/>
       <c r="CI176" s="1"/>
@@ -11709,13 +11704,13 @@
       <c r="RX176" s="1"/>
     </row>
     <row r="177" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A177" s="9">
+      <c r="A177" s="10">
         <v>39995</v>
       </c>
-      <c r="B177" s="10">
+      <c r="B177" s="2">
         <v>8.8254360455356951E-2</v>
       </c>
-      <c r="C177" s="3"/>
+      <c r="C177" s="4"/>
       <c r="CG177" s="1"/>
       <c r="CH177" s="1"/>
       <c r="CI177" s="1"/>
@@ -11804,13 +11799,13 @@
       <c r="RX177" s="1"/>
     </row>
     <row r="178" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A178" s="9">
+      <c r="A178" s="10">
         <v>40026</v>
       </c>
-      <c r="B178" s="10">
+      <c r="B178" s="2">
         <v>8.5062467132288211E-2</v>
       </c>
-      <c r="C178" s="3"/>
+      <c r="C178" s="4"/>
       <c r="CG178" s="1"/>
       <c r="CH178" s="1"/>
       <c r="CI178" s="1"/>
@@ -11899,13 +11894,13 @@
       <c r="RX178" s="1"/>
     </row>
     <row r="179" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A179" s="9">
+      <c r="A179" s="10">
         <v>40057</v>
       </c>
-      <c r="B179" s="10">
+      <c r="B179" s="2">
         <v>8.194495980792163E-2</v>
       </c>
-      <c r="C179" s="3"/>
+      <c r="C179" s="4"/>
       <c r="CG179" s="1"/>
       <c r="CH179" s="1"/>
       <c r="CI179" s="1"/>
@@ -11994,13 +11989,13 @@
       <c r="RX179" s="1"/>
     </row>
     <row r="180" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A180" s="9">
+      <c r="A180" s="10">
         <v>40087</v>
       </c>
-      <c r="B180" s="10">
+      <c r="B180" s="2">
         <v>8.3103148537463978E-2</v>
       </c>
-      <c r="C180" s="3"/>
+      <c r="C180" s="4"/>
       <c r="CG180" s="1"/>
       <c r="CH180" s="1"/>
       <c r="CI180" s="1"/>
@@ -12089,13 +12084,13 @@
       <c r="RX180" s="1"/>
     </row>
     <row r="181" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A181" s="9">
+      <c r="A181" s="10">
         <v>40118</v>
       </c>
-      <c r="B181" s="10">
+      <c r="B181" s="2">
         <v>8.4939307901060079E-2</v>
       </c>
-      <c r="C181" s="3"/>
+      <c r="C181" s="4"/>
       <c r="CG181" s="1"/>
       <c r="CH181" s="1"/>
       <c r="CI181" s="1"/>
@@ -12184,13 +12179,13 @@
       <c r="RX181" s="1"/>
     </row>
     <row r="182" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A182" s="9">
+      <c r="A182" s="10">
         <v>40148</v>
       </c>
-      <c r="B182" s="10">
+      <c r="B182" s="2">
         <v>9.1998835222545483E-2</v>
       </c>
-      <c r="C182" s="3"/>
+      <c r="C182" s="4"/>
       <c r="CG182" s="1"/>
       <c r="CH182" s="1"/>
       <c r="CI182" s="1"/>
@@ -12279,13 +12274,13 @@
       <c r="RX182" s="1"/>
     </row>
     <row r="183" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A183" s="9">
+      <c r="A183" s="10">
         <v>40179</v>
       </c>
-      <c r="B183" s="10">
+      <c r="B183" s="2">
         <v>9.4406445060834981E-2</v>
       </c>
-      <c r="C183" s="3"/>
+      <c r="C183" s="4"/>
       <c r="CG183" s="1"/>
       <c r="CH183" s="1"/>
       <c r="CI183" s="1"/>
@@ -12374,13 +12369,13 @@
       <c r="RX183" s="1"/>
     </row>
     <row r="184" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A184" s="9">
+      <c r="A184" s="10">
         <v>40210</v>
       </c>
-      <c r="B184" s="10">
+      <c r="B184" s="2">
         <v>9.677333010017547E-2</v>
       </c>
-      <c r="C184" s="3"/>
+      <c r="C184" s="4"/>
       <c r="CG184" s="1"/>
       <c r="CH184" s="1"/>
       <c r="CI184" s="1"/>
@@ -12469,13 +12464,13 @@
       <c r="RX184" s="1"/>
     </row>
     <row r="185" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A185" s="9">
+      <c r="A185" s="10">
         <v>40238</v>
       </c>
-      <c r="B185" s="10">
+      <c r="B185" s="2">
         <v>0.10525014956324957</v>
       </c>
-      <c r="C185" s="3"/>
+      <c r="C185" s="4"/>
       <c r="CG185" s="1"/>
       <c r="CH185" s="1"/>
       <c r="CI185" s="1"/>
@@ -12564,13 +12559,13 @@
       <c r="RX185" s="1"/>
     </row>
     <row r="186" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A186" s="9">
+      <c r="A186" s="10">
         <v>40269</v>
       </c>
-      <c r="B186" s="10">
+      <c r="B186" s="2">
         <v>0.10079451028425426</v>
       </c>
-      <c r="C186" s="3"/>
+      <c r="C186" s="4"/>
       <c r="CG186" s="1"/>
       <c r="CH186" s="1"/>
       <c r="CI186" s="1"/>
@@ -12659,13 +12654,13 @@
       <c r="RX186" s="1"/>
     </row>
     <row r="187" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A187" s="9">
+      <c r="A187" s="10">
         <v>40299</v>
       </c>
-      <c r="B187" s="10">
+      <c r="B187" s="2">
         <v>9.7475443102761017E-2</v>
       </c>
-      <c r="C187" s="3"/>
+      <c r="C187" s="4"/>
       <c r="CG187" s="1"/>
       <c r="CH187" s="1"/>
       <c r="CI187" s="1"/>
@@ -12754,13 +12749,13 @@
       <c r="RX187" s="1"/>
     </row>
     <row r="188" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A188" s="9">
+      <c r="A188" s="10">
         <v>40330</v>
       </c>
-      <c r="B188" s="10">
+      <c r="B188" s="2">
         <v>0.10575656830811714</v>
       </c>
-      <c r="C188" s="3"/>
+      <c r="C188" s="4"/>
       <c r="CG188" s="1"/>
       <c r="CH188" s="1"/>
       <c r="CI188" s="1"/>
@@ -12849,13 +12844,13 @@
       <c r="RX188" s="1"/>
     </row>
     <row r="189" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A189" s="9">
+      <c r="A189" s="10">
         <v>40360</v>
       </c>
-      <c r="B189" s="10">
+      <c r="B189" s="2">
         <v>0.10532947410949854</v>
       </c>
-      <c r="C189" s="3"/>
+      <c r="C189" s="4"/>
       <c r="CG189" s="1"/>
       <c r="CH189" s="1"/>
       <c r="CI189" s="1"/>
@@ -12944,13 +12939,13 @@
       <c r="RX189" s="1"/>
     </row>
     <row r="190" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A190" s="9">
+      <c r="A190" s="10">
         <v>40391</v>
       </c>
-      <c r="B190" s="10">
+      <c r="B190" s="2">
         <v>0.10550581781341299</v>
       </c>
-      <c r="C190" s="3"/>
+      <c r="C190" s="4"/>
       <c r="CG190" s="1"/>
       <c r="CH190" s="1"/>
       <c r="CI190" s="1"/>
@@ -13039,13 +13034,13 @@
       <c r="RX190" s="1"/>
     </row>
     <row r="191" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A191" s="9">
+      <c r="A191" s="10">
         <v>40422</v>
       </c>
-      <c r="B191" s="10">
+      <c r="B191" s="2">
         <v>0.10964076002117032</v>
       </c>
-      <c r="C191" s="3"/>
+      <c r="C191" s="4"/>
       <c r="CG191" s="1"/>
       <c r="CH191" s="1"/>
       <c r="CI191" s="1"/>
@@ -13134,13 +13129,13 @@
       <c r="RX191" s="1"/>
     </row>
     <row r="192" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A192" s="9">
+      <c r="A192" s="10">
         <v>40452</v>
       </c>
-      <c r="B192" s="10">
+      <c r="B192" s="2">
         <v>0.10513412866678648</v>
       </c>
-      <c r="C192" s="3"/>
+      <c r="C192" s="4"/>
       <c r="CG192" s="1"/>
       <c r="CH192" s="1"/>
       <c r="CI192" s="1"/>
@@ -13229,13 +13224,13 @@
       <c r="RX192" s="1"/>
     </row>
     <row r="193" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A193" s="9">
+      <c r="A193" s="10">
         <v>40483</v>
       </c>
-      <c r="B193" s="10">
+      <c r="B193" s="2">
         <v>0.10473580686784892</v>
       </c>
-      <c r="C193" s="3"/>
+      <c r="C193" s="4"/>
       <c r="CG193" s="1"/>
       <c r="CH193" s="1"/>
       <c r="CI193" s="1"/>
@@ -13324,13 +13319,13 @@
       <c r="RX193" s="1"/>
     </row>
     <row r="194" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A194" s="9">
+      <c r="A194" s="10">
         <v>40513</v>
       </c>
-      <c r="B194" s="10">
+      <c r="B194" s="2">
         <v>9.4346589276028653E-2</v>
       </c>
-      <c r="C194" s="3"/>
+      <c r="C194" s="4"/>
       <c r="CG194" s="1"/>
       <c r="CH194" s="1"/>
       <c r="CI194" s="1"/>
@@ -13419,13 +13414,13 @@
       <c r="RX194" s="1"/>
     </row>
     <row r="195" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A195" s="9">
+      <c r="A195" s="10">
         <v>40544</v>
       </c>
-      <c r="B195" s="10">
+      <c r="B195" s="2">
         <v>9.5407238018712093E-2</v>
       </c>
-      <c r="C195" s="3"/>
+      <c r="C195" s="4"/>
       <c r="CG195" s="1"/>
       <c r="CH195" s="1"/>
       <c r="CI195" s="1"/>
@@ -13514,13 +13509,13 @@
       <c r="RX195" s="1"/>
     </row>
     <row r="196" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A196" s="9">
+      <c r="A196" s="10">
         <v>40575</v>
       </c>
-      <c r="B196" s="10">
+      <c r="B196" s="2">
         <v>9.3390806727688513E-2</v>
       </c>
-      <c r="C196" s="3"/>
+      <c r="C196" s="4"/>
       <c r="CG196" s="1"/>
       <c r="CH196" s="1"/>
       <c r="CI196" s="1"/>
@@ -13609,13 +13604,13 @@
       <c r="RX196" s="1"/>
     </row>
     <row r="197" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A197" s="9">
+      <c r="A197" s="10">
         <v>40603</v>
       </c>
-      <c r="B197" s="10">
+      <c r="B197" s="2">
         <v>9.3441141720405185E-2</v>
       </c>
-      <c r="C197" s="3"/>
+      <c r="C197" s="4"/>
       <c r="CG197" s="1"/>
       <c r="CH197" s="1"/>
       <c r="CI197" s="1"/>
@@ -13704,13 +13699,13 @@
       <c r="RX197" s="1"/>
     </row>
     <row r="198" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A198" s="9">
+      <c r="A198" s="10">
         <v>40634</v>
       </c>
-      <c r="B198" s="10">
+      <c r="B198" s="2">
         <v>9.3643791643206381E-2</v>
       </c>
-      <c r="C198" s="3"/>
+      <c r="C198" s="4"/>
       <c r="CG198" s="1"/>
       <c r="CH198" s="1"/>
       <c r="CI198" s="1"/>
@@ -13799,13 +13794,13 @@
       <c r="RX198" s="1"/>
     </row>
     <row r="199" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A199" s="9">
+      <c r="A199" s="10">
         <v>40664</v>
       </c>
-      <c r="B199" s="10">
+      <c r="B199" s="2">
         <v>0.10032836280974664</v>
       </c>
-      <c r="C199" s="3"/>
+      <c r="C199" s="4"/>
       <c r="CG199" s="1"/>
       <c r="CH199" s="1"/>
       <c r="CI199" s="1"/>
@@ -13894,13 +13889,13 @@
       <c r="RX199" s="1"/>
     </row>
     <row r="200" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A200" s="9">
+      <c r="A200" s="10">
         <v>40695</v>
       </c>
-      <c r="B200" s="10">
+      <c r="B200" s="2">
         <v>9.9388836279557288E-2</v>
       </c>
-      <c r="C200" s="3"/>
+      <c r="C200" s="4"/>
       <c r="CG200" s="1"/>
       <c r="CH200" s="1"/>
       <c r="CI200" s="1"/>
@@ -13989,13 +13984,13 @@
       <c r="RX200" s="1"/>
     </row>
     <row r="201" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A201" s="9">
+      <c r="A201" s="10">
         <v>40725</v>
       </c>
-      <c r="B201" s="10">
+      <c r="B201" s="2">
         <v>0.10538607103302287</v>
       </c>
-      <c r="C201" s="3"/>
+      <c r="C201" s="4"/>
       <c r="CG201" s="1"/>
       <c r="CH201" s="1"/>
       <c r="CI201" s="1"/>
@@ -14084,13 +14079,13 @@
       <c r="RX201" s="1"/>
     </row>
     <row r="202" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A202" s="9">
+      <c r="A202" s="10">
         <v>40756</v>
       </c>
-      <c r="B202" s="10">
+      <c r="B202" s="2">
         <v>0.11212100068797148</v>
       </c>
-      <c r="C202" s="3"/>
+      <c r="C202" s="4"/>
       <c r="CG202" s="1"/>
       <c r="CH202" s="1"/>
       <c r="CI202" s="1"/>
@@ -14179,13 +14174,13 @@
       <c r="RX202" s="1"/>
     </row>
     <row r="203" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A203" s="9">
+      <c r="A203" s="10">
         <v>40787</v>
       </c>
-      <c r="B203" s="10">
+      <c r="B203" s="2">
         <v>0.110785960833959</v>
       </c>
-      <c r="C203" s="3"/>
+      <c r="C203" s="4"/>
       <c r="CG203" s="1"/>
       <c r="CH203" s="1"/>
       <c r="CI203" s="1"/>
@@ -14274,13 +14269,13 @@
       <c r="RX203" s="1"/>
     </row>
     <row r="204" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A204" s="9">
+      <c r="A204" s="10">
         <v>40817</v>
       </c>
-      <c r="B204" s="10">
+      <c r="B204" s="2">
         <v>0.10360612595722082</v>
       </c>
-      <c r="C204" s="3"/>
+      <c r="C204" s="4"/>
       <c r="CG204" s="1"/>
       <c r="CH204" s="1"/>
       <c r="CI204" s="1"/>
@@ -14369,13 +14364,13 @@
       <c r="RX204" s="1"/>
     </row>
     <row r="205" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A205" s="9">
+      <c r="A205" s="10">
         <v>40848</v>
       </c>
-      <c r="B205" s="10">
+      <c r="B205" s="2">
         <v>0.10488449858019411</v>
       </c>
-      <c r="C205" s="3"/>
+      <c r="C205" s="4"/>
       <c r="CG205" s="1"/>
       <c r="CH205" s="1"/>
       <c r="CI205" s="1"/>
@@ -14464,13 +14459,13 @@
       <c r="RX205" s="1"/>
     </row>
     <row r="206" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A206" s="9">
+      <c r="A206" s="10">
         <v>40878</v>
       </c>
-      <c r="B206" s="10">
+      <c r="B206" s="2">
         <v>0.10009455642023066</v>
       </c>
-      <c r="C206" s="3"/>
+      <c r="C206" s="4"/>
       <c r="CG206" s="1"/>
       <c r="CH206" s="1"/>
       <c r="CI206" s="1"/>
@@ -14522,7 +14517,7 @@
       <c r="JL206" s="1"/>
       <c r="JW206" s="1"/>
       <c r="KH206" s="1"/>
-      <c r="KJ206" s="7"/>
+      <c r="KJ206" s="8"/>
       <c r="KS206" s="1"/>
       <c r="LD206" s="1"/>
       <c r="LE206" s="1"/>
@@ -14560,13 +14555,13 @@
       <c r="RX206" s="1"/>
     </row>
     <row r="207" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A207" s="9">
+      <c r="A207" s="10">
         <v>40909</v>
       </c>
-      <c r="B207" s="10">
+      <c r="B207" s="2">
         <v>9.6997483527202721E-2</v>
       </c>
-      <c r="C207" s="3"/>
+      <c r="C207" s="4"/>
       <c r="CG207" s="1"/>
       <c r="CH207" s="1"/>
       <c r="CI207" s="1"/>
@@ -14631,7 +14626,7 @@
       <c r="LM207" s="1"/>
       <c r="LO207" s="1"/>
       <c r="LZ207" s="1"/>
-      <c r="MB207" s="7"/>
+      <c r="MB207" s="8"/>
       <c r="MK207" s="1"/>
       <c r="MV207" s="1"/>
       <c r="NG207" s="1"/>
@@ -14656,13 +14651,13 @@
       <c r="RX207" s="1"/>
     </row>
     <row r="208" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A208" s="9">
+      <c r="A208" s="10">
         <v>40940</v>
       </c>
-      <c r="B208" s="10">
+      <c r="B208" s="2">
         <v>9.0887604642450229E-2</v>
       </c>
-      <c r="C208" s="3"/>
+      <c r="C208" s="4"/>
       <c r="CG208" s="1"/>
       <c r="CH208" s="1"/>
       <c r="CI208" s="1"/>
@@ -14715,7 +14710,7 @@
       <c r="JW208" s="1"/>
       <c r="KH208" s="1"/>
       <c r="KS208" s="1"/>
-      <c r="KU208" s="7"/>
+      <c r="KU208" s="8"/>
       <c r="LD208" s="1"/>
       <c r="LE208" s="1"/>
       <c r="LF208" s="1"/>
@@ -14729,13 +14724,13 @@
       <c r="LO208" s="1"/>
       <c r="LZ208" s="1"/>
       <c r="MK208" s="1"/>
-      <c r="MM208" s="7"/>
+      <c r="MM208" s="8"/>
       <c r="MV208" s="1"/>
-      <c r="MX208" s="7"/>
+      <c r="MX208" s="8"/>
       <c r="NG208" s="1"/>
       <c r="NR208" s="1"/>
       <c r="OC208" s="1"/>
-      <c r="OE208" s="7"/>
+      <c r="OE208" s="8"/>
       <c r="ON208" s="1"/>
       <c r="OY208" s="1"/>
       <c r="PJ208" s="1"/>
@@ -14755,13 +14750,13 @@
       <c r="RX208" s="1"/>
     </row>
     <row r="209" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A209" s="9">
+      <c r="A209" s="10">
         <v>40969</v>
       </c>
-      <c r="B209" s="10">
+      <c r="B209" s="2">
         <v>8.7800298912843522E-2</v>
       </c>
-      <c r="C209" s="3"/>
+      <c r="C209" s="4"/>
       <c r="CG209" s="1"/>
       <c r="CH209" s="1"/>
       <c r="CI209" s="1"/>
@@ -14816,7 +14811,7 @@
       <c r="KS209" s="1"/>
       <c r="LD209" s="1"/>
       <c r="LE209" s="1"/>
-      <c r="LF209" s="7"/>
+      <c r="LF209" s="8"/>
       <c r="LG209" s="1"/>
       <c r="LH209" s="1"/>
       <c r="LI209" s="1"/>
@@ -14834,7 +14829,7 @@
       <c r="ON209" s="1"/>
       <c r="OY209" s="1"/>
       <c r="PJ209" s="1"/>
-      <c r="PL209" s="7"/>
+      <c r="PL209" s="8"/>
       <c r="PU209" s="1"/>
       <c r="PV209" s="1"/>
       <c r="PW209" s="1"/>
@@ -14851,13 +14846,13 @@
       <c r="RX209" s="1"/>
     </row>
     <row r="210" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A210" s="9">
+      <c r="A210" s="10">
         <v>41000</v>
       </c>
-      <c r="B210" s="10">
+      <c r="B210" s="2">
         <v>9.5810214550751407E-2</v>
       </c>
-      <c r="C210" s="3"/>
+      <c r="C210" s="4"/>
       <c r="CG210" s="1"/>
       <c r="CH210" s="1"/>
       <c r="CI210" s="1"/>
@@ -14921,18 +14916,18 @@
       <c r="LL210" s="1"/>
       <c r="LM210" s="1"/>
       <c r="LO210" s="1"/>
-      <c r="LQ210" s="7"/>
+      <c r="LQ210" s="8"/>
       <c r="LZ210" s="1"/>
       <c r="MK210" s="1"/>
       <c r="MV210" s="1"/>
       <c r="NG210" s="1"/>
-      <c r="NI210" s="7"/>
+      <c r="NI210" s="8"/>
       <c r="NR210" s="1"/>
-      <c r="NT210" s="7"/>
+      <c r="NT210" s="8"/>
       <c r="OC210" s="1"/>
       <c r="ON210" s="1"/>
       <c r="OY210" s="1"/>
-      <c r="PA210" s="7"/>
+      <c r="PA210" s="8"/>
       <c r="PJ210" s="1"/>
       <c r="PU210" s="1"/>
       <c r="PV210" s="1"/>
@@ -14950,13 +14945,13 @@
       <c r="RX210" s="1"/>
     </row>
     <row r="211" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A211" s="9">
+      <c r="A211" s="10">
         <v>41030</v>
       </c>
-      <c r="B211" s="10">
+      <c r="B211" s="2">
         <v>0.10515093938008996</v>
       </c>
-      <c r="C211" s="3"/>
+      <c r="C211" s="4"/>
       <c r="CG211" s="1"/>
       <c r="CH211" s="1"/>
       <c r="CI211" s="1"/>
@@ -15045,13 +15040,13 @@
       <c r="RX211" s="1"/>
     </row>
     <row r="212" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A212" s="9">
+      <c r="A212" s="10">
         <v>41061</v>
       </c>
-      <c r="B212" s="10">
+      <c r="B212" s="2">
         <v>9.0817328850805651E-2</v>
       </c>
-      <c r="C212" s="3"/>
+      <c r="C212" s="4"/>
       <c r="CG212" s="1"/>
       <c r="CH212" s="1"/>
       <c r="CI212" s="1"/>
@@ -15122,7 +15117,7 @@
       <c r="NR212" s="1"/>
       <c r="OC212" s="1"/>
       <c r="ON212" s="1"/>
-      <c r="OP212" s="7"/>
+      <c r="OP212" s="8"/>
       <c r="OY212" s="1"/>
       <c r="PJ212" s="1"/>
       <c r="PU212" s="1"/>
@@ -15141,13 +15136,13 @@
       <c r="RX212" s="1"/>
     </row>
     <row r="213" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A213" s="9">
+      <c r="A213" s="10">
         <v>41091</v>
       </c>
-      <c r="B213" s="10">
+      <c r="B213" s="2">
         <v>9.198193035468108E-2</v>
       </c>
-      <c r="C213" s="3"/>
+      <c r="C213" s="4"/>
       <c r="CG213" s="1"/>
       <c r="CH213" s="1"/>
       <c r="CI213" s="1"/>
@@ -15236,13 +15231,13 @@
       <c r="RX213" s="1"/>
     </row>
     <row r="214" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A214" s="9">
+      <c r="A214" s="10">
         <v>41122</v>
       </c>
-      <c r="B214" s="10">
+      <c r="B214" s="2">
         <v>9.0527591621574741E-2</v>
       </c>
-      <c r="C214" s="3"/>
+      <c r="C214" s="4"/>
       <c r="CG214" s="1"/>
       <c r="CH214" s="1"/>
       <c r="CI214" s="1"/>
@@ -15331,13 +15326,13 @@
       <c r="RX214" s="1"/>
     </row>
     <row r="215" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A215" s="9">
+      <c r="A215" s="10">
         <v>41153</v>
       </c>
-      <c r="B215" s="10">
+      <c r="B215" s="2">
         <v>9.321029129473013E-2</v>
       </c>
-      <c r="C215" s="3"/>
+      <c r="C215" s="4"/>
       <c r="CG215" s="1"/>
       <c r="CH215" s="1"/>
       <c r="CI215" s="1"/>
@@ -15412,7 +15407,7 @@
       <c r="PJ215" s="1"/>
       <c r="PU215" s="1"/>
       <c r="PV215" s="1"/>
-      <c r="PW215" s="7"/>
+      <c r="PW215" s="8"/>
       <c r="PX215" s="1"/>
       <c r="PY215" s="1"/>
       <c r="PZ215" s="1"/>
@@ -15426,13 +15421,13 @@
       <c r="RX215" s="1"/>
     </row>
     <row r="216" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A216" s="9">
+      <c r="A216" s="10">
         <v>41183</v>
       </c>
-      <c r="B216" s="10">
+      <c r="B216" s="2">
         <v>9.2447998465240086E-2</v>
       </c>
-      <c r="C216" s="3"/>
+      <c r="C216" s="4"/>
       <c r="CG216" s="1"/>
       <c r="CH216" s="1"/>
       <c r="CI216" s="1"/>
@@ -15515,20 +15510,20 @@
       <c r="QB216" s="1"/>
       <c r="QC216" s="1"/>
       <c r="QD216" s="1"/>
-      <c r="QH216" s="7"/>
+      <c r="QH216" s="8"/>
       <c r="QQ216" s="1"/>
       <c r="RB216" s="1"/>
       <c r="RM216" s="1"/>
       <c r="RX216" s="1"/>
     </row>
     <row r="217" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A217" s="9">
+      <c r="A217" s="10">
         <v>41214</v>
       </c>
-      <c r="B217" s="10">
+      <c r="B217" s="2">
         <v>9.5606034425374312E-2</v>
       </c>
-      <c r="C217" s="3"/>
+      <c r="C217" s="4"/>
       <c r="CG217" s="1"/>
       <c r="CH217" s="1"/>
       <c r="CI217" s="1"/>
@@ -15617,13 +15612,13 @@
       <c r="RX217" s="1"/>
     </row>
     <row r="218" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A218" s="9">
+      <c r="A218" s="10">
         <v>41244</v>
       </c>
-      <c r="B218" s="10">
+      <c r="B218" s="2">
         <v>9.1047274906739667E-2</v>
       </c>
-      <c r="C218" s="3"/>
+      <c r="C218" s="4"/>
       <c r="CG218" s="1"/>
       <c r="CH218" s="1"/>
       <c r="CI218" s="1"/>
@@ -15712,13 +15707,13 @@
       <c r="RX218" s="1"/>
     </row>
     <row r="219" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A219" s="9">
+      <c r="A219" s="10">
         <v>41275</v>
       </c>
-      <c r="B219" s="10">
+      <c r="B219" s="2">
         <v>8.7449844192482862E-2</v>
       </c>
-      <c r="C219" s="3"/>
+      <c r="C219" s="4"/>
       <c r="CG219" s="1"/>
       <c r="CH219" s="1"/>
       <c r="CI219" s="1"/>
@@ -15807,13 +15802,13 @@
       <c r="RX219" s="1"/>
     </row>
     <row r="220" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A220" s="9">
+      <c r="A220" s="10">
         <v>41306</v>
       </c>
-      <c r="B220" s="10">
+      <c r="B220" s="2">
         <v>8.9884574591296298E-2</v>
       </c>
-      <c r="C220" s="3"/>
+      <c r="C220" s="4"/>
       <c r="CG220" s="1"/>
       <c r="CH220" s="1"/>
       <c r="CI220" s="1"/>
@@ -15902,13 +15897,13 @@
       <c r="RX220" s="1"/>
     </row>
     <row r="221" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A221" s="9">
+      <c r="A221" s="10">
         <v>41334</v>
       </c>
-      <c r="B221" s="10">
+      <c r="B221" s="2">
         <v>8.3440031175367746E-2</v>
       </c>
-      <c r="C221" s="3"/>
+      <c r="C221" s="4"/>
       <c r="CG221" s="1"/>
       <c r="CH221" s="1"/>
       <c r="CI221" s="1"/>
@@ -15948,11 +15943,11 @@
       <c r="EJ221" s="1"/>
       <c r="EU221" s="1"/>
       <c r="FF221" s="1"/>
-      <c r="FH221" s="7"/>
+      <c r="FH221" s="8"/>
       <c r="FQ221" s="1"/>
-      <c r="FS221" s="7"/>
+      <c r="FS221" s="8"/>
       <c r="GB221" s="1"/>
-      <c r="GD221" s="7"/>
+      <c r="GD221" s="8"/>
       <c r="GM221" s="1"/>
       <c r="GX221" s="1"/>
       <c r="HI221" s="1"/>
@@ -16000,13 +15995,13 @@
       <c r="RX221" s="1"/>
     </row>
     <row r="222" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A222" s="9">
+      <c r="A222" s="10">
         <v>41365</v>
       </c>
-      <c r="B222" s="10">
+      <c r="B222" s="2">
         <v>8.4749349865796034E-2</v>
       </c>
-      <c r="C222" s="3"/>
+      <c r="C222" s="4"/>
       <c r="PU222" s="1"/>
       <c r="PV222" s="1"/>
       <c r="PW222" s="1"/>
@@ -16019,13 +16014,13 @@
       <c r="QD222" s="1"/>
     </row>
     <row r="223" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A223" s="9">
+      <c r="A223" s="10">
         <v>41395</v>
       </c>
-      <c r="B223" s="10">
+      <c r="B223" s="2">
         <v>8.0522617175596833E-2</v>
       </c>
-      <c r="C223" s="3"/>
+      <c r="C223" s="4"/>
       <c r="PU223" s="1"/>
       <c r="PV223" s="1"/>
       <c r="PW223" s="1"/>
@@ -16038,13 +16033,13 @@
       <c r="QD223" s="1"/>
     </row>
     <row r="224" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A224" s="9">
+      <c r="A224" s="10">
         <v>41426</v>
       </c>
-      <c r="B224" s="10">
+      <c r="B224" s="2">
         <v>7.5014888373605801E-2</v>
       </c>
-      <c r="C224" s="3"/>
+      <c r="C224" s="4"/>
       <c r="PU224" s="1"/>
       <c r="PV224" s="1"/>
       <c r="PW224" s="1"/>
@@ -16057,13 +16052,13 @@
       <c r="QD224" s="1"/>
     </row>
     <row r="225" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A225" s="9">
+      <c r="A225" s="10">
         <v>41456</v>
       </c>
-      <c r="B225" s="10">
+      <c r="B225" s="2">
         <v>7.7769653801373628E-2</v>
       </c>
-      <c r="C225" s="3"/>
+      <c r="C225" s="4"/>
       <c r="PU225" s="1"/>
       <c r="PV225" s="1"/>
       <c r="PW225" s="1"/>
@@ -16076,13 +16071,13 @@
       <c r="QD225" s="1"/>
     </row>
     <row r="226" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A226" s="9">
+      <c r="A226" s="10">
         <v>41487</v>
       </c>
-      <c r="B226" s="10">
+      <c r="B226" s="2">
         <v>7.610915084711764E-2</v>
       </c>
-      <c r="C226" s="3"/>
+      <c r="C226" s="4"/>
       <c r="PU226" s="1"/>
       <c r="PV226" s="1"/>
       <c r="PW226" s="1"/>
@@ -16095,13 +16090,13 @@
       <c r="QD226" s="1"/>
     </row>
     <row r="227" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A227" s="9">
+      <c r="A227" s="10">
         <v>41518</v>
       </c>
-      <c r="B227" s="10">
+      <c r="B227" s="2">
         <v>7.4874558269219044E-2</v>
       </c>
-      <c r="C227" s="3"/>
+      <c r="C227" s="4"/>
       <c r="PU227" s="1"/>
       <c r="PV227" s="1"/>
       <c r="PW227" s="1"/>
@@ -16114,1138 +16109,1143 @@
       <c r="QD227" s="1"/>
     </row>
     <row r="228" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A228" s="9">
+      <c r="A228" s="10">
         <v>41548</v>
       </c>
-      <c r="B228" s="10">
+      <c r="B228" s="2">
         <v>7.3769426049519596E-2</v>
       </c>
-      <c r="C228" s="3"/>
+      <c r="C228" s="4"/>
     </row>
     <row r="229" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A229" s="9">
+      <c r="A229" s="10">
         <v>41579</v>
       </c>
-      <c r="B229" s="10">
+      <c r="B229" s="2">
         <v>7.9046521727427585E-2</v>
       </c>
-      <c r="C229" s="3"/>
+      <c r="C229" s="4"/>
     </row>
     <row r="230" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A230" s="9">
+      <c r="A230" s="10">
         <v>41609</v>
       </c>
-      <c r="B230" s="10">
+      <c r="B230" s="2">
         <v>7.5700418664925911E-2</v>
       </c>
-      <c r="C230" s="3"/>
+      <c r="C230" s="4"/>
     </row>
     <row r="231" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A231" s="9">
+      <c r="A231" s="10">
         <v>41640</v>
       </c>
-      <c r="B231" s="10">
+      <c r="B231" s="2">
         <v>8.4845263579311214E-2</v>
       </c>
-      <c r="C231" s="3"/>
+      <c r="C231" s="4"/>
     </row>
     <row r="232" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A232" s="9">
+      <c r="A232" s="10">
         <v>41671</v>
       </c>
-      <c r="B232" s="10">
+      <c r="B232" s="2">
         <v>8.4096940621738683E-2</v>
       </c>
-      <c r="C232" s="3"/>
+      <c r="C232" s="4"/>
     </row>
     <row r="233" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A233" s="9">
+      <c r="A233" s="10">
         <v>41699</v>
       </c>
-      <c r="B233" s="10">
+      <c r="B233" s="2">
         <v>9.5085723314460191E-2</v>
       </c>
-      <c r="C233" s="3"/>
+      <c r="C233" s="4"/>
     </row>
     <row r="234" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A234" s="9">
+      <c r="A234" s="10">
         <v>41730</v>
       </c>
-      <c r="B234" s="10">
+      <c r="B234" s="2">
         <v>9.6617836562715484E-2</v>
       </c>
-      <c r="C234" s="3"/>
+      <c r="C234" s="4"/>
     </row>
     <row r="235" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A235" s="9">
+      <c r="A235" s="10">
         <v>41760</v>
       </c>
-      <c r="B235" s="10">
+      <c r="B235" s="2">
         <v>9.8701160485128128E-2</v>
       </c>
-      <c r="C235" s="3"/>
+      <c r="C235" s="4"/>
     </row>
     <row r="236" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A236" s="9">
+      <c r="A236" s="10">
         <v>41791</v>
       </c>
-      <c r="B236" s="10">
+      <c r="B236" s="2">
         <v>9.4012780857948633E-2</v>
       </c>
-      <c r="C236" s="3"/>
+      <c r="C236" s="4"/>
     </row>
     <row r="237" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A237" s="9">
+      <c r="A237" s="10">
         <v>41821</v>
       </c>
-      <c r="B237" s="10">
+      <c r="B237" s="2">
         <v>9.5099368892112943E-2</v>
       </c>
-      <c r="C237" s="3"/>
+      <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A238" s="9">
+      <c r="A238" s="10">
         <v>41852</v>
       </c>
-      <c r="B238" s="10">
+      <c r="B238" s="2">
         <v>9.5412122648390635E-2</v>
       </c>
-      <c r="C238" s="3"/>
+      <c r="C238" s="4"/>
     </row>
     <row r="239" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A239" s="9">
+      <c r="A239" s="10">
         <v>41883</v>
       </c>
-      <c r="B239" s="10">
+      <c r="B239" s="2">
         <v>8.2926779422991759E-2</v>
       </c>
-      <c r="C239" s="3"/>
+      <c r="C239" s="4"/>
     </row>
     <row r="240" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A240" s="9">
+      <c r="A240" s="10">
         <v>41913</v>
       </c>
-      <c r="B240" s="10">
+      <c r="B240" s="2">
         <v>8.7456378540700291E-2</v>
       </c>
-      <c r="C240" s="3"/>
+      <c r="C240" s="4"/>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" s="9">
+      <c r="A241" s="10">
         <v>41944</v>
       </c>
-      <c r="B241" s="10">
+      <c r="B241" s="2">
         <v>9.0265236245787389E-2</v>
       </c>
-      <c r="C241" s="3"/>
+      <c r="C241" s="4"/>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" s="9">
+      <c r="A242" s="10">
         <v>41974</v>
       </c>
-      <c r="B242" s="10">
+      <c r="B242" s="2">
         <v>9.0600536697358139E-2</v>
       </c>
-      <c r="C242" s="3"/>
+      <c r="C242" s="4"/>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" s="9">
+      <c r="A243" s="10">
         <v>42005</v>
       </c>
-      <c r="B243" s="10">
+      <c r="B243" s="2">
         <v>0.10533016732361397</v>
       </c>
-      <c r="C243" s="3"/>
+      <c r="C243" s="4"/>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244" s="9">
+      <c r="A244" s="10">
         <v>42036</v>
       </c>
-      <c r="B244" s="10">
+      <c r="B244" s="2">
         <v>0.10379332898500528</v>
       </c>
-      <c r="C244" s="3"/>
+      <c r="C244" s="4"/>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" s="9">
+      <c r="A245" s="10">
         <v>42064</v>
       </c>
-      <c r="B245" s="10">
+      <c r="B245" s="2">
         <v>0.10646618622058883</v>
       </c>
-      <c r="C245" s="3"/>
+      <c r="C245" s="4"/>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246" s="9">
+      <c r="A246" s="10">
         <v>42095</v>
       </c>
-      <c r="B246" s="10">
+      <c r="B246" s="2">
         <v>0.10277197692695453</v>
       </c>
-      <c r="C246" s="3"/>
+      <c r="C246" s="4"/>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" s="9">
+      <c r="A247" s="10">
         <v>42125</v>
       </c>
-      <c r="B247" s="10">
+      <c r="B247" s="2">
         <v>0.10635981236621354</v>
       </c>
-      <c r="C247" s="3"/>
+      <c r="C247" s="4"/>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" s="9">
+      <c r="A248" s="10">
         <v>42156</v>
       </c>
-      <c r="B248" s="10">
+      <c r="B248" s="2">
         <v>0.10243622729858951</v>
       </c>
-      <c r="C248" s="3"/>
+      <c r="C248" s="4"/>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" s="9">
+      <c r="A249" s="10">
         <v>42186</v>
       </c>
-      <c r="B249" s="10">
+      <c r="B249" s="2">
         <v>0.10824745812912069</v>
       </c>
-      <c r="C249" s="3"/>
+      <c r="C249" s="4"/>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" s="9">
+      <c r="A250" s="10">
         <v>42217</v>
       </c>
-      <c r="B250" s="10">
+      <c r="B250" s="2">
         <v>0.11309406133143306</v>
       </c>
-      <c r="C250" s="3"/>
+      <c r="C250" s="4"/>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" s="9">
+      <c r="A251" s="10">
         <v>42248</v>
       </c>
-      <c r="B251" s="10">
+      <c r="B251" s="2">
         <v>9.9532565626062719E-2</v>
       </c>
-      <c r="C251" s="3"/>
+      <c r="C251" s="4"/>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" s="9">
+      <c r="A252" s="10">
         <v>42278</v>
       </c>
-      <c r="B252" s="10">
+      <c r="B252" s="2">
         <v>9.7344609070752625E-2</v>
       </c>
-      <c r="C252" s="3"/>
+      <c r="C252" s="4"/>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253" s="9">
+      <c r="A253" s="10">
         <v>42309</v>
       </c>
-      <c r="B253" s="10">
+      <c r="B253" s="2">
         <v>9.6030564044979047E-2</v>
       </c>
-      <c r="C253" s="3"/>
+      <c r="C253" s="4"/>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" s="9">
+      <c r="A254" s="10">
         <v>42339</v>
       </c>
-      <c r="B254" s="10">
+      <c r="B254" s="2">
         <v>9.7946408382498046E-2</v>
       </c>
-      <c r="C254" s="3"/>
+      <c r="C254" s="4"/>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255" s="9">
+      <c r="A255" s="10">
         <v>42370</v>
       </c>
-      <c r="B255" s="10">
+      <c r="B255" s="2">
         <v>0.10720725243654623</v>
       </c>
-      <c r="C255" s="3"/>
+      <c r="C255" s="4"/>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256" s="9">
+      <c r="A256" s="10">
         <v>42401</v>
       </c>
-      <c r="B256" s="10">
+      <c r="B256" s="2">
         <v>0.10623913533182294</v>
       </c>
-      <c r="C256" s="3"/>
+      <c r="C256" s="4"/>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257" s="9">
+      <c r="A257" s="10">
         <v>42430</v>
       </c>
-      <c r="B257" s="10">
+      <c r="B257" s="2">
         <v>9.6613329525373437E-2</v>
       </c>
-      <c r="C257" s="3"/>
+      <c r="C257" s="4"/>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" s="9">
+      <c r="A258" s="10">
         <v>42461</v>
       </c>
-      <c r="B258" s="10">
+      <c r="B258" s="2">
         <v>9.07458717712184E-2</v>
       </c>
-      <c r="C258" s="3"/>
+      <c r="C258" s="4"/>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259" s="9">
+      <c r="A259" s="10">
         <v>42491</v>
       </c>
-      <c r="B259" s="10">
+      <c r="B259" s="2">
         <v>8.1503302413437381E-2</v>
       </c>
-      <c r="C259" s="3"/>
+      <c r="C259" s="4"/>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" s="9">
+      <c r="A260" s="10">
         <v>42522</v>
       </c>
-      <c r="B260" s="10">
+      <c r="B260" s="2">
         <v>8.4903302413437381E-2</v>
       </c>
-      <c r="C260" s="3"/>
+      <c r="C260" s="4"/>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261" s="9">
+      <c r="A261" s="10">
         <v>42552</v>
       </c>
-      <c r="B261" s="10">
+      <c r="B261" s="2">
         <v>7.845432079176308E-2</v>
       </c>
-      <c r="C261" s="3"/>
+      <c r="C261" s="4"/>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262" s="9">
+      <c r="A262" s="10">
         <v>42583</v>
       </c>
-      <c r="B262" s="10">
+      <c r="B262" s="2">
         <v>7.7005107317431515E-2</v>
       </c>
-      <c r="C262" s="3"/>
+      <c r="C262" s="4"/>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" s="9">
+      <c r="A263" s="10">
         <v>42614</v>
       </c>
-      <c r="B263" s="10">
+      <c r="B263" s="2">
         <v>7.9062490141365058E-2</v>
       </c>
-      <c r="C263" s="3"/>
+      <c r="C263" s="4"/>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" s="9">
+      <c r="A264" s="10">
         <v>42644</v>
       </c>
-      <c r="B264" s="10">
+      <c r="B264" s="2">
         <v>9.0803823058582978E-2</v>
       </c>
-      <c r="C264" s="3"/>
+      <c r="C264" s="4"/>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" s="9">
+      <c r="A265" s="10">
         <v>42675</v>
       </c>
-      <c r="B265" s="10">
+      <c r="B265" s="2">
         <v>8.1366322142554626E-2</v>
       </c>
-      <c r="C265" s="3"/>
+      <c r="C265" s="4"/>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266" s="9">
+      <c r="A266" s="10">
         <v>42705</v>
       </c>
-      <c r="B266" s="10">
+      <c r="B266" s="2">
         <v>8.5524440182112194E-2</v>
       </c>
-      <c r="C266" s="3"/>
+      <c r="C266" s="4"/>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267" s="9">
+      <c r="A267" s="10">
         <v>42736</v>
       </c>
-      <c r="B267" s="10">
+      <c r="B267" s="2">
         <v>8.3374527020277533E-2</v>
       </c>
-      <c r="C267" s="3"/>
+      <c r="C267" s="4"/>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268" s="9">
+      <c r="A268" s="10">
         <v>42767</v>
       </c>
-      <c r="B268" s="10">
+      <c r="B268" s="2">
         <v>8.2618737455347563E-2</v>
       </c>
-      <c r="C268" s="3"/>
+      <c r="C268" s="4"/>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269" s="9">
+      <c r="A269" s="10">
         <v>42795</v>
       </c>
-      <c r="B269" s="10">
+      <c r="B269" s="2">
         <v>8.2301802120567966E-2</v>
       </c>
-      <c r="C269" s="3"/>
+      <c r="C269" s="4"/>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" s="9">
+      <c r="A270" s="10">
         <v>42826</v>
       </c>
-      <c r="B270" s="10">
+      <c r="B270" s="2">
         <v>7.9480761202343708E-2</v>
       </c>
-      <c r="C270" s="3"/>
+      <c r="C270" s="4"/>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271" s="9">
+      <c r="A271" s="10">
         <v>42856</v>
       </c>
-      <c r="B271" s="10">
+      <c r="B271" s="2">
         <v>8.3960752894154167E-2</v>
       </c>
-      <c r="C271" s="3"/>
+      <c r="C271" s="4"/>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272" s="9">
+      <c r="A272" s="10">
         <v>42887</v>
       </c>
-      <c r="B272" s="10">
+      <c r="B272" s="2">
         <v>8.2181900156117982E-2</v>
       </c>
-      <c r="C272" s="3"/>
+      <c r="C272" s="4"/>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273" s="9">
+      <c r="A273" s="10">
         <v>42917</v>
       </c>
-      <c r="B273" s="10">
+      <c r="B273" s="2">
         <v>7.8582383645718207E-2</v>
       </c>
-      <c r="C273" s="3"/>
+      <c r="C273" s="4"/>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274" s="9">
+      <c r="A274" s="10">
         <v>42948</v>
       </c>
-      <c r="B274" s="10">
+      <c r="B274" s="2">
         <v>7.3514830121311145E-2</v>
       </c>
-      <c r="C274" s="3"/>
+      <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" s="9">
+      <c r="A275" s="10">
         <v>42979</v>
       </c>
-      <c r="B275" s="10">
+      <c r="B275" s="2">
         <v>7.1798584083836187E-2</v>
       </c>
-      <c r="C275" s="3"/>
+      <c r="C275" s="4"/>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276" s="9">
+      <c r="A276" s="10">
         <v>43009</v>
       </c>
-      <c r="B276" s="10">
+      <c r="B276" s="2">
         <v>7.0893601810297649E-2</v>
       </c>
-      <c r="C276" s="3"/>
+      <c r="C276" s="4"/>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" s="9">
+      <c r="A277" s="10">
         <v>43040</v>
       </c>
-      <c r="B277" s="10">
+      <c r="B277" s="2">
         <v>6.1052757033422195E-2</v>
       </c>
-      <c r="C277" s="3"/>
+      <c r="C277" s="4"/>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278" s="9">
+      <c r="A278" s="10">
         <v>43070</v>
       </c>
-      <c r="B278" s="10">
+      <c r="B278" s="2">
         <v>6.7122786831106646E-2</v>
       </c>
-      <c r="C278" s="3"/>
+      <c r="C278" s="4"/>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279" s="9">
+      <c r="A279" s="10">
         <v>43101</v>
       </c>
-      <c r="B279" s="10">
+      <c r="B279" s="2">
         <v>5.7519098552337958E-2</v>
       </c>
-      <c r="C279" s="3"/>
+      <c r="C279" s="4"/>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280" s="9">
+      <c r="A280" s="10">
         <v>43132</v>
       </c>
-      <c r="B280" s="10">
+      <c r="B280" s="2">
         <v>6.5520472026066215E-2</v>
       </c>
-      <c r="C280" s="3"/>
+      <c r="C280" s="4"/>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" s="9">
+      <c r="A281" s="10">
         <v>43160</v>
       </c>
-      <c r="B281" s="10">
+      <c r="B281" s="2">
         <v>7.2125770364620007E-2</v>
       </c>
-      <c r="C281" s="3"/>
+      <c r="C281" s="4"/>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282" s="9">
+      <c r="A282" s="10">
         <v>43191</v>
       </c>
-      <c r="B282" s="10">
+      <c r="B282" s="2">
         <v>6.4064244291655609E-2</v>
       </c>
-      <c r="C282" s="3"/>
+      <c r="C282" s="4"/>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" s="9">
+      <c r="A283" s="10">
         <v>43221</v>
       </c>
-      <c r="B283" s="10">
+      <c r="B283" s="2">
         <v>7.1824635819149038E-2</v>
       </c>
-      <c r="C283" s="3"/>
+      <c r="C283" s="4"/>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A284" s="9">
+      <c r="A284" s="10">
         <v>43252</v>
       </c>
-      <c r="B284" s="10">
+      <c r="B284" s="2">
         <v>7.9775179773577412E-2</v>
       </c>
-      <c r="C284" s="3"/>
+      <c r="C284" s="4"/>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285" s="9">
+      <c r="A285" s="10">
         <v>43282</v>
       </c>
-      <c r="B285" s="10">
+      <c r="B285" s="2">
         <v>9.1939861515753868E-2</v>
       </c>
-      <c r="C285" s="3"/>
+      <c r="C285" s="4"/>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286" s="9">
+      <c r="A286" s="10">
         <v>43313</v>
       </c>
-      <c r="B286" s="10">
+      <c r="B286" s="2">
         <v>0.10101989540599204</v>
       </c>
-      <c r="C286" s="3"/>
+      <c r="C286" s="4"/>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287" s="9">
+      <c r="A287" s="10">
         <v>43344</v>
       </c>
-      <c r="B287" s="10">
+      <c r="B287" s="2">
         <v>0.10496376393363561</v>
       </c>
-      <c r="C287" s="3"/>
+      <c r="C287" s="4"/>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" s="9">
+      <c r="A288" s="10">
         <v>43374</v>
       </c>
-      <c r="B288" s="10">
+      <c r="B288" s="2">
         <v>6.866534805367612E-2</v>
       </c>
-      <c r="C288" s="3"/>
+      <c r="C288" s="4"/>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A289" s="9">
+      <c r="A289" s="10">
         <v>43405</v>
       </c>
-      <c r="B289" s="10">
+      <c r="B289" s="2">
         <v>7.7599591244769228E-2</v>
       </c>
-      <c r="C289" s="3"/>
+      <c r="C289" s="4"/>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290" s="9">
+      <c r="A290" s="10">
         <v>43435</v>
       </c>
-      <c r="B290" s="10">
+      <c r="B290" s="2">
         <v>7.6296518904752947E-2</v>
       </c>
-      <c r="C290" s="3"/>
+      <c r="C290" s="4"/>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A291" s="9">
+      <c r="A291" s="10">
         <v>43466</v>
       </c>
-      <c r="B291" s="10">
+      <c r="B291" s="2">
         <v>7.1150211864005483E-2</v>
       </c>
-      <c r="C291" s="3"/>
+      <c r="C291" s="4"/>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292" s="9">
+      <c r="A292" s="10">
         <v>43497</v>
       </c>
-      <c r="B292" s="10">
+      <c r="B292" s="2">
         <v>7.4978703434071342E-2</v>
       </c>
-      <c r="C292" s="3"/>
+      <c r="C292" s="4"/>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A293" s="9">
+      <c r="A293" s="10">
         <v>43525</v>
       </c>
-      <c r="B293" s="10">
+      <c r="B293" s="2">
         <v>8.1082222580664831E-2</v>
       </c>
-      <c r="C293" s="3"/>
+      <c r="C293" s="4"/>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294" s="9">
+      <c r="A294" s="10">
         <v>43556</v>
       </c>
-      <c r="B294" s="10">
+      <c r="B294" s="2">
         <v>8.0864791172512426E-2</v>
       </c>
-      <c r="C294" s="3"/>
+      <c r="C294" s="4"/>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A295" s="9">
+      <c r="A295" s="10">
         <v>43586</v>
       </c>
-      <c r="B295" s="10">
+      <c r="B295" s="2">
         <v>8.7764304038109517E-2</v>
       </c>
-      <c r="C295" s="3"/>
+      <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A296" s="9">
+      <c r="A296" s="10">
         <v>43617</v>
       </c>
-      <c r="B296" s="10">
+      <c r="B296" s="2">
         <v>8.5839178787788323E-2</v>
       </c>
-      <c r="C296" s="3"/>
+      <c r="C296" s="4"/>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297" s="9">
+      <c r="A297" s="10">
         <v>43647</v>
       </c>
-      <c r="B297" s="10">
+      <c r="B297" s="2">
         <v>8.9544717916765409E-2</v>
       </c>
-      <c r="C297" s="3"/>
+      <c r="C297" s="4"/>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298" s="9">
+      <c r="A298" s="10">
         <v>43678</v>
       </c>
-      <c r="B298" s="10">
+      <c r="B298" s="2">
         <v>9.687272744274146E-2</v>
       </c>
-      <c r="C298" s="3"/>
+      <c r="C298" s="4"/>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299" s="9">
+      <c r="A299" s="10">
         <v>43709</v>
       </c>
-      <c r="B299" s="10">
+      <c r="B299" s="2">
         <v>9.4565670394992141E-2</v>
       </c>
-      <c r="C299" s="3"/>
+      <c r="C299" s="4"/>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A300" s="9">
+      <c r="A300" s="10">
         <v>43739</v>
       </c>
-      <c r="B300" s="10">
+      <c r="B300" s="2">
         <v>9.5998871332297536E-2</v>
       </c>
-      <c r="C300" s="3"/>
+      <c r="C300" s="4"/>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A301" s="9">
+      <c r="A301" s="10">
         <v>43770</v>
       </c>
-      <c r="B301" s="10">
+      <c r="B301" s="2">
         <v>9.0410180385752506E-2</v>
       </c>
-      <c r="C301" s="3"/>
+      <c r="C301" s="4"/>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A302" s="9">
+      <c r="A302" s="10">
         <v>43800</v>
       </c>
-      <c r="B302" s="10">
+      <c r="B302" s="2">
         <v>8.0346430039285821E-2</v>
       </c>
-      <c r="C302" s="3"/>
+      <c r="C302" s="4"/>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A303" s="9">
+      <c r="A303" s="10">
         <v>43831</v>
       </c>
-      <c r="B303" s="10">
+      <c r="B303" s="2">
         <v>8.8138805128154862E-2</v>
       </c>
-      <c r="C303" s="3"/>
+      <c r="C303" s="4"/>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A304" s="9">
+      <c r="A304" s="10">
         <v>43862</v>
       </c>
-      <c r="B304" s="10">
+      <c r="B304" s="2">
         <v>9.3984258626188408E-2</v>
       </c>
-      <c r="C304" s="3"/>
+      <c r="C304" s="4"/>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305" s="9">
+      <c r="A305" s="10">
         <v>43891</v>
       </c>
-      <c r="B305" s="10">
+      <c r="B305" s="2">
         <v>0.11444455602995118</v>
       </c>
-      <c r="C305" s="3"/>
+      <c r="C305" s="4"/>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A306" s="9">
+      <c r="A306" s="10">
         <v>43922</v>
       </c>
-      <c r="B306" s="10">
+      <c r="B306" s="2">
         <v>0.11883485001315314</v>
       </c>
-      <c r="C306" s="3"/>
+      <c r="C306" s="4"/>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A307" s="9">
+      <c r="A307" s="10">
         <v>43952</v>
       </c>
-      <c r="B307" s="10">
+      <c r="B307" s="2">
         <v>0.10802006518576782</v>
       </c>
-      <c r="C307" s="3"/>
+      <c r="C307" s="4"/>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308" s="9">
+      <c r="A308" s="10">
         <v>43983</v>
       </c>
-      <c r="B308" s="10">
+      <c r="B308" s="2">
         <v>0.10150000000000001</v>
       </c>
-      <c r="C308" s="3"/>
+      <c r="C308" s="4"/>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309" s="9">
+      <c r="A309" s="10">
         <v>44013</v>
       </c>
-      <c r="B309" s="10">
+      <c r="B309" s="2">
         <v>0.10394071190796175</v>
       </c>
-      <c r="C309" s="3"/>
+      <c r="C309" s="4"/>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310" s="9">
+      <c r="A310" s="10">
         <v>44044</v>
       </c>
-      <c r="B310" s="10">
+      <c r="B310" s="2">
         <v>9.8747906968658955E-2</v>
       </c>
-      <c r="C310" s="3"/>
+      <c r="C310" s="4"/>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311" s="9">
+      <c r="A311" s="10">
         <v>44075</v>
       </c>
-      <c r="B311" s="10">
+      <c r="B311" s="2">
         <v>0.10280377344670942</v>
       </c>
-      <c r="C311" s="3"/>
+      <c r="C311" s="4"/>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A312" s="9">
+      <c r="A312" s="10">
         <v>44105</v>
       </c>
-      <c r="B312" s="10">
+      <c r="B312" s="2">
         <v>0.1003081555378784</v>
       </c>
-      <c r="C312" s="3"/>
+      <c r="C312" s="4"/>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A313" s="9">
+      <c r="A313" s="10">
         <v>44136</v>
       </c>
-      <c r="B313" s="10">
+      <c r="B313" s="2">
         <v>9.4781090636132159E-2</v>
       </c>
-      <c r="C313" s="3"/>
+      <c r="C313" s="4"/>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314" s="9">
+      <c r="A314" s="10">
         <v>44166</v>
       </c>
-      <c r="B314" s="10">
+      <c r="B314" s="2">
         <v>9.9688114787269883E-2</v>
       </c>
-      <c r="C314" s="3"/>
+      <c r="C314" s="4"/>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A315" s="9">
+      <c r="A315" s="10">
         <v>44197</v>
       </c>
-      <c r="B315" s="10">
+      <c r="B315" s="2">
         <v>0.10345953791176479</v>
       </c>
-      <c r="C315" s="3"/>
+      <c r="C315" s="4"/>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316" s="9">
+      <c r="A316" s="10">
         <v>44228</v>
       </c>
-      <c r="B316" s="10">
+      <c r="B316" s="2">
         <v>9.9036976535253174E-2</v>
       </c>
-      <c r="C316" s="3"/>
+      <c r="C316" s="4"/>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A317" s="9">
+      <c r="A317" s="10">
         <v>44256</v>
       </c>
-      <c r="B317" s="10">
+      <c r="B317" s="2">
         <v>0.11202004609682872</v>
       </c>
-      <c r="C317" s="3"/>
+      <c r="C317" s="4"/>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A318" s="9">
+      <c r="A318" s="10">
         <v>44287</v>
       </c>
-      <c r="B318" s="10">
+      <c r="B318" s="2">
         <v>0.1105</v>
       </c>
-      <c r="C318" s="3"/>
+      <c r="C318" s="4"/>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A319" s="9">
+      <c r="A319" s="10">
         <v>44317</v>
       </c>
-      <c r="B319" s="10">
+      <c r="B319" s="2">
         <v>0.103756060197642</v>
       </c>
-      <c r="C319" s="3"/>
+      <c r="C319" s="4"/>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A320" s="9">
+      <c r="A320" s="10">
         <v>44348</v>
       </c>
-      <c r="B320" s="10">
+      <c r="B320" s="2">
         <v>0.11288777024068533</v>
       </c>
-      <c r="C320" s="3"/>
+      <c r="C320" s="4"/>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A321" s="9">
+      <c r="A321" s="10">
         <v>44378</v>
       </c>
-      <c r="B321" s="10">
+      <c r="B321" s="2">
         <v>0.1217</v>
       </c>
-      <c r="C321" s="3"/>
+      <c r="C321" s="4"/>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A322" s="9">
+      <c r="A322" s="10">
         <v>44409</v>
       </c>
-      <c r="B322" s="10">
+      <c r="B322" s="2">
         <v>0.11860470570232673</v>
       </c>
-      <c r="C322" s="3"/>
+      <c r="C322" s="4"/>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A323" s="9">
+      <c r="A323" s="10">
         <v>44440</v>
       </c>
-      <c r="B323" s="10">
+      <c r="B323" s="2">
         <v>0.15321467349306883</v>
       </c>
-      <c r="C323" s="3"/>
+      <c r="C323" s="4"/>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A324" s="9">
+      <c r="A324" s="10">
         <v>44470</v>
       </c>
-      <c r="B324" s="10">
+      <c r="B324" s="2">
         <v>0.1565</v>
       </c>
-      <c r="C324" s="3"/>
+      <c r="C324" s="4"/>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325" s="9">
+      <c r="A325" s="10">
         <v>44501</v>
       </c>
-      <c r="B325" s="10">
+      <c r="B325" s="2">
         <v>0.15480116295464194</v>
       </c>
-      <c r="C325" s="3"/>
+      <c r="C325" s="4"/>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A326" s="9">
+      <c r="A326" s="10">
         <v>44531</v>
       </c>
-      <c r="B326" s="10">
+      <c r="B326" s="2">
         <v>0.18086975473681763</v>
       </c>
-      <c r="C326" s="3"/>
+      <c r="C326" s="4"/>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327" s="9">
+      <c r="A327" s="10">
         <v>44562</v>
       </c>
-      <c r="B327" s="10">
+      <c r="B327" s="2">
         <v>0.15203711549166959</v>
       </c>
-      <c r="C327" s="3"/>
+      <c r="C327" s="4"/>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A328" s="9">
+      <c r="A328" s="10">
         <v>44593</v>
       </c>
-      <c r="B328" s="10">
+      <c r="B328" s="2">
         <v>0.15045086518646858</v>
       </c>
-      <c r="C328" s="3"/>
+      <c r="C328" s="4"/>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A329" s="9">
+      <c r="A329" s="10">
         <v>44621</v>
       </c>
-      <c r="B329" s="10">
+      <c r="B329" s="2">
         <v>0.13402699778646815</v>
       </c>
-      <c r="C329" s="3"/>
+      <c r="C329" s="4"/>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A330" s="9">
+      <c r="A330" s="10">
         <v>44652</v>
       </c>
-      <c r="B330" s="10">
+      <c r="B330" s="2">
         <v>0.13661550466927599</v>
       </c>
-      <c r="C330" s="3"/>
+      <c r="C330" s="4"/>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A331" s="9">
+      <c r="A331" s="10">
         <v>44682</v>
       </c>
-      <c r="B331" s="10">
+      <c r="B331" s="2">
         <v>0.1321</v>
       </c>
-      <c r="C331" s="3"/>
+      <c r="C331" s="4"/>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A332" s="9">
+      <c r="A332" s="10">
         <v>44713</v>
       </c>
-      <c r="B332" s="10">
+      <c r="B332" s="2">
         <v>0.16510000000000002</v>
       </c>
-      <c r="C332" s="3"/>
+      <c r="C332" s="4"/>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A333" s="9">
+      <c r="A333" s="10">
         <v>44743</v>
       </c>
-      <c r="B333" s="10">
+      <c r="B333" s="2">
         <v>0.1585</v>
       </c>
-      <c r="C333" s="3"/>
+      <c r="C333" s="4"/>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A334" s="9">
+      <c r="A334" s="10">
         <v>44774</v>
       </c>
-      <c r="B334" s="10">
+      <c r="B334" s="2">
         <v>0.1331</v>
       </c>
-      <c r="C334" s="3"/>
+      <c r="C334" s="4"/>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A335" s="9">
+      <c r="A335" s="10">
         <v>44805</v>
       </c>
-      <c r="B335" s="10">
+      <c r="B335" s="2">
         <v>0.14630000000000001</v>
       </c>
-      <c r="C335" s="3"/>
+      <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A336" s="9">
+      <c r="A336" s="10">
         <v>44835</v>
       </c>
-      <c r="B336" s="10">
+      <c r="B336" s="2">
         <v>0.1197</v>
       </c>
-      <c r="C336" s="3"/>
+      <c r="C336" s="4"/>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A337" s="9">
+      <c r="A337" s="10">
         <v>44866</v>
       </c>
-      <c r="B337" s="10">
+      <c r="B337" s="2">
         <v>0.1177</v>
       </c>
-      <c r="C337" s="3"/>
+      <c r="C337" s="4"/>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A338" s="9">
+      <c r="A338" s="10">
         <v>44896</v>
       </c>
-      <c r="B338" s="10">
+      <c r="B338" s="2">
         <v>0.1172183756433729</v>
       </c>
-      <c r="C338" s="3"/>
+      <c r="C338" s="4"/>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A339" s="9">
+      <c r="A339" s="10">
         <v>44927</v>
       </c>
-      <c r="B339" s="10">
+      <c r="B339" s="2">
         <v>0.112566</v>
       </c>
-      <c r="C339" s="3"/>
+      <c r="C339" s="4"/>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A340" s="9">
+      <c r="A340" s="10">
         <v>44958</v>
       </c>
-      <c r="B340" s="10">
+      <c r="B340" s="2">
         <v>0.10406600000000001</v>
       </c>
-      <c r="C340" s="3"/>
+      <c r="C340" s="4"/>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A341" s="9">
+      <c r="A341" s="10">
         <v>44986</v>
       </c>
-      <c r="B341" s="10">
+      <c r="B341" s="2">
         <v>0.100060632666334</v>
       </c>
-      <c r="C341" s="3"/>
+      <c r="C341" s="4"/>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A342" s="9">
+      <c r="A342" s="10">
         <v>45017</v>
       </c>
-      <c r="B342" s="10">
+      <c r="B342" s="2">
         <v>9.7161250237506505E-2</v>
       </c>
-      <c r="C342" s="3"/>
+      <c r="C342" s="4"/>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A343" s="9">
+      <c r="A343" s="10">
         <v>45047</v>
       </c>
-      <c r="B343" s="10">
+      <c r="B343" s="2">
         <v>9.6838061660370997E-2</v>
       </c>
-      <c r="C343" s="3"/>
+      <c r="C343" s="4"/>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A344" s="9">
+      <c r="A344" s="10">
         <v>45078</v>
       </c>
-      <c r="B344" s="10">
+      <c r="B344" s="2">
         <v>8.4097029271563706E-2</v>
       </c>
-      <c r="C344" s="3"/>
+      <c r="C344" s="4"/>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A345" s="9">
+      <c r="A345" s="10">
         <v>45108</v>
       </c>
-      <c r="B345" s="10">
+      <c r="B345" s="2">
         <v>7.9421854001553702E-2</v>
       </c>
-      <c r="C345" s="3"/>
+      <c r="C345" s="4"/>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A346" s="9">
+      <c r="A346" s="10">
         <v>45139</v>
       </c>
-      <c r="B346" s="10">
+      <c r="B346" s="2">
         <v>8.8703735811575105E-2</v>
       </c>
-      <c r="C346" s="3"/>
-      <c r="D346" s="3"/>
+      <c r="C346" s="4"/>
+      <c r="D346" s="4"/>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A347" s="9">
+      <c r="A347" s="10">
         <v>45170</v>
       </c>
-      <c r="B347" s="10">
+      <c r="B347" s="2">
         <v>8.69610556503468E-2</v>
       </c>
-      <c r="C347" s="3"/>
+      <c r="C347" s="4"/>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A348" s="9">
+      <c r="A348" s="10">
         <v>45200</v>
       </c>
-      <c r="B348" s="10">
+      <c r="B348" s="2">
         <v>8.5154952330852907E-2</v>
       </c>
-      <c r="C348" s="3"/>
+      <c r="C348" s="4"/>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A349" s="9">
+      <c r="A349" s="10">
         <v>45231</v>
       </c>
-      <c r="B349" s="10">
+      <c r="B349" s="2">
         <v>9.2767735220062306E-2</v>
       </c>
-      <c r="C349" s="3"/>
+      <c r="C349" s="4"/>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A350" s="9">
+      <c r="A350" s="10">
         <v>45261</v>
       </c>
-      <c r="B350" s="10">
+      <c r="B350" s="2">
         <v>8.8146226677963901E-2</v>
       </c>
-      <c r="C350" s="3"/>
+      <c r="C350" s="4"/>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A351" s="9">
+      <c r="A351" s="10">
         <v>45292</v>
       </c>
-      <c r="B351" s="10">
+      <c r="B351" s="2">
         <v>8.25555271465966E-2</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B352" s="4"/>
-      <c r="C352" s="3"/>
+      <c r="A352" s="10">
+        <v>45323</v>
+      </c>
+      <c r="B352" s="2">
+        <v>8.3559126164475694E-2</v>
+      </c>
+      <c r="C352" s="4"/>
     </row>
     <row r="353" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B353" s="4"/>
-      <c r="C353" s="3"/>
+      <c r="B353" s="5"/>
+      <c r="C353" s="4"/>
     </row>
     <row r="354" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B354" s="5"/>
-      <c r="C354" s="3"/>
+      <c r="B354" s="6"/>
+      <c r="C354" s="4"/>
     </row>
     <row r="355" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C355" s="3"/>
+      <c r="C355" s="4"/>
     </row>
     <row r="356" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C356" s="3"/>
+      <c r="C356" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:B2" xr:uid="{00000000-0001-0000-0000-000000000000}">

--- a/Database/Serie de Equity Risk Premium.xlsx
+++ b/Database/Serie de Equity Risk Premium.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bteba\Documents\GitHub\ERP\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBAEF68-873D-4799-AADA-0E6151EF88D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C52CCE1-64BD-44FD-803C-788EFE0E88ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,9 +43,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -101,9 +98,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -111,16 +111,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -246,10 +239,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Planilha1!$A$3:$A$380</c:f>
+              <c:f>Planilha1!$A$3:$A$379</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="378"/>
+                <c:ptCount val="377"/>
                 <c:pt idx="0">
                   <c:v>34700</c:v>
                 </c:pt>
@@ -1299,16 +1292,22 @@
                 </c:pt>
                 <c:pt idx="349">
                   <c:v>45323</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>45352</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>45383</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$B$3:$B$380</c:f>
+              <c:f>Planilha1!$B$3:$B$379</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="378"/>
+                <c:ptCount val="377"/>
                 <c:pt idx="0">
                   <c:v>3.5906071097335332E-2</c:v>
                 </c:pt>
@@ -2358,6 +2357,12 @@
                 </c:pt>
                 <c:pt idx="349">
                   <c:v>8.3559126164475694E-2</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>8.6001011589843995E-2</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>8.2095674612073302E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3439,10 +3444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:RX356"/>
+  <dimension ref="A1:RX355"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3459,10 +3464,10 @@
       </c>
     </row>
     <row r="2" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="CG2" s="1"/>
@@ -3498,13 +3503,13 @@
       <c r="RX2" s="1"/>
     </row>
     <row r="3" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="2">
         <v>34700</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>3.5906071097335332E-2</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="5"/>
       <c r="CG3" s="1"/>
       <c r="CH3" s="1"/>
       <c r="CI3" s="1"/>
@@ -3536,13 +3541,13 @@
       <c r="RX3" s="1"/>
     </row>
     <row r="4" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="2">
         <v>34731</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>4.641371511935781E-2</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="5"/>
       <c r="CG4" s="1"/>
       <c r="CH4" s="1"/>
       <c r="CI4" s="1"/>
@@ -3574,13 +3579,13 @@
       <c r="RX4" s="1"/>
     </row>
     <row r="5" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="2">
         <v>34759</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>6.8188691890601116E-2</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="5"/>
       <c r="CG5" s="1"/>
       <c r="CH5" s="1"/>
       <c r="CI5" s="1"/>
@@ -3611,13 +3616,13 @@
       <c r="RX5" s="1"/>
     </row>
     <row r="6" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="2">
         <v>34790</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>9.0011601145643869E-2</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="5"/>
       <c r="CG6" s="1"/>
       <c r="CH6" s="1"/>
       <c r="CI6" s="1"/>
@@ -3646,13 +3651,13 @@
       <c r="RM6" s="1"/>
     </row>
     <row r="7" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="2">
         <v>34820</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>9.9496073670305801E-2</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="5"/>
       <c r="CG7" s="1"/>
       <c r="CH7" s="1"/>
       <c r="CI7" s="1"/>
@@ -3680,13 +3685,13 @@
       <c r="RM7" s="1"/>
     </row>
     <row r="8" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="2">
         <v>34851</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>0.11863771466397069</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="5"/>
       <c r="CG8" s="1"/>
       <c r="CH8" s="1"/>
       <c r="CI8" s="1"/>
@@ -3714,13 +3719,13 @@
       <c r="RM8" s="1"/>
     </row>
     <row r="9" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="2">
         <v>34881</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>0.1181146572660678</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="5"/>
       <c r="CG9" s="1"/>
       <c r="CH9" s="1"/>
       <c r="CI9" s="1"/>
@@ -3738,13 +3743,13 @@
       <c r="RM9" s="1"/>
     </row>
     <row r="10" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="2">
         <v>34912</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>0.11925440378813899</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="5"/>
       <c r="CG10" s="1"/>
       <c r="CH10" s="1"/>
       <c r="CI10" s="1"/>
@@ -3761,13 +3766,13 @@
       <c r="RM10" s="1"/>
     </row>
     <row r="11" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="2">
         <v>34943</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>8.0427229515112636E-2</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="5"/>
       <c r="CG11" s="1"/>
       <c r="CH11" s="1"/>
       <c r="CI11" s="1"/>
@@ -3784,13 +3789,13 @@
       <c r="RM11" s="1"/>
     </row>
     <row r="12" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="2">
         <v>34973</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>9.2888414728135582E-2</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="5"/>
       <c r="CG12" s="1"/>
       <c r="CH12" s="1"/>
       <c r="CI12" s="1"/>
@@ -3806,13 +3811,13 @@
       <c r="RM12" s="1"/>
     </row>
     <row r="13" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="A13" s="2">
         <v>35004</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>0.10118496200041718</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="5"/>
       <c r="CG13" s="1"/>
       <c r="CH13" s="1"/>
       <c r="CI13" s="1"/>
@@ -3828,13 +3833,13 @@
       <c r="RM13" s="1"/>
     </row>
     <row r="14" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+      <c r="A14" s="2">
         <v>35034</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>0.10732542683580969</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="5"/>
       <c r="CG14" s="1"/>
       <c r="CH14" s="1"/>
       <c r="CI14" s="1"/>
@@ -3848,13 +3853,13 @@
       <c r="OY14" s="1"/>
     </row>
     <row r="15" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="A15" s="2">
         <v>35065</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>9.1621260099534085E-2</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="5"/>
       <c r="CG15" s="1"/>
       <c r="CH15" s="1"/>
       <c r="CI15" s="1"/>
@@ -3868,731 +3873,731 @@
       <c r="OY15" s="1"/>
     </row>
     <row r="16" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="A16" s="2">
         <v>35096</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>8.4905503970074639E-2</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="5"/>
       <c r="CP16" s="1"/>
     </row>
     <row r="17" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="A17" s="2">
         <v>35125</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <v>0.10049276040389069</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="5"/>
       <c r="CP17" s="1"/>
     </row>
     <row r="18" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="A18" s="2">
         <v>35156</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3">
         <v>9.6531384813158941E-2</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="5"/>
       <c r="CP18" s="1"/>
     </row>
     <row r="19" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="A19" s="2">
         <v>35186</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <v>9.5088188666882692E-2</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="5"/>
       <c r="CP19" s="1"/>
     </row>
     <row r="20" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="A20" s="2">
         <v>35217</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="3">
         <v>9.0796583575804307E-2</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="5"/>
       <c r="CP20" s="1"/>
     </row>
     <row r="21" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+      <c r="A21" s="2">
         <v>35247</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="3">
         <v>9.2623876599203819E-2</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="5"/>
       <c r="CP21" s="1"/>
     </row>
     <row r="22" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+      <c r="A22" s="2">
         <v>35278</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="3">
         <v>9.1099901245860898E-2</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="5"/>
       <c r="CP22" s="1"/>
     </row>
     <row r="23" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
+      <c r="A23" s="2">
         <v>35309</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="3">
         <v>9.2854806609296375E-2</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="5"/>
       <c r="CP23" s="1"/>
     </row>
     <row r="24" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
+      <c r="A24" s="2">
         <v>35339</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="3">
         <v>0.10127373741409153</v>
       </c>
-      <c r="C24" s="4"/>
+      <c r="C24" s="5"/>
       <c r="CP24" s="1"/>
     </row>
     <row r="25" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
+      <c r="A25" s="2">
         <v>35370</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="3">
         <v>0.10142804442282341</v>
       </c>
-      <c r="C25" s="4"/>
+      <c r="C25" s="5"/>
       <c r="CP25" s="1"/>
     </row>
     <row r="26" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
+      <c r="A26" s="2">
         <v>35400</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="3">
         <v>9.9700000278104189E-2</v>
       </c>
-      <c r="C26" s="4"/>
+      <c r="C26" s="5"/>
       <c r="CP26" s="1"/>
     </row>
     <row r="27" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
+      <c r="A27" s="2">
         <v>35431</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="3">
         <v>9.7052332691215076E-2</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="5"/>
       <c r="CP27" s="1"/>
     </row>
     <row r="28" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
+      <c r="A28" s="2">
         <v>35462</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="3">
         <v>9.1057142830797522E-2</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="5"/>
       <c r="CP28" s="1"/>
     </row>
     <row r="29" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
+      <c r="A29" s="2">
         <v>35490</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="3">
         <v>8.6177248797735806E-2</v>
       </c>
-      <c r="C29" s="4"/>
+      <c r="C29" s="5"/>
       <c r="CP29" s="1"/>
     </row>
     <row r="30" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
+      <c r="A30" s="2">
         <v>35521</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="3">
         <v>8.5066948095953776E-2</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
+      <c r="C30" s="5"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
       <c r="CP30" s="1"/>
     </row>
     <row r="31" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
+      <c r="A31" s="2">
         <v>35551</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="3">
         <v>9.7288837160340563E-2</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
+      <c r="C31" s="5"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
       <c r="CP31" s="1"/>
     </row>
     <row r="32" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
+      <c r="A32" s="2">
         <v>35582</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="3">
         <v>9.6957468174919514E-2</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
+      <c r="C32" s="5"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
       <c r="CP32" s="1"/>
     </row>
     <row r="33" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
+      <c r="A33" s="2">
         <v>35612</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="3">
         <v>9.8258192485687817E-2</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
+      <c r="C33" s="5"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
       <c r="CP33" s="1"/>
     </row>
     <row r="34" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A34" s="10">
+      <c r="A34" s="2">
         <v>35643</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="3">
         <v>0.10071108991221206</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="L34" s="9"/>
+      <c r="C34" s="5"/>
+      <c r="L34" s="8"/>
       <c r="CP34" s="1"/>
     </row>
     <row r="35" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A35" s="10">
+      <c r="A35" s="2">
         <v>35674</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="3">
         <v>9.4101292650451321E-2</v>
       </c>
-      <c r="C35" s="4"/>
+      <c r="C35" s="5"/>
       <c r="CP35" s="1"/>
     </row>
     <row r="36" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A36" s="10">
+      <c r="A36" s="2">
         <v>35704</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="3">
         <v>0.1022443853346008</v>
       </c>
-      <c r="C36" s="4"/>
+      <c r="C36" s="5"/>
       <c r="CP36" s="1"/>
     </row>
     <row r="37" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A37" s="10">
+      <c r="A37" s="2">
         <v>35735</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="3">
         <v>0.11673503599412813</v>
       </c>
-      <c r="C37" s="4"/>
+      <c r="C37" s="5"/>
       <c r="CP37" s="1"/>
     </row>
     <row r="38" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A38" s="10">
+      <c r="A38" s="2">
         <v>35765</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="3">
         <v>0.12868892588777975</v>
       </c>
-      <c r="C38" s="4"/>
+      <c r="C38" s="5"/>
       <c r="CP38" s="1"/>
     </row>
     <row r="39" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A39" s="10">
+      <c r="A39" s="2">
         <v>35796</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="3">
         <v>0.13246738378006745</v>
       </c>
-      <c r="C39" s="4"/>
+      <c r="C39" s="5"/>
       <c r="CP39" s="1"/>
     </row>
     <row r="40" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A40" s="10">
+      <c r="A40" s="2">
         <v>35827</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="3">
         <v>0.12192540989307418</v>
       </c>
-      <c r="C40" s="4"/>
+      <c r="C40" s="5"/>
       <c r="CP40" s="1"/>
     </row>
     <row r="41" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A41" s="10">
+      <c r="A41" s="2">
         <v>35855</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="3">
         <v>0.11858185629167939</v>
       </c>
-      <c r="C41" s="4"/>
+      <c r="C41" s="5"/>
       <c r="CP41" s="1"/>
     </row>
     <row r="42" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A42" s="10">
+      <c r="A42" s="2">
         <v>35886</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="3">
         <v>0.11009539820274278</v>
       </c>
-      <c r="C42" s="4"/>
+      <c r="C42" s="5"/>
       <c r="CP42" s="1"/>
     </row>
     <row r="43" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A43" s="10">
+      <c r="A43" s="2">
         <v>35916</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="3">
         <v>0.14815671762109539</v>
       </c>
-      <c r="C43" s="4"/>
+      <c r="C43" s="5"/>
       <c r="CP43" s="1"/>
     </row>
     <row r="44" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A44" s="10">
+      <c r="A44" s="2">
         <v>35947</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="3">
         <v>0.16414072309545738</v>
       </c>
-      <c r="C44" s="4"/>
+      <c r="C44" s="5"/>
       <c r="CP44" s="1"/>
     </row>
     <row r="45" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A45" s="10">
+      <c r="A45" s="2">
         <v>35977</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="3">
         <v>0.15684487547919845</v>
       </c>
-      <c r="C45" s="4"/>
+      <c r="C45" s="5"/>
       <c r="CP45" s="1"/>
     </row>
     <row r="46" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A46" s="10">
+      <c r="A46" s="2">
         <v>36008</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="3">
         <v>0.20761986410571115</v>
       </c>
-      <c r="C46" s="4"/>
+      <c r="C46" s="5"/>
       <c r="CP46" s="1"/>
     </row>
     <row r="47" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A47" s="10">
+      <c r="A47" s="2">
         <v>36039</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="3">
         <v>0.26488372425157419</v>
       </c>
-      <c r="C47" s="4"/>
+      <c r="C47" s="5"/>
       <c r="CP47" s="1"/>
     </row>
     <row r="48" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A48" s="10">
+      <c r="A48" s="2">
         <v>36069</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="3">
         <v>0.27386908893169182</v>
       </c>
-      <c r="C48" s="4"/>
+      <c r="C48" s="5"/>
       <c r="CP48" s="1"/>
     </row>
     <row r="49" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A49" s="10">
+      <c r="A49" s="2">
         <v>36100</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="3">
         <v>0.23368482800820384</v>
       </c>
-      <c r="C49" s="4"/>
+      <c r="C49" s="5"/>
       <c r="CP49" s="1"/>
     </row>
     <row r="50" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A50" s="10">
+      <c r="A50" s="2">
         <v>36130</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="3">
         <v>0.19728157436806892</v>
       </c>
-      <c r="C50" s="4"/>
+      <c r="C50" s="5"/>
       <c r="CP50" s="1"/>
     </row>
     <row r="51" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A51" s="10">
+      <c r="A51" s="2">
         <v>36161</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="3">
         <v>0.18849719620951449</v>
       </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="7"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="6"/>
       <c r="CP51" s="1"/>
     </row>
     <row r="52" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A52" s="10">
+      <c r="A52" s="2">
         <v>36192</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="3">
         <v>0.17879547863724937</v>
       </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="7"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="6"/>
       <c r="CP52" s="1"/>
     </row>
     <row r="53" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A53" s="10">
+      <c r="A53" s="2">
         <v>36220</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="3">
         <v>0.19521218246374467</v>
       </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="7"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="6"/>
       <c r="CP53" s="1"/>
     </row>
     <row r="54" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A54" s="10">
+      <c r="A54" s="2">
         <v>36251</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="3">
         <v>0.17667737273699313</v>
       </c>
-      <c r="C54" s="4"/>
-      <c r="D54" s="7"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="6"/>
       <c r="CP54" s="1"/>
     </row>
     <row r="55" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A55" s="10">
+      <c r="A55" s="2">
         <v>36281</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="3">
         <v>0.17240854293261376</v>
       </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="7"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="6"/>
       <c r="CP55" s="1"/>
     </row>
     <row r="56" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A56" s="10">
+      <c r="A56" s="2">
         <v>36312</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="3">
         <v>0.15905547118167043</v>
       </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="7"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="6"/>
       <c r="CP56" s="1"/>
     </row>
     <row r="57" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A57" s="10">
+      <c r="A57" s="2">
         <v>36342</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="3">
         <v>0.15865389804394955</v>
       </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="7"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="6"/>
       <c r="CP57" s="1"/>
     </row>
     <row r="58" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A58" s="10">
+      <c r="A58" s="2">
         <v>36373</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="3">
         <v>0.15275419272689961</v>
       </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="7"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="6"/>
       <c r="CP58" s="1"/>
     </row>
     <row r="59" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A59" s="10">
+      <c r="A59" s="2">
         <v>36404</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="3">
         <v>0.13159865421370617</v>
       </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="7"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="6"/>
       <c r="CP59" s="1"/>
     </row>
     <row r="60" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A60" s="10">
+      <c r="A60" s="2">
         <v>36434</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="3">
         <v>0.12196728595845485</v>
       </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="7"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="6"/>
       <c r="CP60" s="1"/>
     </row>
     <row r="61" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A61" s="10">
+      <c r="A61" s="2">
         <v>36465</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="3">
         <v>0.10437517943413213</v>
       </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="7"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="6"/>
       <c r="CP61" s="1"/>
     </row>
     <row r="62" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A62" s="10">
+      <c r="A62" s="2">
         <v>36495</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="3">
         <v>8.4895285767080067E-2</v>
       </c>
-      <c r="C62" s="4"/>
-      <c r="D62" s="7"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="6"/>
       <c r="CP62" s="1"/>
     </row>
     <row r="63" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A63" s="10">
+      <c r="A63" s="2">
         <v>36526</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="3">
         <v>8.0964220165040707E-2</v>
       </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="7"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="6"/>
       <c r="CP63" s="1"/>
     </row>
     <row r="64" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A64" s="10">
+      <c r="A64" s="2">
         <v>36557</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="3">
         <v>8.5143819747368649E-2</v>
       </c>
-      <c r="C64" s="4"/>
-      <c r="D64" s="7"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="6"/>
       <c r="CP64" s="1"/>
     </row>
     <row r="65" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A65" s="10">
+      <c r="A65" s="2">
         <v>36586</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="3">
         <v>9.4432793059799777E-2</v>
       </c>
-      <c r="C65" s="4"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
       <c r="CP65" s="1"/>
     </row>
     <row r="66" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A66" s="10">
+      <c r="A66" s="2">
         <v>36617</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="3">
         <v>0.1068984082862578</v>
       </c>
-      <c r="C66" s="4"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
       <c r="CP66" s="1"/>
     </row>
     <row r="67" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A67" s="10">
+      <c r="A67" s="2">
         <v>36647</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="3">
         <v>0.10194024162250852</v>
       </c>
-      <c r="C67" s="4"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
       <c r="CP67" s="1"/>
     </row>
     <row r="68" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A68" s="10">
+      <c r="A68" s="2">
         <v>36678</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="3">
         <v>0.11520688931942046</v>
       </c>
-      <c r="C68" s="4"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
       <c r="CP68" s="1"/>
     </row>
     <row r="69" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A69" s="10">
+      <c r="A69" s="2">
         <v>36708</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="3">
         <v>0.10847862629401375</v>
       </c>
-      <c r="C69" s="4"/>
-      <c r="E69" s="7"/>
+      <c r="C69" s="5"/>
+      <c r="E69" s="6"/>
       <c r="CP69" s="1"/>
     </row>
     <row r="70" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A70" s="10">
+      <c r="A70" s="2">
         <v>36739</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="3">
         <v>0.11669317806908461</v>
       </c>
-      <c r="C70" s="4"/>
-      <c r="E70" s="7"/>
+      <c r="C70" s="5"/>
+      <c r="E70" s="6"/>
       <c r="CP70" s="1"/>
     </row>
     <row r="71" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A71" s="10">
+      <c r="A71" s="2">
         <v>36770</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="3">
         <v>0.12461879502315275</v>
       </c>
-      <c r="C71" s="4"/>
-      <c r="E71" s="7"/>
+      <c r="C71" s="5"/>
+      <c r="E71" s="6"/>
       <c r="CP71" s="1"/>
     </row>
     <row r="72" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A72" s="10">
+      <c r="A72" s="2">
         <v>36800</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="3">
         <v>0.12350351608453644</v>
       </c>
-      <c r="C72" s="4"/>
-      <c r="E72" s="7"/>
+      <c r="C72" s="5"/>
+      <c r="E72" s="6"/>
       <c r="CP72" s="1"/>
     </row>
     <row r="73" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A73" s="10">
+      <c r="A73" s="2">
         <v>36831</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="3">
         <v>0.13624280260074831</v>
       </c>
-      <c r="C73" s="4"/>
-      <c r="E73" s="7"/>
+      <c r="C73" s="5"/>
+      <c r="E73" s="6"/>
       <c r="CP73" s="1"/>
     </row>
     <row r="74" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A74" s="10">
+      <c r="A74" s="2">
         <v>36861</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="3">
         <v>0.10449451374749155</v>
       </c>
-      <c r="C74" s="4"/>
-      <c r="E74" s="7"/>
+      <c r="C74" s="5"/>
+      <c r="E74" s="6"/>
       <c r="CP74" s="1"/>
     </row>
     <row r="75" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A75" s="10">
+      <c r="A75" s="2">
         <v>36892</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="3">
         <v>9.8078739800215115E-2</v>
       </c>
-      <c r="C75" s="4"/>
-      <c r="E75" s="7"/>
+      <c r="C75" s="5"/>
+      <c r="E75" s="6"/>
       <c r="CP75" s="1"/>
     </row>
     <row r="76" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A76" s="10">
+      <c r="A76" s="2">
         <v>36923</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="3">
         <v>9.4986612102584869E-2</v>
       </c>
-      <c r="C76" s="4"/>
-      <c r="E76" s="7"/>
+      <c r="C76" s="5"/>
+      <c r="E76" s="6"/>
       <c r="CP76" s="1"/>
     </row>
     <row r="77" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A77" s="10">
+      <c r="A77" s="2">
         <v>36951</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="3">
         <v>0.10943199261845223</v>
       </c>
-      <c r="C77" s="4"/>
-      <c r="E77" s="7"/>
+      <c r="C77" s="5"/>
+      <c r="E77" s="6"/>
       <c r="CP77" s="1"/>
     </row>
     <row r="78" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A78" s="10">
+      <c r="A78" s="2">
         <v>36982</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="3">
         <v>0.10230821441197835</v>
       </c>
-      <c r="C78" s="4"/>
-      <c r="E78" s="7"/>
+      <c r="C78" s="5"/>
+      <c r="E78" s="6"/>
       <c r="CP78" s="1"/>
     </row>
     <row r="79" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A79" s="10">
+      <c r="A79" s="2">
         <v>37012</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="3">
         <v>0.11448510925596571</v>
       </c>
-      <c r="C79" s="4"/>
-      <c r="E79" s="7"/>
+      <c r="C79" s="5"/>
+      <c r="E79" s="6"/>
       <c r="CP79" s="1"/>
     </row>
     <row r="80" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A80" s="10">
+      <c r="A80" s="2">
         <v>37043</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="3">
         <v>0.12205193419326613</v>
       </c>
-      <c r="C80" s="4"/>
-      <c r="E80" s="7"/>
+      <c r="C80" s="5"/>
+      <c r="E80" s="6"/>
       <c r="CP80" s="1"/>
     </row>
     <row r="81" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A81" s="10">
+      <c r="A81" s="2">
         <v>37073</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="3">
         <v>0.12472087316217893</v>
       </c>
-      <c r="C81" s="4"/>
-      <c r="E81" s="7"/>
+      <c r="C81" s="5"/>
+      <c r="E81" s="6"/>
       <c r="CP81" s="1"/>
       <c r="DC81" s="1"/>
       <c r="DE81" s="1"/>
@@ -4604,13 +4609,13 @@
       <c r="DK81" s="1"/>
     </row>
     <row r="82" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A82" s="10">
+      <c r="A82" s="2">
         <v>37104</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="3">
         <v>0.13164962330151575</v>
       </c>
-      <c r="C82" s="4"/>
+      <c r="C82" s="5"/>
       <c r="CP82" s="1"/>
       <c r="DC82" s="1"/>
       <c r="DE82" s="1"/>
@@ -4622,13 +4627,13 @@
       <c r="DK82" s="1"/>
     </row>
     <row r="83" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A83" s="10">
+      <c r="A83" s="2">
         <v>37135</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="3">
         <v>0.16920274455915726</v>
       </c>
-      <c r="C83" s="4"/>
+      <c r="C83" s="5"/>
       <c r="CP83" s="1"/>
       <c r="DC83" s="1"/>
       <c r="DE83" s="1"/>
@@ -4641,13 +4646,13 @@
       <c r="FQ83" s="1"/>
     </row>
     <row r="84" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A84" s="10">
+      <c r="A84" s="2">
         <v>37165</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="3">
         <v>0.16487384010580458</v>
       </c>
-      <c r="C84" s="4"/>
+      <c r="C84" s="5"/>
       <c r="CP84" s="1"/>
       <c r="DC84" s="1"/>
       <c r="DE84" s="1"/>
@@ -4660,13 +4665,13 @@
       <c r="FQ84" s="1"/>
     </row>
     <row r="85" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A85" s="10">
+      <c r="A85" s="2">
         <v>37196</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="3">
         <v>0.14485365882340293</v>
       </c>
-      <c r="C85" s="4"/>
+      <c r="C85" s="5"/>
       <c r="CP85" s="1"/>
       <c r="DC85" s="1"/>
       <c r="DE85" s="1"/>
@@ -4679,13 +4684,13 @@
       <c r="FQ85" s="1"/>
     </row>
     <row r="86" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A86" s="10">
+      <c r="A86" s="2">
         <v>37226</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="3">
         <v>0.12057147500114479</v>
       </c>
-      <c r="C86" s="4"/>
+      <c r="C86" s="5"/>
       <c r="CP86" s="1"/>
       <c r="DC86" s="1"/>
       <c r="DE86" s="1"/>
@@ -4698,13 +4703,13 @@
       <c r="FQ86" s="1"/>
     </row>
     <row r="87" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A87" s="10">
+      <c r="A87" s="2">
         <v>37257</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="3">
         <v>0.12028644057053653</v>
       </c>
-      <c r="C87" s="4"/>
+      <c r="C87" s="5"/>
       <c r="CP87" s="1"/>
       <c r="DC87" s="1"/>
       <c r="DE87" s="1"/>
@@ -4717,13 +4722,13 @@
       <c r="FQ87" s="1"/>
     </row>
     <row r="88" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A88" s="10">
+      <c r="A88" s="2">
         <v>37288</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="3">
         <v>0.11585635189852062</v>
       </c>
-      <c r="C88" s="4"/>
+      <c r="C88" s="5"/>
       <c r="CP88" s="1"/>
       <c r="DC88" s="1"/>
       <c r="DE88" s="1"/>
@@ -4736,13 +4741,13 @@
       <c r="FQ88" s="1"/>
     </row>
     <row r="89" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A89" s="10">
+      <c r="A89" s="2">
         <v>37316</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="3">
         <v>0.12274527752297042</v>
       </c>
-      <c r="C89" s="4"/>
+      <c r="C89" s="5"/>
       <c r="CP89" s="1"/>
       <c r="DC89" s="1"/>
       <c r="DE89" s="1"/>
@@ -4756,13 +4761,13 @@
       <c r="FQ89" s="1"/>
     </row>
     <row r="90" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A90" s="10">
+      <c r="A90" s="2">
         <v>37347</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="3">
         <v>0.12101568147782529</v>
       </c>
-      <c r="C90" s="4"/>
+      <c r="C90" s="5"/>
       <c r="CP90" s="1"/>
       <c r="DC90" s="1"/>
       <c r="DE90" s="1"/>
@@ -4776,13 +4781,13 @@
       <c r="FQ90" s="1"/>
     </row>
     <row r="91" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A91" s="10">
+      <c r="A91" s="2">
         <v>37377</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="3">
         <v>0.13834911739732181</v>
       </c>
-      <c r="C91" s="4"/>
+      <c r="C91" s="5"/>
       <c r="CP91" s="1"/>
       <c r="DC91" s="1"/>
       <c r="DE91" s="1"/>
@@ -4796,13 +4801,13 @@
       <c r="FQ91" s="1"/>
     </row>
     <row r="92" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A92" s="10">
+      <c r="A92" s="2">
         <v>37408</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="3">
         <v>0.13898444661446926</v>
       </c>
-      <c r="C92" s="4"/>
+      <c r="C92" s="5"/>
       <c r="CP92" s="1"/>
       <c r="DC92" s="1"/>
       <c r="DE92" s="1"/>
@@ -4817,13 +4822,13 @@
       <c r="FQ92" s="1"/>
     </row>
     <row r="93" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A93" s="10">
+      <c r="A93" s="2">
         <v>37438</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="3">
         <v>0.15154676452080135</v>
       </c>
-      <c r="C93" s="4"/>
+      <c r="C93" s="5"/>
       <c r="CP93" s="1"/>
       <c r="DC93" s="1"/>
       <c r="DE93" s="1"/>
@@ -4838,13 +4843,13 @@
       <c r="FQ93" s="1"/>
     </row>
     <row r="94" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A94" s="10">
+      <c r="A94" s="2">
         <v>37469</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="3">
         <v>0.14914501917668246</v>
       </c>
-      <c r="C94" s="4"/>
+      <c r="C94" s="5"/>
       <c r="CP94" s="1"/>
       <c r="DC94" s="1"/>
       <c r="DE94" s="1"/>
@@ -4859,13 +4864,13 @@
       <c r="FQ94" s="1"/>
     </row>
     <row r="95" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A95" s="10">
+      <c r="A95" s="2">
         <v>37500</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="3">
         <v>0.17729158577688089</v>
       </c>
-      <c r="C95" s="4"/>
+      <c r="C95" s="5"/>
       <c r="CP95" s="1"/>
       <c r="DC95" s="1"/>
       <c r="DE95" s="1"/>
@@ -4881,13 +4886,13 @@
       <c r="GX95" s="1"/>
     </row>
     <row r="96" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A96" s="10">
+      <c r="A96" s="2">
         <v>37530</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="3">
         <v>0.16158417270187989</v>
       </c>
-      <c r="C96" s="4"/>
+      <c r="C96" s="5"/>
       <c r="CP96" s="1"/>
       <c r="DC96" s="1"/>
       <c r="DE96" s="1"/>
@@ -4903,13 +4908,13 @@
       <c r="GX96" s="1"/>
     </row>
     <row r="97" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A97" s="10">
+      <c r="A97" s="2">
         <v>37561</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="3">
         <v>0.15765516285709646</v>
       </c>
-      <c r="C97" s="4"/>
+      <c r="C97" s="5"/>
       <c r="CG97" s="1"/>
       <c r="CH97" s="1"/>
       <c r="CI97" s="1"/>
@@ -4935,13 +4940,13 @@
       <c r="QQ97" s="1"/>
     </row>
     <row r="98" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A98" s="10">
+      <c r="A98" s="2">
         <v>37591</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="3">
         <v>0.16155516390609645</v>
       </c>
-      <c r="C98" s="4"/>
+      <c r="C98" s="5"/>
       <c r="CG98" s="1"/>
       <c r="CH98" s="1"/>
       <c r="CI98" s="1"/>
@@ -4967,13 +4972,13 @@
       <c r="QQ98" s="1"/>
     </row>
     <row r="99" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A99" s="10">
+      <c r="A99" s="2">
         <v>37622</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="3">
         <v>0.16721818984210535</v>
       </c>
-      <c r="C99" s="4"/>
+      <c r="C99" s="5"/>
       <c r="CG99" s="1"/>
       <c r="CH99" s="1"/>
       <c r="CI99" s="1"/>
@@ -5008,13 +5013,13 @@
       <c r="QQ99" s="1"/>
     </row>
     <row r="100" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A100" s="10">
+      <c r="A100" s="2">
         <v>37653</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="3">
         <v>0.16873740603929704</v>
       </c>
-      <c r="C100" s="4"/>
+      <c r="C100" s="5"/>
       <c r="CG100" s="1"/>
       <c r="CH100" s="1"/>
       <c r="CI100" s="1"/>
@@ -5059,13 +5064,13 @@
       <c r="QQ100" s="1"/>
     </row>
     <row r="101" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A101" s="10">
+      <c r="A101" s="2">
         <v>37681</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="3">
         <v>0.17960657789052537</v>
       </c>
-      <c r="C101" s="4"/>
+      <c r="C101" s="5"/>
       <c r="CG101" s="1"/>
       <c r="CH101" s="1"/>
       <c r="CI101" s="1"/>
@@ -5111,13 +5116,13 @@
       <c r="QQ101" s="1"/>
     </row>
     <row r="102" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A102" s="10">
+      <c r="A102" s="2">
         <v>37712</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102" s="3">
         <v>0.17370103158576525</v>
       </c>
-      <c r="C102" s="4"/>
+      <c r="C102" s="5"/>
       <c r="CG102" s="1"/>
       <c r="CH102" s="1"/>
       <c r="CI102" s="1"/>
@@ -5163,13 +5168,13 @@
       <c r="QQ102" s="1"/>
     </row>
     <row r="103" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A103" s="10">
+      <c r="A103" s="2">
         <v>37742</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103" s="3">
         <v>0.17745962817797939</v>
       </c>
-      <c r="C103" s="4"/>
+      <c r="C103" s="5"/>
       <c r="CG103" s="1"/>
       <c r="CH103" s="1"/>
       <c r="CI103" s="1"/>
@@ -5216,13 +5221,13 @@
       <c r="QQ103" s="1"/>
     </row>
     <row r="104" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A104" s="10">
+      <c r="A104" s="2">
         <v>37773</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104" s="3">
         <v>0.17353423821042152</v>
       </c>
-      <c r="C104" s="4"/>
+      <c r="C104" s="5"/>
       <c r="CG104" s="1"/>
       <c r="CH104" s="1"/>
       <c r="CI104" s="1"/>
@@ -5270,13 +5275,13 @@
       <c r="QQ104" s="1"/>
     </row>
     <row r="105" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A105" s="10">
+      <c r="A105" s="2">
         <v>37803</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105" s="3">
         <v>0.16443232371464103</v>
       </c>
-      <c r="C105" s="4"/>
+      <c r="C105" s="5"/>
       <c r="CG105" s="1"/>
       <c r="CH105" s="1"/>
       <c r="CI105" s="1"/>
@@ -5324,13 +5329,13 @@
       <c r="QQ105" s="1"/>
     </row>
     <row r="106" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A106" s="10">
+      <c r="A106" s="2">
         <v>37834</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106" s="3">
         <v>0.16083606998584948</v>
       </c>
-      <c r="C106" s="4"/>
+      <c r="C106" s="5"/>
       <c r="CG106" s="1"/>
       <c r="CH106" s="1"/>
       <c r="CI106" s="1"/>
@@ -5379,13 +5384,13 @@
       <c r="QQ106" s="1"/>
     </row>
     <row r="107" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A107" s="10">
+      <c r="A107" s="2">
         <v>37865</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107" s="3">
         <v>0.19762447566023092</v>
       </c>
-      <c r="C107" s="4"/>
+      <c r="C107" s="5"/>
       <c r="CG107" s="1"/>
       <c r="CH107" s="1"/>
       <c r="CI107" s="1"/>
@@ -5438,13 +5443,13 @@
       <c r="RX107" s="1"/>
     </row>
     <row r="108" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A108" s="10">
+      <c r="A108" s="2">
         <v>37895</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108" s="3">
         <v>0.18706253495325156</v>
       </c>
-      <c r="C108" s="4"/>
+      <c r="C108" s="5"/>
       <c r="CG108" s="1"/>
       <c r="CH108" s="1"/>
       <c r="CI108" s="1"/>
@@ -5497,13 +5502,13 @@
       <c r="RX108" s="1"/>
     </row>
     <row r="109" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A109" s="10">
+      <c r="A109" s="2">
         <v>37926</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109" s="3">
         <v>0.18579912866791054</v>
       </c>
-      <c r="C109" s="4"/>
+      <c r="C109" s="5"/>
       <c r="CG109" s="1"/>
       <c r="CH109" s="1"/>
       <c r="CI109" s="1"/>
@@ -5558,13 +5563,13 @@
       <c r="RX109" s="1"/>
     </row>
     <row r="110" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A110" s="10">
+      <c r="A110" s="2">
         <v>37956</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110" s="3">
         <v>0.15228963728645464</v>
       </c>
-      <c r="C110" s="4"/>
+      <c r="C110" s="5"/>
       <c r="CG110" s="1"/>
       <c r="CH110" s="1"/>
       <c r="CI110" s="1"/>
@@ -5621,13 +5626,13 @@
       <c r="RX110" s="1"/>
     </row>
     <row r="111" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A111" s="10">
+      <c r="A111" s="2">
         <v>37987</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111" s="3">
         <v>0.14979423018271038</v>
       </c>
-      <c r="C111" s="4"/>
+      <c r="C111" s="5"/>
       <c r="CG111" s="1"/>
       <c r="CH111" s="1"/>
       <c r="CI111" s="1"/>
@@ -5684,13 +5689,13 @@
       <c r="RX111" s="1"/>
     </row>
     <row r="112" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A112" s="10">
+      <c r="A112" s="2">
         <v>38018</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112" s="3">
         <v>0.15531103806729979</v>
       </c>
-      <c r="C112" s="4"/>
+      <c r="C112" s="5"/>
       <c r="CG112" s="1"/>
       <c r="CH112" s="1"/>
       <c r="CI112" s="1"/>
@@ -5747,13 +5752,13 @@
       <c r="RX112" s="1"/>
     </row>
     <row r="113" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A113" s="10">
+      <c r="A113" s="2">
         <v>38047</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113" s="3">
         <v>0.15189953279944524</v>
       </c>
-      <c r="C113" s="4"/>
+      <c r="C113" s="5"/>
       <c r="CG113" s="1"/>
       <c r="CH113" s="1"/>
       <c r="CI113" s="1"/>
@@ -5812,13 +5817,13 @@
       <c r="RX113" s="1"/>
     </row>
     <row r="114" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A114" s="10">
+      <c r="A114" s="2">
         <v>38078</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114" s="3">
         <v>0.14238155308795486</v>
       </c>
-      <c r="C114" s="4"/>
+      <c r="C114" s="5"/>
       <c r="CG114" s="1"/>
       <c r="CH114" s="1"/>
       <c r="CI114" s="1"/>
@@ -5878,13 +5883,13 @@
       <c r="RX114" s="1"/>
     </row>
     <row r="115" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A115" s="10">
+      <c r="A115" s="2">
         <v>38108</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B115" s="3">
         <v>0.13993688563245948</v>
       </c>
-      <c r="C115" s="4"/>
+      <c r="C115" s="5"/>
       <c r="CG115" s="1"/>
       <c r="CH115" s="1"/>
       <c r="CI115" s="1"/>
@@ -5955,13 +5960,13 @@
       <c r="RX115" s="1"/>
     </row>
     <row r="116" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A116" s="10">
+      <c r="A116" s="2">
         <v>38139</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116" s="3">
         <v>0.13205156859518685</v>
       </c>
-      <c r="C116" s="4"/>
+      <c r="C116" s="5"/>
       <c r="CG116" s="1"/>
       <c r="CH116" s="1"/>
       <c r="CI116" s="1"/>
@@ -6043,13 +6048,13 @@
       <c r="RX116" s="1"/>
     </row>
     <row r="117" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A117" s="10">
+      <c r="A117" s="2">
         <v>38169</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117" s="3">
         <v>0.1321356483644931</v>
       </c>
-      <c r="C117" s="4"/>
+      <c r="C117" s="5"/>
       <c r="CG117" s="1"/>
       <c r="CH117" s="1"/>
       <c r="CI117" s="1"/>
@@ -6133,13 +6138,13 @@
       <c r="RX117" s="1"/>
     </row>
     <row r="118" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A118" s="10">
+      <c r="A118" s="2">
         <v>38200</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118" s="3">
         <v>0.13235416398227642</v>
       </c>
-      <c r="C118" s="4"/>
+      <c r="C118" s="5"/>
       <c r="CG118" s="1"/>
       <c r="CH118" s="1"/>
       <c r="CI118" s="1"/>
@@ -6223,13 +6228,13 @@
       <c r="RX118" s="1"/>
     </row>
     <row r="119" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A119" s="10">
+      <c r="A119" s="2">
         <v>38231</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119" s="3">
         <v>0.14198841003714582</v>
       </c>
-      <c r="C119" s="4"/>
+      <c r="C119" s="5"/>
       <c r="CG119" s="1"/>
       <c r="CH119" s="1"/>
       <c r="CI119" s="1"/>
@@ -6313,13 +6318,13 @@
       <c r="RX119" s="1"/>
     </row>
     <row r="120" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A120" s="10">
+      <c r="A120" s="2">
         <v>38261</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120" s="3">
         <v>0.14054340020098038</v>
       </c>
-      <c r="C120" s="4"/>
+      <c r="C120" s="5"/>
       <c r="CG120" s="1"/>
       <c r="CH120" s="1"/>
       <c r="CI120" s="1"/>
@@ -6403,13 +6408,13 @@
       <c r="RX120" s="1"/>
     </row>
     <row r="121" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A121" s="10">
+      <c r="A121" s="2">
         <v>38292</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B121" s="3">
         <v>0.13208337856049901</v>
       </c>
-      <c r="C121" s="4"/>
+      <c r="C121" s="5"/>
       <c r="CG121" s="1"/>
       <c r="CH121" s="1"/>
       <c r="CI121" s="1"/>
@@ -6494,13 +6499,13 @@
       <c r="RX121" s="1"/>
     </row>
     <row r="122" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A122" s="10">
+      <c r="A122" s="2">
         <v>38322</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122" s="3">
         <v>0.13722393226951568</v>
       </c>
-      <c r="C122" s="4"/>
+      <c r="C122" s="5"/>
       <c r="CG122" s="1"/>
       <c r="CH122" s="1"/>
       <c r="CI122" s="1"/>
@@ -6585,13 +6590,13 @@
       <c r="RX122" s="1"/>
     </row>
     <row r="123" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A123" s="10">
+      <c r="A123" s="2">
         <v>38353</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B123" s="3">
         <v>0.13998031470880479</v>
       </c>
-      <c r="C123" s="4"/>
+      <c r="C123" s="5"/>
       <c r="CG123" s="1"/>
       <c r="CH123" s="1"/>
       <c r="CI123" s="1"/>
@@ -6676,13 +6681,13 @@
       <c r="RX123" s="1"/>
     </row>
     <row r="124" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A124" s="10">
+      <c r="A124" s="2">
         <v>38384</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124" s="3">
         <v>0.14381330437458539</v>
       </c>
-      <c r="C124" s="4"/>
+      <c r="C124" s="5"/>
       <c r="CG124" s="1"/>
       <c r="CH124" s="1"/>
       <c r="CI124" s="1"/>
@@ -6769,13 +6774,13 @@
       <c r="RX124" s="1"/>
     </row>
     <row r="125" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A125" s="10">
+      <c r="A125" s="2">
         <v>38412</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B125" s="3">
         <v>0.13883886128708484</v>
       </c>
-      <c r="C125" s="4"/>
+      <c r="C125" s="5"/>
       <c r="CG125" s="1"/>
       <c r="CH125" s="1"/>
       <c r="CI125" s="1"/>
@@ -6862,13 +6867,13 @@
       <c r="RX125" s="1"/>
     </row>
     <row r="126" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A126" s="10">
+      <c r="A126" s="2">
         <v>38443</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B126" s="3">
         <v>0.14223096597630486</v>
       </c>
-      <c r="C126" s="4"/>
+      <c r="C126" s="5"/>
       <c r="CG126" s="1"/>
       <c r="CH126" s="1"/>
       <c r="CI126" s="1"/>
@@ -6955,13 +6960,13 @@
       <c r="RX126" s="1"/>
     </row>
     <row r="127" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A127" s="10">
+      <c r="A127" s="2">
         <v>38473</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B127" s="3">
         <v>0.15130856651883109</v>
       </c>
-      <c r="C127" s="4"/>
+      <c r="C127" s="5"/>
       <c r="CG127" s="1"/>
       <c r="CH127" s="1"/>
       <c r="CI127" s="1"/>
@@ -7049,13 +7054,13 @@
       <c r="RX127" s="1"/>
     </row>
     <row r="128" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A128" s="10">
+      <c r="A128" s="2">
         <v>38504</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128" s="3">
         <v>0.17613645867084826</v>
       </c>
-      <c r="C128" s="4"/>
+      <c r="C128" s="5"/>
       <c r="CG128" s="1"/>
       <c r="CH128" s="1"/>
       <c r="CI128" s="1"/>
@@ -7144,13 +7149,13 @@
       <c r="RX128" s="1"/>
     </row>
     <row r="129" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A129" s="10">
+      <c r="A129" s="2">
         <v>38534</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129" s="3">
         <v>0.17526795031368764</v>
       </c>
-      <c r="C129" s="4"/>
+      <c r="C129" s="5"/>
       <c r="CG129" s="1"/>
       <c r="CH129" s="1"/>
       <c r="CI129" s="1"/>
@@ -7239,13 +7244,13 @@
       <c r="RX129" s="1"/>
     </row>
     <row r="130" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A130" s="10">
+      <c r="A130" s="2">
         <v>38565</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130" s="3">
         <v>0.17356897074457586</v>
       </c>
-      <c r="C130" s="4"/>
+      <c r="C130" s="5"/>
       <c r="CG130" s="1"/>
       <c r="CH130" s="1"/>
       <c r="CI130" s="1"/>
@@ -7334,13 +7339,13 @@
       <c r="RX130" s="1"/>
     </row>
     <row r="131" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A131" s="10">
+      <c r="A131" s="2">
         <v>38596</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B131" s="3">
         <v>0.13496571144618535</v>
       </c>
-      <c r="C131" s="4"/>
+      <c r="C131" s="5"/>
       <c r="CG131" s="1"/>
       <c r="CH131" s="1"/>
       <c r="CI131" s="1"/>
@@ -7429,13 +7434,13 @@
       <c r="RX131" s="1"/>
     </row>
     <row r="132" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A132" s="10">
+      <c r="A132" s="2">
         <v>38626</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B132" s="3">
         <v>0.13393339678506488</v>
       </c>
-      <c r="C132" s="4"/>
+      <c r="C132" s="5"/>
       <c r="CG132" s="1"/>
       <c r="CH132" s="1"/>
       <c r="CI132" s="1"/>
@@ -7524,13 +7529,13 @@
       <c r="RX132" s="1"/>
     </row>
     <row r="133" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A133" s="10">
+      <c r="A133" s="2">
         <v>38657</v>
       </c>
-      <c r="B133" s="2">
+      <c r="B133" s="3">
         <v>0.13831045015123039</v>
       </c>
-      <c r="C133" s="4"/>
+      <c r="C133" s="5"/>
       <c r="CG133" s="1"/>
       <c r="CH133" s="1"/>
       <c r="CI133" s="1"/>
@@ -7619,13 +7624,13 @@
       <c r="RX133" s="1"/>
     </row>
     <row r="134" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A134" s="10">
+      <c r="A134" s="2">
         <v>38687</v>
       </c>
-      <c r="B134" s="2">
+      <c r="B134" s="3">
         <v>0.12603299570326587</v>
       </c>
-      <c r="C134" s="4"/>
+      <c r="C134" s="5"/>
       <c r="CG134" s="1"/>
       <c r="CH134" s="1"/>
       <c r="CI134" s="1"/>
@@ -7714,13 +7719,13 @@
       <c r="RX134" s="1"/>
     </row>
     <row r="135" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A135" s="10">
+      <c r="A135" s="2">
         <v>38718</v>
       </c>
-      <c r="B135" s="2">
+      <c r="B135" s="3">
         <v>0.12251013261185581</v>
       </c>
-      <c r="C135" s="4"/>
+      <c r="C135" s="5"/>
       <c r="CG135" s="1"/>
       <c r="CH135" s="1"/>
       <c r="CI135" s="1"/>
@@ -7809,13 +7814,13 @@
       <c r="RX135" s="1"/>
     </row>
     <row r="136" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A136" s="10">
+      <c r="A136" s="2">
         <v>38749</v>
       </c>
-      <c r="B136" s="2">
+      <c r="B136" s="3">
         <v>0.11689155988668461</v>
       </c>
-      <c r="C136" s="4"/>
+      <c r="C136" s="5"/>
       <c r="CG136" s="1"/>
       <c r="CH136" s="1"/>
       <c r="CI136" s="1"/>
@@ -7904,13 +7909,13 @@
       <c r="RX136" s="1"/>
     </row>
     <row r="137" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A137" s="10">
+      <c r="A137" s="2">
         <v>38777</v>
       </c>
-      <c r="B137" s="2">
+      <c r="B137" s="3">
         <v>0.11182793411322625</v>
       </c>
-      <c r="C137" s="4"/>
+      <c r="C137" s="5"/>
       <c r="CG137" s="1"/>
       <c r="CH137" s="1"/>
       <c r="CI137" s="1"/>
@@ -7999,13 +8004,13 @@
       <c r="RX137" s="1"/>
     </row>
     <row r="138" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A138" s="10">
+      <c r="A138" s="2">
         <v>38808</v>
       </c>
-      <c r="B138" s="2">
+      <c r="B138" s="3">
         <v>0.1062966817216436</v>
       </c>
-      <c r="C138" s="4"/>
+      <c r="C138" s="5"/>
       <c r="CG138" s="1"/>
       <c r="CH138" s="1"/>
       <c r="CI138" s="1"/>
@@ -8094,13 +8099,13 @@
       <c r="RX138" s="1"/>
     </row>
     <row r="139" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A139" s="10">
+      <c r="A139" s="2">
         <v>38838</v>
       </c>
-      <c r="B139" s="2">
+      <c r="B139" s="3">
         <v>0.10685897585166657</v>
       </c>
-      <c r="C139" s="4"/>
+      <c r="C139" s="5"/>
       <c r="CG139" s="1"/>
       <c r="CH139" s="1"/>
       <c r="CI139" s="1"/>
@@ -8189,13 +8194,13 @@
       <c r="RX139" s="1"/>
     </row>
     <row r="140" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A140" s="10">
+      <c r="A140" s="2">
         <v>38869</v>
       </c>
-      <c r="B140" s="2">
+      <c r="B140" s="3">
         <v>0.10321059015113987</v>
       </c>
-      <c r="C140" s="4"/>
+      <c r="C140" s="5"/>
       <c r="CG140" s="1"/>
       <c r="CH140" s="1"/>
       <c r="CI140" s="1"/>
@@ -8284,13 +8289,13 @@
       <c r="RX140" s="1"/>
     </row>
     <row r="141" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A141" s="10">
+      <c r="A141" s="2">
         <v>38899</v>
       </c>
-      <c r="B141" s="2">
+      <c r="B141" s="3">
         <v>0.1042737605249823</v>
       </c>
-      <c r="C141" s="4"/>
+      <c r="C141" s="5"/>
       <c r="CG141" s="1"/>
       <c r="CH141" s="1"/>
       <c r="CI141" s="1"/>
@@ -8379,13 +8384,13 @@
       <c r="RX141" s="1"/>
     </row>
     <row r="142" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A142" s="10">
+      <c r="A142" s="2">
         <v>38930</v>
       </c>
-      <c r="B142" s="2">
+      <c r="B142" s="3">
         <v>9.9191823334113305E-2</v>
       </c>
-      <c r="C142" s="4"/>
+      <c r="C142" s="5"/>
       <c r="CG142" s="1"/>
       <c r="CH142" s="1"/>
       <c r="CI142" s="1"/>
@@ -8474,13 +8479,13 @@
       <c r="RX142" s="1"/>
     </row>
     <row r="143" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A143" s="10">
+      <c r="A143" s="2">
         <v>38961</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B143" s="3">
         <v>9.7977952179741312E-2</v>
       </c>
-      <c r="C143" s="4"/>
+      <c r="C143" s="5"/>
       <c r="CG143" s="1"/>
       <c r="CH143" s="1"/>
       <c r="CI143" s="1"/>
@@ -8569,13 +8574,13 @@
       <c r="RX143" s="1"/>
     </row>
     <row r="144" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A144" s="10">
+      <c r="A144" s="2">
         <v>38991</v>
       </c>
-      <c r="B144" s="2">
+      <c r="B144" s="3">
         <v>9.5864636506678785E-2</v>
       </c>
-      <c r="C144" s="4"/>
+      <c r="C144" s="5"/>
       <c r="CG144" s="1"/>
       <c r="CH144" s="1"/>
       <c r="CI144" s="1"/>
@@ -8664,13 +8669,13 @@
       <c r="RX144" s="1"/>
     </row>
     <row r="145" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A145" s="10">
+      <c r="A145" s="2">
         <v>39022</v>
       </c>
-      <c r="B145" s="2">
+      <c r="B145" s="3">
         <v>8.8506947539146508E-2</v>
       </c>
-      <c r="C145" s="4"/>
+      <c r="C145" s="5"/>
       <c r="CG145" s="1"/>
       <c r="CH145" s="1"/>
       <c r="CI145" s="1"/>
@@ -8759,13 +8764,13 @@
       <c r="RX145" s="1"/>
     </row>
     <row r="146" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A146" s="10">
+      <c r="A146" s="2">
         <v>39052</v>
       </c>
-      <c r="B146" s="2">
+      <c r="B146" s="3">
         <v>8.2991557693164242E-2</v>
       </c>
-      <c r="C146" s="4"/>
+      <c r="C146" s="5"/>
       <c r="CG146" s="1"/>
       <c r="CH146" s="1"/>
       <c r="CI146" s="1"/>
@@ -8854,13 +8859,13 @@
       <c r="RX146" s="1"/>
     </row>
     <row r="147" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A147" s="10">
+      <c r="A147" s="2">
         <v>39083</v>
       </c>
-      <c r="B147" s="2">
+      <c r="B147" s="3">
         <v>7.7215118349207135E-2</v>
       </c>
-      <c r="C147" s="4"/>
+      <c r="C147" s="5"/>
       <c r="CG147" s="1"/>
       <c r="CH147" s="1"/>
       <c r="CI147" s="1"/>
@@ -8949,13 +8954,13 @@
       <c r="RX147" s="1"/>
     </row>
     <row r="148" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A148" s="10">
+      <c r="A148" s="2">
         <v>39114</v>
       </c>
-      <c r="B148" s="2">
+      <c r="B148" s="3">
         <v>7.9397037241236174E-2</v>
       </c>
-      <c r="C148" s="4"/>
+      <c r="C148" s="5"/>
       <c r="CG148" s="1"/>
       <c r="CH148" s="1"/>
       <c r="CI148" s="1"/>
@@ -9044,13 +9049,13 @@
       <c r="RX148" s="1"/>
     </row>
     <row r="149" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A149" s="10">
+      <c r="A149" s="2">
         <v>39142</v>
       </c>
-      <c r="B149" s="2">
+      <c r="B149" s="3">
         <v>9.5585255682960557E-2</v>
       </c>
-      <c r="C149" s="4"/>
+      <c r="C149" s="5"/>
       <c r="CG149" s="1"/>
       <c r="CH149" s="1"/>
       <c r="CI149" s="1"/>
@@ -9139,13 +9144,13 @@
       <c r="RX149" s="1"/>
     </row>
     <row r="150" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A150" s="10">
+      <c r="A150" s="2">
         <v>39173</v>
       </c>
-      <c r="B150" s="2">
+      <c r="B150" s="3">
         <v>8.580606474485139E-2</v>
       </c>
-      <c r="C150" s="4"/>
+      <c r="C150" s="5"/>
       <c r="CG150" s="1"/>
       <c r="CH150" s="1"/>
       <c r="CI150" s="1"/>
@@ -9234,13 +9239,13 @@
       <c r="RX150" s="1"/>
     </row>
     <row r="151" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A151" s="10">
+      <c r="A151" s="2">
         <v>39203</v>
       </c>
-      <c r="B151" s="2">
+      <c r="B151" s="3">
         <v>8.1207326443699546E-2</v>
       </c>
-      <c r="C151" s="4"/>
+      <c r="C151" s="5"/>
       <c r="CG151" s="1"/>
       <c r="CH151" s="1"/>
       <c r="CI151" s="1"/>
@@ -9329,13 +9334,13 @@
       <c r="RX151" s="1"/>
     </row>
     <row r="152" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A152" s="10">
+      <c r="A152" s="2">
         <v>39234</v>
       </c>
-      <c r="B152" s="2">
+      <c r="B152" s="3">
         <v>8.2961482672590375E-2</v>
       </c>
-      <c r="C152" s="4"/>
+      <c r="C152" s="5"/>
       <c r="CG152" s="1"/>
       <c r="CH152" s="1"/>
       <c r="CI152" s="1"/>
@@ -9424,13 +9429,13 @@
       <c r="RX152" s="1"/>
     </row>
     <row r="153" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A153" s="10">
+      <c r="A153" s="2">
         <v>39264</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B153" s="3">
         <v>8.5322650599013228E-2</v>
       </c>
-      <c r="C153" s="4"/>
+      <c r="C153" s="5"/>
       <c r="CG153" s="1"/>
       <c r="CH153" s="1"/>
       <c r="CI153" s="1"/>
@@ -9519,13 +9524,13 @@
       <c r="RX153" s="1"/>
     </row>
     <row r="154" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A154" s="10">
+      <c r="A154" s="2">
         <v>39295</v>
       </c>
-      <c r="B154" s="2">
+      <c r="B154" s="3">
         <v>8.5340133244383914E-2</v>
       </c>
-      <c r="C154" s="4"/>
+      <c r="C154" s="5"/>
       <c r="CG154" s="1"/>
       <c r="CH154" s="1"/>
       <c r="CI154" s="1"/>
@@ -9614,13 +9619,13 @@
       <c r="RX154" s="1"/>
     </row>
     <row r="155" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A155" s="10">
+      <c r="A155" s="2">
         <v>39326</v>
       </c>
-      <c r="B155" s="2">
+      <c r="B155" s="3">
         <v>8.8928884093107091E-2</v>
       </c>
-      <c r="C155" s="4"/>
+      <c r="C155" s="5"/>
       <c r="CG155" s="1"/>
       <c r="CH155" s="1"/>
       <c r="CI155" s="1"/>
@@ -9709,13 +9714,13 @@
       <c r="RX155" s="1"/>
     </row>
     <row r="156" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A156" s="10">
+      <c r="A156" s="2">
         <v>39356</v>
       </c>
-      <c r="B156" s="2">
+      <c r="B156" s="3">
         <v>8.7744511396229033E-2</v>
       </c>
-      <c r="C156" s="4"/>
+      <c r="C156" s="5"/>
       <c r="CG156" s="1"/>
       <c r="CH156" s="1"/>
       <c r="CI156" s="1"/>
@@ -9804,13 +9809,13 @@
       <c r="RX156" s="1"/>
     </row>
     <row r="157" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A157" s="10">
+      <c r="A157" s="2">
         <v>39387</v>
       </c>
-      <c r="B157" s="2">
+      <c r="B157" s="3">
         <v>9.3737830955098772E-2</v>
       </c>
-      <c r="C157" s="4"/>
+      <c r="C157" s="5"/>
       <c r="CG157" s="1"/>
       <c r="CH157" s="1"/>
       <c r="CI157" s="1"/>
@@ -9899,13 +9904,13 @@
       <c r="RX157" s="1"/>
     </row>
     <row r="158" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A158" s="10">
+      <c r="A158" s="2">
         <v>39417</v>
       </c>
-      <c r="B158" s="2">
+      <c r="B158" s="3">
         <v>8.671239907127623E-2</v>
       </c>
-      <c r="C158" s="4"/>
+      <c r="C158" s="5"/>
       <c r="CG158" s="1"/>
       <c r="CH158" s="1"/>
       <c r="CI158" s="1"/>
@@ -9994,13 +9999,13 @@
       <c r="RX158" s="1"/>
     </row>
     <row r="159" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A159" s="10">
+      <c r="A159" s="2">
         <v>39448</v>
       </c>
-      <c r="B159" s="2">
+      <c r="B159" s="3">
         <v>9.417152259727482E-2</v>
       </c>
-      <c r="C159" s="4"/>
+      <c r="C159" s="5"/>
       <c r="CG159" s="1"/>
       <c r="CH159" s="1"/>
       <c r="CI159" s="1"/>
@@ -10089,13 +10094,13 @@
       <c r="RX159" s="1"/>
     </row>
     <row r="160" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A160" s="10">
+      <c r="A160" s="2">
         <v>39479</v>
       </c>
-      <c r="B160" s="2">
+      <c r="B160" s="3">
         <v>9.3871674916660583E-2</v>
       </c>
-      <c r="C160" s="4"/>
+      <c r="C160" s="5"/>
       <c r="CG160" s="1"/>
       <c r="CH160" s="1"/>
       <c r="CI160" s="1"/>
@@ -10184,13 +10189,13 @@
       <c r="RX160" s="1"/>
     </row>
     <row r="161" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A161" s="10">
+      <c r="A161" s="2">
         <v>39508</v>
       </c>
-      <c r="B161" s="2">
+      <c r="B161" s="3">
         <v>9.5682797110982654E-2</v>
       </c>
-      <c r="C161" s="4"/>
+      <c r="C161" s="5"/>
       <c r="CG161" s="1"/>
       <c r="CH161" s="1"/>
       <c r="CI161" s="1"/>
@@ -10279,13 +10284,13 @@
       <c r="RX161" s="1"/>
     </row>
     <row r="162" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A162" s="10">
+      <c r="A162" s="2">
         <v>39539</v>
       </c>
-      <c r="B162" s="2">
+      <c r="B162" s="3">
         <v>8.9221726200208809E-2</v>
       </c>
-      <c r="C162" s="4"/>
+      <c r="C162" s="5"/>
       <c r="CG162" s="1"/>
       <c r="CH162" s="1"/>
       <c r="CI162" s="1"/>
@@ -10374,13 +10379,13 @@
       <c r="RX162" s="1"/>
     </row>
     <row r="163" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A163" s="10">
+      <c r="A163" s="2">
         <v>39569</v>
       </c>
-      <c r="B163" s="2">
+      <c r="B163" s="3">
         <v>8.5276870884392231E-2</v>
       </c>
-      <c r="C163" s="4"/>
+      <c r="C163" s="5"/>
       <c r="CG163" s="1"/>
       <c r="CH163" s="1"/>
       <c r="CI163" s="1"/>
@@ -10469,13 +10474,13 @@
       <c r="RX163" s="1"/>
     </row>
     <row r="164" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A164" s="10">
+      <c r="A164" s="2">
         <v>39600</v>
       </c>
-      <c r="B164" s="2">
+      <c r="B164" s="3">
         <v>9.0760799631218497E-2</v>
       </c>
-      <c r="C164" s="4"/>
+      <c r="C164" s="5"/>
       <c r="CG164" s="1"/>
       <c r="CH164" s="1"/>
       <c r="CI164" s="1"/>
@@ -10564,13 +10569,13 @@
       <c r="RX164" s="1"/>
     </row>
     <row r="165" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A165" s="10">
+      <c r="A165" s="2">
         <v>39630</v>
       </c>
-      <c r="B165" s="2">
+      <c r="B165" s="3">
         <v>9.0094041432956906E-2</v>
       </c>
-      <c r="C165" s="4"/>
+      <c r="C165" s="5"/>
       <c r="CG165" s="1"/>
       <c r="CH165" s="1"/>
       <c r="CI165" s="1"/>
@@ -10659,13 +10664,13 @@
       <c r="RX165" s="1"/>
     </row>
     <row r="166" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A166" s="10">
+      <c r="A166" s="2">
         <v>39661</v>
       </c>
-      <c r="B166" s="2">
+      <c r="B166" s="3">
         <v>9.2978334258690121E-2</v>
       </c>
-      <c r="C166" s="4"/>
+      <c r="C166" s="5"/>
       <c r="CG166" s="1"/>
       <c r="CH166" s="1"/>
       <c r="CI166" s="1"/>
@@ -10754,13 +10759,13 @@
       <c r="RX166" s="1"/>
     </row>
     <row r="167" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A167" s="10">
+      <c r="A167" s="2">
         <v>39692</v>
       </c>
-      <c r="B167" s="2">
+      <c r="B167" s="3">
         <v>0.1049190744132513</v>
       </c>
-      <c r="C167" s="4"/>
+      <c r="C167" s="5"/>
       <c r="CG167" s="1"/>
       <c r="CH167" s="1"/>
       <c r="CI167" s="1"/>
@@ -10849,13 +10854,13 @@
       <c r="RX167" s="1"/>
     </row>
     <row r="168" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A168" s="10">
+      <c r="A168" s="2">
         <v>39722</v>
       </c>
-      <c r="B168" s="2">
+      <c r="B168" s="3">
         <v>0.1150227873640902</v>
       </c>
-      <c r="C168" s="4"/>
+      <c r="C168" s="5"/>
       <c r="CG168" s="1"/>
       <c r="CH168" s="1"/>
       <c r="CI168" s="1"/>
@@ -10944,13 +10949,13 @@
       <c r="RX168" s="1"/>
     </row>
     <row r="169" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A169" s="10">
+      <c r="A169" s="2">
         <v>39753</v>
       </c>
-      <c r="B169" s="2">
+      <c r="B169" s="3">
         <v>0.12713618920136005</v>
       </c>
-      <c r="C169" s="4"/>
+      <c r="C169" s="5"/>
       <c r="CG169" s="1"/>
       <c r="CH169" s="1"/>
       <c r="CI169" s="1"/>
@@ -11039,13 +11044,13 @@
       <c r="RX169" s="1"/>
     </row>
     <row r="170" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A170" s="10">
+      <c r="A170" s="2">
         <v>39783</v>
       </c>
-      <c r="B170" s="2">
+      <c r="B170" s="3">
         <v>0.14219604354597082</v>
       </c>
-      <c r="C170" s="4"/>
+      <c r="C170" s="5"/>
       <c r="CG170" s="1"/>
       <c r="CH170" s="1"/>
       <c r="CI170" s="1"/>
@@ -11134,13 +11139,13 @@
       <c r="RX170" s="1"/>
     </row>
     <row r="171" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A171" s="10">
+      <c r="A171" s="2">
         <v>39814</v>
       </c>
-      <c r="B171" s="2">
+      <c r="B171" s="3">
         <v>0.13409152093551951</v>
       </c>
-      <c r="C171" s="4"/>
+      <c r="C171" s="5"/>
       <c r="CG171" s="1"/>
       <c r="CH171" s="1"/>
       <c r="CI171" s="1"/>
@@ -11229,13 +11234,13 @@
       <c r="RX171" s="1"/>
     </row>
     <row r="172" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A172" s="10">
+      <c r="A172" s="2">
         <v>39845</v>
       </c>
-      <c r="B172" s="2">
+      <c r="B172" s="3">
         <v>0.1323173344014103</v>
       </c>
-      <c r="C172" s="4"/>
+      <c r="C172" s="5"/>
       <c r="CG172" s="1"/>
       <c r="CH172" s="1"/>
       <c r="CI172" s="1"/>
@@ -11324,13 +11329,13 @@
       <c r="RX172" s="1"/>
     </row>
     <row r="173" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A173" s="10">
+      <c r="A173" s="2">
         <v>39873</v>
       </c>
-      <c r="B173" s="2">
+      <c r="B173" s="3">
         <v>0.12184780792693525</v>
       </c>
-      <c r="C173" s="4"/>
+      <c r="C173" s="5"/>
       <c r="CG173" s="1"/>
       <c r="CH173" s="1"/>
       <c r="CI173" s="1"/>
@@ -11419,13 +11424,13 @@
       <c r="RX173" s="1"/>
     </row>
     <row r="174" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A174" s="10">
+      <c r="A174" s="2">
         <v>39904</v>
       </c>
-      <c r="B174" s="2">
+      <c r="B174" s="3">
         <v>0.1088401890456267</v>
       </c>
-      <c r="C174" s="4"/>
+      <c r="C174" s="5"/>
       <c r="CG174" s="1"/>
       <c r="CH174" s="1"/>
       <c r="CI174" s="1"/>
@@ -11514,13 +11519,13 @@
       <c r="RX174" s="1"/>
     </row>
     <row r="175" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A175" s="10">
+      <c r="A175" s="2">
         <v>39934</v>
       </c>
-      <c r="B175" s="2">
+      <c r="B175" s="3">
         <v>0.10207538732969924</v>
       </c>
-      <c r="C175" s="4"/>
+      <c r="C175" s="5"/>
       <c r="CG175" s="1"/>
       <c r="CH175" s="1"/>
       <c r="CI175" s="1"/>
@@ -11609,13 +11614,13 @@
       <c r="RX175" s="1"/>
     </row>
     <row r="176" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A176" s="10">
+      <c r="A176" s="2">
         <v>39965</v>
       </c>
-      <c r="B176" s="2">
+      <c r="B176" s="3">
         <v>9.0431157247827659E-2</v>
       </c>
-      <c r="C176" s="4"/>
+      <c r="C176" s="5"/>
       <c r="CG176" s="1"/>
       <c r="CH176" s="1"/>
       <c r="CI176" s="1"/>
@@ -11704,13 +11709,13 @@
       <c r="RX176" s="1"/>
     </row>
     <row r="177" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A177" s="10">
+      <c r="A177" s="2">
         <v>39995</v>
       </c>
-      <c r="B177" s="2">
+      <c r="B177" s="3">
         <v>8.8254360455356951E-2</v>
       </c>
-      <c r="C177" s="4"/>
+      <c r="C177" s="5"/>
       <c r="CG177" s="1"/>
       <c r="CH177" s="1"/>
       <c r="CI177" s="1"/>
@@ -11799,13 +11804,13 @@
       <c r="RX177" s="1"/>
     </row>
     <row r="178" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A178" s="10">
+      <c r="A178" s="2">
         <v>40026</v>
       </c>
-      <c r="B178" s="2">
+      <c r="B178" s="3">
         <v>8.5062467132288211E-2</v>
       </c>
-      <c r="C178" s="4"/>
+      <c r="C178" s="5"/>
       <c r="CG178" s="1"/>
       <c r="CH178" s="1"/>
       <c r="CI178" s="1"/>
@@ -11894,13 +11899,13 @@
       <c r="RX178" s="1"/>
     </row>
     <row r="179" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A179" s="10">
+      <c r="A179" s="2">
         <v>40057</v>
       </c>
-      <c r="B179" s="2">
+      <c r="B179" s="3">
         <v>8.194495980792163E-2</v>
       </c>
-      <c r="C179" s="4"/>
+      <c r="C179" s="5"/>
       <c r="CG179" s="1"/>
       <c r="CH179" s="1"/>
       <c r="CI179" s="1"/>
@@ -11989,13 +11994,13 @@
       <c r="RX179" s="1"/>
     </row>
     <row r="180" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A180" s="10">
+      <c r="A180" s="2">
         <v>40087</v>
       </c>
-      <c r="B180" s="2">
+      <c r="B180" s="3">
         <v>8.3103148537463978E-2</v>
       </c>
-      <c r="C180" s="4"/>
+      <c r="C180" s="5"/>
       <c r="CG180" s="1"/>
       <c r="CH180" s="1"/>
       <c r="CI180" s="1"/>
@@ -12084,13 +12089,13 @@
       <c r="RX180" s="1"/>
     </row>
     <row r="181" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A181" s="10">
+      <c r="A181" s="2">
         <v>40118</v>
       </c>
-      <c r="B181" s="2">
+      <c r="B181" s="3">
         <v>8.4939307901060079E-2</v>
       </c>
-      <c r="C181" s="4"/>
+      <c r="C181" s="5"/>
       <c r="CG181" s="1"/>
       <c r="CH181" s="1"/>
       <c r="CI181" s="1"/>
@@ -12179,13 +12184,13 @@
       <c r="RX181" s="1"/>
     </row>
     <row r="182" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A182" s="10">
+      <c r="A182" s="2">
         <v>40148</v>
       </c>
-      <c r="B182" s="2">
+      <c r="B182" s="3">
         <v>9.1998835222545483E-2</v>
       </c>
-      <c r="C182" s="4"/>
+      <c r="C182" s="5"/>
       <c r="CG182" s="1"/>
       <c r="CH182" s="1"/>
       <c r="CI182" s="1"/>
@@ -12274,13 +12279,13 @@
       <c r="RX182" s="1"/>
     </row>
     <row r="183" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A183" s="10">
+      <c r="A183" s="2">
         <v>40179</v>
       </c>
-      <c r="B183" s="2">
+      <c r="B183" s="3">
         <v>9.4406445060834981E-2</v>
       </c>
-      <c r="C183" s="4"/>
+      <c r="C183" s="5"/>
       <c r="CG183" s="1"/>
       <c r="CH183" s="1"/>
       <c r="CI183" s="1"/>
@@ -12369,13 +12374,13 @@
       <c r="RX183" s="1"/>
     </row>
     <row r="184" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A184" s="10">
+      <c r="A184" s="2">
         <v>40210</v>
       </c>
-      <c r="B184" s="2">
+      <c r="B184" s="3">
         <v>9.677333010017547E-2</v>
       </c>
-      <c r="C184" s="4"/>
+      <c r="C184" s="5"/>
       <c r="CG184" s="1"/>
       <c r="CH184" s="1"/>
       <c r="CI184" s="1"/>
@@ -12464,13 +12469,13 @@
       <c r="RX184" s="1"/>
     </row>
     <row r="185" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A185" s="10">
+      <c r="A185" s="2">
         <v>40238</v>
       </c>
-      <c r="B185" s="2">
+      <c r="B185" s="3">
         <v>0.10525014956324957</v>
       </c>
-      <c r="C185" s="4"/>
+      <c r="C185" s="5"/>
       <c r="CG185" s="1"/>
       <c r="CH185" s="1"/>
       <c r="CI185" s="1"/>
@@ -12559,13 +12564,13 @@
       <c r="RX185" s="1"/>
     </row>
     <row r="186" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A186" s="10">
+      <c r="A186" s="2">
         <v>40269</v>
       </c>
-      <c r="B186" s="2">
+      <c r="B186" s="3">
         <v>0.10079451028425426</v>
       </c>
-      <c r="C186" s="4"/>
+      <c r="C186" s="5"/>
       <c r="CG186" s="1"/>
       <c r="CH186" s="1"/>
       <c r="CI186" s="1"/>
@@ -12654,13 +12659,13 @@
       <c r="RX186" s="1"/>
     </row>
     <row r="187" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A187" s="10">
+      <c r="A187" s="2">
         <v>40299</v>
       </c>
-      <c r="B187" s="2">
+      <c r="B187" s="3">
         <v>9.7475443102761017E-2</v>
       </c>
-      <c r="C187" s="4"/>
+      <c r="C187" s="5"/>
       <c r="CG187" s="1"/>
       <c r="CH187" s="1"/>
       <c r="CI187" s="1"/>
@@ -12749,13 +12754,13 @@
       <c r="RX187" s="1"/>
     </row>
     <row r="188" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A188" s="10">
+      <c r="A188" s="2">
         <v>40330</v>
       </c>
-      <c r="B188" s="2">
+      <c r="B188" s="3">
         <v>0.10575656830811714</v>
       </c>
-      <c r="C188" s="4"/>
+      <c r="C188" s="5"/>
       <c r="CG188" s="1"/>
       <c r="CH188" s="1"/>
       <c r="CI188" s="1"/>
@@ -12844,13 +12849,13 @@
       <c r="RX188" s="1"/>
     </row>
     <row r="189" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A189" s="10">
+      <c r="A189" s="2">
         <v>40360</v>
       </c>
-      <c r="B189" s="2">
+      <c r="B189" s="3">
         <v>0.10532947410949854</v>
       </c>
-      <c r="C189" s="4"/>
+      <c r="C189" s="5"/>
       <c r="CG189" s="1"/>
       <c r="CH189" s="1"/>
       <c r="CI189" s="1"/>
@@ -12939,13 +12944,13 @@
       <c r="RX189" s="1"/>
     </row>
     <row r="190" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A190" s="10">
+      <c r="A190" s="2">
         <v>40391</v>
       </c>
-      <c r="B190" s="2">
+      <c r="B190" s="3">
         <v>0.10550581781341299</v>
       </c>
-      <c r="C190" s="4"/>
+      <c r="C190" s="5"/>
       <c r="CG190" s="1"/>
       <c r="CH190" s="1"/>
       <c r="CI190" s="1"/>
@@ -13034,13 +13039,13 @@
       <c r="RX190" s="1"/>
     </row>
     <row r="191" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A191" s="10">
+      <c r="A191" s="2">
         <v>40422</v>
       </c>
-      <c r="B191" s="2">
+      <c r="B191" s="3">
         <v>0.10964076002117032</v>
       </c>
-      <c r="C191" s="4"/>
+      <c r="C191" s="5"/>
       <c r="CG191" s="1"/>
       <c r="CH191" s="1"/>
       <c r="CI191" s="1"/>
@@ -13129,13 +13134,13 @@
       <c r="RX191" s="1"/>
     </row>
     <row r="192" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A192" s="10">
+      <c r="A192" s="2">
         <v>40452</v>
       </c>
-      <c r="B192" s="2">
+      <c r="B192" s="3">
         <v>0.10513412866678648</v>
       </c>
-      <c r="C192" s="4"/>
+      <c r="C192" s="5"/>
       <c r="CG192" s="1"/>
       <c r="CH192" s="1"/>
       <c r="CI192" s="1"/>
@@ -13224,13 +13229,13 @@
       <c r="RX192" s="1"/>
     </row>
     <row r="193" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A193" s="10">
+      <c r="A193" s="2">
         <v>40483</v>
       </c>
-      <c r="B193" s="2">
+      <c r="B193" s="3">
         <v>0.10473580686784892</v>
       </c>
-      <c r="C193" s="4"/>
+      <c r="C193" s="5"/>
       <c r="CG193" s="1"/>
       <c r="CH193" s="1"/>
       <c r="CI193" s="1"/>
@@ -13319,13 +13324,13 @@
       <c r="RX193" s="1"/>
     </row>
     <row r="194" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A194" s="10">
+      <c r="A194" s="2">
         <v>40513</v>
       </c>
-      <c r="B194" s="2">
+      <c r="B194" s="3">
         <v>9.4346589276028653E-2</v>
       </c>
-      <c r="C194" s="4"/>
+      <c r="C194" s="5"/>
       <c r="CG194" s="1"/>
       <c r="CH194" s="1"/>
       <c r="CI194" s="1"/>
@@ -13414,13 +13419,13 @@
       <c r="RX194" s="1"/>
     </row>
     <row r="195" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A195" s="10">
+      <c r="A195" s="2">
         <v>40544</v>
       </c>
-      <c r="B195" s="2">
+      <c r="B195" s="3">
         <v>9.5407238018712093E-2</v>
       </c>
-      <c r="C195" s="4"/>
+      <c r="C195" s="5"/>
       <c r="CG195" s="1"/>
       <c r="CH195" s="1"/>
       <c r="CI195" s="1"/>
@@ -13509,13 +13514,13 @@
       <c r="RX195" s="1"/>
     </row>
     <row r="196" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A196" s="10">
+      <c r="A196" s="2">
         <v>40575</v>
       </c>
-      <c r="B196" s="2">
+      <c r="B196" s="3">
         <v>9.3390806727688513E-2</v>
       </c>
-      <c r="C196" s="4"/>
+      <c r="C196" s="5"/>
       <c r="CG196" s="1"/>
       <c r="CH196" s="1"/>
       <c r="CI196" s="1"/>
@@ -13604,13 +13609,13 @@
       <c r="RX196" s="1"/>
     </row>
     <row r="197" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A197" s="10">
+      <c r="A197" s="2">
         <v>40603</v>
       </c>
-      <c r="B197" s="2">
+      <c r="B197" s="3">
         <v>9.3441141720405185E-2</v>
       </c>
-      <c r="C197" s="4"/>
+      <c r="C197" s="5"/>
       <c r="CG197" s="1"/>
       <c r="CH197" s="1"/>
       <c r="CI197" s="1"/>
@@ -13699,13 +13704,13 @@
       <c r="RX197" s="1"/>
     </row>
     <row r="198" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A198" s="10">
+      <c r="A198" s="2">
         <v>40634</v>
       </c>
-      <c r="B198" s="2">
+      <c r="B198" s="3">
         <v>9.3643791643206381E-2</v>
       </c>
-      <c r="C198" s="4"/>
+      <c r="C198" s="5"/>
       <c r="CG198" s="1"/>
       <c r="CH198" s="1"/>
       <c r="CI198" s="1"/>
@@ -13794,13 +13799,13 @@
       <c r="RX198" s="1"/>
     </row>
     <row r="199" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A199" s="10">
+      <c r="A199" s="2">
         <v>40664</v>
       </c>
-      <c r="B199" s="2">
+      <c r="B199" s="3">
         <v>0.10032836280974664</v>
       </c>
-      <c r="C199" s="4"/>
+      <c r="C199" s="5"/>
       <c r="CG199" s="1"/>
       <c r="CH199" s="1"/>
       <c r="CI199" s="1"/>
@@ -13889,13 +13894,13 @@
       <c r="RX199" s="1"/>
     </row>
     <row r="200" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A200" s="10">
+      <c r="A200" s="2">
         <v>40695</v>
       </c>
-      <c r="B200" s="2">
+      <c r="B200" s="3">
         <v>9.9388836279557288E-2</v>
       </c>
-      <c r="C200" s="4"/>
+      <c r="C200" s="5"/>
       <c r="CG200" s="1"/>
       <c r="CH200" s="1"/>
       <c r="CI200" s="1"/>
@@ -13984,13 +13989,13 @@
       <c r="RX200" s="1"/>
     </row>
     <row r="201" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A201" s="10">
+      <c r="A201" s="2">
         <v>40725</v>
       </c>
-      <c r="B201" s="2">
+      <c r="B201" s="3">
         <v>0.10538607103302287</v>
       </c>
-      <c r="C201" s="4"/>
+      <c r="C201" s="5"/>
       <c r="CG201" s="1"/>
       <c r="CH201" s="1"/>
       <c r="CI201" s="1"/>
@@ -14079,13 +14084,13 @@
       <c r="RX201" s="1"/>
     </row>
     <row r="202" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A202" s="10">
+      <c r="A202" s="2">
         <v>40756</v>
       </c>
-      <c r="B202" s="2">
+      <c r="B202" s="3">
         <v>0.11212100068797148</v>
       </c>
-      <c r="C202" s="4"/>
+      <c r="C202" s="5"/>
       <c r="CG202" s="1"/>
       <c r="CH202" s="1"/>
       <c r="CI202" s="1"/>
@@ -14174,13 +14179,13 @@
       <c r="RX202" s="1"/>
     </row>
     <row r="203" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A203" s="10">
+      <c r="A203" s="2">
         <v>40787</v>
       </c>
-      <c r="B203" s="2">
+      <c r="B203" s="3">
         <v>0.110785960833959</v>
       </c>
-      <c r="C203" s="4"/>
+      <c r="C203" s="5"/>
       <c r="CG203" s="1"/>
       <c r="CH203" s="1"/>
       <c r="CI203" s="1"/>
@@ -14269,13 +14274,13 @@
       <c r="RX203" s="1"/>
     </row>
     <row r="204" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A204" s="10">
+      <c r="A204" s="2">
         <v>40817</v>
       </c>
-      <c r="B204" s="2">
+      <c r="B204" s="3">
         <v>0.10360612595722082</v>
       </c>
-      <c r="C204" s="4"/>
+      <c r="C204" s="5"/>
       <c r="CG204" s="1"/>
       <c r="CH204" s="1"/>
       <c r="CI204" s="1"/>
@@ -14364,13 +14369,13 @@
       <c r="RX204" s="1"/>
     </row>
     <row r="205" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A205" s="10">
+      <c r="A205" s="2">
         <v>40848</v>
       </c>
-      <c r="B205" s="2">
+      <c r="B205" s="3">
         <v>0.10488449858019411</v>
       </c>
-      <c r="C205" s="4"/>
+      <c r="C205" s="5"/>
       <c r="CG205" s="1"/>
       <c r="CH205" s="1"/>
       <c r="CI205" s="1"/>
@@ -14459,13 +14464,13 @@
       <c r="RX205" s="1"/>
     </row>
     <row r="206" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A206" s="10">
+      <c r="A206" s="2">
         <v>40878</v>
       </c>
-      <c r="B206" s="2">
+      <c r="B206" s="3">
         <v>0.10009455642023066</v>
       </c>
-      <c r="C206" s="4"/>
+      <c r="C206" s="5"/>
       <c r="CG206" s="1"/>
       <c r="CH206" s="1"/>
       <c r="CI206" s="1"/>
@@ -14517,7 +14522,7 @@
       <c r="JL206" s="1"/>
       <c r="JW206" s="1"/>
       <c r="KH206" s="1"/>
-      <c r="KJ206" s="8"/>
+      <c r="KJ206" s="7"/>
       <c r="KS206" s="1"/>
       <c r="LD206" s="1"/>
       <c r="LE206" s="1"/>
@@ -14555,13 +14560,13 @@
       <c r="RX206" s="1"/>
     </row>
     <row r="207" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A207" s="10">
+      <c r="A207" s="2">
         <v>40909</v>
       </c>
-      <c r="B207" s="2">
+      <c r="B207" s="3">
         <v>9.6997483527202721E-2</v>
       </c>
-      <c r="C207" s="4"/>
+      <c r="C207" s="5"/>
       <c r="CG207" s="1"/>
       <c r="CH207" s="1"/>
       <c r="CI207" s="1"/>
@@ -14626,7 +14631,7 @@
       <c r="LM207" s="1"/>
       <c r="LO207" s="1"/>
       <c r="LZ207" s="1"/>
-      <c r="MB207" s="8"/>
+      <c r="MB207" s="7"/>
       <c r="MK207" s="1"/>
       <c r="MV207" s="1"/>
       <c r="NG207" s="1"/>
@@ -14651,13 +14656,13 @@
       <c r="RX207" s="1"/>
     </row>
     <row r="208" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A208" s="10">
+      <c r="A208" s="2">
         <v>40940</v>
       </c>
-      <c r="B208" s="2">
+      <c r="B208" s="3">
         <v>9.0887604642450229E-2</v>
       </c>
-      <c r="C208" s="4"/>
+      <c r="C208" s="5"/>
       <c r="CG208" s="1"/>
       <c r="CH208" s="1"/>
       <c r="CI208" s="1"/>
@@ -14710,7 +14715,7 @@
       <c r="JW208" s="1"/>
       <c r="KH208" s="1"/>
       <c r="KS208" s="1"/>
-      <c r="KU208" s="8"/>
+      <c r="KU208" s="7"/>
       <c r="LD208" s="1"/>
       <c r="LE208" s="1"/>
       <c r="LF208" s="1"/>
@@ -14724,13 +14729,13 @@
       <c r="LO208" s="1"/>
       <c r="LZ208" s="1"/>
       <c r="MK208" s="1"/>
-      <c r="MM208" s="8"/>
+      <c r="MM208" s="7"/>
       <c r="MV208" s="1"/>
-      <c r="MX208" s="8"/>
+      <c r="MX208" s="7"/>
       <c r="NG208" s="1"/>
       <c r="NR208" s="1"/>
       <c r="OC208" s="1"/>
-      <c r="OE208" s="8"/>
+      <c r="OE208" s="7"/>
       <c r="ON208" s="1"/>
       <c r="OY208" s="1"/>
       <c r="PJ208" s="1"/>
@@ -14750,13 +14755,13 @@
       <c r="RX208" s="1"/>
     </row>
     <row r="209" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A209" s="10">
+      <c r="A209" s="2">
         <v>40969</v>
       </c>
-      <c r="B209" s="2">
+      <c r="B209" s="3">
         <v>8.7800298912843522E-2</v>
       </c>
-      <c r="C209" s="4"/>
+      <c r="C209" s="5"/>
       <c r="CG209" s="1"/>
       <c r="CH209" s="1"/>
       <c r="CI209" s="1"/>
@@ -14811,7 +14816,7 @@
       <c r="KS209" s="1"/>
       <c r="LD209" s="1"/>
       <c r="LE209" s="1"/>
-      <c r="LF209" s="8"/>
+      <c r="LF209" s="7"/>
       <c r="LG209" s="1"/>
       <c r="LH209" s="1"/>
       <c r="LI209" s="1"/>
@@ -14829,7 +14834,7 @@
       <c r="ON209" s="1"/>
       <c r="OY209" s="1"/>
       <c r="PJ209" s="1"/>
-      <c r="PL209" s="8"/>
+      <c r="PL209" s="7"/>
       <c r="PU209" s="1"/>
       <c r="PV209" s="1"/>
       <c r="PW209" s="1"/>
@@ -14846,13 +14851,13 @@
       <c r="RX209" s="1"/>
     </row>
     <row r="210" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A210" s="10">
+      <c r="A210" s="2">
         <v>41000</v>
       </c>
-      <c r="B210" s="2">
+      <c r="B210" s="3">
         <v>9.5810214550751407E-2</v>
       </c>
-      <c r="C210" s="4"/>
+      <c r="C210" s="5"/>
       <c r="CG210" s="1"/>
       <c r="CH210" s="1"/>
       <c r="CI210" s="1"/>
@@ -14916,18 +14921,18 @@
       <c r="LL210" s="1"/>
       <c r="LM210" s="1"/>
       <c r="LO210" s="1"/>
-      <c r="LQ210" s="8"/>
+      <c r="LQ210" s="7"/>
       <c r="LZ210" s="1"/>
       <c r="MK210" s="1"/>
       <c r="MV210" s="1"/>
       <c r="NG210" s="1"/>
-      <c r="NI210" s="8"/>
+      <c r="NI210" s="7"/>
       <c r="NR210" s="1"/>
-      <c r="NT210" s="8"/>
+      <c r="NT210" s="7"/>
       <c r="OC210" s="1"/>
       <c r="ON210" s="1"/>
       <c r="OY210" s="1"/>
-      <c r="PA210" s="8"/>
+      <c r="PA210" s="7"/>
       <c r="PJ210" s="1"/>
       <c r="PU210" s="1"/>
       <c r="PV210" s="1"/>
@@ -14945,13 +14950,13 @@
       <c r="RX210" s="1"/>
     </row>
     <row r="211" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A211" s="10">
+      <c r="A211" s="2">
         <v>41030</v>
       </c>
-      <c r="B211" s="2">
+      <c r="B211" s="3">
         <v>0.10515093938008996</v>
       </c>
-      <c r="C211" s="4"/>
+      <c r="C211" s="5"/>
       <c r="CG211" s="1"/>
       <c r="CH211" s="1"/>
       <c r="CI211" s="1"/>
@@ -15040,13 +15045,13 @@
       <c r="RX211" s="1"/>
     </row>
     <row r="212" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A212" s="10">
+      <c r="A212" s="2">
         <v>41061</v>
       </c>
-      <c r="B212" s="2">
+      <c r="B212" s="3">
         <v>9.0817328850805651E-2</v>
       </c>
-      <c r="C212" s="4"/>
+      <c r="C212" s="5"/>
       <c r="CG212" s="1"/>
       <c r="CH212" s="1"/>
       <c r="CI212" s="1"/>
@@ -15117,7 +15122,7 @@
       <c r="NR212" s="1"/>
       <c r="OC212" s="1"/>
       <c r="ON212" s="1"/>
-      <c r="OP212" s="8"/>
+      <c r="OP212" s="7"/>
       <c r="OY212" s="1"/>
       <c r="PJ212" s="1"/>
       <c r="PU212" s="1"/>
@@ -15136,13 +15141,13 @@
       <c r="RX212" s="1"/>
     </row>
     <row r="213" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A213" s="10">
+      <c r="A213" s="2">
         <v>41091</v>
       </c>
-      <c r="B213" s="2">
+      <c r="B213" s="3">
         <v>9.198193035468108E-2</v>
       </c>
-      <c r="C213" s="4"/>
+      <c r="C213" s="5"/>
       <c r="CG213" s="1"/>
       <c r="CH213" s="1"/>
       <c r="CI213" s="1"/>
@@ -15231,13 +15236,13 @@
       <c r="RX213" s="1"/>
     </row>
     <row r="214" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A214" s="10">
+      <c r="A214" s="2">
         <v>41122</v>
       </c>
-      <c r="B214" s="2">
+      <c r="B214" s="3">
         <v>9.0527591621574741E-2</v>
       </c>
-      <c r="C214" s="4"/>
+      <c r="C214" s="5"/>
       <c r="CG214" s="1"/>
       <c r="CH214" s="1"/>
       <c r="CI214" s="1"/>
@@ -15326,13 +15331,13 @@
       <c r="RX214" s="1"/>
     </row>
     <row r="215" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A215" s="10">
+      <c r="A215" s="2">
         <v>41153</v>
       </c>
-      <c r="B215" s="2">
+      <c r="B215" s="3">
         <v>9.321029129473013E-2</v>
       </c>
-      <c r="C215" s="4"/>
+      <c r="C215" s="5"/>
       <c r="CG215" s="1"/>
       <c r="CH215" s="1"/>
       <c r="CI215" s="1"/>
@@ -15407,7 +15412,7 @@
       <c r="PJ215" s="1"/>
       <c r="PU215" s="1"/>
       <c r="PV215" s="1"/>
-      <c r="PW215" s="8"/>
+      <c r="PW215" s="7"/>
       <c r="PX215" s="1"/>
       <c r="PY215" s="1"/>
       <c r="PZ215" s="1"/>
@@ -15421,13 +15426,13 @@
       <c r="RX215" s="1"/>
     </row>
     <row r="216" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A216" s="10">
+      <c r="A216" s="2">
         <v>41183</v>
       </c>
-      <c r="B216" s="2">
+      <c r="B216" s="3">
         <v>9.2447998465240086E-2</v>
       </c>
-      <c r="C216" s="4"/>
+      <c r="C216" s="5"/>
       <c r="CG216" s="1"/>
       <c r="CH216" s="1"/>
       <c r="CI216" s="1"/>
@@ -15510,20 +15515,20 @@
       <c r="QB216" s="1"/>
       <c r="QC216" s="1"/>
       <c r="QD216" s="1"/>
-      <c r="QH216" s="8"/>
+      <c r="QH216" s="7"/>
       <c r="QQ216" s="1"/>
       <c r="RB216" s="1"/>
       <c r="RM216" s="1"/>
       <c r="RX216" s="1"/>
     </row>
     <row r="217" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A217" s="10">
+      <c r="A217" s="2">
         <v>41214</v>
       </c>
-      <c r="B217" s="2">
+      <c r="B217" s="3">
         <v>9.5606034425374312E-2</v>
       </c>
-      <c r="C217" s="4"/>
+      <c r="C217" s="5"/>
       <c r="CG217" s="1"/>
       <c r="CH217" s="1"/>
       <c r="CI217" s="1"/>
@@ -15612,13 +15617,13 @@
       <c r="RX217" s="1"/>
     </row>
     <row r="218" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A218" s="10">
+      <c r="A218" s="2">
         <v>41244</v>
       </c>
-      <c r="B218" s="2">
+      <c r="B218" s="3">
         <v>9.1047274906739667E-2</v>
       </c>
-      <c r="C218" s="4"/>
+      <c r="C218" s="5"/>
       <c r="CG218" s="1"/>
       <c r="CH218" s="1"/>
       <c r="CI218" s="1"/>
@@ -15707,13 +15712,13 @@
       <c r="RX218" s="1"/>
     </row>
     <row r="219" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A219" s="10">
+      <c r="A219" s="2">
         <v>41275</v>
       </c>
-      <c r="B219" s="2">
+      <c r="B219" s="3">
         <v>8.7449844192482862E-2</v>
       </c>
-      <c r="C219" s="4"/>
+      <c r="C219" s="5"/>
       <c r="CG219" s="1"/>
       <c r="CH219" s="1"/>
       <c r="CI219" s="1"/>
@@ -15802,13 +15807,13 @@
       <c r="RX219" s="1"/>
     </row>
     <row r="220" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A220" s="10">
+      <c r="A220" s="2">
         <v>41306</v>
       </c>
-      <c r="B220" s="2">
+      <c r="B220" s="3">
         <v>8.9884574591296298E-2</v>
       </c>
-      <c r="C220" s="4"/>
+      <c r="C220" s="5"/>
       <c r="CG220" s="1"/>
       <c r="CH220" s="1"/>
       <c r="CI220" s="1"/>
@@ -15897,13 +15902,13 @@
       <c r="RX220" s="1"/>
     </row>
     <row r="221" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A221" s="10">
+      <c r="A221" s="2">
         <v>41334</v>
       </c>
-      <c r="B221" s="2">
+      <c r="B221" s="3">
         <v>8.3440031175367746E-2</v>
       </c>
-      <c r="C221" s="4"/>
+      <c r="C221" s="5"/>
       <c r="CG221" s="1"/>
       <c r="CH221" s="1"/>
       <c r="CI221" s="1"/>
@@ -15943,11 +15948,11 @@
       <c r="EJ221" s="1"/>
       <c r="EU221" s="1"/>
       <c r="FF221" s="1"/>
-      <c r="FH221" s="8"/>
+      <c r="FH221" s="7"/>
       <c r="FQ221" s="1"/>
-      <c r="FS221" s="8"/>
+      <c r="FS221" s="7"/>
       <c r="GB221" s="1"/>
-      <c r="GD221" s="8"/>
+      <c r="GD221" s="7"/>
       <c r="GM221" s="1"/>
       <c r="GX221" s="1"/>
       <c r="HI221" s="1"/>
@@ -15995,13 +16000,13 @@
       <c r="RX221" s="1"/>
     </row>
     <row r="222" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A222" s="10">
+      <c r="A222" s="2">
         <v>41365</v>
       </c>
-      <c r="B222" s="2">
+      <c r="B222" s="3">
         <v>8.4749349865796034E-2</v>
       </c>
-      <c r="C222" s="4"/>
+      <c r="C222" s="5"/>
       <c r="PU222" s="1"/>
       <c r="PV222" s="1"/>
       <c r="PW222" s="1"/>
@@ -16014,13 +16019,13 @@
       <c r="QD222" s="1"/>
     </row>
     <row r="223" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A223" s="10">
+      <c r="A223" s="2">
         <v>41395</v>
       </c>
-      <c r="B223" s="2">
+      <c r="B223" s="3">
         <v>8.0522617175596833E-2</v>
       </c>
-      <c r="C223" s="4"/>
+      <c r="C223" s="5"/>
       <c r="PU223" s="1"/>
       <c r="PV223" s="1"/>
       <c r="PW223" s="1"/>
@@ -16033,13 +16038,13 @@
       <c r="QD223" s="1"/>
     </row>
     <row r="224" spans="1:492" x14ac:dyDescent="0.25">
-      <c r="A224" s="10">
+      <c r="A224" s="2">
         <v>41426</v>
       </c>
-      <c r="B224" s="2">
+      <c r="B224" s="3">
         <v>7.5014888373605801E-2</v>
       </c>
-      <c r="C224" s="4"/>
+      <c r="C224" s="5"/>
       <c r="PU224" s="1"/>
       <c r="PV224" s="1"/>
       <c r="PW224" s="1"/>
@@ -16052,13 +16057,13 @@
       <c r="QD224" s="1"/>
     </row>
     <row r="225" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A225" s="10">
+      <c r="A225" s="2">
         <v>41456</v>
       </c>
-      <c r="B225" s="2">
+      <c r="B225" s="3">
         <v>7.7769653801373628E-2</v>
       </c>
-      <c r="C225" s="4"/>
+      <c r="C225" s="5"/>
       <c r="PU225" s="1"/>
       <c r="PV225" s="1"/>
       <c r="PW225" s="1"/>
@@ -16071,13 +16076,13 @@
       <c r="QD225" s="1"/>
     </row>
     <row r="226" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A226" s="10">
+      <c r="A226" s="2">
         <v>41487</v>
       </c>
-      <c r="B226" s="2">
+      <c r="B226" s="3">
         <v>7.610915084711764E-2</v>
       </c>
-      <c r="C226" s="4"/>
+      <c r="C226" s="5"/>
       <c r="PU226" s="1"/>
       <c r="PV226" s="1"/>
       <c r="PW226" s="1"/>
@@ -16090,13 +16095,13 @@
       <c r="QD226" s="1"/>
     </row>
     <row r="227" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A227" s="10">
+      <c r="A227" s="2">
         <v>41518</v>
       </c>
-      <c r="B227" s="2">
+      <c r="B227" s="3">
         <v>7.4874558269219044E-2</v>
       </c>
-      <c r="C227" s="4"/>
+      <c r="C227" s="5"/>
       <c r="PU227" s="1"/>
       <c r="PV227" s="1"/>
       <c r="PW227" s="1"/>
@@ -16109,1143 +16114,1150 @@
       <c r="QD227" s="1"/>
     </row>
     <row r="228" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A228" s="10">
+      <c r="A228" s="2">
         <v>41548</v>
       </c>
-      <c r="B228" s="2">
+      <c r="B228" s="3">
         <v>7.3769426049519596E-2</v>
       </c>
-      <c r="C228" s="4"/>
+      <c r="C228" s="5"/>
     </row>
     <row r="229" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A229" s="10">
+      <c r="A229" s="2">
         <v>41579</v>
       </c>
-      <c r="B229" s="2">
+      <c r="B229" s="3">
         <v>7.9046521727427585E-2</v>
       </c>
-      <c r="C229" s="4"/>
+      <c r="C229" s="5"/>
     </row>
     <row r="230" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A230" s="10">
+      <c r="A230" s="2">
         <v>41609</v>
       </c>
-      <c r="B230" s="2">
+      <c r="B230" s="3">
         <v>7.5700418664925911E-2</v>
       </c>
-      <c r="C230" s="4"/>
+      <c r="C230" s="5"/>
     </row>
     <row r="231" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A231" s="10">
+      <c r="A231" s="2">
         <v>41640</v>
       </c>
-      <c r="B231" s="2">
+      <c r="B231" s="3">
         <v>8.4845263579311214E-2</v>
       </c>
-      <c r="C231" s="4"/>
+      <c r="C231" s="5"/>
     </row>
     <row r="232" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A232" s="10">
+      <c r="A232" s="2">
         <v>41671</v>
       </c>
-      <c r="B232" s="2">
+      <c r="B232" s="3">
         <v>8.4096940621738683E-2</v>
       </c>
-      <c r="C232" s="4"/>
+      <c r="C232" s="5"/>
     </row>
     <row r="233" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A233" s="10">
+      <c r="A233" s="2">
         <v>41699</v>
       </c>
-      <c r="B233" s="2">
+      <c r="B233" s="3">
         <v>9.5085723314460191E-2</v>
       </c>
-      <c r="C233" s="4"/>
+      <c r="C233" s="5"/>
     </row>
     <row r="234" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A234" s="10">
+      <c r="A234" s="2">
         <v>41730</v>
       </c>
-      <c r="B234" s="2">
+      <c r="B234" s="3">
         <v>9.6617836562715484E-2</v>
       </c>
-      <c r="C234" s="4"/>
+      <c r="C234" s="5"/>
     </row>
     <row r="235" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A235" s="10">
+      <c r="A235" s="2">
         <v>41760</v>
       </c>
-      <c r="B235" s="2">
+      <c r="B235" s="3">
         <v>9.8701160485128128E-2</v>
       </c>
-      <c r="C235" s="4"/>
+      <c r="C235" s="5"/>
     </row>
     <row r="236" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A236" s="10">
+      <c r="A236" s="2">
         <v>41791</v>
       </c>
-      <c r="B236" s="2">
+      <c r="B236" s="3">
         <v>9.4012780857948633E-2</v>
       </c>
-      <c r="C236" s="4"/>
+      <c r="C236" s="5"/>
     </row>
     <row r="237" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A237" s="10">
+      <c r="A237" s="2">
         <v>41821</v>
       </c>
-      <c r="B237" s="2">
+      <c r="B237" s="3">
         <v>9.5099368892112943E-2</v>
       </c>
-      <c r="C237" s="4"/>
+      <c r="C237" s="5"/>
     </row>
     <row r="238" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A238" s="10">
+      <c r="A238" s="2">
         <v>41852</v>
       </c>
-      <c r="B238" s="2">
+      <c r="B238" s="3">
         <v>9.5412122648390635E-2</v>
       </c>
-      <c r="C238" s="4"/>
+      <c r="C238" s="5"/>
     </row>
     <row r="239" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A239" s="10">
+      <c r="A239" s="2">
         <v>41883</v>
       </c>
-      <c r="B239" s="2">
+      <c r="B239" s="3">
         <v>8.2926779422991759E-2</v>
       </c>
-      <c r="C239" s="4"/>
+      <c r="C239" s="5"/>
     </row>
     <row r="240" spans="1:446" x14ac:dyDescent="0.25">
-      <c r="A240" s="10">
+      <c r="A240" s="2">
         <v>41913</v>
       </c>
-      <c r="B240" s="2">
+      <c r="B240" s="3">
         <v>8.7456378540700291E-2</v>
       </c>
-      <c r="C240" s="4"/>
+      <c r="C240" s="5"/>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" s="10">
+      <c r="A241" s="2">
         <v>41944</v>
       </c>
-      <c r="B241" s="2">
+      <c r="B241" s="3">
         <v>9.0265236245787389E-2</v>
       </c>
-      <c r="C241" s="4"/>
+      <c r="C241" s="5"/>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" s="10">
+      <c r="A242" s="2">
         <v>41974</v>
       </c>
-      <c r="B242" s="2">
+      <c r="B242" s="3">
         <v>9.0600536697358139E-2</v>
       </c>
-      <c r="C242" s="4"/>
+      <c r="C242" s="5"/>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" s="10">
+      <c r="A243" s="2">
         <v>42005</v>
       </c>
-      <c r="B243" s="2">
+      <c r="B243" s="3">
         <v>0.10533016732361397</v>
       </c>
-      <c r="C243" s="4"/>
+      <c r="C243" s="5"/>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244" s="10">
+      <c r="A244" s="2">
         <v>42036</v>
       </c>
-      <c r="B244" s="2">
+      <c r="B244" s="3">
         <v>0.10379332898500528</v>
       </c>
-      <c r="C244" s="4"/>
+      <c r="C244" s="5"/>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" s="10">
+      <c r="A245" s="2">
         <v>42064</v>
       </c>
-      <c r="B245" s="2">
+      <c r="B245" s="3">
         <v>0.10646618622058883</v>
       </c>
-      <c r="C245" s="4"/>
+      <c r="C245" s="5"/>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246" s="10">
+      <c r="A246" s="2">
         <v>42095</v>
       </c>
-      <c r="B246" s="2">
+      <c r="B246" s="3">
         <v>0.10277197692695453</v>
       </c>
-      <c r="C246" s="4"/>
+      <c r="C246" s="5"/>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" s="10">
+      <c r="A247" s="2">
         <v>42125</v>
       </c>
-      <c r="B247" s="2">
+      <c r="B247" s="3">
         <v>0.10635981236621354</v>
       </c>
-      <c r="C247" s="4"/>
+      <c r="C247" s="5"/>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" s="10">
+      <c r="A248" s="2">
         <v>42156</v>
       </c>
-      <c r="B248" s="2">
+      <c r="B248" s="3">
         <v>0.10243622729858951</v>
       </c>
-      <c r="C248" s="4"/>
+      <c r="C248" s="5"/>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" s="10">
+      <c r="A249" s="2">
         <v>42186</v>
       </c>
-      <c r="B249" s="2">
+      <c r="B249" s="3">
         <v>0.10824745812912069</v>
       </c>
-      <c r="C249" s="4"/>
+      <c r="C249" s="5"/>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" s="10">
+      <c r="A250" s="2">
         <v>42217</v>
       </c>
-      <c r="B250" s="2">
+      <c r="B250" s="3">
         <v>0.11309406133143306</v>
       </c>
-      <c r="C250" s="4"/>
+      <c r="C250" s="5"/>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" s="10">
+      <c r="A251" s="2">
         <v>42248</v>
       </c>
-      <c r="B251" s="2">
+      <c r="B251" s="3">
         <v>9.9532565626062719E-2</v>
       </c>
-      <c r="C251" s="4"/>
+      <c r="C251" s="5"/>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" s="10">
+      <c r="A252" s="2">
         <v>42278</v>
       </c>
-      <c r="B252" s="2">
+      <c r="B252" s="3">
         <v>9.7344609070752625E-2</v>
       </c>
-      <c r="C252" s="4"/>
+      <c r="C252" s="5"/>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253" s="10">
+      <c r="A253" s="2">
         <v>42309</v>
       </c>
-      <c r="B253" s="2">
+      <c r="B253" s="3">
         <v>9.6030564044979047E-2</v>
       </c>
-      <c r="C253" s="4"/>
+      <c r="C253" s="5"/>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" s="10">
+      <c r="A254" s="2">
         <v>42339</v>
       </c>
-      <c r="B254" s="2">
+      <c r="B254" s="3">
         <v>9.7946408382498046E-2</v>
       </c>
-      <c r="C254" s="4"/>
+      <c r="C254" s="5"/>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255" s="10">
+      <c r="A255" s="2">
         <v>42370</v>
       </c>
-      <c r="B255" s="2">
+      <c r="B255" s="3">
         <v>0.10720725243654623</v>
       </c>
-      <c r="C255" s="4"/>
+      <c r="C255" s="5"/>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256" s="10">
+      <c r="A256" s="2">
         <v>42401</v>
       </c>
-      <c r="B256" s="2">
+      <c r="B256" s="3">
         <v>0.10623913533182294</v>
       </c>
-      <c r="C256" s="4"/>
+      <c r="C256" s="5"/>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257" s="10">
+      <c r="A257" s="2">
         <v>42430</v>
       </c>
-      <c r="B257" s="2">
+      <c r="B257" s="3">
         <v>9.6613329525373437E-2</v>
       </c>
-      <c r="C257" s="4"/>
+      <c r="C257" s="5"/>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" s="10">
+      <c r="A258" s="2">
         <v>42461</v>
       </c>
-      <c r="B258" s="2">
+      <c r="B258" s="3">
         <v>9.07458717712184E-2</v>
       </c>
-      <c r="C258" s="4"/>
+      <c r="C258" s="5"/>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259" s="10">
+      <c r="A259" s="2">
         <v>42491</v>
       </c>
-      <c r="B259" s="2">
+      <c r="B259" s="3">
         <v>8.1503302413437381E-2</v>
       </c>
-      <c r="C259" s="4"/>
+      <c r="C259" s="5"/>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" s="10">
+      <c r="A260" s="2">
         <v>42522</v>
       </c>
-      <c r="B260" s="2">
+      <c r="B260" s="3">
         <v>8.4903302413437381E-2</v>
       </c>
-      <c r="C260" s="4"/>
+      <c r="C260" s="5"/>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261" s="10">
+      <c r="A261" s="2">
         <v>42552</v>
       </c>
-      <c r="B261" s="2">
+      <c r="B261" s="3">
         <v>7.845432079176308E-2</v>
       </c>
-      <c r="C261" s="4"/>
+      <c r="C261" s="5"/>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262" s="10">
+      <c r="A262" s="2">
         <v>42583</v>
       </c>
-      <c r="B262" s="2">
+      <c r="B262" s="3">
         <v>7.7005107317431515E-2</v>
       </c>
-      <c r="C262" s="4"/>
+      <c r="C262" s="5"/>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" s="10">
+      <c r="A263" s="2">
         <v>42614</v>
       </c>
-      <c r="B263" s="2">
+      <c r="B263" s="3">
         <v>7.9062490141365058E-2</v>
       </c>
-      <c r="C263" s="4"/>
+      <c r="C263" s="5"/>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" s="10">
+      <c r="A264" s="2">
         <v>42644</v>
       </c>
-      <c r="B264" s="2">
+      <c r="B264" s="3">
         <v>9.0803823058582978E-2</v>
       </c>
-      <c r="C264" s="4"/>
+      <c r="C264" s="5"/>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" s="10">
+      <c r="A265" s="2">
         <v>42675</v>
       </c>
-      <c r="B265" s="2">
+      <c r="B265" s="3">
         <v>8.1366322142554626E-2</v>
       </c>
-      <c r="C265" s="4"/>
+      <c r="C265" s="5"/>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266" s="10">
+      <c r="A266" s="2">
         <v>42705</v>
       </c>
-      <c r="B266" s="2">
+      <c r="B266" s="3">
         <v>8.5524440182112194E-2</v>
       </c>
-      <c r="C266" s="4"/>
+      <c r="C266" s="5"/>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267" s="10">
+      <c r="A267" s="2">
         <v>42736</v>
       </c>
-      <c r="B267" s="2">
+      <c r="B267" s="3">
         <v>8.3374527020277533E-2</v>
       </c>
-      <c r="C267" s="4"/>
+      <c r="C267" s="5"/>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268" s="10">
+      <c r="A268" s="2">
         <v>42767</v>
       </c>
-      <c r="B268" s="2">
+      <c r="B268" s="3">
         <v>8.2618737455347563E-2</v>
       </c>
-      <c r="C268" s="4"/>
+      <c r="C268" s="5"/>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269" s="10">
+      <c r="A269" s="2">
         <v>42795</v>
       </c>
-      <c r="B269" s="2">
+      <c r="B269" s="3">
         <v>8.2301802120567966E-2</v>
       </c>
-      <c r="C269" s="4"/>
+      <c r="C269" s="5"/>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" s="10">
+      <c r="A270" s="2">
         <v>42826</v>
       </c>
-      <c r="B270" s="2">
+      <c r="B270" s="3">
         <v>7.9480761202343708E-2</v>
       </c>
-      <c r="C270" s="4"/>
+      <c r="C270" s="5"/>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271" s="10">
+      <c r="A271" s="2">
         <v>42856</v>
       </c>
-      <c r="B271" s="2">
+      <c r="B271" s="3">
         <v>8.3960752894154167E-2</v>
       </c>
-      <c r="C271" s="4"/>
+      <c r="C271" s="5"/>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272" s="10">
+      <c r="A272" s="2">
         <v>42887</v>
       </c>
-      <c r="B272" s="2">
+      <c r="B272" s="3">
         <v>8.2181900156117982E-2</v>
       </c>
-      <c r="C272" s="4"/>
+      <c r="C272" s="5"/>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273" s="10">
+      <c r="A273" s="2">
         <v>42917</v>
       </c>
-      <c r="B273" s="2">
+      <c r="B273" s="3">
         <v>7.8582383645718207E-2</v>
       </c>
-      <c r="C273" s="4"/>
+      <c r="C273" s="5"/>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274" s="10">
+      <c r="A274" s="2">
         <v>42948</v>
       </c>
-      <c r="B274" s="2">
+      <c r="B274" s="3">
         <v>7.3514830121311145E-2</v>
       </c>
-      <c r="C274" s="4"/>
+      <c r="C274" s="5"/>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" s="10">
+      <c r="A275" s="2">
         <v>42979</v>
       </c>
-      <c r="B275" s="2">
+      <c r="B275" s="3">
         <v>7.1798584083836187E-2</v>
       </c>
-      <c r="C275" s="4"/>
+      <c r="C275" s="5"/>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276" s="10">
+      <c r="A276" s="2">
         <v>43009</v>
       </c>
-      <c r="B276" s="2">
+      <c r="B276" s="3">
         <v>7.0893601810297649E-2</v>
       </c>
-      <c r="C276" s="4"/>
+      <c r="C276" s="5"/>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" s="10">
+      <c r="A277" s="2">
         <v>43040</v>
       </c>
-      <c r="B277" s="2">
+      <c r="B277" s="3">
         <v>6.1052757033422195E-2</v>
       </c>
-      <c r="C277" s="4"/>
+      <c r="C277" s="5"/>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278" s="10">
+      <c r="A278" s="2">
         <v>43070</v>
       </c>
-      <c r="B278" s="2">
+      <c r="B278" s="3">
         <v>6.7122786831106646E-2</v>
       </c>
-      <c r="C278" s="4"/>
+      <c r="C278" s="5"/>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279" s="10">
+      <c r="A279" s="2">
         <v>43101</v>
       </c>
-      <c r="B279" s="2">
+      <c r="B279" s="3">
         <v>5.7519098552337958E-2</v>
       </c>
-      <c r="C279" s="4"/>
+      <c r="C279" s="5"/>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280" s="10">
+      <c r="A280" s="2">
         <v>43132</v>
       </c>
-      <c r="B280" s="2">
+      <c r="B280" s="3">
         <v>6.5520472026066215E-2</v>
       </c>
-      <c r="C280" s="4"/>
+      <c r="C280" s="5"/>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" s="10">
+      <c r="A281" s="2">
         <v>43160</v>
       </c>
-      <c r="B281" s="2">
+      <c r="B281" s="3">
         <v>7.2125770364620007E-2</v>
       </c>
-      <c r="C281" s="4"/>
+      <c r="C281" s="5"/>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282" s="10">
+      <c r="A282" s="2">
         <v>43191</v>
       </c>
-      <c r="B282" s="2">
+      <c r="B282" s="3">
         <v>6.4064244291655609E-2</v>
       </c>
-      <c r="C282" s="4"/>
+      <c r="C282" s="5"/>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" s="10">
+      <c r="A283" s="2">
         <v>43221</v>
       </c>
-      <c r="B283" s="2">
+      <c r="B283" s="3">
         <v>7.1824635819149038E-2</v>
       </c>
-      <c r="C283" s="4"/>
+      <c r="C283" s="5"/>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A284" s="10">
+      <c r="A284" s="2">
         <v>43252</v>
       </c>
-      <c r="B284" s="2">
+      <c r="B284" s="3">
         <v>7.9775179773577412E-2</v>
       </c>
-      <c r="C284" s="4"/>
+      <c r="C284" s="5"/>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285" s="10">
+      <c r="A285" s="2">
         <v>43282</v>
       </c>
-      <c r="B285" s="2">
+      <c r="B285" s="3">
         <v>9.1939861515753868E-2</v>
       </c>
-      <c r="C285" s="4"/>
+      <c r="C285" s="5"/>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286" s="10">
+      <c r="A286" s="2">
         <v>43313</v>
       </c>
-      <c r="B286" s="2">
+      <c r="B286" s="3">
         <v>0.10101989540599204</v>
       </c>
-      <c r="C286" s="4"/>
+      <c r="C286" s="5"/>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287" s="10">
+      <c r="A287" s="2">
         <v>43344</v>
       </c>
-      <c r="B287" s="2">
+      <c r="B287" s="3">
         <v>0.10496376393363561</v>
       </c>
-      <c r="C287" s="4"/>
+      <c r="C287" s="5"/>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" s="10">
+      <c r="A288" s="2">
         <v>43374</v>
       </c>
-      <c r="B288" s="2">
+      <c r="B288" s="3">
         <v>6.866534805367612E-2</v>
       </c>
-      <c r="C288" s="4"/>
+      <c r="C288" s="5"/>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A289" s="10">
+      <c r="A289" s="2">
         <v>43405</v>
       </c>
-      <c r="B289" s="2">
+      <c r="B289" s="3">
         <v>7.7599591244769228E-2</v>
       </c>
-      <c r="C289" s="4"/>
+      <c r="C289" s="5"/>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290" s="10">
+      <c r="A290" s="2">
         <v>43435</v>
       </c>
-      <c r="B290" s="2">
+      <c r="B290" s="3">
         <v>7.6296518904752947E-2</v>
       </c>
-      <c r="C290" s="4"/>
+      <c r="C290" s="5"/>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A291" s="10">
+      <c r="A291" s="2">
         <v>43466</v>
       </c>
-      <c r="B291" s="2">
+      <c r="B291" s="3">
         <v>7.1150211864005483E-2</v>
       </c>
-      <c r="C291" s="4"/>
+      <c r="C291" s="5"/>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292" s="10">
+      <c r="A292" s="2">
         <v>43497</v>
       </c>
-      <c r="B292" s="2">
+      <c r="B292" s="3">
         <v>7.4978703434071342E-2</v>
       </c>
-      <c r="C292" s="4"/>
+      <c r="C292" s="5"/>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A293" s="10">
+      <c r="A293" s="2">
         <v>43525</v>
       </c>
-      <c r="B293" s="2">
+      <c r="B293" s="3">
         <v>8.1082222580664831E-2</v>
       </c>
-      <c r="C293" s="4"/>
+      <c r="C293" s="5"/>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294" s="10">
+      <c r="A294" s="2">
         <v>43556</v>
       </c>
-      <c r="B294" s="2">
+      <c r="B294" s="3">
         <v>8.0864791172512426E-2</v>
       </c>
-      <c r="C294" s="4"/>
+      <c r="C294" s="5"/>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A295" s="10">
+      <c r="A295" s="2">
         <v>43586</v>
       </c>
-      <c r="B295" s="2">
+      <c r="B295" s="3">
         <v>8.7764304038109517E-2</v>
       </c>
-      <c r="C295" s="4"/>
+      <c r="C295" s="5"/>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A296" s="10">
+      <c r="A296" s="2">
         <v>43617</v>
       </c>
-      <c r="B296" s="2">
+      <c r="B296" s="3">
         <v>8.5839178787788323E-2</v>
       </c>
-      <c r="C296" s="4"/>
+      <c r="C296" s="5"/>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297" s="10">
+      <c r="A297" s="2">
         <v>43647</v>
       </c>
-      <c r="B297" s="2">
+      <c r="B297" s="3">
         <v>8.9544717916765409E-2</v>
       </c>
-      <c r="C297" s="4"/>
+      <c r="C297" s="5"/>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298" s="10">
+      <c r="A298" s="2">
         <v>43678</v>
       </c>
-      <c r="B298" s="2">
+      <c r="B298" s="3">
         <v>9.687272744274146E-2</v>
       </c>
-      <c r="C298" s="4"/>
+      <c r="C298" s="5"/>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299" s="10">
+      <c r="A299" s="2">
         <v>43709</v>
       </c>
-      <c r="B299" s="2">
+      <c r="B299" s="3">
         <v>9.4565670394992141E-2</v>
       </c>
-      <c r="C299" s="4"/>
+      <c r="C299" s="5"/>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A300" s="10">
+      <c r="A300" s="2">
         <v>43739</v>
       </c>
-      <c r="B300" s="2">
+      <c r="B300" s="3">
         <v>9.5998871332297536E-2</v>
       </c>
-      <c r="C300" s="4"/>
+      <c r="C300" s="5"/>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A301" s="10">
+      <c r="A301" s="2">
         <v>43770</v>
       </c>
-      <c r="B301" s="2">
+      <c r="B301" s="3">
         <v>9.0410180385752506E-2</v>
       </c>
-      <c r="C301" s="4"/>
+      <c r="C301" s="5"/>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A302" s="10">
+      <c r="A302" s="2">
         <v>43800</v>
       </c>
-      <c r="B302" s="2">
+      <c r="B302" s="3">
         <v>8.0346430039285821E-2</v>
       </c>
-      <c r="C302" s="4"/>
+      <c r="C302" s="5"/>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A303" s="10">
+      <c r="A303" s="2">
         <v>43831</v>
       </c>
-      <c r="B303" s="2">
+      <c r="B303" s="3">
         <v>8.8138805128154862E-2</v>
       </c>
-      <c r="C303" s="4"/>
+      <c r="C303" s="5"/>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A304" s="10">
+      <c r="A304" s="2">
         <v>43862</v>
       </c>
-      <c r="B304" s="2">
+      <c r="B304" s="3">
         <v>9.3984258626188408E-2</v>
       </c>
-      <c r="C304" s="4"/>
+      <c r="C304" s="5"/>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305" s="10">
+      <c r="A305" s="2">
         <v>43891</v>
       </c>
-      <c r="B305" s="2">
+      <c r="B305" s="3">
         <v>0.11444455602995118</v>
       </c>
-      <c r="C305" s="4"/>
+      <c r="C305" s="5"/>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A306" s="10">
+      <c r="A306" s="2">
         <v>43922</v>
       </c>
-      <c r="B306" s="2">
+      <c r="B306" s="3">
         <v>0.11883485001315314</v>
       </c>
-      <c r="C306" s="4"/>
+      <c r="C306" s="5"/>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A307" s="10">
+      <c r="A307" s="2">
         <v>43952</v>
       </c>
-      <c r="B307" s="2">
+      <c r="B307" s="3">
         <v>0.10802006518576782</v>
       </c>
-      <c r="C307" s="4"/>
+      <c r="C307" s="5"/>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308" s="10">
+      <c r="A308" s="2">
         <v>43983</v>
       </c>
-      <c r="B308" s="2">
+      <c r="B308" s="3">
         <v>0.10150000000000001</v>
       </c>
-      <c r="C308" s="4"/>
+      <c r="C308" s="5"/>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309" s="10">
+      <c r="A309" s="2">
         <v>44013</v>
       </c>
-      <c r="B309" s="2">
+      <c r="B309" s="3">
         <v>0.10394071190796175</v>
       </c>
-      <c r="C309" s="4"/>
+      <c r="C309" s="5"/>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310" s="10">
+      <c r="A310" s="2">
         <v>44044</v>
       </c>
-      <c r="B310" s="2">
+      <c r="B310" s="3">
         <v>9.8747906968658955E-2</v>
       </c>
-      <c r="C310" s="4"/>
+      <c r="C310" s="5"/>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311" s="10">
+      <c r="A311" s="2">
         <v>44075</v>
       </c>
-      <c r="B311" s="2">
+      <c r="B311" s="3">
         <v>0.10280377344670942</v>
       </c>
-      <c r="C311" s="4"/>
+      <c r="C311" s="5"/>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A312" s="10">
+      <c r="A312" s="2">
         <v>44105</v>
       </c>
-      <c r="B312" s="2">
+      <c r="B312" s="3">
         <v>0.1003081555378784</v>
       </c>
-      <c r="C312" s="4"/>
+      <c r="C312" s="5"/>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A313" s="10">
+      <c r="A313" s="2">
         <v>44136</v>
       </c>
-      <c r="B313" s="2">
+      <c r="B313" s="3">
         <v>9.4781090636132159E-2</v>
       </c>
-      <c r="C313" s="4"/>
+      <c r="C313" s="5"/>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314" s="10">
+      <c r="A314" s="2">
         <v>44166</v>
       </c>
-      <c r="B314" s="2">
+      <c r="B314" s="3">
         <v>9.9688114787269883E-2</v>
       </c>
-      <c r="C314" s="4"/>
+      <c r="C314" s="5"/>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A315" s="10">
+      <c r="A315" s="2">
         <v>44197</v>
       </c>
-      <c r="B315" s="2">
+      <c r="B315" s="3">
         <v>0.10345953791176479</v>
       </c>
-      <c r="C315" s="4"/>
+      <c r="C315" s="5"/>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316" s="10">
+      <c r="A316" s="2">
         <v>44228</v>
       </c>
-      <c r="B316" s="2">
+      <c r="B316" s="3">
         <v>9.9036976535253174E-2</v>
       </c>
-      <c r="C316" s="4"/>
+      <c r="C316" s="5"/>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A317" s="10">
+      <c r="A317" s="2">
         <v>44256</v>
       </c>
-      <c r="B317" s="2">
+      <c r="B317" s="3">
         <v>0.11202004609682872</v>
       </c>
-      <c r="C317" s="4"/>
+      <c r="C317" s="5"/>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A318" s="10">
+      <c r="A318" s="2">
         <v>44287</v>
       </c>
-      <c r="B318" s="2">
+      <c r="B318" s="3">
         <v>0.1105</v>
       </c>
-      <c r="C318" s="4"/>
+      <c r="C318" s="5"/>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A319" s="10">
+      <c r="A319" s="2">
         <v>44317</v>
       </c>
-      <c r="B319" s="2">
+      <c r="B319" s="3">
         <v>0.103756060197642</v>
       </c>
-      <c r="C319" s="4"/>
+      <c r="C319" s="5"/>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A320" s="10">
+      <c r="A320" s="2">
         <v>44348</v>
       </c>
-      <c r="B320" s="2">
+      <c r="B320" s="3">
         <v>0.11288777024068533</v>
       </c>
-      <c r="C320" s="4"/>
+      <c r="C320" s="5"/>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A321" s="10">
+      <c r="A321" s="2">
         <v>44378</v>
       </c>
-      <c r="B321" s="2">
+      <c r="B321" s="3">
         <v>0.1217</v>
       </c>
-      <c r="C321" s="4"/>
+      <c r="C321" s="5"/>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A322" s="10">
+      <c r="A322" s="2">
         <v>44409</v>
       </c>
-      <c r="B322" s="2">
+      <c r="B322" s="3">
         <v>0.11860470570232673</v>
       </c>
-      <c r="C322" s="4"/>
+      <c r="C322" s="5"/>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A323" s="10">
+      <c r="A323" s="2">
         <v>44440</v>
       </c>
-      <c r="B323" s="2">
+      <c r="B323" s="3">
         <v>0.15321467349306883</v>
       </c>
-      <c r="C323" s="4"/>
+      <c r="C323" s="5"/>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A324" s="10">
+      <c r="A324" s="2">
         <v>44470</v>
       </c>
-      <c r="B324" s="2">
+      <c r="B324" s="3">
         <v>0.1565</v>
       </c>
-      <c r="C324" s="4"/>
+      <c r="C324" s="5"/>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325" s="10">
+      <c r="A325" s="2">
         <v>44501</v>
       </c>
-      <c r="B325" s="2">
+      <c r="B325" s="3">
         <v>0.15480116295464194</v>
       </c>
-      <c r="C325" s="4"/>
+      <c r="C325" s="5"/>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A326" s="10">
+      <c r="A326" s="2">
         <v>44531</v>
       </c>
-      <c r="B326" s="2">
+      <c r="B326" s="3">
         <v>0.18086975473681763</v>
       </c>
-      <c r="C326" s="4"/>
+      <c r="C326" s="5"/>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327" s="10">
+      <c r="A327" s="2">
         <v>44562</v>
       </c>
-      <c r="B327" s="2">
+      <c r="B327" s="3">
         <v>0.15203711549166959</v>
       </c>
-      <c r="C327" s="4"/>
+      <c r="C327" s="5"/>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A328" s="10">
+      <c r="A328" s="2">
         <v>44593</v>
       </c>
-      <c r="B328" s="2">
+      <c r="B328" s="3">
         <v>0.15045086518646858</v>
       </c>
-      <c r="C328" s="4"/>
+      <c r="C328" s="5"/>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A329" s="10">
+      <c r="A329" s="2">
         <v>44621</v>
       </c>
-      <c r="B329" s="2">
+      <c r="B329" s="3">
         <v>0.13402699778646815</v>
       </c>
-      <c r="C329" s="4"/>
+      <c r="C329" s="5"/>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A330" s="10">
+      <c r="A330" s="2">
         <v>44652</v>
       </c>
-      <c r="B330" s="2">
+      <c r="B330" s="3">
         <v>0.13661550466927599</v>
       </c>
-      <c r="C330" s="4"/>
+      <c r="C330" s="5"/>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A331" s="10">
+      <c r="A331" s="2">
         <v>44682</v>
       </c>
-      <c r="B331" s="2">
+      <c r="B331" s="3">
         <v>0.1321</v>
       </c>
-      <c r="C331" s="4"/>
+      <c r="C331" s="5"/>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A332" s="10">
+      <c r="A332" s="2">
         <v>44713</v>
       </c>
-      <c r="B332" s="2">
+      <c r="B332" s="3">
         <v>0.16510000000000002</v>
       </c>
-      <c r="C332" s="4"/>
+      <c r="C332" s="5"/>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A333" s="10">
+      <c r="A333" s="2">
         <v>44743</v>
       </c>
-      <c r="B333" s="2">
+      <c r="B333" s="3">
         <v>0.1585</v>
       </c>
-      <c r="C333" s="4"/>
+      <c r="C333" s="5"/>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A334" s="10">
+      <c r="A334" s="2">
         <v>44774</v>
       </c>
-      <c r="B334" s="2">
+      <c r="B334" s="3">
         <v>0.1331</v>
       </c>
-      <c r="C334" s="4"/>
+      <c r="C334" s="5"/>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A335" s="10">
+      <c r="A335" s="2">
         <v>44805</v>
       </c>
-      <c r="B335" s="2">
+      <c r="B335" s="3">
         <v>0.14630000000000001</v>
       </c>
-      <c r="C335" s="4"/>
+      <c r="C335" s="5"/>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A336" s="10">
+      <c r="A336" s="2">
         <v>44835</v>
       </c>
-      <c r="B336" s="2">
+      <c r="B336" s="3">
         <v>0.1197</v>
       </c>
-      <c r="C336" s="4"/>
+      <c r="C336" s="5"/>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A337" s="10">
+      <c r="A337" s="2">
         <v>44866</v>
       </c>
-      <c r="B337" s="2">
+      <c r="B337" s="3">
         <v>0.1177</v>
       </c>
-      <c r="C337" s="4"/>
+      <c r="C337" s="5"/>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A338" s="10">
+      <c r="A338" s="2">
         <v>44896</v>
       </c>
-      <c r="B338" s="2">
+      <c r="B338" s="3">
         <v>0.1172183756433729</v>
       </c>
-      <c r="C338" s="4"/>
+      <c r="C338" s="5"/>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A339" s="10">
+      <c r="A339" s="2">
         <v>44927</v>
       </c>
-      <c r="B339" s="2">
+      <c r="B339" s="3">
         <v>0.112566</v>
       </c>
-      <c r="C339" s="4"/>
+      <c r="C339" s="5"/>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A340" s="10">
+      <c r="A340" s="2">
         <v>44958</v>
       </c>
-      <c r="B340" s="2">
+      <c r="B340" s="3">
         <v>0.10406600000000001</v>
       </c>
-      <c r="C340" s="4"/>
+      <c r="C340" s="5"/>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A341" s="10">
+      <c r="A341" s="2">
         <v>44986</v>
       </c>
-      <c r="B341" s="2">
+      <c r="B341" s="3">
         <v>0.100060632666334</v>
       </c>
-      <c r="C341" s="4"/>
+      <c r="C341" s="5"/>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A342" s="10">
+      <c r="A342" s="2">
         <v>45017</v>
       </c>
-      <c r="B342" s="2">
+      <c r="B342" s="3">
         <v>9.7161250237506505E-2</v>
       </c>
-      <c r="C342" s="4"/>
+      <c r="C342" s="5"/>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A343" s="10">
+      <c r="A343" s="2">
         <v>45047</v>
       </c>
-      <c r="B343" s="2">
+      <c r="B343" s="3">
         <v>9.6838061660370997E-2</v>
       </c>
-      <c r="C343" s="4"/>
+      <c r="C343" s="5"/>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A344" s="10">
+      <c r="A344" s="2">
         <v>45078</v>
       </c>
-      <c r="B344" s="2">
+      <c r="B344" s="3">
         <v>8.4097029271563706E-2</v>
       </c>
-      <c r="C344" s="4"/>
+      <c r="C344" s="5"/>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A345" s="10">
+      <c r="A345" s="2">
         <v>45108</v>
       </c>
-      <c r="B345" s="2">
+      <c r="B345" s="3">
         <v>7.9421854001553702E-2</v>
       </c>
-      <c r="C345" s="4"/>
+      <c r="C345" s="5"/>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A346" s="10">
+      <c r="A346" s="2">
         <v>45139</v>
       </c>
-      <c r="B346" s="2">
+      <c r="B346" s="3">
         <v>8.8703735811575105E-2</v>
       </c>
-      <c r="C346" s="4"/>
-      <c r="D346" s="4"/>
+      <c r="C346" s="5"/>
+      <c r="D346" s="5"/>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A347" s="10">
+      <c r="A347" s="2">
         <v>45170</v>
       </c>
-      <c r="B347" s="2">
+      <c r="B347" s="3">
         <v>8.69610556503468E-2</v>
       </c>
-      <c r="C347" s="4"/>
+      <c r="C347" s="5"/>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A348" s="10">
+      <c r="A348" s="2">
         <v>45200</v>
       </c>
-      <c r="B348" s="2">
+      <c r="B348" s="3">
         <v>8.5154952330852907E-2</v>
       </c>
-      <c r="C348" s="4"/>
+      <c r="C348" s="5"/>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A349" s="10">
+      <c r="A349" s="2">
         <v>45231</v>
       </c>
-      <c r="B349" s="2">
+      <c r="B349" s="3">
         <v>9.2767735220062306E-2</v>
       </c>
-      <c r="C349" s="4"/>
+      <c r="C349" s="5"/>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A350" s="10">
+      <c r="A350" s="2">
         <v>45261</v>
       </c>
-      <c r="B350" s="2">
+      <c r="B350" s="3">
         <v>8.8146226677963901E-2</v>
       </c>
-      <c r="C350" s="4"/>
+      <c r="C350" s="5"/>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A351" s="10">
+      <c r="A351" s="2">
         <v>45292</v>
       </c>
-      <c r="B351" s="2">
+      <c r="B351" s="3">
         <v>8.25555271465966E-2</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A352" s="10">
+      <c r="A352" s="2">
         <v>45323</v>
       </c>
-      <c r="B352" s="2">
+      <c r="B352" s="3">
         <v>8.3559126164475694E-2</v>
       </c>
-      <c r="C352" s="4"/>
-    </row>
-    <row r="353" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B353" s="5"/>
-      <c r="C353" s="4"/>
-    </row>
-    <row r="354" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B354" s="6"/>
-      <c r="C354" s="4"/>
-    </row>
-    <row r="355" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C355" s="4"/>
-    </row>
-    <row r="356" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C356" s="4"/>
+      <c r="C352" s="5"/>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B353" s="3">
+        <v>8.6001011589843995E-2</v>
+      </c>
+      <c r="C353" s="5"/>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B354" s="3">
+        <v>8.2095674612073302E-2</v>
+      </c>
+      <c r="C354" s="5"/>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C355" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:B2" xr:uid="{00000000-0001-0000-0000-000000000000}">

--- a/Database/Serie de Equity Risk Premium.xlsx
+++ b/Database/Serie de Equity Risk Premium.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bteba\Documents\GitHub\ERP\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C52CCE1-64BD-44FD-803C-788EFE0E88ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73454608-A8F0-4B47-ACC8-FA888B3707A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -134,7 +134,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -239,10 +239,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Planilha1!$A$3:$A$379</c:f>
+              <c:f>Planilha1!$A$3:$A$378</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="377"/>
+                <c:ptCount val="376"/>
                 <c:pt idx="0">
                   <c:v>34700</c:v>
                 </c:pt>
@@ -1298,16 +1298,22 @@
                 </c:pt>
                 <c:pt idx="351">
                   <c:v>45383</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>45413</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>45444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$B$3:$B$379</c:f>
+              <c:f>Planilha1!$B$3:$B$378</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="377"/>
+                <c:ptCount val="376"/>
                 <c:pt idx="0">
                   <c:v>3.5906071097335332E-2</c:v>
                 </c:pt>
@@ -2363,6 +2369,12 @@
                 </c:pt>
                 <c:pt idx="351">
                   <c:v>8.2095674612073302E-2</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>8.7222511947888201E-2</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>9.0654253691879294E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3444,26 +3456,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:RX355"/>
+  <dimension ref="A1:RX356"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
+      <selection activeCell="A351" sqref="A351:A356"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="1" max="2" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
     <col min="40" max="40" width="9" customWidth="1"/>
-    <col min="498" max="498" width="9.140625" customWidth="1"/>
+    <col min="498" max="498" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:492" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -3502,7 +3514,7 @@
       <c r="RM2" s="1"/>
       <c r="RX2" s="1"/>
     </row>
-    <row r="3" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>34700</v>
       </c>
@@ -3540,7 +3552,7 @@
       <c r="RM3" s="1"/>
       <c r="RX3" s="1"/>
     </row>
-    <row r="4" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>34731</v>
       </c>
@@ -3578,7 +3590,7 @@
       <c r="RM4" s="1"/>
       <c r="RX4" s="1"/>
     </row>
-    <row r="5" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>34759</v>
       </c>
@@ -3615,7 +3627,7 @@
       <c r="RM5" s="1"/>
       <c r="RX5" s="1"/>
     </row>
-    <row r="6" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>34790</v>
       </c>
@@ -3650,7 +3662,7 @@
       <c r="RB6" s="1"/>
       <c r="RM6" s="1"/>
     </row>
-    <row r="7" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>34820</v>
       </c>
@@ -3684,7 +3696,7 @@
       <c r="RB7" s="1"/>
       <c r="RM7" s="1"/>
     </row>
-    <row r="8" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>34851</v>
       </c>
@@ -3718,7 +3730,7 @@
       <c r="RB8" s="1"/>
       <c r="RM8" s="1"/>
     </row>
-    <row r="9" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>34881</v>
       </c>
@@ -3742,7 +3754,7 @@
       <c r="RB9" s="1"/>
       <c r="RM9" s="1"/>
     </row>
-    <row r="10" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>34912</v>
       </c>
@@ -3765,7 +3777,7 @@
       <c r="RB10" s="1"/>
       <c r="RM10" s="1"/>
     </row>
-    <row r="11" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>34943</v>
       </c>
@@ -3788,7 +3800,7 @@
       <c r="RB11" s="1"/>
       <c r="RM11" s="1"/>
     </row>
-    <row r="12" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>34973</v>
       </c>
@@ -3810,7 +3822,7 @@
       <c r="RB12" s="1"/>
       <c r="RM12" s="1"/>
     </row>
-    <row r="13" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>35004</v>
       </c>
@@ -3832,7 +3844,7 @@
       <c r="RB13" s="1"/>
       <c r="RM13" s="1"/>
     </row>
-    <row r="14" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>35034</v>
       </c>
@@ -3852,7 +3864,7 @@
       <c r="CP14" s="1"/>
       <c r="OY14" s="1"/>
     </row>
-    <row r="15" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>35065</v>
       </c>
@@ -3872,7 +3884,7 @@
       <c r="CP15" s="1"/>
       <c r="OY15" s="1"/>
     </row>
-    <row r="16" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>35096</v>
       </c>
@@ -3882,7 +3894,7 @@
       <c r="C16" s="5"/>
       <c r="CP16" s="1"/>
     </row>
-    <row r="17" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>35125</v>
       </c>
@@ -3892,7 +3904,7 @@
       <c r="C17" s="5"/>
       <c r="CP17" s="1"/>
     </row>
-    <row r="18" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>35156</v>
       </c>
@@ -3902,7 +3914,7 @@
       <c r="C18" s="5"/>
       <c r="CP18" s="1"/>
     </row>
-    <row r="19" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>35186</v>
       </c>
@@ -3912,7 +3924,7 @@
       <c r="C19" s="5"/>
       <c r="CP19" s="1"/>
     </row>
-    <row r="20" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>35217</v>
       </c>
@@ -3922,7 +3934,7 @@
       <c r="C20" s="5"/>
       <c r="CP20" s="1"/>
     </row>
-    <row r="21" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>35247</v>
       </c>
@@ -3932,7 +3944,7 @@
       <c r="C21" s="5"/>
       <c r="CP21" s="1"/>
     </row>
-    <row r="22" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>35278</v>
       </c>
@@ -3942,7 +3954,7 @@
       <c r="C22" s="5"/>
       <c r="CP22" s="1"/>
     </row>
-    <row r="23" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>35309</v>
       </c>
@@ -3952,7 +3964,7 @@
       <c r="C23" s="5"/>
       <c r="CP23" s="1"/>
     </row>
-    <row r="24" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>35339</v>
       </c>
@@ -3962,7 +3974,7 @@
       <c r="C24" s="5"/>
       <c r="CP24" s="1"/>
     </row>
-    <row r="25" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>35370</v>
       </c>
@@ -3972,7 +3984,7 @@
       <c r="C25" s="5"/>
       <c r="CP25" s="1"/>
     </row>
-    <row r="26" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>35400</v>
       </c>
@@ -3982,7 +3994,7 @@
       <c r="C26" s="5"/>
       <c r="CP26" s="1"/>
     </row>
-    <row r="27" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>35431</v>
       </c>
@@ -3992,7 +4004,7 @@
       <c r="C27" s="5"/>
       <c r="CP27" s="1"/>
     </row>
-    <row r="28" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>35462</v>
       </c>
@@ -4002,7 +4014,7 @@
       <c r="C28" s="5"/>
       <c r="CP28" s="1"/>
     </row>
-    <row r="29" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>35490</v>
       </c>
@@ -4012,7 +4024,7 @@
       <c r="C29" s="5"/>
       <c r="CP29" s="1"/>
     </row>
-    <row r="30" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>35521</v>
       </c>
@@ -4030,7 +4042,7 @@
       <c r="L30" s="8"/>
       <c r="CP30" s="1"/>
     </row>
-    <row r="31" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>35551</v>
       </c>
@@ -4048,7 +4060,7 @@
       <c r="L31" s="8"/>
       <c r="CP31" s="1"/>
     </row>
-    <row r="32" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>35582</v>
       </c>
@@ -4066,7 +4078,7 @@
       <c r="L32" s="8"/>
       <c r="CP32" s="1"/>
     </row>
-    <row r="33" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>35612</v>
       </c>
@@ -4084,7 +4096,7 @@
       <c r="L33" s="8"/>
       <c r="CP33" s="1"/>
     </row>
-    <row r="34" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>35643</v>
       </c>
@@ -4095,7 +4107,7 @@
       <c r="L34" s="8"/>
       <c r="CP34" s="1"/>
     </row>
-    <row r="35" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>35674</v>
       </c>
@@ -4105,7 +4117,7 @@
       <c r="C35" s="5"/>
       <c r="CP35" s="1"/>
     </row>
-    <row r="36" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35704</v>
       </c>
@@ -4115,7 +4127,7 @@
       <c r="C36" s="5"/>
       <c r="CP36" s="1"/>
     </row>
-    <row r="37" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>35735</v>
       </c>
@@ -4125,7 +4137,7 @@
       <c r="C37" s="5"/>
       <c r="CP37" s="1"/>
     </row>
-    <row r="38" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>35765</v>
       </c>
@@ -4135,7 +4147,7 @@
       <c r="C38" s="5"/>
       <c r="CP38" s="1"/>
     </row>
-    <row r="39" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>35796</v>
       </c>
@@ -4145,7 +4157,7 @@
       <c r="C39" s="5"/>
       <c r="CP39" s="1"/>
     </row>
-    <row r="40" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>35827</v>
       </c>
@@ -4155,7 +4167,7 @@
       <c r="C40" s="5"/>
       <c r="CP40" s="1"/>
     </row>
-    <row r="41" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>35855</v>
       </c>
@@ -4165,7 +4177,7 @@
       <c r="C41" s="5"/>
       <c r="CP41" s="1"/>
     </row>
-    <row r="42" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>35886</v>
       </c>
@@ -4175,7 +4187,7 @@
       <c r="C42" s="5"/>
       <c r="CP42" s="1"/>
     </row>
-    <row r="43" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>35916</v>
       </c>
@@ -4185,7 +4197,7 @@
       <c r="C43" s="5"/>
       <c r="CP43" s="1"/>
     </row>
-    <row r="44" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>35947</v>
       </c>
@@ -4195,7 +4207,7 @@
       <c r="C44" s="5"/>
       <c r="CP44" s="1"/>
     </row>
-    <row r="45" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>35977</v>
       </c>
@@ -4205,7 +4217,7 @@
       <c r="C45" s="5"/>
       <c r="CP45" s="1"/>
     </row>
-    <row r="46" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>36008</v>
       </c>
@@ -4215,7 +4227,7 @@
       <c r="C46" s="5"/>
       <c r="CP46" s="1"/>
     </row>
-    <row r="47" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>36039</v>
       </c>
@@ -4225,7 +4237,7 @@
       <c r="C47" s="5"/>
       <c r="CP47" s="1"/>
     </row>
-    <row r="48" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>36069</v>
       </c>
@@ -4235,7 +4247,7 @@
       <c r="C48" s="5"/>
       <c r="CP48" s="1"/>
     </row>
-    <row r="49" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>36100</v>
       </c>
@@ -4245,7 +4257,7 @@
       <c r="C49" s="5"/>
       <c r="CP49" s="1"/>
     </row>
-    <row r="50" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>36130</v>
       </c>
@@ -4255,7 +4267,7 @@
       <c r="C50" s="5"/>
       <c r="CP50" s="1"/>
     </row>
-    <row r="51" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>36161</v>
       </c>
@@ -4266,7 +4278,7 @@
       <c r="D51" s="6"/>
       <c r="CP51" s="1"/>
     </row>
-    <row r="52" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>36192</v>
       </c>
@@ -4277,7 +4289,7 @@
       <c r="D52" s="6"/>
       <c r="CP52" s="1"/>
     </row>
-    <row r="53" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>36220</v>
       </c>
@@ -4288,7 +4300,7 @@
       <c r="D53" s="6"/>
       <c r="CP53" s="1"/>
     </row>
-    <row r="54" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>36251</v>
       </c>
@@ -4299,7 +4311,7 @@
       <c r="D54" s="6"/>
       <c r="CP54" s="1"/>
     </row>
-    <row r="55" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>36281</v>
       </c>
@@ -4310,7 +4322,7 @@
       <c r="D55" s="6"/>
       <c r="CP55" s="1"/>
     </row>
-    <row r="56" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>36312</v>
       </c>
@@ -4321,7 +4333,7 @@
       <c r="D56" s="6"/>
       <c r="CP56" s="1"/>
     </row>
-    <row r="57" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>36342</v>
       </c>
@@ -4332,7 +4344,7 @@
       <c r="D57" s="6"/>
       <c r="CP57" s="1"/>
     </row>
-    <row r="58" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>36373</v>
       </c>
@@ -4343,7 +4355,7 @@
       <c r="D58" s="6"/>
       <c r="CP58" s="1"/>
     </row>
-    <row r="59" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>36404</v>
       </c>
@@ -4354,7 +4366,7 @@
       <c r="D59" s="6"/>
       <c r="CP59" s="1"/>
     </row>
-    <row r="60" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>36434</v>
       </c>
@@ -4365,7 +4377,7 @@
       <c r="D60" s="6"/>
       <c r="CP60" s="1"/>
     </row>
-    <row r="61" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>36465</v>
       </c>
@@ -4376,7 +4388,7 @@
       <c r="D61" s="6"/>
       <c r="CP61" s="1"/>
     </row>
-    <row r="62" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>36495</v>
       </c>
@@ -4387,7 +4399,7 @@
       <c r="D62" s="6"/>
       <c r="CP62" s="1"/>
     </row>
-    <row r="63" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>36526</v>
       </c>
@@ -4398,7 +4410,7 @@
       <c r="D63" s="6"/>
       <c r="CP63" s="1"/>
     </row>
-    <row r="64" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>36557</v>
       </c>
@@ -4409,7 +4421,7 @@
       <c r="D64" s="6"/>
       <c r="CP64" s="1"/>
     </row>
-    <row r="65" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>36586</v>
       </c>
@@ -4421,7 +4433,7 @@
       <c r="E65" s="6"/>
       <c r="CP65" s="1"/>
     </row>
-    <row r="66" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>36617</v>
       </c>
@@ -4433,7 +4445,7 @@
       <c r="E66" s="6"/>
       <c r="CP66" s="1"/>
     </row>
-    <row r="67" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>36647</v>
       </c>
@@ -4445,7 +4457,7 @@
       <c r="E67" s="6"/>
       <c r="CP67" s="1"/>
     </row>
-    <row r="68" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>36678</v>
       </c>
@@ -4457,7 +4469,7 @@
       <c r="E68" s="6"/>
       <c r="CP68" s="1"/>
     </row>
-    <row r="69" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>36708</v>
       </c>
@@ -4468,7 +4480,7 @@
       <c r="E69" s="6"/>
       <c r="CP69" s="1"/>
     </row>
-    <row r="70" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>36739</v>
       </c>
@@ -4479,7 +4491,7 @@
       <c r="E70" s="6"/>
       <c r="CP70" s="1"/>
     </row>
-    <row r="71" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>36770</v>
       </c>
@@ -4490,7 +4502,7 @@
       <c r="E71" s="6"/>
       <c r="CP71" s="1"/>
     </row>
-    <row r="72" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>36800</v>
       </c>
@@ -4501,7 +4513,7 @@
       <c r="E72" s="6"/>
       <c r="CP72" s="1"/>
     </row>
-    <row r="73" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>36831</v>
       </c>
@@ -4512,7 +4524,7 @@
       <c r="E73" s="6"/>
       <c r="CP73" s="1"/>
     </row>
-    <row r="74" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>36861</v>
       </c>
@@ -4523,7 +4535,7 @@
       <c r="E74" s="6"/>
       <c r="CP74" s="1"/>
     </row>
-    <row r="75" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>36892</v>
       </c>
@@ -4534,7 +4546,7 @@
       <c r="E75" s="6"/>
       <c r="CP75" s="1"/>
     </row>
-    <row r="76" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>36923</v>
       </c>
@@ -4545,7 +4557,7 @@
       <c r="E76" s="6"/>
       <c r="CP76" s="1"/>
     </row>
-    <row r="77" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>36951</v>
       </c>
@@ -4556,7 +4568,7 @@
       <c r="E77" s="6"/>
       <c r="CP77" s="1"/>
     </row>
-    <row r="78" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>36982</v>
       </c>
@@ -4567,7 +4579,7 @@
       <c r="E78" s="6"/>
       <c r="CP78" s="1"/>
     </row>
-    <row r="79" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>37012</v>
       </c>
@@ -4578,7 +4590,7 @@
       <c r="E79" s="6"/>
       <c r="CP79" s="1"/>
     </row>
-    <row r="80" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>37043</v>
       </c>
@@ -4589,7 +4601,7 @@
       <c r="E80" s="6"/>
       <c r="CP80" s="1"/>
     </row>
-    <row r="81" spans="1:206" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>37073</v>
       </c>
@@ -4608,7 +4620,7 @@
       <c r="DJ81" s="1"/>
       <c r="DK81" s="1"/>
     </row>
-    <row r="82" spans="1:206" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>37104</v>
       </c>
@@ -4626,7 +4638,7 @@
       <c r="DJ82" s="1"/>
       <c r="DK82" s="1"/>
     </row>
-    <row r="83" spans="1:206" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>37135</v>
       </c>
@@ -4645,7 +4657,7 @@
       <c r="DK83" s="1"/>
       <c r="FQ83" s="1"/>
     </row>
-    <row r="84" spans="1:206" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>37165</v>
       </c>
@@ -4664,7 +4676,7 @@
       <c r="DK84" s="1"/>
       <c r="FQ84" s="1"/>
     </row>
-    <row r="85" spans="1:206" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>37196</v>
       </c>
@@ -4683,7 +4695,7 @@
       <c r="DK85" s="1"/>
       <c r="FQ85" s="1"/>
     </row>
-    <row r="86" spans="1:206" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>37226</v>
       </c>
@@ -4702,7 +4714,7 @@
       <c r="DK86" s="1"/>
       <c r="FQ86" s="1"/>
     </row>
-    <row r="87" spans="1:206" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>37257</v>
       </c>
@@ -4721,7 +4733,7 @@
       <c r="DK87" s="1"/>
       <c r="FQ87" s="1"/>
     </row>
-    <row r="88" spans="1:206" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>37288</v>
       </c>
@@ -4740,7 +4752,7 @@
       <c r="DK88" s="1"/>
       <c r="FQ88" s="1"/>
     </row>
-    <row r="89" spans="1:206" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>37316</v>
       </c>
@@ -4760,7 +4772,7 @@
       <c r="EJ89" s="1"/>
       <c r="FQ89" s="1"/>
     </row>
-    <row r="90" spans="1:206" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>37347</v>
       </c>
@@ -4780,7 +4792,7 @@
       <c r="EJ90" s="1"/>
       <c r="FQ90" s="1"/>
     </row>
-    <row r="91" spans="1:206" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>37377</v>
       </c>
@@ -4800,7 +4812,7 @@
       <c r="EJ91" s="1"/>
       <c r="FQ91" s="1"/>
     </row>
-    <row r="92" spans="1:206" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>37408</v>
       </c>
@@ -4821,7 +4833,7 @@
       <c r="EU92" s="1"/>
       <c r="FQ92" s="1"/>
     </row>
-    <row r="93" spans="1:206" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>37438</v>
       </c>
@@ -4842,7 +4854,7 @@
       <c r="EU93" s="1"/>
       <c r="FQ93" s="1"/>
     </row>
-    <row r="94" spans="1:206" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>37469</v>
       </c>
@@ -4863,7 +4875,7 @@
       <c r="EU94" s="1"/>
       <c r="FQ94" s="1"/>
     </row>
-    <row r="95" spans="1:206" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>37500</v>
       </c>
@@ -4885,7 +4897,7 @@
       <c r="FQ95" s="1"/>
       <c r="GX95" s="1"/>
     </row>
-    <row r="96" spans="1:206" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:206" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>37530</v>
       </c>
@@ -4907,7 +4919,7 @@
       <c r="FQ96" s="1"/>
       <c r="GX96" s="1"/>
     </row>
-    <row r="97" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>37561</v>
       </c>
@@ -4939,7 +4951,7 @@
       <c r="GX97" s="1"/>
       <c r="QQ97" s="1"/>
     </row>
-    <row r="98" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>37591</v>
       </c>
@@ -4971,7 +4983,7 @@
       <c r="GX98" s="1"/>
       <c r="QQ98" s="1"/>
     </row>
-    <row r="99" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>37622</v>
       </c>
@@ -5012,7 +5024,7 @@
       <c r="GX99" s="1"/>
       <c r="QQ99" s="1"/>
     </row>
-    <row r="100" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>37653</v>
       </c>
@@ -5063,7 +5075,7 @@
       <c r="OC100" s="1"/>
       <c r="QQ100" s="1"/>
     </row>
-    <row r="101" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>37681</v>
       </c>
@@ -5115,7 +5127,7 @@
       <c r="OC101" s="1"/>
       <c r="QQ101" s="1"/>
     </row>
-    <row r="102" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>37712</v>
       </c>
@@ -5167,7 +5179,7 @@
       <c r="OC102" s="1"/>
       <c r="QQ102" s="1"/>
     </row>
-    <row r="103" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>37742</v>
       </c>
@@ -5220,7 +5232,7 @@
       <c r="OC103" s="1"/>
       <c r="QQ103" s="1"/>
     </row>
-    <row r="104" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>37773</v>
       </c>
@@ -5274,7 +5286,7 @@
       <c r="OC104" s="1"/>
       <c r="QQ104" s="1"/>
     </row>
-    <row r="105" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>37803</v>
       </c>
@@ -5328,7 +5340,7 @@
       <c r="OC105" s="1"/>
       <c r="QQ105" s="1"/>
     </row>
-    <row r="106" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>37834</v>
       </c>
@@ -5383,7 +5395,7 @@
       <c r="OC106" s="1"/>
       <c r="QQ106" s="1"/>
     </row>
-    <row r="107" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>37865</v>
       </c>
@@ -5442,7 +5454,7 @@
       <c r="QQ107" s="1"/>
       <c r="RX107" s="1"/>
     </row>
-    <row r="108" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>37895</v>
       </c>
@@ -5501,7 +5513,7 @@
       <c r="QQ108" s="1"/>
       <c r="RX108" s="1"/>
     </row>
-    <row r="109" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>37926</v>
       </c>
@@ -5562,7 +5574,7 @@
       <c r="QQ109" s="1"/>
       <c r="RX109" s="1"/>
     </row>
-    <row r="110" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>37956</v>
       </c>
@@ -5625,7 +5637,7 @@
       <c r="QQ110" s="1"/>
       <c r="RX110" s="1"/>
     </row>
-    <row r="111" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>37987</v>
       </c>
@@ -5688,7 +5700,7 @@
       <c r="QQ111" s="1"/>
       <c r="RX111" s="1"/>
     </row>
-    <row r="112" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>38018</v>
       </c>
@@ -5751,7 +5763,7 @@
       <c r="QQ112" s="1"/>
       <c r="RX112" s="1"/>
     </row>
-    <row r="113" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>38047</v>
       </c>
@@ -5816,7 +5828,7 @@
       <c r="QQ113" s="1"/>
       <c r="RX113" s="1"/>
     </row>
-    <row r="114" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>38078</v>
       </c>
@@ -5882,7 +5894,7 @@
       <c r="QQ114" s="1"/>
       <c r="RX114" s="1"/>
     </row>
-    <row r="115" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>38108</v>
       </c>
@@ -5959,7 +5971,7 @@
       <c r="QQ115" s="1"/>
       <c r="RX115" s="1"/>
     </row>
-    <row r="116" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>38139</v>
       </c>
@@ -6047,7 +6059,7 @@
       <c r="QQ116" s="1"/>
       <c r="RX116" s="1"/>
     </row>
-    <row r="117" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>38169</v>
       </c>
@@ -6137,7 +6149,7 @@
       <c r="QQ117" s="1"/>
       <c r="RX117" s="1"/>
     </row>
-    <row r="118" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>38200</v>
       </c>
@@ -6227,7 +6239,7 @@
       <c r="QQ118" s="1"/>
       <c r="RX118" s="1"/>
     </row>
-    <row r="119" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>38231</v>
       </c>
@@ -6317,7 +6329,7 @@
       <c r="QQ119" s="1"/>
       <c r="RX119" s="1"/>
     </row>
-    <row r="120" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>38261</v>
       </c>
@@ -6407,7 +6419,7 @@
       <c r="QQ120" s="1"/>
       <c r="RX120" s="1"/>
     </row>
-    <row r="121" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>38292</v>
       </c>
@@ -6498,7 +6510,7 @@
       <c r="QQ121" s="1"/>
       <c r="RX121" s="1"/>
     </row>
-    <row r="122" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>38322</v>
       </c>
@@ -6589,7 +6601,7 @@
       <c r="QQ122" s="1"/>
       <c r="RX122" s="1"/>
     </row>
-    <row r="123" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>38353</v>
       </c>
@@ -6680,7 +6692,7 @@
       <c r="QQ123" s="1"/>
       <c r="RX123" s="1"/>
     </row>
-    <row r="124" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>38384</v>
       </c>
@@ -6773,7 +6785,7 @@
       <c r="QQ124" s="1"/>
       <c r="RX124" s="1"/>
     </row>
-    <row r="125" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>38412</v>
       </c>
@@ -6866,7 +6878,7 @@
       <c r="QQ125" s="1"/>
       <c r="RX125" s="1"/>
     </row>
-    <row r="126" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>38443</v>
       </c>
@@ -6959,7 +6971,7 @@
       <c r="QQ126" s="1"/>
       <c r="RX126" s="1"/>
     </row>
-    <row r="127" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>38473</v>
       </c>
@@ -7053,7 +7065,7 @@
       <c r="RM127" s="1"/>
       <c r="RX127" s="1"/>
     </row>
-    <row r="128" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>38504</v>
       </c>
@@ -7148,7 +7160,7 @@
       <c r="RM128" s="1"/>
       <c r="RX128" s="1"/>
     </row>
-    <row r="129" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>38534</v>
       </c>
@@ -7243,7 +7255,7 @@
       <c r="RM129" s="1"/>
       <c r="RX129" s="1"/>
     </row>
-    <row r="130" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>38565</v>
       </c>
@@ -7338,7 +7350,7 @@
       <c r="RM130" s="1"/>
       <c r="RX130" s="1"/>
     </row>
-    <row r="131" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>38596</v>
       </c>
@@ -7433,7 +7445,7 @@
       <c r="RM131" s="1"/>
       <c r="RX131" s="1"/>
     </row>
-    <row r="132" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>38626</v>
       </c>
@@ -7528,7 +7540,7 @@
       <c r="RM132" s="1"/>
       <c r="RX132" s="1"/>
     </row>
-    <row r="133" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>38657</v>
       </c>
@@ -7623,7 +7635,7 @@
       <c r="RM133" s="1"/>
       <c r="RX133" s="1"/>
     </row>
-    <row r="134" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>38687</v>
       </c>
@@ -7718,7 +7730,7 @@
       <c r="RM134" s="1"/>
       <c r="RX134" s="1"/>
     </row>
-    <row r="135" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>38718</v>
       </c>
@@ -7813,7 +7825,7 @@
       <c r="RM135" s="1"/>
       <c r="RX135" s="1"/>
     </row>
-    <row r="136" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>38749</v>
       </c>
@@ -7908,7 +7920,7 @@
       <c r="RM136" s="1"/>
       <c r="RX136" s="1"/>
     </row>
-    <row r="137" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>38777</v>
       </c>
@@ -8003,7 +8015,7 @@
       <c r="RM137" s="1"/>
       <c r="RX137" s="1"/>
     </row>
-    <row r="138" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>38808</v>
       </c>
@@ -8098,7 +8110,7 @@
       <c r="RM138" s="1"/>
       <c r="RX138" s="1"/>
     </row>
-    <row r="139" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>38838</v>
       </c>
@@ -8193,7 +8205,7 @@
       <c r="RM139" s="1"/>
       <c r="RX139" s="1"/>
     </row>
-    <row r="140" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>38869</v>
       </c>
@@ -8288,7 +8300,7 @@
       <c r="RM140" s="1"/>
       <c r="RX140" s="1"/>
     </row>
-    <row r="141" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>38899</v>
       </c>
@@ -8383,7 +8395,7 @@
       <c r="RM141" s="1"/>
       <c r="RX141" s="1"/>
     </row>
-    <row r="142" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>38930</v>
       </c>
@@ -8478,7 +8490,7 @@
       <c r="RM142" s="1"/>
       <c r="RX142" s="1"/>
     </row>
-    <row r="143" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>38961</v>
       </c>
@@ -8573,7 +8585,7 @@
       <c r="RM143" s="1"/>
       <c r="RX143" s="1"/>
     </row>
-    <row r="144" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>38991</v>
       </c>
@@ -8668,7 +8680,7 @@
       <c r="RM144" s="1"/>
       <c r="RX144" s="1"/>
     </row>
-    <row r="145" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>39022</v>
       </c>
@@ -8763,7 +8775,7 @@
       <c r="RM145" s="1"/>
       <c r="RX145" s="1"/>
     </row>
-    <row r="146" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>39052</v>
       </c>
@@ -8858,7 +8870,7 @@
       <c r="RM146" s="1"/>
       <c r="RX146" s="1"/>
     </row>
-    <row r="147" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>39083</v>
       </c>
@@ -8953,7 +8965,7 @@
       <c r="RM147" s="1"/>
       <c r="RX147" s="1"/>
     </row>
-    <row r="148" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>39114</v>
       </c>
@@ -9048,7 +9060,7 @@
       <c r="RM148" s="1"/>
       <c r="RX148" s="1"/>
     </row>
-    <row r="149" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>39142</v>
       </c>
@@ -9143,7 +9155,7 @@
       <c r="RM149" s="1"/>
       <c r="RX149" s="1"/>
     </row>
-    <row r="150" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>39173</v>
       </c>
@@ -9238,7 +9250,7 @@
       <c r="RM150" s="1"/>
       <c r="RX150" s="1"/>
     </row>
-    <row r="151" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>39203</v>
       </c>
@@ -9333,7 +9345,7 @@
       <c r="RM151" s="1"/>
       <c r="RX151" s="1"/>
     </row>
-    <row r="152" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>39234</v>
       </c>
@@ -9428,7 +9440,7 @@
       <c r="RM152" s="1"/>
       <c r="RX152" s="1"/>
     </row>
-    <row r="153" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>39264</v>
       </c>
@@ -9523,7 +9535,7 @@
       <c r="RM153" s="1"/>
       <c r="RX153" s="1"/>
     </row>
-    <row r="154" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>39295</v>
       </c>
@@ -9618,7 +9630,7 @@
       <c r="RM154" s="1"/>
       <c r="RX154" s="1"/>
     </row>
-    <row r="155" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>39326</v>
       </c>
@@ -9713,7 +9725,7 @@
       <c r="RM155" s="1"/>
       <c r="RX155" s="1"/>
     </row>
-    <row r="156" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>39356</v>
       </c>
@@ -9808,7 +9820,7 @@
       <c r="RM156" s="1"/>
       <c r="RX156" s="1"/>
     </row>
-    <row r="157" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>39387</v>
       </c>
@@ -9903,7 +9915,7 @@
       <c r="RM157" s="1"/>
       <c r="RX157" s="1"/>
     </row>
-    <row r="158" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>39417</v>
       </c>
@@ -9998,7 +10010,7 @@
       <c r="RM158" s="1"/>
       <c r="RX158" s="1"/>
     </row>
-    <row r="159" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>39448</v>
       </c>
@@ -10093,7 +10105,7 @@
       <c r="RM159" s="1"/>
       <c r="RX159" s="1"/>
     </row>
-    <row r="160" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>39479</v>
       </c>
@@ -10188,7 +10200,7 @@
       <c r="RM160" s="1"/>
       <c r="RX160" s="1"/>
     </row>
-    <row r="161" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>39508</v>
       </c>
@@ -10283,7 +10295,7 @@
       <c r="RM161" s="1"/>
       <c r="RX161" s="1"/>
     </row>
-    <row r="162" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>39539</v>
       </c>
@@ -10378,7 +10390,7 @@
       <c r="RM162" s="1"/>
       <c r="RX162" s="1"/>
     </row>
-    <row r="163" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>39569</v>
       </c>
@@ -10473,7 +10485,7 @@
       <c r="RM163" s="1"/>
       <c r="RX163" s="1"/>
     </row>
-    <row r="164" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>39600</v>
       </c>
@@ -10568,7 +10580,7 @@
       <c r="RM164" s="1"/>
       <c r="RX164" s="1"/>
     </row>
-    <row r="165" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>39630</v>
       </c>
@@ -10663,7 +10675,7 @@
       <c r="RM165" s="1"/>
       <c r="RX165" s="1"/>
     </row>
-    <row r="166" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>39661</v>
       </c>
@@ -10758,7 +10770,7 @@
       <c r="RM166" s="1"/>
       <c r="RX166" s="1"/>
     </row>
-    <row r="167" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>39692</v>
       </c>
@@ -10853,7 +10865,7 @@
       <c r="RM167" s="1"/>
       <c r="RX167" s="1"/>
     </row>
-    <row r="168" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>39722</v>
       </c>
@@ -10948,7 +10960,7 @@
       <c r="RM168" s="1"/>
       <c r="RX168" s="1"/>
     </row>
-    <row r="169" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>39753</v>
       </c>
@@ -11043,7 +11055,7 @@
       <c r="RM169" s="1"/>
       <c r="RX169" s="1"/>
     </row>
-    <row r="170" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>39783</v>
       </c>
@@ -11138,7 +11150,7 @@
       <c r="RM170" s="1"/>
       <c r="RX170" s="1"/>
     </row>
-    <row r="171" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>39814</v>
       </c>
@@ -11233,7 +11245,7 @@
       <c r="RM171" s="1"/>
       <c r="RX171" s="1"/>
     </row>
-    <row r="172" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>39845</v>
       </c>
@@ -11328,7 +11340,7 @@
       <c r="RM172" s="1"/>
       <c r="RX172" s="1"/>
     </row>
-    <row r="173" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>39873</v>
       </c>
@@ -11423,7 +11435,7 @@
       <c r="RM173" s="1"/>
       <c r="RX173" s="1"/>
     </row>
-    <row r="174" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>39904</v>
       </c>
@@ -11518,7 +11530,7 @@
       <c r="RM174" s="1"/>
       <c r="RX174" s="1"/>
     </row>
-    <row r="175" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>39934</v>
       </c>
@@ -11613,7 +11625,7 @@
       <c r="RM175" s="1"/>
       <c r="RX175" s="1"/>
     </row>
-    <row r="176" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>39965</v>
       </c>
@@ -11708,7 +11720,7 @@
       <c r="RM176" s="1"/>
       <c r="RX176" s="1"/>
     </row>
-    <row r="177" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>39995</v>
       </c>
@@ -11803,7 +11815,7 @@
       <c r="RM177" s="1"/>
       <c r="RX177" s="1"/>
     </row>
-    <row r="178" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>40026</v>
       </c>
@@ -11898,7 +11910,7 @@
       <c r="RM178" s="1"/>
       <c r="RX178" s="1"/>
     </row>
-    <row r="179" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>40057</v>
       </c>
@@ -11993,7 +12005,7 @@
       <c r="RM179" s="1"/>
       <c r="RX179" s="1"/>
     </row>
-    <row r="180" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>40087</v>
       </c>
@@ -12088,7 +12100,7 @@
       <c r="RM180" s="1"/>
       <c r="RX180" s="1"/>
     </row>
-    <row r="181" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>40118</v>
       </c>
@@ -12183,7 +12195,7 @@
       <c r="RM181" s="1"/>
       <c r="RX181" s="1"/>
     </row>
-    <row r="182" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>40148</v>
       </c>
@@ -12278,7 +12290,7 @@
       <c r="RM182" s="1"/>
       <c r="RX182" s="1"/>
     </row>
-    <row r="183" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>40179</v>
       </c>
@@ -12373,7 +12385,7 @@
       <c r="RM183" s="1"/>
       <c r="RX183" s="1"/>
     </row>
-    <row r="184" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>40210</v>
       </c>
@@ -12468,7 +12480,7 @@
       <c r="RM184" s="1"/>
       <c r="RX184" s="1"/>
     </row>
-    <row r="185" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>40238</v>
       </c>
@@ -12563,7 +12575,7 @@
       <c r="RM185" s="1"/>
       <c r="RX185" s="1"/>
     </row>
-    <row r="186" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>40269</v>
       </c>
@@ -12658,7 +12670,7 @@
       <c r="RM186" s="1"/>
       <c r="RX186" s="1"/>
     </row>
-    <row r="187" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>40299</v>
       </c>
@@ -12753,7 +12765,7 @@
       <c r="RM187" s="1"/>
       <c r="RX187" s="1"/>
     </row>
-    <row r="188" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>40330</v>
       </c>
@@ -12848,7 +12860,7 @@
       <c r="RM188" s="1"/>
       <c r="RX188" s="1"/>
     </row>
-    <row r="189" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>40360</v>
       </c>
@@ -12943,7 +12955,7 @@
       <c r="RM189" s="1"/>
       <c r="RX189" s="1"/>
     </row>
-    <row r="190" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>40391</v>
       </c>
@@ -13038,7 +13050,7 @@
       <c r="RM190" s="1"/>
       <c r="RX190" s="1"/>
     </row>
-    <row r="191" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>40422</v>
       </c>
@@ -13133,7 +13145,7 @@
       <c r="RM191" s="1"/>
       <c r="RX191" s="1"/>
     </row>
-    <row r="192" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>40452</v>
       </c>
@@ -13228,7 +13240,7 @@
       <c r="RM192" s="1"/>
       <c r="RX192" s="1"/>
     </row>
-    <row r="193" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>40483</v>
       </c>
@@ -13323,7 +13335,7 @@
       <c r="RM193" s="1"/>
       <c r="RX193" s="1"/>
     </row>
-    <row r="194" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>40513</v>
       </c>
@@ -13418,7 +13430,7 @@
       <c r="RM194" s="1"/>
       <c r="RX194" s="1"/>
     </row>
-    <row r="195" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>40544</v>
       </c>
@@ -13513,7 +13525,7 @@
       <c r="RM195" s="1"/>
       <c r="RX195" s="1"/>
     </row>
-    <row r="196" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>40575</v>
       </c>
@@ -13608,7 +13620,7 @@
       <c r="RM196" s="1"/>
       <c r="RX196" s="1"/>
     </row>
-    <row r="197" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>40603</v>
       </c>
@@ -13703,7 +13715,7 @@
       <c r="RM197" s="1"/>
       <c r="RX197" s="1"/>
     </row>
-    <row r="198" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>40634</v>
       </c>
@@ -13798,7 +13810,7 @@
       <c r="RM198" s="1"/>
       <c r="RX198" s="1"/>
     </row>
-    <row r="199" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>40664</v>
       </c>
@@ -13893,7 +13905,7 @@
       <c r="RM199" s="1"/>
       <c r="RX199" s="1"/>
     </row>
-    <row r="200" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>40695</v>
       </c>
@@ -13988,7 +14000,7 @@
       <c r="RM200" s="1"/>
       <c r="RX200" s="1"/>
     </row>
-    <row r="201" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>40725</v>
       </c>
@@ -14083,7 +14095,7 @@
       <c r="RM201" s="1"/>
       <c r="RX201" s="1"/>
     </row>
-    <row r="202" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>40756</v>
       </c>
@@ -14178,7 +14190,7 @@
       <c r="RM202" s="1"/>
       <c r="RX202" s="1"/>
     </row>
-    <row r="203" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>40787</v>
       </c>
@@ -14273,7 +14285,7 @@
       <c r="RM203" s="1"/>
       <c r="RX203" s="1"/>
     </row>
-    <row r="204" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>40817</v>
       </c>
@@ -14368,7 +14380,7 @@
       <c r="RM204" s="1"/>
       <c r="RX204" s="1"/>
     </row>
-    <row r="205" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>40848</v>
       </c>
@@ -14463,7 +14475,7 @@
       <c r="RM205" s="1"/>
       <c r="RX205" s="1"/>
     </row>
-    <row r="206" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>40878</v>
       </c>
@@ -14559,7 +14571,7 @@
       <c r="RM206" s="1"/>
       <c r="RX206" s="1"/>
     </row>
-    <row r="207" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>40909</v>
       </c>
@@ -14655,7 +14667,7 @@
       <c r="RM207" s="1"/>
       <c r="RX207" s="1"/>
     </row>
-    <row r="208" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>40940</v>
       </c>
@@ -14754,7 +14766,7 @@
       <c r="RM208" s="1"/>
       <c r="RX208" s="1"/>
     </row>
-    <row r="209" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>40969</v>
       </c>
@@ -14850,7 +14862,7 @@
       <c r="RM209" s="1"/>
       <c r="RX209" s="1"/>
     </row>
-    <row r="210" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>41000</v>
       </c>
@@ -14949,7 +14961,7 @@
       <c r="RM210" s="1"/>
       <c r="RX210" s="1"/>
     </row>
-    <row r="211" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>41030</v>
       </c>
@@ -15044,7 +15056,7 @@
       <c r="RM211" s="1"/>
       <c r="RX211" s="1"/>
     </row>
-    <row r="212" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>41061</v>
       </c>
@@ -15140,7 +15152,7 @@
       <c r="RM212" s="1"/>
       <c r="RX212" s="1"/>
     </row>
-    <row r="213" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>41091</v>
       </c>
@@ -15235,7 +15247,7 @@
       <c r="RM213" s="1"/>
       <c r="RX213" s="1"/>
     </row>
-    <row r="214" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>41122</v>
       </c>
@@ -15330,7 +15342,7 @@
       <c r="RM214" s="1"/>
       <c r="RX214" s="1"/>
     </row>
-    <row r="215" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>41153</v>
       </c>
@@ -15425,7 +15437,7 @@
       <c r="RM215" s="1"/>
       <c r="RX215" s="1"/>
     </row>
-    <row r="216" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>41183</v>
       </c>
@@ -15521,7 +15533,7 @@
       <c r="RM216" s="1"/>
       <c r="RX216" s="1"/>
     </row>
-    <row r="217" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>41214</v>
       </c>
@@ -15616,7 +15628,7 @@
       <c r="RM217" s="1"/>
       <c r="RX217" s="1"/>
     </row>
-    <row r="218" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>41244</v>
       </c>
@@ -15711,7 +15723,7 @@
       <c r="RM218" s="1"/>
       <c r="RX218" s="1"/>
     </row>
-    <row r="219" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>41275</v>
       </c>
@@ -15806,7 +15818,7 @@
       <c r="RM219" s="1"/>
       <c r="RX219" s="1"/>
     </row>
-    <row r="220" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>41306</v>
       </c>
@@ -15901,7 +15913,7 @@
       <c r="RM220" s="1"/>
       <c r="RX220" s="1"/>
     </row>
-    <row r="221" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>41334</v>
       </c>
@@ -15999,7 +16011,7 @@
       <c r="RM221" s="1"/>
       <c r="RX221" s="1"/>
     </row>
-    <row r="222" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>41365</v>
       </c>
@@ -16018,7 +16030,7 @@
       <c r="QC222" s="1"/>
       <c r="QD222" s="1"/>
     </row>
-    <row r="223" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>41395</v>
       </c>
@@ -16037,7 +16049,7 @@
       <c r="QC223" s="1"/>
       <c r="QD223" s="1"/>
     </row>
-    <row r="224" spans="1:492" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:492" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>41426</v>
       </c>
@@ -16056,7 +16068,7 @@
       <c r="QC224" s="1"/>
       <c r="QD224" s="1"/>
     </row>
-    <row r="225" spans="1:446" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:446" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>41456</v>
       </c>
@@ -16075,7 +16087,7 @@
       <c r="QC225" s="1"/>
       <c r="QD225" s="1"/>
     </row>
-    <row r="226" spans="1:446" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:446" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>41487</v>
       </c>
@@ -16094,7 +16106,7 @@
       <c r="QC226" s="1"/>
       <c r="QD226" s="1"/>
     </row>
-    <row r="227" spans="1:446" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:446" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>41518</v>
       </c>
@@ -16113,7 +16125,7 @@
       <c r="QC227" s="1"/>
       <c r="QD227" s="1"/>
     </row>
-    <row r="228" spans="1:446" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:446" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>41548</v>
       </c>
@@ -16122,7 +16134,7 @@
       </c>
       <c r="C228" s="5"/>
     </row>
-    <row r="229" spans="1:446" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:446" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>41579</v>
       </c>
@@ -16131,7 +16143,7 @@
       </c>
       <c r="C229" s="5"/>
     </row>
-    <row r="230" spans="1:446" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:446" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>41609</v>
       </c>
@@ -16140,7 +16152,7 @@
       </c>
       <c r="C230" s="5"/>
     </row>
-    <row r="231" spans="1:446" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:446" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>41640</v>
       </c>
@@ -16149,7 +16161,7 @@
       </c>
       <c r="C231" s="5"/>
     </row>
-    <row r="232" spans="1:446" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:446" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>41671</v>
       </c>
@@ -16158,7 +16170,7 @@
       </c>
       <c r="C232" s="5"/>
     </row>
-    <row r="233" spans="1:446" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:446" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>41699</v>
       </c>
@@ -16167,7 +16179,7 @@
       </c>
       <c r="C233" s="5"/>
     </row>
-    <row r="234" spans="1:446" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:446" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>41730</v>
       </c>
@@ -16176,7 +16188,7 @@
       </c>
       <c r="C234" s="5"/>
     </row>
-    <row r="235" spans="1:446" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:446" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>41760</v>
       </c>
@@ -16185,7 +16197,7 @@
       </c>
       <c r="C235" s="5"/>
     </row>
-    <row r="236" spans="1:446" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:446" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>41791</v>
       </c>
@@ -16194,7 +16206,7 @@
       </c>
       <c r="C236" s="5"/>
     </row>
-    <row r="237" spans="1:446" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:446" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>41821</v>
       </c>
@@ -16203,7 +16215,7 @@
       </c>
       <c r="C237" s="5"/>
     </row>
-    <row r="238" spans="1:446" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:446" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>41852</v>
       </c>
@@ -16212,7 +16224,7 @@
       </c>
       <c r="C238" s="5"/>
     </row>
-    <row r="239" spans="1:446" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:446" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>41883</v>
       </c>
@@ -16221,7 +16233,7 @@
       </c>
       <c r="C239" s="5"/>
     </row>
-    <row r="240" spans="1:446" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:446" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>41913</v>
       </c>
@@ -16230,7 +16242,7 @@
       </c>
       <c r="C240" s="5"/>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>41944</v>
       </c>
@@ -16239,7 +16251,7 @@
       </c>
       <c r="C241" s="5"/>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>41974</v>
       </c>
@@ -16248,7 +16260,7 @@
       </c>
       <c r="C242" s="5"/>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>42005</v>
       </c>
@@ -16257,7 +16269,7 @@
       </c>
       <c r="C243" s="5"/>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>42036</v>
       </c>
@@ -16266,7 +16278,7 @@
       </c>
       <c r="C244" s="5"/>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>42064</v>
       </c>
@@ -16275,7 +16287,7 @@
       </c>
       <c r="C245" s="5"/>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>42095</v>
       </c>
@@ -16284,7 +16296,7 @@
       </c>
       <c r="C246" s="5"/>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>42125</v>
       </c>
@@ -16293,7 +16305,7 @@
       </c>
       <c r="C247" s="5"/>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>42156</v>
       </c>
@@ -16302,7 +16314,7 @@
       </c>
       <c r="C248" s="5"/>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>42186</v>
       </c>
@@ -16311,7 +16323,7 @@
       </c>
       <c r="C249" s="5"/>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>42217</v>
       </c>
@@ -16320,7 +16332,7 @@
       </c>
       <c r="C250" s="5"/>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>42248</v>
       </c>
@@ -16329,7 +16341,7 @@
       </c>
       <c r="C251" s="5"/>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>42278</v>
       </c>
@@ -16338,7 +16350,7 @@
       </c>
       <c r="C252" s="5"/>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>42309</v>
       </c>
@@ -16347,7 +16359,7 @@
       </c>
       <c r="C253" s="5"/>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>42339</v>
       </c>
@@ -16356,7 +16368,7 @@
       </c>
       <c r="C254" s="5"/>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>42370</v>
       </c>
@@ -16365,7 +16377,7 @@
       </c>
       <c r="C255" s="5"/>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>42401</v>
       </c>
@@ -16374,7 +16386,7 @@
       </c>
       <c r="C256" s="5"/>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>42430</v>
       </c>
@@ -16383,7 +16395,7 @@
       </c>
       <c r="C257" s="5"/>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>42461</v>
       </c>
@@ -16392,7 +16404,7 @@
       </c>
       <c r="C258" s="5"/>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>42491</v>
       </c>
@@ -16401,7 +16413,7 @@
       </c>
       <c r="C259" s="5"/>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>42522</v>
       </c>
@@ -16410,7 +16422,7 @@
       </c>
       <c r="C260" s="5"/>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>42552</v>
       </c>
@@ -16419,7 +16431,7 @@
       </c>
       <c r="C261" s="5"/>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>42583</v>
       </c>
@@ -16428,7 +16440,7 @@
       </c>
       <c r="C262" s="5"/>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>42614</v>
       </c>
@@ -16437,7 +16449,7 @@
       </c>
       <c r="C263" s="5"/>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>42644</v>
       </c>
@@ -16446,7 +16458,7 @@
       </c>
       <c r="C264" s="5"/>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>42675</v>
       </c>
@@ -16455,7 +16467,7 @@
       </c>
       <c r="C265" s="5"/>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>42705</v>
       </c>
@@ -16464,7 +16476,7 @@
       </c>
       <c r="C266" s="5"/>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>42736</v>
       </c>
@@ -16473,7 +16485,7 @@
       </c>
       <c r="C267" s="5"/>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>42767</v>
       </c>
@@ -16482,7 +16494,7 @@
       </c>
       <c r="C268" s="5"/>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>42795</v>
       </c>
@@ -16491,7 +16503,7 @@
       </c>
       <c r="C269" s="5"/>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>42826</v>
       </c>
@@ -16500,7 +16512,7 @@
       </c>
       <c r="C270" s="5"/>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <v>42856</v>
       </c>
@@ -16509,7 +16521,7 @@
       </c>
       <c r="C271" s="5"/>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>42887</v>
       </c>
@@ -16518,7 +16530,7 @@
       </c>
       <c r="C272" s="5"/>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <v>42917</v>
       </c>
@@ -16527,7 +16539,7 @@
       </c>
       <c r="C273" s="5"/>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>42948</v>
       </c>
@@ -16536,7 +16548,7 @@
       </c>
       <c r="C274" s="5"/>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <v>42979</v>
       </c>
@@ -16545,7 +16557,7 @@
       </c>
       <c r="C275" s="5"/>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>43009</v>
       </c>
@@ -16554,7 +16566,7 @@
       </c>
       <c r="C276" s="5"/>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <v>43040</v>
       </c>
@@ -16563,7 +16575,7 @@
       </c>
       <c r="C277" s="5"/>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <v>43070</v>
       </c>
@@ -16572,7 +16584,7 @@
       </c>
       <c r="C278" s="5"/>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <v>43101</v>
       </c>
@@ -16581,7 +16593,7 @@
       </c>
       <c r="C279" s="5"/>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <v>43132</v>
       </c>
@@ -16590,7 +16602,7 @@
       </c>
       <c r="C280" s="5"/>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <v>43160</v>
       </c>
@@ -16599,7 +16611,7 @@
       </c>
       <c r="C281" s="5"/>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <v>43191</v>
       </c>
@@ -16608,7 +16620,7 @@
       </c>
       <c r="C282" s="5"/>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <v>43221</v>
       </c>
@@ -16617,7 +16629,7 @@
       </c>
       <c r="C283" s="5"/>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <v>43252</v>
       </c>
@@ -16626,7 +16638,7 @@
       </c>
       <c r="C284" s="5"/>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <v>43282</v>
       </c>
@@ -16635,7 +16647,7 @@
       </c>
       <c r="C285" s="5"/>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <v>43313</v>
       </c>
@@ -16644,7 +16656,7 @@
       </c>
       <c r="C286" s="5"/>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <v>43344</v>
       </c>
@@ -16653,7 +16665,7 @@
       </c>
       <c r="C287" s="5"/>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <v>43374</v>
       </c>
@@ -16662,7 +16674,7 @@
       </c>
       <c r="C288" s="5"/>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <v>43405</v>
       </c>
@@ -16671,7 +16683,7 @@
       </c>
       <c r="C289" s="5"/>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <v>43435</v>
       </c>
@@ -16680,7 +16692,7 @@
       </c>
       <c r="C290" s="5"/>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <v>43466</v>
       </c>
@@ -16689,7 +16701,7 @@
       </c>
       <c r="C291" s="5"/>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <v>43497</v>
       </c>
@@ -16698,7 +16710,7 @@
       </c>
       <c r="C292" s="5"/>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <v>43525</v>
       </c>
@@ -16707,7 +16719,7 @@
       </c>
       <c r="C293" s="5"/>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <v>43556</v>
       </c>
@@ -16716,7 +16728,7 @@
       </c>
       <c r="C294" s="5"/>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <v>43586</v>
       </c>
@@ -16725,7 +16737,7 @@
       </c>
       <c r="C295" s="5"/>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <v>43617</v>
       </c>
@@ -16734,7 +16746,7 @@
       </c>
       <c r="C296" s="5"/>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <v>43647</v>
       </c>
@@ -16743,7 +16755,7 @@
       </c>
       <c r="C297" s="5"/>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <v>43678</v>
       </c>
@@ -16752,7 +16764,7 @@
       </c>
       <c r="C298" s="5"/>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <v>43709</v>
       </c>
@@ -16761,7 +16773,7 @@
       </c>
       <c r="C299" s="5"/>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <v>43739</v>
       </c>
@@ -16770,7 +16782,7 @@
       </c>
       <c r="C300" s="5"/>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <v>43770</v>
       </c>
@@ -16779,7 +16791,7 @@
       </c>
       <c r="C301" s="5"/>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <v>43800</v>
       </c>
@@ -16788,7 +16800,7 @@
       </c>
       <c r="C302" s="5"/>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <v>43831</v>
       </c>
@@ -16797,7 +16809,7 @@
       </c>
       <c r="C303" s="5"/>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <v>43862</v>
       </c>
@@ -16806,7 +16818,7 @@
       </c>
       <c r="C304" s="5"/>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <v>43891</v>
       </c>
@@ -16815,7 +16827,7 @@
       </c>
       <c r="C305" s="5"/>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <v>43922</v>
       </c>
@@ -16824,7 +16836,7 @@
       </c>
       <c r="C306" s="5"/>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <v>43952</v>
       </c>
@@ -16833,7 +16845,7 @@
       </c>
       <c r="C307" s="5"/>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <v>43983</v>
       </c>
@@ -16842,7 +16854,7 @@
       </c>
       <c r="C308" s="5"/>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <v>44013</v>
       </c>
@@ -16851,7 +16863,7 @@
       </c>
       <c r="C309" s="5"/>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <v>44044</v>
       </c>
@@ -16860,7 +16872,7 @@
       </c>
       <c r="C310" s="5"/>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <v>44075</v>
       </c>
@@ -16869,7 +16881,7 @@
       </c>
       <c r="C311" s="5"/>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <v>44105</v>
       </c>
@@ -16878,7 +16890,7 @@
       </c>
       <c r="C312" s="5"/>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <v>44136</v>
       </c>
@@ -16887,7 +16899,7 @@
       </c>
       <c r="C313" s="5"/>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
         <v>44166</v>
       </c>
@@ -16896,7 +16908,7 @@
       </c>
       <c r="C314" s="5"/>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
         <v>44197</v>
       </c>
@@ -16905,7 +16917,7 @@
       </c>
       <c r="C315" s="5"/>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <v>44228</v>
       </c>
@@ -16914,7 +16926,7 @@
       </c>
       <c r="C316" s="5"/>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
         <v>44256</v>
       </c>
@@ -16923,7 +16935,7 @@
       </c>
       <c r="C317" s="5"/>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
         <v>44287</v>
       </c>
@@ -16932,7 +16944,7 @@
       </c>
       <c r="C318" s="5"/>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
         <v>44317</v>
       </c>
@@ -16941,7 +16953,7 @@
       </c>
       <c r="C319" s="5"/>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
         <v>44348</v>
       </c>
@@ -16950,7 +16962,7 @@
       </c>
       <c r="C320" s="5"/>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
         <v>44378</v>
       </c>
@@ -16959,7 +16971,7 @@
       </c>
       <c r="C321" s="5"/>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
         <v>44409</v>
       </c>
@@ -16968,7 +16980,7 @@
       </c>
       <c r="C322" s="5"/>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
         <v>44440</v>
       </c>
@@ -16977,7 +16989,7 @@
       </c>
       <c r="C323" s="5"/>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
         <v>44470</v>
       </c>
@@ -16986,7 +16998,7 @@
       </c>
       <c r="C324" s="5"/>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
         <v>44501</v>
       </c>
@@ -16995,7 +17007,7 @@
       </c>
       <c r="C325" s="5"/>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
         <v>44531</v>
       </c>
@@ -17004,7 +17016,7 @@
       </c>
       <c r="C326" s="5"/>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
         <v>44562</v>
       </c>
@@ -17013,7 +17025,7 @@
       </c>
       <c r="C327" s="5"/>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
         <v>44593</v>
       </c>
@@ -17022,7 +17034,7 @@
       </c>
       <c r="C328" s="5"/>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
         <v>44621</v>
       </c>
@@ -17031,7 +17043,7 @@
       </c>
       <c r="C329" s="5"/>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
         <v>44652</v>
       </c>
@@ -17040,7 +17052,7 @@
       </c>
       <c r="C330" s="5"/>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
         <v>44682</v>
       </c>
@@ -17049,7 +17061,7 @@
       </c>
       <c r="C331" s="5"/>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
         <v>44713</v>
       </c>
@@ -17058,7 +17070,7 @@
       </c>
       <c r="C332" s="5"/>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="2">
         <v>44743</v>
       </c>
@@ -17067,7 +17079,7 @@
       </c>
       <c r="C333" s="5"/>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" s="2">
         <v>44774</v>
       </c>
@@ -17076,7 +17088,7 @@
       </c>
       <c r="C334" s="5"/>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="2">
         <v>44805</v>
       </c>
@@ -17085,7 +17097,7 @@
       </c>
       <c r="C335" s="5"/>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="2">
         <v>44835</v>
       </c>
@@ -17094,7 +17106,7 @@
       </c>
       <c r="C336" s="5"/>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="2">
         <v>44866</v>
       </c>
@@ -17103,7 +17115,7 @@
       </c>
       <c r="C337" s="5"/>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="2">
         <v>44896</v>
       </c>
@@ -17112,7 +17124,7 @@
       </c>
       <c r="C338" s="5"/>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="2">
         <v>44927</v>
       </c>
@@ -17121,7 +17133,7 @@
       </c>
       <c r="C339" s="5"/>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="2">
         <v>44958</v>
       </c>
@@ -17130,7 +17142,7 @@
       </c>
       <c r="C340" s="5"/>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="2">
         <v>44986</v>
       </c>
@@ -17139,7 +17151,7 @@
       </c>
       <c r="C341" s="5"/>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="2">
         <v>45017</v>
       </c>
@@ -17148,7 +17160,7 @@
       </c>
       <c r="C342" s="5"/>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="2">
         <v>45047</v>
       </c>
@@ -17157,7 +17169,7 @@
       </c>
       <c r="C343" s="5"/>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="2">
         <v>45078</v>
       </c>
@@ -17166,7 +17178,7 @@
       </c>
       <c r="C344" s="5"/>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="2">
         <v>45108</v>
       </c>
@@ -17175,7 +17187,7 @@
       </c>
       <c r="C345" s="5"/>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="2">
         <v>45139</v>
       </c>
@@ -17185,7 +17197,7 @@
       <c r="C346" s="5"/>
       <c r="D346" s="5"/>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="2">
         <v>45170</v>
       </c>
@@ -17194,7 +17206,7 @@
       </c>
       <c r="C347" s="5"/>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="2">
         <v>45200</v>
       </c>
@@ -17203,7 +17215,7 @@
       </c>
       <c r="C348" s="5"/>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="2">
         <v>45231</v>
       </c>
@@ -17212,7 +17224,7 @@
       </c>
       <c r="C349" s="5"/>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="2">
         <v>45261</v>
       </c>
@@ -17221,7 +17233,7 @@
       </c>
       <c r="C350" s="5"/>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="2">
         <v>45292</v>
       </c>
@@ -17229,7 +17241,7 @@
         <v>8.25555271465966E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="2">
         <v>45323</v>
       </c>
@@ -17238,7 +17250,7 @@
       </c>
       <c r="C352" s="5"/>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="2">
         <v>45352</v>
       </c>
@@ -17247,7 +17259,7 @@
       </c>
       <c r="C353" s="5"/>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" s="2">
         <v>45383</v>
       </c>
@@ -17256,8 +17268,22 @@
       </c>
       <c r="C354" s="5"/>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A355" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B355" s="3">
+        <v>8.7222511947888201E-2</v>
+      </c>
       <c r="C355" s="5"/>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A356" s="2">
+        <v>45444</v>
+      </c>
+      <c r="B356" s="3">
+        <v>9.0654253691879294E-2</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:B2" xr:uid="{00000000-0001-0000-0000-000000000000}">
@@ -17266,7 +17292,7 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Database/Serie de Equity Risk Premium.xlsx
+++ b/Database/Serie de Equity Risk Premium.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bteba\Documents\GitHub\ERP\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73454608-A8F0-4B47-ACC8-FA888B3707A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90374B1B-BB36-475E-86B9-005249BB5B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,10 +18,21 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$2:$B$2</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -55,12 +66,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1305,6 +1318,9 @@
                 <c:pt idx="353">
                   <c:v>45444</c:v>
                 </c:pt>
+                <c:pt idx="354">
+                  <c:v>45474</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2375,6 +2391,9 @@
                 </c:pt>
                 <c:pt idx="353">
                   <c:v>9.0654253691879294E-2</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>9.0267898801057095E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3456,10 +3475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:RX356"/>
+  <dimension ref="A1:RX357"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
-      <selection activeCell="A351" sqref="A351:A356"/>
+      <selection activeCell="A339" sqref="A339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17285,6 +17304,14 @@
         <v>9.0654253691879294E-2</v>
       </c>
     </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A357" s="2">
+        <v>45474</v>
+      </c>
+      <c r="B357" s="3">
+        <v>9.0267898801057095E-2</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:B2" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B348">
@@ -17292,7 +17319,7 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Database/Serie de Equity Risk Premium.xlsx
+++ b/Database/Serie de Equity Risk Premium.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bteba\Documents\GitHub\ERP\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90374B1B-BB36-475E-86B9-005249BB5B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2175AA94-E3B9-44C4-81A3-D3BD14330A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,23 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$2:$B$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1321,6 +1305,9 @@
                 <c:pt idx="354">
                   <c:v>45474</c:v>
                 </c:pt>
+                <c:pt idx="355">
+                  <c:v>45505</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2394,6 +2381,9 @@
                 </c:pt>
                 <c:pt idx="354">
                   <c:v>9.0267898801057095E-2</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>9.13728721791362E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3475,10 +3465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:RX357"/>
+  <dimension ref="A1:RX358"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
-      <selection activeCell="A339" sqref="A339"/>
+      <selection activeCell="B358" sqref="B358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17312,6 +17302,14 @@
         <v>9.0267898801057095E-2</v>
       </c>
     </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A358" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B358" s="3">
+        <v>9.13728721791362E-2</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:B2" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B348">

--- a/Database/Serie de Equity Risk Premium.xlsx
+++ b/Database/Serie de Equity Risk Premium.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bteba\Documents\GitHub\ERP\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2175AA94-E3B9-44C4-81A3-D3BD14330A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9C5B88-E5DF-4201-B0AA-1A48F4D8B395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -50,14 +50,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -131,7 +129,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1308,6 +1306,9 @@
                 <c:pt idx="355">
                   <c:v>45505</c:v>
                 </c:pt>
+                <c:pt idx="356">
+                  <c:v>45536</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2323,67 +2324,70 @@
                   <c:v>0.1177</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>0.1172183756433729</c:v>
+                  <c:v>0.119570950843835</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>0.112566</c:v>
+                  <c:v>0.117893919965138</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>0.10406600000000001</c:v>
+                  <c:v>0.114166215748151</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>0.100060632666334</c:v>
+                  <c:v>0.106506091149822</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>9.7161250237506505E-2</c:v>
+                  <c:v>0.104972619878797</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>9.6838061660370997E-2</c:v>
+                  <c:v>0.106212619878797</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>8.4097029271563706E-2</c:v>
+                  <c:v>8.9786943876921502E-2</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>7.9421854001553702E-2</c:v>
+                  <c:v>8.5042290284176397E-2</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>8.8703735811575105E-2</c:v>
+                  <c:v>9.3402828335221205E-2</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>8.69610556503468E-2</c:v>
+                  <c:v>9.3593759783569305E-2</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>8.5154952330852907E-2</c:v>
+                  <c:v>8.9448833444429304E-2</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>9.2767735220062306E-2</c:v>
+                  <c:v>9.54667785258735E-2</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>8.8146226677963901E-2</c:v>
+                  <c:v>9.2670036787301999E-2</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>8.25555271465966E-2</c:v>
+                  <c:v>8.9115758120277305E-2</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>8.3559126164475694E-2</c:v>
+                  <c:v>8.9552263562969095E-2</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>8.6001011589843995E-2</c:v>
+                  <c:v>9.1546890323989105E-2</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>8.2095674612073302E-2</c:v>
+                  <c:v>8.8194059924412899E-2</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>8.7222511947888201E-2</c:v>
+                  <c:v>9.31940896021691E-2</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>9.0654253691879294E-2</c:v>
+                  <c:v>9.9626160666037494E-2</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>9.0267898801057095E-2</c:v>
+                  <c:v>9.8254086785083294E-2</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>9.13728721791362E-2</c:v>
+                  <c:v>8.7638597939404303E-2</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>8.7638597939404303E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3465,26 +3469,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:RX358"/>
+  <dimension ref="A1:RX359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
-      <selection activeCell="B358" sqref="B358"/>
+    <sheetView tabSelected="1" topLeftCell="A318" workbookViewId="0">
+      <selection activeCell="A359" sqref="A359"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="1" max="2" width="11.46484375" customWidth="1"/>
+    <col min="5" max="5" width="12.46484375" customWidth="1"/>
     <col min="40" max="40" width="9" customWidth="1"/>
-    <col min="498" max="498" width="9.109375" customWidth="1"/>
+    <col min="498" max="498" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:492" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -3523,7 +3527,7 @@
       <c r="RM2" s="1"/>
       <c r="RX2" s="1"/>
     </row>
-    <row r="3" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>34700</v>
       </c>
@@ -3561,7 +3565,7 @@
       <c r="RM3" s="1"/>
       <c r="RX3" s="1"/>
     </row>
-    <row r="4" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>34731</v>
       </c>
@@ -3599,7 +3603,7 @@
       <c r="RM4" s="1"/>
       <c r="RX4" s="1"/>
     </row>
-    <row r="5" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>34759</v>
       </c>
@@ -3636,7 +3640,7 @@
       <c r="RM5" s="1"/>
       <c r="RX5" s="1"/>
     </row>
-    <row r="6" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>34790</v>
       </c>
@@ -3671,7 +3675,7 @@
       <c r="RB6" s="1"/>
       <c r="RM6" s="1"/>
     </row>
-    <row r="7" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>34820</v>
       </c>
@@ -3705,7 +3709,7 @@
       <c r="RB7" s="1"/>
       <c r="RM7" s="1"/>
     </row>
-    <row r="8" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>34851</v>
       </c>
@@ -3739,7 +3743,7 @@
       <c r="RB8" s="1"/>
       <c r="RM8" s="1"/>
     </row>
-    <row r="9" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>34881</v>
       </c>
@@ -3763,7 +3767,7 @@
       <c r="RB9" s="1"/>
       <c r="RM9" s="1"/>
     </row>
-    <row r="10" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>34912</v>
       </c>
@@ -3786,7 +3790,7 @@
       <c r="RB10" s="1"/>
       <c r="RM10" s="1"/>
     </row>
-    <row r="11" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>34943</v>
       </c>
@@ -3809,7 +3813,7 @@
       <c r="RB11" s="1"/>
       <c r="RM11" s="1"/>
     </row>
-    <row r="12" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>34973</v>
       </c>
@@ -3831,7 +3835,7 @@
       <c r="RB12" s="1"/>
       <c r="RM12" s="1"/>
     </row>
-    <row r="13" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>35004</v>
       </c>
@@ -3853,7 +3857,7 @@
       <c r="RB13" s="1"/>
       <c r="RM13" s="1"/>
     </row>
-    <row r="14" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>35034</v>
       </c>
@@ -3873,7 +3877,7 @@
       <c r="CP14" s="1"/>
       <c r="OY14" s="1"/>
     </row>
-    <row r="15" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>35065</v>
       </c>
@@ -3893,7 +3897,7 @@
       <c r="CP15" s="1"/>
       <c r="OY15" s="1"/>
     </row>
-    <row r="16" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>35096</v>
       </c>
@@ -3903,7 +3907,7 @@
       <c r="C16" s="5"/>
       <c r="CP16" s="1"/>
     </row>
-    <row r="17" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>35125</v>
       </c>
@@ -3913,7 +3917,7 @@
       <c r="C17" s="5"/>
       <c r="CP17" s="1"/>
     </row>
-    <row r="18" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>35156</v>
       </c>
@@ -3923,7 +3927,7 @@
       <c r="C18" s="5"/>
       <c r="CP18" s="1"/>
     </row>
-    <row r="19" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>35186</v>
       </c>
@@ -3933,7 +3937,7 @@
       <c r="C19" s="5"/>
       <c r="CP19" s="1"/>
     </row>
-    <row r="20" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>35217</v>
       </c>
@@ -3943,7 +3947,7 @@
       <c r="C20" s="5"/>
       <c r="CP20" s="1"/>
     </row>
-    <row r="21" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>35247</v>
       </c>
@@ -3953,7 +3957,7 @@
       <c r="C21" s="5"/>
       <c r="CP21" s="1"/>
     </row>
-    <row r="22" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>35278</v>
       </c>
@@ -3963,7 +3967,7 @@
       <c r="C22" s="5"/>
       <c r="CP22" s="1"/>
     </row>
-    <row r="23" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>35309</v>
       </c>
@@ -3973,7 +3977,7 @@
       <c r="C23" s="5"/>
       <c r="CP23" s="1"/>
     </row>
-    <row r="24" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>35339</v>
       </c>
@@ -3983,7 +3987,7 @@
       <c r="C24" s="5"/>
       <c r="CP24" s="1"/>
     </row>
-    <row r="25" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>35370</v>
       </c>
@@ -3993,7 +3997,7 @@
       <c r="C25" s="5"/>
       <c r="CP25" s="1"/>
     </row>
-    <row r="26" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>35400</v>
       </c>
@@ -4003,7 +4007,7 @@
       <c r="C26" s="5"/>
       <c r="CP26" s="1"/>
     </row>
-    <row r="27" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>35431</v>
       </c>
@@ -4013,7 +4017,7 @@
       <c r="C27" s="5"/>
       <c r="CP27" s="1"/>
     </row>
-    <row r="28" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>35462</v>
       </c>
@@ -4023,7 +4027,7 @@
       <c r="C28" s="5"/>
       <c r="CP28" s="1"/>
     </row>
-    <row r="29" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <v>35490</v>
       </c>
@@ -4033,7 +4037,7 @@
       <c r="C29" s="5"/>
       <c r="CP29" s="1"/>
     </row>
-    <row r="30" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>35521</v>
       </c>
@@ -4051,7 +4055,7 @@
       <c r="L30" s="8"/>
       <c r="CP30" s="1"/>
     </row>
-    <row r="31" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <v>35551</v>
       </c>
@@ -4069,7 +4073,7 @@
       <c r="L31" s="8"/>
       <c r="CP31" s="1"/>
     </row>
-    <row r="32" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
         <v>35582</v>
       </c>
@@ -4087,7 +4091,7 @@
       <c r="L32" s="8"/>
       <c r="CP32" s="1"/>
     </row>
-    <row r="33" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
         <v>35612</v>
       </c>
@@ -4105,7 +4109,7 @@
       <c r="L33" s="8"/>
       <c r="CP33" s="1"/>
     </row>
-    <row r="34" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
         <v>35643</v>
       </c>
@@ -4116,7 +4120,7 @@
       <c r="L34" s="8"/>
       <c r="CP34" s="1"/>
     </row>
-    <row r="35" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A35" s="2">
         <v>35674</v>
       </c>
@@ -4126,7 +4130,7 @@
       <c r="C35" s="5"/>
       <c r="CP35" s="1"/>
     </row>
-    <row r="36" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A36" s="2">
         <v>35704</v>
       </c>
@@ -4136,7 +4140,7 @@
       <c r="C36" s="5"/>
       <c r="CP36" s="1"/>
     </row>
-    <row r="37" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A37" s="2">
         <v>35735</v>
       </c>
@@ -4146,7 +4150,7 @@
       <c r="C37" s="5"/>
       <c r="CP37" s="1"/>
     </row>
-    <row r="38" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A38" s="2">
         <v>35765</v>
       </c>
@@ -4156,7 +4160,7 @@
       <c r="C38" s="5"/>
       <c r="CP38" s="1"/>
     </row>
-    <row r="39" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A39" s="2">
         <v>35796</v>
       </c>
@@ -4166,7 +4170,7 @@
       <c r="C39" s="5"/>
       <c r="CP39" s="1"/>
     </row>
-    <row r="40" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A40" s="2">
         <v>35827</v>
       </c>
@@ -4176,7 +4180,7 @@
       <c r="C40" s="5"/>
       <c r="CP40" s="1"/>
     </row>
-    <row r="41" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A41" s="2">
         <v>35855</v>
       </c>
@@ -4186,7 +4190,7 @@
       <c r="C41" s="5"/>
       <c r="CP41" s="1"/>
     </row>
-    <row r="42" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A42" s="2">
         <v>35886</v>
       </c>
@@ -4196,7 +4200,7 @@
       <c r="C42" s="5"/>
       <c r="CP42" s="1"/>
     </row>
-    <row r="43" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A43" s="2">
         <v>35916</v>
       </c>
@@ -4206,7 +4210,7 @@
       <c r="C43" s="5"/>
       <c r="CP43" s="1"/>
     </row>
-    <row r="44" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A44" s="2">
         <v>35947</v>
       </c>
@@ -4216,7 +4220,7 @@
       <c r="C44" s="5"/>
       <c r="CP44" s="1"/>
     </row>
-    <row r="45" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A45" s="2">
         <v>35977</v>
       </c>
@@ -4226,7 +4230,7 @@
       <c r="C45" s="5"/>
       <c r="CP45" s="1"/>
     </row>
-    <row r="46" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A46" s="2">
         <v>36008</v>
       </c>
@@ -4236,7 +4240,7 @@
       <c r="C46" s="5"/>
       <c r="CP46" s="1"/>
     </row>
-    <row r="47" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A47" s="2">
         <v>36039</v>
       </c>
@@ -4246,7 +4250,7 @@
       <c r="C47" s="5"/>
       <c r="CP47" s="1"/>
     </row>
-    <row r="48" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A48" s="2">
         <v>36069</v>
       </c>
@@ -4256,7 +4260,7 @@
       <c r="C48" s="5"/>
       <c r="CP48" s="1"/>
     </row>
-    <row r="49" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A49" s="2">
         <v>36100</v>
       </c>
@@ -4266,7 +4270,7 @@
       <c r="C49" s="5"/>
       <c r="CP49" s="1"/>
     </row>
-    <row r="50" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A50" s="2">
         <v>36130</v>
       </c>
@@ -4276,7 +4280,7 @@
       <c r="C50" s="5"/>
       <c r="CP50" s="1"/>
     </row>
-    <row r="51" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A51" s="2">
         <v>36161</v>
       </c>
@@ -4287,7 +4291,7 @@
       <c r="D51" s="6"/>
       <c r="CP51" s="1"/>
     </row>
-    <row r="52" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A52" s="2">
         <v>36192</v>
       </c>
@@ -4298,7 +4302,7 @@
       <c r="D52" s="6"/>
       <c r="CP52" s="1"/>
     </row>
-    <row r="53" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A53" s="2">
         <v>36220</v>
       </c>
@@ -4309,7 +4313,7 @@
       <c r="D53" s="6"/>
       <c r="CP53" s="1"/>
     </row>
-    <row r="54" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A54" s="2">
         <v>36251</v>
       </c>
@@ -4320,7 +4324,7 @@
       <c r="D54" s="6"/>
       <c r="CP54" s="1"/>
     </row>
-    <row r="55" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A55" s="2">
         <v>36281</v>
       </c>
@@ -4331,7 +4335,7 @@
       <c r="D55" s="6"/>
       <c r="CP55" s="1"/>
     </row>
-    <row r="56" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A56" s="2">
         <v>36312</v>
       </c>
@@ -4342,7 +4346,7 @@
       <c r="D56" s="6"/>
       <c r="CP56" s="1"/>
     </row>
-    <row r="57" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A57" s="2">
         <v>36342</v>
       </c>
@@ -4353,7 +4357,7 @@
       <c r="D57" s="6"/>
       <c r="CP57" s="1"/>
     </row>
-    <row r="58" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A58" s="2">
         <v>36373</v>
       </c>
@@ -4364,7 +4368,7 @@
       <c r="D58" s="6"/>
       <c r="CP58" s="1"/>
     </row>
-    <row r="59" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A59" s="2">
         <v>36404</v>
       </c>
@@ -4375,7 +4379,7 @@
       <c r="D59" s="6"/>
       <c r="CP59" s="1"/>
     </row>
-    <row r="60" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A60" s="2">
         <v>36434</v>
       </c>
@@ -4386,7 +4390,7 @@
       <c r="D60" s="6"/>
       <c r="CP60" s="1"/>
     </row>
-    <row r="61" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A61" s="2">
         <v>36465</v>
       </c>
@@ -4397,7 +4401,7 @@
       <c r="D61" s="6"/>
       <c r="CP61" s="1"/>
     </row>
-    <row r="62" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A62" s="2">
         <v>36495</v>
       </c>
@@ -4408,7 +4412,7 @@
       <c r="D62" s="6"/>
       <c r="CP62" s="1"/>
     </row>
-    <row r="63" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A63" s="2">
         <v>36526</v>
       </c>
@@ -4419,7 +4423,7 @@
       <c r="D63" s="6"/>
       <c r="CP63" s="1"/>
     </row>
-    <row r="64" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A64" s="2">
         <v>36557</v>
       </c>
@@ -4430,7 +4434,7 @@
       <c r="D64" s="6"/>
       <c r="CP64" s="1"/>
     </row>
-    <row r="65" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A65" s="2">
         <v>36586</v>
       </c>
@@ -4442,7 +4446,7 @@
       <c r="E65" s="6"/>
       <c r="CP65" s="1"/>
     </row>
-    <row r="66" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A66" s="2">
         <v>36617</v>
       </c>
@@ -4454,7 +4458,7 @@
       <c r="E66" s="6"/>
       <c r="CP66" s="1"/>
     </row>
-    <row r="67" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A67" s="2">
         <v>36647</v>
       </c>
@@ -4466,7 +4470,7 @@
       <c r="E67" s="6"/>
       <c r="CP67" s="1"/>
     </row>
-    <row r="68" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A68" s="2">
         <v>36678</v>
       </c>
@@ -4478,7 +4482,7 @@
       <c r="E68" s="6"/>
       <c r="CP68" s="1"/>
     </row>
-    <row r="69" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A69" s="2">
         <v>36708</v>
       </c>
@@ -4489,7 +4493,7 @@
       <c r="E69" s="6"/>
       <c r="CP69" s="1"/>
     </row>
-    <row r="70" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A70" s="2">
         <v>36739</v>
       </c>
@@ -4500,7 +4504,7 @@
       <c r="E70" s="6"/>
       <c r="CP70" s="1"/>
     </row>
-    <row r="71" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A71" s="2">
         <v>36770</v>
       </c>
@@ -4511,7 +4515,7 @@
       <c r="E71" s="6"/>
       <c r="CP71" s="1"/>
     </row>
-    <row r="72" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A72" s="2">
         <v>36800</v>
       </c>
@@ -4522,7 +4526,7 @@
       <c r="E72" s="6"/>
       <c r="CP72" s="1"/>
     </row>
-    <row r="73" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A73" s="2">
         <v>36831</v>
       </c>
@@ -4533,7 +4537,7 @@
       <c r="E73" s="6"/>
       <c r="CP73" s="1"/>
     </row>
-    <row r="74" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A74" s="2">
         <v>36861</v>
       </c>
@@ -4544,7 +4548,7 @@
       <c r="E74" s="6"/>
       <c r="CP74" s="1"/>
     </row>
-    <row r="75" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A75" s="2">
         <v>36892</v>
       </c>
@@ -4555,7 +4559,7 @@
       <c r="E75" s="6"/>
       <c r="CP75" s="1"/>
     </row>
-    <row r="76" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A76" s="2">
         <v>36923</v>
       </c>
@@ -4566,7 +4570,7 @@
       <c r="E76" s="6"/>
       <c r="CP76" s="1"/>
     </row>
-    <row r="77" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A77" s="2">
         <v>36951</v>
       </c>
@@ -4577,7 +4581,7 @@
       <c r="E77" s="6"/>
       <c r="CP77" s="1"/>
     </row>
-    <row r="78" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A78" s="2">
         <v>36982</v>
       </c>
@@ -4588,7 +4592,7 @@
       <c r="E78" s="6"/>
       <c r="CP78" s="1"/>
     </row>
-    <row r="79" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A79" s="2">
         <v>37012</v>
       </c>
@@ -4599,7 +4603,7 @@
       <c r="E79" s="6"/>
       <c r="CP79" s="1"/>
     </row>
-    <row r="80" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:94" x14ac:dyDescent="0.45">
       <c r="A80" s="2">
         <v>37043</v>
       </c>
@@ -4610,7 +4614,7 @@
       <c r="E80" s="6"/>
       <c r="CP80" s="1"/>
     </row>
-    <row r="81" spans="1:206" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:206" x14ac:dyDescent="0.45">
       <c r="A81" s="2">
         <v>37073</v>
       </c>
@@ -4629,7 +4633,7 @@
       <c r="DJ81" s="1"/>
       <c r="DK81" s="1"/>
     </row>
-    <row r="82" spans="1:206" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:206" x14ac:dyDescent="0.45">
       <c r="A82" s="2">
         <v>37104</v>
       </c>
@@ -4647,7 +4651,7 @@
       <c r="DJ82" s="1"/>
       <c r="DK82" s="1"/>
     </row>
-    <row r="83" spans="1:206" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:206" x14ac:dyDescent="0.45">
       <c r="A83" s="2">
         <v>37135</v>
       </c>
@@ -4666,7 +4670,7 @@
       <c r="DK83" s="1"/>
       <c r="FQ83" s="1"/>
     </row>
-    <row r="84" spans="1:206" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:206" x14ac:dyDescent="0.45">
       <c r="A84" s="2">
         <v>37165</v>
       </c>
@@ -4685,7 +4689,7 @@
       <c r="DK84" s="1"/>
       <c r="FQ84" s="1"/>
     </row>
-    <row r="85" spans="1:206" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:206" x14ac:dyDescent="0.45">
       <c r="A85" s="2">
         <v>37196</v>
       </c>
@@ -4704,7 +4708,7 @@
       <c r="DK85" s="1"/>
       <c r="FQ85" s="1"/>
     </row>
-    <row r="86" spans="1:206" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:206" x14ac:dyDescent="0.45">
       <c r="A86" s="2">
         <v>37226</v>
       </c>
@@ -4723,7 +4727,7 @@
       <c r="DK86" s="1"/>
       <c r="FQ86" s="1"/>
     </row>
-    <row r="87" spans="1:206" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:206" x14ac:dyDescent="0.45">
       <c r="A87" s="2">
         <v>37257</v>
       </c>
@@ -4742,7 +4746,7 @@
       <c r="DK87" s="1"/>
       <c r="FQ87" s="1"/>
     </row>
-    <row r="88" spans="1:206" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:206" x14ac:dyDescent="0.45">
       <c r="A88" s="2">
         <v>37288</v>
       </c>
@@ -4761,7 +4765,7 @@
       <c r="DK88" s="1"/>
       <c r="FQ88" s="1"/>
     </row>
-    <row r="89" spans="1:206" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:206" x14ac:dyDescent="0.45">
       <c r="A89" s="2">
         <v>37316</v>
       </c>
@@ -4781,7 +4785,7 @@
       <c r="EJ89" s="1"/>
       <c r="FQ89" s="1"/>
     </row>
-    <row r="90" spans="1:206" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:206" x14ac:dyDescent="0.45">
       <c r="A90" s="2">
         <v>37347</v>
       </c>
@@ -4801,7 +4805,7 @@
       <c r="EJ90" s="1"/>
       <c r="FQ90" s="1"/>
     </row>
-    <row r="91" spans="1:206" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:206" x14ac:dyDescent="0.45">
       <c r="A91" s="2">
         <v>37377</v>
       </c>
@@ -4821,7 +4825,7 @@
       <c r="EJ91" s="1"/>
       <c r="FQ91" s="1"/>
     </row>
-    <row r="92" spans="1:206" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:206" x14ac:dyDescent="0.45">
       <c r="A92" s="2">
         <v>37408</v>
       </c>
@@ -4842,7 +4846,7 @@
       <c r="EU92" s="1"/>
       <c r="FQ92" s="1"/>
     </row>
-    <row r="93" spans="1:206" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:206" x14ac:dyDescent="0.45">
       <c r="A93" s="2">
         <v>37438</v>
       </c>
@@ -4863,7 +4867,7 @@
       <c r="EU93" s="1"/>
       <c r="FQ93" s="1"/>
     </row>
-    <row r="94" spans="1:206" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:206" x14ac:dyDescent="0.45">
       <c r="A94" s="2">
         <v>37469</v>
       </c>
@@ -4884,7 +4888,7 @@
       <c r="EU94" s="1"/>
       <c r="FQ94" s="1"/>
     </row>
-    <row r="95" spans="1:206" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:206" x14ac:dyDescent="0.45">
       <c r="A95" s="2">
         <v>37500</v>
       </c>
@@ -4906,7 +4910,7 @@
       <c r="FQ95" s="1"/>
       <c r="GX95" s="1"/>
     </row>
-    <row r="96" spans="1:206" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:206" x14ac:dyDescent="0.45">
       <c r="A96" s="2">
         <v>37530</v>
       </c>
@@ -4928,7 +4932,7 @@
       <c r="FQ96" s="1"/>
       <c r="GX96" s="1"/>
     </row>
-    <row r="97" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A97" s="2">
         <v>37561</v>
       </c>
@@ -4960,7 +4964,7 @@
       <c r="GX97" s="1"/>
       <c r="QQ97" s="1"/>
     </row>
-    <row r="98" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A98" s="2">
         <v>37591</v>
       </c>
@@ -4992,7 +4996,7 @@
       <c r="GX98" s="1"/>
       <c r="QQ98" s="1"/>
     </row>
-    <row r="99" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A99" s="2">
         <v>37622</v>
       </c>
@@ -5033,7 +5037,7 @@
       <c r="GX99" s="1"/>
       <c r="QQ99" s="1"/>
     </row>
-    <row r="100" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A100" s="2">
         <v>37653</v>
       </c>
@@ -5084,7 +5088,7 @@
       <c r="OC100" s="1"/>
       <c r="QQ100" s="1"/>
     </row>
-    <row r="101" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A101" s="2">
         <v>37681</v>
       </c>
@@ -5136,7 +5140,7 @@
       <c r="OC101" s="1"/>
       <c r="QQ101" s="1"/>
     </row>
-    <row r="102" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A102" s="2">
         <v>37712</v>
       </c>
@@ -5188,7 +5192,7 @@
       <c r="OC102" s="1"/>
       <c r="QQ102" s="1"/>
     </row>
-    <row r="103" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A103" s="2">
         <v>37742</v>
       </c>
@@ -5241,7 +5245,7 @@
       <c r="OC103" s="1"/>
       <c r="QQ103" s="1"/>
     </row>
-    <row r="104" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A104" s="2">
         <v>37773</v>
       </c>
@@ -5295,7 +5299,7 @@
       <c r="OC104" s="1"/>
       <c r="QQ104" s="1"/>
     </row>
-    <row r="105" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A105" s="2">
         <v>37803</v>
       </c>
@@ -5349,7 +5353,7 @@
       <c r="OC105" s="1"/>
       <c r="QQ105" s="1"/>
     </row>
-    <row r="106" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A106" s="2">
         <v>37834</v>
       </c>
@@ -5404,7 +5408,7 @@
       <c r="OC106" s="1"/>
       <c r="QQ106" s="1"/>
     </row>
-    <row r="107" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A107" s="2">
         <v>37865</v>
       </c>
@@ -5463,7 +5467,7 @@
       <c r="QQ107" s="1"/>
       <c r="RX107" s="1"/>
     </row>
-    <row r="108" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A108" s="2">
         <v>37895</v>
       </c>
@@ -5522,7 +5526,7 @@
       <c r="QQ108" s="1"/>
       <c r="RX108" s="1"/>
     </row>
-    <row r="109" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A109" s="2">
         <v>37926</v>
       </c>
@@ -5583,7 +5587,7 @@
       <c r="QQ109" s="1"/>
       <c r="RX109" s="1"/>
     </row>
-    <row r="110" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A110" s="2">
         <v>37956</v>
       </c>
@@ -5646,7 +5650,7 @@
       <c r="QQ110" s="1"/>
       <c r="RX110" s="1"/>
     </row>
-    <row r="111" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A111" s="2">
         <v>37987</v>
       </c>
@@ -5709,7 +5713,7 @@
       <c r="QQ111" s="1"/>
       <c r="RX111" s="1"/>
     </row>
-    <row r="112" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A112" s="2">
         <v>38018</v>
       </c>
@@ -5772,7 +5776,7 @@
       <c r="QQ112" s="1"/>
       <c r="RX112" s="1"/>
     </row>
-    <row r="113" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A113" s="2">
         <v>38047</v>
       </c>
@@ -5837,7 +5841,7 @@
       <c r="QQ113" s="1"/>
       <c r="RX113" s="1"/>
     </row>
-    <row r="114" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A114" s="2">
         <v>38078</v>
       </c>
@@ -5903,7 +5907,7 @@
       <c r="QQ114" s="1"/>
       <c r="RX114" s="1"/>
     </row>
-    <row r="115" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A115" s="2">
         <v>38108</v>
       </c>
@@ -5980,7 +5984,7 @@
       <c r="QQ115" s="1"/>
       <c r="RX115" s="1"/>
     </row>
-    <row r="116" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A116" s="2">
         <v>38139</v>
       </c>
@@ -6068,7 +6072,7 @@
       <c r="QQ116" s="1"/>
       <c r="RX116" s="1"/>
     </row>
-    <row r="117" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A117" s="2">
         <v>38169</v>
       </c>
@@ -6158,7 +6162,7 @@
       <c r="QQ117" s="1"/>
       <c r="RX117" s="1"/>
     </row>
-    <row r="118" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A118" s="2">
         <v>38200</v>
       </c>
@@ -6248,7 +6252,7 @@
       <c r="QQ118" s="1"/>
       <c r="RX118" s="1"/>
     </row>
-    <row r="119" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A119" s="2">
         <v>38231</v>
       </c>
@@ -6338,7 +6342,7 @@
       <c r="QQ119" s="1"/>
       <c r="RX119" s="1"/>
     </row>
-    <row r="120" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A120" s="2">
         <v>38261</v>
       </c>
@@ -6428,7 +6432,7 @@
       <c r="QQ120" s="1"/>
       <c r="RX120" s="1"/>
     </row>
-    <row r="121" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A121" s="2">
         <v>38292</v>
       </c>
@@ -6519,7 +6523,7 @@
       <c r="QQ121" s="1"/>
       <c r="RX121" s="1"/>
     </row>
-    <row r="122" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A122" s="2">
         <v>38322</v>
       </c>
@@ -6610,7 +6614,7 @@
       <c r="QQ122" s="1"/>
       <c r="RX122" s="1"/>
     </row>
-    <row r="123" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A123" s="2">
         <v>38353</v>
       </c>
@@ -6701,7 +6705,7 @@
       <c r="QQ123" s="1"/>
       <c r="RX123" s="1"/>
     </row>
-    <row r="124" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A124" s="2">
         <v>38384</v>
       </c>
@@ -6794,7 +6798,7 @@
       <c r="QQ124" s="1"/>
       <c r="RX124" s="1"/>
     </row>
-    <row r="125" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A125" s="2">
         <v>38412</v>
       </c>
@@ -6887,7 +6891,7 @@
       <c r="QQ125" s="1"/>
       <c r="RX125" s="1"/>
     </row>
-    <row r="126" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A126" s="2">
         <v>38443</v>
       </c>
@@ -6980,7 +6984,7 @@
       <c r="QQ126" s="1"/>
       <c r="RX126" s="1"/>
     </row>
-    <row r="127" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A127" s="2">
         <v>38473</v>
       </c>
@@ -7074,7 +7078,7 @@
       <c r="RM127" s="1"/>
       <c r="RX127" s="1"/>
     </row>
-    <row r="128" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A128" s="2">
         <v>38504</v>
       </c>
@@ -7169,7 +7173,7 @@
       <c r="RM128" s="1"/>
       <c r="RX128" s="1"/>
     </row>
-    <row r="129" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A129" s="2">
         <v>38534</v>
       </c>
@@ -7264,7 +7268,7 @@
       <c r="RM129" s="1"/>
       <c r="RX129" s="1"/>
     </row>
-    <row r="130" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A130" s="2">
         <v>38565</v>
       </c>
@@ -7359,7 +7363,7 @@
       <c r="RM130" s="1"/>
       <c r="RX130" s="1"/>
     </row>
-    <row r="131" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A131" s="2">
         <v>38596</v>
       </c>
@@ -7454,7 +7458,7 @@
       <c r="RM131" s="1"/>
       <c r="RX131" s="1"/>
     </row>
-    <row r="132" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A132" s="2">
         <v>38626</v>
       </c>
@@ -7549,7 +7553,7 @@
       <c r="RM132" s="1"/>
       <c r="RX132" s="1"/>
     </row>
-    <row r="133" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A133" s="2">
         <v>38657</v>
       </c>
@@ -7644,7 +7648,7 @@
       <c r="RM133" s="1"/>
       <c r="RX133" s="1"/>
     </row>
-    <row r="134" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A134" s="2">
         <v>38687</v>
       </c>
@@ -7739,7 +7743,7 @@
       <c r="RM134" s="1"/>
       <c r="RX134" s="1"/>
     </row>
-    <row r="135" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A135" s="2">
         <v>38718</v>
       </c>
@@ -7834,7 +7838,7 @@
       <c r="RM135" s="1"/>
       <c r="RX135" s="1"/>
     </row>
-    <row r="136" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A136" s="2">
         <v>38749</v>
       </c>
@@ -7929,7 +7933,7 @@
       <c r="RM136" s="1"/>
       <c r="RX136" s="1"/>
     </row>
-    <row r="137" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A137" s="2">
         <v>38777</v>
       </c>
@@ -8024,7 +8028,7 @@
       <c r="RM137" s="1"/>
       <c r="RX137" s="1"/>
     </row>
-    <row r="138" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A138" s="2">
         <v>38808</v>
       </c>
@@ -8119,7 +8123,7 @@
       <c r="RM138" s="1"/>
       <c r="RX138" s="1"/>
     </row>
-    <row r="139" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A139" s="2">
         <v>38838</v>
       </c>
@@ -8214,7 +8218,7 @@
       <c r="RM139" s="1"/>
       <c r="RX139" s="1"/>
     </row>
-    <row r="140" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A140" s="2">
         <v>38869</v>
       </c>
@@ -8309,7 +8313,7 @@
       <c r="RM140" s="1"/>
       <c r="RX140" s="1"/>
     </row>
-    <row r="141" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A141" s="2">
         <v>38899</v>
       </c>
@@ -8404,7 +8408,7 @@
       <c r="RM141" s="1"/>
       <c r="RX141" s="1"/>
     </row>
-    <row r="142" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A142" s="2">
         <v>38930</v>
       </c>
@@ -8499,7 +8503,7 @@
       <c r="RM142" s="1"/>
       <c r="RX142" s="1"/>
     </row>
-    <row r="143" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A143" s="2">
         <v>38961</v>
       </c>
@@ -8594,7 +8598,7 @@
       <c r="RM143" s="1"/>
       <c r="RX143" s="1"/>
     </row>
-    <row r="144" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A144" s="2">
         <v>38991</v>
       </c>
@@ -8689,7 +8693,7 @@
       <c r="RM144" s="1"/>
       <c r="RX144" s="1"/>
     </row>
-    <row r="145" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A145" s="2">
         <v>39022</v>
       </c>
@@ -8784,7 +8788,7 @@
       <c r="RM145" s="1"/>
       <c r="RX145" s="1"/>
     </row>
-    <row r="146" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A146" s="2">
         <v>39052</v>
       </c>
@@ -8879,7 +8883,7 @@
       <c r="RM146" s="1"/>
       <c r="RX146" s="1"/>
     </row>
-    <row r="147" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A147" s="2">
         <v>39083</v>
       </c>
@@ -8974,7 +8978,7 @@
       <c r="RM147" s="1"/>
       <c r="RX147" s="1"/>
     </row>
-    <row r="148" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A148" s="2">
         <v>39114</v>
       </c>
@@ -9069,7 +9073,7 @@
       <c r="RM148" s="1"/>
       <c r="RX148" s="1"/>
     </row>
-    <row r="149" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A149" s="2">
         <v>39142</v>
       </c>
@@ -9164,7 +9168,7 @@
       <c r="RM149" s="1"/>
       <c r="RX149" s="1"/>
     </row>
-    <row r="150" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A150" s="2">
         <v>39173</v>
       </c>
@@ -9259,7 +9263,7 @@
       <c r="RM150" s="1"/>
       <c r="RX150" s="1"/>
     </row>
-    <row r="151" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A151" s="2">
         <v>39203</v>
       </c>
@@ -9354,7 +9358,7 @@
       <c r="RM151" s="1"/>
       <c r="RX151" s="1"/>
     </row>
-    <row r="152" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A152" s="2">
         <v>39234</v>
       </c>
@@ -9449,7 +9453,7 @@
       <c r="RM152" s="1"/>
       <c r="RX152" s="1"/>
     </row>
-    <row r="153" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A153" s="2">
         <v>39264</v>
       </c>
@@ -9544,7 +9548,7 @@
       <c r="RM153" s="1"/>
       <c r="RX153" s="1"/>
     </row>
-    <row r="154" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A154" s="2">
         <v>39295</v>
       </c>
@@ -9639,7 +9643,7 @@
       <c r="RM154" s="1"/>
       <c r="RX154" s="1"/>
     </row>
-    <row r="155" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A155" s="2">
         <v>39326</v>
       </c>
@@ -9734,7 +9738,7 @@
       <c r="RM155" s="1"/>
       <c r="RX155" s="1"/>
     </row>
-    <row r="156" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A156" s="2">
         <v>39356</v>
       </c>
@@ -9829,7 +9833,7 @@
       <c r="RM156" s="1"/>
       <c r="RX156" s="1"/>
     </row>
-    <row r="157" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A157" s="2">
         <v>39387</v>
       </c>
@@ -9924,7 +9928,7 @@
       <c r="RM157" s="1"/>
       <c r="RX157" s="1"/>
     </row>
-    <row r="158" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A158" s="2">
         <v>39417</v>
       </c>
@@ -10019,7 +10023,7 @@
       <c r="RM158" s="1"/>
       <c r="RX158" s="1"/>
     </row>
-    <row r="159" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A159" s="2">
         <v>39448</v>
       </c>
@@ -10114,7 +10118,7 @@
       <c r="RM159" s="1"/>
       <c r="RX159" s="1"/>
     </row>
-    <row r="160" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A160" s="2">
         <v>39479</v>
       </c>
@@ -10209,7 +10213,7 @@
       <c r="RM160" s="1"/>
       <c r="RX160" s="1"/>
     </row>
-    <row r="161" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A161" s="2">
         <v>39508</v>
       </c>
@@ -10304,7 +10308,7 @@
       <c r="RM161" s="1"/>
       <c r="RX161" s="1"/>
     </row>
-    <row r="162" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A162" s="2">
         <v>39539</v>
       </c>
@@ -10399,7 +10403,7 @@
       <c r="RM162" s="1"/>
       <c r="RX162" s="1"/>
     </row>
-    <row r="163" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A163" s="2">
         <v>39569</v>
       </c>
@@ -10494,7 +10498,7 @@
       <c r="RM163" s="1"/>
       <c r="RX163" s="1"/>
     </row>
-    <row r="164" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A164" s="2">
         <v>39600</v>
       </c>
@@ -10589,7 +10593,7 @@
       <c r="RM164" s="1"/>
       <c r="RX164" s="1"/>
     </row>
-    <row r="165" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A165" s="2">
         <v>39630</v>
       </c>
@@ -10684,7 +10688,7 @@
       <c r="RM165" s="1"/>
       <c r="RX165" s="1"/>
     </row>
-    <row r="166" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A166" s="2">
         <v>39661</v>
       </c>
@@ -10779,7 +10783,7 @@
       <c r="RM166" s="1"/>
       <c r="RX166" s="1"/>
     </row>
-    <row r="167" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A167" s="2">
         <v>39692</v>
       </c>
@@ -10874,7 +10878,7 @@
       <c r="RM167" s="1"/>
       <c r="RX167" s="1"/>
     </row>
-    <row r="168" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A168" s="2">
         <v>39722</v>
       </c>
@@ -10969,7 +10973,7 @@
       <c r="RM168" s="1"/>
       <c r="RX168" s="1"/>
     </row>
-    <row r="169" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A169" s="2">
         <v>39753</v>
       </c>
@@ -11064,7 +11068,7 @@
       <c r="RM169" s="1"/>
       <c r="RX169" s="1"/>
     </row>
-    <row r="170" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A170" s="2">
         <v>39783</v>
       </c>
@@ -11159,7 +11163,7 @@
       <c r="RM170" s="1"/>
       <c r="RX170" s="1"/>
     </row>
-    <row r="171" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A171" s="2">
         <v>39814</v>
       </c>
@@ -11254,7 +11258,7 @@
       <c r="RM171" s="1"/>
       <c r="RX171" s="1"/>
     </row>
-    <row r="172" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A172" s="2">
         <v>39845</v>
       </c>
@@ -11349,7 +11353,7 @@
       <c r="RM172" s="1"/>
       <c r="RX172" s="1"/>
     </row>
-    <row r="173" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A173" s="2">
         <v>39873</v>
       </c>
@@ -11444,7 +11448,7 @@
       <c r="RM173" s="1"/>
       <c r="RX173" s="1"/>
     </row>
-    <row r="174" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A174" s="2">
         <v>39904</v>
       </c>
@@ -11539,7 +11543,7 @@
       <c r="RM174" s="1"/>
       <c r="RX174" s="1"/>
     </row>
-    <row r="175" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A175" s="2">
         <v>39934</v>
       </c>
@@ -11634,7 +11638,7 @@
       <c r="RM175" s="1"/>
       <c r="RX175" s="1"/>
     </row>
-    <row r="176" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A176" s="2">
         <v>39965</v>
       </c>
@@ -11729,7 +11733,7 @@
       <c r="RM176" s="1"/>
       <c r="RX176" s="1"/>
     </row>
-    <row r="177" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A177" s="2">
         <v>39995</v>
       </c>
@@ -11824,7 +11828,7 @@
       <c r="RM177" s="1"/>
       <c r="RX177" s="1"/>
     </row>
-    <row r="178" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A178" s="2">
         <v>40026</v>
       </c>
@@ -11919,7 +11923,7 @@
       <c r="RM178" s="1"/>
       <c r="RX178" s="1"/>
     </row>
-    <row r="179" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A179" s="2">
         <v>40057</v>
       </c>
@@ -12014,7 +12018,7 @@
       <c r="RM179" s="1"/>
       <c r="RX179" s="1"/>
     </row>
-    <row r="180" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A180" s="2">
         <v>40087</v>
       </c>
@@ -12109,7 +12113,7 @@
       <c r="RM180" s="1"/>
       <c r="RX180" s="1"/>
     </row>
-    <row r="181" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A181" s="2">
         <v>40118</v>
       </c>
@@ -12204,7 +12208,7 @@
       <c r="RM181" s="1"/>
       <c r="RX181" s="1"/>
     </row>
-    <row r="182" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A182" s="2">
         <v>40148</v>
       </c>
@@ -12299,7 +12303,7 @@
       <c r="RM182" s="1"/>
       <c r="RX182" s="1"/>
     </row>
-    <row r="183" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A183" s="2">
         <v>40179</v>
       </c>
@@ -12394,7 +12398,7 @@
       <c r="RM183" s="1"/>
       <c r="RX183" s="1"/>
     </row>
-    <row r="184" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A184" s="2">
         <v>40210</v>
       </c>
@@ -12489,7 +12493,7 @@
       <c r="RM184" s="1"/>
       <c r="RX184" s="1"/>
     </row>
-    <row r="185" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A185" s="2">
         <v>40238</v>
       </c>
@@ -12584,7 +12588,7 @@
       <c r="RM185" s="1"/>
       <c r="RX185" s="1"/>
     </row>
-    <row r="186" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A186" s="2">
         <v>40269</v>
       </c>
@@ -12679,7 +12683,7 @@
       <c r="RM186" s="1"/>
       <c r="RX186" s="1"/>
     </row>
-    <row r="187" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A187" s="2">
         <v>40299</v>
       </c>
@@ -12774,7 +12778,7 @@
       <c r="RM187" s="1"/>
       <c r="RX187" s="1"/>
     </row>
-    <row r="188" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A188" s="2">
         <v>40330</v>
       </c>
@@ -12869,7 +12873,7 @@
       <c r="RM188" s="1"/>
       <c r="RX188" s="1"/>
     </row>
-    <row r="189" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A189" s="2">
         <v>40360</v>
       </c>
@@ -12964,7 +12968,7 @@
       <c r="RM189" s="1"/>
       <c r="RX189" s="1"/>
     </row>
-    <row r="190" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A190" s="2">
         <v>40391</v>
       </c>
@@ -13059,7 +13063,7 @@
       <c r="RM190" s="1"/>
       <c r="RX190" s="1"/>
     </row>
-    <row r="191" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A191" s="2">
         <v>40422</v>
       </c>
@@ -13154,7 +13158,7 @@
       <c r="RM191" s="1"/>
       <c r="RX191" s="1"/>
     </row>
-    <row r="192" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A192" s="2">
         <v>40452</v>
       </c>
@@ -13249,7 +13253,7 @@
       <c r="RM192" s="1"/>
       <c r="RX192" s="1"/>
     </row>
-    <row r="193" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A193" s="2">
         <v>40483</v>
       </c>
@@ -13344,7 +13348,7 @@
       <c r="RM193" s="1"/>
       <c r="RX193" s="1"/>
     </row>
-    <row r="194" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A194" s="2">
         <v>40513</v>
       </c>
@@ -13439,7 +13443,7 @@
       <c r="RM194" s="1"/>
       <c r="RX194" s="1"/>
     </row>
-    <row r="195" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A195" s="2">
         <v>40544</v>
       </c>
@@ -13534,7 +13538,7 @@
       <c r="RM195" s="1"/>
       <c r="RX195" s="1"/>
     </row>
-    <row r="196" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A196" s="2">
         <v>40575</v>
       </c>
@@ -13629,7 +13633,7 @@
       <c r="RM196" s="1"/>
       <c r="RX196" s="1"/>
     </row>
-    <row r="197" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A197" s="2">
         <v>40603</v>
       </c>
@@ -13724,7 +13728,7 @@
       <c r="RM197" s="1"/>
       <c r="RX197" s="1"/>
     </row>
-    <row r="198" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A198" s="2">
         <v>40634</v>
       </c>
@@ -13819,7 +13823,7 @@
       <c r="RM198" s="1"/>
       <c r="RX198" s="1"/>
     </row>
-    <row r="199" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A199" s="2">
         <v>40664</v>
       </c>
@@ -13914,7 +13918,7 @@
       <c r="RM199" s="1"/>
       <c r="RX199" s="1"/>
     </row>
-    <row r="200" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A200" s="2">
         <v>40695</v>
       </c>
@@ -14009,7 +14013,7 @@
       <c r="RM200" s="1"/>
       <c r="RX200" s="1"/>
     </row>
-    <row r="201" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A201" s="2">
         <v>40725</v>
       </c>
@@ -14104,7 +14108,7 @@
       <c r="RM201" s="1"/>
       <c r="RX201" s="1"/>
     </row>
-    <row r="202" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A202" s="2">
         <v>40756</v>
       </c>
@@ -14199,7 +14203,7 @@
       <c r="RM202" s="1"/>
       <c r="RX202" s="1"/>
     </row>
-    <row r="203" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A203" s="2">
         <v>40787</v>
       </c>
@@ -14294,7 +14298,7 @@
       <c r="RM203" s="1"/>
       <c r="RX203" s="1"/>
     </row>
-    <row r="204" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A204" s="2">
         <v>40817</v>
       </c>
@@ -14389,7 +14393,7 @@
       <c r="RM204" s="1"/>
       <c r="RX204" s="1"/>
     </row>
-    <row r="205" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A205" s="2">
         <v>40848</v>
       </c>
@@ -14484,7 +14488,7 @@
       <c r="RM205" s="1"/>
       <c r="RX205" s="1"/>
     </row>
-    <row r="206" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A206" s="2">
         <v>40878</v>
       </c>
@@ -14580,7 +14584,7 @@
       <c r="RM206" s="1"/>
       <c r="RX206" s="1"/>
     </row>
-    <row r="207" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A207" s="2">
         <v>40909</v>
       </c>
@@ -14676,7 +14680,7 @@
       <c r="RM207" s="1"/>
       <c r="RX207" s="1"/>
     </row>
-    <row r="208" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A208" s="2">
         <v>40940</v>
       </c>
@@ -14775,7 +14779,7 @@
       <c r="RM208" s="1"/>
       <c r="RX208" s="1"/>
     </row>
-    <row r="209" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A209" s="2">
         <v>40969</v>
       </c>
@@ -14871,7 +14875,7 @@
       <c r="RM209" s="1"/>
       <c r="RX209" s="1"/>
     </row>
-    <row r="210" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A210" s="2">
         <v>41000</v>
       </c>
@@ -14970,7 +14974,7 @@
       <c r="RM210" s="1"/>
       <c r="RX210" s="1"/>
     </row>
-    <row r="211" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A211" s="2">
         <v>41030</v>
       </c>
@@ -15065,7 +15069,7 @@
       <c r="RM211" s="1"/>
       <c r="RX211" s="1"/>
     </row>
-    <row r="212" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A212" s="2">
         <v>41061</v>
       </c>
@@ -15161,7 +15165,7 @@
       <c r="RM212" s="1"/>
       <c r="RX212" s="1"/>
     </row>
-    <row r="213" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A213" s="2">
         <v>41091</v>
       </c>
@@ -15256,7 +15260,7 @@
       <c r="RM213" s="1"/>
       <c r="RX213" s="1"/>
     </row>
-    <row r="214" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A214" s="2">
         <v>41122</v>
       </c>
@@ -15351,7 +15355,7 @@
       <c r="RM214" s="1"/>
       <c r="RX214" s="1"/>
     </row>
-    <row r="215" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A215" s="2">
         <v>41153</v>
       </c>
@@ -15446,7 +15450,7 @@
       <c r="RM215" s="1"/>
       <c r="RX215" s="1"/>
     </row>
-    <row r="216" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A216" s="2">
         <v>41183</v>
       </c>
@@ -15542,7 +15546,7 @@
       <c r="RM216" s="1"/>
       <c r="RX216" s="1"/>
     </row>
-    <row r="217" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A217" s="2">
         <v>41214</v>
       </c>
@@ -15637,7 +15641,7 @@
       <c r="RM217" s="1"/>
       <c r="RX217" s="1"/>
     </row>
-    <row r="218" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A218" s="2">
         <v>41244</v>
       </c>
@@ -15732,7 +15736,7 @@
       <c r="RM218" s="1"/>
       <c r="RX218" s="1"/>
     </row>
-    <row r="219" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A219" s="2">
         <v>41275</v>
       </c>
@@ -15827,7 +15831,7 @@
       <c r="RM219" s="1"/>
       <c r="RX219" s="1"/>
     </row>
-    <row r="220" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A220" s="2">
         <v>41306</v>
       </c>
@@ -15922,7 +15926,7 @@
       <c r="RM220" s="1"/>
       <c r="RX220" s="1"/>
     </row>
-    <row r="221" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A221" s="2">
         <v>41334</v>
       </c>
@@ -16020,7 +16024,7 @@
       <c r="RM221" s="1"/>
       <c r="RX221" s="1"/>
     </row>
-    <row r="222" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A222" s="2">
         <v>41365</v>
       </c>
@@ -16039,7 +16043,7 @@
       <c r="QC222" s="1"/>
       <c r="QD222" s="1"/>
     </row>
-    <row r="223" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A223" s="2">
         <v>41395</v>
       </c>
@@ -16058,7 +16062,7 @@
       <c r="QC223" s="1"/>
       <c r="QD223" s="1"/>
     </row>
-    <row r="224" spans="1:492" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:492" x14ac:dyDescent="0.45">
       <c r="A224" s="2">
         <v>41426</v>
       </c>
@@ -16077,7 +16081,7 @@
       <c r="QC224" s="1"/>
       <c r="QD224" s="1"/>
     </row>
-    <row r="225" spans="1:446" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:446" x14ac:dyDescent="0.45">
       <c r="A225" s="2">
         <v>41456</v>
       </c>
@@ -16096,7 +16100,7 @@
       <c r="QC225" s="1"/>
       <c r="QD225" s="1"/>
     </row>
-    <row r="226" spans="1:446" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:446" x14ac:dyDescent="0.45">
       <c r="A226" s="2">
         <v>41487</v>
       </c>
@@ -16115,7 +16119,7 @@
       <c r="QC226" s="1"/>
       <c r="QD226" s="1"/>
     </row>
-    <row r="227" spans="1:446" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:446" x14ac:dyDescent="0.45">
       <c r="A227" s="2">
         <v>41518</v>
       </c>
@@ -16134,7 +16138,7 @@
       <c r="QC227" s="1"/>
       <c r="QD227" s="1"/>
     </row>
-    <row r="228" spans="1:446" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:446" x14ac:dyDescent="0.45">
       <c r="A228" s="2">
         <v>41548</v>
       </c>
@@ -16143,7 +16147,7 @@
       </c>
       <c r="C228" s="5"/>
     </row>
-    <row r="229" spans="1:446" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:446" x14ac:dyDescent="0.45">
       <c r="A229" s="2">
         <v>41579</v>
       </c>
@@ -16152,7 +16156,7 @@
       </c>
       <c r="C229" s="5"/>
     </row>
-    <row r="230" spans="1:446" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:446" x14ac:dyDescent="0.45">
       <c r="A230" s="2">
         <v>41609</v>
       </c>
@@ -16161,7 +16165,7 @@
       </c>
       <c r="C230" s="5"/>
     </row>
-    <row r="231" spans="1:446" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:446" x14ac:dyDescent="0.45">
       <c r="A231" s="2">
         <v>41640</v>
       </c>
@@ -16170,7 +16174,7 @@
       </c>
       <c r="C231" s="5"/>
     </row>
-    <row r="232" spans="1:446" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:446" x14ac:dyDescent="0.45">
       <c r="A232" s="2">
         <v>41671</v>
       </c>
@@ -16179,7 +16183,7 @@
       </c>
       <c r="C232" s="5"/>
     </row>
-    <row r="233" spans="1:446" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:446" x14ac:dyDescent="0.45">
       <c r="A233" s="2">
         <v>41699</v>
       </c>
@@ -16188,7 +16192,7 @@
       </c>
       <c r="C233" s="5"/>
     </row>
-    <row r="234" spans="1:446" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:446" x14ac:dyDescent="0.45">
       <c r="A234" s="2">
         <v>41730</v>
       </c>
@@ -16197,7 +16201,7 @@
       </c>
       <c r="C234" s="5"/>
     </row>
-    <row r="235" spans="1:446" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:446" x14ac:dyDescent="0.45">
       <c r="A235" s="2">
         <v>41760</v>
       </c>
@@ -16206,7 +16210,7 @@
       </c>
       <c r="C235" s="5"/>
     </row>
-    <row r="236" spans="1:446" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:446" x14ac:dyDescent="0.45">
       <c r="A236" s="2">
         <v>41791</v>
       </c>
@@ -16215,7 +16219,7 @@
       </c>
       <c r="C236" s="5"/>
     </row>
-    <row r="237" spans="1:446" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:446" x14ac:dyDescent="0.45">
       <c r="A237" s="2">
         <v>41821</v>
       </c>
@@ -16224,7 +16228,7 @@
       </c>
       <c r="C237" s="5"/>
     </row>
-    <row r="238" spans="1:446" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:446" x14ac:dyDescent="0.45">
       <c r="A238" s="2">
         <v>41852</v>
       </c>
@@ -16233,7 +16237,7 @@
       </c>
       <c r="C238" s="5"/>
     </row>
-    <row r="239" spans="1:446" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:446" x14ac:dyDescent="0.45">
       <c r="A239" s="2">
         <v>41883</v>
       </c>
@@ -16242,7 +16246,7 @@
       </c>
       <c r="C239" s="5"/>
     </row>
-    <row r="240" spans="1:446" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:446" x14ac:dyDescent="0.45">
       <c r="A240" s="2">
         <v>41913</v>
       </c>
@@ -16251,7 +16255,7 @@
       </c>
       <c r="C240" s="5"/>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A241" s="2">
         <v>41944</v>
       </c>
@@ -16260,7 +16264,7 @@
       </c>
       <c r="C241" s="5"/>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A242" s="2">
         <v>41974</v>
       </c>
@@ -16269,7 +16273,7 @@
       </c>
       <c r="C242" s="5"/>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A243" s="2">
         <v>42005</v>
       </c>
@@ -16278,7 +16282,7 @@
       </c>
       <c r="C243" s="5"/>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A244" s="2">
         <v>42036</v>
       </c>
@@ -16287,7 +16291,7 @@
       </c>
       <c r="C244" s="5"/>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A245" s="2">
         <v>42064</v>
       </c>
@@ -16296,7 +16300,7 @@
       </c>
       <c r="C245" s="5"/>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A246" s="2">
         <v>42095</v>
       </c>
@@ -16305,7 +16309,7 @@
       </c>
       <c r="C246" s="5"/>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A247" s="2">
         <v>42125</v>
       </c>
@@ -16314,7 +16318,7 @@
       </c>
       <c r="C247" s="5"/>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A248" s="2">
         <v>42156</v>
       </c>
@@ -16323,7 +16327,7 @@
       </c>
       <c r="C248" s="5"/>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A249" s="2">
         <v>42186</v>
       </c>
@@ -16332,7 +16336,7 @@
       </c>
       <c r="C249" s="5"/>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A250" s="2">
         <v>42217</v>
       </c>
@@ -16341,7 +16345,7 @@
       </c>
       <c r="C250" s="5"/>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A251" s="2">
         <v>42248</v>
       </c>
@@ -16350,7 +16354,7 @@
       </c>
       <c r="C251" s="5"/>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A252" s="2">
         <v>42278</v>
       </c>
@@ -16359,7 +16363,7 @@
       </c>
       <c r="C252" s="5"/>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A253" s="2">
         <v>42309</v>
       </c>
@@ -16368,7 +16372,7 @@
       </c>
       <c r="C253" s="5"/>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A254" s="2">
         <v>42339</v>
       </c>
@@ -16377,7 +16381,7 @@
       </c>
       <c r="C254" s="5"/>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A255" s="2">
         <v>42370</v>
       </c>
@@ -16386,7 +16390,7 @@
       </c>
       <c r="C255" s="5"/>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A256" s="2">
         <v>42401</v>
       </c>
@@ -16395,7 +16399,7 @@
       </c>
       <c r="C256" s="5"/>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A257" s="2">
         <v>42430</v>
       </c>
@@ -16404,7 +16408,7 @@
       </c>
       <c r="C257" s="5"/>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A258" s="2">
         <v>42461</v>
       </c>
@@ -16413,7 +16417,7 @@
       </c>
       <c r="C258" s="5"/>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A259" s="2">
         <v>42491</v>
       </c>
@@ -16422,7 +16426,7 @@
       </c>
       <c r="C259" s="5"/>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A260" s="2">
         <v>42522</v>
       </c>
@@ -16431,7 +16435,7 @@
       </c>
       <c r="C260" s="5"/>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A261" s="2">
         <v>42552</v>
       </c>
@@ -16440,7 +16444,7 @@
       </c>
       <c r="C261" s="5"/>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A262" s="2">
         <v>42583</v>
       </c>
@@ -16449,7 +16453,7 @@
       </c>
       <c r="C262" s="5"/>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A263" s="2">
         <v>42614</v>
       </c>
@@ -16458,7 +16462,7 @@
       </c>
       <c r="C263" s="5"/>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A264" s="2">
         <v>42644</v>
       </c>
@@ -16467,7 +16471,7 @@
       </c>
       <c r="C264" s="5"/>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A265" s="2">
         <v>42675</v>
       </c>
@@ -16476,7 +16480,7 @@
       </c>
       <c r="C265" s="5"/>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A266" s="2">
         <v>42705</v>
       </c>
@@ -16485,7 +16489,7 @@
       </c>
       <c r="C266" s="5"/>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A267" s="2">
         <v>42736</v>
       </c>
@@ -16494,7 +16498,7 @@
       </c>
       <c r="C267" s="5"/>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A268" s="2">
         <v>42767</v>
       </c>
@@ -16503,7 +16507,7 @@
       </c>
       <c r="C268" s="5"/>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A269" s="2">
         <v>42795</v>
       </c>
@@ -16512,7 +16516,7 @@
       </c>
       <c r="C269" s="5"/>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A270" s="2">
         <v>42826</v>
       </c>
@@ -16521,7 +16525,7 @@
       </c>
       <c r="C270" s="5"/>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A271" s="2">
         <v>42856</v>
       </c>
@@ -16530,7 +16534,7 @@
       </c>
       <c r="C271" s="5"/>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A272" s="2">
         <v>42887</v>
       </c>
@@ -16539,7 +16543,7 @@
       </c>
       <c r="C272" s="5"/>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A273" s="2">
         <v>42917</v>
       </c>
@@ -16548,7 +16552,7 @@
       </c>
       <c r="C273" s="5"/>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A274" s="2">
         <v>42948</v>
       </c>
@@ -16557,7 +16561,7 @@
       </c>
       <c r="C274" s="5"/>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A275" s="2">
         <v>42979</v>
       </c>
@@ -16566,7 +16570,7 @@
       </c>
       <c r="C275" s="5"/>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A276" s="2">
         <v>43009</v>
       </c>
@@ -16575,7 +16579,7 @@
       </c>
       <c r="C276" s="5"/>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A277" s="2">
         <v>43040</v>
       </c>
@@ -16584,7 +16588,7 @@
       </c>
       <c r="C277" s="5"/>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A278" s="2">
         <v>43070</v>
       </c>
@@ -16593,7 +16597,7 @@
       </c>
       <c r="C278" s="5"/>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A279" s="2">
         <v>43101</v>
       </c>
@@ -16602,7 +16606,7 @@
       </c>
       <c r="C279" s="5"/>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A280" s="2">
         <v>43132</v>
       </c>
@@ -16611,7 +16615,7 @@
       </c>
       <c r="C280" s="5"/>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A281" s="2">
         <v>43160</v>
       </c>
@@ -16620,7 +16624,7 @@
       </c>
       <c r="C281" s="5"/>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A282" s="2">
         <v>43191</v>
       </c>
@@ -16629,7 +16633,7 @@
       </c>
       <c r="C282" s="5"/>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A283" s="2">
         <v>43221</v>
       </c>
@@ -16638,7 +16642,7 @@
       </c>
       <c r="C283" s="5"/>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A284" s="2">
         <v>43252</v>
       </c>
@@ -16647,7 +16651,7 @@
       </c>
       <c r="C284" s="5"/>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A285" s="2">
         <v>43282</v>
       </c>
@@ -16656,7 +16660,7 @@
       </c>
       <c r="C285" s="5"/>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A286" s="2">
         <v>43313</v>
       </c>
@@ -16665,7 +16669,7 @@
       </c>
       <c r="C286" s="5"/>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A287" s="2">
         <v>43344</v>
       </c>
@@ -16674,7 +16678,7 @@
       </c>
       <c r="C287" s="5"/>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A288" s="2">
         <v>43374</v>
       </c>
@@ -16683,7 +16687,7 @@
       </c>
       <c r="C288" s="5"/>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A289" s="2">
         <v>43405</v>
       </c>
@@ -16692,7 +16696,7 @@
       </c>
       <c r="C289" s="5"/>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A290" s="2">
         <v>43435</v>
       </c>
@@ -16701,7 +16705,7 @@
       </c>
       <c r="C290" s="5"/>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A291" s="2">
         <v>43466</v>
       </c>
@@ -16710,7 +16714,7 @@
       </c>
       <c r="C291" s="5"/>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A292" s="2">
         <v>43497</v>
       </c>
@@ -16719,7 +16723,7 @@
       </c>
       <c r="C292" s="5"/>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A293" s="2">
         <v>43525</v>
       </c>
@@ -16728,7 +16732,7 @@
       </c>
       <c r="C293" s="5"/>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A294" s="2">
         <v>43556</v>
       </c>
@@ -16737,7 +16741,7 @@
       </c>
       <c r="C294" s="5"/>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A295" s="2">
         <v>43586</v>
       </c>
@@ -16746,7 +16750,7 @@
       </c>
       <c r="C295" s="5"/>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A296" s="2">
         <v>43617</v>
       </c>
@@ -16755,7 +16759,7 @@
       </c>
       <c r="C296" s="5"/>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A297" s="2">
         <v>43647</v>
       </c>
@@ -16764,7 +16768,7 @@
       </c>
       <c r="C297" s="5"/>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A298" s="2">
         <v>43678</v>
       </c>
@@ -16773,7 +16777,7 @@
       </c>
       <c r="C298" s="5"/>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A299" s="2">
         <v>43709</v>
       </c>
@@ -16782,7 +16786,7 @@
       </c>
       <c r="C299" s="5"/>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A300" s="2">
         <v>43739</v>
       </c>
@@ -16791,7 +16795,7 @@
       </c>
       <c r="C300" s="5"/>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A301" s="2">
         <v>43770</v>
       </c>
@@ -16800,7 +16804,7 @@
       </c>
       <c r="C301" s="5"/>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A302" s="2">
         <v>43800</v>
       </c>
@@ -16809,7 +16813,7 @@
       </c>
       <c r="C302" s="5"/>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A303" s="2">
         <v>43831</v>
       </c>
@@ -16818,7 +16822,7 @@
       </c>
       <c r="C303" s="5"/>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A304" s="2">
         <v>43862</v>
       </c>
@@ -16827,7 +16831,7 @@
       </c>
       <c r="C304" s="5"/>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A305" s="2">
         <v>43891</v>
       </c>
@@ -16836,7 +16840,7 @@
       </c>
       <c r="C305" s="5"/>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A306" s="2">
         <v>43922</v>
       </c>
@@ -16845,7 +16849,7 @@
       </c>
       <c r="C306" s="5"/>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A307" s="2">
         <v>43952</v>
       </c>
@@ -16854,7 +16858,7 @@
       </c>
       <c r="C307" s="5"/>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A308" s="2">
         <v>43983</v>
       </c>
@@ -16863,7 +16867,7 @@
       </c>
       <c r="C308" s="5"/>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A309" s="2">
         <v>44013</v>
       </c>
@@ -16872,7 +16876,7 @@
       </c>
       <c r="C309" s="5"/>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A310" s="2">
         <v>44044</v>
       </c>
@@ -16881,7 +16885,7 @@
       </c>
       <c r="C310" s="5"/>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A311" s="2">
         <v>44075</v>
       </c>
@@ -16890,7 +16894,7 @@
       </c>
       <c r="C311" s="5"/>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A312" s="2">
         <v>44105</v>
       </c>
@@ -16899,7 +16903,7 @@
       </c>
       <c r="C312" s="5"/>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A313" s="2">
         <v>44136</v>
       </c>
@@ -16908,7 +16912,7 @@
       </c>
       <c r="C313" s="5"/>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A314" s="2">
         <v>44166</v>
       </c>
@@ -16917,7 +16921,7 @@
       </c>
       <c r="C314" s="5"/>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A315" s="2">
         <v>44197</v>
       </c>
@@ -16926,7 +16930,7 @@
       </c>
       <c r="C315" s="5"/>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A316" s="2">
         <v>44228</v>
       </c>
@@ -16935,7 +16939,7 @@
       </c>
       <c r="C316" s="5"/>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A317" s="2">
         <v>44256</v>
       </c>
@@ -16944,7 +16948,7 @@
       </c>
       <c r="C317" s="5"/>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A318" s="2">
         <v>44287</v>
       </c>
@@ -16953,7 +16957,7 @@
       </c>
       <c r="C318" s="5"/>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A319" s="2">
         <v>44317</v>
       </c>
@@ -16962,7 +16966,7 @@
       </c>
       <c r="C319" s="5"/>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A320" s="2">
         <v>44348</v>
       </c>
@@ -16971,7 +16975,7 @@
       </c>
       <c r="C320" s="5"/>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A321" s="2">
         <v>44378</v>
       </c>
@@ -16980,7 +16984,7 @@
       </c>
       <c r="C321" s="5"/>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A322" s="2">
         <v>44409</v>
       </c>
@@ -16989,7 +16993,7 @@
       </c>
       <c r="C322" s="5"/>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A323" s="2">
         <v>44440</v>
       </c>
@@ -16998,7 +17002,7 @@
       </c>
       <c r="C323" s="5"/>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A324" s="2">
         <v>44470</v>
       </c>
@@ -17007,7 +17011,7 @@
       </c>
       <c r="C324" s="5"/>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A325" s="2">
         <v>44501</v>
       </c>
@@ -17016,7 +17020,7 @@
       </c>
       <c r="C325" s="5"/>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A326" s="2">
         <v>44531</v>
       </c>
@@ -17025,7 +17029,7 @@
       </c>
       <c r="C326" s="5"/>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A327" s="2">
         <v>44562</v>
       </c>
@@ -17034,7 +17038,7 @@
       </c>
       <c r="C327" s="5"/>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A328" s="2">
         <v>44593</v>
       </c>
@@ -17043,7 +17047,7 @@
       </c>
       <c r="C328" s="5"/>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A329" s="2">
         <v>44621</v>
       </c>
@@ -17052,7 +17056,7 @@
       </c>
       <c r="C329" s="5"/>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A330" s="2">
         <v>44652</v>
       </c>
@@ -17061,7 +17065,7 @@
       </c>
       <c r="C330" s="5"/>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A331" s="2">
         <v>44682</v>
       </c>
@@ -17070,7 +17074,7 @@
       </c>
       <c r="C331" s="5"/>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A332" s="2">
         <v>44713</v>
       </c>
@@ -17079,7 +17083,7 @@
       </c>
       <c r="C332" s="5"/>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A333" s="2">
         <v>44743</v>
       </c>
@@ -17088,7 +17092,7 @@
       </c>
       <c r="C333" s="5"/>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A334" s="2">
         <v>44774</v>
       </c>
@@ -17097,7 +17101,7 @@
       </c>
       <c r="C334" s="5"/>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A335" s="2">
         <v>44805</v>
       </c>
@@ -17106,7 +17110,7 @@
       </c>
       <c r="C335" s="5"/>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A336" s="2">
         <v>44835</v>
       </c>
@@ -17115,7 +17119,7 @@
       </c>
       <c r="C336" s="5"/>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A337" s="2">
         <v>44866</v>
       </c>
@@ -17124,190 +17128,197 @@
       </c>
       <c r="C337" s="5"/>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A338" s="2">
         <v>44896</v>
       </c>
       <c r="B338" s="3">
-        <v>0.1172183756433729</v>
+        <v>0.119570950843835</v>
       </c>
       <c r="C338" s="5"/>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A339" s="2">
         <v>44927</v>
       </c>
       <c r="B339" s="3">
-        <v>0.112566</v>
+        <v>0.117893919965138</v>
       </c>
       <c r="C339" s="5"/>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A340" s="2">
         <v>44958</v>
       </c>
       <c r="B340" s="3">
-        <v>0.10406600000000001</v>
+        <v>0.114166215748151</v>
       </c>
       <c r="C340" s="5"/>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A341" s="2">
         <v>44986</v>
       </c>
       <c r="B341" s="3">
-        <v>0.100060632666334</v>
+        <v>0.106506091149822</v>
       </c>
       <c r="C341" s="5"/>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A342" s="2">
         <v>45017</v>
       </c>
       <c r="B342" s="3">
-        <v>9.7161250237506505E-2</v>
+        <v>0.104972619878797</v>
       </c>
       <c r="C342" s="5"/>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A343" s="2">
         <v>45047</v>
       </c>
       <c r="B343" s="3">
-        <v>9.6838061660370997E-2</v>
+        <v>0.106212619878797</v>
       </c>
       <c r="C343" s="5"/>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A344" s="2">
         <v>45078</v>
       </c>
       <c r="B344" s="3">
-        <v>8.4097029271563706E-2</v>
+        <v>8.9786943876921502E-2</v>
       </c>
       <c r="C344" s="5"/>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A345" s="2">
         <v>45108</v>
       </c>
       <c r="B345" s="3">
-        <v>7.9421854001553702E-2</v>
+        <v>8.5042290284176397E-2</v>
       </c>
       <c r="C345" s="5"/>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A346" s="2">
         <v>45139</v>
       </c>
       <c r="B346" s="3">
-        <v>8.8703735811575105E-2</v>
+        <v>9.3402828335221205E-2</v>
       </c>
       <c r="C346" s="5"/>
-      <c r="D346" s="5"/>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A347" s="2">
         <v>45170</v>
       </c>
       <c r="B347" s="3">
-        <v>8.69610556503468E-2</v>
+        <v>9.3593759783569305E-2</v>
       </c>
       <c r="C347" s="5"/>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A348" s="2">
         <v>45200</v>
       </c>
       <c r="B348" s="3">
-        <v>8.5154952330852907E-2</v>
+        <v>8.9448833444429304E-2</v>
       </c>
       <c r="C348" s="5"/>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A349" s="2">
         <v>45231</v>
       </c>
       <c r="B349" s="3">
-        <v>9.2767735220062306E-2</v>
+        <v>9.54667785258735E-2</v>
       </c>
       <c r="C349" s="5"/>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A350" s="2">
         <v>45261</v>
       </c>
       <c r="B350" s="3">
-        <v>8.8146226677963901E-2</v>
+        <v>9.2670036787301999E-2</v>
       </c>
       <c r="C350" s="5"/>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A351" s="2">
         <v>45292</v>
       </c>
       <c r="B351" s="3">
-        <v>8.25555271465966E-2</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.9115758120277305E-2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A352" s="2">
         <v>45323</v>
       </c>
       <c r="B352" s="3">
-        <v>8.3559126164475694E-2</v>
+        <v>8.9552263562969095E-2</v>
       </c>
       <c r="C352" s="5"/>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A353" s="2">
         <v>45352</v>
       </c>
       <c r="B353" s="3">
-        <v>8.6001011589843995E-2</v>
+        <v>9.1546890323989105E-2</v>
       </c>
       <c r="C353" s="5"/>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A354" s="2">
         <v>45383</v>
       </c>
       <c r="B354" s="3">
-        <v>8.2095674612073302E-2</v>
+        <v>8.8194059924412899E-2</v>
       </c>
       <c r="C354" s="5"/>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A355" s="2">
         <v>45413</v>
       </c>
       <c r="B355" s="3">
-        <v>8.7222511947888201E-2</v>
+        <v>9.31940896021691E-2</v>
       </c>
       <c r="C355" s="5"/>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A356" s="2">
         <v>45444</v>
       </c>
       <c r="B356" s="3">
-        <v>9.0654253691879294E-2</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.9626160666037494E-2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A357" s="2">
         <v>45474</v>
       </c>
       <c r="B357" s="3">
-        <v>9.0267898801057095E-2</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.8254086785083294E-2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A358" s="2">
         <v>45505</v>
       </c>
       <c r="B358" s="3">
-        <v>9.13728721791362E-2</v>
+        <v>8.7638597939404303E-2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A359" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B359" s="3">
+        <v>8.7638597939404303E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Serie de Equity Risk Premium.xlsx
+++ b/Database/Serie de Equity Risk Premium.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bteba\Documents\GitHub\ERP\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9C5B88-E5DF-4201-B0AA-1A48F4D8B395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272B7920-609A-4E27-8ABC-4B1F4FB3477B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,7 +93,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -109,6 +109,7 @@
     <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2384,7 +2385,7 @@
                   <c:v>9.8254086785083294E-2</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>8.7638597939404303E-2</c:v>
+                  <c:v>9.9822265355109505E-2</c:v>
                 </c:pt>
                 <c:pt idx="356">
                   <c:v>8.7638597939404303E-2</c:v>
@@ -3469,9 +3470,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:RX359"/>
+  <dimension ref="A1:RX360"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A318" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A317" workbookViewId="0">
       <selection activeCell="A359" sqref="A359"/>
     </sheetView>
   </sheetViews>
@@ -17310,7 +17311,7 @@
         <v>45505</v>
       </c>
       <c r="B358" s="3">
-        <v>8.7638597939404303E-2</v>
+        <v>9.9822265355109505E-2</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.45">
@@ -17320,6 +17321,9 @@
       <c r="B359" s="3">
         <v>8.7638597939404303E-2</v>
       </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A360" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:B2" xr:uid="{00000000-0001-0000-0000-000000000000}">

--- a/Database/Serie de Equity Risk Premium.xlsx
+++ b/Database/Serie de Equity Risk Premium.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bteba\Documents\GitHub\ERP\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272B7920-609A-4E27-8ABC-4B1F4FB3477B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FCD9F5-2059-45A1-9756-B6E39BC8E0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15466" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -109,7 +109,6 @@
     <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1310,6 +1309,12 @@
                 <c:pt idx="356">
                   <c:v>45536</c:v>
                 </c:pt>
+                <c:pt idx="357">
+                  <c:v>45566</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>45597</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2389,6 +2394,12 @@
                 </c:pt>
                 <c:pt idx="356">
                   <c:v>8.7638597939404303E-2</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>8.7543885983804498E-2</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>9.6474622830165099E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3470,26 +3481,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:RX360"/>
+  <dimension ref="A1:RX361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A317" workbookViewId="0">
-      <selection activeCell="A359" sqref="A359"/>
+    <sheetView tabSelected="1" topLeftCell="A326" workbookViewId="0">
+      <selection activeCell="C361" sqref="C361"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="2" width="11.46484375" customWidth="1"/>
-    <col min="5" max="5" width="12.46484375" customWidth="1"/>
+    <col min="1" max="2" width="11.46875" customWidth="1"/>
+    <col min="5" max="5" width="12.46875" customWidth="1"/>
     <col min="40" max="40" width="9" customWidth="1"/>
-    <col min="498" max="498" width="9.1328125" customWidth="1"/>
+    <col min="498" max="498" width="9.1171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:492" x14ac:dyDescent="0.5">
       <c r="B1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -3528,7 +3539,7 @@
       <c r="RM2" s="1"/>
       <c r="RX2" s="1"/>
     </row>
-    <row r="3" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A3" s="2">
         <v>34700</v>
       </c>
@@ -3566,7 +3577,7 @@
       <c r="RM3" s="1"/>
       <c r="RX3" s="1"/>
     </row>
-    <row r="4" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A4" s="2">
         <v>34731</v>
       </c>
@@ -3604,7 +3615,7 @@
       <c r="RM4" s="1"/>
       <c r="RX4" s="1"/>
     </row>
-    <row r="5" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A5" s="2">
         <v>34759</v>
       </c>
@@ -3641,7 +3652,7 @@
       <c r="RM5" s="1"/>
       <c r="RX5" s="1"/>
     </row>
-    <row r="6" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A6" s="2">
         <v>34790</v>
       </c>
@@ -3676,7 +3687,7 @@
       <c r="RB6" s="1"/>
       <c r="RM6" s="1"/>
     </row>
-    <row r="7" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A7" s="2">
         <v>34820</v>
       </c>
@@ -3710,7 +3721,7 @@
       <c r="RB7" s="1"/>
       <c r="RM7" s="1"/>
     </row>
-    <row r="8" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A8" s="2">
         <v>34851</v>
       </c>
@@ -3744,7 +3755,7 @@
       <c r="RB8" s="1"/>
       <c r="RM8" s="1"/>
     </row>
-    <row r="9" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A9" s="2">
         <v>34881</v>
       </c>
@@ -3768,7 +3779,7 @@
       <c r="RB9" s="1"/>
       <c r="RM9" s="1"/>
     </row>
-    <row r="10" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A10" s="2">
         <v>34912</v>
       </c>
@@ -3791,7 +3802,7 @@
       <c r="RB10" s="1"/>
       <c r="RM10" s="1"/>
     </row>
-    <row r="11" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A11" s="2">
         <v>34943</v>
       </c>
@@ -3814,7 +3825,7 @@
       <c r="RB11" s="1"/>
       <c r="RM11" s="1"/>
     </row>
-    <row r="12" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A12" s="2">
         <v>34973</v>
       </c>
@@ -3836,7 +3847,7 @@
       <c r="RB12" s="1"/>
       <c r="RM12" s="1"/>
     </row>
-    <row r="13" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A13" s="2">
         <v>35004</v>
       </c>
@@ -3858,7 +3869,7 @@
       <c r="RB13" s="1"/>
       <c r="RM13" s="1"/>
     </row>
-    <row r="14" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A14" s="2">
         <v>35034</v>
       </c>
@@ -3878,7 +3889,7 @@
       <c r="CP14" s="1"/>
       <c r="OY14" s="1"/>
     </row>
-    <row r="15" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A15" s="2">
         <v>35065</v>
       </c>
@@ -3898,7 +3909,7 @@
       <c r="CP15" s="1"/>
       <c r="OY15" s="1"/>
     </row>
-    <row r="16" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A16" s="2">
         <v>35096</v>
       </c>
@@ -3908,7 +3919,7 @@
       <c r="C16" s="5"/>
       <c r="CP16" s="1"/>
     </row>
-    <row r="17" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A17" s="2">
         <v>35125</v>
       </c>
@@ -3918,7 +3929,7 @@
       <c r="C17" s="5"/>
       <c r="CP17" s="1"/>
     </row>
-    <row r="18" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A18" s="2">
         <v>35156</v>
       </c>
@@ -3928,7 +3939,7 @@
       <c r="C18" s="5"/>
       <c r="CP18" s="1"/>
     </row>
-    <row r="19" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A19" s="2">
         <v>35186</v>
       </c>
@@ -3938,7 +3949,7 @@
       <c r="C19" s="5"/>
       <c r="CP19" s="1"/>
     </row>
-    <row r="20" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A20" s="2">
         <v>35217</v>
       </c>
@@ -3948,7 +3959,7 @@
       <c r="C20" s="5"/>
       <c r="CP20" s="1"/>
     </row>
-    <row r="21" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A21" s="2">
         <v>35247</v>
       </c>
@@ -3958,7 +3969,7 @@
       <c r="C21" s="5"/>
       <c r="CP21" s="1"/>
     </row>
-    <row r="22" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A22" s="2">
         <v>35278</v>
       </c>
@@ -3968,7 +3979,7 @@
       <c r="C22" s="5"/>
       <c r="CP22" s="1"/>
     </row>
-    <row r="23" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A23" s="2">
         <v>35309</v>
       </c>
@@ -3978,7 +3989,7 @@
       <c r="C23" s="5"/>
       <c r="CP23" s="1"/>
     </row>
-    <row r="24" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A24" s="2">
         <v>35339</v>
       </c>
@@ -3988,7 +3999,7 @@
       <c r="C24" s="5"/>
       <c r="CP24" s="1"/>
     </row>
-    <row r="25" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A25" s="2">
         <v>35370</v>
       </c>
@@ -3998,7 +4009,7 @@
       <c r="C25" s="5"/>
       <c r="CP25" s="1"/>
     </row>
-    <row r="26" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A26" s="2">
         <v>35400</v>
       </c>
@@ -4008,7 +4019,7 @@
       <c r="C26" s="5"/>
       <c r="CP26" s="1"/>
     </row>
-    <row r="27" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A27" s="2">
         <v>35431</v>
       </c>
@@ -4018,7 +4029,7 @@
       <c r="C27" s="5"/>
       <c r="CP27" s="1"/>
     </row>
-    <row r="28" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A28" s="2">
         <v>35462</v>
       </c>
@@ -4028,7 +4039,7 @@
       <c r="C28" s="5"/>
       <c r="CP28" s="1"/>
     </row>
-    <row r="29" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A29" s="2">
         <v>35490</v>
       </c>
@@ -4038,7 +4049,7 @@
       <c r="C29" s="5"/>
       <c r="CP29" s="1"/>
     </row>
-    <row r="30" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A30" s="2">
         <v>35521</v>
       </c>
@@ -4056,7 +4067,7 @@
       <c r="L30" s="8"/>
       <c r="CP30" s="1"/>
     </row>
-    <row r="31" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A31" s="2">
         <v>35551</v>
       </c>
@@ -4074,7 +4085,7 @@
       <c r="L31" s="8"/>
       <c r="CP31" s="1"/>
     </row>
-    <row r="32" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A32" s="2">
         <v>35582</v>
       </c>
@@ -4092,7 +4103,7 @@
       <c r="L32" s="8"/>
       <c r="CP32" s="1"/>
     </row>
-    <row r="33" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A33" s="2">
         <v>35612</v>
       </c>
@@ -4110,7 +4121,7 @@
       <c r="L33" s="8"/>
       <c r="CP33" s="1"/>
     </row>
-    <row r="34" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A34" s="2">
         <v>35643</v>
       </c>
@@ -4121,7 +4132,7 @@
       <c r="L34" s="8"/>
       <c r="CP34" s="1"/>
     </row>
-    <row r="35" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A35" s="2">
         <v>35674</v>
       </c>
@@ -4131,7 +4142,7 @@
       <c r="C35" s="5"/>
       <c r="CP35" s="1"/>
     </row>
-    <row r="36" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A36" s="2">
         <v>35704</v>
       </c>
@@ -4141,7 +4152,7 @@
       <c r="C36" s="5"/>
       <c r="CP36" s="1"/>
     </row>
-    <row r="37" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A37" s="2">
         <v>35735</v>
       </c>
@@ -4151,7 +4162,7 @@
       <c r="C37" s="5"/>
       <c r="CP37" s="1"/>
     </row>
-    <row r="38" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A38" s="2">
         <v>35765</v>
       </c>
@@ -4161,7 +4172,7 @@
       <c r="C38" s="5"/>
       <c r="CP38" s="1"/>
     </row>
-    <row r="39" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A39" s="2">
         <v>35796</v>
       </c>
@@ -4171,7 +4182,7 @@
       <c r="C39" s="5"/>
       <c r="CP39" s="1"/>
     </row>
-    <row r="40" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A40" s="2">
         <v>35827</v>
       </c>
@@ -4181,7 +4192,7 @@
       <c r="C40" s="5"/>
       <c r="CP40" s="1"/>
     </row>
-    <row r="41" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A41" s="2">
         <v>35855</v>
       </c>
@@ -4191,7 +4202,7 @@
       <c r="C41" s="5"/>
       <c r="CP41" s="1"/>
     </row>
-    <row r="42" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A42" s="2">
         <v>35886</v>
       </c>
@@ -4201,7 +4212,7 @@
       <c r="C42" s="5"/>
       <c r="CP42" s="1"/>
     </row>
-    <row r="43" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A43" s="2">
         <v>35916</v>
       </c>
@@ -4211,7 +4222,7 @@
       <c r="C43" s="5"/>
       <c r="CP43" s="1"/>
     </row>
-    <row r="44" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A44" s="2">
         <v>35947</v>
       </c>
@@ -4221,7 +4232,7 @@
       <c r="C44" s="5"/>
       <c r="CP44" s="1"/>
     </row>
-    <row r="45" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A45" s="2">
         <v>35977</v>
       </c>
@@ -4231,7 +4242,7 @@
       <c r="C45" s="5"/>
       <c r="CP45" s="1"/>
     </row>
-    <row r="46" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A46" s="2">
         <v>36008</v>
       </c>
@@ -4241,7 +4252,7 @@
       <c r="C46" s="5"/>
       <c r="CP46" s="1"/>
     </row>
-    <row r="47" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A47" s="2">
         <v>36039</v>
       </c>
@@ -4251,7 +4262,7 @@
       <c r="C47" s="5"/>
       <c r="CP47" s="1"/>
     </row>
-    <row r="48" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A48" s="2">
         <v>36069</v>
       </c>
@@ -4261,7 +4272,7 @@
       <c r="C48" s="5"/>
       <c r="CP48" s="1"/>
     </row>
-    <row r="49" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A49" s="2">
         <v>36100</v>
       </c>
@@ -4271,7 +4282,7 @@
       <c r="C49" s="5"/>
       <c r="CP49" s="1"/>
     </row>
-    <row r="50" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A50" s="2">
         <v>36130</v>
       </c>
@@ -4281,7 +4292,7 @@
       <c r="C50" s="5"/>
       <c r="CP50" s="1"/>
     </row>
-    <row r="51" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A51" s="2">
         <v>36161</v>
       </c>
@@ -4292,7 +4303,7 @@
       <c r="D51" s="6"/>
       <c r="CP51" s="1"/>
     </row>
-    <row r="52" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A52" s="2">
         <v>36192</v>
       </c>
@@ -4303,7 +4314,7 @@
       <c r="D52" s="6"/>
       <c r="CP52" s="1"/>
     </row>
-    <row r="53" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A53" s="2">
         <v>36220</v>
       </c>
@@ -4314,7 +4325,7 @@
       <c r="D53" s="6"/>
       <c r="CP53" s="1"/>
     </row>
-    <row r="54" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A54" s="2">
         <v>36251</v>
       </c>
@@ -4325,7 +4336,7 @@
       <c r="D54" s="6"/>
       <c r="CP54" s="1"/>
     </row>
-    <row r="55" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A55" s="2">
         <v>36281</v>
       </c>
@@ -4336,7 +4347,7 @@
       <c r="D55" s="6"/>
       <c r="CP55" s="1"/>
     </row>
-    <row r="56" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A56" s="2">
         <v>36312</v>
       </c>
@@ -4347,7 +4358,7 @@
       <c r="D56" s="6"/>
       <c r="CP56" s="1"/>
     </row>
-    <row r="57" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A57" s="2">
         <v>36342</v>
       </c>
@@ -4358,7 +4369,7 @@
       <c r="D57" s="6"/>
       <c r="CP57" s="1"/>
     </row>
-    <row r="58" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A58" s="2">
         <v>36373</v>
       </c>
@@ -4369,7 +4380,7 @@
       <c r="D58" s="6"/>
       <c r="CP58" s="1"/>
     </row>
-    <row r="59" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A59" s="2">
         <v>36404</v>
       </c>
@@ -4380,7 +4391,7 @@
       <c r="D59" s="6"/>
       <c r="CP59" s="1"/>
     </row>
-    <row r="60" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A60" s="2">
         <v>36434</v>
       </c>
@@ -4391,7 +4402,7 @@
       <c r="D60" s="6"/>
       <c r="CP60" s="1"/>
     </row>
-    <row r="61" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A61" s="2">
         <v>36465</v>
       </c>
@@ -4402,7 +4413,7 @@
       <c r="D61" s="6"/>
       <c r="CP61" s="1"/>
     </row>
-    <row r="62" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A62" s="2">
         <v>36495</v>
       </c>
@@ -4413,7 +4424,7 @@
       <c r="D62" s="6"/>
       <c r="CP62" s="1"/>
     </row>
-    <row r="63" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A63" s="2">
         <v>36526</v>
       </c>
@@ -4424,7 +4435,7 @@
       <c r="D63" s="6"/>
       <c r="CP63" s="1"/>
     </row>
-    <row r="64" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A64" s="2">
         <v>36557</v>
       </c>
@@ -4435,7 +4446,7 @@
       <c r="D64" s="6"/>
       <c r="CP64" s="1"/>
     </row>
-    <row r="65" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A65" s="2">
         <v>36586</v>
       </c>
@@ -4447,7 +4458,7 @@
       <c r="E65" s="6"/>
       <c r="CP65" s="1"/>
     </row>
-    <row r="66" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A66" s="2">
         <v>36617</v>
       </c>
@@ -4459,7 +4470,7 @@
       <c r="E66" s="6"/>
       <c r="CP66" s="1"/>
     </row>
-    <row r="67" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A67" s="2">
         <v>36647</v>
       </c>
@@ -4471,7 +4482,7 @@
       <c r="E67" s="6"/>
       <c r="CP67" s="1"/>
     </row>
-    <row r="68" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A68" s="2">
         <v>36678</v>
       </c>
@@ -4483,7 +4494,7 @@
       <c r="E68" s="6"/>
       <c r="CP68" s="1"/>
     </row>
-    <row r="69" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A69" s="2">
         <v>36708</v>
       </c>
@@ -4494,7 +4505,7 @@
       <c r="E69" s="6"/>
       <c r="CP69" s="1"/>
     </row>
-    <row r="70" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A70" s="2">
         <v>36739</v>
       </c>
@@ -4505,7 +4516,7 @@
       <c r="E70" s="6"/>
       <c r="CP70" s="1"/>
     </row>
-    <row r="71" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A71" s="2">
         <v>36770</v>
       </c>
@@ -4516,7 +4527,7 @@
       <c r="E71" s="6"/>
       <c r="CP71" s="1"/>
     </row>
-    <row r="72" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A72" s="2">
         <v>36800</v>
       </c>
@@ -4527,7 +4538,7 @@
       <c r="E72" s="6"/>
       <c r="CP72" s="1"/>
     </row>
-    <row r="73" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A73" s="2">
         <v>36831</v>
       </c>
@@ -4538,7 +4549,7 @@
       <c r="E73" s="6"/>
       <c r="CP73" s="1"/>
     </row>
-    <row r="74" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A74" s="2">
         <v>36861</v>
       </c>
@@ -4549,7 +4560,7 @@
       <c r="E74" s="6"/>
       <c r="CP74" s="1"/>
     </row>
-    <row r="75" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A75" s="2">
         <v>36892</v>
       </c>
@@ -4560,7 +4571,7 @@
       <c r="E75" s="6"/>
       <c r="CP75" s="1"/>
     </row>
-    <row r="76" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A76" s="2">
         <v>36923</v>
       </c>
@@ -4571,7 +4582,7 @@
       <c r="E76" s="6"/>
       <c r="CP76" s="1"/>
     </row>
-    <row r="77" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A77" s="2">
         <v>36951</v>
       </c>
@@ -4582,7 +4593,7 @@
       <c r="E77" s="6"/>
       <c r="CP77" s="1"/>
     </row>
-    <row r="78" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A78" s="2">
         <v>36982</v>
       </c>
@@ -4593,7 +4604,7 @@
       <c r="E78" s="6"/>
       <c r="CP78" s="1"/>
     </row>
-    <row r="79" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A79" s="2">
         <v>37012</v>
       </c>
@@ -4604,7 +4615,7 @@
       <c r="E79" s="6"/>
       <c r="CP79" s="1"/>
     </row>
-    <row r="80" spans="1:94" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:94" x14ac:dyDescent="0.5">
       <c r="A80" s="2">
         <v>37043</v>
       </c>
@@ -4615,7 +4626,7 @@
       <c r="E80" s="6"/>
       <c r="CP80" s="1"/>
     </row>
-    <row r="81" spans="1:206" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:206" x14ac:dyDescent="0.5">
       <c r="A81" s="2">
         <v>37073</v>
       </c>
@@ -4634,7 +4645,7 @@
       <c r="DJ81" s="1"/>
       <c r="DK81" s="1"/>
     </row>
-    <row r="82" spans="1:206" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:206" x14ac:dyDescent="0.5">
       <c r="A82" s="2">
         <v>37104</v>
       </c>
@@ -4652,7 +4663,7 @@
       <c r="DJ82" s="1"/>
       <c r="DK82" s="1"/>
     </row>
-    <row r="83" spans="1:206" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:206" x14ac:dyDescent="0.5">
       <c r="A83" s="2">
         <v>37135</v>
       </c>
@@ -4671,7 +4682,7 @@
       <c r="DK83" s="1"/>
       <c r="FQ83" s="1"/>
     </row>
-    <row r="84" spans="1:206" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:206" x14ac:dyDescent="0.5">
       <c r="A84" s="2">
         <v>37165</v>
       </c>
@@ -4690,7 +4701,7 @@
       <c r="DK84" s="1"/>
       <c r="FQ84" s="1"/>
     </row>
-    <row r="85" spans="1:206" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:206" x14ac:dyDescent="0.5">
       <c r="A85" s="2">
         <v>37196</v>
       </c>
@@ -4709,7 +4720,7 @@
       <c r="DK85" s="1"/>
       <c r="FQ85" s="1"/>
     </row>
-    <row r="86" spans="1:206" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:206" x14ac:dyDescent="0.5">
       <c r="A86" s="2">
         <v>37226</v>
       </c>
@@ -4728,7 +4739,7 @@
       <c r="DK86" s="1"/>
       <c r="FQ86" s="1"/>
     </row>
-    <row r="87" spans="1:206" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:206" x14ac:dyDescent="0.5">
       <c r="A87" s="2">
         <v>37257</v>
       </c>
@@ -4747,7 +4758,7 @@
       <c r="DK87" s="1"/>
       <c r="FQ87" s="1"/>
     </row>
-    <row r="88" spans="1:206" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:206" x14ac:dyDescent="0.5">
       <c r="A88" s="2">
         <v>37288</v>
       </c>
@@ -4766,7 +4777,7 @@
       <c r="DK88" s="1"/>
       <c r="FQ88" s="1"/>
     </row>
-    <row r="89" spans="1:206" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:206" x14ac:dyDescent="0.5">
       <c r="A89" s="2">
         <v>37316</v>
       </c>
@@ -4786,7 +4797,7 @@
       <c r="EJ89" s="1"/>
       <c r="FQ89" s="1"/>
     </row>
-    <row r="90" spans="1:206" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:206" x14ac:dyDescent="0.5">
       <c r="A90" s="2">
         <v>37347</v>
       </c>
@@ -4806,7 +4817,7 @@
       <c r="EJ90" s="1"/>
       <c r="FQ90" s="1"/>
     </row>
-    <row r="91" spans="1:206" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:206" x14ac:dyDescent="0.5">
       <c r="A91" s="2">
         <v>37377</v>
       </c>
@@ -4826,7 +4837,7 @@
       <c r="EJ91" s="1"/>
       <c r="FQ91" s="1"/>
     </row>
-    <row r="92" spans="1:206" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:206" x14ac:dyDescent="0.5">
       <c r="A92" s="2">
         <v>37408</v>
       </c>
@@ -4847,7 +4858,7 @@
       <c r="EU92" s="1"/>
       <c r="FQ92" s="1"/>
     </row>
-    <row r="93" spans="1:206" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:206" x14ac:dyDescent="0.5">
       <c r="A93" s="2">
         <v>37438</v>
       </c>
@@ -4868,7 +4879,7 @@
       <c r="EU93" s="1"/>
       <c r="FQ93" s="1"/>
     </row>
-    <row r="94" spans="1:206" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:206" x14ac:dyDescent="0.5">
       <c r="A94" s="2">
         <v>37469</v>
       </c>
@@ -4889,7 +4900,7 @@
       <c r="EU94" s="1"/>
       <c r="FQ94" s="1"/>
     </row>
-    <row r="95" spans="1:206" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:206" x14ac:dyDescent="0.5">
       <c r="A95" s="2">
         <v>37500</v>
       </c>
@@ -4911,7 +4922,7 @@
       <c r="FQ95" s="1"/>
       <c r="GX95" s="1"/>
     </row>
-    <row r="96" spans="1:206" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:206" x14ac:dyDescent="0.5">
       <c r="A96" s="2">
         <v>37530</v>
       </c>
@@ -4933,7 +4944,7 @@
       <c r="FQ96" s="1"/>
       <c r="GX96" s="1"/>
     </row>
-    <row r="97" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A97" s="2">
         <v>37561</v>
       </c>
@@ -4965,7 +4976,7 @@
       <c r="GX97" s="1"/>
       <c r="QQ97" s="1"/>
     </row>
-    <row r="98" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A98" s="2">
         <v>37591</v>
       </c>
@@ -4997,7 +5008,7 @@
       <c r="GX98" s="1"/>
       <c r="QQ98" s="1"/>
     </row>
-    <row r="99" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A99" s="2">
         <v>37622</v>
       </c>
@@ -5038,7 +5049,7 @@
       <c r="GX99" s="1"/>
       <c r="QQ99" s="1"/>
     </row>
-    <row r="100" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A100" s="2">
         <v>37653</v>
       </c>
@@ -5089,7 +5100,7 @@
       <c r="OC100" s="1"/>
       <c r="QQ100" s="1"/>
     </row>
-    <row r="101" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A101" s="2">
         <v>37681</v>
       </c>
@@ -5141,7 +5152,7 @@
       <c r="OC101" s="1"/>
       <c r="QQ101" s="1"/>
     </row>
-    <row r="102" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A102" s="2">
         <v>37712</v>
       </c>
@@ -5193,7 +5204,7 @@
       <c r="OC102" s="1"/>
       <c r="QQ102" s="1"/>
     </row>
-    <row r="103" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A103" s="2">
         <v>37742</v>
       </c>
@@ -5246,7 +5257,7 @@
       <c r="OC103" s="1"/>
       <c r="QQ103" s="1"/>
     </row>
-    <row r="104" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A104" s="2">
         <v>37773</v>
       </c>
@@ -5300,7 +5311,7 @@
       <c r="OC104" s="1"/>
       <c r="QQ104" s="1"/>
     </row>
-    <row r="105" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A105" s="2">
         <v>37803</v>
       </c>
@@ -5354,7 +5365,7 @@
       <c r="OC105" s="1"/>
       <c r="QQ105" s="1"/>
     </row>
-    <row r="106" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A106" s="2">
         <v>37834</v>
       </c>
@@ -5409,7 +5420,7 @@
       <c r="OC106" s="1"/>
       <c r="QQ106" s="1"/>
     </row>
-    <row r="107" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A107" s="2">
         <v>37865</v>
       </c>
@@ -5468,7 +5479,7 @@
       <c r="QQ107" s="1"/>
       <c r="RX107" s="1"/>
     </row>
-    <row r="108" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A108" s="2">
         <v>37895</v>
       </c>
@@ -5527,7 +5538,7 @@
       <c r="QQ108" s="1"/>
       <c r="RX108" s="1"/>
     </row>
-    <row r="109" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A109" s="2">
         <v>37926</v>
       </c>
@@ -5588,7 +5599,7 @@
       <c r="QQ109" s="1"/>
       <c r="RX109" s="1"/>
     </row>
-    <row r="110" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A110" s="2">
         <v>37956</v>
       </c>
@@ -5651,7 +5662,7 @@
       <c r="QQ110" s="1"/>
       <c r="RX110" s="1"/>
     </row>
-    <row r="111" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A111" s="2">
         <v>37987</v>
       </c>
@@ -5714,7 +5725,7 @@
       <c r="QQ111" s="1"/>
       <c r="RX111" s="1"/>
     </row>
-    <row r="112" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A112" s="2">
         <v>38018</v>
       </c>
@@ -5777,7 +5788,7 @@
       <c r="QQ112" s="1"/>
       <c r="RX112" s="1"/>
     </row>
-    <row r="113" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A113" s="2">
         <v>38047</v>
       </c>
@@ -5842,7 +5853,7 @@
       <c r="QQ113" s="1"/>
       <c r="RX113" s="1"/>
     </row>
-    <row r="114" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A114" s="2">
         <v>38078</v>
       </c>
@@ -5908,7 +5919,7 @@
       <c r="QQ114" s="1"/>
       <c r="RX114" s="1"/>
     </row>
-    <row r="115" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A115" s="2">
         <v>38108</v>
       </c>
@@ -5985,7 +5996,7 @@
       <c r="QQ115" s="1"/>
       <c r="RX115" s="1"/>
     </row>
-    <row r="116" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A116" s="2">
         <v>38139</v>
       </c>
@@ -6073,7 +6084,7 @@
       <c r="QQ116" s="1"/>
       <c r="RX116" s="1"/>
     </row>
-    <row r="117" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A117" s="2">
         <v>38169</v>
       </c>
@@ -6163,7 +6174,7 @@
       <c r="QQ117" s="1"/>
       <c r="RX117" s="1"/>
     </row>
-    <row r="118" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A118" s="2">
         <v>38200</v>
       </c>
@@ -6253,7 +6264,7 @@
       <c r="QQ118" s="1"/>
       <c r="RX118" s="1"/>
     </row>
-    <row r="119" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A119" s="2">
         <v>38231</v>
       </c>
@@ -6343,7 +6354,7 @@
       <c r="QQ119" s="1"/>
       <c r="RX119" s="1"/>
     </row>
-    <row r="120" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A120" s="2">
         <v>38261</v>
       </c>
@@ -6433,7 +6444,7 @@
       <c r="QQ120" s="1"/>
       <c r="RX120" s="1"/>
     </row>
-    <row r="121" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A121" s="2">
         <v>38292</v>
       </c>
@@ -6524,7 +6535,7 @@
       <c r="QQ121" s="1"/>
       <c r="RX121" s="1"/>
     </row>
-    <row r="122" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A122" s="2">
         <v>38322</v>
       </c>
@@ -6615,7 +6626,7 @@
       <c r="QQ122" s="1"/>
       <c r="RX122" s="1"/>
     </row>
-    <row r="123" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A123" s="2">
         <v>38353</v>
       </c>
@@ -6706,7 +6717,7 @@
       <c r="QQ123" s="1"/>
       <c r="RX123" s="1"/>
     </row>
-    <row r="124" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A124" s="2">
         <v>38384</v>
       </c>
@@ -6799,7 +6810,7 @@
       <c r="QQ124" s="1"/>
       <c r="RX124" s="1"/>
     </row>
-    <row r="125" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A125" s="2">
         <v>38412</v>
       </c>
@@ -6892,7 +6903,7 @@
       <c r="QQ125" s="1"/>
       <c r="RX125" s="1"/>
     </row>
-    <row r="126" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A126" s="2">
         <v>38443</v>
       </c>
@@ -6985,7 +6996,7 @@
       <c r="QQ126" s="1"/>
       <c r="RX126" s="1"/>
     </row>
-    <row r="127" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A127" s="2">
         <v>38473</v>
       </c>
@@ -7079,7 +7090,7 @@
       <c r="RM127" s="1"/>
       <c r="RX127" s="1"/>
     </row>
-    <row r="128" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A128" s="2">
         <v>38504</v>
       </c>
@@ -7174,7 +7185,7 @@
       <c r="RM128" s="1"/>
       <c r="RX128" s="1"/>
     </row>
-    <row r="129" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A129" s="2">
         <v>38534</v>
       </c>
@@ -7269,7 +7280,7 @@
       <c r="RM129" s="1"/>
       <c r="RX129" s="1"/>
     </row>
-    <row r="130" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A130" s="2">
         <v>38565</v>
       </c>
@@ -7364,7 +7375,7 @@
       <c r="RM130" s="1"/>
       <c r="RX130" s="1"/>
     </row>
-    <row r="131" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A131" s="2">
         <v>38596</v>
       </c>
@@ -7459,7 +7470,7 @@
       <c r="RM131" s="1"/>
       <c r="RX131" s="1"/>
     </row>
-    <row r="132" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A132" s="2">
         <v>38626</v>
       </c>
@@ -7554,7 +7565,7 @@
       <c r="RM132" s="1"/>
       <c r="RX132" s="1"/>
     </row>
-    <row r="133" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A133" s="2">
         <v>38657</v>
       </c>
@@ -7649,7 +7660,7 @@
       <c r="RM133" s="1"/>
       <c r="RX133" s="1"/>
     </row>
-    <row r="134" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A134" s="2">
         <v>38687</v>
       </c>
@@ -7744,7 +7755,7 @@
       <c r="RM134" s="1"/>
       <c r="RX134" s="1"/>
     </row>
-    <row r="135" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A135" s="2">
         <v>38718</v>
       </c>
@@ -7839,7 +7850,7 @@
       <c r="RM135" s="1"/>
       <c r="RX135" s="1"/>
     </row>
-    <row r="136" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A136" s="2">
         <v>38749</v>
       </c>
@@ -7934,7 +7945,7 @@
       <c r="RM136" s="1"/>
       <c r="RX136" s="1"/>
     </row>
-    <row r="137" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A137" s="2">
         <v>38777</v>
       </c>
@@ -8029,7 +8040,7 @@
       <c r="RM137" s="1"/>
       <c r="RX137" s="1"/>
     </row>
-    <row r="138" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A138" s="2">
         <v>38808</v>
       </c>
@@ -8124,7 +8135,7 @@
       <c r="RM138" s="1"/>
       <c r="RX138" s="1"/>
     </row>
-    <row r="139" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A139" s="2">
         <v>38838</v>
       </c>
@@ -8219,7 +8230,7 @@
       <c r="RM139" s="1"/>
       <c r="RX139" s="1"/>
     </row>
-    <row r="140" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A140" s="2">
         <v>38869</v>
       </c>
@@ -8314,7 +8325,7 @@
       <c r="RM140" s="1"/>
       <c r="RX140" s="1"/>
     </row>
-    <row r="141" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A141" s="2">
         <v>38899</v>
       </c>
@@ -8409,7 +8420,7 @@
       <c r="RM141" s="1"/>
       <c r="RX141" s="1"/>
     </row>
-    <row r="142" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A142" s="2">
         <v>38930</v>
       </c>
@@ -8504,7 +8515,7 @@
       <c r="RM142" s="1"/>
       <c r="RX142" s="1"/>
     </row>
-    <row r="143" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A143" s="2">
         <v>38961</v>
       </c>
@@ -8599,7 +8610,7 @@
       <c r="RM143" s="1"/>
       <c r="RX143" s="1"/>
     </row>
-    <row r="144" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A144" s="2">
         <v>38991</v>
       </c>
@@ -8694,7 +8705,7 @@
       <c r="RM144" s="1"/>
       <c r="RX144" s="1"/>
     </row>
-    <row r="145" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A145" s="2">
         <v>39022</v>
       </c>
@@ -8789,7 +8800,7 @@
       <c r="RM145" s="1"/>
       <c r="RX145" s="1"/>
     </row>
-    <row r="146" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A146" s="2">
         <v>39052</v>
       </c>
@@ -8884,7 +8895,7 @@
       <c r="RM146" s="1"/>
       <c r="RX146" s="1"/>
     </row>
-    <row r="147" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A147" s="2">
         <v>39083</v>
       </c>
@@ -8979,7 +8990,7 @@
       <c r="RM147" s="1"/>
       <c r="RX147" s="1"/>
     </row>
-    <row r="148" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A148" s="2">
         <v>39114</v>
       </c>
@@ -9074,7 +9085,7 @@
       <c r="RM148" s="1"/>
       <c r="RX148" s="1"/>
     </row>
-    <row r="149" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A149" s="2">
         <v>39142</v>
       </c>
@@ -9169,7 +9180,7 @@
       <c r="RM149" s="1"/>
       <c r="RX149" s="1"/>
     </row>
-    <row r="150" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A150" s="2">
         <v>39173</v>
       </c>
@@ -9264,7 +9275,7 @@
       <c r="RM150" s="1"/>
       <c r="RX150" s="1"/>
     </row>
-    <row r="151" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A151" s="2">
         <v>39203</v>
       </c>
@@ -9359,7 +9370,7 @@
       <c r="RM151" s="1"/>
       <c r="RX151" s="1"/>
     </row>
-    <row r="152" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A152" s="2">
         <v>39234</v>
       </c>
@@ -9454,7 +9465,7 @@
       <c r="RM152" s="1"/>
       <c r="RX152" s="1"/>
     </row>
-    <row r="153" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A153" s="2">
         <v>39264</v>
       </c>
@@ -9549,7 +9560,7 @@
       <c r="RM153" s="1"/>
       <c r="RX153" s="1"/>
     </row>
-    <row r="154" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A154" s="2">
         <v>39295</v>
       </c>
@@ -9644,7 +9655,7 @@
       <c r="RM154" s="1"/>
       <c r="RX154" s="1"/>
     </row>
-    <row r="155" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A155" s="2">
         <v>39326</v>
       </c>
@@ -9739,7 +9750,7 @@
       <c r="RM155" s="1"/>
       <c r="RX155" s="1"/>
     </row>
-    <row r="156" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A156" s="2">
         <v>39356</v>
       </c>
@@ -9834,7 +9845,7 @@
       <c r="RM156" s="1"/>
       <c r="RX156" s="1"/>
     </row>
-    <row r="157" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A157" s="2">
         <v>39387</v>
       </c>
@@ -9929,7 +9940,7 @@
       <c r="RM157" s="1"/>
       <c r="RX157" s="1"/>
     </row>
-    <row r="158" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A158" s="2">
         <v>39417</v>
       </c>
@@ -10024,7 +10035,7 @@
       <c r="RM158" s="1"/>
       <c r="RX158" s="1"/>
     </row>
-    <row r="159" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A159" s="2">
         <v>39448</v>
       </c>
@@ -10119,7 +10130,7 @@
       <c r="RM159" s="1"/>
       <c r="RX159" s="1"/>
     </row>
-    <row r="160" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A160" s="2">
         <v>39479</v>
       </c>
@@ -10214,7 +10225,7 @@
       <c r="RM160" s="1"/>
       <c r="RX160" s="1"/>
     </row>
-    <row r="161" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A161" s="2">
         <v>39508</v>
       </c>
@@ -10309,7 +10320,7 @@
       <c r="RM161" s="1"/>
       <c r="RX161" s="1"/>
     </row>
-    <row r="162" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A162" s="2">
         <v>39539</v>
       </c>
@@ -10404,7 +10415,7 @@
       <c r="RM162" s="1"/>
       <c r="RX162" s="1"/>
     </row>
-    <row r="163" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A163" s="2">
         <v>39569</v>
       </c>
@@ -10499,7 +10510,7 @@
       <c r="RM163" s="1"/>
       <c r="RX163" s="1"/>
     </row>
-    <row r="164" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A164" s="2">
         <v>39600</v>
       </c>
@@ -10594,7 +10605,7 @@
       <c r="RM164" s="1"/>
       <c r="RX164" s="1"/>
     </row>
-    <row r="165" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A165" s="2">
         <v>39630</v>
       </c>
@@ -10689,7 +10700,7 @@
       <c r="RM165" s="1"/>
       <c r="RX165" s="1"/>
     </row>
-    <row r="166" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A166" s="2">
         <v>39661</v>
       </c>
@@ -10784,7 +10795,7 @@
       <c r="RM166" s="1"/>
       <c r="RX166" s="1"/>
     </row>
-    <row r="167" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A167" s="2">
         <v>39692</v>
       </c>
@@ -10879,7 +10890,7 @@
       <c r="RM167" s="1"/>
       <c r="RX167" s="1"/>
     </row>
-    <row r="168" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A168" s="2">
         <v>39722</v>
       </c>
@@ -10974,7 +10985,7 @@
       <c r="RM168" s="1"/>
       <c r="RX168" s="1"/>
     </row>
-    <row r="169" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A169" s="2">
         <v>39753</v>
       </c>
@@ -11069,7 +11080,7 @@
       <c r="RM169" s="1"/>
       <c r="RX169" s="1"/>
     </row>
-    <row r="170" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A170" s="2">
         <v>39783</v>
       </c>
@@ -11164,7 +11175,7 @@
       <c r="RM170" s="1"/>
       <c r="RX170" s="1"/>
     </row>
-    <row r="171" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A171" s="2">
         <v>39814</v>
       </c>
@@ -11259,7 +11270,7 @@
       <c r="RM171" s="1"/>
       <c r="RX171" s="1"/>
     </row>
-    <row r="172" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A172" s="2">
         <v>39845</v>
       </c>
@@ -11354,7 +11365,7 @@
       <c r="RM172" s="1"/>
       <c r="RX172" s="1"/>
     </row>
-    <row r="173" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A173" s="2">
         <v>39873</v>
       </c>
@@ -11449,7 +11460,7 @@
       <c r="RM173" s="1"/>
       <c r="RX173" s="1"/>
     </row>
-    <row r="174" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A174" s="2">
         <v>39904</v>
       </c>
@@ -11544,7 +11555,7 @@
       <c r="RM174" s="1"/>
       <c r="RX174" s="1"/>
     </row>
-    <row r="175" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A175" s="2">
         <v>39934</v>
       </c>
@@ -11639,7 +11650,7 @@
       <c r="RM175" s="1"/>
       <c r="RX175" s="1"/>
     </row>
-    <row r="176" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A176" s="2">
         <v>39965</v>
       </c>
@@ -11734,7 +11745,7 @@
       <c r="RM176" s="1"/>
       <c r="RX176" s="1"/>
     </row>
-    <row r="177" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A177" s="2">
         <v>39995</v>
       </c>
@@ -11829,7 +11840,7 @@
       <c r="RM177" s="1"/>
       <c r="RX177" s="1"/>
     </row>
-    <row r="178" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A178" s="2">
         <v>40026</v>
       </c>
@@ -11924,7 +11935,7 @@
       <c r="RM178" s="1"/>
       <c r="RX178" s="1"/>
     </row>
-    <row r="179" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A179" s="2">
         <v>40057</v>
       </c>
@@ -12019,7 +12030,7 @@
       <c r="RM179" s="1"/>
       <c r="RX179" s="1"/>
     </row>
-    <row r="180" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A180" s="2">
         <v>40087</v>
       </c>
@@ -12114,7 +12125,7 @@
       <c r="RM180" s="1"/>
       <c r="RX180" s="1"/>
     </row>
-    <row r="181" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A181" s="2">
         <v>40118</v>
       </c>
@@ -12209,7 +12220,7 @@
       <c r="RM181" s="1"/>
       <c r="RX181" s="1"/>
     </row>
-    <row r="182" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A182" s="2">
         <v>40148</v>
       </c>
@@ -12304,7 +12315,7 @@
       <c r="RM182" s="1"/>
       <c r="RX182" s="1"/>
     </row>
-    <row r="183" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A183" s="2">
         <v>40179</v>
       </c>
@@ -12399,7 +12410,7 @@
       <c r="RM183" s="1"/>
       <c r="RX183" s="1"/>
     </row>
-    <row r="184" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A184" s="2">
         <v>40210</v>
       </c>
@@ -12494,7 +12505,7 @@
       <c r="RM184" s="1"/>
       <c r="RX184" s="1"/>
     </row>
-    <row r="185" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A185" s="2">
         <v>40238</v>
       </c>
@@ -12589,7 +12600,7 @@
       <c r="RM185" s="1"/>
       <c r="RX185" s="1"/>
     </row>
-    <row r="186" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A186" s="2">
         <v>40269</v>
       </c>
@@ -12684,7 +12695,7 @@
       <c r="RM186" s="1"/>
       <c r="RX186" s="1"/>
     </row>
-    <row r="187" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A187" s="2">
         <v>40299</v>
       </c>
@@ -12779,7 +12790,7 @@
       <c r="RM187" s="1"/>
       <c r="RX187" s="1"/>
     </row>
-    <row r="188" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A188" s="2">
         <v>40330</v>
       </c>
@@ -12874,7 +12885,7 @@
       <c r="RM188" s="1"/>
       <c r="RX188" s="1"/>
     </row>
-    <row r="189" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A189" s="2">
         <v>40360</v>
       </c>
@@ -12969,7 +12980,7 @@
       <c r="RM189" s="1"/>
       <c r="RX189" s="1"/>
     </row>
-    <row r="190" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A190" s="2">
         <v>40391</v>
       </c>
@@ -13064,7 +13075,7 @@
       <c r="RM190" s="1"/>
       <c r="RX190" s="1"/>
     </row>
-    <row r="191" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A191" s="2">
         <v>40422</v>
       </c>
@@ -13159,7 +13170,7 @@
       <c r="RM191" s="1"/>
       <c r="RX191" s="1"/>
     </row>
-    <row r="192" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A192" s="2">
         <v>40452</v>
       </c>
@@ -13254,7 +13265,7 @@
       <c r="RM192" s="1"/>
       <c r="RX192" s="1"/>
     </row>
-    <row r="193" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A193" s="2">
         <v>40483</v>
       </c>
@@ -13349,7 +13360,7 @@
       <c r="RM193" s="1"/>
       <c r="RX193" s="1"/>
     </row>
-    <row r="194" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A194" s="2">
         <v>40513</v>
       </c>
@@ -13444,7 +13455,7 @@
       <c r="RM194" s="1"/>
       <c r="RX194" s="1"/>
     </row>
-    <row r="195" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A195" s="2">
         <v>40544</v>
       </c>
@@ -13539,7 +13550,7 @@
       <c r="RM195" s="1"/>
       <c r="RX195" s="1"/>
     </row>
-    <row r="196" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A196" s="2">
         <v>40575</v>
       </c>
@@ -13634,7 +13645,7 @@
       <c r="RM196" s="1"/>
       <c r="RX196" s="1"/>
     </row>
-    <row r="197" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A197" s="2">
         <v>40603</v>
       </c>
@@ -13729,7 +13740,7 @@
       <c r="RM197" s="1"/>
       <c r="RX197" s="1"/>
     </row>
-    <row r="198" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A198" s="2">
         <v>40634</v>
       </c>
@@ -13824,7 +13835,7 @@
       <c r="RM198" s="1"/>
       <c r="RX198" s="1"/>
     </row>
-    <row r="199" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A199" s="2">
         <v>40664</v>
       </c>
@@ -13919,7 +13930,7 @@
       <c r="RM199" s="1"/>
       <c r="RX199" s="1"/>
     </row>
-    <row r="200" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A200" s="2">
         <v>40695</v>
       </c>
@@ -14014,7 +14025,7 @@
       <c r="RM200" s="1"/>
       <c r="RX200" s="1"/>
     </row>
-    <row r="201" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A201" s="2">
         <v>40725</v>
       </c>
@@ -14109,7 +14120,7 @@
       <c r="RM201" s="1"/>
       <c r="RX201" s="1"/>
     </row>
-    <row r="202" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A202" s="2">
         <v>40756</v>
       </c>
@@ -14204,7 +14215,7 @@
       <c r="RM202" s="1"/>
       <c r="RX202" s="1"/>
     </row>
-    <row r="203" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A203" s="2">
         <v>40787</v>
       </c>
@@ -14299,7 +14310,7 @@
       <c r="RM203" s="1"/>
       <c r="RX203" s="1"/>
     </row>
-    <row r="204" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A204" s="2">
         <v>40817</v>
       </c>
@@ -14394,7 +14405,7 @@
       <c r="RM204" s="1"/>
       <c r="RX204" s="1"/>
     </row>
-    <row r="205" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A205" s="2">
         <v>40848</v>
       </c>
@@ -14489,7 +14500,7 @@
       <c r="RM205" s="1"/>
       <c r="RX205" s="1"/>
     </row>
-    <row r="206" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A206" s="2">
         <v>40878</v>
       </c>
@@ -14585,7 +14596,7 @@
       <c r="RM206" s="1"/>
       <c r="RX206" s="1"/>
     </row>
-    <row r="207" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A207" s="2">
         <v>40909</v>
       </c>
@@ -14681,7 +14692,7 @@
       <c r="RM207" s="1"/>
       <c r="RX207" s="1"/>
     </row>
-    <row r="208" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A208" s="2">
         <v>40940</v>
       </c>
@@ -14780,7 +14791,7 @@
       <c r="RM208" s="1"/>
       <c r="RX208" s="1"/>
     </row>
-    <row r="209" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A209" s="2">
         <v>40969</v>
       </c>
@@ -14876,7 +14887,7 @@
       <c r="RM209" s="1"/>
       <c r="RX209" s="1"/>
     </row>
-    <row r="210" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A210" s="2">
         <v>41000</v>
       </c>
@@ -14975,7 +14986,7 @@
       <c r="RM210" s="1"/>
       <c r="RX210" s="1"/>
     </row>
-    <row r="211" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A211" s="2">
         <v>41030</v>
       </c>
@@ -15070,7 +15081,7 @@
       <c r="RM211" s="1"/>
       <c r="RX211" s="1"/>
     </row>
-    <row r="212" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A212" s="2">
         <v>41061</v>
       </c>
@@ -15166,7 +15177,7 @@
       <c r="RM212" s="1"/>
       <c r="RX212" s="1"/>
     </row>
-    <row r="213" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A213" s="2">
         <v>41091</v>
       </c>
@@ -15261,7 +15272,7 @@
       <c r="RM213" s="1"/>
       <c r="RX213" s="1"/>
     </row>
-    <row r="214" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A214" s="2">
         <v>41122</v>
       </c>
@@ -15356,7 +15367,7 @@
       <c r="RM214" s="1"/>
       <c r="RX214" s="1"/>
     </row>
-    <row r="215" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A215" s="2">
         <v>41153</v>
       </c>
@@ -15451,7 +15462,7 @@
       <c r="RM215" s="1"/>
       <c r="RX215" s="1"/>
     </row>
-    <row r="216" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A216" s="2">
         <v>41183</v>
       </c>
@@ -15547,7 +15558,7 @@
       <c r="RM216" s="1"/>
       <c r="RX216" s="1"/>
     </row>
-    <row r="217" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A217" s="2">
         <v>41214</v>
       </c>
@@ -15642,7 +15653,7 @@
       <c r="RM217" s="1"/>
       <c r="RX217" s="1"/>
     </row>
-    <row r="218" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A218" s="2">
         <v>41244</v>
       </c>
@@ -15737,7 +15748,7 @@
       <c r="RM218" s="1"/>
       <c r="RX218" s="1"/>
     </row>
-    <row r="219" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A219" s="2">
         <v>41275</v>
       </c>
@@ -15832,7 +15843,7 @@
       <c r="RM219" s="1"/>
       <c r="RX219" s="1"/>
     </row>
-    <row r="220" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A220" s="2">
         <v>41306</v>
       </c>
@@ -15927,7 +15938,7 @@
       <c r="RM220" s="1"/>
       <c r="RX220" s="1"/>
     </row>
-    <row r="221" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A221" s="2">
         <v>41334</v>
       </c>
@@ -16025,7 +16036,7 @@
       <c r="RM221" s="1"/>
       <c r="RX221" s="1"/>
     </row>
-    <row r="222" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A222" s="2">
         <v>41365</v>
       </c>
@@ -16044,7 +16055,7 @@
       <c r="QC222" s="1"/>
       <c r="QD222" s="1"/>
     </row>
-    <row r="223" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A223" s="2">
         <v>41395</v>
       </c>
@@ -16063,7 +16074,7 @@
       <c r="QC223" s="1"/>
       <c r="QD223" s="1"/>
     </row>
-    <row r="224" spans="1:492" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:492" x14ac:dyDescent="0.5">
       <c r="A224" s="2">
         <v>41426</v>
       </c>
@@ -16082,7 +16093,7 @@
       <c r="QC224" s="1"/>
       <c r="QD224" s="1"/>
     </row>
-    <row r="225" spans="1:446" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:446" x14ac:dyDescent="0.5">
       <c r="A225" s="2">
         <v>41456</v>
       </c>
@@ -16101,7 +16112,7 @@
       <c r="QC225" s="1"/>
       <c r="QD225" s="1"/>
     </row>
-    <row r="226" spans="1:446" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:446" x14ac:dyDescent="0.5">
       <c r="A226" s="2">
         <v>41487</v>
       </c>
@@ -16120,7 +16131,7 @@
       <c r="QC226" s="1"/>
       <c r="QD226" s="1"/>
     </row>
-    <row r="227" spans="1:446" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:446" x14ac:dyDescent="0.5">
       <c r="A227" s="2">
         <v>41518</v>
       </c>
@@ -16139,7 +16150,7 @@
       <c r="QC227" s="1"/>
       <c r="QD227" s="1"/>
     </row>
-    <row r="228" spans="1:446" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:446" x14ac:dyDescent="0.5">
       <c r="A228" s="2">
         <v>41548</v>
       </c>
@@ -16148,7 +16159,7 @@
       </c>
       <c r="C228" s="5"/>
     </row>
-    <row r="229" spans="1:446" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:446" x14ac:dyDescent="0.5">
       <c r="A229" s="2">
         <v>41579</v>
       </c>
@@ -16157,7 +16168,7 @@
       </c>
       <c r="C229" s="5"/>
     </row>
-    <row r="230" spans="1:446" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:446" x14ac:dyDescent="0.5">
       <c r="A230" s="2">
         <v>41609</v>
       </c>
@@ -16166,7 +16177,7 @@
       </c>
       <c r="C230" s="5"/>
     </row>
-    <row r="231" spans="1:446" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:446" x14ac:dyDescent="0.5">
       <c r="A231" s="2">
         <v>41640</v>
       </c>
@@ -16175,7 +16186,7 @@
       </c>
       <c r="C231" s="5"/>
     </row>
-    <row r="232" spans="1:446" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:446" x14ac:dyDescent="0.5">
       <c r="A232" s="2">
         <v>41671</v>
       </c>
@@ -16184,7 +16195,7 @@
       </c>
       <c r="C232" s="5"/>
     </row>
-    <row r="233" spans="1:446" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:446" x14ac:dyDescent="0.5">
       <c r="A233" s="2">
         <v>41699</v>
       </c>
@@ -16193,7 +16204,7 @@
       </c>
       <c r="C233" s="5"/>
     </row>
-    <row r="234" spans="1:446" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:446" x14ac:dyDescent="0.5">
       <c r="A234" s="2">
         <v>41730</v>
       </c>
@@ -16202,7 +16213,7 @@
       </c>
       <c r="C234" s="5"/>
     </row>
-    <row r="235" spans="1:446" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:446" x14ac:dyDescent="0.5">
       <c r="A235" s="2">
         <v>41760</v>
       </c>
@@ -16211,7 +16222,7 @@
       </c>
       <c r="C235" s="5"/>
     </row>
-    <row r="236" spans="1:446" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:446" x14ac:dyDescent="0.5">
       <c r="A236" s="2">
         <v>41791</v>
       </c>
@@ -16220,7 +16231,7 @@
       </c>
       <c r="C236" s="5"/>
     </row>
-    <row r="237" spans="1:446" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:446" x14ac:dyDescent="0.5">
       <c r="A237" s="2">
         <v>41821</v>
       </c>
@@ -16229,7 +16240,7 @@
       </c>
       <c r="C237" s="5"/>
     </row>
-    <row r="238" spans="1:446" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:446" x14ac:dyDescent="0.5">
       <c r="A238" s="2">
         <v>41852</v>
       </c>
@@ -16238,7 +16249,7 @@
       </c>
       <c r="C238" s="5"/>
     </row>
-    <row r="239" spans="1:446" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:446" x14ac:dyDescent="0.5">
       <c r="A239" s="2">
         <v>41883</v>
       </c>
@@ -16247,7 +16258,7 @@
       </c>
       <c r="C239" s="5"/>
     </row>
-    <row r="240" spans="1:446" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:446" x14ac:dyDescent="0.5">
       <c r="A240" s="2">
         <v>41913</v>
       </c>
@@ -16256,7 +16267,7 @@
       </c>
       <c r="C240" s="5"/>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A241" s="2">
         <v>41944</v>
       </c>
@@ -16265,7 +16276,7 @@
       </c>
       <c r="C241" s="5"/>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A242" s="2">
         <v>41974</v>
       </c>
@@ -16274,7 +16285,7 @@
       </c>
       <c r="C242" s="5"/>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A243" s="2">
         <v>42005</v>
       </c>
@@ -16283,7 +16294,7 @@
       </c>
       <c r="C243" s="5"/>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A244" s="2">
         <v>42036</v>
       </c>
@@ -16292,7 +16303,7 @@
       </c>
       <c r="C244" s="5"/>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A245" s="2">
         <v>42064</v>
       </c>
@@ -16301,7 +16312,7 @@
       </c>
       <c r="C245" s="5"/>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A246" s="2">
         <v>42095</v>
       </c>
@@ -16310,7 +16321,7 @@
       </c>
       <c r="C246" s="5"/>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A247" s="2">
         <v>42125</v>
       </c>
@@ -16319,7 +16330,7 @@
       </c>
       <c r="C247" s="5"/>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A248" s="2">
         <v>42156</v>
       </c>
@@ -16328,7 +16339,7 @@
       </c>
       <c r="C248" s="5"/>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A249" s="2">
         <v>42186</v>
       </c>
@@ -16337,7 +16348,7 @@
       </c>
       <c r="C249" s="5"/>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A250" s="2">
         <v>42217</v>
       </c>
@@ -16346,7 +16357,7 @@
       </c>
       <c r="C250" s="5"/>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A251" s="2">
         <v>42248</v>
       </c>
@@ -16355,7 +16366,7 @@
       </c>
       <c r="C251" s="5"/>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A252" s="2">
         <v>42278</v>
       </c>
@@ -16364,7 +16375,7 @@
       </c>
       <c r="C252" s="5"/>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A253" s="2">
         <v>42309</v>
       </c>
@@ -16373,7 +16384,7 @@
       </c>
       <c r="C253" s="5"/>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A254" s="2">
         <v>42339</v>
       </c>
@@ -16382,7 +16393,7 @@
       </c>
       <c r="C254" s="5"/>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A255" s="2">
         <v>42370</v>
       </c>
@@ -16391,7 +16402,7 @@
       </c>
       <c r="C255" s="5"/>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A256" s="2">
         <v>42401</v>
       </c>
@@ -16400,7 +16411,7 @@
       </c>
       <c r="C256" s="5"/>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A257" s="2">
         <v>42430</v>
       </c>
@@ -16409,7 +16420,7 @@
       </c>
       <c r="C257" s="5"/>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A258" s="2">
         <v>42461</v>
       </c>
@@ -16418,7 +16429,7 @@
       </c>
       <c r="C258" s="5"/>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A259" s="2">
         <v>42491</v>
       </c>
@@ -16427,7 +16438,7 @@
       </c>
       <c r="C259" s="5"/>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A260" s="2">
         <v>42522</v>
       </c>
@@ -16436,7 +16447,7 @@
       </c>
       <c r="C260" s="5"/>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A261" s="2">
         <v>42552</v>
       </c>
@@ -16445,7 +16456,7 @@
       </c>
       <c r="C261" s="5"/>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A262" s="2">
         <v>42583</v>
       </c>
@@ -16454,7 +16465,7 @@
       </c>
       <c r="C262" s="5"/>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A263" s="2">
         <v>42614</v>
       </c>
@@ -16463,7 +16474,7 @@
       </c>
       <c r="C263" s="5"/>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A264" s="2">
         <v>42644</v>
       </c>
@@ -16472,7 +16483,7 @@
       </c>
       <c r="C264" s="5"/>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A265" s="2">
         <v>42675</v>
       </c>
@@ -16481,7 +16492,7 @@
       </c>
       <c r="C265" s="5"/>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A266" s="2">
         <v>42705</v>
       </c>
@@ -16490,7 +16501,7 @@
       </c>
       <c r="C266" s="5"/>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A267" s="2">
         <v>42736</v>
       </c>
@@ -16499,7 +16510,7 @@
       </c>
       <c r="C267" s="5"/>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A268" s="2">
         <v>42767</v>
       </c>
@@ -16508,7 +16519,7 @@
       </c>
       <c r="C268" s="5"/>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A269" s="2">
         <v>42795</v>
       </c>
@@ -16517,7 +16528,7 @@
       </c>
       <c r="C269" s="5"/>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A270" s="2">
         <v>42826</v>
       </c>
@@ -16526,7 +16537,7 @@
       </c>
       <c r="C270" s="5"/>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A271" s="2">
         <v>42856</v>
       </c>
@@ -16535,7 +16546,7 @@
       </c>
       <c r="C271" s="5"/>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A272" s="2">
         <v>42887</v>
       </c>
@@ -16544,7 +16555,7 @@
       </c>
       <c r="C272" s="5"/>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A273" s="2">
         <v>42917</v>
       </c>
@@ -16553,7 +16564,7 @@
       </c>
       <c r="C273" s="5"/>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A274" s="2">
         <v>42948</v>
       </c>
@@ -16562,7 +16573,7 @@
       </c>
       <c r="C274" s="5"/>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A275" s="2">
         <v>42979</v>
       </c>
@@ -16571,7 +16582,7 @@
       </c>
       <c r="C275" s="5"/>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A276" s="2">
         <v>43009</v>
       </c>
@@ -16580,7 +16591,7 @@
       </c>
       <c r="C276" s="5"/>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A277" s="2">
         <v>43040</v>
       </c>
@@ -16589,7 +16600,7 @@
       </c>
       <c r="C277" s="5"/>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A278" s="2">
         <v>43070</v>
       </c>
@@ -16598,7 +16609,7 @@
       </c>
       <c r="C278" s="5"/>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A279" s="2">
         <v>43101</v>
       </c>
@@ -16607,7 +16618,7 @@
       </c>
       <c r="C279" s="5"/>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A280" s="2">
         <v>43132</v>
       </c>
@@ -16616,7 +16627,7 @@
       </c>
       <c r="C280" s="5"/>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A281" s="2">
         <v>43160</v>
       </c>
@@ -16625,7 +16636,7 @@
       </c>
       <c r="C281" s="5"/>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A282" s="2">
         <v>43191</v>
       </c>
@@ -16634,7 +16645,7 @@
       </c>
       <c r="C282" s="5"/>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A283" s="2">
         <v>43221</v>
       </c>
@@ -16643,7 +16654,7 @@
       </c>
       <c r="C283" s="5"/>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A284" s="2">
         <v>43252</v>
       </c>
@@ -16652,7 +16663,7 @@
       </c>
       <c r="C284" s="5"/>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A285" s="2">
         <v>43282</v>
       </c>
@@ -16661,7 +16672,7 @@
       </c>
       <c r="C285" s="5"/>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A286" s="2">
         <v>43313</v>
       </c>
@@ -16670,7 +16681,7 @@
       </c>
       <c r="C286" s="5"/>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A287" s="2">
         <v>43344</v>
       </c>
@@ -16679,7 +16690,7 @@
       </c>
       <c r="C287" s="5"/>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A288" s="2">
         <v>43374</v>
       </c>
@@ -16688,7 +16699,7 @@
       </c>
       <c r="C288" s="5"/>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A289" s="2">
         <v>43405</v>
       </c>
@@ -16697,7 +16708,7 @@
       </c>
       <c r="C289" s="5"/>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A290" s="2">
         <v>43435</v>
       </c>
@@ -16706,7 +16717,7 @@
       </c>
       <c r="C290" s="5"/>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A291" s="2">
         <v>43466</v>
       </c>
@@ -16715,7 +16726,7 @@
       </c>
       <c r="C291" s="5"/>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A292" s="2">
         <v>43497</v>
       </c>
@@ -16724,7 +16735,7 @@
       </c>
       <c r="C292" s="5"/>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A293" s="2">
         <v>43525</v>
       </c>
@@ -16733,7 +16744,7 @@
       </c>
       <c r="C293" s="5"/>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A294" s="2">
         <v>43556</v>
       </c>
@@ -16742,7 +16753,7 @@
       </c>
       <c r="C294" s="5"/>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A295" s="2">
         <v>43586</v>
       </c>
@@ -16751,7 +16762,7 @@
       </c>
       <c r="C295" s="5"/>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A296" s="2">
         <v>43617</v>
       </c>
@@ -16760,7 +16771,7 @@
       </c>
       <c r="C296" s="5"/>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A297" s="2">
         <v>43647</v>
       </c>
@@ -16769,7 +16780,7 @@
       </c>
       <c r="C297" s="5"/>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A298" s="2">
         <v>43678</v>
       </c>
@@ -16778,7 +16789,7 @@
       </c>
       <c r="C298" s="5"/>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A299" s="2">
         <v>43709</v>
       </c>
@@ -16787,7 +16798,7 @@
       </c>
       <c r="C299" s="5"/>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A300" s="2">
         <v>43739</v>
       </c>
@@ -16796,7 +16807,7 @@
       </c>
       <c r="C300" s="5"/>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A301" s="2">
         <v>43770</v>
       </c>
@@ -16805,7 +16816,7 @@
       </c>
       <c r="C301" s="5"/>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A302" s="2">
         <v>43800</v>
       </c>
@@ -16814,7 +16825,7 @@
       </c>
       <c r="C302" s="5"/>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A303" s="2">
         <v>43831</v>
       </c>
@@ -16823,7 +16834,7 @@
       </c>
       <c r="C303" s="5"/>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A304" s="2">
         <v>43862</v>
       </c>
@@ -16832,7 +16843,7 @@
       </c>
       <c r="C304" s="5"/>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A305" s="2">
         <v>43891</v>
       </c>
@@ -16841,7 +16852,7 @@
       </c>
       <c r="C305" s="5"/>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A306" s="2">
         <v>43922</v>
       </c>
@@ -16850,7 +16861,7 @@
       </c>
       <c r="C306" s="5"/>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A307" s="2">
         <v>43952</v>
       </c>
@@ -16859,7 +16870,7 @@
       </c>
       <c r="C307" s="5"/>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A308" s="2">
         <v>43983</v>
       </c>
@@ -16868,7 +16879,7 @@
       </c>
       <c r="C308" s="5"/>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A309" s="2">
         <v>44013</v>
       </c>
@@ -16877,7 +16888,7 @@
       </c>
       <c r="C309" s="5"/>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A310" s="2">
         <v>44044</v>
       </c>
@@ -16886,7 +16897,7 @@
       </c>
       <c r="C310" s="5"/>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A311" s="2">
         <v>44075</v>
       </c>
@@ -16895,7 +16906,7 @@
       </c>
       <c r="C311" s="5"/>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A312" s="2">
         <v>44105</v>
       </c>
@@ -16904,7 +16915,7 @@
       </c>
       <c r="C312" s="5"/>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A313" s="2">
         <v>44136</v>
       </c>
@@ -16913,7 +16924,7 @@
       </c>
       <c r="C313" s="5"/>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A314" s="2">
         <v>44166</v>
       </c>
@@ -16922,7 +16933,7 @@
       </c>
       <c r="C314" s="5"/>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A315" s="2">
         <v>44197</v>
       </c>
@@ -16931,7 +16942,7 @@
       </c>
       <c r="C315" s="5"/>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A316" s="2">
         <v>44228</v>
       </c>
@@ -16940,7 +16951,7 @@
       </c>
       <c r="C316" s="5"/>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A317" s="2">
         <v>44256</v>
       </c>
@@ -16949,7 +16960,7 @@
       </c>
       <c r="C317" s="5"/>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A318" s="2">
         <v>44287</v>
       </c>
@@ -16958,7 +16969,7 @@
       </c>
       <c r="C318" s="5"/>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A319" s="2">
         <v>44317</v>
       </c>
@@ -16967,7 +16978,7 @@
       </c>
       <c r="C319" s="5"/>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A320" s="2">
         <v>44348</v>
       </c>
@@ -16976,7 +16987,7 @@
       </c>
       <c r="C320" s="5"/>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A321" s="2">
         <v>44378</v>
       </c>
@@ -16985,7 +16996,7 @@
       </c>
       <c r="C321" s="5"/>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A322" s="2">
         <v>44409</v>
       </c>
@@ -16994,7 +17005,7 @@
       </c>
       <c r="C322" s="5"/>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A323" s="2">
         <v>44440</v>
       </c>
@@ -17003,7 +17014,7 @@
       </c>
       <c r="C323" s="5"/>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A324" s="2">
         <v>44470</v>
       </c>
@@ -17012,7 +17023,7 @@
       </c>
       <c r="C324" s="5"/>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A325" s="2">
         <v>44501</v>
       </c>
@@ -17021,7 +17032,7 @@
       </c>
       <c r="C325" s="5"/>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A326" s="2">
         <v>44531</v>
       </c>
@@ -17030,7 +17041,7 @@
       </c>
       <c r="C326" s="5"/>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A327" s="2">
         <v>44562</v>
       </c>
@@ -17039,7 +17050,7 @@
       </c>
       <c r="C327" s="5"/>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A328" s="2">
         <v>44593</v>
       </c>
@@ -17048,7 +17059,7 @@
       </c>
       <c r="C328" s="5"/>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A329" s="2">
         <v>44621</v>
       </c>
@@ -17057,7 +17068,7 @@
       </c>
       <c r="C329" s="5"/>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A330" s="2">
         <v>44652</v>
       </c>
@@ -17066,7 +17077,7 @@
       </c>
       <c r="C330" s="5"/>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A331" s="2">
         <v>44682</v>
       </c>
@@ -17075,7 +17086,7 @@
       </c>
       <c r="C331" s="5"/>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A332" s="2">
         <v>44713</v>
       </c>
@@ -17084,7 +17095,7 @@
       </c>
       <c r="C332" s="5"/>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A333" s="2">
         <v>44743</v>
       </c>
@@ -17093,7 +17104,7 @@
       </c>
       <c r="C333" s="5"/>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A334" s="2">
         <v>44774</v>
       </c>
@@ -17102,7 +17113,7 @@
       </c>
       <c r="C334" s="5"/>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A335" s="2">
         <v>44805</v>
       </c>
@@ -17111,7 +17122,7 @@
       </c>
       <c r="C335" s="5"/>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A336" s="2">
         <v>44835</v>
       </c>
@@ -17120,7 +17131,7 @@
       </c>
       <c r="C336" s="5"/>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A337" s="2">
         <v>44866</v>
       </c>
@@ -17129,7 +17140,7 @@
       </c>
       <c r="C337" s="5"/>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A338" s="2">
         <v>44896</v>
       </c>
@@ -17138,7 +17149,7 @@
       </c>
       <c r="C338" s="5"/>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A339" s="2">
         <v>44927</v>
       </c>
@@ -17147,7 +17158,7 @@
       </c>
       <c r="C339" s="5"/>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A340" s="2">
         <v>44958</v>
       </c>
@@ -17156,7 +17167,7 @@
       </c>
       <c r="C340" s="5"/>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A341" s="2">
         <v>44986</v>
       </c>
@@ -17165,7 +17176,7 @@
       </c>
       <c r="C341" s="5"/>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A342" s="2">
         <v>45017</v>
       </c>
@@ -17174,7 +17185,7 @@
       </c>
       <c r="C342" s="5"/>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A343" s="2">
         <v>45047</v>
       </c>
@@ -17183,7 +17194,7 @@
       </c>
       <c r="C343" s="5"/>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A344" s="2">
         <v>45078</v>
       </c>
@@ -17192,7 +17203,7 @@
       </c>
       <c r="C344" s="5"/>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A345" s="2">
         <v>45108</v>
       </c>
@@ -17201,7 +17212,7 @@
       </c>
       <c r="C345" s="5"/>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A346" s="2">
         <v>45139</v>
       </c>
@@ -17210,7 +17221,7 @@
       </c>
       <c r="C346" s="5"/>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A347" s="2">
         <v>45170</v>
       </c>
@@ -17219,7 +17230,7 @@
       </c>
       <c r="C347" s="5"/>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A348" s="2">
         <v>45200</v>
       </c>
@@ -17228,7 +17239,7 @@
       </c>
       <c r="C348" s="5"/>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A349" s="2">
         <v>45231</v>
       </c>
@@ -17237,7 +17248,7 @@
       </c>
       <c r="C349" s="5"/>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A350" s="2">
         <v>45261</v>
       </c>
@@ -17246,7 +17257,7 @@
       </c>
       <c r="C350" s="5"/>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A351" s="2">
         <v>45292</v>
       </c>
@@ -17254,7 +17265,7 @@
         <v>8.9115758120277305E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A352" s="2">
         <v>45323</v>
       </c>
@@ -17263,7 +17274,7 @@
       </c>
       <c r="C352" s="5"/>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A353" s="2">
         <v>45352</v>
       </c>
@@ -17272,7 +17283,7 @@
       </c>
       <c r="C353" s="5"/>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A354" s="2">
         <v>45383</v>
       </c>
@@ -17281,7 +17292,7 @@
       </c>
       <c r="C354" s="5"/>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A355" s="2">
         <v>45413</v>
       </c>
@@ -17290,7 +17301,7 @@
       </c>
       <c r="C355" s="5"/>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A356" s="2">
         <v>45444</v>
       </c>
@@ -17298,7 +17309,7 @@
         <v>9.9626160666037494E-2</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A357" s="2">
         <v>45474</v>
       </c>
@@ -17306,7 +17317,7 @@
         <v>9.8254086785083294E-2</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A358" s="2">
         <v>45505</v>
       </c>
@@ -17314,7 +17325,7 @@
         <v>9.9822265355109505E-2</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A359" s="2">
         <v>45536</v>
       </c>
@@ -17322,8 +17333,22 @@
         <v>8.7638597939404303E-2</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A360" s="9"/>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A360" s="2">
+        <v>45566</v>
+      </c>
+      <c r="B360" s="3">
+        <v>8.7543885983804498E-2</v>
+      </c>
+      <c r="C360" s="5"/>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A361" s="2">
+        <v>45597</v>
+      </c>
+      <c r="B361" s="3">
+        <v>9.6474622830165099E-2</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:B2" xr:uid="{00000000-0001-0000-0000-000000000000}">

--- a/Database/Serie de Equity Risk Premium.xlsx
+++ b/Database/Serie de Equity Risk Premium.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bteba\Documents\GitHub\ERP\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FCD9F5-2059-45A1-9756-B6E39BC8E0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B5FE8C-5511-4248-8AFE-7BF7280E3FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15466" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -234,10 +234,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Planilha1!$A$3:$A$378</c:f>
+              <c:f>Planilha1!$A$3:$A$377</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="376"/>
+                <c:ptCount val="375"/>
                 <c:pt idx="0">
                   <c:v>34700</c:v>
                 </c:pt>
@@ -1314,16 +1314,25 @@
                 </c:pt>
                 <c:pt idx="358">
                   <c:v>45597</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>45627</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>45658</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>45689</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$B$3:$B$378</c:f>
+              <c:f>Planilha1!$B$3:$B$377</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="376"/>
+                <c:ptCount val="375"/>
                 <c:pt idx="0">
                   <c:v>3.5906071097335332E-2</c:v>
                 </c:pt>
@@ -2400,6 +2409,15 @@
                 </c:pt>
                 <c:pt idx="358">
                   <c:v>9.6474622830165099E-2</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>9.7281775111367597E-2</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>9.1050724636227903E-2</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>9.5637638893887003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3481,10 +3499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:RX361"/>
+  <dimension ref="A1:RX364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A326" workbookViewId="0">
-      <selection activeCell="C361" sqref="C361"/>
+    <sheetView tabSelected="1" topLeftCell="A327" workbookViewId="0">
+      <selection activeCell="A364" sqref="A364:B364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -17350,6 +17368,30 @@
         <v>9.6474622830165099E-2</v>
       </c>
     </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A362" s="2">
+        <v>45627</v>
+      </c>
+      <c r="B362" s="3">
+        <v>9.7281775111367597E-2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A363" s="2">
+        <v>45658</v>
+      </c>
+      <c r="B363" s="3">
+        <v>9.1050724636227903E-2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A364" s="2">
+        <v>45689</v>
+      </c>
+      <c r="B364" s="3">
+        <v>9.5637638893887003E-2</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:B2" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B348">

--- a/Database/Serie de Equity Risk Premium.xlsx
+++ b/Database/Serie de Equity Risk Premium.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bteba\Documents\GitHub\ERP\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B5FE8C-5511-4248-8AFE-7BF7280E3FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD1A781-3B62-4639-9120-85648B2A5F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15466" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$2:$B$2</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1324,6 +1337,12 @@
                 <c:pt idx="361">
                   <c:v>45689</c:v>
                 </c:pt>
+                <c:pt idx="362">
+                  <c:v>45717</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>45748</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2418,6 +2437,12 @@
                 </c:pt>
                 <c:pt idx="361">
                   <c:v>9.5637638893887003E-2</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>8.6577396608569099E-2</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>8.3840484764512405E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3499,26 +3524,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:RX364"/>
+  <dimension ref="A1:RX366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A327" workbookViewId="0">
-      <selection activeCell="A364" sqref="A364:B364"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.46875" customWidth="1"/>
-    <col min="5" max="5" width="12.46875" customWidth="1"/>
+    <col min="1" max="2" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
     <col min="40" max="40" width="9" customWidth="1"/>
-    <col min="498" max="498" width="9.1171875" customWidth="1"/>
+    <col min="498" max="498" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:492" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -3557,7 +3582,7 @@
       <c r="RM2" s="1"/>
       <c r="RX2" s="1"/>
     </row>
-    <row r="3" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>34700</v>
       </c>
@@ -3595,7 +3620,7 @@
       <c r="RM3" s="1"/>
       <c r="RX3" s="1"/>
     </row>
-    <row r="4" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>34731</v>
       </c>
@@ -3633,7 +3658,7 @@
       <c r="RM4" s="1"/>
       <c r="RX4" s="1"/>
     </row>
-    <row r="5" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>34759</v>
       </c>
@@ -3670,7 +3695,7 @@
       <c r="RM5" s="1"/>
       <c r="RX5" s="1"/>
     </row>
-    <row r="6" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>34790</v>
       </c>
@@ -3705,7 +3730,7 @@
       <c r="RB6" s="1"/>
       <c r="RM6" s="1"/>
     </row>
-    <row r="7" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>34820</v>
       </c>
@@ -3739,7 +3764,7 @@
       <c r="RB7" s="1"/>
       <c r="RM7" s="1"/>
     </row>
-    <row r="8" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>34851</v>
       </c>
@@ -3773,7 +3798,7 @@
       <c r="RB8" s="1"/>
       <c r="RM8" s="1"/>
     </row>
-    <row r="9" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>34881</v>
       </c>
@@ -3797,7 +3822,7 @@
       <c r="RB9" s="1"/>
       <c r="RM9" s="1"/>
     </row>
-    <row r="10" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>34912</v>
       </c>
@@ -3820,7 +3845,7 @@
       <c r="RB10" s="1"/>
       <c r="RM10" s="1"/>
     </row>
-    <row r="11" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>34943</v>
       </c>
@@ -3843,7 +3868,7 @@
       <c r="RB11" s="1"/>
       <c r="RM11" s="1"/>
     </row>
-    <row r="12" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>34973</v>
       </c>
@@ -3865,7 +3890,7 @@
       <c r="RB12" s="1"/>
       <c r="RM12" s="1"/>
     </row>
-    <row r="13" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>35004</v>
       </c>
@@ -3887,7 +3912,7 @@
       <c r="RB13" s="1"/>
       <c r="RM13" s="1"/>
     </row>
-    <row r="14" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>35034</v>
       </c>
@@ -3907,7 +3932,7 @@
       <c r="CP14" s="1"/>
       <c r="OY14" s="1"/>
     </row>
-    <row r="15" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>35065</v>
       </c>
@@ -3927,7 +3952,7 @@
       <c r="CP15" s="1"/>
       <c r="OY15" s="1"/>
     </row>
-    <row r="16" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>35096</v>
       </c>
@@ -3937,7 +3962,7 @@
       <c r="C16" s="5"/>
       <c r="CP16" s="1"/>
     </row>
-    <row r="17" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>35125</v>
       </c>
@@ -3947,7 +3972,7 @@
       <c r="C17" s="5"/>
       <c r="CP17" s="1"/>
     </row>
-    <row r="18" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>35156</v>
       </c>
@@ -3957,7 +3982,7 @@
       <c r="C18" s="5"/>
       <c r="CP18" s="1"/>
     </row>
-    <row r="19" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>35186</v>
       </c>
@@ -3967,7 +3992,7 @@
       <c r="C19" s="5"/>
       <c r="CP19" s="1"/>
     </row>
-    <row r="20" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>35217</v>
       </c>
@@ -3977,7 +4002,7 @@
       <c r="C20" s="5"/>
       <c r="CP20" s="1"/>
     </row>
-    <row r="21" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>35247</v>
       </c>
@@ -3987,7 +4012,7 @@
       <c r="C21" s="5"/>
       <c r="CP21" s="1"/>
     </row>
-    <row r="22" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>35278</v>
       </c>
@@ -3997,7 +4022,7 @@
       <c r="C22" s="5"/>
       <c r="CP22" s="1"/>
     </row>
-    <row r="23" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>35309</v>
       </c>
@@ -4007,7 +4032,7 @@
       <c r="C23" s="5"/>
       <c r="CP23" s="1"/>
     </row>
-    <row r="24" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>35339</v>
       </c>
@@ -4017,7 +4042,7 @@
       <c r="C24" s="5"/>
       <c r="CP24" s="1"/>
     </row>
-    <row r="25" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>35370</v>
       </c>
@@ -4027,7 +4052,7 @@
       <c r="C25" s="5"/>
       <c r="CP25" s="1"/>
     </row>
-    <row r="26" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>35400</v>
       </c>
@@ -4037,7 +4062,7 @@
       <c r="C26" s="5"/>
       <c r="CP26" s="1"/>
     </row>
-    <row r="27" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>35431</v>
       </c>
@@ -4047,7 +4072,7 @@
       <c r="C27" s="5"/>
       <c r="CP27" s="1"/>
     </row>
-    <row r="28" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>35462</v>
       </c>
@@ -4057,7 +4082,7 @@
       <c r="C28" s="5"/>
       <c r="CP28" s="1"/>
     </row>
-    <row r="29" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>35490</v>
       </c>
@@ -4067,7 +4092,7 @@
       <c r="C29" s="5"/>
       <c r="CP29" s="1"/>
     </row>
-    <row r="30" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>35521</v>
       </c>
@@ -4085,7 +4110,7 @@
       <c r="L30" s="8"/>
       <c r="CP30" s="1"/>
     </row>
-    <row r="31" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>35551</v>
       </c>
@@ -4103,7 +4128,7 @@
       <c r="L31" s="8"/>
       <c r="CP31" s="1"/>
     </row>
-    <row r="32" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>35582</v>
       </c>
@@ -4121,7 +4146,7 @@
       <c r="L32" s="8"/>
       <c r="CP32" s="1"/>
     </row>
-    <row r="33" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>35612</v>
       </c>
@@ -4139,7 +4164,7 @@
       <c r="L33" s="8"/>
       <c r="CP33" s="1"/>
     </row>
-    <row r="34" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>35643</v>
       </c>
@@ -4150,7 +4175,7 @@
       <c r="L34" s="8"/>
       <c r="CP34" s="1"/>
     </row>
-    <row r="35" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>35674</v>
       </c>
@@ -4160,7 +4185,7 @@
       <c r="C35" s="5"/>
       <c r="CP35" s="1"/>
     </row>
-    <row r="36" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35704</v>
       </c>
@@ -4170,7 +4195,7 @@
       <c r="C36" s="5"/>
       <c r="CP36" s="1"/>
     </row>
-    <row r="37" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>35735</v>
       </c>
@@ -4180,7 +4205,7 @@
       <c r="C37" s="5"/>
       <c r="CP37" s="1"/>
     </row>
-    <row r="38" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>35765</v>
       </c>
@@ -4190,7 +4215,7 @@
       <c r="C38" s="5"/>
       <c r="CP38" s="1"/>
     </row>
-    <row r="39" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>35796</v>
       </c>
@@ -4200,7 +4225,7 @@
       <c r="C39" s="5"/>
       <c r="CP39" s="1"/>
     </row>
-    <row r="40" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>35827</v>
       </c>
@@ -4210,7 +4235,7 @@
       <c r="C40" s="5"/>
       <c r="CP40" s="1"/>
     </row>
-    <row r="41" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>35855</v>
       </c>
@@ -4220,7 +4245,7 @@
       <c r="C41" s="5"/>
       <c r="CP41" s="1"/>
     </row>
-    <row r="42" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>35886</v>
       </c>
@@ -4230,7 +4255,7 @@
       <c r="C42" s="5"/>
       <c r="CP42" s="1"/>
     </row>
-    <row r="43" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>35916</v>
       </c>
@@ -4240,7 +4265,7 @@
       <c r="C43" s="5"/>
       <c r="CP43" s="1"/>
     </row>
-    <row r="44" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>35947</v>
       </c>
@@ -4250,7 +4275,7 @@
       <c r="C44" s="5"/>
       <c r="CP44" s="1"/>
     </row>
-    <row r="45" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>35977</v>
       </c>
@@ -4260,7 +4285,7 @@
       <c r="C45" s="5"/>
       <c r="CP45" s="1"/>
     </row>
-    <row r="46" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>36008</v>
       </c>
@@ -4270,7 +4295,7 @@
       <c r="C46" s="5"/>
       <c r="CP46" s="1"/>
     </row>
-    <row r="47" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>36039</v>
       </c>
@@ -4280,7 +4305,7 @@
       <c r="C47" s="5"/>
       <c r="CP47" s="1"/>
     </row>
-    <row r="48" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>36069</v>
       </c>
@@ -4290,7 +4315,7 @@
       <c r="C48" s="5"/>
       <c r="CP48" s="1"/>
     </row>
-    <row r="49" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>36100</v>
       </c>
@@ -4300,7 +4325,7 @@
       <c r="C49" s="5"/>
       <c r="CP49" s="1"/>
     </row>
-    <row r="50" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>36130</v>
       </c>
@@ -4310,7 +4335,7 @@
       <c r="C50" s="5"/>
       <c r="CP50" s="1"/>
     </row>
-    <row r="51" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>36161</v>
       </c>
@@ -4321,7 +4346,7 @@
       <c r="D51" s="6"/>
       <c r="CP51" s="1"/>
     </row>
-    <row r="52" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>36192</v>
       </c>
@@ -4332,7 +4357,7 @@
       <c r="D52" s="6"/>
       <c r="CP52" s="1"/>
     </row>
-    <row r="53" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>36220</v>
       </c>
@@ -4343,7 +4368,7 @@
       <c r="D53" s="6"/>
       <c r="CP53" s="1"/>
     </row>
-    <row r="54" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>36251</v>
       </c>
@@ -4354,7 +4379,7 @@
       <c r="D54" s="6"/>
       <c r="CP54" s="1"/>
     </row>
-    <row r="55" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>36281</v>
       </c>
@@ -4365,7 +4390,7 @@
       <c r="D55" s="6"/>
       <c r="CP55" s="1"/>
     </row>
-    <row r="56" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>36312</v>
       </c>
@@ -4376,7 +4401,7 @@
       <c r="D56" s="6"/>
       <c r="CP56" s="1"/>
     </row>
-    <row r="57" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>36342</v>
       </c>
@@ -4387,7 +4412,7 @@
       <c r="D57" s="6"/>
       <c r="CP57" s="1"/>
     </row>
-    <row r="58" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>36373</v>
       </c>
@@ -4398,7 +4423,7 @@
       <c r="D58" s="6"/>
       <c r="CP58" s="1"/>
     </row>
-    <row r="59" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>36404</v>
       </c>
@@ -4409,7 +4434,7 @@
       <c r="D59" s="6"/>
       <c r="CP59" s="1"/>
     </row>
-    <row r="60" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>36434</v>
       </c>
@@ -4420,7 +4445,7 @@
       <c r="D60" s="6"/>
       <c r="CP60" s="1"/>
     </row>
-    <row r="61" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>36465</v>
       </c>
@@ -4431,7 +4456,7 @@
       <c r="D61" s="6"/>
       <c r="CP61" s="1"/>
     </row>
-    <row r="62" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>36495</v>
       </c>
@@ -4442,7 +4467,7 @@
       <c r="D62" s="6"/>
       <c r="CP62" s="1"/>
     </row>
-    <row r="63" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>36526</v>
       </c>
@@ -4453,7 +4478,7 @@
       <c r="D63" s="6"/>
       <c r="CP63" s="1"/>
     </row>
-    <row r="64" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>36557</v>
       </c>
@@ -4464,7 +4489,7 @@
       <c r="D64" s="6"/>
       <c r="CP64" s="1"/>
     </row>
-    <row r="65" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>36586</v>
       </c>
@@ -4476,7 +4501,7 @@
       <c r="E65" s="6"/>
       <c r="CP65" s="1"/>
     </row>
-    <row r="66" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>36617</v>
       </c>
@@ -4488,7 +4513,7 @@
       <c r="E66" s="6"/>
       <c r="CP66" s="1"/>
     </row>
-    <row r="67" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>36647</v>
       </c>
@@ -4500,7 +4525,7 @@
       <c r="E67" s="6"/>
       <c r="CP67" s="1"/>
     </row>
-    <row r="68" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>36678</v>
       </c>
@@ -4512,7 +4537,7 @@
       <c r="E68" s="6"/>
       <c r="CP68" s="1"/>
     </row>
-    <row r="69" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>36708</v>
       </c>
@@ -4523,7 +4548,7 @@
       <c r="E69" s="6"/>
       <c r="CP69" s="1"/>
     </row>
-    <row r="70" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>36739</v>
       </c>
@@ -4534,7 +4559,7 @@
       <c r="E70" s="6"/>
       <c r="CP70" s="1"/>
     </row>
-    <row r="71" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>36770</v>
       </c>
@@ -4545,7 +4570,7 @@
       <c r="E71" s="6"/>
       <c r="CP71" s="1"/>
     </row>
-    <row r="72" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>36800</v>
       </c>
@@ -4556,7 +4581,7 @@
       <c r="E72" s="6"/>
       <c r="CP72" s="1"/>
     </row>
-    <row r="73" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>36831</v>
       </c>
@@ -4567,7 +4592,7 @@
       <c r="E73" s="6"/>
       <c r="CP73" s="1"/>
     </row>
-    <row r="74" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>36861</v>
       </c>
@@ -4578,7 +4603,7 @@
       <c r="E74" s="6"/>
       <c r="CP74" s="1"/>
     </row>
-    <row r="75" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>36892</v>
       </c>
@@ -4589,7 +4614,7 @@
       <c r="E75" s="6"/>
       <c r="CP75" s="1"/>
     </row>
-    <row r="76" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>36923</v>
       </c>
@@ -4600,7 +4625,7 @@
       <c r="E76" s="6"/>
       <c r="CP76" s="1"/>
     </row>
-    <row r="77" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>36951</v>
       </c>
@@ -4611,7 +4636,7 @@
       <c r="E77" s="6"/>
       <c r="CP77" s="1"/>
     </row>
-    <row r="78" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>36982</v>
       </c>
@@ -4622,7 +4647,7 @@
       <c r="E78" s="6"/>
       <c r="CP78" s="1"/>
     </row>
-    <row r="79" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>37012</v>
       </c>
@@ -4633,7 +4658,7 @@
       <c r="E79" s="6"/>
       <c r="CP79" s="1"/>
     </row>
-    <row r="80" spans="1:94" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>37043</v>
       </c>
@@ -4644,7 +4669,7 @@
       <c r="E80" s="6"/>
       <c r="CP80" s="1"/>
     </row>
-    <row r="81" spans="1:206" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>37073</v>
       </c>
@@ -4663,7 +4688,7 @@
       <c r="DJ81" s="1"/>
       <c r="DK81" s="1"/>
     </row>
-    <row r="82" spans="1:206" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>37104</v>
       </c>
@@ -4681,7 +4706,7 @@
       <c r="DJ82" s="1"/>
       <c r="DK82" s="1"/>
     </row>
-    <row r="83" spans="1:206" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>37135</v>
       </c>
@@ -4700,7 +4725,7 @@
       <c r="DK83" s="1"/>
       <c r="FQ83" s="1"/>
     </row>
-    <row r="84" spans="1:206" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>37165</v>
       </c>
@@ -4719,7 +4744,7 @@
       <c r="DK84" s="1"/>
       <c r="FQ84" s="1"/>
     </row>
-    <row r="85" spans="1:206" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>37196</v>
       </c>
@@ -4738,7 +4763,7 @@
       <c r="DK85" s="1"/>
       <c r="FQ85" s="1"/>
     </row>
-    <row r="86" spans="1:206" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>37226</v>
       </c>
@@ -4757,7 +4782,7 @@
       <c r="DK86" s="1"/>
       <c r="FQ86" s="1"/>
     </row>
-    <row r="87" spans="1:206" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>37257</v>
       </c>
@@ -4776,7 +4801,7 @@
       <c r="DK87" s="1"/>
       <c r="FQ87" s="1"/>
     </row>
-    <row r="88" spans="1:206" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>37288</v>
       </c>
@@ -4795,7 +4820,7 @@
       <c r="DK88" s="1"/>
       <c r="FQ88" s="1"/>
     </row>
-    <row r="89" spans="1:206" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>37316</v>
       </c>
@@ -4815,7 +4840,7 @@
       <c r="EJ89" s="1"/>
       <c r="FQ89" s="1"/>
     </row>
-    <row r="90" spans="1:206" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>37347</v>
       </c>
@@ -4835,7 +4860,7 @@
       <c r="EJ90" s="1"/>
       <c r="FQ90" s="1"/>
     </row>
-    <row r="91" spans="1:206" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>37377</v>
       </c>
@@ -4855,7 +4880,7 @@
       <c r="EJ91" s="1"/>
       <c r="FQ91" s="1"/>
     </row>
-    <row r="92" spans="1:206" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>37408</v>
       </c>
@@ -4876,7 +4901,7 @@
       <c r="EU92" s="1"/>
       <c r="FQ92" s="1"/>
     </row>
-    <row r="93" spans="1:206" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>37438</v>
       </c>
@@ -4897,7 +4922,7 @@
       <c r="EU93" s="1"/>
       <c r="FQ93" s="1"/>
     </row>
-    <row r="94" spans="1:206" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>37469</v>
       </c>
@@ -4918,7 +4943,7 @@
       <c r="EU94" s="1"/>
       <c r="FQ94" s="1"/>
     </row>
-    <row r="95" spans="1:206" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>37500</v>
       </c>
@@ -4940,7 +4965,7 @@
       <c r="FQ95" s="1"/>
       <c r="GX95" s="1"/>
     </row>
-    <row r="96" spans="1:206" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>37530</v>
       </c>
@@ -4962,7 +4987,7 @@
       <c r="FQ96" s="1"/>
       <c r="GX96" s="1"/>
     </row>
-    <row r="97" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>37561</v>
       </c>
@@ -4994,7 +5019,7 @@
       <c r="GX97" s="1"/>
       <c r="QQ97" s="1"/>
     </row>
-    <row r="98" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>37591</v>
       </c>
@@ -5026,7 +5051,7 @@
       <c r="GX98" s="1"/>
       <c r="QQ98" s="1"/>
     </row>
-    <row r="99" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>37622</v>
       </c>
@@ -5067,7 +5092,7 @@
       <c r="GX99" s="1"/>
       <c r="QQ99" s="1"/>
     </row>
-    <row r="100" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>37653</v>
       </c>
@@ -5118,7 +5143,7 @@
       <c r="OC100" s="1"/>
       <c r="QQ100" s="1"/>
     </row>
-    <row r="101" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>37681</v>
       </c>
@@ -5170,7 +5195,7 @@
       <c r="OC101" s="1"/>
       <c r="QQ101" s="1"/>
     </row>
-    <row r="102" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>37712</v>
       </c>
@@ -5222,7 +5247,7 @@
       <c r="OC102" s="1"/>
       <c r="QQ102" s="1"/>
     </row>
-    <row r="103" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>37742</v>
       </c>
@@ -5275,7 +5300,7 @@
       <c r="OC103" s="1"/>
       <c r="QQ103" s="1"/>
     </row>
-    <row r="104" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>37773</v>
       </c>
@@ -5329,7 +5354,7 @@
       <c r="OC104" s="1"/>
       <c r="QQ104" s="1"/>
     </row>
-    <row r="105" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>37803</v>
       </c>
@@ -5383,7 +5408,7 @@
       <c r="OC105" s="1"/>
       <c r="QQ105" s="1"/>
     </row>
-    <row r="106" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>37834</v>
       </c>
@@ -5438,7 +5463,7 @@
       <c r="OC106" s="1"/>
       <c r="QQ106" s="1"/>
     </row>
-    <row r="107" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>37865</v>
       </c>
@@ -5497,7 +5522,7 @@
       <c r="QQ107" s="1"/>
       <c r="RX107" s="1"/>
     </row>
-    <row r="108" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>37895</v>
       </c>
@@ -5556,7 +5581,7 @@
       <c r="QQ108" s="1"/>
       <c r="RX108" s="1"/>
     </row>
-    <row r="109" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>37926</v>
       </c>
@@ -5617,7 +5642,7 @@
       <c r="QQ109" s="1"/>
       <c r="RX109" s="1"/>
     </row>
-    <row r="110" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>37956</v>
       </c>
@@ -5680,7 +5705,7 @@
       <c r="QQ110" s="1"/>
       <c r="RX110" s="1"/>
     </row>
-    <row r="111" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>37987</v>
       </c>
@@ -5743,7 +5768,7 @@
       <c r="QQ111" s="1"/>
       <c r="RX111" s="1"/>
     </row>
-    <row r="112" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>38018</v>
       </c>
@@ -5806,7 +5831,7 @@
       <c r="QQ112" s="1"/>
       <c r="RX112" s="1"/>
     </row>
-    <row r="113" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>38047</v>
       </c>
@@ -5871,7 +5896,7 @@
       <c r="QQ113" s="1"/>
       <c r="RX113" s="1"/>
     </row>
-    <row r="114" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>38078</v>
       </c>
@@ -5937,7 +5962,7 @@
       <c r="QQ114" s="1"/>
       <c r="RX114" s="1"/>
     </row>
-    <row r="115" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>38108</v>
       </c>
@@ -6014,7 +6039,7 @@
       <c r="QQ115" s="1"/>
       <c r="RX115" s="1"/>
     </row>
-    <row r="116" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>38139</v>
       </c>
@@ -6102,7 +6127,7 @@
       <c r="QQ116" s="1"/>
       <c r="RX116" s="1"/>
     </row>
-    <row r="117" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>38169</v>
       </c>
@@ -6192,7 +6217,7 @@
       <c r="QQ117" s="1"/>
       <c r="RX117" s="1"/>
     </row>
-    <row r="118" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>38200</v>
       </c>
@@ -6282,7 +6307,7 @@
       <c r="QQ118" s="1"/>
       <c r="RX118" s="1"/>
     </row>
-    <row r="119" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>38231</v>
       </c>
@@ -6372,7 +6397,7 @@
       <c r="QQ119" s="1"/>
       <c r="RX119" s="1"/>
     </row>
-    <row r="120" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>38261</v>
       </c>
@@ -6462,7 +6487,7 @@
       <c r="QQ120" s="1"/>
       <c r="RX120" s="1"/>
     </row>
-    <row r="121" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>38292</v>
       </c>
@@ -6553,7 +6578,7 @@
       <c r="QQ121" s="1"/>
       <c r="RX121" s="1"/>
     </row>
-    <row r="122" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>38322</v>
       </c>
@@ -6644,7 +6669,7 @@
       <c r="QQ122" s="1"/>
       <c r="RX122" s="1"/>
     </row>
-    <row r="123" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>38353</v>
       </c>
@@ -6735,7 +6760,7 @@
       <c r="QQ123" s="1"/>
       <c r="RX123" s="1"/>
     </row>
-    <row r="124" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>38384</v>
       </c>
@@ -6828,7 +6853,7 @@
       <c r="QQ124" s="1"/>
       <c r="RX124" s="1"/>
     </row>
-    <row r="125" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>38412</v>
       </c>
@@ -6921,7 +6946,7 @@
       <c r="QQ125" s="1"/>
       <c r="RX125" s="1"/>
     </row>
-    <row r="126" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>38443</v>
       </c>
@@ -7014,7 +7039,7 @@
       <c r="QQ126" s="1"/>
       <c r="RX126" s="1"/>
     </row>
-    <row r="127" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>38473</v>
       </c>
@@ -7108,7 +7133,7 @@
       <c r="RM127" s="1"/>
       <c r="RX127" s="1"/>
     </row>
-    <row r="128" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>38504</v>
       </c>
@@ -7203,7 +7228,7 @@
       <c r="RM128" s="1"/>
       <c r="RX128" s="1"/>
     </row>
-    <row r="129" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>38534</v>
       </c>
@@ -7298,7 +7323,7 @@
       <c r="RM129" s="1"/>
       <c r="RX129" s="1"/>
     </row>
-    <row r="130" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>38565</v>
       </c>
@@ -7393,7 +7418,7 @@
       <c r="RM130" s="1"/>
       <c r="RX130" s="1"/>
     </row>
-    <row r="131" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>38596</v>
       </c>
@@ -7488,7 +7513,7 @@
       <c r="RM131" s="1"/>
       <c r="RX131" s="1"/>
     </row>
-    <row r="132" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>38626</v>
       </c>
@@ -7583,7 +7608,7 @@
       <c r="RM132" s="1"/>
       <c r="RX132" s="1"/>
     </row>
-    <row r="133" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>38657</v>
       </c>
@@ -7678,7 +7703,7 @@
       <c r="RM133" s="1"/>
       <c r="RX133" s="1"/>
     </row>
-    <row r="134" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>38687</v>
       </c>
@@ -7773,7 +7798,7 @@
       <c r="RM134" s="1"/>
       <c r="RX134" s="1"/>
     </row>
-    <row r="135" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>38718</v>
       </c>
@@ -7868,7 +7893,7 @@
       <c r="RM135" s="1"/>
       <c r="RX135" s="1"/>
     </row>
-    <row r="136" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>38749</v>
       </c>
@@ -7963,7 +7988,7 @@
       <c r="RM136" s="1"/>
       <c r="RX136" s="1"/>
     </row>
-    <row r="137" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>38777</v>
       </c>
@@ -8058,7 +8083,7 @@
       <c r="RM137" s="1"/>
       <c r="RX137" s="1"/>
     </row>
-    <row r="138" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>38808</v>
       </c>
@@ -8153,7 +8178,7 @@
       <c r="RM138" s="1"/>
       <c r="RX138" s="1"/>
     </row>
-    <row r="139" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>38838</v>
       </c>
@@ -8248,7 +8273,7 @@
       <c r="RM139" s="1"/>
       <c r="RX139" s="1"/>
     </row>
-    <row r="140" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>38869</v>
       </c>
@@ -8343,7 +8368,7 @@
       <c r="RM140" s="1"/>
       <c r="RX140" s="1"/>
     </row>
-    <row r="141" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>38899</v>
       </c>
@@ -8438,7 +8463,7 @@
       <c r="RM141" s="1"/>
       <c r="RX141" s="1"/>
     </row>
-    <row r="142" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>38930</v>
       </c>
@@ -8533,7 +8558,7 @@
       <c r="RM142" s="1"/>
       <c r="RX142" s="1"/>
     </row>
-    <row r="143" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>38961</v>
       </c>
@@ -8628,7 +8653,7 @@
       <c r="RM143" s="1"/>
       <c r="RX143" s="1"/>
     </row>
-    <row r="144" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>38991</v>
       </c>
@@ -8723,7 +8748,7 @@
       <c r="RM144" s="1"/>
       <c r="RX144" s="1"/>
     </row>
-    <row r="145" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>39022</v>
       </c>
@@ -8818,7 +8843,7 @@
       <c r="RM145" s="1"/>
       <c r="RX145" s="1"/>
     </row>
-    <row r="146" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>39052</v>
       </c>
@@ -8913,7 +8938,7 @@
       <c r="RM146" s="1"/>
       <c r="RX146" s="1"/>
     </row>
-    <row r="147" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>39083</v>
       </c>
@@ -9008,7 +9033,7 @@
       <c r="RM147" s="1"/>
       <c r="RX147" s="1"/>
     </row>
-    <row r="148" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>39114</v>
       </c>
@@ -9103,7 +9128,7 @@
       <c r="RM148" s="1"/>
       <c r="RX148" s="1"/>
     </row>
-    <row r="149" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>39142</v>
       </c>
@@ -9198,7 +9223,7 @@
       <c r="RM149" s="1"/>
       <c r="RX149" s="1"/>
     </row>
-    <row r="150" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>39173</v>
       </c>
@@ -9293,7 +9318,7 @@
       <c r="RM150" s="1"/>
       <c r="RX150" s="1"/>
     </row>
-    <row r="151" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>39203</v>
       </c>
@@ -9388,7 +9413,7 @@
       <c r="RM151" s="1"/>
       <c r="RX151" s="1"/>
     </row>
-    <row r="152" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>39234</v>
       </c>
@@ -9483,7 +9508,7 @@
       <c r="RM152" s="1"/>
       <c r="RX152" s="1"/>
     </row>
-    <row r="153" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>39264</v>
       </c>
@@ -9578,7 +9603,7 @@
       <c r="RM153" s="1"/>
       <c r="RX153" s="1"/>
     </row>
-    <row r="154" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>39295</v>
       </c>
@@ -9673,7 +9698,7 @@
       <c r="RM154" s="1"/>
       <c r="RX154" s="1"/>
     </row>
-    <row r="155" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="155" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>39326</v>
       </c>
@@ -9768,7 +9793,7 @@
       <c r="RM155" s="1"/>
       <c r="RX155" s="1"/>
     </row>
-    <row r="156" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="156" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>39356</v>
       </c>
@@ -9863,7 +9888,7 @@
       <c r="RM156" s="1"/>
       <c r="RX156" s="1"/>
     </row>
-    <row r="157" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>39387</v>
       </c>
@@ -9958,7 +9983,7 @@
       <c r="RM157" s="1"/>
       <c r="RX157" s="1"/>
     </row>
-    <row r="158" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="158" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>39417</v>
       </c>
@@ -10053,7 +10078,7 @@
       <c r="RM158" s="1"/>
       <c r="RX158" s="1"/>
     </row>
-    <row r="159" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>39448</v>
       </c>
@@ -10148,7 +10173,7 @@
       <c r="RM159" s="1"/>
       <c r="RX159" s="1"/>
     </row>
-    <row r="160" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>39479</v>
       </c>
@@ -10243,7 +10268,7 @@
       <c r="RM160" s="1"/>
       <c r="RX160" s="1"/>
     </row>
-    <row r="161" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="161" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>39508</v>
       </c>
@@ -10338,7 +10363,7 @@
       <c r="RM161" s="1"/>
       <c r="RX161" s="1"/>
     </row>
-    <row r="162" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="162" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>39539</v>
       </c>
@@ -10433,7 +10458,7 @@
       <c r="RM162" s="1"/>
       <c r="RX162" s="1"/>
     </row>
-    <row r="163" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="163" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>39569</v>
       </c>
@@ -10528,7 +10553,7 @@
       <c r="RM163" s="1"/>
       <c r="RX163" s="1"/>
     </row>
-    <row r="164" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="164" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>39600</v>
       </c>
@@ -10623,7 +10648,7 @@
       <c r="RM164" s="1"/>
       <c r="RX164" s="1"/>
     </row>
-    <row r="165" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="165" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>39630</v>
       </c>
@@ -10718,7 +10743,7 @@
       <c r="RM165" s="1"/>
       <c r="RX165" s="1"/>
     </row>
-    <row r="166" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="166" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>39661</v>
       </c>
@@ -10813,7 +10838,7 @@
       <c r="RM166" s="1"/>
       <c r="RX166" s="1"/>
     </row>
-    <row r="167" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="167" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>39692</v>
       </c>
@@ -10908,7 +10933,7 @@
       <c r="RM167" s="1"/>
       <c r="RX167" s="1"/>
     </row>
-    <row r="168" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="168" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>39722</v>
       </c>
@@ -11003,7 +11028,7 @@
       <c r="RM168" s="1"/>
       <c r="RX168" s="1"/>
     </row>
-    <row r="169" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="169" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>39753</v>
       </c>
@@ -11098,7 +11123,7 @@
       <c r="RM169" s="1"/>
       <c r="RX169" s="1"/>
     </row>
-    <row r="170" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="170" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>39783</v>
       </c>
@@ -11193,7 +11218,7 @@
       <c r="RM170" s="1"/>
       <c r="RX170" s="1"/>
     </row>
-    <row r="171" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="171" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>39814</v>
       </c>
@@ -11288,7 +11313,7 @@
       <c r="RM171" s="1"/>
       <c r="RX171" s="1"/>
     </row>
-    <row r="172" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="172" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>39845</v>
       </c>
@@ -11383,7 +11408,7 @@
       <c r="RM172" s="1"/>
       <c r="RX172" s="1"/>
     </row>
-    <row r="173" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="173" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>39873</v>
       </c>
@@ -11478,7 +11503,7 @@
       <c r="RM173" s="1"/>
       <c r="RX173" s="1"/>
     </row>
-    <row r="174" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="174" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>39904</v>
       </c>
@@ -11573,7 +11598,7 @@
       <c r="RM174" s="1"/>
       <c r="RX174" s="1"/>
     </row>
-    <row r="175" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="175" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>39934</v>
       </c>
@@ -11668,7 +11693,7 @@
       <c r="RM175" s="1"/>
       <c r="RX175" s="1"/>
     </row>
-    <row r="176" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>39965</v>
       </c>
@@ -11763,7 +11788,7 @@
       <c r="RM176" s="1"/>
       <c r="RX176" s="1"/>
     </row>
-    <row r="177" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="177" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>39995</v>
       </c>
@@ -11858,7 +11883,7 @@
       <c r="RM177" s="1"/>
       <c r="RX177" s="1"/>
     </row>
-    <row r="178" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="178" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>40026</v>
       </c>
@@ -11953,7 +11978,7 @@
       <c r="RM178" s="1"/>
       <c r="RX178" s="1"/>
     </row>
-    <row r="179" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="179" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>40057</v>
       </c>
@@ -12048,7 +12073,7 @@
       <c r="RM179" s="1"/>
       <c r="RX179" s="1"/>
     </row>
-    <row r="180" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="180" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>40087</v>
       </c>
@@ -12143,7 +12168,7 @@
       <c r="RM180" s="1"/>
       <c r="RX180" s="1"/>
     </row>
-    <row r="181" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="181" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>40118</v>
       </c>
@@ -12238,7 +12263,7 @@
       <c r="RM181" s="1"/>
       <c r="RX181" s="1"/>
     </row>
-    <row r="182" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="182" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>40148</v>
       </c>
@@ -12333,7 +12358,7 @@
       <c r="RM182" s="1"/>
       <c r="RX182" s="1"/>
     </row>
-    <row r="183" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="183" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>40179</v>
       </c>
@@ -12428,7 +12453,7 @@
       <c r="RM183" s="1"/>
       <c r="RX183" s="1"/>
     </row>
-    <row r="184" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="184" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>40210</v>
       </c>
@@ -12523,7 +12548,7 @@
       <c r="RM184" s="1"/>
       <c r="RX184" s="1"/>
     </row>
-    <row r="185" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="185" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>40238</v>
       </c>
@@ -12618,7 +12643,7 @@
       <c r="RM185" s="1"/>
       <c r="RX185" s="1"/>
     </row>
-    <row r="186" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="186" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>40269</v>
       </c>
@@ -12713,7 +12738,7 @@
       <c r="RM186" s="1"/>
       <c r="RX186" s="1"/>
     </row>
-    <row r="187" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="187" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>40299</v>
       </c>
@@ -12808,7 +12833,7 @@
       <c r="RM187" s="1"/>
       <c r="RX187" s="1"/>
     </row>
-    <row r="188" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="188" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>40330</v>
       </c>
@@ -12903,7 +12928,7 @@
       <c r="RM188" s="1"/>
       <c r="RX188" s="1"/>
     </row>
-    <row r="189" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="189" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>40360</v>
       </c>
@@ -12998,7 +13023,7 @@
       <c r="RM189" s="1"/>
       <c r="RX189" s="1"/>
     </row>
-    <row r="190" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="190" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>40391</v>
       </c>
@@ -13093,7 +13118,7 @@
       <c r="RM190" s="1"/>
       <c r="RX190" s="1"/>
     </row>
-    <row r="191" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="191" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>40422</v>
       </c>
@@ -13188,7 +13213,7 @@
       <c r="RM191" s="1"/>
       <c r="RX191" s="1"/>
     </row>
-    <row r="192" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>40452</v>
       </c>
@@ -13283,7 +13308,7 @@
       <c r="RM192" s="1"/>
       <c r="RX192" s="1"/>
     </row>
-    <row r="193" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="193" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>40483</v>
       </c>
@@ -13378,7 +13403,7 @@
       <c r="RM193" s="1"/>
       <c r="RX193" s="1"/>
     </row>
-    <row r="194" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>40513</v>
       </c>
@@ -13473,7 +13498,7 @@
       <c r="RM194" s="1"/>
       <c r="RX194" s="1"/>
     </row>
-    <row r="195" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="195" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>40544</v>
       </c>
@@ -13568,7 +13593,7 @@
       <c r="RM195" s="1"/>
       <c r="RX195" s="1"/>
     </row>
-    <row r="196" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="196" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>40575</v>
       </c>
@@ -13663,7 +13688,7 @@
       <c r="RM196" s="1"/>
       <c r="RX196" s="1"/>
     </row>
-    <row r="197" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="197" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>40603</v>
       </c>
@@ -13758,7 +13783,7 @@
       <c r="RM197" s="1"/>
       <c r="RX197" s="1"/>
     </row>
-    <row r="198" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>40634</v>
       </c>
@@ -13853,7 +13878,7 @@
       <c r="RM198" s="1"/>
       <c r="RX198" s="1"/>
     </row>
-    <row r="199" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="199" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>40664</v>
       </c>
@@ -13948,7 +13973,7 @@
       <c r="RM199" s="1"/>
       <c r="RX199" s="1"/>
     </row>
-    <row r="200" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="200" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>40695</v>
       </c>
@@ -14043,7 +14068,7 @@
       <c r="RM200" s="1"/>
       <c r="RX200" s="1"/>
     </row>
-    <row r="201" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="201" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>40725</v>
       </c>
@@ -14138,7 +14163,7 @@
       <c r="RM201" s="1"/>
       <c r="RX201" s="1"/>
     </row>
-    <row r="202" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="202" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>40756</v>
       </c>
@@ -14233,7 +14258,7 @@
       <c r="RM202" s="1"/>
       <c r="RX202" s="1"/>
     </row>
-    <row r="203" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="203" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>40787</v>
       </c>
@@ -14328,7 +14353,7 @@
       <c r="RM203" s="1"/>
       <c r="RX203" s="1"/>
     </row>
-    <row r="204" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="204" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>40817</v>
       </c>
@@ -14423,7 +14448,7 @@
       <c r="RM204" s="1"/>
       <c r="RX204" s="1"/>
     </row>
-    <row r="205" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="205" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>40848</v>
       </c>
@@ -14518,7 +14543,7 @@
       <c r="RM205" s="1"/>
       <c r="RX205" s="1"/>
     </row>
-    <row r="206" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="206" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>40878</v>
       </c>
@@ -14614,7 +14639,7 @@
       <c r="RM206" s="1"/>
       <c r="RX206" s="1"/>
     </row>
-    <row r="207" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="207" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>40909</v>
       </c>
@@ -14710,7 +14735,7 @@
       <c r="RM207" s="1"/>
       <c r="RX207" s="1"/>
     </row>
-    <row r="208" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="208" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>40940</v>
       </c>
@@ -14809,7 +14834,7 @@
       <c r="RM208" s="1"/>
       <c r="RX208" s="1"/>
     </row>
-    <row r="209" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="209" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>40969</v>
       </c>
@@ -14905,7 +14930,7 @@
       <c r="RM209" s="1"/>
       <c r="RX209" s="1"/>
     </row>
-    <row r="210" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="210" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>41000</v>
       </c>
@@ -15004,7 +15029,7 @@
       <c r="RM210" s="1"/>
       <c r="RX210" s="1"/>
     </row>
-    <row r="211" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="211" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>41030</v>
       </c>
@@ -15099,7 +15124,7 @@
       <c r="RM211" s="1"/>
       <c r="RX211" s="1"/>
     </row>
-    <row r="212" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="212" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>41061</v>
       </c>
@@ -15195,7 +15220,7 @@
       <c r="RM212" s="1"/>
       <c r="RX212" s="1"/>
     </row>
-    <row r="213" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="213" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>41091</v>
       </c>
@@ -15290,7 +15315,7 @@
       <c r="RM213" s="1"/>
       <c r="RX213" s="1"/>
     </row>
-    <row r="214" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="214" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>41122</v>
       </c>
@@ -15385,7 +15410,7 @@
       <c r="RM214" s="1"/>
       <c r="RX214" s="1"/>
     </row>
-    <row r="215" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>41153</v>
       </c>
@@ -15480,7 +15505,7 @@
       <c r="RM215" s="1"/>
       <c r="RX215" s="1"/>
     </row>
-    <row r="216" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>41183</v>
       </c>
@@ -15576,7 +15601,7 @@
       <c r="RM216" s="1"/>
       <c r="RX216" s="1"/>
     </row>
-    <row r="217" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>41214</v>
       </c>
@@ -15671,7 +15696,7 @@
       <c r="RM217" s="1"/>
       <c r="RX217" s="1"/>
     </row>
-    <row r="218" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>41244</v>
       </c>
@@ -15766,7 +15791,7 @@
       <c r="RM218" s="1"/>
       <c r="RX218" s="1"/>
     </row>
-    <row r="219" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>41275</v>
       </c>
@@ -15861,7 +15886,7 @@
       <c r="RM219" s="1"/>
       <c r="RX219" s="1"/>
     </row>
-    <row r="220" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>41306</v>
       </c>
@@ -15956,7 +15981,7 @@
       <c r="RM220" s="1"/>
       <c r="RX220" s="1"/>
     </row>
-    <row r="221" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>41334</v>
       </c>
@@ -16054,7 +16079,7 @@
       <c r="RM221" s="1"/>
       <c r="RX221" s="1"/>
     </row>
-    <row r="222" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>41365</v>
       </c>
@@ -16073,7 +16098,7 @@
       <c r="QC222" s="1"/>
       <c r="QD222" s="1"/>
     </row>
-    <row r="223" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>41395</v>
       </c>
@@ -16092,7 +16117,7 @@
       <c r="QC223" s="1"/>
       <c r="QD223" s="1"/>
     </row>
-    <row r="224" spans="1:492" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:492" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>41426</v>
       </c>
@@ -16111,7 +16136,7 @@
       <c r="QC224" s="1"/>
       <c r="QD224" s="1"/>
     </row>
-    <row r="225" spans="1:446" x14ac:dyDescent="0.5">
+    <row r="225" spans="1:446" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>41456</v>
       </c>
@@ -16130,7 +16155,7 @@
       <c r="QC225" s="1"/>
       <c r="QD225" s="1"/>
     </row>
-    <row r="226" spans="1:446" x14ac:dyDescent="0.5">
+    <row r="226" spans="1:446" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>41487</v>
       </c>
@@ -16149,7 +16174,7 @@
       <c r="QC226" s="1"/>
       <c r="QD226" s="1"/>
     </row>
-    <row r="227" spans="1:446" x14ac:dyDescent="0.5">
+    <row r="227" spans="1:446" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>41518</v>
       </c>
@@ -16168,7 +16193,7 @@
       <c r="QC227" s="1"/>
       <c r="QD227" s="1"/>
     </row>
-    <row r="228" spans="1:446" x14ac:dyDescent="0.5">
+    <row r="228" spans="1:446" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>41548</v>
       </c>
@@ -16177,7 +16202,7 @@
       </c>
       <c r="C228" s="5"/>
     </row>
-    <row r="229" spans="1:446" x14ac:dyDescent="0.5">
+    <row r="229" spans="1:446" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>41579</v>
       </c>
@@ -16186,7 +16211,7 @@
       </c>
       <c r="C229" s="5"/>
     </row>
-    <row r="230" spans="1:446" x14ac:dyDescent="0.5">
+    <row r="230" spans="1:446" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>41609</v>
       </c>
@@ -16195,7 +16220,7 @@
       </c>
       <c r="C230" s="5"/>
     </row>
-    <row r="231" spans="1:446" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:446" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>41640</v>
       </c>
@@ -16204,7 +16229,7 @@
       </c>
       <c r="C231" s="5"/>
     </row>
-    <row r="232" spans="1:446" x14ac:dyDescent="0.5">
+    <row r="232" spans="1:446" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>41671</v>
       </c>
@@ -16213,7 +16238,7 @@
       </c>
       <c r="C232" s="5"/>
     </row>
-    <row r="233" spans="1:446" x14ac:dyDescent="0.5">
+    <row r="233" spans="1:446" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>41699</v>
       </c>
@@ -16222,7 +16247,7 @@
       </c>
       <c r="C233" s="5"/>
     </row>
-    <row r="234" spans="1:446" x14ac:dyDescent="0.5">
+    <row r="234" spans="1:446" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>41730</v>
       </c>
@@ -16231,7 +16256,7 @@
       </c>
       <c r="C234" s="5"/>
     </row>
-    <row r="235" spans="1:446" x14ac:dyDescent="0.5">
+    <row r="235" spans="1:446" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>41760</v>
       </c>
@@ -16240,7 +16265,7 @@
       </c>
       <c r="C235" s="5"/>
     </row>
-    <row r="236" spans="1:446" x14ac:dyDescent="0.5">
+    <row r="236" spans="1:446" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>41791</v>
       </c>
@@ -16249,7 +16274,7 @@
       </c>
       <c r="C236" s="5"/>
     </row>
-    <row r="237" spans="1:446" x14ac:dyDescent="0.5">
+    <row r="237" spans="1:446" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>41821</v>
       </c>
@@ -16258,7 +16283,7 @@
       </c>
       <c r="C237" s="5"/>
     </row>
-    <row r="238" spans="1:446" x14ac:dyDescent="0.5">
+    <row r="238" spans="1:446" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>41852</v>
       </c>
@@ -16267,7 +16292,7 @@
       </c>
       <c r="C238" s="5"/>
     </row>
-    <row r="239" spans="1:446" x14ac:dyDescent="0.5">
+    <row r="239" spans="1:446" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>41883</v>
       </c>
@@ -16276,7 +16301,7 @@
       </c>
       <c r="C239" s="5"/>
     </row>
-    <row r="240" spans="1:446" x14ac:dyDescent="0.5">
+    <row r="240" spans="1:446" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>41913</v>
       </c>
@@ -16285,7 +16310,7 @@
       </c>
       <c r="C240" s="5"/>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>41944</v>
       </c>
@@ -16294,7 +16319,7 @@
       </c>
       <c r="C241" s="5"/>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>41974</v>
       </c>
@@ -16303,7 +16328,7 @@
       </c>
       <c r="C242" s="5"/>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>42005</v>
       </c>
@@ -16312,7 +16337,7 @@
       </c>
       <c r="C243" s="5"/>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>42036</v>
       </c>
@@ -16321,7 +16346,7 @@
       </c>
       <c r="C244" s="5"/>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>42064</v>
       </c>
@@ -16330,7 +16355,7 @@
       </c>
       <c r="C245" s="5"/>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>42095</v>
       </c>
@@ -16339,7 +16364,7 @@
       </c>
       <c r="C246" s="5"/>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>42125</v>
       </c>
@@ -16348,7 +16373,7 @@
       </c>
       <c r="C247" s="5"/>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>42156</v>
       </c>
@@ -16357,7 +16382,7 @@
       </c>
       <c r="C248" s="5"/>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>42186</v>
       </c>
@@ -16366,7 +16391,7 @@
       </c>
       <c r="C249" s="5"/>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>42217</v>
       </c>
@@ -16375,7 +16400,7 @@
       </c>
       <c r="C250" s="5"/>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>42248</v>
       </c>
@@ -16384,7 +16409,7 @@
       </c>
       <c r="C251" s="5"/>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>42278</v>
       </c>
@@ -16393,7 +16418,7 @@
       </c>
       <c r="C252" s="5"/>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>42309</v>
       </c>
@@ -16402,7 +16427,7 @@
       </c>
       <c r="C253" s="5"/>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>42339</v>
       </c>
@@ -16411,7 +16436,7 @@
       </c>
       <c r="C254" s="5"/>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>42370</v>
       </c>
@@ -16420,7 +16445,7 @@
       </c>
       <c r="C255" s="5"/>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>42401</v>
       </c>
@@ -16429,7 +16454,7 @@
       </c>
       <c r="C256" s="5"/>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>42430</v>
       </c>
@@ -16438,7 +16463,7 @@
       </c>
       <c r="C257" s="5"/>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>42461</v>
       </c>
@@ -16447,7 +16472,7 @@
       </c>
       <c r="C258" s="5"/>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>42491</v>
       </c>
@@ -16456,7 +16481,7 @@
       </c>
       <c r="C259" s="5"/>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>42522</v>
       </c>
@@ -16465,7 +16490,7 @@
       </c>
       <c r="C260" s="5"/>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>42552</v>
       </c>
@@ -16474,7 +16499,7 @@
       </c>
       <c r="C261" s="5"/>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>42583</v>
       </c>
@@ -16483,7 +16508,7 @@
       </c>
       <c r="C262" s="5"/>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>42614</v>
       </c>
@@ -16492,7 +16517,7 @@
       </c>
       <c r="C263" s="5"/>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>42644</v>
       </c>
@@ -16501,7 +16526,7 @@
       </c>
       <c r="C264" s="5"/>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>42675</v>
       </c>
@@ -16510,7 +16535,7 @@
       </c>
       <c r="C265" s="5"/>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>42705</v>
       </c>
@@ -16519,7 +16544,7 @@
       </c>
       <c r="C266" s="5"/>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>42736</v>
       </c>
@@ -16528,7 +16553,7 @@
       </c>
       <c r="C267" s="5"/>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>42767</v>
       </c>
@@ -16537,7 +16562,7 @@
       </c>
       <c r="C268" s="5"/>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>42795</v>
       </c>
@@ -16546,7 +16571,7 @@
       </c>
       <c r="C269" s="5"/>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>42826</v>
       </c>
@@ -16555,7 +16580,7 @@
       </c>
       <c r="C270" s="5"/>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>42856</v>
       </c>
@@ -16564,7 +16589,7 @@
       </c>
       <c r="C271" s="5"/>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>42887</v>
       </c>
@@ -16573,7 +16598,7 @@
       </c>
       <c r="C272" s="5"/>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>42917</v>
       </c>
@@ -16582,7 +16607,7 @@
       </c>
       <c r="C273" s="5"/>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>42948</v>
       </c>
@@ -16591,7 +16616,7 @@
       </c>
       <c r="C274" s="5"/>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>42979</v>
       </c>
@@ -16600,7 +16625,7 @@
       </c>
       <c r="C275" s="5"/>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>43009</v>
       </c>
@@ -16609,7 +16634,7 @@
       </c>
       <c r="C276" s="5"/>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>43040</v>
       </c>
@@ -16618,7 +16643,7 @@
       </c>
       <c r="C277" s="5"/>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>43070</v>
       </c>
@@ -16627,7 +16652,7 @@
       </c>
       <c r="C278" s="5"/>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>43101</v>
       </c>
@@ -16636,7 +16661,7 @@
       </c>
       <c r="C279" s="5"/>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>43132</v>
       </c>
@@ -16645,7 +16670,7 @@
       </c>
       <c r="C280" s="5"/>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>43160</v>
       </c>
@@ -16654,7 +16679,7 @@
       </c>
       <c r="C281" s="5"/>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>43191</v>
       </c>
@@ -16663,7 +16688,7 @@
       </c>
       <c r="C282" s="5"/>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>43221</v>
       </c>
@@ -16672,7 +16697,7 @@
       </c>
       <c r="C283" s="5"/>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>43252</v>
       </c>
@@ -16681,7 +16706,7 @@
       </c>
       <c r="C284" s="5"/>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>43282</v>
       </c>
@@ -16690,7 +16715,7 @@
       </c>
       <c r="C285" s="5"/>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>43313</v>
       </c>
@@ -16699,7 +16724,7 @@
       </c>
       <c r="C286" s="5"/>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>43344</v>
       </c>
@@ -16708,7 +16733,7 @@
       </c>
       <c r="C287" s="5"/>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>43374</v>
       </c>
@@ -16717,7 +16742,7 @@
       </c>
       <c r="C288" s="5"/>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>43405</v>
       </c>
@@ -16726,7 +16751,7 @@
       </c>
       <c r="C289" s="5"/>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>43435</v>
       </c>
@@ -16735,7 +16760,7 @@
       </c>
       <c r="C290" s="5"/>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>43466</v>
       </c>
@@ -16744,7 +16769,7 @@
       </c>
       <c r="C291" s="5"/>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>43497</v>
       </c>
@@ -16753,7 +16778,7 @@
       </c>
       <c r="C292" s="5"/>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>43525</v>
       </c>
@@ -16762,7 +16787,7 @@
       </c>
       <c r="C293" s="5"/>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>43556</v>
       </c>
@@ -16771,7 +16796,7 @@
       </c>
       <c r="C294" s="5"/>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>43586</v>
       </c>
@@ -16780,7 +16805,7 @@
       </c>
       <c r="C295" s="5"/>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>43617</v>
       </c>
@@ -16789,7 +16814,7 @@
       </c>
       <c r="C296" s="5"/>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>43647</v>
       </c>
@@ -16798,7 +16823,7 @@
       </c>
       <c r="C297" s="5"/>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>43678</v>
       </c>
@@ -16807,7 +16832,7 @@
       </c>
       <c r="C298" s="5"/>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>43709</v>
       </c>
@@ -16816,7 +16841,7 @@
       </c>
       <c r="C299" s="5"/>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>43739</v>
       </c>
@@ -16825,7 +16850,7 @@
       </c>
       <c r="C300" s="5"/>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>43770</v>
       </c>
@@ -16834,7 +16859,7 @@
       </c>
       <c r="C301" s="5"/>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>43800</v>
       </c>
@@ -16843,7 +16868,7 @@
       </c>
       <c r="C302" s="5"/>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>43831</v>
       </c>
@@ -16852,7 +16877,7 @@
       </c>
       <c r="C303" s="5"/>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>43862</v>
       </c>
@@ -16861,7 +16886,7 @@
       </c>
       <c r="C304" s="5"/>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>43891</v>
       </c>
@@ -16870,7 +16895,7 @@
       </c>
       <c r="C305" s="5"/>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>43922</v>
       </c>
@@ -16879,7 +16904,7 @@
       </c>
       <c r="C306" s="5"/>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>43952</v>
       </c>
@@ -16888,7 +16913,7 @@
       </c>
       <c r="C307" s="5"/>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>43983</v>
       </c>
@@ -16897,7 +16922,7 @@
       </c>
       <c r="C308" s="5"/>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>44013</v>
       </c>
@@ -16906,7 +16931,7 @@
       </c>
       <c r="C309" s="5"/>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>44044</v>
       </c>
@@ -16915,7 +16940,7 @@
       </c>
       <c r="C310" s="5"/>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>44075</v>
       </c>
@@ -16924,7 +16949,7 @@
       </c>
       <c r="C311" s="5"/>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>44105</v>
       </c>
@@ -16933,7 +16958,7 @@
       </c>
       <c r="C312" s="5"/>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>44136</v>
       </c>
@@ -16942,7 +16967,7 @@
       </c>
       <c r="C313" s="5"/>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>44166</v>
       </c>
@@ -16951,7 +16976,7 @@
       </c>
       <c r="C314" s="5"/>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>44197</v>
       </c>
@@ -16960,7 +16985,7 @@
       </c>
       <c r="C315" s="5"/>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>44228</v>
       </c>
@@ -16969,7 +16994,7 @@
       </c>
       <c r="C316" s="5"/>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>44256</v>
       </c>
@@ -16978,7 +17003,7 @@
       </c>
       <c r="C317" s="5"/>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>44287</v>
       </c>
@@ -16987,7 +17012,7 @@
       </c>
       <c r="C318" s="5"/>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>44317</v>
       </c>
@@ -16996,7 +17021,7 @@
       </c>
       <c r="C319" s="5"/>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>44348</v>
       </c>
@@ -17005,7 +17030,7 @@
       </c>
       <c r="C320" s="5"/>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>44378</v>
       </c>
@@ -17014,7 +17039,7 @@
       </c>
       <c r="C321" s="5"/>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>44409</v>
       </c>
@@ -17023,7 +17048,7 @@
       </c>
       <c r="C322" s="5"/>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>44440</v>
       </c>
@@ -17032,7 +17057,7 @@
       </c>
       <c r="C323" s="5"/>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>44470</v>
       </c>
@@ -17041,7 +17066,7 @@
       </c>
       <c r="C324" s="5"/>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>44501</v>
       </c>
@@ -17050,7 +17075,7 @@
       </c>
       <c r="C325" s="5"/>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
         <v>44531</v>
       </c>
@@ -17059,7 +17084,7 @@
       </c>
       <c r="C326" s="5"/>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
         <v>44562</v>
       </c>
@@ -17068,7 +17093,7 @@
       </c>
       <c r="C327" s="5"/>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
         <v>44593</v>
       </c>
@@ -17077,7 +17102,7 @@
       </c>
       <c r="C328" s="5"/>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
         <v>44621</v>
       </c>
@@ -17086,7 +17111,7 @@
       </c>
       <c r="C329" s="5"/>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>44652</v>
       </c>
@@ -17095,7 +17120,7 @@
       </c>
       <c r="C330" s="5"/>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>44682</v>
       </c>
@@ -17104,7 +17129,7 @@
       </c>
       <c r="C331" s="5"/>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
         <v>44713</v>
       </c>
@@ -17113,7 +17138,7 @@
       </c>
       <c r="C332" s="5"/>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
         <v>44743</v>
       </c>
@@ -17122,7 +17147,7 @@
       </c>
       <c r="C333" s="5"/>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
         <v>44774</v>
       </c>
@@ -17131,7 +17156,7 @@
       </c>
       <c r="C334" s="5"/>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
         <v>44805</v>
       </c>
@@ -17140,7 +17165,7 @@
       </c>
       <c r="C335" s="5"/>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
         <v>44835</v>
       </c>
@@ -17149,7 +17174,7 @@
       </c>
       <c r="C336" s="5"/>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>44866</v>
       </c>
@@ -17158,7 +17183,7 @@
       </c>
       <c r="C337" s="5"/>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>44896</v>
       </c>
@@ -17167,7 +17192,7 @@
       </c>
       <c r="C338" s="5"/>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>44927</v>
       </c>
@@ -17176,7 +17201,7 @@
       </c>
       <c r="C339" s="5"/>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>44958</v>
       </c>
@@ -17185,7 +17210,7 @@
       </c>
       <c r="C340" s="5"/>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>44986</v>
       </c>
@@ -17194,7 +17219,7 @@
       </c>
       <c r="C341" s="5"/>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>45017</v>
       </c>
@@ -17203,7 +17228,7 @@
       </c>
       <c r="C342" s="5"/>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
         <v>45047</v>
       </c>
@@ -17212,7 +17237,7 @@
       </c>
       <c r="C343" s="5"/>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
         <v>45078</v>
       </c>
@@ -17221,7 +17246,7 @@
       </c>
       <c r="C344" s="5"/>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
         <v>45108</v>
       </c>
@@ -17230,7 +17255,7 @@
       </c>
       <c r="C345" s="5"/>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
         <v>45139</v>
       </c>
@@ -17239,7 +17264,7 @@
       </c>
       <c r="C346" s="5"/>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
         <v>45170</v>
       </c>
@@ -17248,7 +17273,7 @@
       </c>
       <c r="C347" s="5"/>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>45200</v>
       </c>
@@ -17257,7 +17282,7 @@
       </c>
       <c r="C348" s="5"/>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
         <v>45231</v>
       </c>
@@ -17266,7 +17291,7 @@
       </c>
       <c r="C349" s="5"/>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
         <v>45261</v>
       </c>
@@ -17275,7 +17300,7 @@
       </c>
       <c r="C350" s="5"/>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
         <v>45292</v>
       </c>
@@ -17283,7 +17308,7 @@
         <v>8.9115758120277305E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
         <v>45323</v>
       </c>
@@ -17292,7 +17317,7 @@
       </c>
       <c r="C352" s="5"/>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
         <v>45352</v>
       </c>
@@ -17301,7 +17326,7 @@
       </c>
       <c r="C353" s="5"/>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
         <v>45383</v>
       </c>
@@ -17310,7 +17335,7 @@
       </c>
       <c r="C354" s="5"/>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
         <v>45413</v>
       </c>
@@ -17319,7 +17344,7 @@
       </c>
       <c r="C355" s="5"/>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
         <v>45444</v>
       </c>
@@ -17327,7 +17352,7 @@
         <v>9.9626160666037494E-2</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
         <v>45474</v>
       </c>
@@ -17335,7 +17360,7 @@
         <v>9.8254086785083294E-2</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
         <v>45505</v>
       </c>
@@ -17343,7 +17368,7 @@
         <v>9.9822265355109505E-2</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
         <v>45536</v>
       </c>
@@ -17351,7 +17376,7 @@
         <v>8.7638597939404303E-2</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
         <v>45566</v>
       </c>
@@ -17360,7 +17385,7 @@
       </c>
       <c r="C360" s="5"/>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
         <v>45597</v>
       </c>
@@ -17368,7 +17393,7 @@
         <v>9.6474622830165099E-2</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
         <v>45627</v>
       </c>
@@ -17376,7 +17401,7 @@
         <v>9.7281775111367597E-2</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="2">
         <v>45658</v>
       </c>
@@ -17384,12 +17409,28 @@
         <v>9.1050724636227903E-2</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
         <v>45689</v>
       </c>
       <c r="B364" s="3">
         <v>9.5637638893887003E-2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="2">
+        <v>45717</v>
+      </c>
+      <c r="B365" s="3">
+        <v>8.6577396608569099E-2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="2">
+        <v>45748</v>
+      </c>
+      <c r="B366" s="3">
+        <v>8.3840484764512405E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Serie de Equity Risk Premium.xlsx
+++ b/Database/Serie de Equity Risk Premium.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bteba\Documents\GitHub\ERP\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD1A781-3B62-4639-9120-85648B2A5F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB579C3D-928A-4D64-8842-3051C2A79C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -18,20 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$2:$B$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -63,12 +50,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1343,6 +1332,9 @@
                 <c:pt idx="363">
                   <c:v>45748</c:v>
                 </c:pt>
+                <c:pt idx="364">
+                  <c:v>45778</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2443,6 +2435,9 @@
                 </c:pt>
                 <c:pt idx="363">
                   <c:v>8.3840484764512405E-2</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>8.2249927570815506E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3524,10 +3519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:RX366"/>
+  <dimension ref="A1:RX367"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17433,6 +17428,14 @@
         <v>8.3840484764512405E-2</v>
       </c>
     </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="2">
+        <v>45778</v>
+      </c>
+      <c r="B367" s="3">
+        <v>8.2249927570815506E-2</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:B2" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B348">

--- a/Database/Serie de Equity Risk Premium.xlsx
+++ b/Database/Serie de Equity Risk Premium.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bteba\Documents\GitHub\ERP\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB579C3D-928A-4D64-8842-3051C2A79C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E1FB44-058E-47C6-AB1B-B4D2A8009182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="-14730" windowWidth="21600" windowHeight="10980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$2:$B$2</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1335,6 +1348,9 @@
                 <c:pt idx="364">
                   <c:v>45778</c:v>
                 </c:pt>
+                <c:pt idx="365">
+                  <c:v>45809</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2438,6 +2454,9 @@
                 </c:pt>
                 <c:pt idx="364">
                   <c:v>8.2249927570815506E-2</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>8.12906259190323E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3519,10 +3538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:RX367"/>
+  <dimension ref="A1:RX368"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A349" workbookViewId="0">
+      <selection activeCell="A367" sqref="A367:B368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17436,6 +17455,14 @@
         <v>8.2249927570815506E-2</v>
       </c>
     </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="2">
+        <v>45809</v>
+      </c>
+      <c r="B368" s="3">
+        <v>8.12906259190323E-2</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:B2" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B348">
